--- a/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -491,26 +491,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.154|x2: 0.058|x3: 0.000|x4: 0.207|x5: 0.000|x6: 0.000|x7: 0.108|x8: 0.118|x9: 0.144|x10: 0.148|x11: 0.067|x12: 0.063|x13: 0.067|x14: 0.176|x15: 0.118|x16: 0.061|x17: 0.000</t>
+          <t>x1: 0.104|x2: 0.106|x3: 0.000|x4: 0.249|x5: 0.000|x6: 0.000|x7: 0.083|x8: 0.000|x9: 0.100|x10: 0.108|x11: 0.118|x12: 0.060|x13: 0.108|x14: 0.197|x15: 0.000|x16: 0.087|x17: 0.000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.21]</t>
+          <t>[0.00, 0.08, 0.25]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[4, 14, 1, 10, 9, 15, 8, 7]</t>
+          <t>[4, 14, 11, 10, 13, 2, 1]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.2070617259397336, 0.17638171776084782, 0.1543814503899619, 0.1476865569148174, 0.1435926833308701, 0.1179115151985739, 0.117538064502024, 0.10841506190152655]</t>
+          <t>[0.24879594861927803, 0.19688920363238507, 0.11783606772097208, 0.10804924222827865, 0.10773978732557705, 0.10553656991820912, 0.10350916991108036]</t>
         </is>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="b">
         <v>1</v>
@@ -532,22 +532,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.109|x2: 0.109|x3: 0.000|x4: 0.130|x5: 0.000|x6: 0.000|x7: 0.132|x8: 0.059|x9: 0.000|x10: 0.151|x11: 0.000|x12: 0.099|x13: 0.068|x14: 0.119|x15: 0.078|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.098|x2: 0.114|x3: 0.000|x4: 0.080|x5: 0.000|x6: 0.000|x7: 0.102|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.099|x13: 0.124|x14: 0.132|x15: 0.072|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.15]</t>
+          <t>[0.00, 0.05, 0.13]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[10, 7, 4, 14, 2, 1]</t>
+          <t>[14, 13, 2, 7]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.1513183737465827, 0.13175188869644483, 0.12983557731728604, 0.11934425710209567, 0.10930446881482336, 0.10919251098109739]</t>
+          <t>[0.13184240046207155, 0.12393747499142828, 0.11369124261358145, 0.1017117625003701]</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -573,26 +573,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.293|x2: 0.000|x3: 0.000|x4: 0.274|x5: 0.100|x6: 0.000|x7: 0.169|x8: 0.089|x9: 0.148|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.134|x14: 0.052|x15: 0.000|x16: 0.181|x17: 0.000</t>
+          <t>x1: 0.213|x2: 0.000|x3: 0.090|x4: 0.269|x5: 0.066|x6: 0.000|x7: 0.186|x8: 0.152|x9: 0.134|x10: 0.000|x11: 0.070|x12: 0.000|x13: 0.163|x14: 0.096|x15: 0.000|x16: 0.198|x17: 0.000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.29]</t>
+          <t>[0.00, 0.10, 0.27]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[1, 4, 16, 7, 9, 13]</t>
+          <t>[4, 1, 16, 7, 13, 8, 9]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.2926306277664456, 0.2735825822660815, 0.18136155649659036, 0.16878934096924963, 0.14807647816858185, 0.13379431507435627]</t>
+          <t>[0.2694635369383299, 0.2133186928147752, 0.19798648966738183, 0.18559743824585886, 0.1628744452545066, 0.15208279852357137, 0.13444997132520092]</t>
         </is>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -614,29 +614,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.076|x3: 0.000|x4: 0.000|x5: 0.056|x6: 0.093|x7: 0.000|x8: 0.000|x9: 0.085|x10: 0.000|x11: 0.000|x12: 0.196|x13: 0.118|x14: 0.122|x15: 0.071|x16: 0.070|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.106|x3: 0.000|x4: 0.000|x5: 0.101|x6: 0.105|x7: 0.000|x8: 0.000|x9: 0.134|x10: 0.000|x11: 0.000|x12: 0.225|x13: 0.134|x14: 0.106|x15: 0.129|x16: 0.093|x17: 0.000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.20]</t>
+          <t>[0.00, 0.07, 0.22]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[12, 14, 13]</t>
+          <t>[12, 9, 13, 15, 2, 14, 6, 5]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.19642230962688645, 0.12152843669335638, 0.11751295423824186]</t>
+          <t>[0.22454601929890786, 0.13399131264737332, 0.13367608965038646, 0.1293257427746214, 0.10611868210183421, 0.10611027091463282, 0.10518418685088092, 0.10075173825331428]</t>
         </is>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -655,22 +655,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.160|x2: 0.000|x3: 0.138|x4: 0.391|x5: 0.208|x6: 0.000|x7: 0.279|x8: 0.000|x9: 0.234|x10: 0.123|x11: 0.406|x12: 0.216|x13: 0.000|x14: 0.182|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.095|x2: 0.000|x3: 0.104|x4: 0.338|x5: 0.215|x6: 0.000|x7: 0.317|x8: 0.000|x9: 0.154|x10: 0.181|x11: 0.371|x12: 0.302|x13: 0.000|x14: 0.157|x15: 0.000|x16: 0.136|x17: 0.000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.41]</t>
+          <t>[0.00, 0.14, 0.37]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[11, 4, 7, 9, 12, 5, 14, 1, 3, 10]</t>
+          <t>[11, 4, 7, 12, 5, 10, 14, 9, 16, 3]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.4058381219739679, 0.3910269645475362, 0.27905420571139206, 0.2337381795993118, 0.21611300320393734, 0.2079623734658729, 0.18157653249357014, 0.15950443896746386, 0.13824503996930496, 0.12265681318289101]</t>
+          <t>[0.37054057545315894, 0.33818912712765753, 0.31688730639439955, 0.3018226839703786, 0.21454844899242462, 0.18066671032365697, 0.15716663835652928, 0.15351005087700736, 0.13573835026395012, 0.10398202025898799]</t>
         </is>
       </c>
       <c r="H6" t="b">
@@ -696,22 +696,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.158|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.074|x8: 0.000|x9: 0.154|x10: 0.000|x11: 0.000|x12: 0.042|x13: 0.000|x14: 0.171|x15: 0.000|x16: 0.077|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.118|x3: 0.000|x4: 0.115|x5: 0.000|x6: 0.000|x7: 0.056|x8: 0.000|x9: 0.140|x10: 0.000|x11: 0.065|x12: 0.091|x13: 0.000|x14: 0.155|x15: 0.059|x16: 0.046|x17: 0.000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.17]</t>
+          <t>[0.00, 0.05, 0.15]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[14, 2, 9]</t>
+          <t>[14, 9, 2, 4]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.17055520259016513, 0.1582519778037921, 0.15395581078146944]</t>
+          <t>[0.154891217999967, 0.14010137267139414, 0.11795371031863505, 0.11467117009735905]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -737,22 +737,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.239|x2: 0.000|x3: 0.000|x4: 0.216|x5: 0.065|x6: 0.000|x7: 0.000|x8: 0.183|x9: 0.089|x10: 0.000|x11: 0.000|x12: 0.127|x13: 0.253|x14: 0.189|x15: 0.059|x16: 0.146|x17: 0.000</t>
+          <t>x1: 0.225|x2: 0.000|x3: 0.000|x4: 0.259|x5: 0.000|x6: 0.120|x7: 0.000|x8: 0.189|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.206|x13: 0.277|x14: 0.168|x15: 0.109|x16: 0.241|x17: 0.000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.25]</t>
+          <t>[0.00, 0.11, 0.28]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[13, 1, 4, 14, 8, 16, 12]</t>
+          <t>[13, 4, 16, 1, 12, 8, 14, 6, 15]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.25278477365610347, 0.23904960658204025, 0.2159281221423822, 0.18942717875627577, 0.1829903422364313, 0.14605358145403158, 0.12698012293334165]</t>
+          <t>[0.2769392146847935, 0.25873160740886797, 0.24074567526001303, 0.22528576105255974, 0.20643318484515866, 0.1889103485522404, 0.16836719203176745, 0.12013999900732805, 0.10929306148163098]</t>
         </is>
       </c>
       <c r="H8" t="b">
@@ -778,22 +778,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.166|x2: 0.000|x3: 0.000|x4: 0.103|x5: 0.000|x6: 0.111|x7: 0.103|x8: 0.000|x9: 0.206|x10: 0.000|x11: 0.131|x12: 0.225|x13: 0.316|x14: 0.203|x15: 0.140|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.159|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.138|x6: 0.197|x7: 0.097|x8: 0.000|x9: 0.245|x10: 0.000|x11: 0.181|x12: 0.207|x13: 0.347|x14: 0.186|x15: 0.232|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.32]</t>
+          <t>[0.00, 0.12, 0.35]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[13, 12, 9, 14, 1, 15, 11, 6, 4, 7]</t>
+          <t>[13, 9, 15, 12, 6, 14, 11, 1, 5]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.3164668366143387, 0.22455637081458202, 0.20624967920855883, 0.20341525266180044, 0.16612180351829883, 0.13971283748415558, 0.13059410588641152, 0.11078264533563169, 0.10281179338186348, 0.10257879399191677]</t>
+          <t>[0.3465184021246204, 0.2447625573148878, 0.2321701978315901, 0.20686645910862578, 0.19737902885151137, 0.18643371313192916, 0.18057891607898938, 0.15942965412046478, 0.13834096757062028]</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -819,22 +819,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.146|x3: 0.065|x4: 0.065|x5: 0.133|x6: 0.000|x7: 0.128|x8: 0.000|x9: 0.000|x10: 0.088|x11: 0.060|x12: 0.134|x13: 0.000|x14: 0.062|x15: 0.165|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.158|x3: 0.090|x4: 0.076|x5: 0.198|x6: 0.095|x7: 0.135|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.060|x12: 0.132|x13: 0.000|x14: 0.121|x15: 0.171|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.07, 0.20]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[15, 2, 12, 5, 7]</t>
+          <t>[5, 15, 2, 7, 12, 14]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.16521236386375282, 0.1460437700075197, 0.134144330528629, 0.13335980674154235, 0.12764511669747095]</t>
+          <t>[0.19800096920005186, 0.1711807552586298, 0.1582460327380332, 0.13514934563409578, 0.13212680457966783, 0.1208893719103388]</t>
         </is>
       </c>
       <c r="H10" t="b">
@@ -860,22 +860,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.141|x3: 0.000|x4: 0.179|x5: 0.163|x6: 0.071|x7: 0.212|x8: 0.000|x9: 0.197|x10: 0.142|x11: 0.091|x12: 0.141|x13: 0.000|x14: 0.185|x15: 0.155|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.185|x3: 0.000|x4: 0.141|x5: 0.075|x6: 0.092|x7: 0.225|x8: 0.000|x9: 0.158|x10: 0.114|x11: 0.059|x12: 0.132|x13: 0.087|x14: 0.151|x15: 0.137|x16: 0.090|x17: 0.000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.21]</t>
+          <t>[0.00, 0.10, 0.22]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[7, 9, 14, 4, 5, 15, 10, 12, 2, 16]</t>
+          <t>[7, 2, 9, 14, 4, 15, 12, 10]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.2124362839915608, 0.19727422022343732, 0.18534841990419518, 0.17868063607975918, 0.16343241288291943, 0.15465341507871005, 0.141922232292899, 0.14132059457776536, 0.14131864816802314, 0.10224624653577641]</t>
+          <t>[0.2246496370913114, 0.18529083015565337, 0.1582993205726028, 0.15061452209996953, 0.14114320504035463, 0.13658601443050022, 0.13198792449966984, 0.11417921864453487]</t>
         </is>
       </c>
       <c r="H11" t="b">
@@ -901,26 +901,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.110|x2: 0.084|x3: 0.066|x4: 0.161|x5: 0.135|x6: 0.000|x7: 0.040|x8: 0.185|x9: 0.119|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.092|x15: 0.047|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.198|x2: 0.100|x3: 0.157|x4: 0.171|x5: 0.154|x6: 0.000|x7: 0.082|x8: 0.255|x9: 0.206|x10: 0.052|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.130|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.09, 0.26]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[8, 4, 5, 9, 1]</t>
+          <t>[8, 9, 1, 4, 3, 5, 14, 2]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.18497525863553857, 0.16141690751195192, 0.13516184662601985, 0.11905375037312209, 0.10953838340923716]</t>
+          <t>[0.25545857567579483, 0.20551142761508498, 0.19802490350723795, 0.1707501633011571, 0.15690535800655525, 0.15351776782559245, 0.13027913935563942, 0.10025440084636959]</t>
         </is>
       </c>
       <c r="H12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
         <v>1</v>
@@ -942,22 +942,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.233|x5: 0.000|x6: 0.000|x7: 0.216|x8: 0.083|x9: 0.182|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.108|x15: 0.081|x16: 0.048|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.241|x5: 0.081|x6: 0.000|x7: 0.215|x8: 0.061|x9: 0.160|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.165|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.05, 0.24]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[4, 7, 9, 14]</t>
+          <t>[4, 7, 14, 9]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.23303384206793074, 0.21622986502815358, 0.18234243081964702, 0.10792004824662713]</t>
+          <t>[0.2406696984819546, 0.21485909256614746, 0.1653071333440892, 0.15972287867444726]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -983,22 +983,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.090|x2: 0.097|x3: 0.122|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.216|x8: 0.000|x9: 0.135|x10: 0.127|x11: 0.000|x12: 0.168|x13: 0.129|x14: 0.133|x15: 0.080|x16: 0.050|x17: 0.000</t>
+          <t>x1: 0.064|x2: 0.164|x3: 0.106|x4: 0.070|x5: 0.000|x6: 0.000|x7: 0.205|x8: 0.000|x9: 0.090|x10: 0.138|x11: 0.000|x12: 0.249|x13: 0.130|x14: 0.163|x15: 0.000|x16: 0.112|x17: 0.000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.22]</t>
+          <t>[0.00, 0.09, 0.25]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[7, 12, 9, 14, 13, 10, 3]</t>
+          <t>[12, 7, 2, 14, 10, 13, 16, 3]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.2157183017190388, 0.16803807797592446, 0.1346259671986374, 0.13251564035581218, 0.1289546979754304, 0.12697075682408457, 0.12169264017342311]</t>
+          <t>[0.24924837274096306, 0.20474633744222556, 0.163692369580141, 0.1626729208099835, 0.13755588923976905, 0.1301495625879712, 0.11210212196033306, 0.10571425617897792]</t>
         </is>
       </c>
       <c r="H14" t="b">
@@ -1024,22 +1024,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.137|x3: 0.261|x4: 0.000|x5: 0.049|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.119|x10: 0.098|x11: 0.101|x12: 0.055|x13: 0.153|x14: 0.102|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.095|x3: 0.319|x4: 0.000|x5: 0.078|x6: 0.088|x7: 0.000|x8: 0.000|x9: 0.110|x10: 0.091|x11: 0.133|x12: 0.122|x13: 0.144|x14: 0.158|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.26]</t>
+          <t>[0.00, 0.08, 0.32]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[3, 13, 2, 9, 14, 11]</t>
+          <t>[3, 14, 13, 11, 12, 9]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.2611295191271581, 0.15313423833497822, 0.13714264017880384, 0.11915154634851384, 0.10174750162022993, 0.10060624503658581]</t>
+          <t>[0.31859096803537473, 0.1584793187439287, 0.14425038806800572, 0.1334016793607717, 0.12175420592512248, 0.109995931306975]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1065,22 +1065,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.110|x5: 0.164|x6: 0.000|x7: 0.081|x8: 0.000|x9: 0.115|x10: 0.000|x11: 0.000|x12: 0.086|x13: 0.000|x14: 0.177|x15: 0.082|x16: 0.123|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.066|x4: 0.117|x5: 0.128|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.075|x10: 0.000|x11: 0.000|x12: 0.085|x13: 0.000|x14: 0.155|x15: 0.066|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.05, 0.16]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[14, 5, 16, 9, 4]</t>
+          <t>[14, 5, 4]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.17733942580733023, 0.16391865842104322, 0.122879021817226, 0.11504207384670216, 0.10966654346398758]</t>
+          <t>[0.15513941847172893, 0.12841728983194345, 0.11716731794952445]</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.135|x2: 0.000|x3: 0.000|x4: 0.187|x5: 0.000|x6: 0.000|x7: 0.145|x8: 0.140|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.068|x13: 0.149|x14: 0.291|x15: 0.000|x16: 0.119|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.058|x3: 0.000|x4: 0.176|x5: 0.000|x6: 0.000|x7: 0.139|x8: 0.092|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.099|x13: 0.115|x14: 0.301|x15: 0.067|x16: 0.118|x17: 0.000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.29]</t>
+          <t>[0.00, 0.07, 0.30]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[14, 4, 13, 7, 8, 1, 16]</t>
+          <t>[14, 4, 7, 16, 13]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0.290590080846264, 0.18742453524036493, 0.14939376591688347, 0.1454515076739683, 0.13999119625081816, 0.13477407729693747, 0.11889185525020365]</t>
+          <t>[0.3008467778499739, 0.17616022573735401, 0.13937266063291792, 0.11761105470193374, 0.11470057836813585]</t>
         </is>
       </c>
       <c r="H17" t="b">
@@ -1147,22 +1147,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.065|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.091|x7: 0.129|x8: 0.000|x9: 0.075|x10: 0.000|x11: 0.000|x12: 0.137|x13: 0.286|x14: 0.298|x15: 0.000|x16: 0.111|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.088|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.115|x7: 0.138|x8: 0.000|x9: 0.074|x10: 0.048|x11: 0.000|x12: 0.104|x13: 0.263|x14: 0.285|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.30]</t>
+          <t>[0.00, 0.07, 0.29]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[14, 13, 12, 7, 16]</t>
+          <t>[14, 13, 7, 6, 12]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0.29838415278619895, 0.2858361563716863, 0.13730339780316075, 0.1285602129557261, 0.11070196945696174]</t>
+          <t>[0.2854494869786359, 0.2625669246821265, 0.13829950012809308, 0.11472672304333884, 0.10354520998987093]</t>
         </is>
       </c>
       <c r="H18" t="b">
@@ -1188,29 +1188,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.000|x3: 0.108|x4: 0.112|x5: 0.100|x6: 0.000|x7: 0.174|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.041|x13: 0.238|x14: 0.062|x15: 0.078|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.133|x2: 0.000|x3: 0.081|x4: 0.248|x5: 0.130|x6: 0.066|x7: 0.185|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.036|x13: 0.283|x14: 0.079|x15: 0.000|x16: 0.060|x17: 0.000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.24]</t>
+          <t>[0.00, 0.08, 0.28]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[13, 7, 4, 3]</t>
+          <t>[13, 4, 7, 1, 5]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.23764620071230402, 0.1744111501676402, 0.11227213221452385, 0.10800669002558588]</t>
+          <t>[0.2828895601511143, 0.24752021294341425, 0.18485711639588565, 0.13317106881199517, 0.12982732575845315]</t>
         </is>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1229,22 +1229,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.050|x2: 0.000|x3: 0.265|x4: 0.126|x5: 0.071|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.049|x11: 0.000|x12: 0.000|x13: 0.315|x14: 0.307|x15: 0.125|x16: 0.268|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.061|x3: 0.235|x4: 0.160|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.094|x11: 0.000|x12: 0.131|x13: 0.253|x14: 0.302|x15: 0.139|x16: 0.283|x17: 0.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.31]</t>
+          <t>[0.00, 0.11, 0.30]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[13, 14, 16, 3, 4, 15]</t>
+          <t>[14, 16, 13, 3, 4, 15, 12, 1]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[0.3146874502577051, 0.30652289886107664, 0.26792288327009917, 0.2650787391102579, 0.12628951927453969, 0.12544255351144804]</t>
+          <t>[0.3018114835202948, 0.2830056315913664, 0.2528003025967981, 0.23483186051564434, 0.1598785108038049, 0.13865750243239544, 0.13120709215138737, 0.10038672121444339]</t>
         </is>
       </c>
       <c r="H20" t="b">
@@ -1270,22 +1270,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.096|x3: 0.000|x4: 0.224|x5: 0.140|x6: 0.054|x7: 0.076|x8: 0.153|x9: 0.105|x10: 0.000|x11: 0.000|x12: 0.057|x13: 0.056|x14: 0.227|x15: 0.071|x16: 0.217|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.211|x3: 0.000|x4: 0.214|x5: 0.134|x6: 0.000|x7: 0.086|x8: 0.112|x9: 0.103|x10: 0.000|x11: 0.000|x12: 0.084|x13: 0.091|x14: 0.235|x15: 0.000|x16: 0.237|x17: 0.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.23]</t>
+          <t>[0.00, 0.09, 0.24]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[14, 4, 16, 8, 5, 9]</t>
+          <t>[16, 14, 4, 2, 5, 8, 9]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.22739000071987248, 0.22445434869066447, 0.21692963480572358, 0.1529558714392463, 0.14030170164695321, 0.10499264543933136]</t>
+          <t>[0.23684492723625256, 0.2352623171492253, 0.21409470716309392, 0.21074986165716697, 0.13396935395276874, 0.11245068780692581, 0.10328234530761843]</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -1311,22 +1311,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.112|x3: 0.000|x4: 0.179|x5: 0.000|x6: 0.000|x7: 0.177|x8: 0.000|x9: 0.239|x10: 0.074|x11: 0.000|x12: 0.061|x13: 0.139|x14: 0.193|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.174|x3: 0.064|x4: 0.134|x5: 0.000|x6: 0.000|x7: 0.139|x8: 0.000|x9: 0.215|x10: 0.152|x11: 0.000|x12: 0.090|x13: 0.164|x14: 0.134|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.24]</t>
+          <t>[0.00, 0.07, 0.21]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[9, 14, 4, 7, 13, 2]</t>
+          <t>[9, 2, 13, 10, 7, 4, 14]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.23851946169246538, 0.19284058527092662, 0.178544339928608, 0.17692630717094565, 0.13856300855163264, 0.11228180312519116]</t>
+          <t>[0.21453095372384556, 0.17352380836207032, 0.16442638372585494, 0.15227436248369125, 0.13916613343048972, 0.13420935179253007, 0.13380309287400782]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1352,22 +1352,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.220|x3: 0.129|x4: 0.000|x5: 0.000|x6: 0.182|x7: 0.000|x8: 0.189|x9: 0.259|x10: 0.150|x11: 0.233|x12: 0.056|x13: 0.000|x14: 0.102|x15: 0.000|x16: 0.146|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.220|x3: 0.178|x4: 0.096|x5: 0.000|x6: 0.313|x7: 0.000|x8: 0.227|x9: 0.279|x10: 0.167|x11: 0.276|x12: 0.000|x13: 0.000|x14: 0.065|x15: 0.000|x16: 0.145|x17: 0.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.26]</t>
+          <t>[0.00, 0.12, 0.31]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[9, 11, 2, 8, 6, 10, 16, 3, 14]</t>
+          <t>[6, 9, 11, 8, 2, 3, 10, 16]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.25878674685987213, 0.2327507997721316, 0.22012861859292115, 0.18921262881040896, 0.1822371857031492, 0.150446216137326, 0.14588926329078514, 0.1294407373279403, 0.10168775066054724]</t>
+          <t>[0.313196367039086, 0.27920090633835787, 0.27628603011613784, 0.22661189523279637, 0.21968133508295404, 0.17849050386054835, 0.16700849446804775, 0.14524832113769254]</t>
         </is>
       </c>
       <c r="H23" t="b">
@@ -1393,22 +1393,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.147|x3: 0.184|x4: 0.125|x5: 0.000|x6: 0.175|x7: 0.254|x8: 0.065|x9: 0.222|x10: 0.000|x11: 0.181|x12: 0.199|x13: 0.077|x14: 0.111|x15: 0.000|x16: 0.051|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.122|x3: 0.200|x4: 0.128|x5: 0.000|x6: 0.244|x7: 0.322|x8: 0.100|x9: 0.223|x10: 0.000|x11: 0.210|x12: 0.388|x13: 0.106|x14: 0.140|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.25]</t>
+          <t>[0.00, 0.13, 0.39]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[7, 9, 12, 3, 11, 6, 2, 4, 14]</t>
+          <t>[12, 7, 6, 9, 11, 3, 14, 4, 2, 13]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[0.2541887534306368, 0.22229934551356198, 0.19923699940983045, 0.18352702265568915, 0.18133609545350488, 0.17499974528422074, 0.14656518788500997, 0.12498777199177974, 0.11142370846286558]</t>
+          <t>[0.3875936901878349, 0.32159592067623255, 0.2435971157740895, 0.22342969068960472, 0.21040014410185995, 0.200134353971898, 0.14037485624671264, 0.12773383497452342, 0.12216738792477641, 0.10570976343486775]</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -1434,29 +1434,29 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.141|x2: 0.123|x3: 0.000|x4: 0.055|x5: 0.000|x6: 0.000|x7: 0.349|x8: 0.076|x9: 0.261|x10: 0.000|x11: 0.100|x12: 0.193|x13: 0.067|x14: 0.187|x15: 0.137|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.263|x2: 0.138|x3: 0.000|x4: 0.099|x5: 0.000|x6: 0.000|x7: 0.376|x8: 0.177|x9: 0.228|x10: 0.000|x11: 0.071|x12: 0.262|x13: 0.135|x14: 0.242|x15: 0.164|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.35]</t>
+          <t>[0.00, 0.13, 0.38]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[7, 9, 12, 14, 1, 15, 2, 11]</t>
+          <t>[7, 1, 12, 14, 9, 8, 15, 2, 13]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.34938722891906815, 0.2606166578603783, 0.19342208371377598, 0.18657792659530403, 0.1413594773092197, 0.13734709048090565, 0.12311063823010548, 0.10037541112358137]</t>
+          <t>[0.3764612816982233, 0.2625345209010353, 0.26200237651242747, 0.24221709458881044, 0.2278840163551133, 0.17676910932984763, 0.1635845156914864, 0.1375500895169411, 0.13494746982547665]</t>
         </is>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
       <c r="I25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1475,22 +1475,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.203|x3: 0.266|x4: 0.000|x5: 0.000|x6: 0.131|x7: 0.110|x8: 0.000|x9: 0.156|x10: 0.121|x11: 0.126|x12: 0.203|x13: 0.207|x14: 0.102|x15: 0.000|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.180|x3: 0.327|x4: 0.000|x5: 0.000|x6: 0.072|x7: 0.128|x8: 0.000|x9: 0.126|x10: 0.104|x11: 0.204|x12: 0.212|x13: 0.177|x14: 0.123|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.27]</t>
+          <t>[0.00, 0.10, 0.33]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[3, 13, 12, 2, 9, 6, 11, 10, 7, 14]</t>
+          <t>[3, 12, 11, 2, 13, 7, 9, 14, 10]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.26627475625449304, 0.2067052803701317, 0.20327906631615328, 0.20268616928719158, 0.15586233813989508, 0.13094417770278882, 0.1259169228191988, 0.12123189683575157, 0.11002010316508601, 0.10246783818730339]</t>
+          <t>[0.32743789458402267, 0.21245488116645583, 0.20418406438083686, 0.18036606316781137, 0.1774911670402706, 0.12796272695056446, 0.1264295127283093, 0.12306934448133876, 0.1042986677188648]</t>
         </is>
       </c>
       <c r="H26" t="b">
@@ -1516,22 +1516,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.203|x4: 0.059|x5: 0.114|x6: 0.030|x7: 0.073|x8: 0.000|x9: 0.058|x10: 0.000|x11: 0.062|x12: 0.078|x13: 0.049|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.371|x4: 0.135|x5: 0.204|x6: 0.111|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.108|x12: 0.081|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.20]</t>
+          <t>[0.00, 0.06, 0.37]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[3, 5]</t>
+          <t>[3, 5, 4, 6, 11]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[0.20319249313435853, 0.11435153794515407]</t>
+          <t>[0.3712083332818656, 0.20406277041530146, 0.13476555835361811, 0.11117625289482184, 0.10816155497452973]</t>
         </is>
       </c>
       <c r="H27" t="b">
@@ -1557,22 +1557,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.177|x2: 0.165|x3: 0.061|x4: 0.218|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.151|x9: 0.163|x10: 0.000|x11: 0.285|x12: 0.128|x13: 0.000|x14: 0.063|x15: 0.054|x16: 0.196|x17: 0.000</t>
+          <t>x1: 0.146|x2: 0.186|x3: 0.099|x4: 0.190|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.159|x9: 0.192|x10: 0.000|x11: 0.310|x12: 0.178|x13: 0.000|x14: 0.059|x15: 0.107|x16: 0.273|x17: 0.000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.28]</t>
+          <t>[0.00, 0.11, 0.31]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[11, 4, 16, 1, 2, 9, 8, 12]</t>
+          <t>[11, 16, 9, 4, 2, 12, 8, 1, 15]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.28482458684877043, 0.21844286490537246, 0.19625806704075022, 0.17724160050519644, 0.16535728745314798, 0.16347623272622613, 0.15075416073635076, 0.12775695580337512]</t>
+          <t>[0.31033589506171844, 0.273471492339169, 0.19248584302104785, 0.1903627606901225, 0.18638205820992543, 0.1777834111471446, 0.15861994008804442, 0.14644379091310433, 0.10711899739283087]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1598,22 +1598,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.053|x5: 0.000|x6: 0.000|x7: 0.122|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.000|x12: 0.225|x13: 0.155|x14: 0.177|x15: 0.188|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.050|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.271|x13: 0.206|x14: 0.261|x15: 0.222|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>[0.00, 0.07, 0.27]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[12, 15, 14, 13, 7]</t>
+          <t>[12, 14, 15, 13]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.2247435960812276, 0.18778969888430144, 0.1774492524679266, 0.15549456550706622, 0.12191946501612719]</t>
+          <t>[0.2712656526544842, 0.2606705343345569, 0.2224541046994496, 0.2058390841754536]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.184|x2: 0.093|x3: 0.192|x4: 0.156|x5: 0.075|x6: 0.208|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.196|x12: 0.105|x13: 0.126|x14: 0.270|x15: 0.073|x16: 0.156|x17: 0.000</t>
+          <t>x1: 0.215|x2: 0.000|x3: 0.166|x4: 0.125|x5: 0.102|x6: 0.172|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.154|x12: 0.142|x13: 0.098|x14: 0.227|x15: 0.077|x16: 0.133|x17: 0.000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.27]</t>
+          <t>[0.00, 0.09, 0.23]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[14, 6, 11, 3, 1, 16, 4, 13, 12]</t>
+          <t>[14, 1, 6, 3, 11, 12, 16, 4, 5]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.2699074613062623, 0.2080776305319202, 0.19646880498163555, 0.19226971457127776, 0.1838206664647833, 0.15600960272186348, 0.1556812930867681, 0.12622888270278415, 0.10491125773876814]</t>
+          <t>[0.22715989594674882, 0.21537957340576458, 0.17166601811612672, 0.16556277195365895, 0.15439822080679855, 0.14151025614595986, 0.1331376404896661, 0.12476354138410459, 0.102103872480305]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1680,22 +1680,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.155|x4: 0.000|x5: 0.155|x6: 0.235|x7: 0.000|x8: 0.000|x9: 0.162|x10: 0.052|x11: 0.158|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.344|x4: 0.000|x5: 0.233|x6: 0.276|x7: 0.000|x8: 0.000|x9: 0.203|x10: 0.202|x11: 0.191|x12: 0.083|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.23]</t>
+          <t>[0.00, 0.09, 0.34]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[6, 9, 11, 5, 3]</t>
+          <t>[3, 6, 5, 9, 10, 11]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.23497112597632303, 0.16223976206007387, 0.15812267187152015, 0.15548096749849036, 0.1551497230045492]</t>
+          <t>[0.34368070367958603, 0.2758626980321053, 0.23343435872490442, 0.20311017246783206, 0.20199706390781796, 0.19106816796173035]</t>
         </is>
       </c>
       <c r="H31" t="b">
@@ -1721,22 +1721,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.116|x2: 0.083|x3: 0.454|x4: 0.148|x5: 0.000|x6: 0.000|x7: 0.109|x8: 0.052|x9: 0.049|x10: 0.000|x11: 0.090|x12: 0.235|x13: 0.000|x14: 0.000|x15: 0.043|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.406|x4: 0.106|x5: 0.000|x6: 0.089|x7: 0.080|x8: 0.038|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.167|x13: 0.000|x14: 0.000|x15: 0.067|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.45]</t>
+          <t>[0.00, 0.06, 0.41]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[3, 12, 4, 1, 7]</t>
+          <t>[3, 12, 4]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.45419512330098105, 0.23487027089727838, 0.1481124206634608, 0.11591570077170649, 0.10884997638020266]</t>
+          <t>[0.40619560421214573, 0.16665160943802748, 0.10579442338174674]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1762,22 +1762,22 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.296|x2: 0.000|x3: 0.061|x4: 0.177|x5: 0.058|x6: 0.000|x7: 0.157|x8: 0.170|x9: 0.000|x10: 0.000|x11: 0.059|x12: 0.047|x13: 0.125|x14: 0.127|x15: 0.000|x16: 0.083|x17: 0.000</t>
+          <t>x1: 0.425|x2: 0.000|x3: 0.048|x4: 0.283|x5: 0.099|x6: 0.000|x7: 0.156|x8: 0.208|x9: 0.000|x10: 0.000|x11: 0.106|x12: 0.122|x13: 0.237|x14: 0.136|x15: 0.000|x16: 0.160|x17: 0.000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.30]</t>
+          <t>[0.00, 0.12, 0.43]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[1, 4, 8, 7, 14, 13]</t>
+          <t>[1, 4, 13, 8, 16, 7, 14, 12, 11]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.29608882228700856, 0.17696396888151802, 0.17038892836370825, 0.15728255604947972, 0.12678179329823397, 0.12488836087159245]</t>
+          <t>[0.42525816481906126, 0.283266186754164, 0.23687377589023553, 0.2082529791176877, 0.15955375158456728, 0.15575256857062256, 0.135928409454824, 0.12241850400428878, 0.10643139379827508]</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.190|x2: 0.000|x3: 0.161|x4: 0.215|x5: 0.153|x6: 0.210|x7: 0.000|x8: 0.000|x9: 0.228|x10: 0.057|x11: 0.072|x12: 0.200|x13: 0.107|x14: 0.095|x15: 0.047|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.061|x2: 0.000|x3: 0.163|x4: 0.164|x5: 0.187|x6: 0.048|x7: 0.000|x8: 0.000|x9: 0.155|x10: 0.000|x11: 0.094|x12: 0.274|x13: 0.098|x14: 0.112|x15: 0.063|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.23]</t>
+          <t>[0.00, 0.08, 0.27]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[9, 4, 6, 12, 1, 3, 5, 13]</t>
+          <t>[12, 5, 4, 3, 9, 14]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.22777481063354826, 0.2146803878635434, 0.2103382402607773, 0.20022052835965123, 0.18979512640042362, 0.16070388426148824, 0.15264974922473495, 0.10735658861193965]</t>
+          <t>[0.2738326665287191, 0.18680012661849146, 0.16379356596015207, 0.16300902238025003, 0.15485792109296695, 0.11192465335401862]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1844,22 +1844,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.137|x3: 0.230|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.153|x8: 0.000|x9: 0.048|x10: 0.163|x11: 0.128|x12: 0.000|x13: 0.000|x14: 0.178|x15: 0.122|x16: 0.131|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.204|x3: 0.273|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.188|x8: 0.147|x9: 0.156|x10: 0.090|x11: 0.216|x12: 0.000|x13: 0.000|x14: 0.189|x15: 0.275|x16: 0.153|x17: 0.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.23]</t>
+          <t>[0.00, 0.11, 0.27]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[3, 14, 10, 7, 2, 16, 11, 15]</t>
+          <t>[15, 3, 11, 2, 14, 7, 9, 16, 8]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.22950671467100997, 0.17792739979718722, 0.1632602298193128, 0.15283676976352809, 0.13720483874936856, 0.13116235183095273, 0.1280050685022084, 0.1219389939486924]</t>
+          <t>[0.2745277854958009, 0.27307427722665534, 0.2155069322061199, 0.20429696865070618, 0.18930734896655257, 0.188162981362852, 0.15627823337649652, 0.1529242329014695, 0.14733360648012248]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1885,22 +1885,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.241|x4: 0.000|x5: 0.000|x6: 0.096|x7: 0.000|x8: 0.100|x9: 0.351|x10: 0.060|x11: 0.080|x12: 0.179|x13: 0.271|x14: 0.323|x15: 0.095|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.109|x2: 0.000|x3: 0.255|x4: 0.148|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.336|x10: 0.143|x11: 0.121|x12: 0.110|x13: 0.217|x14: 0.361|x15: 0.000|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.35]</t>
+          <t>[0.00, 0.12, 0.36]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[9, 14, 13, 3, 12]</t>
+          <t>[14, 9, 3, 13, 4, 8, 10, 11, 12, 1]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.35118310065344016, 0.32262472927126457, 0.2713487119580381, 0.2405996501682541, 0.17925828504407404]</t>
+          <t>[0.3614167321549787, 0.3359184734698993, 0.25522473105617716, 0.21717545018511053, 0.14806844168523342, 0.1437932476849653, 0.14292983297733722, 0.12083889296408155, 0.10990957778823647, 0.109350411834568]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1926,22 +1926,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.186|x3: 0.000|x4: 0.000|x5: 0.149|x6: 0.112|x7: 0.199|x8: 0.000|x9: 0.188|x10: 0.175|x11: 0.000|x12: 0.220|x13: 0.000|x14: 0.175|x15: 0.132|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.193|x3: 0.000|x4: 0.000|x5: 0.137|x6: 0.055|x7: 0.278|x8: 0.121|x9: 0.232|x10: 0.161|x11: 0.000|x12: 0.360|x13: 0.000|x14: 0.222|x15: 0.254|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.22]</t>
+          <t>[0.00, 0.12, 0.36]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[12, 7, 9, 2, 10, 14, 5, 15, 6]</t>
+          <t>[12, 7, 15, 9, 14, 2, 10, 5, 8]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[0.2203695184474416, 0.19939935609372048, 0.18773691629432754, 0.18620011714526785, 0.17536308186953442, 0.17479840282634035, 0.14892966731024143, 0.13176854414766762, 0.11245962124047075]</t>
+          <t>[0.3601134884705995, 0.27792035983461805, 0.25430013751800346, 0.2315381443789792, 0.22233115320813227, 0.19253098445422642, 0.16107337702465213, 0.13651115227208352, 0.12071014404955835]</t>
         </is>
       </c>
       <c r="H37" t="b">
@@ -1967,22 +1967,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.186|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.185|x8: 0.058|x9: 0.000|x10: 0.113|x11: 0.000|x12: 0.096|x13: 0.224|x14: 0.222|x15: 0.068|x16: 0.091|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.183|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.201|x8: 0.068|x9: 0.000|x10: 0.117|x11: 0.000|x12: 0.129|x13: 0.245|x14: 0.228|x15: 0.053|x16: 0.061|x17: 0.000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.22]</t>
+          <t>[0.00, 0.08, 0.25]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[13, 14, 3, 7, 10]</t>
+          <t>[13, 14, 7, 3, 12, 10]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.22370817204887064, 0.22230853523750158, 0.18600080789472787, 0.18525019745303237, 0.11303805910685663]</t>
+          <t>[0.24513739974793855, 0.22824363544169035, 0.2012629160171717, 0.18323431792178782, 0.12912451129846408, 0.11723428566401363]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -2008,22 +2008,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.149|x2: 0.132|x3: 0.336|x4: 0.123|x5: 0.176|x6: 0.055|x7: 0.126|x8: 0.059|x9: 0.100|x10: 0.054|x11: 0.125|x12: 0.280|x13: 0.072|x14: 0.049|x15: 0.000|x16: 0.283|x17: 0.000</t>
+          <t>x1: 0.084|x2: 0.153|x3: 0.356|x4: 0.123|x5: 0.206|x6: 0.000|x7: 0.199|x8: 0.170|x9: 0.139|x10: 0.000|x11: 0.176|x12: 0.350|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.294|x17: 0.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.34]</t>
+          <t>[0.00, 0.13, 0.36]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[3, 16, 12, 5, 1, 2, 7, 11, 4, 9]</t>
+          <t>[3, 12, 16, 5, 7, 11, 8, 2, 9, 4]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[0.3355535871011696, 0.28344393920898403, 0.28022345510089997, 0.17593110116726018, 0.14852796991246708, 0.13168622065325047, 0.12564426232924128, 0.12516938435899588, 0.12341828139629821, 0.10018054629605057]</t>
+          <t>[0.3557444794386448, 0.34976663213977705, 0.29368950642980773, 0.2055384834482069, 0.19928858405254415, 0.17622652407008935, 0.16998603701535517, 0.15251121874693224, 0.13891688416490172, 0.12278709860433525]</t>
         </is>
       </c>
       <c r="H39" t="b">
@@ -2049,22 +2049,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.079|x3: 0.172|x4: 0.076|x5: 0.000|x6: 0.039|x7: 0.069|x8: 0.000|x9: 0.093|x10: 0.000|x11: 0.215|x12: 0.184|x13: 0.162|x14: 0.110|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.068|x3: 0.159|x4: 0.078|x5: 0.000|x6: 0.000|x7: 0.077|x8: 0.000|x9: 0.061|x10: 0.000|x11: 0.226|x12: 0.135|x13: 0.128|x14: 0.164|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.21]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[11, 12, 3, 13, 14]</t>
+          <t>[11, 14, 3, 12, 13]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.21485781440760165, 0.18401447572456875, 0.1724737262230971, 0.16201180770359347, 0.10950621728779894]</t>
+          <t>[0.22637488475235157, 0.16403510595113507, 0.15852711778153752, 0.13499347222417923, 0.12829732823620515]</t>
         </is>
       </c>
       <c r="H40" t="b">
@@ -2090,22 +2090,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.165|x3: 0.161|x4: 0.000|x5: 0.129|x6: 0.100|x7: 0.000|x8: 0.000|x9: 0.169|x10: 0.196|x11: 0.000|x12: 0.044|x13: 0.053|x14: 0.187|x15: 0.000|x16: 0.042|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.161|x3: 0.167|x4: 0.000|x5: 0.087|x6: 0.148|x7: 0.000|x8: 0.080|x9: 0.148|x10: 0.267|x11: 0.000|x12: 0.110|x13: 0.000|x14: 0.165|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.20]</t>
+          <t>[0.00, 0.08, 0.27]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[10, 14, 9, 2, 3, 5, 6]</t>
+          <t>[10, 3, 14, 2, 9, 6, 12]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.19610262690871072, 0.18662712280372046, 0.16941394377250785, 0.1650510481863684, 0.16089175683262275, 0.12917841210412798, 0.10045582022127186]</t>
+          <t>[0.26666987591448593, 0.16696968863804643, 0.1653681317624902, 0.16142379368515186, 0.14844721852778325, 0.14820377421516132, 0.11021436764850154]</t>
         </is>
       </c>
       <c r="H41" t="b">
@@ -2131,22 +2131,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.161|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.176|x6: 0.104|x7: 0.298|x8: 0.068|x9: 0.242|x10: 0.077|x11: 0.263|x12: 0.000|x13: 0.066|x14: 0.170|x15: 0.075|x16: 0.074|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.285|x6: 0.116|x7: 0.293|x8: 0.171|x9: 0.198|x10: 0.078|x11: 0.352|x12: 0.000|x13: 0.102|x14: 0.211|x15: 0.123|x16: 0.072|x17: 0.000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.30]</t>
+          <t>[0.00, 0.13, 0.35]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[7, 11, 9, 5, 14, 1, 6]</t>
+          <t>[11, 7, 5, 14, 9, 8, 1, 15, 6, 13]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.29848829400047305, 0.2631297750904034, 0.24194551389226468, 0.17603032525586393, 0.16990479866505392, 0.1613292783453197, 0.10382945595706461]</t>
+          <t>[0.3518875390723301, 0.2927144549500611, 0.2851588685829928, 0.2112277926809608, 0.1979419570075023, 0.17082701571898476, 0.12535007758153235, 0.12339087914019782, 0.1157472888692852, 0.10185154389864699]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.094|x2: 0.000|x3: 0.082|x4: 0.062|x5: 0.000|x6: 0.000|x7: 0.253|x8: 0.000|x9: 0.232|x10: 0.000|x11: 0.075|x12: 0.255|x13: 0.269|x14: 0.126|x15: 0.206|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.092|x2: 0.000|x3: 0.066|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.216|x8: 0.000|x9: 0.130|x10: 0.000|x11: 0.084|x12: 0.181|x13: 0.278|x14: 0.138|x15: 0.151|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.27]</t>
+          <t>[0.00, 0.09, 0.28]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[13, 12, 7, 9, 15, 14]</t>
+          <t>[13, 7, 12, 15, 14, 9]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.2690696628408502, 0.2547622984122851, 0.2531227213795023, 0.23183223156548022, 0.2056103656221208, 0.12610178122247684]</t>
+          <t>[0.27817113757553097, 0.21610368643070907, 0.18110436035929756, 0.15083468631845165, 0.1378965427049859, 0.13025673938100168]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2213,22 +2213,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.067|x3: 0.103|x4: 0.073|x5: 0.157|x6: 0.000|x7: 0.194|x8: 0.045|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.246|x13: 0.067|x14: 0.063|x15: 0.086|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.094|x3: 0.113|x4: 0.216|x5: 0.221|x6: 0.000|x7: 0.199|x8: 0.000|x9: 0.065|x10: 0.086|x11: 0.000|x12: 0.329|x13: 0.069|x14: 0.065|x15: 0.109|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.09, 0.33]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[12, 7, 5, 3]</t>
+          <t>[12, 5, 4, 7, 3, 15]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.24580469362240306, 0.1940935277721045, 0.15719938177688642, 0.10288084132801885]</t>
+          <t>[0.32913099601876583, 0.2209525260806199, 0.21640981598819928, 0.1990692015501113, 0.1128068597370676, 0.10949003705288457]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2254,22 +2254,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.083|x2: 0.179|x3: 0.192|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.199|x11: 0.165|x12: 0.098|x13: 0.099|x14: 0.124|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.203|x3: 0.180|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.115|x10: 0.185|x11: 0.185|x12: 0.101|x13: 0.083|x14: 0.151|x15: 0.058|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.20]</t>
+          <t>[0.00, 0.08, 0.20]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[10, 3, 2, 11, 14]</t>
+          <t>[2, 11, 10, 3, 14, 9, 12]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.19890153368447133, 0.192173943579064, 0.17859748640839598, 0.16544923197570452, 0.1238074227607188]</t>
+          <t>[0.20322402121267913, 0.1850454146832039, 0.18482738294285142, 0.18008719844608517, 0.1507312970432698, 0.11464546979891149, 0.10076724904891261]</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.207|x2: 0.174|x3: 0.099|x4: 0.000|x5: 0.087|x6: 0.191|x7: 0.000|x8: 0.102|x9: 0.109|x10: 0.103|x11: 0.000|x12: 0.000|x13: 0.144|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.126|x3: 0.087|x4: 0.046|x5: 0.038|x6: 0.173|x7: 0.000|x8: 0.048|x9: 0.068|x10: 0.124|x11: 0.000|x12: 0.000|x13: 0.084|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.21]</t>
+          <t>[0.00, 0.05, 0.17]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[1, 6, 2, 13, 9, 10, 8]</t>
+          <t>[6, 2, 10]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.2074456699213107, 0.19053014505528032, 0.17379910137374796, 0.14414252328227012, 0.10907213196879288, 0.10309957778766622, 0.10180167474032593]</t>
+          <t>[0.17326489452638413, 0.12588195537209962, 0.12435998110955995]</t>
         </is>
       </c>
       <c r="H46" t="b">
@@ -2336,22 +2336,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.075|x2: 0.069|x3: 0.066|x4: 0.353|x5: 0.255|x6: 0.155|x7: 0.077|x8: 0.150|x9: 0.117|x10: 0.000|x11: 0.000|x12: 0.101|x13: 0.285|x14: 0.135|x15: 0.000|x16: 0.055|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.112|x3: 0.048|x4: 0.312|x5: 0.184|x6: 0.157|x7: 0.058|x8: 0.142|x9: 0.075|x10: 0.000|x11: 0.060|x12: 0.000|x13: 0.355|x14: 0.051|x15: 0.000|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.35]</t>
+          <t>[0.00, 0.10, 0.36]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[4, 13, 5, 6, 8, 14, 9, 12]</t>
+          <t>[13, 4, 5, 6, 8, 16, 2]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[0.35295633500641144, 0.28480261276794533, 0.25483819941863484, 0.15534242979415916, 0.14955582386604663, 0.13530713094571575, 0.11652865442424898, 0.10088932161620591]</t>
+          <t>[0.3551518597369497, 0.3123464738168241, 0.1842097723085181, 0.1573451626839251, 0.1421193754024506, 0.11274050021833269, 0.11164271589745059]</t>
         </is>
       </c>
       <c r="H47" t="b">
@@ -2377,22 +2377,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.177|x4: 0.120|x5: 0.158|x6: 0.118|x7: 0.048|x8: 0.190|x9: 0.054|x10: 0.000|x11: 0.000|x12: 0.127|x13: 0.000|x14: 0.043|x15: 0.000|x16: 0.077|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.192|x4: 0.197|x5: 0.141|x6: 0.217|x7: 0.000|x8: 0.266|x9: 0.106|x10: 0.000|x11: 0.000|x12: 0.188|x13: 0.000|x14: 0.068|x15: 0.000|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.19]</t>
+          <t>[0.00, 0.09, 0.27]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[8, 3, 5, 12, 4, 6]</t>
+          <t>[8, 6, 4, 3, 12, 16, 5, 9]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[0.1904149582953534, 0.17730996961142542, 0.15782966689782366, 0.126874189080949, 0.12024274727874781, 0.11779260440025174]</t>
+          <t>[0.2656173523062185, 0.2166511139265447, 0.1969546635392305, 0.19241615417197797, 0.1879012473447593, 0.14732687662431812, 0.1409339278087572, 0.10620256434419618]</t>
         </is>
       </c>
       <c r="H48" t="b">
@@ -2418,22 +2418,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.049|x2: 0.000|x3: 0.000|x4: 0.352|x5: 0.000|x6: 0.000|x7: 0.166|x8: 0.000|x9: 0.200|x10: 0.042|x11: 0.000|x12: 0.122|x13: 0.068|x14: 0.126|x15: 0.000|x16: 0.065|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.488|x5: 0.000|x6: 0.000|x7: 0.149|x8: 0.000|x9: 0.264|x10: 0.039|x11: 0.000|x12: 0.251|x13: 0.040|x14: 0.147|x15: 0.000|x16: 0.102|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.35]</t>
+          <t>[0.00, 0.09, 0.49]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[4, 9, 7, 14, 12]</t>
+          <t>[4, 9, 12, 7, 14, 16]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.35196650232834686, 0.200421643893598, 0.1659576104948901, 0.12636790562239014, 0.12212251040418949]</t>
+          <t>[0.4883318914638014, 0.26445411030321697, 0.2509862352783958, 0.1491497181367496, 0.14738906503128976, 0.10173154824102476]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2459,22 +2459,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.000|x3: 0.108|x4: 0.394|x5: 0.000|x6: 0.216|x7: 0.000|x8: 0.262|x9: 0.103|x10: 0.000|x11: 0.194|x12: 0.064|x13: 0.166|x14: 0.110|x15: 0.000|x16: 0.111|x17: 0.000</t>
+          <t>x1: 0.215|x2: 0.055|x3: 0.140|x4: 0.385|x5: 0.000|x6: 0.237|x7: 0.000|x8: 0.257|x9: 0.130|x10: 0.055|x11: 0.274|x12: 0.000|x13: 0.202|x14: 0.000|x15: 0.000|x16: 0.098|x17: 0.000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.39]</t>
+          <t>[0.00, 0.12, 0.39]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[4, 8, 6, 11, 13, 16, 14, 3, 9]</t>
+          <t>[4, 11, 8, 6, 1, 13, 3, 9]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.39402129531063185, 0.2624591821705294, 0.21552420916355997, 0.19374287363414916, 0.16626659674110242, 0.11059513628009789, 0.10963487941759284, 0.10778635433889043, 0.10301560460888302]</t>
+          <t>[0.3851050697497316, 0.2740154638949394, 0.2571165891297601, 0.23653660576625882, 0.2153783667697763, 0.20225943759118978, 0.13966535909928424, 0.1299341166261828]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2500,22 +2500,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.138|x5: 0.133|x6: 0.203|x7: 0.268|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.140|x12: 0.395|x13: 0.215|x14: 0.306|x15: 0.045|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.143|x6: 0.215|x7: 0.333|x8: 0.000|x9: 0.000|x10: 0.116|x11: 0.113|x12: 0.451|x13: 0.112|x14: 0.287|x15: 0.000|x16: 0.083|x17: 0.000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.40]</t>
+          <t>[0.00, 0.12, 0.45]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[12, 14, 7, 13, 6, 11, 4, 5]</t>
+          <t>[12, 7, 14, 6, 5, 4, 10, 11, 13]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.3950532236899589, 0.3056538599800075, 0.2675465101437309, 0.2149570123002843, 0.20333776549128224, 0.13967776353545325, 0.13808623152262517, 0.1331267077758794]</t>
+          <t>[0.4510855101190743, 0.3326855370202291, 0.28730763541545307, 0.21499452097019336, 0.14274910173371577, 0.12500214247095615, 0.11608401164143121, 0.11266296867630106, 0.11239166137162963]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2541,22 +2541,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.176|x2: 0.000|x3: 0.000|x4: 0.301|x5: 0.000|x6: 0.236|x7: 0.000|x8: 0.075|x9: 0.000|x10: 0.000|x11: 0.189|x12: 0.139|x13: 0.260|x14: 0.079|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.159|x2: 0.000|x3: 0.000|x4: 0.330|x5: 0.000|x6: 0.224|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.221|x12: 0.113|x13: 0.224|x14: 0.077|x15: 0.000|x16: 0.086|x17: 0.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.30]</t>
+          <t>[0.00, 0.08, 0.33]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[4, 13, 6, 11, 1, 12]</t>
+          <t>[4, 6, 13, 11, 1, 12]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.30086681460720327, 0.25974779697267447, 0.23612385206976383, 0.18894233671586821, 0.17571318484940582, 0.13868534147872286]</t>
+          <t>[0.3300696320285355, 0.22426672299649567, 0.2242070839776822, 0.22102168901448233, 0.15883051182162505, 0.11308105124260531]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2582,22 +2582,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.000|x3: 0.000|x4: 0.144|x5: 0.172|x6: 0.000|x7: 0.070|x8: 0.000|x9: 0.178|x10: 0.000|x11: 0.083|x12: 0.057|x13: 0.246|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.106|x2: 0.000|x3: 0.000|x4: 0.153|x5: 0.148|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.138|x10: 0.051|x11: 0.000|x12: 0.105|x13: 0.301|x14: 0.049|x15: 0.055|x16: 0.056|x17: 0.000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.07, 0.30]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[13, 9, 5, 4]</t>
+          <t>[13, 4, 5, 9, 1, 12]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.24619360185969902, 0.1782048929153712, 0.17155837916980674, 0.14445766568752563]</t>
+          <t>[0.30144975243737826, 0.15316792619519887, 0.14782745689515203, 0.13757545580130945, 0.10572570231389924, 0.1050797070038125]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2623,22 +2623,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.054|x2: 0.071|x3: 0.000|x4: 0.217|x5: 0.071|x6: 0.075|x7: 0.000|x8: 0.000|x9: 0.160|x10: 0.000|x11: 0.200|x12: 0.000|x13: 0.093|x14: 0.150|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.051|x3: 0.000|x4: 0.159|x5: 0.114|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.165|x10: 0.099|x11: 0.268|x12: 0.114|x13: 0.105|x14: 0.176|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>[0.00, 0.07, 0.27]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[4, 11, 9, 14]</t>
+          <t>[11, 14, 9, 4, 12, 5, 13]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.21690401668514145, 0.20017366728781294, 0.1595015906706058, 0.15048888250820366]</t>
+          <t>[0.26769434161812833, 0.1762060075553132, 0.16538974210870133, 0.1589276098056032, 0.11381536053630852, 0.11362068419168887, 0.10454935639117793]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2664,22 +2664,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.216|x3: 0.000|x4: 0.119|x5: 0.000|x6: 0.092|x7: 0.000|x8: 0.171|x9: 0.222|x10: 0.082|x11: 0.000|x12: 0.235|x13: 0.246|x14: 0.000|x15: 0.144|x16: 0.119|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.223|x3: 0.000|x4: 0.142|x5: 0.000|x6: 0.120|x7: 0.000|x8: 0.167|x9: 0.160|x10: 0.000|x11: 0.090|x12: 0.232|x13: 0.227|x14: 0.000|x15: 0.110|x16: 0.148|x17: 0.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.25]</t>
+          <t>[0.00, 0.10, 0.23]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[13, 12, 9, 2, 8, 15, 4, 16]</t>
+          <t>[12, 13, 2, 8, 9, 16, 4, 6, 15]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.24560521543724792, 0.23456235031139255, 0.22176555289440908, 0.21620881718907453, 0.17061534189140576, 0.14393797690806412, 0.11908164713538734, 0.11881962118993604]</t>
+          <t>[0.2316846401254312, 0.22657652377194504, 0.2231361622721109, 0.16672366596935545, 0.16007479595006904, 0.14760825260646782, 0.14167922580512546, 0.11971054334851867, 0.10968300505207376]</t>
         </is>
       </c>
       <c r="H55" t="b">
@@ -2705,22 +2705,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.094|x2: 0.000|x3: 0.065|x4: 0.132|x5: 0.000|x6: 0.131|x7: 0.000|x8: 0.178|x9: 0.189|x10: 0.000|x11: 0.142|x12: 0.000|x13: 0.213|x14: 0.199|x15: 0.078|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.000|x3: 0.100|x4: 0.138|x5: 0.000|x6: 0.145|x7: 0.122|x8: 0.051|x9: 0.189|x10: 0.000|x11: 0.209|x12: 0.000|x13: 0.236|x14: 0.174|x15: 0.082|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.21]</t>
+          <t>[0.00, 0.09, 0.24]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[13, 14, 9, 8, 11, 4, 6]</t>
+          <t>[13, 11, 9, 14, 6, 4, 7, 1]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.21334281005474598, 0.19880736720629644, 0.1892015683872095, 0.17846065446665027, 0.1419867633967293, 0.1319672460596967, 0.13128787346363557]</t>
+          <t>[0.23628432827371165, 0.20854643249271249, 0.18866125827879612, 0.17360523275270137, 0.14541201119131747, 0.13781372422043303, 0.12191435954657966, 0.11544438868847585]</t>
         </is>
       </c>
       <c r="H56" t="b">
@@ -2746,29 +2746,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.201|x3: 0.000|x4: 0.303|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.063|x11: 0.132|x12: 0.071|x13: 0.137|x14: 0.273|x15: 0.319|x16: 0.383|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.280|x3: 0.000|x4: 0.331|x5: 0.118|x6: 0.105|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.104|x12: 0.000|x13: 0.193|x14: 0.268|x15: 0.257|x16: 0.340|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.38]</t>
+          <t>[0.00, 0.12, 0.34]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[16, 15, 4, 14, 2, 13, 11]</t>
+          <t>[16, 4, 2, 14, 15, 13, 5, 6, 11]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.38275301319648675, 0.3192671311132025, 0.3025608930250021, 0.27347404938469994, 0.20096451737841084, 0.13744512454667562, 0.13245423439665688]</t>
+          <t>[0.34026241441382443, 0.3309022967673713, 0.28031772404488864, 0.2677622245015418, 0.2569310845792428, 0.19337401284535582, 0.11800336845494407, 0.10479088411915995, 0.10372866610004201]</t>
         </is>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
@@ -2787,22 +2787,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.070|x2: 0.104|x3: 0.000|x4: 0.000|x5: 0.089|x6: 0.000|x7: 0.178|x8: 0.104|x9: 0.300|x10: 0.120|x11: 0.173|x12: 0.177|x13: 0.057|x14: 0.173|x15: 0.144|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.071|x5: 0.058|x6: 0.000|x7: 0.209|x8: 0.213|x9: 0.234|x10: 0.153|x11: 0.231|x12: 0.182|x13: 0.000|x14: 0.239|x15: 0.132|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.30]</t>
+          <t>[0.00, 0.10, 0.24]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[9, 7, 12, 11, 14, 15, 10, 8, 2]</t>
+          <t>[14, 9, 11, 8, 7, 12, 10, 15]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.2995118473536075, 0.17771462542783392, 0.1773999593677891, 0.17330838753663505, 0.17330660949078566, 0.14438041052123346, 0.12038906968219103, 0.10442142504253234, 0.10426162917873211]</t>
+          <t>[0.23948652630714798, 0.23438230803832288, 0.23100387025690577, 0.21317804441650287, 0.2085458607354656, 0.1822240460492241, 0.15264114411977192, 0.1320409877602171]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2828,22 +2828,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.319|x2: 0.000|x3: 0.059|x4: 0.294|x5: 0.116|x6: 0.131|x7: 0.056|x8: 0.160|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.171|x13: 0.173|x14: 0.171|x15: 0.057|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.307|x2: 0.070|x3: 0.063|x4: 0.263|x5: 0.168|x6: 0.150|x7: 0.142|x8: 0.134|x9: 0.084|x10: 0.000|x11: 0.048|x12: 0.212|x13: 0.220|x14: 0.122|x15: 0.090|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.32]</t>
+          <t>[0.00, 0.12, 0.31]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[1, 4, 13, 12, 14, 8, 6, 5]</t>
+          <t>[1, 4, 13, 12, 5, 6, 7, 8, 14]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.3190084478466088, 0.29405232797596675, 0.17291801600004011, 0.17141623043792437, 0.1708490934866407, 0.15952821986463578, 0.13059857420623572, 0.11604029382065303]</t>
+          <t>[0.3066991049777092, 0.2634358176344564, 0.220383724614771, 0.21231100489578933, 0.1675886544732984, 0.15048125749131058, 0.14223563928703367, 0.1343987846748655, 0.12238869870390032]</t>
         </is>
       </c>
       <c r="H59" t="b">
@@ -2869,22 +2869,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.056|x2: 0.000|x3: 0.066|x4: 0.115|x5: 0.250|x6: 0.077|x7: 0.186|x8: 0.000|x9: 0.000|x10: 0.069|x11: 0.097|x12: 0.139|x13: 0.150|x14: 0.116|x15: 0.184|x16: 0.134|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.099|x5: 0.313|x6: 0.121|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.089|x12: 0.194|x13: 0.099|x14: 0.138|x15: 0.158|x16: 0.194|x17: 0.000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.25]</t>
+          <t>[0.00, 0.08, 0.31]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[5, 7, 15, 13, 12, 16, 14, 4]</t>
+          <t>[5, 16, 12, 15, 14, 6]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.2496866117302067, 0.18573507855669855, 0.18441736634409178, 0.1499560990372468, 0.1393951653850963, 0.1338698558395028, 0.11596516009881522, 0.11531149010187675]</t>
+          <t>[0.312729535001239, 0.1944192047195631, 0.19350887532608374, 0.15836720865867707, 0.13750808096077993, 0.12089949716182478]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2910,22 +2910,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.159|x2: 0.073|x3: 0.083|x4: 0.310|x5: 0.092|x6: 0.000|x7: 0.192|x8: 0.116|x9: 0.182|x10: 0.000|x11: 0.000|x12: 0.068|x13: 0.118|x14: 0.097|x15: 0.091|x16: 0.126|x17: 0.000</t>
+          <t>x1: 0.156|x2: 0.087|x3: 0.052|x4: 0.271|x5: 0.155|x6: 0.000|x7: 0.199|x8: 0.195|x9: 0.155|x10: 0.000|x11: 0.055|x12: 0.058|x13: 0.184|x14: 0.103|x15: 0.000|x16: 0.179|x17: 0.000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.31]</t>
+          <t>[0.00, 0.11, 0.27]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[4, 7, 9, 1, 16, 13, 8]</t>
+          <t>[4, 7, 8, 13, 16, 1, 9, 5, 14]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.31049994509281187, 0.19232223686273017, 0.18232050152461154, 0.15880009979561832, 0.12589922833364856, 0.11785946089850596, 0.11647248988743583]</t>
+          <t>[0.27134389780059603, 0.19893211902771768, 0.1953058667263321, 0.1842976577060851, 0.17911626647791906, 0.15635629529533634, 0.15479538657930722, 0.15474954955288606, 0.10272194757080269]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2951,26 +2951,26 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.066|x3: 0.000|x4: 0.109|x5: 0.112|x6: 0.105|x7: 0.068|x8: 0.068|x9: 0.261|x10: 0.000|x11: 0.133|x12: 0.151|x13: 0.000|x14: 0.107|x15: 0.170|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.058|x2: 0.113|x3: 0.093|x4: 0.089|x5: 0.099|x6: 0.074|x7: 0.174|x8: 0.072|x9: 0.206|x10: 0.000|x11: 0.157|x12: 0.213|x13: 0.047|x14: 0.144|x15: 0.259|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.26]</t>
+          <t>[0.00, 0.11, 0.26]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[9, 15, 12, 11, 5, 4, 14, 6]</t>
+          <t>[15, 12, 9, 7, 11, 14, 2]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.2607809580485012, 0.16987080662044887, 0.1514438683835696, 0.1326865652239991, 0.11205620907651709, 0.10903413522017968, 0.10651712825855437, 0.10482874169296073]</t>
+          <t>[0.25919376889089857, 0.21255583741493717, 0.20583556317657942, 0.1735067547913011, 0.15714783900795, 0.1440073848610828, 0.11286797050602076]</t>
         </is>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -2992,29 +2992,29 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.091|x5: 0.113|x6: 0.128|x7: 0.139|x8: 0.000|x9: 0.000|x10: 0.060|x11: 0.132|x12: 0.208|x13: 0.287|x14: 0.277|x15: 0.000|x16: 0.150|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.041|x4: 0.000|x5: 0.156|x6: 0.095|x7: 0.118|x8: 0.000|x9: 0.000|x10: 0.099|x11: 0.100|x12: 0.216|x13: 0.245|x14: 0.297|x15: 0.094|x16: 0.170|x17: 0.000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.29]</t>
+          <t>[0.00, 0.10, 0.30]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[13, 14, 12, 16, 7, 11, 6, 5]</t>
+          <t>[14, 13, 12, 16, 5, 7, 11]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.2867410008561445, 0.277257645117508, 0.20755979478200282, 0.14981322801362018, 0.13913322995996316, 0.1319796451142154, 0.12783512381909332, 0.11338719335949661]</t>
+          <t>[0.2973594951570079, 0.24458548192739152, 0.21608919192451712, 0.1700514942036368, 0.15624162310958423, 0.11768607939249907, 0.10020906922561681]</t>
         </is>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -3033,22 +3033,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.157|x5: 0.155|x6: 0.314|x7: 0.092|x8: 0.000|x9: 0.081|x10: 0.051|x11: 0.000|x12: 0.191|x13: 0.154|x14: 0.209|x15: 0.197|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.168|x5: 0.193|x6: 0.241|x7: 0.096|x8: 0.000|x9: 0.068|x10: 0.000|x11: 0.069|x12: 0.175|x13: 0.127|x14: 0.181|x15: 0.160|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.31]</t>
+          <t>[0.00, 0.09, 0.24]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[6, 14, 15, 12, 4, 5, 13]</t>
+          <t>[6, 5, 14, 12, 4, 15, 13]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[0.31407860252104497, 0.20861910160876623, 0.19743030460556538, 0.1910992945808408, 0.1572878331549813, 0.15507760650878993, 0.15370277233971782]</t>
+          <t>[0.24144695255940674, 0.1932360123464854, 0.18118572124363075, 0.17473798059731302, 0.167505879228776, 0.1599276413209672, 0.12674551227264858]</t>
         </is>
       </c>
       <c r="H64" t="b">
@@ -3074,26 +3074,26 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.141|x5: 0.127|x6: 0.095|x7: 0.268|x8: 0.000|x9: 0.176|x10: 0.062|x11: 0.000|x12: 0.165|x13: 0.199|x14: 0.107|x15: 0.073|x16: 0.064|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.075|x3: 0.052|x4: 0.057|x5: 0.156|x6: 0.106|x7: 0.287|x8: 0.060|x9: 0.159|x10: 0.099|x11: 0.000|x12: 0.237|x13: 0.194|x14: 0.170|x15: 0.124|x16: 0.052|x17: 0.000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.27]</t>
+          <t>[0.00, 0.11, 0.29]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[7, 13, 9, 12, 4, 5, 14]</t>
+          <t>[7, 12, 13, 14, 9, 5, 15, 6]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.26815159955368, 0.19890292038647925, 0.17630803757567326, 0.1654254237449333, 0.14052338669727563, 0.12694612049120432, 0.1074717833953393]</t>
+          <t>[0.2868229348207056, 0.23704002380755534, 0.19376898915870516, 0.17036084145501248, 0.15929888628670652, 0.1555332732132881, 0.12400112722031562, 0.10617232441430818]</t>
         </is>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" t="b">
         <v>1</v>
@@ -3115,22 +3115,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.085|x5: 0.066|x6: 0.062|x7: 0.161|x8: 0.000|x9: 0.091|x10: 0.120|x11: 0.000|x12: 0.000|x13: 0.225|x14: 0.302|x15: 0.068|x16: 0.171|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.070|x3: 0.000|x4: 0.105|x5: 0.073|x6: 0.072|x7: 0.201|x8: 0.000|x9: 0.088|x10: 0.205|x11: 0.000|x12: 0.000|x13: 0.306|x14: 0.355|x15: 0.116|x16: 0.201|x17: 0.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.30]</t>
+          <t>[0.00, 0.11, 0.35]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[14, 13, 16, 7, 10]</t>
+          <t>[14, 13, 10, 7, 16, 15, 4]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.30197129443641957, 0.2249871959279536, 0.17140779996940414, 0.1609005691274273, 0.11974640799142788]</t>
+          <t>[0.3548863965627041, 0.3056304918810367, 0.20487351124448033, 0.20146599921875383, 0.20124052902761, 0.11631784338317226, 0.10523503483696511]</t>
         </is>
       </c>
       <c r="H66" t="b">
@@ -3156,22 +3156,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.095|x2: 0.111|x3: 0.048|x4: 0.218|x5: 0.043|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.109|x10: 0.131|x11: 0.000|x12: 0.000|x13: 0.138|x14: 0.077|x15: 0.000|x16: 0.065|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.179|x3: 0.000|x4: 0.199|x5: 0.042|x6: 0.000|x7: 0.064|x8: 0.059|x9: 0.174|x10: 0.153|x11: 0.000|x12: 0.000|x13: 0.184|x14: 0.118|x15: 0.000|x16: 0.045|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>[0.00, 0.07, 0.20]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[4, 13, 10, 2, 9]</t>
+          <t>[4, 13, 2, 9, 10, 14]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.21812722937523915, 0.1381968449515818, 0.1305588908932069, 0.11118962871733795, 0.10916815102417715]</t>
+          <t>[0.19856469332172388, 0.1836515848103525, 0.17854117765729757, 0.17425675471729332, 0.15269790607193126, 0.11849671595148009]</t>
         </is>
       </c>
       <c r="H67" t="b">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.089|x2: 0.112|x3: 0.000|x4: 0.000|x5: 0.205|x6: 0.132|x7: 0.283|x8: 0.282|x9: 0.190|x10: 0.204|x11: 0.099|x12: 0.166|x13: 0.094|x14: 0.060|x15: 0.161|x16: 0.123|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.183|x3: 0.000|x4: 0.073|x5: 0.215|x6: 0.094|x7: 0.263|x8: 0.334|x9: 0.141|x10: 0.166|x11: 0.142|x12: 0.122|x13: 0.085|x14: 0.076|x15: 0.104|x16: 0.125|x17: 0.000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.28]</t>
+          <t>[0.00, 0.12, 0.33]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[7, 8, 5, 10, 9, 12, 15, 6, 16, 2]</t>
+          <t>[8, 7, 5, 2, 10, 11, 9, 16, 12, 15]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.28309510556168577, 0.28201626369360355, 0.20459302206081634, 0.20363698952146797, 0.18959955615212065, 0.16587507664405116, 0.16146119179812246, 0.1320528065167092, 0.12287740110533275, 0.11205321926834048]</t>
+          <t>[0.33388477988205784, 0.26347063572874135, 0.21471425869567712, 0.18344098713030352, 0.16603674956736286, 0.14221437249351257, 0.14097075695798977, 0.12495194572877283, 0.12224582332938821, 0.1039595598386088]</t>
         </is>
       </c>
       <c r="H68" t="b">
@@ -3238,22 +3238,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.068|x2: 0.000|x3: 0.177|x4: 0.193|x5: 0.217|x6: 0.115|x7: 0.000|x8: 0.290|x9: 0.122|x10: 0.000|x11: 0.000|x12: 0.090|x13: 0.119|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.144|x2: 0.000|x3: 0.246|x4: 0.181|x5: 0.238|x6: 0.202|x7: 0.000|x8: 0.313|x9: 0.169|x10: 0.000|x11: 0.000|x12: 0.084|x13: 0.181|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.29]</t>
+          <t>[0.00, 0.10, 0.31]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[8, 5, 4, 3, 9, 13, 6]</t>
+          <t>[8, 3, 5, 6, 13, 4, 9, 1]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.2899131512198429, 0.21722813149778336, 0.19259959943486113, 0.1773311196462199, 0.12219919546978045, 0.11860371364177934, 0.1152012793486576]</t>
+          <t>[0.3129290252874519, 0.24590558081020747, 0.2381307915384591, 0.20235655671903807, 0.18141976387367736, 0.18074852201800964, 0.16919243025742006, 0.1435834953292346]</t>
         </is>
       </c>
       <c r="H69" t="b">
@@ -3279,22 +3279,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.215|x3: 0.077|x4: 0.000|x5: 0.000|x6: 0.068|x7: 0.285|x8: 0.139|x9: 0.328|x10: 0.054|x11: 0.105|x12: 0.260|x13: 0.073|x14: 0.046|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.179|x3: 0.092|x4: 0.087|x5: 0.000|x6: 0.059|x7: 0.342|x8: 0.211|x9: 0.301|x10: 0.138|x11: 0.164|x12: 0.311|x13: 0.130|x14: 0.146|x15: 0.088|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.33]</t>
+          <t>[0.00, 0.13, 0.34]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[9, 7, 12, 2, 8, 11]</t>
+          <t>[7, 12, 9, 8, 2, 11, 14, 10, 13]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[0.3280441745464485, 0.28469080618870163, 0.25978544793042335, 0.2146862020848678, 0.13898883589723554, 0.10534402290787112]</t>
+          <t>[0.3415137097425838, 0.31073781564907615, 0.30072363536657554, 0.2113837247223213, 0.1790319439866431, 0.1635293397826684, 0.1457348395462127, 0.1384679440054062, 0.13029122245115585]</t>
         </is>
       </c>
       <c r="H70" t="b">
@@ -3320,22 +3320,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.206|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.085|x8: 0.000|x9: 0.291|x10: 0.000|x11: 0.216|x12: 0.276|x13: 0.219|x14: 0.000|x15: 0.184|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.193|x8: 0.000|x9: 0.270|x10: 0.000|x11: 0.218|x12: 0.243|x13: 0.231|x14: 0.075|x15: 0.190|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.29]</t>
+          <t>[0.00, 0.09, 0.27]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[9, 12, 13, 11, 2, 15]</t>
+          <t>[9, 12, 13, 11, 7, 15, 2]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.29146629775604754, 0.27583879979893167, 0.2185441883543996, 0.21565029099470973, 0.20617287153089772, 0.18409382566356386]</t>
+          <t>[0.2697692848077432, 0.24292705220679398, 0.23149680637765846, 0.21764546927657058, 0.19264555298242655, 0.19019519404723167, 0.12234698021270919]</t>
         </is>
       </c>
       <c r="H71" t="b">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.068|x2: 0.000|x3: 0.000|x4: 0.151|x5: 0.123|x6: 0.121|x7: 0.069|x8: 0.000|x9: 0.270|x10: 0.051|x11: 0.168|x12: 0.155|x13: 0.121|x14: 0.142|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.143|x5: 0.145|x6: 0.063|x7: 0.000|x8: 0.000|x9: 0.237|x10: 0.000|x11: 0.222|x12: 0.226|x13: 0.113|x14: 0.158|x15: 0.000|x16: 0.059|x17: 0.000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.27]</t>
+          <t>[0.00, 0.08, 0.24]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[9, 11, 12, 4, 14, 5, 6, 13]</t>
+          <t>[9, 12, 11, 14, 5, 4, 13]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.2698098565892013, 0.1681184633884404, 0.15503490680128473, 0.1506940313052517, 0.1423482383348347, 0.12310738089450537, 0.1213283053438486, 0.12056370778948185]</t>
+          <t>[0.23741043874543563, 0.22637566217637176, 0.22170721710758592, 0.158140082033038, 0.14498642025499134, 0.14303085636163426, 0.11298423367680435]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3402,26 +3402,26 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.072|x4: 0.057|x5: 0.000|x6: 0.192|x7: 0.162|x8: 0.000|x9: 0.090|x10: 0.000|x11: 0.153|x12: 0.112|x13: 0.060|x14: 0.073|x15: 0.058|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.077|x4: 0.092|x5: 0.000|x6: 0.269|x7: 0.197|x8: 0.000|x9: 0.146|x10: 0.000|x11: 0.184|x12: 0.083|x13: 0.056|x14: 0.067|x15: 0.062|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.19]</t>
+          <t>[0.00, 0.07, 0.27]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[6, 7, 11, 12]</t>
+          <t>[6, 7, 11, 9]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.1919258631684065, 0.16162730496825775, 0.15278242804166262, 0.1124360982732644]</t>
+          <t>[0.2689949209856903, 0.1968158676614711, 0.18431683493431708, 0.14575984218216834]</t>
         </is>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73" t="b">
         <v>1</v>
@@ -3443,22 +3443,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.051|x2: 0.237|x3: 0.106|x4: 0.125|x5: 0.000|x6: 0.083|x7: 0.090|x8: 0.062|x9: 0.110|x10: 0.000|x11: 0.000|x12: 0.069|x13: 0.289|x14: 0.247|x15: 0.000|x16: 0.219|x17: 0.000</t>
+          <t>x1: 0.067|x2: 0.295|x3: 0.164|x4: 0.204|x5: 0.000|x6: 0.130|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.106|x11: 0.147|x12: 0.116|x13: 0.320|x14: 0.261|x15: 0.000|x16: 0.201|x17: 0.000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.29]</t>
+          <t>[0.00, 0.12, 0.32]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[13, 14, 2, 16, 4, 9, 3]</t>
+          <t>[13, 2, 14, 4, 16, 3, 11, 6, 12, 10]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.2892436441877588, 0.24673566181712475, 0.23660193485649977, 0.21907069567753618, 0.1253106698750336, 0.11018936704561437, 0.10553110409388873]</t>
+          <t>[0.3197394742516631, 0.2946269941494288, 0.26143013831895356, 0.2042361626640738, 0.20057944202439812, 0.1637666642524239, 0.14687843018057017, 0.1302505720209371, 0.11637835041661042, 0.1061375259018231]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3484,22 +3484,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.064|x3: 0.000|x4: 0.186|x5: 0.139|x6: 0.000|x7: 0.120|x8: 0.000|x9: 0.305|x10: 0.162|x11: 0.000|x12: 0.209|x13: 0.117|x14: 0.210|x15: 0.049|x16: 0.134|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.182|x3: 0.000|x4: 0.207|x5: 0.120|x6: 0.081|x7: 0.087|x8: 0.116|x9: 0.313|x10: 0.187|x11: 0.000|x12: 0.150|x13: 0.124|x14: 0.195|x15: 0.000|x16: 0.163|x17: 0.000</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.30]</t>
+          <t>[0.00, 0.11, 0.31]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[9, 14, 12, 4, 10, 5, 16, 7, 13]</t>
+          <t>[9, 4, 14, 10, 2, 16, 12, 13, 5, 8]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.3049590958602266, 0.21039643030529875, 0.20877645892166038, 0.18555676246895625, 0.1621527617254389, 0.13898105518439446, 0.13424259250731102, 0.12006357274726084, 0.1173473714686643]</t>
+          <t>[0.3132183848248368, 0.20736347148420017, 0.19491746703526433, 0.18723947009084044, 0.18246586830320696, 0.16278558306991742, 0.15001382351481274, 0.12355014552820165, 0.12003371342077929, 0.11626130929484646]</t>
         </is>
       </c>
       <c r="H75" t="b">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.088|x3: 0.067|x4: 0.000|x5: 0.000|x6: 0.128|x7: 0.000|x8: 0.102|x9: 0.051|x10: 0.193|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.053|x15: 0.000|x16: 0.193|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.122|x3: 0.000|x4: 0.109|x5: 0.108|x6: 0.067|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.190|x11: 0.072|x12: 0.069|x13: 0.000|x14: 0.089|x15: 0.000|x16: 0.216|x17: 0.000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.19]</t>
+          <t>[0.00, 0.07, 0.22]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[16, 10, 6, 8]</t>
+          <t>[16, 10, 2, 4, 5]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.19284416336081855, 0.19275469564335523, 0.12778173911432544, 0.10165638862582677]</t>
+          <t>[0.21625074891786045, 0.190153338639795, 0.12150900537335906, 0.10905502568462945, 0.1075625044052]</t>
         </is>
       </c>
       <c r="H76" t="b">
@@ -3566,26 +3566,26 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.131|x4: 0.194|x5: 0.173|x6: 0.054|x7: 0.314|x8: 0.073|x9: 0.201|x10: 0.171|x11: 0.129|x12: 0.147|x13: 0.128|x14: 0.088|x15: 0.000|x16: 0.100|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.098|x4: 0.143|x5: 0.161|x6: 0.059|x7: 0.308|x8: 0.000|x9: 0.135|x10: 0.120|x11: 0.115|x12: 0.155|x13: 0.187|x14: 0.091|x15: 0.000|x16: 0.102|x17: 0.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.31]</t>
+          <t>[0.00, 0.10, 0.31]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[7, 9, 4, 5, 10, 12, 3, 11, 13]</t>
+          <t>[7, 13, 5, 12, 4, 9, 10, 11, 16]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.3137554816567572, 0.20087136782515666, 0.19384421815892447, 0.17270694972133843, 0.17087456699018744, 0.14742690345608767, 0.13052643588556667, 0.1288855025652566, 0.12828378387364756]</t>
+          <t>[0.3076775931172506, 0.18659979584392464, 0.16064801772763543, 0.1546187112985621, 0.14324712963356842, 0.13534024499625757, 0.12010299340554378, 0.11457533489236484, 0.10216047013312063]</t>
         </is>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3607,26 +3607,26 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.095|x5: 0.222|x6: 0.000|x7: 0.096|x8: 0.063|x9: 0.271|x10: 0.243|x11: 0.165|x12: 0.224|x13: 0.055|x14: 0.068|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.246|x6: 0.000|x7: 0.000|x8: 0.145|x9: 0.160|x10: 0.239|x11: 0.243|x12: 0.279|x13: 0.000|x14: 0.101|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.27]</t>
+          <t>[0.00, 0.08, 0.28]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[9, 10, 12, 5, 11]</t>
+          <t>[12, 5, 11, 10, 9, 8, 14]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[0.27063125085918943, 0.24267865962218182, 0.2235557530222372, 0.2224141330849977, 0.16526793682565627]</t>
+          <t>[0.2794599231283232, 0.24599011325492773, 0.24265080740284387, 0.2386088669874197, 0.1601736092280639, 0.14535389123074735, 0.10096862190940482]</t>
         </is>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I78" t="b">
         <v>1</v>
@@ -3648,22 +3648,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.219|x2: 0.128|x3: 0.047|x4: 0.113|x5: 0.094|x6: 0.126|x7: 0.000|x8: 0.000|x9: 0.140|x10: 0.113|x11: 0.222|x12: 0.161|x13: 0.147|x14: 0.180|x15: 0.102|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.173|x2: 0.108|x3: 0.000|x4: 0.087|x5: 0.105|x6: 0.131|x7: 0.067|x8: 0.000|x9: 0.063|x10: 0.129|x11: 0.333|x12: 0.225|x13: 0.124|x14: 0.176|x15: 0.146|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.22]</t>
+          <t>[0.00, 0.11, 0.33]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[11, 1, 14, 12, 13, 9, 2, 6, 10, 4, 15]</t>
+          <t>[11, 12, 14, 1, 15, 6, 10, 13, 2, 5]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.2221600441655191, 0.2188989190265802, 0.18044275067145418, 0.16122457065007653, 0.14697382709914783, 0.13987114333188624, 0.12826793331434244, 0.12569590440693532, 0.11284297298084671, 0.11281580729530974, 0.10179242042699269]</t>
+          <t>[0.33349887727744426, 0.2252759499590762, 0.17616299159236426, 0.17272104019470524, 0.14593637002505866, 0.13064031041723737, 0.12947097014369682, 0.12408344459680458, 0.10846911442863318, 0.10455092725822578]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3689,22 +3689,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.050|x2: 0.000|x3: 0.074|x4: 0.065|x5: 0.215|x6: 0.183|x7: 0.224|x8: 0.169|x9: 0.000|x10: 0.241|x11: 0.000|x12: 0.229|x13: 0.121|x14: 0.117|x15: 0.083|x16: 0.165|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.238|x6: 0.229|x7: 0.260|x8: 0.212|x9: 0.000|x10: 0.241|x11: 0.055|x12: 0.252|x13: 0.136|x14: 0.090|x15: 0.000|x16: 0.205|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.24]</t>
+          <t>[0.00, 0.12, 0.26]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[10, 12, 7, 5, 6, 8, 16, 13, 14]</t>
+          <t>[7, 12, 10, 5, 6, 8, 16, 13]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.2406259214875853, 0.22882645591328674, 0.22400313513863082, 0.21519492013217514, 0.1834566184599705, 0.1692159268017414, 0.16535211485173087, 0.1212212505930948, 0.11711515149275016]</t>
+          <t>[0.2598881616238621, 0.25197683975239465, 0.24119030302856004, 0.2378994512767133, 0.22860997274555747, 0.21172170857759479, 0.2049404327022385, 0.13598960407419602]</t>
         </is>
       </c>
       <c r="H80" t="b">
@@ -3730,7 +3730,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.123|x3: 0.000|x4: 0.158|x5: 0.263|x6: 0.000|x7: 0.191|x8: 0.053|x9: 0.000|x10: 0.088|x11: 0.000|x12: 0.195|x13: 0.316|x14: 0.069|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.107|x3: 0.000|x4: 0.153|x5: 0.294|x6: 0.000|x7: 0.182|x8: 0.111|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.124|x13: 0.322|x14: 0.153|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -3740,12 +3740,12 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[13, 5, 12, 7, 4, 2]</t>
+          <t>[13, 5, 7, 4, 14, 12, 8, 2]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.31571408968090015, 0.26299833182399895, 0.1946236737927818, 0.19112649302084994, 0.15767214240437674, 0.12305022456961447]</t>
+          <t>[0.32162054819130775, 0.2941028701224543, 0.1823156729425922, 0.15290313151424625, 0.15253309440695104, 0.1240404590365722, 0.1106602443046269, 0.10719326964657554]</t>
         </is>
       </c>
       <c r="H81" t="b">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.102|x2: 0.086|x3: 0.000|x4: 0.147|x5: 0.000|x6: 0.122|x7: 0.155|x8: 0.000|x9: 0.074|x10: 0.045|x11: 0.249|x12: 0.000|x13: 0.035|x14: 0.035|x15: 0.000|x16: 0.041|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.101|x3: 0.000|x4: 0.169|x5: 0.000|x6: 0.120|x7: 0.114|x8: 0.000|x9: 0.071|x10: 0.000|x11: 0.247|x12: 0.000|x13: 0.046|x14: 0.100|x15: 0.000|x16: 0.042|x17: 0.000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -3781,12 +3781,12 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[11, 7, 4, 6, 1]</t>
+          <t>[11, 4, 6, 7, 2]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.2489465465799762, 0.154964475744513, 0.14692762463237993, 0.12202991335429517, 0.10198194590729687]</t>
+          <t>[0.2468251152962055, 0.169320420223892, 0.11957132904859138, 0.1136872194242647, 0.1005754777336332]</t>
         </is>
       </c>
       <c r="H82" t="b">
@@ -3812,22 +3812,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.109|x2: 0.175|x3: 0.000|x4: 0.108|x5: 0.000|x6: 0.157|x7: 0.154|x8: 0.000|x9: 0.290|x10: 0.000|x11: 0.047|x12: 0.370|x13: 0.263|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.083|x2: 0.369|x3: 0.000|x4: 0.069|x5: 0.000|x6: 0.123|x7: 0.162|x8: 0.000|x9: 0.208|x10: 0.000|x11: 0.094|x12: 0.402|x13: 0.234|x14: 0.146|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.37]</t>
+          <t>[0.00, 0.11, 0.40]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[12, 9, 13, 2, 6, 7, 1, 4]</t>
+          <t>[12, 2, 13, 9, 7, 14, 6]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[0.37021261690081636, 0.28957093269589845, 0.2628637066099365, 0.17548509782509777, 0.15678693585822143, 0.15378063271662515, 0.10882140000097065, 0.10782912435668085]</t>
+          <t>[0.4019911740225669, 0.36856314362261194, 0.23441816139321936, 0.20826550782104175, 0.1624204236123236, 0.14586574893858667, 0.12327675553581091]</t>
         </is>
       </c>
       <c r="H83" t="b">
@@ -3853,22 +3853,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.053|x3: 0.198|x4: 0.075|x5: 0.000|x6: 0.085|x7: 0.174|x8: 0.000|x9: 0.133|x10: 0.167|x11: 0.209|x12: 0.145|x13: 0.137|x14: 0.121|x15: 0.000|x16: 0.180|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.053|x3: 0.255|x4: 0.091|x5: 0.000|x6: 0.000|x7: 0.134|x8: 0.000|x9: 0.144|x10: 0.219|x11: 0.262|x12: 0.138|x13: 0.141|x14: 0.091|x15: 0.000|x16: 0.214|x17: 0.000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.21]</t>
+          <t>[0.00, 0.11, 0.26]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[11, 3, 16, 7, 10, 12, 13, 9, 14]</t>
+          <t>[11, 3, 10, 16, 9, 13, 12, 7]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.208873471576162, 0.19791591830414912, 0.17971740523872695, 0.1739300936853365, 0.16655970140942922, 0.14488858553301545, 0.13673595229708496, 0.13268342981034142, 0.12097704937075374]</t>
+          <t>[0.2621211171191206, 0.2548527177743149, 0.21922134053953518, 0.2135399385881895, 0.14382812276751974, 0.1413035847045106, 0.13824893384664846, 0.133861041190191]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -3894,22 +3894,22 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.000|x3: 0.000|x4: 0.052|x5: 0.111|x6: 0.128|x7: 0.124|x8: 0.102|x9: 0.330|x10: 0.154|x11: 0.000|x12: 0.330|x13: 0.283|x14: 0.250|x15: 0.059|x16: 0.089|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.061|x4: 0.000|x5: 0.072|x6: 0.116|x7: 0.191|x8: 0.068|x9: 0.306|x10: 0.211|x11: 0.000|x12: 0.421|x13: 0.305|x14: 0.373|x15: 0.061|x16: 0.136|x17: 0.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.33]</t>
+          <t>[0.00, 0.14, 0.42]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[9, 12, 13, 14, 10, 6, 7, 5, 8]</t>
+          <t>[12, 14, 9, 13, 10, 7, 16, 6]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.33006493525131153, 0.3295238747886829, 0.2834521588587827, 0.250253714130539, 0.15446865911507243, 0.1277265924918245, 0.12399460755669162, 0.11086861782063501, 0.10240101433996907]</t>
+          <t>[0.42057822181076954, 0.37253851605028115, 0.30615438814058216, 0.3047624762311711, 0.21116608518094426, 0.19106033368182815, 0.13570425166258254, 0.11631308384844254]</t>
         </is>
       </c>
       <c r="H85" t="b">
@@ -3935,22 +3935,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.181|x2: 0.173|x3: 0.000|x4: 0.000|x5: 0.110|x6: 0.000|x7: 0.067|x8: 0.062|x9: 0.000|x10: 0.056|x11: 0.000|x12: 0.165|x13: 0.091|x14: 0.322|x15: 0.000|x16: 0.119|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.158|x3: 0.000|x4: 0.000|x5: 0.117|x6: 0.000|x7: 0.132|x8: 0.081|x9: 0.000|x10: 0.085|x11: 0.067|x12: 0.214|x13: 0.074|x14: 0.272|x15: 0.072|x16: 0.116|x17: 0.000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.32]</t>
+          <t>[0.00, 0.09, 0.27]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[14, 1, 2, 12, 16, 5]</t>
+          <t>[14, 12, 2, 7, 5, 16, 1]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.3218490525152884, 0.18120972714628483, 0.17281722432556068, 0.1647644134660873, 0.11875489416026787, 0.1095686081688208]</t>
+          <t>[0.27158326918947245, 0.2139250601579812, 0.1584855390956216, 0.13212571501686413, 0.11660536717459918, 0.11563813967873614, 0.10012271641000936]</t>
         </is>
       </c>
       <c r="H86" t="b">
@@ -3976,22 +3976,22 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.067|x3: 0.000|x4: 0.075|x5: 0.039|x6: 0.000|x7: 0.000|x8: 0.035|x9: 0.000|x10: 0.000|x11: 0.092|x12: 0.120|x13: 0.056|x14: 0.073|x15: 0.102|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.070|x3: 0.000|x4: 0.088|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.043|x9: 0.000|x10: 0.000|x11: 0.084|x12: 0.106|x13: 0.000|x14: 0.102|x15: 0.129|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.12]</t>
+          <t>[0.00, 0.04, 0.13]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[12, 15]</t>
+          <t>[15, 12, 14]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.12040490270519447, 0.10154913850083573]</t>
+          <t>[0.12855416464846464, 0.10580356119786367, 0.10179897990857477]</t>
         </is>
       </c>
       <c r="H87" t="b">
@@ -4017,22 +4017,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.000|x3: 0.047|x4: 0.082|x5: 0.180|x6: 0.159|x7: 0.156|x8: 0.109|x9: 0.149|x10: 0.111|x11: 0.370|x12: 0.224|x13: 0.262|x14: 0.186|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.071|x2: 0.000|x3: 0.139|x4: 0.059|x5: 0.124|x6: 0.142|x7: 0.095|x8: 0.166|x9: 0.183|x10: 0.092|x11: 0.321|x12: 0.235|x13: 0.177|x14: 0.162|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.37]</t>
+          <t>[0.00, 0.12, 0.32]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[11, 13, 12, 14, 5, 6, 7, 9, 1, 10, 8]</t>
+          <t>[11, 12, 9, 13, 8, 14, 6, 3, 5]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[0.3700244955920683, 0.26213944389873906, 0.2237840604188669, 0.18634531286786535, 0.18003627091419777, 0.15942721891182027, 0.15630764946678657, 0.14916415872663838, 0.11455643449078644, 0.11145598489290494, 0.1094458403488235]</t>
+          <t>[0.32063177911854795, 0.23506107032941975, 0.18337158841803128, 0.17706000599360144, 0.16583340667798666, 0.16160248068371458, 0.14230043071157686, 0.13896696433620737, 0.12377115824059193]</t>
         </is>
       </c>
       <c r="H88" t="b">
@@ -4058,22 +4058,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.210|x3: 0.000|x4: 0.000|x5: 0.095|x6: 0.275|x7: 0.000|x8: 0.236|x9: 0.066|x10: 0.000|x11: 0.090|x12: 0.252|x13: 0.145|x14: 0.155|x15: 0.156|x16: 0.148|x17: 0.000</t>
+          <t>x1: 0.068|x2: 0.137|x3: 0.077|x4: 0.000|x5: 0.084|x6: 0.191|x7: 0.000|x8: 0.194|x9: 0.082|x10: 0.075|x11: 0.189|x12: 0.281|x13: 0.134|x14: 0.233|x15: 0.213|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.28]</t>
+          <t>[0.00, 0.12, 0.28]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[6, 12, 8, 2, 15, 14, 16, 13]</t>
+          <t>[12, 14, 15, 8, 6, 11, 16, 2, 13]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.27516625387619287, 0.2523038356275165, 0.2359685115951908, 0.20964705695945623, 0.1564035183438972, 0.15484424062060942, 0.14774142569025064, 0.145409703251893]</t>
+          <t>[0.2814849033680742, 0.23339109357951396, 0.2133305541641091, 0.19410882357540327, 0.19063735749099672, 0.1885584800479032, 0.1522887819842598, 0.13695086030594944, 0.13403930562336552]</t>
         </is>
       </c>
       <c r="H89" t="b">
@@ -4099,22 +4099,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.095|x3: 0.000|x4: 0.000|x5: 0.126|x6: 0.140|x7: 0.136|x8: 0.066|x9: 0.406|x10: 0.093|x11: 0.208|x12: 0.265|x13: 0.263|x14: 0.000|x15: 0.048|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.110|x2: 0.179|x3: 0.000|x4: 0.000|x5: 0.148|x6: 0.161|x7: 0.000|x8: 0.120|x9: 0.408|x10: 0.158|x11: 0.247|x12: 0.248|x13: 0.356|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.41]</t>
+          <t>[0.00, 0.13, 0.41]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[9, 12, 13, 11, 6, 7, 5]</t>
+          <t>[9, 13, 12, 11, 2, 6, 10, 5, 8, 1]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.4056355642958208, 0.2653304184833067, 0.26344590461905143, 0.2079718078373209, 0.14018569737508124, 0.13550898558179367, 0.12601325614074582]</t>
+          <t>[0.4082043388184158, 0.35559204303867115, 0.24834974436614815, 0.24680488577483375, 0.17868868182068987, 0.16074787692272938, 0.15824478902452466, 0.14790418608950678, 0.1199053573073035, 0.11046757253662003]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4140,22 +4140,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.063|x3: 0.125|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.157|x8: 0.000|x9: 0.312|x10: 0.000|x11: 0.198|x12: 0.209|x13: 0.243|x14: 0.174|x15: 0.120|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.105|x3: 0.080|x4: 0.000|x5: 0.078|x6: 0.000|x7: 0.139|x8: 0.000|x9: 0.281|x10: 0.000|x11: 0.196|x12: 0.237|x13: 0.266|x14: 0.205|x15: 0.143|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.31]</t>
+          <t>[0.00, 0.10, 0.28]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[9, 13, 12, 11, 14, 7, 3, 15]</t>
+          <t>[9, 13, 12, 14, 11, 15, 7, 2]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.31163541316944254, 0.2428721940080123, 0.20915841295369028, 0.19803346924124335, 0.1740404923848608, 0.15733226602021227, 0.12480064265663153, 0.12020993656777008]</t>
+          <t>[0.2810868256575925, 0.26581427447933587, 0.2371836989952646, 0.20532440258265924, 0.19557202017522393, 0.14252462923599984, 0.1394958880093052, 0.1052855029135744]</t>
         </is>
       </c>
       <c r="H91" t="b">
@@ -4181,22 +4181,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.246|x5: 0.126|x6: 0.186|x7: 0.125|x8: 0.114|x9: 0.258|x10: 0.000|x11: 0.000|x12: 0.461|x13: 0.264|x14: 0.222|x15: 0.263|x16: 0.182|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.086|x4: 0.188|x5: 0.189|x6: 0.256|x7: 0.000|x8: 0.124|x9: 0.238|x10: 0.067|x11: 0.000|x12: 0.426|x13: 0.263|x14: 0.296|x15: 0.316|x16: 0.182|x17: 0.000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.46]</t>
+          <t>[0.00, 0.15, 0.43]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[12, 13, 15, 9, 4, 14, 6, 16, 5, 7, 8]</t>
+          <t>[12, 15, 14, 13, 6, 9, 5, 4, 16, 8]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.461469955039263, 0.263526373101741, 0.26349959686859903, 0.25826249978887467, 0.24576456535350974, 0.22220837147217182, 0.1861712973420889, 0.18216704393266858, 0.12571497147282765, 0.12523225678107286, 0.11437241757575263]</t>
+          <t>[0.42595910419868865, 0.3158923171596854, 0.2956791187286605, 0.2630759835036764, 0.2557264336327774, 0.23774810396371815, 0.18949390690875895, 0.188028718019299, 0.18183476093095846, 0.12425146367539673]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4222,22 +4222,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.169|x2: 0.000|x3: 0.000|x4: 0.113|x5: 0.226|x6: 0.107|x7: 0.000|x8: 0.054|x9: 0.153|x10: 0.000|x11: 0.214|x12: 0.157|x13: 0.238|x14: 0.221|x15: 0.152|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.173|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.264|x6: 0.179|x7: 0.000|x8: 0.077|x9: 0.146|x10: 0.000|x11: 0.156|x12: 0.206|x13: 0.244|x14: 0.215|x15: 0.167|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.24]</t>
+          <t>[0.00, 0.11, 0.26]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[13, 5, 14, 11, 1, 12, 9, 15, 16, 4, 6]</t>
+          <t>[5, 13, 14, 12, 6, 1, 15, 11, 9]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.2375154202692314, 0.22647463318102046, 0.22141095346282158, 0.21424192884286225, 0.16942118144985654, 0.15705861320144912, 0.15267701651662952, 0.15213922953014242, 0.1143181443676133, 0.11289141372253031, 0.10664402028468642]</t>
+          <t>[0.2643648100134093, 0.24405945278964644, 0.2151328104286323, 0.2064669974975213, 0.17937947521485145, 0.17266831287002465, 0.16668331225757824, 0.1555523492115244, 0.14586043932282539]</t>
         </is>
       </c>
       <c r="H93" t="b">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.100|x2: 0.041|x3: 0.000|x4: 0.180|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.059|x10: 0.000|x11: 0.000|x12: 0.105|x13: 0.218|x14: 0.287|x15: 0.307|x16: 0.136|x17: 0.000</t>
+          <t>x1: 0.211|x2: 0.110|x3: 0.000|x4: 0.119|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.097|x10: 0.053|x11: 0.000|x12: 0.080|x13: 0.162|x14: 0.264|x15: 0.313|x16: 0.107|x17: 0.000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.31]</t>
+          <t>[0.00, 0.09, 0.31]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[15, 14, 13, 4, 16, 12]</t>
+          <t>[15, 14, 1, 13, 4, 2, 16]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.3074388497332987, 0.28745778884267104, 0.21785014104279932, 0.1799176936476078, 0.136207951830518, 0.10525756842696787]</t>
+          <t>[0.3128326727286172, 0.2641155454695094, 0.21063174664420714, 0.16204689013691861, 0.11903384991878391, 0.10987295279065439, 0.10725384260981459]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4304,22 +4304,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.130|x3: 0.000|x4: 0.066|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.138|x10: 0.075|x11: 0.058|x12: 0.128|x13: 0.247|x14: 0.275|x15: 0.142|x16: 0.080|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.191|x3: 0.000|x4: 0.082|x5: 0.000|x6: 0.083|x7: 0.116|x8: 0.000|x9: 0.146|x10: 0.095|x11: 0.116|x12: 0.134|x13: 0.324|x14: 0.313|x15: 0.157|x16: 0.100|x17: 0.000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.27]</t>
+          <t>[0.00, 0.11, 0.32]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[14, 13, 15, 9, 2, 12]</t>
+          <t>[13, 14, 2, 15, 9, 12, 11, 7, 16]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.27451571052487145, 0.2469457364556648, 0.14164106732562123, 0.13775771946143492, 0.13044968180106964, 0.12849986092329316]</t>
+          <t>[0.32419990304094726, 0.3133268027022865, 0.19094272212945607, 0.1572709867121675, 0.1463652773363189, 0.13406947262181293, 0.11603691264552667, 0.11570684266437353, 0.10000648815542311]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.161|x2: 0.160|x3: 0.116|x4: 0.000|x5: 0.000|x6: 0.065|x7: 0.121|x8: 0.178|x9: 0.279|x10: 0.000|x11: 0.133|x12: 0.183|x13: 0.209|x14: 0.088|x15: 0.246|x16: 0.070|x17: 0.000</t>
+          <t>x1: 0.203|x2: 0.075|x3: 0.081|x4: 0.000|x5: 0.000|x6: 0.059|x7: 0.171|x8: 0.171|x9: 0.279|x10: 0.000|x11: 0.136|x12: 0.247|x13: 0.231|x14: 0.140|x15: 0.238|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4355,19 +4355,19 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[9, 15, 13, 12, 8, 1, 2, 11, 7, 3]</t>
+          <t>[9, 12, 15, 13, 1, 7, 8, 14, 11]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.27866874077721315, 0.24646420200601865, 0.2090350503861787, 0.1831361815489829, 0.17810297787011117, 0.16115945929864908, 0.15971138852097025, 0.13328223533872727, 0.1209192902416191, 0.1164622115905042]</t>
+          <t>[0.2786610923506202, 0.24700247086058721, 0.2376857635885568, 0.23145867211261678, 0.2028282256955925, 0.17120130540549583, 0.1708407969957484, 0.1396639935052229, 0.1360646435399073]</t>
         </is>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -4386,7 +4386,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.073|x5: 0.081|x6: 0.153|x7: 0.196|x8: 0.040|x9: 0.205|x10: 0.000|x11: 0.130|x12: 0.191|x13: 0.240|x14: 0.199|x15: 0.169|x16: 0.050|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.069|x5: 0.131|x6: 0.117|x7: 0.179|x8: 0.041|x9: 0.234|x10: 0.000|x11: 0.099|x12: 0.211|x13: 0.241|x14: 0.170|x15: 0.167|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -4396,12 +4396,12 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[13, 9, 14, 7, 12, 15, 6, 11]</t>
+          <t>[13, 9, 12, 7, 14, 15, 5, 6]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.24007075242463702, 0.20470201665257473, 0.19896067495169792, 0.1960170650273256, 0.19057727797288423, 0.1690307047843901, 0.15332214216019066, 0.13048202589559788]</t>
+          <t>[0.2410562536806964, 0.2339249428081821, 0.2106463862829793, 0.17892623176010353, 0.16985639969915065, 0.1671114350651627, 0.13107361713124513, 0.11736169095042442]</t>
         </is>
       </c>
       <c r="H97" t="b">
@@ -4427,22 +4427,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.119|x2: 0.077|x3: 0.000|x4: 0.180|x5: 0.000|x6: 0.196|x7: 0.000|x8: 0.000|x9: 0.240|x10: 0.000|x11: 0.149|x12: 0.178|x13: 0.177|x14: 0.180|x15: 0.087|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.113|x2: 0.000|x3: 0.000|x4: 0.264|x5: 0.000|x6: 0.127|x7: 0.054|x8: 0.000|x9: 0.275|x10: 0.094|x11: 0.130|x12: 0.251|x13: 0.216|x14: 0.243|x15: 0.144|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.24]</t>
+          <t>[0.00, 0.11, 0.28]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[9, 6, 4, 14, 12, 13, 11, 1]</t>
+          <t>[9, 4, 12, 14, 13, 15, 11, 6, 1]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.23981958816517288, 0.19582690483045573, 0.18034266389326076, 0.1801351962280706, 0.17773443855663107, 0.1767121849443334, 0.14930486446412813, 0.11946155548496527]</t>
+          <t>[0.2750001447180909, 0.26384140213533835, 0.25139171086510037, 0.2434458069444708, 0.2158696557866198, 0.14392696191929136, 0.13003138993552996, 0.12712564646825628, 0.11287998623787483]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4468,22 +4468,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.061|x2: 0.092|x3: 0.212|x4: 0.000|x5: 0.130|x6: 0.000|x7: 0.182|x8: 0.000|x9: 0.000|x10: 0.223|x11: 0.000|x12: 0.113|x13: 0.144|x14: 0.164|x15: 0.270|x16: 0.133|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.080|x3: 0.147|x4: 0.000|x5: 0.126|x6: 0.050|x7: 0.167|x8: 0.000|x9: 0.052|x10: 0.160|x11: 0.000|x12: 0.100|x13: 0.093|x14: 0.195|x15: 0.280|x16: 0.091|x17: 0.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.27]</t>
+          <t>[0.00, 0.09, 0.28]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[15, 10, 3, 7, 14, 13, 16, 5, 12]</t>
+          <t>[15, 14, 7, 10, 3, 5]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.2697750245837671, 0.22340660393337797, 0.21200337007332012, 0.18157403896445864, 0.16383525684917588, 0.1440742370646883, 0.13294147960466363, 0.1304634601192166, 0.11349385959644362]</t>
+          <t>[0.2803763070716851, 0.19494300118634575, 0.16659063725967937, 0.16000509266655147, 0.14727294505478492, 0.1259842625446066]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4509,22 +4509,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.134|x2: 0.068|x3: 0.000|x4: 0.094|x5: 0.000|x6: 0.000|x7: 0.186|x8: 0.000|x9: 0.085|x10: 0.145|x11: 0.161|x12: 0.219|x13: 0.258|x14: 0.124|x15: 0.196|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.161|x2: 0.000|x3: 0.000|x4: 0.068|x5: 0.087|x6: 0.000|x7: 0.126|x8: 0.000|x9: 0.000|x10: 0.139|x11: 0.175|x12: 0.188|x13: 0.290|x14: 0.164|x15: 0.182|x16: 0.086|x17: 0.000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.26]</t>
+          <t>[0.00, 0.10, 0.29]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[13, 12, 15, 7, 11, 10, 1, 14]</t>
+          <t>[13, 12, 15, 11, 14, 1, 10, 7]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.25814969064498533, 0.21921280577493324, 0.19646481875471053, 0.1864495551827326, 0.16080423702664695, 0.1449902161212385, 0.13416485706105047, 0.12376832594131568]</t>
+          <t>[0.28981123082582955, 0.1878732591132038, 0.181789862234941, 0.17547526743693626, 0.16394391264826755, 0.1609698396652628, 0.13941415446261998, 0.1257783998762507]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4550,22 +4550,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.170|x7: 0.151|x8: 0.209|x9: 0.253|x10: 0.000|x11: 0.209|x12: 0.233|x13: 0.095|x14: 0.182|x15: 0.208|x16: 0.053|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.105|x5: 0.000|x6: 0.190|x7: 0.136|x8: 0.223|x9: 0.215|x10: 0.000|x11: 0.233|x12: 0.298|x13: 0.133|x14: 0.168|x15: 0.202|x16: 0.079|x17: 0.000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.25]</t>
+          <t>[0.00, 0.12, 0.30]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[9, 12, 8, 11, 15, 14, 6, 7]</t>
+          <t>[12, 11, 8, 9, 15, 6, 14, 7, 13, 4]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.25273466695806557, 0.23262194176105866, 0.2094374943918343, 0.208792228294925, 0.20811269099301025, 0.1817638842396359, 0.1701760414281003, 0.15084011119701365]</t>
+          <t>[0.29802529632530467, 0.23295976156631407, 0.2229034077738215, 0.215142535641369, 0.20192427123044168, 0.18954580456749576, 0.16842767101969564, 0.1356817908796564, 0.13293158540183325, 0.10526029439068353]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.000|x3: 0.000|x4: 0.143|x5: 0.064|x6: 0.076|x7: 0.074|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.088|x12: 0.000|x13: 0.131|x14: 0.185|x15: 0.077|x16: 0.153|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.103|x5: 0.155|x6: 0.172|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.094|x12: 0.055|x13: 0.098|x14: 0.233|x15: 0.066|x16: 0.167|x17: 0.000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.18]</t>
+          <t>[0.00, 0.07, 0.23]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[14, 16, 4, 13]</t>
+          <t>[14, 6, 16, 5, 4]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.18462807109167595, 0.15321068600632204, 0.14275384776995578, 0.1310780581013642]</t>
+          <t>[0.23288946120037587, 0.17245630214467877, 0.16749561498706525, 0.1547262523162641, 0.10313143709869066]</t>
         </is>
       </c>
       <c r="H102" t="b">
@@ -4632,22 +4632,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.218|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.074|x6: 0.000|x7: 0.000|x8: 0.086|x9: 0.000|x10: 0.091|x11: 0.000|x12: 0.120|x13: 0.116|x14: 0.076|x15: 0.157|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.186|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.177|x6: 0.096|x7: 0.000|x8: 0.110|x9: 0.000|x10: 0.082|x11: 0.000|x12: 0.141|x13: 0.106|x14: 0.109|x15: 0.183|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>[0.00, 0.07, 0.19]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[1, 15, 12, 13]</t>
+          <t>[1, 15, 5, 12, 8, 14, 13]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.21760087269467793, 0.1569609301469418, 0.11981085222219236, 0.11633636998596515]</t>
+          <t>[0.18598670573124756, 0.18285271748239315, 0.17725136605832603, 0.14065180445743208, 0.11021447541442832, 0.10935255308516847, 0.10604687003471812]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4673,26 +4673,26 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.092|x4: 0.063|x5: 0.124|x6: 0.116|x7: 0.000|x8: 0.000|x9: 0.152|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.142|x14: 0.190|x15: 0.187|x16: 0.135|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.059|x4: 0.000|x5: 0.140|x6: 0.086|x7: 0.000|x8: 0.000|x9: 0.119|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.097|x14: 0.170|x15: 0.158|x16: 0.106|x17: 0.000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.19]</t>
+          <t>[0.00, 0.05, 0.17]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[14, 15, 9, 13, 16, 5, 6]</t>
+          <t>[14, 15, 5, 9, 16]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.18990578291234386, 0.18670117330630728, 0.15243800909950458, 0.1423653251866527, 0.13484502130215636, 0.12361383684788427, 0.1164673910630152]</t>
+          <t>[0.16953986298029455, 0.15787188003228594, 0.13985922001694434, 0.11900784660395641, 0.10612399084134717]</t>
         </is>
       </c>
       <c r="H104" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -4714,22 +4714,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.126|x2: 0.000|x3: 0.000|x4: 0.126|x5: 0.107|x6: 0.058|x7: 0.052|x8: 0.000|x9: 0.141|x10: 0.000|x11: 0.093|x12: 0.116|x13: 0.146|x14: 0.125|x15: 0.090|x16: 0.110|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.181|x5: 0.096|x6: 0.000|x7: 0.052|x8: 0.000|x9: 0.163|x10: 0.000|x11: 0.125|x12: 0.200|x13: 0.120|x14: 0.161|x15: 0.096|x16: 0.055|x17: 0.000</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.15]</t>
+          <t>[0.00, 0.07, 0.20]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[13, 9, 1, 4, 14, 12, 16, 5]</t>
+          <t>[12, 4, 9, 14, 11, 13]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.145914082764634, 0.14090577299357743, 0.12637084127964152, 0.12571919151462635, 0.12464997879509863, 0.116393028239696, 0.10983729983622796, 0.1070754747674973]</t>
+          <t>[0.20011788431243324, 0.18050443546691583, 0.16287367821697424, 0.16141113544360564, 0.12538527381465422, 0.11956728350254647]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4755,22 +4755,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.044|x3: 0.047|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.128|x9: 0.000|x10: 0.000|x11: 0.095|x12: 0.064|x13: 0.087|x14: 0.212|x15: 0.073|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.090|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.169|x12: 0.182|x13: 0.080|x14: 0.214|x15: 0.094|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.21]</t>
+          <t>[0.00, 0.05, 0.21]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[14, 8]</t>
+          <t>[14, 12, 11]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.2118265729884799, 0.12768408546528895]</t>
+          <t>[0.21370511131806205, 0.182137254038853, 0.1691276008682561]</t>
         </is>
       </c>
       <c r="H106" t="b">
@@ -4796,22 +4796,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.092|x2: 0.081|x3: 0.107|x4: 0.000|x5: 0.192|x6: 0.071|x7: 0.081|x8: 0.100|x9: 0.000|x10: 0.198|x11: 0.098|x12: 0.108|x13: 0.145|x14: 0.257|x15: 0.160|x16: 0.179|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.079|x3: 0.079|x4: 0.000|x5: 0.199|x6: 0.000|x7: 0.000|x8: 0.147|x9: 0.000|x10: 0.206|x11: 0.116|x12: 0.115|x13: 0.000|x14: 0.283|x15: 0.186|x16: 0.227|x17: 0.000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.26]</t>
+          <t>[0.00, 0.10, 0.28]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[14, 10, 5, 16, 15, 13, 12, 3, 8]</t>
+          <t>[14, 16, 10, 5, 15, 8, 1, 11, 12]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.25694742813176863, 0.1981628200435537, 0.19212204382641798, 0.17861082783081725, 0.16039486635074215, 0.1454772562113062, 0.10757064277638118, 0.10736610814017396, 0.1004915898754125]</t>
+          <t>[0.2825928273561896, 0.22667033890255475, 0.2060884280761995, 0.1986986074361659, 0.18635263523892032, 0.14681906368347225, 0.1249304535214475, 0.11645719254499891, 0.11542368379111564]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4837,22 +4837,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.110|x3: 0.074|x4: 0.068|x5: 0.000|x6: 0.053|x7: 0.149|x8: 0.103|x9: 0.202|x10: 0.000|x11: 0.267|x12: 0.267|x13: 0.079|x14: 0.110|x15: 0.069|x16: 0.100|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.093|x3: 0.128|x4: 0.000|x5: 0.059|x6: 0.101|x7: 0.205|x8: 0.000|x9: 0.211|x10: 0.000|x11: 0.251|x12: 0.285|x13: 0.072|x14: 0.092|x15: 0.061|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.27]</t>
+          <t>[0.00, 0.09, 0.28]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[11, 12, 9, 7, 2, 14, 8]</t>
+          <t>[12, 11, 9, 7, 3, 6]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.2670243237376043, 0.26679350223029336, 0.2018839995419602, 0.14906671239982885, 0.11047807626393838, 0.10961409200732145, 0.10294339747164877]</t>
+          <t>[0.2848878913991957, 0.25064696244741, 0.2109694793716224, 0.20496138927997018, 0.12783440115206818, 0.10134775805212844]</t>
         </is>
       </c>
       <c r="H108" t="b">
@@ -4878,22 +4878,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.174|x2: 0.000|x3: 0.292|x4: 0.179|x5: 0.090|x6: 0.078|x7: 0.000|x8: 0.000|x9: 0.120|x10: 0.000|x11: 0.242|x12: 0.091|x13: 0.241|x14: 0.135|x15: 0.105|x16: 0.191|x17: 0.000</t>
+          <t>x1: 0.213|x2: 0.000|x3: 0.287|x4: 0.181|x5: 0.074|x6: 0.127|x7: 0.095|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.343|x12: 0.126|x13: 0.252|x14: 0.117|x15: 0.000|x16: 0.200|x17: 0.000</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.29]</t>
+          <t>[0.00, 0.12, 0.34]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[3, 11, 13, 16, 4, 1, 14, 9, 15]</t>
+          <t>[11, 3, 13, 1, 16, 4, 6, 12, 14]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.2922135789609783, 0.24196333696252198, 0.24057015353804984, 0.19139126524579816, 0.17901978458044612, 0.17425722592181717, 0.13516840757210247, 0.11982324698604732, 0.10492562718553948]</t>
+          <t>[0.343035801381213, 0.287305298674085, 0.2518196329014255, 0.21328052515865936, 0.19986795654882913, 0.18148342155811759, 0.1272348615387768, 0.1262693779003167, 0.11689628164905119]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4919,29 +4919,29 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.084|x2: 0.120|x3: 0.149|x4: 0.210|x5: 0.094|x6: 0.129|x7: 0.194|x8: 0.085|x9: 0.080|x10: 0.079|x11: 0.087|x12: 0.120|x13: 0.172|x14: 0.132|x15: 0.000|x16: 0.108|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.182|x3: 0.129|x4: 0.264|x5: 0.076|x6: 0.235|x7: 0.221|x8: 0.058|x9: 0.069|x10: 0.099|x11: 0.141|x12: 0.173|x13: 0.158|x14: 0.165|x15: 0.000|x16: 0.073|x17: 0.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.21]</t>
+          <t>[0.00, 0.13, 0.26]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[4, 7, 13, 3, 14, 6, 12, 2, 16]</t>
+          <t>[4, 6, 7, 2, 12, 14, 13, 11, 3]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.21016411369160565, 0.1936246058997225, 0.17228199204732403, 0.14891351319526408, 0.13220451023159274, 0.12850501892720775, 0.12019816718493478, 0.11962971933580528, 0.10802491461127113]</t>
+          <t>[0.26423785236465197, 0.23515238908402258, 0.22119445187817455, 0.18186917805774108, 0.1729249662848591, 0.1651539429184643, 0.1575472853918907, 0.14143709860672218, 0.12894178653537466]</t>
         </is>
       </c>
       <c r="H110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4960,22 +4960,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.050|x2: 0.000|x3: 0.000|x4: 0.121|x5: 0.093|x6: 0.000|x7: 0.000|x8: 0.084|x9: 0.114|x10: 0.079|x11: 0.000|x12: 0.334|x13: 0.222|x14: 0.114|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.187|x5: 0.160|x6: 0.000|x7: 0.000|x8: 0.095|x9: 0.132|x10: 0.105|x11: 0.085|x12: 0.372|x13: 0.214|x14: 0.166|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.33]</t>
+          <t>[0.00, 0.09, 0.37]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[12, 13, 4, 9, 14]</t>
+          <t>[12, 13, 4, 14, 5, 9, 10]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.3335124440524838, 0.22192931407257463, 0.120847483387175, 0.1141350944852209, 0.11390301559729091]</t>
+          <t>[0.3716352824642934, 0.21400055222087427, 0.18704503546377, 0.16598923813136832, 0.16003998473753975, 0.132342787871362, 0.10530043007703002]</t>
         </is>
       </c>
       <c r="H111" t="b">
@@ -5001,12 +5001,12 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.150|x5: 0.219|x6: 0.172|x7: 0.118|x8: 0.051|x9: 0.155|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.063|x14: 0.076|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.148|x5: 0.258|x6: 0.213|x7: 0.139|x8: 0.000|x9: 0.156|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.087|x14: 0.095|x15: 0.044|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>[0.00, 0.07, 0.26]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.21907251576746442, 0.17187040602163944, 0.15473283621049086, 0.15014200675456965, 0.11793911852751165]</t>
+          <t>[0.2576393749549913, 0.21341927312973794, 0.15644160328522078, 0.14767066932785383, 0.13883892116547997]</t>
         </is>
       </c>
       <c r="H112" t="b">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.029|x5: 0.000|x6: 0.072|x7: 0.045|x8: 0.068|x9: 0.000|x10: 0.000|x11: 0.099|x12: 0.074|x13: 0.032|x14: 0.134|x15: 0.000|x16: 0.140|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.104|x5: 0.000|x6: 0.114|x7: 0.111|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.174|x12: 0.166|x13: 0.098|x14: 0.181|x15: 0.000|x16: 0.183|x17: 0.000</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.14]</t>
+          <t>[0.00, 0.07, 0.18]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[16, 14]</t>
+          <t>[16, 14, 11, 12, 6, 7, 4]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.13983466738452763, 0.13386476333107533]</t>
+          <t>[0.1832277495743993, 0.1807293377171925, 0.17351314578033328, 0.16585293696195721, 0.11432021128642661, 0.11144163045283977, 0.10379071413664148]</t>
         </is>
       </c>
       <c r="H113" t="b">
@@ -5083,26 +5083,26 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.150|x3: 0.160|x4: 0.115|x5: 0.000|x6: 0.184|x7: 0.117|x8: 0.324|x9: 0.178|x10: 0.000|x11: 0.000|x12: 0.198|x13: 0.235|x14: 0.000|x15: 0.064|x16: 0.175|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.178|x3: 0.203|x4: 0.068|x5: 0.000|x6: 0.194|x7: 0.112|x8: 0.266|x9: 0.218|x10: 0.000|x11: 0.163|x12: 0.230|x13: 0.269|x14: 0.000|x15: 0.084|x16: 0.215|x17: 0.000</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.32]</t>
+          <t>[0.00, 0.13, 0.27]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[8, 13, 12, 6, 9, 16, 3, 2, 7, 4]</t>
+          <t>[13, 8, 12, 9, 16, 3, 6, 2, 11, 7]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.32396893494607426, 0.23451983693463693, 0.19769355675497757, 0.1835329969917495, 0.17771590904929635, 0.17464648540538738, 0.15999264644868183, 0.15018106160705352, 0.11656354568218638, 0.11539187136159788]</t>
+          <t>[0.2692162805262492, 0.2657465830724682, 0.23031438629203826, 0.21772843530003647, 0.2154601779703823, 0.2030810270994365, 0.19430030458434444, 0.17844143500199997, 0.16250670570686965, 0.11189825602112378]</t>
         </is>
       </c>
       <c r="H114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="b">
         <v>1</v>
@@ -5124,22 +5124,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.224|x2: 0.105|x3: 0.098|x4: 0.000|x5: 0.151|x6: 0.208|x7: 0.126|x8: 0.000|x9: 0.146|x10: 0.000|x11: 0.138|x12: 0.000|x13: 0.061|x14: 0.238|x15: 0.000|x16: 0.149|x17: 0.000</t>
+          <t>x1: 0.137|x2: 0.078|x3: 0.000|x4: 0.000|x5: 0.184|x6: 0.166|x7: 0.148|x8: 0.000|x9: 0.168|x10: 0.000|x11: 0.185|x12: 0.000|x13: 0.000|x14: 0.263|x15: 0.000|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.24]</t>
+          <t>[0.00, 0.08, 0.26]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[14, 1, 6, 5, 16, 9, 11, 7, 2]</t>
+          <t>[14, 11, 5, 9, 6, 7, 1]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.23819277090773475, 0.22359953421322132, 0.20784026333637243, 0.150514826011113, 0.1488872384593345, 0.1456766746251867, 0.13787101844522698, 0.12571203492569794, 0.10520052335234059]</t>
+          <t>[0.2632105965061261, 0.18465202383541096, 0.18391582739079074, 0.16772894235949132, 0.16609147129807156, 0.1484651688555832, 0.13738793572038363]</t>
         </is>
       </c>
       <c r="H115" t="b">
@@ -5165,22 +5165,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.163|x4: 0.085|x5: 0.000|x6: 0.000|x7: 0.091|x8: 0.000|x9: 0.085|x10: 0.041|x11: 0.066|x12: 0.128|x13: 0.170|x14: 0.116|x15: 0.070|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.114|x4: 0.071|x5: 0.000|x6: 0.000|x7: 0.083|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.045|x12: 0.087|x13: 0.139|x14: 0.101|x15: 0.052|x16: 0.040|x17: 0.000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.17]</t>
+          <t>[0.00, 0.04, 0.14]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[13, 3, 12, 14]</t>
+          <t>[13, 3, 14]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.17048514144563762, 0.16290108000421244, 0.12824659951763467, 0.11583274487136201]</t>
+          <t>[0.1387823476372126, 0.11420804630663368, 0.10129758811246171]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5206,22 +5206,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.132|x2: 0.000|x3: 0.131|x4: 0.073|x5: 0.064|x6: 0.216|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.074|x12: 0.000|x13: 0.121|x14: 0.222|x15: 0.057|x16: 0.109|x17: 0.000</t>
+          <t>x1: 0.112|x2: 0.041|x3: 0.118|x4: 0.062|x5: 0.079|x6: 0.150|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.159|x14: 0.163|x15: 0.097|x16: 0.105|x17: 0.000</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.22]</t>
+          <t>[0.00, 0.06, 0.16]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[14, 6, 1, 3, 13, 16]</t>
+          <t>[14, 13, 6, 3, 1, 16]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.22228123837859645, 0.21630670954736514, 0.13217474359361212, 0.13092466788615903, 0.12094232156438538, 0.1090212499859848]</t>
+          <t>[0.16337127583000616, 0.15913205102915212, 0.1497060491713947, 0.11805712030242953, 0.1123820888974115, 0.10457809814500946]</t>
         </is>
       </c>
       <c r="H117" t="b">
@@ -5247,22 +5247,22 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.075|x3: 0.154|x4: 0.000|x5: 0.157|x6: 0.222|x7: 0.073|x8: 0.103|x9: 0.090|x10: 0.157|x11: 0.000|x12: 0.000|x13: 0.127|x14: 0.110|x15: 0.054|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.152|x2: 0.167|x3: 0.171|x4: 0.083|x5: 0.114|x6: 0.177|x7: 0.102|x8: 0.241|x9: 0.067|x10: 0.060|x11: 0.000|x12: 0.119|x13: 0.000|x14: 0.127|x15: 0.065|x16: 0.126|x17: 0.000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.22]</t>
+          <t>[0.00, 0.10, 0.24]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[6, 5, 10, 3, 13, 1, 16, 14, 8]</t>
+          <t>[8, 6, 3, 2, 1, 14, 16, 12, 5, 7]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.2216902914047865, 0.15728646095105137, 0.15695778049565104, 0.15365427589489491, 0.1273180267521097, 0.11824171408585554, 0.11449108889301876, 0.10955688857257331, 0.10255811680502418]</t>
+          <t>[0.24099716099131105, 0.17729441024738163, 0.17062041174239911, 0.16675929213001112, 0.1518777475681774, 0.12707111013638664, 0.12608000160729707, 0.11929080212761671, 0.11405908842242873, 0.1022554511074621]</t>
         </is>
       </c>
       <c r="H118" t="b">
@@ -5288,22 +5288,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.112|x2: 0.109|x3: 0.215|x4: 0.082|x5: 0.106|x6: 0.118|x7: 0.091|x8: 0.000|x9: 0.096|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.102|x14: 0.000|x15: 0.000|x16: 0.090|x17: 0.000</t>
+          <t>x1: 0.117|x2: 0.201|x3: 0.311|x4: 0.118|x5: 0.104|x6: 0.092|x7: 0.102|x8: 0.000|x9: 0.072|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.162|x14: 0.000|x15: 0.000|x16: 0.154|x17: 0.000</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.22]</t>
+          <t>[0.00, 0.08, 0.31]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[3, 6, 1, 2, 5, 13]</t>
+          <t>[3, 2, 13, 16, 4, 1, 5, 7]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.21535541275166148, 0.11772064557029802, 0.11201659965873487, 0.10873007453822857, 0.10602797561587328, 0.10176571520687383]</t>
+          <t>[0.31084083465383333, 0.20059968141585094, 0.162064671807387, 0.15434649779965642, 0.1183287853618548, 0.11682436436175132, 0.10410723935365246, 0.10166441458805466]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5329,22 +5329,22 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.000|x3: 0.186|x4: 0.318|x5: 0.059|x6: 0.217|x7: 0.304|x8: 0.000|x9: 0.152|x10: 0.159|x11: 0.000|x12: 0.153|x13: 0.176|x14: 0.244|x15: 0.082|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.135|x2: 0.000|x3: 0.197|x4: 0.400|x5: 0.140|x6: 0.261|x7: 0.371|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.199|x13: 0.240|x14: 0.282|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.32]</t>
+          <t>[0.00, 0.13, 0.40]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[4, 7, 14, 6, 3, 13, 10, 12, 9]</t>
+          <t>[4, 7, 14, 6, 13, 12, 3, 5, 1]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.3176805205432746, 0.3040108202914585, 0.2438652206106884, 0.21696987253115957, 0.18602598306447696, 0.17622290283128914, 0.15864836446268238, 0.1533717704300311, 0.15237981405499967]</t>
+          <t>[0.39968697294191746, 0.3709049110410921, 0.28210594963830976, 0.2614007543208711, 0.24017235608682647, 0.1986735900090609, 0.19725362802822483, 0.13992830084178076, 0.135284898322521]</t>
         </is>
       </c>
       <c r="H120" t="b">
@@ -5370,22 +5370,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.067|x3: 0.142|x4: 0.000|x5: 0.130|x6: 0.194|x7: 0.000|x8: 0.000|x9: 0.093|x10: 0.082|x11: 0.045|x12: 0.182|x13: 0.000|x14: 0.185|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.176|x4: 0.000|x5: 0.132|x6: 0.198|x7: 0.000|x8: 0.050|x9: 0.061|x10: 0.107|x11: 0.105|x12: 0.219|x13: 0.000|x14: 0.221|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.19]</t>
+          <t>[0.00, 0.07, 0.22]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[6, 14, 12, 3, 5]</t>
+          <t>[14, 12, 6, 3, 5, 10, 11]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.19390432293121382, 0.18499792476818427, 0.18163950738968335, 0.14178189026708826, 0.12987478566124297]</t>
+          <t>[0.22074689558158733, 0.21862946741505646, 0.19768570249614936, 0.1763650515856972, 0.13164691387879807, 0.10653586618142576, 0.10518309880316515]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5411,22 +5411,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.253|x2: 0.115|x3: 0.244|x4: 0.000|x5: 0.122|x6: 0.000|x7: 0.058|x8: 0.062|x9: 0.074|x10: 0.212|x11: 0.164|x12: 0.304|x13: 0.000|x14: 0.136|x15: 0.000|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.235|x2: 0.064|x3: 0.189|x4: 0.000|x5: 0.098|x6: 0.000|x7: 0.068|x8: 0.064|x9: 0.072|x10: 0.188|x11: 0.074|x12: 0.296|x13: 0.000|x14: 0.084|x15: 0.086|x16: 0.073|x17: 0.000</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.30]</t>
+          <t>[0.00, 0.09, 0.30]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[12, 1, 3, 10, 11, 14, 5, 2]</t>
+          <t>[12, 1, 3, 10]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.3036716614108765, 0.25254634007096943, 0.2442578970528079, 0.21229477290248686, 0.16421522225816254, 0.1362870824958098, 0.12150612567965793, 0.11543359374943407]</t>
+          <t>[0.29647214148626794, 0.23521912833628203, 0.18890882073051513, 0.18767457476312374]</t>
         </is>
       </c>
       <c r="H122" t="b">
@@ -5452,22 +5452,22 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.103|x3: 0.050|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.194|x8: 0.178|x9: 0.291|x10: 0.189|x11: 0.000|x12: 0.196|x13: 0.262|x14: 0.093|x15: 0.000|x16: 0.073|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.161|x3: 0.080|x4: 0.000|x5: 0.000|x6: 0.065|x7: 0.203|x8: 0.247|x9: 0.308|x10: 0.162|x11: 0.000|x12: 0.299|x13: 0.304|x14: 0.000|x15: 0.000|x16: 0.073|x17: 0.000</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.29]</t>
+          <t>[0.00, 0.11, 0.31]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[9, 13, 12, 7, 10, 8, 2]</t>
+          <t>[9, 13, 12, 8, 7, 10, 2]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.2911672501587846, 0.2621811767573477, 0.1958942489270044, 0.19376972638826093, 0.1888166048665843, 0.1776948831623354, 0.10262474991097785]</t>
+          <t>[0.30784859596057956, 0.30417573690142397, 0.2992282425191477, 0.24666092956911, 0.2034780652680652, 0.1621614085387618, 0.1610162141554649]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5493,22 +5493,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.120|x4: 0.386|x5: 0.227|x6: 0.166|x7: 0.000|x8: 0.292|x9: 0.061|x10: 0.000|x11: 0.000|x12: 0.058|x13: 0.119|x14: 0.071|x15: 0.000|x16: 0.106|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.159|x4: 0.457|x5: 0.198|x6: 0.227|x7: 0.000|x8: 0.348|x9: 0.067|x10: 0.121|x11: 0.000|x12: 0.097|x13: 0.182|x14: 0.078|x15: 0.000|x16: 0.095|x17: 0.000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.39]</t>
+          <t>[0.00, 0.12, 0.46]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[4, 8, 5, 6, 3, 13, 16]</t>
+          <t>[4, 8, 6, 5, 13, 3, 10]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[0.385612397833358, 0.2924186188374964, 0.22675017214094936, 0.16610105247906873, 0.12039391996429948, 0.11908071769802793, 0.10603868925821373]</t>
+          <t>[0.45675014587848184, 0.3484624435605257, 0.2269083276289751, 0.19832509301222132, 0.18173099142569654, 0.15894339600700863, 0.12113456810600814]</t>
         </is>
       </c>
       <c r="H124" t="b">
@@ -5534,22 +5534,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.133|x2: 0.000|x3: 0.000|x4: 0.301|x5: 0.000|x6: 0.079|x7: 0.051|x8: 0.080|x9: 0.150|x10: 0.047|x11: 0.174|x12: 0.169|x13: 0.136|x14: 0.088|x15: 0.062|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.054|x3: 0.000|x4: 0.270|x5: 0.094|x6: 0.050|x7: 0.050|x8: 0.000|x9: 0.141|x10: 0.000|x11: 0.197|x12: 0.139|x13: 0.141|x14: 0.104|x15: 0.000|x16: 0.061|x17: 0.000</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.30]</t>
+          <t>[0.00, 0.08, 0.27]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[4, 11, 12, 9, 13, 1]</t>
+          <t>[4, 11, 9, 13, 12, 14]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.30080816534789184, 0.1738035447646701, 0.16941817422460034, 0.14999053688428918, 0.13609423565722986, 0.1332238139310597]</t>
+          <t>[0.2702309518408875, 0.1972561828254406, 0.14095534592472775, 0.14067539608496363, 0.13913127308565118, 0.10365661355325673]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5575,22 +5575,22 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.152|x2: 0.000|x3: 0.043|x4: 0.246|x5: 0.139|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.166|x13: 0.221|x14: 0.234|x15: 0.000|x16: 0.150|x17: 0.000</t>
+          <t>x1: 0.047|x2: 0.057|x3: 0.000|x4: 0.307|x5: 0.148|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.054|x12: 0.198|x13: 0.216|x14: 0.261|x15: 0.000|x16: 0.060|x17: 0.000</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.25]</t>
+          <t>[0.00, 0.08, 0.31]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[4, 14, 13, 12, 1, 16, 5]</t>
+          <t>[4, 14, 13, 12, 5]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[0.2460559872764528, 0.2338871994412623, 0.22149782646897961, 0.16583982281255522, 0.15207985662374585, 0.15018822884019797, 0.1387608025057367]</t>
+          <t>[0.3065648093930125, 0.2609503315220408, 0.21641344199027393, 0.19778221962039155, 0.14775183526319915]</t>
         </is>
       </c>
       <c r="H126" t="b">
@@ -5616,22 +5616,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.124|x2: 0.155|x3: 0.050|x4: 0.132|x5: 0.000|x6: 0.108|x7: 0.077|x8: 0.000|x9: 0.157|x10: 0.000|x11: 0.198|x12: 0.114|x13: 0.189|x14: 0.099|x15: 0.122|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.143|x2: 0.167|x3: 0.059|x4: 0.068|x5: 0.000|x6: 0.122|x7: 0.000|x8: 0.060|x9: 0.111|x10: 0.000|x11: 0.217|x12: 0.120|x13: 0.245|x14: 0.116|x15: 0.165|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.20]</t>
+          <t>[0.00, 0.09, 0.25]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[11, 13, 9, 2, 4, 1, 15, 12, 6]</t>
+          <t>[13, 11, 2, 15, 1, 6, 12, 14, 9]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.19803759654468275, 0.18850802629484062, 0.15661186337269636, 0.1553290845192606, 0.13238936794202813, 0.12428965636714713, 0.12220615902846672, 0.1136014803201547, 0.10793017256601072]</t>
+          <t>[0.24524043669980664, 0.21678702907148087, 0.16704186752129307, 0.16536969025387477, 0.14293768682315675, 0.1220696742728291, 0.12026721422231121, 0.11648033428284715, 0.11131232476729494]</t>
         </is>
       </c>
       <c r="H127" t="b">
@@ -5657,22 +5657,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.313|x2: 0.118|x3: 0.165|x4: 0.065|x5: 0.053|x6: 0.122|x7: 0.187|x8: 0.251|x9: 0.358|x10: 0.131|x11: 0.000|x12: 0.251|x13: 0.209|x14: 0.176|x15: 0.127|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.374|x2: 0.249|x3: 0.085|x4: 0.000|x5: 0.068|x6: 0.116|x7: 0.193|x8: 0.239|x9: 0.381|x10: 0.141|x11: 0.000|x12: 0.196|x13: 0.206|x14: 0.203|x15: 0.209|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.36]</t>
+          <t>[0.00, 0.16, 0.38]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[9, 1, 8, 12, 13, 7, 14, 3, 10, 15, 6, 2, 16]</t>
+          <t>[9, 1, 2, 8, 15, 13, 14, 12, 7, 10, 6]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.3578609992966382, 0.3127214406167901, 0.2512424690177257, 0.2506975415699111, 0.2085179990263073, 0.18729750662848732, 0.17597067991146864, 0.16507962879086213, 0.13119945096557628, 0.1274554777662, 0.12225407087609788, 0.11818844168108782, 0.10240315232248429]</t>
+          <t>[0.38148067815827785, 0.37409545299944436, 0.24877657133377426, 0.2394241565565229, 0.20904055155628978, 0.20582389364288026, 0.20291243800551828, 0.19605330816374653, 0.19296828077559702, 0.14144183627702647, 0.11630551442724935]</t>
         </is>
       </c>
       <c r="H128" t="b">
@@ -5698,22 +5698,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.000|x3: 0.115|x4: 0.277|x5: 0.111|x6: 0.000|x7: 0.256|x8: 0.000|x9: 0.132|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.224|x14: 0.253|x15: 0.129|x16: 0.104|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.145|x4: 0.278|x5: 0.192|x6: 0.135|x7: 0.245|x8: 0.000|x9: 0.195|x10: 0.000|x11: 0.000|x12: 0.062|x13: 0.278|x14: 0.233|x15: 0.145|x16: 0.073|x17: 0.000</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.28]</t>
+          <t>[0.00, 0.12, 0.28]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[4, 7, 14, 13, 9, 15, 3, 5, 16]</t>
+          <t>[13, 4, 7, 14, 9, 5, 15, 3, 6]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.27656927548096416, 0.2559921551790886, 0.2532591158008035, 0.22416912143504297, 0.13226474117971515, 0.1293639754736562, 0.11508993142175665, 0.11117095527231738, 0.10434897877211881]</t>
+          <t>[0.2780491651926235, 0.27803613652486797, 0.24537314780346398, 0.23321531240360954, 0.19530713392627644, 0.19204683441152876, 0.14543536348365968, 0.14481929023241247, 0.13517995089247187]</t>
         </is>
       </c>
       <c r="H129" t="b">
@@ -5739,22 +5739,22 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.069|x6: 0.137|x7: 0.121|x8: 0.066|x9: 0.118|x10: 0.000|x11: 0.000|x12: 0.218|x13: 0.118|x14: 0.186|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.085|x6: 0.118|x7: 0.062|x8: 0.091|x9: 0.130|x10: 0.052|x11: 0.000|x12: 0.234|x13: 0.098|x14: 0.158|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.22]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[12, 14, 6, 7, 9, 13]</t>
+          <t>[12, 14, 9, 6]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.21817469831040054, 0.18575126421768146, 0.13742122850401006, 0.12147394636945724, 0.11831208093669277, 0.11791691864469418]</t>
+          <t>[0.23432149083235526, 0.15829857041264964, 0.13038829481441272, 0.11831700243694089]</t>
         </is>
       </c>
       <c r="H130" t="b">
@@ -5780,29 +5780,29 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.089|x2: 0.000|x3: 0.046|x4: 0.062|x5: 0.000|x6: 0.090|x7: 0.066|x8: 0.096|x9: 0.057|x10: 0.253|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.201|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.089|x3: 0.065|x4: 0.088|x5: 0.000|x6: 0.164|x7: 0.118|x8: 0.267|x9: 0.097|x10: 0.321|x11: 0.000|x12: 0.087|x13: 0.000|x14: 0.253|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.09, 0.32]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[10, 14]</t>
+          <t>[10, 8, 14, 6, 7]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.2531424181586906, 0.201031698566592]</t>
+          <t>[0.32095687334136247, 0.2668074543305338, 0.2526298087249573, 0.16411429338509312, 0.1178135665455882]</t>
         </is>
       </c>
       <c r="H131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5821,22 +5821,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.177|x5: 0.231|x6: 0.142|x7: 0.195|x8: 0.131|x9: 0.193|x10: 0.059|x11: 0.000|x12: 0.158|x13: 0.136|x14: 0.000|x15: 0.080|x16: 0.094|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.205|x5: 0.253|x6: 0.072|x7: 0.148|x8: 0.000|x9: 0.191|x10: 0.072|x11: 0.000|x12: 0.160|x13: 0.188|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.23]</t>
+          <t>[0.00, 0.08, 0.25]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[5, 7, 9, 4, 12, 6, 13, 8]</t>
+          <t>[5, 4, 9, 13, 12, 7, 16]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.23088507464321065, 0.19480608255574056, 0.1930062762178814, 0.1769344231093385, 0.15823834609689505, 0.14226753022620206, 0.13620764649085512, 0.1309806279318942]</t>
+          <t>[0.25261780585214216, 0.20512741512822033, 0.1913080350479134, 0.1883823669893756, 0.1597689932818617, 0.14804868855804063, 0.10764496840943272]</t>
         </is>
       </c>
       <c r="H132" t="b">
@@ -5862,22 +5862,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.261|x2: 0.056|x3: 0.117|x4: 0.200|x5: 0.091|x6: 0.051|x7: 0.000|x8: 0.258|x9: 0.116|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.065|x14: 0.141|x15: 0.000|x16: 0.143|x17: 0.000</t>
+          <t>x1: 0.201|x2: 0.087|x3: 0.109|x4: 0.160|x5: 0.096|x6: 0.000|x7: 0.000|x8: 0.230|x9: 0.171|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.100|x14: 0.121|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.26]</t>
+          <t>[0.00, 0.07, 0.23]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[1, 8, 4, 16, 14, 3, 9]</t>
+          <t>[8, 1, 9, 4, 14, 3]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.26121866732173765, 0.2581295601141187, 0.20008775800321565, 0.14256285105512262, 0.1413335217421656, 0.11700325543194923, 0.11645056105970873]</t>
+          <t>[0.23003748938999974, 0.20098237513178877, 0.1713469364233134, 0.1597114773262293, 0.12086265520106942, 0.10860482882574765]</t>
         </is>
       </c>
       <c r="H133" t="b">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.000|x6: 0.000|x7: 0.059|x8: 0.000|x9: 0.231|x10: 0.000|x11: 0.000|x12: 0.087|x13: 0.163|x14: 0.000|x15: 0.104|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.038|x3: 0.000|x4: 0.108|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.232|x10: 0.000|x11: 0.052|x12: 0.091|x13: 0.142|x14: 0.038|x15: 0.092|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5913,12 +5913,12 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[9, 13, 4, 15]</t>
+          <t>[9, 13, 4]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.23117160691159924, 0.1625346031184675, 0.12493312809261888, 0.10407244460590831]</t>
+          <t>[0.2317632069598891, 0.14184318855537906, 0.10818632558286881]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5944,22 +5944,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.099|x7: 0.343|x8: 0.000|x9: 0.416|x10: 0.112|x11: 0.085|x12: 0.240|x13: 0.301|x14: 0.000|x15: 0.109|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.290|x8: 0.000|x9: 0.365|x10: 0.143|x11: 0.075|x12: 0.184|x13: 0.418|x14: 0.075|x15: 0.080|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.42]</t>
+          <t>[0.00, 0.10, 0.42]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[9, 7, 13, 12, 10, 15]</t>
+          <t>[13, 9, 7, 12, 10]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.41578303354593554, 0.34293910022523566, 0.3013928409783625, 0.24010122372605935, 0.11194468325496103, 0.10864105709232252]</t>
+          <t>[0.41767146773410496, 0.365351286340083, 0.28954962292421765, 0.18366202515671243, 0.14274472851975176]</t>
         </is>
       </c>
       <c r="H135" t="b">
@@ -5985,22 +5985,22 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.247|x2: 0.092|x3: 0.184|x4: 0.181|x5: 0.264|x6: 0.000|x7: 0.048|x8: 0.000|x9: 0.000|x10: 0.251|x11: 0.139|x12: 0.052|x13: 0.000|x14: 0.132|x15: 0.000|x16: 0.150|x17: 0.000</t>
+          <t>x1: 0.267|x2: 0.000|x3: 0.210|x4: 0.192|x5: 0.340|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.000|x10: 0.230|x11: 0.172|x12: 0.190|x13: 0.000|x14: 0.218|x15: 0.000|x16: 0.123|x17: 0.000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.26]</t>
+          <t>[0.00, 0.12, 0.34]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[5, 10, 1, 3, 4, 16, 11, 14]</t>
+          <t>[5, 1, 10, 14, 3, 4, 12, 11, 7, 16]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.26403781584151303, 0.2509481286580253, 0.2467772223334576, 0.183868372811781, 0.18145827767940076, 0.14951509868491486, 0.13861573493387075, 0.13243521142909423]</t>
+          <t>[0.34035857739975994, 0.2666075396479299, 0.22963462161442558, 0.21756131781659366, 0.21018665205503037, 0.19204511698924792, 0.1896331926373488, 0.17164473862183452, 0.1553960228957848, 0.12263519454386998]</t>
         </is>
       </c>
       <c r="H136" t="b">
@@ -6026,22 +6026,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.128|x3: 0.000|x4: 0.199|x5: 0.113|x6: 0.000|x7: 0.000|x8: 0.180|x9: 0.171|x10: 0.000|x11: 0.000|x12: 0.204|x13: 0.080|x14: 0.140|x15: 0.000|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.184|x3: 0.000|x4: 0.225|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.082|x9: 0.186|x10: 0.000|x11: 0.000|x12: 0.251|x13: 0.136|x14: 0.174|x15: 0.000|x16: 0.115|x17: 0.000</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.20]</t>
+          <t>[0.00, 0.09, 0.25]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[12, 4, 8, 9, 14, 2, 5]</t>
+          <t>[12, 4, 9, 2, 14, 13, 16]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.2035113484199698, 0.1994582363337833, 0.17975675267556132, 0.17086104714884173, 0.1398134612359724, 0.12799285277359748, 0.11334892264434904]</t>
+          <t>[0.25058237131114014, 0.22486776848156095, 0.18612940220373672, 0.18369920610673343, 0.1743334520766438, 0.1360883220287531, 0.1146218460831589]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6067,22 +6067,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.173|x3: 0.140|x4: 0.171|x5: 0.000|x6: 0.053|x7: 0.163|x8: 0.137|x9: 0.196|x10: 0.171|x11: 0.000|x12: 0.158|x13: 0.244|x14: 0.169|x15: 0.000|x16: 0.158|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.193|x3: 0.165|x4: 0.121|x5: 0.000|x6: 0.109|x7: 0.267|x8: 0.134|x9: 0.164|x10: 0.208|x11: 0.000|x12: 0.234|x13: 0.272|x14: 0.223|x15: 0.000|x16: 0.162|x17: 0.000</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.24]</t>
+          <t>[0.00, 0.13, 0.27]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[13, 9, 2, 4, 10, 14, 7, 16, 12, 3, 8]</t>
+          <t>[13, 7, 12, 14, 10, 2, 3, 9, 16, 8, 4, 6]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.24444990884659887, 0.19636676292802116, 0.17337897219428744, 0.17124406854060578, 0.17095797981962205, 0.16896394643477644, 0.16262967604337852, 0.15776509161128596, 0.15771044581751797, 0.13980123535755498, 0.1366334859809633]</t>
+          <t>[0.2720259723772627, 0.26694179493926273, 0.23437563033615907, 0.2225250127407398, 0.20841942907862893, 0.19307425188946659, 0.16464142501110826, 0.1639516093663474, 0.16193095709877675, 0.13385769938102093, 0.1206355808166237, 0.10862573382434704]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6108,22 +6108,22 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.134|x2: 0.000|x3: 0.000|x4: 0.126|x5: 0.050|x6: 0.195|x7: 0.332|x8: 0.000|x9: 0.146|x10: 0.000|x11: 0.390|x12: 0.159|x13: 0.106|x14: 0.057|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.071|x2: 0.000|x3: 0.000|x4: 0.104|x5: 0.000|x6: 0.097|x7: 0.300|x8: 0.000|x9: 0.074|x10: 0.000|x11: 0.356|x12: 0.126|x13: 0.133|x14: 0.071|x15: 0.059|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.39]</t>
+          <t>[0.00, 0.08, 0.36]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[11, 7, 6, 12, 9, 1, 4, 13]</t>
+          <t>[11, 7, 13, 12, 4]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.3899178844694262, 0.3318739987383322, 0.19498607443165653, 0.15905011730270688, 0.14572536783928985, 0.1335281312182249, 0.12566475094831253, 0.1060628498399887]</t>
+          <t>[0.3558192785221434, 0.30031712289994683, 0.13272005462533806, 0.12609787672976702, 0.10434609712021069]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6149,22 +6149,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.143|x2: 0.000|x3: 0.000|x4: 0.132|x5: 0.106|x6: 0.169|x7: 0.077|x8: 0.000|x9: 0.135|x10: 0.000|x11: 0.000|x12: 0.072|x13: 0.144|x14: 0.155|x15: 0.128|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.055|x2: 0.000|x3: 0.074|x4: 0.132|x5: 0.165|x6: 0.256|x7: 0.000|x8: 0.069|x9: 0.150|x10: 0.000|x11: 0.000|x12: 0.132|x13: 0.128|x14: 0.170|x15: 0.172|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.17]</t>
+          <t>[0.00, 0.09, 0.26]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[6, 14, 13, 1, 9, 4, 15, 5]</t>
+          <t>[6, 15, 14, 5, 9, 4, 12, 13]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.1686329819749814, 0.15521182162410893, 0.14438989857615347, 0.14275870115978068, 0.13504623477363387, 0.1320299190392659, 0.1284490423255943, 0.1062494116875156]</t>
+          <t>[0.2561992770859075, 0.17186988353430344, 0.169690438047916, 0.1645610217818985, 0.14959468799369874, 0.13198241974483257, 0.13150987589109062, 0.1278339298503141]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6190,26 +6190,26 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.271|x2: 0.000|x3: 0.000|x4: 0.175|x5: 0.119|x6: 0.114|x7: 0.061|x8: 0.273|x9: 0.125|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.398|x14: 0.172|x15: 0.000|x16: 0.280|x17: 0.000</t>
+          <t>x1: 0.196|x2: 0.000|x3: 0.000|x4: 0.194|x5: 0.206|x6: 0.130|x7: 0.084|x8: 0.310|x9: 0.245|x10: 0.222|x11: 0.000|x12: 0.218|x13: 0.414|x14: 0.171|x15: 0.123|x16: 0.322|x17: 0.000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.40]</t>
+          <t>[0.00, 0.17, 0.41]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[13, 16, 8, 1, 4, 14, 9, 5, 6]</t>
+          <t>[13, 16, 8, 9, 10, 12, 5, 1, 4, 14, 6, 15]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.3984852070330526, 0.27993611537266294, 0.2728541065520155, 0.2710990847602015, 0.17472109900197985, 0.1715874148826997, 0.12532040803073213, 0.11904140946172977, 0.11378897235821925]</t>
+          <t>[0.4136686859032747, 0.3220003281812292, 0.3100977820204599, 0.24531371789938441, 0.2221128885812516, 0.21820944115362795, 0.2056142038811355, 0.19631971137842266, 0.19364934621563362, 0.170815031838207, 0.129759705423881, 0.12297809828966906]</t>
         </is>
       </c>
       <c r="H141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="b">
         <v>1</v>
@@ -6231,22 +6231,22 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.048|x2: 0.000|x3: 0.000|x4: 0.079|x5: 0.150|x6: 0.110|x7: 0.000|x8: 0.155|x9: 0.055|x10: 0.087|x11: 0.000|x12: 0.093|x13: 0.104|x14: 0.201|x15: 0.000|x16: 0.151|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.173|x6: 0.086|x7: 0.000|x8: 0.099|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.139|x13: 0.064|x14: 0.197|x15: 0.000|x16: 0.171|x17: 0.000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.20]</t>
+          <t>[0.00, 0.05, 0.20]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[14, 8, 16, 5, 6, 13]</t>
+          <t>[14, 5, 16, 12]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.2006257835116155, 0.1545622007732796, 0.1506896109101716, 0.14951429332478014, 0.11004016466785567, 0.10360817871575564]</t>
+          <t>[0.1972425807272171, 0.17290416733989486, 0.17106513003220614, 0.13905935583461998]</t>
         </is>
       </c>
       <c r="H142" t="b">
@@ -6272,22 +6272,22 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.091|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.100|x10: 0.000|x11: 0.000|x12: 0.113|x13: 0.000|x14: 0.201|x15: 0.137|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.149|x5: 0.000|x6: 0.000|x7: 0.082|x8: 0.000|x9: 0.075|x10: 0.000|x11: 0.000|x12: 0.165|x13: 0.000|x14: 0.234|x15: 0.167|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.20]</t>
+          <t>[0.00, 0.05, 0.23]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[14, 15, 12, 9]</t>
+          <t>[14, 15, 12, 4]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.20123154598804113, 0.13701220157054683, 0.11314254648269999, 0.1000651988476185]</t>
+          <t>[0.23403262182664028, 0.16650037576818688, 0.16488529854353667, 0.14886766223998643]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6313,22 +6313,22 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.182|x7: 0.000|x8: 0.000|x9: 0.129|x10: 0.000|x11: 0.070|x12: 0.071|x13: 0.173|x14: 0.377|x15: 0.140|x16: 0.043|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.047|x5: 0.049|x6: 0.193|x7: 0.118|x8: 0.000|x9: 0.128|x10: 0.000|x11: 0.124|x12: 0.050|x13: 0.150|x14: 0.359|x15: 0.207|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.38]</t>
+          <t>[0.00, 0.08, 0.36]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[14, 6, 13, 15, 9]</t>
+          <t>[14, 15, 6, 13, 9, 11, 7]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.3766217020048018, 0.18173765725029006, 0.17254879214322322, 0.1403501238936619, 0.12855260059039608]</t>
+          <t>[0.3592692773778325, 0.20714933676462907, 0.1933269231329126, 0.15030440258653843, 0.1282259181068988, 0.12387811799489704, 0.11762665043691542]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6354,22 +6354,22 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.092|x2: 0.000|x3: 0.000|x4: 0.123|x5: 0.072|x6: 0.142|x7: 0.066|x8: 0.245|x9: 0.125|x10: 0.000|x11: 0.113|x12: 0.079|x13: 0.062|x14: 0.232|x15: 0.193|x16: 0.148|x17: 0.000</t>
+          <t>x1: 0.064|x2: 0.000|x3: 0.000|x4: 0.182|x5: 0.079|x6: 0.133|x7: 0.085|x8: 0.205|x9: 0.069|x10: 0.000|x11: 0.193|x12: 0.066|x13: 0.000|x14: 0.204|x15: 0.138|x16: 0.132|x17: 0.000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.24]</t>
+          <t>[0.00, 0.09, 0.20]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[8, 14, 15, 16, 6, 9, 4, 11]</t>
+          <t>[8, 14, 11, 4, 15, 6, 16]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.2445446443844374, 0.23179256968715828, 0.19340143932519976, 0.1477239258603557, 0.14168068196442735, 0.1253101053890063, 0.12283017129086185, 0.11326155637433026]</t>
+          <t>[0.20463994365874236, 0.20352049233417993, 0.1928683873436658, 0.18197190003993385, 0.13815947140605378, 0.13291336392083591, 0.13248846943099124]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6395,29 +6395,29 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.266|x3: 0.000|x4: 0.191|x5: 0.000|x6: 0.000|x7: 0.091|x8: 0.000|x9: 0.149|x10: 0.094|x11: 0.133|x12: 0.339|x13: 0.061|x14: 0.230|x15: 0.129|x16: 0.139|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.350|x3: 0.000|x4: 0.244|x5: 0.000|x6: 0.000|x7: 0.172|x8: 0.094|x9: 0.156|x10: 0.110|x11: 0.153|x12: 0.334|x13: 0.000|x14: 0.203|x15: 0.090|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.34]</t>
+          <t>[0.00, 0.13, 0.35]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[12, 2, 14, 4, 9, 16, 11, 15, 1]</t>
+          <t>[2, 12, 4, 14, 7, 9, 11, 1, 16, 10]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.33900862615089256, 0.26559968642602405, 0.23011504660150853, 0.1913223693865068, 0.14935587258017852, 0.1387297763110734, 0.13287842111147702, 0.12859180350625635, 0.11807985877535068]</t>
+          <t>[0.3504624909005746, 0.3342028493347272, 0.2436575287496687, 0.20340147545520998, 0.1718021752884336, 0.15595504617393155, 0.15283901107663805, 0.11529463088628854, 0.11407152663524622, 0.1097959974331346]</t>
         </is>
       </c>
       <c r="H146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
@@ -6436,22 +6436,22 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.104|x5: 0.088|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.082|x13: 0.203|x14: 0.184|x15: 0.074|x16: 0.061|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.065|x3: 0.000|x4: 0.171|x5: 0.119|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.061|x10: 0.000|x11: 0.000|x12: 0.125|x13: 0.240|x14: 0.229|x15: 0.066|x16: 0.069|x17: 0.000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.20]</t>
+          <t>[0.00, 0.07, 0.24]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[13, 14, 4]</t>
+          <t>[13, 14, 4, 12, 5]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.2034655464924781, 0.18362644364770164, 0.10380697281951133]</t>
+          <t>[0.239624313743925, 0.22899014639220602, 0.1711891433100593, 0.12506723521467475, 0.11932623919018875]</t>
         </is>
       </c>
       <c r="H147" t="b">
@@ -6477,22 +6477,22 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.157|x3: 0.078|x4: 0.208|x5: 0.000|x6: 0.000|x7: 0.105|x8: 0.000|x9: 0.126|x10: 0.115|x11: 0.115|x12: 0.084|x13: 0.136|x14: 0.109|x15: 0.061|x16: 0.144|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.198|x3: 0.054|x4: 0.146|x5: 0.000|x6: 0.086|x7: 0.069|x8: 0.000|x9: 0.059|x10: 0.131|x11: 0.160|x12: 0.131|x13: 0.143|x14: 0.112|x15: 0.000|x16: 0.125|x17: 0.000</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.21]</t>
+          <t>[0.00, 0.08, 0.20]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[4, 2, 16, 13, 9, 11, 10, 14, 7]</t>
+          <t>[2, 11, 4, 13, 10, 12, 16, 14]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.20811395637199048, 0.15669875413658052, 0.14357718328894384, 0.13647553580698557, 0.1260434988028458, 0.11542772681243484, 0.11535806379404326, 0.10898302804821997, 0.10517080264883004]</t>
+          <t>[0.19830698704946836, 0.15996783314209542, 0.14555674879428696, 0.14347703573397783, 0.13108983617948833, 0.1306128733817212, 0.12512675511561097, 0.11176280864737467]</t>
         </is>
       </c>
       <c r="H148" t="b">
@@ -6518,22 +6518,22 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.190|x2: 0.000|x3: 0.120|x4: 0.154|x5: 0.117|x6: 0.000|x7: 0.108|x8: 0.000|x9: 0.149|x10: 0.000|x11: 0.093|x12: 0.000|x13: 0.000|x14: 0.077|x15: 0.000|x16: 0.140|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.000|x3: 0.056|x4: 0.136|x5: 0.184|x6: 0.000|x7: 0.147|x8: 0.000|x9: 0.103|x10: 0.000|x11: 0.138|x12: 0.000|x13: 0.064|x14: 0.085|x15: 0.000|x16: 0.171|x17: 0.000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.19]</t>
+          <t>[0.00, 0.07, 0.18]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[1, 4, 9, 16, 3, 5, 7]</t>
+          <t>[5, 16, 7, 11, 4, 9]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.18981004865221218, 0.15416239613980084, 0.1486883645640953, 0.1402268319196846, 0.12023110358516922, 0.11689002536223896, 0.10792930307175752]</t>
+          <t>[0.1840756606436956, 0.17063255662583685, 0.14723116375286166, 0.13841524948616638, 0.1360191829799109, 0.10323603309407593]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6559,22 +6559,22 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.122|x3: 0.242|x4: 0.387|x5: 0.100|x6: 0.000|x7: 0.000|x8: 0.218|x9: 0.116|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.169|x14: 0.115|x15: 0.000|x16: 0.340|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.109|x3: 0.174|x4: 0.363|x5: 0.088|x6: 0.058|x7: 0.000|x8: 0.177|x9: 0.059|x10: 0.000|x11: 0.048|x12: 0.000|x13: 0.150|x14: 0.133|x15: 0.000|x16: 0.320|x17: 0.000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.39]</t>
+          <t>[0.00, 0.10, 0.36]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[4, 16, 3, 8, 13, 2, 9, 14]</t>
+          <t>[4, 16, 8, 3, 13, 14, 2]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.38672769852602923, 0.3397367860373625, 0.24238280808225715, 0.21793147217488004, 0.16918518255982812, 0.12235162457023235, 0.1161475159901578, 0.1154573049758505]</t>
+          <t>[0.3627937139201496, 0.3204920586705223, 0.1773545975122773, 0.17413255299735023, 0.1495350230074337, 0.13310911712273948, 0.10920338521302134]</t>
         </is>
       </c>
       <c r="H150" t="b">
@@ -6600,22 +6600,22 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.201|x2: 0.100|x3: 0.098|x4: 0.213|x5: 0.000|x6: 0.000|x7: 0.140|x8: 0.138|x9: 0.074|x10: 0.056|x11: 0.000|x12: 0.169|x13: 0.098|x14: 0.187|x15: 0.000|x16: 0.171|x17: 0.000</t>
+          <t>x1: 0.150|x2: 0.112|x3: 0.141|x4: 0.211|x5: 0.000|x6: 0.000|x7: 0.105|x8: 0.097|x9: 0.055|x10: 0.090|x11: 0.000|x12: 0.211|x13: 0.064|x14: 0.140|x15: 0.000|x16: 0.202|x17: 0.000</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.21]</t>
+          <t>[0.00, 0.09, 0.21]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[4, 1, 14, 16, 12, 7, 8]</t>
+          <t>[4, 12, 16, 1, 3, 14, 2, 7]</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[0.21260400553146822, 0.20050054969359285, 0.18721321203147143, 0.17060437066601591, 0.1691945756659181, 0.14037881359735432, 0.1375840185320791]</t>
+          <t>[0.21143965683876456, 0.2106727376711863, 0.20223787343016492, 0.15035117931483938, 0.1413210271755098, 0.14002253795373082, 0.11190494000999338, 0.10533062976067169]</t>
         </is>
       </c>
       <c r="H151" t="b">

--- a/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I151"/>
+  <dimension ref="A1:I165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,39 +481,39 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>deep learning recent brought breakthrough domain notably voice image recognition work extend deep learning application domain classification mobile phone datasets classic machine learning method produced good result telecom prediction task underutilized resource intensive domain specific feature engineering traditional machine learning algorithm require separate feature engineering different country work socio economic status large identified mobile phone datasets accurately classified deep learning avoiding cumbersome manual feature engineering process implement simple deep learning architecture compare traditional mining model benchmark model achieves test location trace sole input contrast benchmarked state mining model include feature category basic phone usage pattern handset type social network structure individual mobility traditional machine learning model achieve best scenario believe result encouraging regional household income important input wide range economic policy underdeveloped country reliable statistic income lacking frequently updated rarely fine grained region country making income prediction simpler efficient great help policy maker charity organization ultimately benefit poor</t>
+          <t>artificial intelligence displacing creating upheaval world change work live governance policy regulation governance policy regulation mitigate alleviate negative aspect advancement governance policy regulation impact future work future humanity longitudinal multiple study research study evolution revolution governance policy regulation governance policy regulation impact advancement impacted advancement research plan study leading country research china</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1, 8, 9]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.104|x2: 0.106|x3: 0.000|x4: 0.249|x5: 0.000|x6: 0.000|x7: 0.083|x8: 0.000|x9: 0.100|x10: 0.108|x11: 0.118|x12: 0.060|x13: 0.108|x14: 0.197|x15: 0.000|x16: 0.087|x17: 0.000</t>
+          <t>x1: 0.081|x2: 0.052|x3: 0.107|x4: 0.132|x5: 0.111|x6: 0.364|x7: 0.244|x8: 0.112|x9: 0.102|x10: 0.072|x11: 0.215|x12: 0.127|x13: 0.165|x14: 0.336|x15: 0.167|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.25]</t>
+          <t>[0.00, 0.15, 0.36]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[4, 14, 11, 10, 13, 2, 1]</t>
+          <t>[6, 14, 7, 11, 15, 13, 4, 12, 8, 5, 3, 9]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.24879594861927803, 0.19688920363238507, 0.11783606772097208, 0.10804924222827865, 0.10773978732557705, 0.10553656991820912, 0.10350916991108036]</t>
+          <t>[0.36409800191135017, 0.33573741880332136, 0.24381717236082945, 0.21466113595721995, 0.16658938609517604, 0.16530938038056675, 0.1315599482634857, 0.12653830946389838, 0.11152027396825492, 0.11074088125643025, 0.10749439924166723, 0.10210182897581009]</t>
         </is>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -522,36 +522,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>drought period threatens water resource agriculture socioeconomic activity crucial decision maker realistic anticipation drought event mitigate impact research standardized precipitation predict drought time series analysis technique adopted technique autoregressive integrating moving arima feed forward backpropagation neural network fbnn different activation function sigmoid bipolar sigmoid hyperbolic tangent adequacy technique predicting drought condition examined arid ecosystem monthly precipitation calculating time series timescales obtained tropical rainfall measuring mission trmm prediction carried compared lead time model performance statistic coefficient correlation mean absolute error root mean square error rmse overall result prove excellent performance predicting model anticipating drought condition concerning model accuracy measure despite fbnn model remain somewhat better arima model rmse additionally fbnn based hyperbolic tangent activation function demonstrated best similarity actual predicted eventually activation function fbnn model good result respecting prediction degree variation timescales activation function equally sigmoid bipolar sigmoid function manifesting adjusted higher error rmse conclusion fbnn considered promising technique predicting drought monitoring arid ecosystem</t>
+          <t>deep learning recent brought breakthrough domain notably voice image recognition work extend deep learning application domain classification mobile phone datasets classic machine learning method produced good result telecom prediction task underutilized resource intensive domain specific feature engineering traditional machine learning algorithm require separate feature engineering different country work socio economic status large identified mobile phone datasets accurately classified deep learning avoiding cumbersome manual feature engineering process implement simple deep learning architecture compare traditional mining model benchmark model achieves test location trace sole input contrast benchmarked state mining model include feature category basic phone usage pattern handset type social network structure individual mobility traditional machine learning model achieve best scenario believe result encouraging regional household income important input wide range economic policy underdeveloped country reliable statistic income lacking frequently updated rarely fine grained region country making income prediction simpler efficient great help policy maker charity organization ultimately benefit poor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[1, 2, 6]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.098|x2: 0.114|x3: 0.000|x4: 0.080|x5: 0.000|x6: 0.000|x7: 0.102|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.099|x13: 0.124|x14: 0.132|x15: 0.072|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.144|x2: 0.149|x3: 0.000|x4: 0.403|x5: 0.170|x6: 0.195|x7: 0.272|x8: 0.199|x9: 0.389|x10: 0.130|x11: 0.142|x12: 0.121|x13: 0.079|x14: 0.078|x15: 0.052|x16: 0.172|x17: 0.000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.13]</t>
+          <t>[0.00, 0.16, 0.40]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[14, 13, 2, 7]</t>
+          <t>[4, 9, 7, 8, 6, 16, 5, 2, 1, 11, 10, 12]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.13184240046207155, 0.12393747499142828, 0.11369124261358145, 0.1017117625003701]</t>
+          <t>[0.4034217463506944, 0.388932077317825, 0.272341125751394, 0.19898435464382777, 0.1952040406477759, 0.17172797463672163, 0.17000884352456783, 0.14921843471372048, 0.14429323216426695, 0.14225932866498356, 0.1295237954759095, 0.12059673001772572]</t>
         </is>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="b">
         <v>1</v>
@@ -563,32 +563,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>paper aimed making recommendation establish stewardship embody morality prevent automation risk faced development country ldcs transition digital modernity recent study reveal qualified individual developed country face risk highly subject automation indicates corresponding risk seen ldcs rise digitalization override developing country opportunity elevate income country middle income country aftermath world western society tried support ldcs maintain principle free world contribute reducing poverty market oriented development cold defense free world lost significance economy getting important political instrument advancement automation technology aggravate opportunity developing country economic growth international society need alternative principle</t>
+          <t>drought period threatens water resource agriculture socioeconomic activity crucial decision maker realistic anticipation drought event mitigate impact research standardized precipitation predict drought time series analysis technique adopted technique autoregressive integrating moving arima feed forward backpropagation neural network fbnn different activation function sigmoid bipolar sigmoid hyperbolic tangent adequacy technique predicting drought condition examined arid ecosystem monthly precipitation calculating time series timescales obtained tropical rainfall measuring mission trmm prediction carried compared lead time model performance statistic coefficient correlation mean absolute error root mean square error rmse overall result prove excellent performance predicting model anticipating drought condition concerning model accuracy measure despite fbnn model remain somewhat better arima model rmse additionally fbnn based hyperbolic tangent activation function demonstrated best similarity actual predicted eventually activation function fbnn model good result respecting prediction degree variation timescales activation function equally sigmoid bipolar sigmoid function manifesting adjusted higher error rmse conclusion fbnn considered promising technique predicting drought monitoring arid ecosystem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[1, 8]</t>
+          <t>[1, 2]</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.213|x2: 0.000|x3: 0.090|x4: 0.269|x5: 0.066|x6: 0.000|x7: 0.186|x8: 0.152|x9: 0.134|x10: 0.000|x11: 0.070|x12: 0.000|x13: 0.163|x14: 0.096|x15: 0.000|x16: 0.198|x17: 0.000</t>
+          <t>x1: 0.126|x2: 0.117|x3: 0.000|x4: 0.156|x5: 0.209|x6: 0.176|x7: 0.305|x8: 0.173|x9: 0.224|x10: 0.103|x11: 0.133|x12: 0.163|x13: 0.263|x14: 0.195|x15: 0.224|x16: 0.130|x17: 0.000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.27]</t>
+          <t>[0.00, 0.16, 0.30]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[4, 1, 16, 7, 13, 8, 9]</t>
+          <t>[7, 13, 9, 15, 5, 14, 6, 8, 12, 4, 11, 16, 1, 2, 10]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.2694635369383299, 0.2133186928147752, 0.19798648966738183, 0.18559743824585886, 0.1628744452545066, 0.15208279852357137, 0.13444997132520092]</t>
+          <t>[0.30454474449287816, 0.2634581489391385, 0.22401034443903134, 0.22395521485366499, 0.20945041489116972, 0.19450361106003547, 0.17563821228065069, 0.17335896428053318, 0.16344415564254716, 0.1557994462148624, 0.13342051406696886, 0.13042679203882296, 0.1257110154487402, 0.11720683362566234, 0.10296343458947788]</t>
         </is>
       </c>
       <c r="H4" t="b">
@@ -604,39 +604,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>smart farming development emphasizes information communication technology cyber physical farm management cycle technology internet thing cloud computing expected leverage development introduce robot artificial intelligence farming encompassed phenomenon massive volume wide variety captured analysed decision making review gain insight state application smart farming identify related socio economic challenge addressed following structured approach conceptual framework analysis developed future study topic review scope application smart farming primary production influencing entire food supply chain provide predictive insight farming operation drive time operational decision redesign business process game changing business model author suggest cause major shift role power relation different player current food supply chain network landscape stakeholder exhibit interesting game powerful tech company venture capitalist startup entrant time public institution publish open condition privacy guaranteed future smart farming unravel continuum extreme scenario closed proprietary farmer highly integrated food supply chain open collaborative farmer stakeholder chain network flexible choosing business partner technology food production development application infrastructure platform standard institutional embedment play crucial role battle scenario socio economic perspective author propose research priority organizational issue concerning governance issue suitable business model sharing different supply chain scenario</t>
+          <t>paper aimed making recommendation establish stewardship embody morality prevent automation risk faced development country ldcs transition digital modernity recent study reveal qualified individual developed country face risk highly subject automation indicates corresponding risk seen ldcs rise digitalization override developing country opportunity elevate income country middle income country aftermath world western society tried support ldcs maintain principle free world contribute reducing poverty market oriented development cold defense free world lost significance economy getting important political instrument advancement automation technology aggravate opportunity developing country economic growth international society need alternative principle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[2, 9]</t>
+          <t>[1]</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.106|x3: 0.000|x4: 0.000|x5: 0.101|x6: 0.105|x7: 0.000|x8: 0.000|x9: 0.134|x10: 0.000|x11: 0.000|x12: 0.225|x13: 0.134|x14: 0.106|x15: 0.129|x16: 0.093|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.136|x3: 0.000|x4: 0.365|x5: 0.205|x6: 0.000|x7: 0.352|x8: 0.136|x9: 0.211|x10: 0.100|x11: 0.000|x12: 0.136|x13: 0.118|x14: 0.122|x15: 0.000|x16: 0.140|x17: 0.000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.22]</t>
+          <t>[0.00, 0.12, 0.36]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[12, 9, 13, 15, 2, 14, 6, 5]</t>
+          <t>[4, 7, 9, 5, 16, 2, 8, 12, 14, 13, 10]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.22454601929890786, 0.13399131264737332, 0.13367608965038646, 0.1293257427746214, 0.10611868210183421, 0.10611027091463282, 0.10518418685088092, 0.10075173825331428]</t>
+          <t>[0.3645429270584081, 0.3518468080630555, 0.21104177129398155, 0.20483615200293742, 0.14031791881894828, 0.1360148741793888, 0.135887961547622, 0.13587348384792589, 0.12186701351126758, 0.11811209211650486, 0.10031955075715424]</t>
         </is>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -645,36 +645,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>paper describes fruit counting pipeline based deep learning accurately count fruit unstructured environment obtaining reliable fruit count challenging variation appearance illumination change occlusion foliage neighboring fruit propose novel approach deep learning input image fruit count pipeline utilizes custom crowd sourcing platform quickly label large blob detector based fully convolutional network extract candidate region image counting algorithm based second convolutional network estimate number fruit region finally linear regression model fruit count estimate fruit count analyze performance pipeline distinct orange daylight green apple night utilizing human generated label ground truth pipeline short training time performs limited size method generalizes able perform highly occluded fruit challenging human labelers annotate</t>
+          <t>smart farming development emphasizes information communication technology cyber physical farm management cycle technology internet thing cloud computing expected leverage development introduce robot artificial intelligence farming encompassed phenomenon massive volume wide variety captured analysed decision making review gain insight state application smart farming identify related socio economic challenge addressed following structured approach conceptual framework analysis developed future study topic review scope application smart farming primary production influencing entire food supply chain provide predictive insight farming operation drive time operational decision redesign business process game changing business model author suggest cause major shift role power relation different player current food supply chain network landscape stakeholder exhibit interesting game powerful tech company venture capitalist startup entrant time public institution publish open condition privacy guaranteed future smart farming unravel continuum extreme scenario closed proprietary farmer highly integrated food supply chain open collaborative farmer stakeholder chain network flexible choosing business partner technology food production development application infrastructure platform standard institutional embedment play crucial role battle scenario socio economic perspective author propose research priority organizational issue concerning governance issue suitable business model sharing different supply chain scenario</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[2, 10]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.095|x2: 0.000|x3: 0.104|x4: 0.338|x5: 0.215|x6: 0.000|x7: 0.317|x8: 0.000|x9: 0.154|x10: 0.181|x11: 0.371|x12: 0.302|x13: 0.000|x14: 0.157|x15: 0.000|x16: 0.136|x17: 0.000</t>
+          <t>x1: 0.060|x2: 0.242|x3: 0.000|x4: 0.149|x5: 0.131|x6: 0.209|x7: 0.205|x8: 0.083|x9: 0.288|x10: 0.071|x11: 0.141|x12: 0.342|x13: 0.298|x14: 0.287|x15: 0.220|x16: 0.104|x17: 0.000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.37]</t>
+          <t>[0.00, 0.17, 0.34]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[11, 4, 7, 12, 5, 10, 14, 9, 16, 3]</t>
+          <t>[12, 13, 9, 14, 2, 15, 6, 7, 4, 11, 5, 16]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.37054057545315894, 0.33818912712765753, 0.31688730639439955, 0.3018226839703786, 0.21454844899242462, 0.18066671032365697, 0.15716663835652928, 0.15351005087700736, 0.13573835026395012, 0.10398202025898799]</t>
+          <t>[0.3419899539483251, 0.29837872260321036, 0.28839903426270486, 0.2866532444299898, 0.24198974242633203, 0.22011859548625234, 0.20883471238476128, 0.2049389900709131, 0.1487883187419176, 0.14085778905225912, 0.13123203449066517, 0.10413434169517484]</t>
         </is>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="b">
         <v>1</v>
@@ -686,7 +686,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>recent deep learning algorithm convolutional neural network recurrent neural network generative adversarial network widely studied applied field including agriculture researcher field agriculture software framework sufficiently examining idea mechanism technique article provides concise summary major algorithm including concept limitation implementation training process example code help researcher agriculture gain holistic picture major technique quickly research application agriculture summarized analyzed future opportunity discussed paper expected help researcher agriculture better understand algorithm learn major technique quickly facilitate analysis enhance related research agriculture promote application effectively</t>
+          <t>paper describes fruit counting pipeline based deep learning accurately count fruit unstructured environment obtaining reliable fruit count challenging variation appearance illumination change occlusion foliage neighboring fruit propose novel approach deep learning input image fruit count pipeline utilizes custom crowd sourcing platform quickly label large blob detector based fully convolutional network extract candidate region image counting algorithm based second convolutional network estimate number fruit region finally linear regression model fruit count estimate fruit count analyze performance pipeline distinct orange daylight green apple night utilizing human generated label ground truth pipeline short training time performs limited size method generalizes able perform highly occluded fruit challenging human labelers annotate</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -696,29 +696,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.118|x3: 0.000|x4: 0.115|x5: 0.000|x6: 0.000|x7: 0.056|x8: 0.000|x9: 0.140|x10: 0.000|x11: 0.065|x12: 0.091|x13: 0.000|x14: 0.155|x15: 0.059|x16: 0.046|x17: 0.000</t>
+          <t>x1: 0.131|x2: 0.000|x3: 0.000|x4: 0.290|x5: 0.086|x6: 0.111|x7: 0.187|x8: 0.181|x9: 0.205|x10: 0.132|x11: 0.470|x12: 0.078|x13: 0.340|x14: 0.215|x15: 0.060|x16: 0.184|x17: 0.000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.15]</t>
+          <t>[0.00, 0.16, 0.47]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[14, 9, 2, 4]</t>
+          <t>[11, 13, 4, 14, 9, 7, 16, 8, 10, 1, 6]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.154891217999967, 0.14010137267139414, 0.11795371031863505, 0.11467117009735905]</t>
+          <t>[0.47030406996765783, 0.34011486239411187, 0.2902987593835573, 0.214622624536499, 0.20513557236570812, 0.18744970722686688, 0.1837619819157212, 0.18080108334467568, 0.13196622368488145, 0.131107657892507, 0.11125168915899047]</t>
         </is>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -727,36 +727,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>detection identification extreme weather event large scale climate simulation important problem risk management informing governmental policy decision advancing basic understanding climate recent work shown fully supervised convolutional neural network cnns yield acceptable accuracy classifying known type extreme weather event large labeled available different type spatially localized climate pattern including hurricane extra tropical cyclone weather blocking event existing labeled pattern incomplete covering certain geographic area having false negative type climate pose number interesting machine learning challenge present multichannel spatiotemporal architecture semi supervised bounding prediction exploratory analysis demonstrate approach able leverage temporal information unlabeled improve localization extreme weather event explore representation learned model order better understand important present dataset extremeweather encourage machine learning research area help facilitate work understanding mitigating effect climate change dataset available github code available http github eracah detect</t>
+          <t>recent deep learning algorithm convolutional neural network recurrent neural network generative adversarial network widely studied applied field including agriculture researcher field agriculture software framework sufficiently examining idea mechanism technique article provides concise summary major algorithm including concept limitation implementation training process example code help researcher agriculture gain holistic picture major technique quickly research application agriculture summarized analyzed future opportunity discussed paper expected help researcher agriculture better understand algorithm learn major technique quickly facilitate analysis enhance related research agriculture promote application effectively</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[2, 13]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.225|x2: 0.000|x3: 0.000|x4: 0.259|x5: 0.000|x6: 0.120|x7: 0.000|x8: 0.189|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.206|x13: 0.277|x14: 0.168|x15: 0.109|x16: 0.241|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.249|x3: 0.000|x4: 0.297|x5: 0.000|x6: 0.098|x7: 0.317|x8: 0.089|x9: 0.429|x10: 0.124|x11: 0.126|x12: 0.000|x13: 0.269|x14: 0.253|x15: 0.158|x16: 0.205|x17: 0.000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.28]</t>
+          <t>[0.00, 0.16, 0.43]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[13, 4, 16, 1, 12, 8, 14, 6, 15]</t>
+          <t>[9, 7, 4, 13, 14, 2, 16, 15, 11, 10]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.2769392146847935, 0.25873160740886797, 0.24074567526001303, 0.22528576105255974, 0.20643318484515866, 0.1889103485522404, 0.16836719203176745, 0.12013999900732805, 0.10929306148163098]</t>
+          <t>[0.4289553738975179, 0.31733896110729387, 0.2968765186948129, 0.26861701590816944, 0.25259869519532985, 0.2486483428853988, 0.20529107125139495, 0.15830532562873556, 0.12598840500095376, 0.12413629143535113]</t>
         </is>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="b">
         <v>1</v>
@@ -768,36 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>study project future variability reference artificial intelligence method constructed extreme learning machine support vector regression mountainous inland watershed north west china global climate model output retrieved coupled model inter comparison project phase cmip employed downscale monthly historical period validation approach future period projection representative concentration pathway scenario following conclusion drawn method demonstrate good performance estimating food agriculture organization penman monteith variation future mainly occurs spring autumn season summer winter change moderately annually value shown increase rate approximately decade respectively near term projection term projection long term projection scenario compared historical period relative change approximately near long term period respectively warming scenario accordance analysis aver opportunity downscale monthly artificial intelligence useful practice water management policy</t>
+          <t>detection identification extreme weather event large scale climate simulation important problem risk management informing governmental policy decision advancing basic understanding climate recent work shown fully supervised convolutional neural network cnns yield acceptable accuracy classifying known type extreme weather event large labeled available different type spatially localized climate pattern including hurricane extra tropical cyclone weather blocking event existing labeled pattern incomplete covering certain geographic area having false negative type climate pose number interesting machine learning challenge present multichannel spatiotemporal architecture semi supervised bounding prediction exploratory analysis demonstrate approach able leverage temporal information unlabeled improve localization extreme weather event explore representation learned model order better understand important present dataset extremeweather encourage machine learning research area help facilitate work understanding mitigating effect climate change dataset available github code available http github eracah detect</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[2, 6]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.159|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.138|x6: 0.197|x7: 0.097|x8: 0.000|x9: 0.245|x10: 0.000|x11: 0.181|x12: 0.207|x13: 0.347|x14: 0.186|x15: 0.232|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.160|x3: 0.000|x4: 0.224|x5: 0.248|x6: 0.000|x7: 0.102|x8: 0.138|x9: 0.168|x10: 0.094|x11: 0.176|x12: 0.151|x13: 0.369|x14: 0.325|x15: 0.078|x16: 0.127|x17: 0.000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.35]</t>
+          <t>[0.00, 0.14, 0.37]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[13, 9, 15, 12, 6, 14, 11, 1, 5]</t>
+          <t>[13, 14, 5, 4, 11, 9, 2, 12, 8, 16, 7, 1]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.3465184021246204, 0.2447625573148878, 0.2321701978315901, 0.20686645910862578, 0.19737902885151137, 0.18643371313192916, 0.18057891607898938, 0.15942965412046478, 0.13834096757062028]</t>
+          <t>[0.3688268566621254, 0.3254279200294692, 0.24823778526383491, 0.22351552284088283, 0.17649396144575458, 0.1680578605803681, 0.1603769491226958, 0.1514129029824807, 0.1381894247510843, 0.12654035801434904, 0.10178269360426492, 0.10020787204072384]</t>
         </is>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
         <v>1</v>
@@ -809,39 +809,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>paper examines remote sensing satellite predict food shortage different category household famine prone area normalized difference vegetation ndvi rainfall estimate derived multi spectral satellite radiometer image long predict crop yield famine overall prediction food insecurity area heterogeneous population directly predict sector society household risk work information household uganda collected method clustering household cluster decision boundary relevant improved specificity famine prediction easily classification result predicting food security status household level given different combination satellite demographic household category clustering method food security classification performance model demonstrates potential approach making prediction famine specific area demographic group</t>
+          <t>study project future variability reference artificial intelligence method constructed extreme learning machine support vector regression mountainous inland watershed north west china global climate model output retrieved coupled model inter comparison project phase cmip employed downscale monthly historical period validation approach future period projection representative concentration pathway scenario following conclusion drawn method demonstrate good performance estimating food agriculture organization penman monteith variation future mainly occurs spring autumn season summer winter change moderately annually value shown increase rate approximately decade respectively near term projection term projection long term projection scenario compared historical period relative change approximately near long term period respectively warming scenario accordance analysis aver opportunity downscale monthly artificial intelligence useful practice water management policy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.158|x3: 0.090|x4: 0.076|x5: 0.198|x6: 0.095|x7: 0.135|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.060|x12: 0.132|x13: 0.000|x14: 0.121|x15: 0.171|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.089|x2: 0.000|x3: 0.090|x4: 0.220|x5: 0.171|x6: 0.312|x7: 0.363|x8: 0.123|x9: 0.434|x10: 0.059|x11: 0.245|x12: 0.201|x13: 0.308|x14: 0.207|x15: 0.127|x16: 0.065|x17: 0.000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.20]</t>
+          <t>[0.00, 0.18, 0.43]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[5, 15, 2, 7, 12, 14]</t>
+          <t>[9, 7, 6, 13, 11, 4, 14, 12, 5, 15, 8]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.19800096920005186, 0.1711807552586298, 0.1582460327380332, 0.13514934563409578, 0.13212680457966783, 0.1208893719103388]</t>
+          <t>[0.43436020963709265, 0.36273901505764455, 0.31204999831085817, 0.3076933372556203, 0.24452634004004248, 0.2199070607582122, 0.2065700445769639, 0.2006237569973317, 0.17138134238112057, 0.1269118030747411, 0.12298442634745144]</t>
         </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -850,36 +850,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>inadequacy spatial soil information limiting factor making evidence based decision improve food security land management developing country digital soil mapping technique applied world improve availability usability soil africa particularly tanzania scale necessary farm management decision kilombero valley identified intensified rice production valley lack detailed todate soil information decision making overall objective study develop predictive soil portion kilombero valley technique widely decision tree algorithm source digital elevation model dems evaluated predictive ability firstly numerical classification performed collected soil profile arrive soil taxon secondly derived taxon spatially predicted mapped following scorpan framework random forest machine learning algorithm datasets train model derived legacy soil rapideye satellite image dems srtm aster worlddem separate predictive model built source mapping showed sensitive training sampling result showed prediction soil taxon srtm worddem identical suggest algorithm freely available srtm combination mapping soil kilombero valley combination tested applied area relatively flat terrain like kilombero valley</t>
+          <t>paper examines remote sensing satellite predict food shortage different category household famine prone area normalized difference vegetation ndvi rainfall estimate derived multi spectral satellite radiometer image long predict crop yield famine overall prediction food insecurity area heterogeneous population directly predict sector society household risk work information household uganda collected method clustering household cluster decision boundary relevant improved specificity famine prediction easily classification result predicting food security status household level given different combination satellite demographic household category clustering method food security classification performance model demonstrates potential approach making prediction famine specific area demographic group</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[2, 3, 15]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.185|x3: 0.000|x4: 0.141|x5: 0.075|x6: 0.092|x7: 0.225|x8: 0.000|x9: 0.158|x10: 0.114|x11: 0.059|x12: 0.132|x13: 0.087|x14: 0.151|x15: 0.137|x16: 0.090|x17: 0.000</t>
+          <t>x1: 0.108|x2: 0.212|x3: 0.128|x4: 0.223|x5: 0.159|x6: 0.000|x7: 0.177|x8: 0.148|x9: 0.078|x10: 0.123|x11: 0.109|x12: 0.131|x13: 0.234|x14: 0.171|x15: 0.134|x16: 0.180|x17: 0.000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.22]</t>
+          <t>[0.00, 0.14, 0.23]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[7, 2, 9, 14, 4, 15, 12, 10]</t>
+          <t>[13, 4, 2, 16, 7, 14, 5, 8, 15, 12, 3, 10, 11, 1]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.2246496370913114, 0.18529083015565337, 0.1582993205726028, 0.15061452209996953, 0.14114320504035463, 0.13658601443050022, 0.13198792449966984, 0.11417921864453487]</t>
+          <t>[0.23401637433089487, 0.22296840429103473, 0.21159782823497805, 0.1801298414914453, 0.17728399215442633, 0.17113505356030187, 0.15879115789396833, 0.14841777451178445, 0.13422743968715115, 0.13098104162205312, 0.12836343034922043, 0.12340883468313657, 0.10894111022088201, 0.10762494585700343]</t>
         </is>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="b">
         <v>1</v>
@@ -891,32 +891,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>smallholder production russia decline decade likelihood continued marginalization smallholder confront obstacle path dependency includes fact smallholder production remains traditional subsistence oriented second institution state policy restrict land animal russia role food regime mean smallholder unable help russia emergence global food superpower fourth smallholder left ongoing technological revolution agroholdings technological advancement expands scope large farm smallholder widen</t>
+          <t>inadequacy spatial soil information limiting factor making evidence based decision improve food security land management developing country digital soil mapping technique applied world improve availability usability soil africa particularly tanzania scale necessary farm management decision kilombero valley identified intensified rice production valley lack detailed todate soil information decision making overall objective study develop predictive soil portion kilombero valley technique widely decision tree algorithm source digital elevation model dems evaluated predictive ability firstly numerical classification performed collected soil profile arrive soil taxon secondly derived taxon spatially predicted mapped following scorpan framework random forest machine learning algorithm datasets train model derived legacy soil rapideye satellite image dems srtm aster worlddem separate predictive model built source mapping showed sensitive training sampling result showed prediction soil taxon srtm worddem identical suggest algorithm freely available srtm combination mapping soil kilombero valley combination tested applied area relatively flat terrain like kilombero valley</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[1, 2]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.198|x2: 0.100|x3: 0.157|x4: 0.171|x5: 0.154|x6: 0.000|x7: 0.082|x8: 0.255|x9: 0.206|x10: 0.052|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.130|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.096|x2: 0.224|x3: 0.000|x4: 0.182|x5: 0.128|x6: 0.155|x7: 0.324|x8: 0.132|x9: 0.143|x10: 0.122|x11: 0.153|x12: 0.260|x13: 0.189|x14: 0.145|x15: 0.061|x16: 0.184|x17: 0.000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.26]</t>
+          <t>[0.00, 0.15, 0.32]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[8, 9, 1, 4, 3, 5, 14, 2]</t>
+          <t>[7, 12, 2, 13, 16, 4, 6, 11, 14, 9, 8, 5, 10]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.25545857567579483, 0.20551142761508498, 0.19802490350723795, 0.1707501633011571, 0.15690535800655525, 0.15351776782559245, 0.13027913935563942, 0.10025440084636959]</t>
+          <t>[0.32366220989965094, 0.2601901969918193, 0.22356511762249368, 0.18946798730900435, 0.18447365907444155, 0.18151690122015213, 0.15452440654109467, 0.15328760877825673, 0.1453559966587933, 0.1432591112384588, 0.13238690890347998, 0.12845867752280044, 0.12233550138757744]</t>
         </is>
       </c>
       <c r="H12" t="b">
@@ -932,39 +932,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>crop disease major threat food security rapid identification remains difficult world lack necessary infrastructure combination increasing global smartphone penetration recent advance vision possible deep learning paved smartphone assisted disease diagnosis public dataset image diseased healthy plant leaf collected controlled condition train deep convolutional neural network identify crop specie disease absence thereof trained model achieves accuracy held test demonstrating feasibility approach overall approach training deep learning model increasingly large publicly available image datasets present clear path smartphone assisted crop disease diagnosis massive global scale</t>
+          <t>smallholder production russia decline decade likelihood continued marginalization smallholder confront obstacle path dependency includes fact smallholder production remains traditional subsistence oriented second institution state policy restrict land animal russia role food regime mean smallholder unable help russia emergence global food superpower fourth smallholder left ongoing technological revolution agroholdings technological advancement expands scope large farm smallholder widen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.241|x5: 0.081|x6: 0.000|x7: 0.215|x8: 0.061|x9: 0.160|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.165|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.055|x2: 0.334|x3: 0.229|x4: 0.181|x5: 0.116|x6: 0.000|x7: 0.177|x8: 0.076|x9: 0.145|x10: 0.000|x11: 0.104|x12: 0.000|x13: 0.237|x14: 0.420|x15: 0.210|x16: 0.054|x17: 0.000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.24]</t>
+          <t>[0.00, 0.14, 0.42]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[4, 7, 14, 9]</t>
+          <t>[14, 2, 13, 3, 15, 4, 7, 9, 5, 11]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.2406696984819546, 0.21485909256614746, 0.1653071333440892, 0.15972287867444726]</t>
+          <t>[0.42040339307482155, 0.3337412362819798, 0.23747257620502885, 0.22941777166845354, 0.2095538624183633, 0.18050471817976307, 0.1765576495896354, 0.14489779587081827, 0.11615876015903315, 0.10353815023611865]</t>
         </is>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -973,39 +973,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>paper present automatic traffic surveillance estimate important traffic parameter video sequence camera different traditional method classify vehicle proposed method good capability categorize specific class linearity feature addition order reduce occlusion vehicle automatic scheme detecting lane dividing proposed lane dividing occlusion vehicle reduced normalization scheme developed tackling problem feature size variation vehicle feature extracted optimal classifier designed robustly categorize vehicle different class shadow occlusion noise exist designed classifier collect different evidence database verified vehicle better decision enhance robustness accuracy classification experimental result proposed method robust powerful traditional method</t>
+          <t>crop disease major threat food security rapid identification remains difficult world lack necessary infrastructure combination increasing global smartphone penetration recent advance vision possible deep learning paved smartphone assisted disease diagnosis public dataset image diseased healthy plant leaf collected controlled condition train deep convolutional neural network identify crop specie disease absence thereof trained model achieves accuracy held test demonstrating feasibility approach overall approach training deep learning model increasingly large publicly available image datasets present clear path smartphone assisted crop disease diagnosis massive global scale</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[2]</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.064|x2: 0.164|x3: 0.106|x4: 0.070|x5: 0.000|x6: 0.000|x7: 0.205|x8: 0.000|x9: 0.090|x10: 0.138|x11: 0.000|x12: 0.249|x13: 0.130|x14: 0.163|x15: 0.000|x16: 0.112|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.000|x3: 0.221|x4: 0.393|x5: 0.186|x6: 0.385|x7: 0.399|x8: 0.102|x9: 0.433|x10: 0.080|x11: 0.392|x12: 0.000|x13: 0.078|x14: 0.145|x15: 0.161|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.25]</t>
+          <t>[0.00, 0.19, 0.43]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[12, 7, 2, 14, 10, 13, 16, 3]</t>
+          <t>[9, 7, 4, 11, 6, 3, 5, 15, 14, 16, 8]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.24924837274096306, 0.20474633744222556, 0.163692369580141, 0.1626729208099835, 0.13755588923976905, 0.1301495625879712, 0.11210212196033306, 0.10571425617897792]</t>
+          <t>[0.43289430791853306, 0.3986656023638738, 0.3932333327392336, 0.3921040698245193, 0.3848747995800291, 0.2212957584226509, 0.18567445529104193, 0.1610577070402689, 0.14484891851938864, 0.11433563004029675, 0.10243565784649104]</t>
         </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1014,36 +1014,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>significant advance smart decision support development influenced important result pregnancy care considering effort reduce number woman death problem related pregnancy decrease presented impact area human development hypertensive disorder pregnancy particularly eclampsia eclampsia account significant proportion perinatal morbidity maternal mortality context paper proposes inference model mining technique capable operating extract pattern assist knowledge discovery identifying hypertensive crisis complicate pregnancy impact meaningful reduction incidence sequela death pregnant woman comparison bayesian classifier performed work better classify hypertensive disorder severity result showed naive bayes classifier excellent performance presenting better precision measure compared experimented classifier finding good performance predict hypertensive disorder bayesian method need evaluated technique based artificial intelligence tree based method</t>
+          <t>paper present automatic traffic surveillance estimate important traffic parameter video sequence camera different traditional method classify vehicle proposed method good capability categorize specific class linearity feature addition order reduce occlusion vehicle automatic scheme detecting lane dividing proposed lane dividing occlusion vehicle reduced normalization scheme developed tackling problem feature size variation vehicle feature extracted optimal classifier designed robustly categorize vehicle different class shadow occlusion noise exist designed classifier collect different evidence database verified vehicle better decision enhance robustness accuracy classification experimental result proposed method robust powerful traditional method</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.095|x3: 0.319|x4: 0.000|x5: 0.078|x6: 0.088|x7: 0.000|x8: 0.000|x9: 0.110|x10: 0.091|x11: 0.133|x12: 0.122|x13: 0.144|x14: 0.158|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.101|x2: 0.223|x3: 0.367|x4: 0.146|x5: 0.000|x6: 0.000|x7: 0.176|x8: 0.139|x9: 0.136|x10: 0.110|x11: 0.000|x12: 0.256|x13: 0.159|x14: 0.000|x15: 0.197|x16: 0.158|x17: 0.000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.32]</t>
+          <t>[0.00, 0.13, 0.37]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[3, 14, 13, 11, 12, 9]</t>
+          <t>[3, 12, 2, 15, 7, 13, 16, 4, 8, 9, 10, 1]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.31859096803537473, 0.1584793187439287, 0.14425038806800572, 0.1334016793607717, 0.12175420592512248, 0.109995931306975]</t>
+          <t>[0.36680640896188327, 0.2562966527227545, 0.2233508651134816, 0.19665880330843277, 0.1762545618316234, 0.1590312771821507, 0.15821775100184562, 0.14635873121449833, 0.1390152937747067, 0.13630305805059553, 0.11018320690336203, 0.10080674983177494]</t>
         </is>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="b">
         <v>1</v>
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>increase throughput installed base biomedical research equipment massive accumulation omics known highly variable dimensional sourced multiple incompatible platform useful biomarker identification drug discovery bulk remains underutilized deep neural network dnns efficient algorithm based compositional layer neuron advantage matched challenge omics present achieving state result surpassing human accuracy challenging task adoption deep learning biomedicine comparatively slow discus feature deep learning approach edge machine learning method consider limitation review number application deep learning biomedical study demonstrating proof concept practical utility</t>
+          <t>significant advance smart decision support development influenced important result pregnancy care considering effort reduce number woman death problem related pregnancy decrease presented impact area human development hypertensive disorder pregnancy particularly eclampsia eclampsia account significant proportion perinatal morbidity maternal mortality context paper proposes inference model mining technique capable operating extract pattern assist knowledge discovery identifying hypertensive crisis complicate pregnancy impact meaningful reduction incidence sequela death pregnant woman comparison bayesian classifier performed work better classify hypertensive disorder severity result showed naive bayes classifier excellent performance presenting better precision measure compared experimented classifier finding good performance predict hypertensive disorder bayesian method need evaluated technique based artificial intelligence tree based method</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1065,29 +1065,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.066|x4: 0.117|x5: 0.128|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.075|x10: 0.000|x11: 0.000|x12: 0.085|x13: 0.000|x14: 0.155|x15: 0.066|x16: 0.092|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.055|x3: 0.231|x4: 0.000|x5: 0.105|x6: 0.081|x7: 0.147|x8: 0.045|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.172|x14: 0.137|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.16]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[14, 5, 4]</t>
+          <t>[3, 13, 7, 14, 5]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.15513941847172893, 0.12841728983194345, 0.11716731794952445]</t>
+          <t>[0.23083789334656457, 0.17242153263386678, 0.14658431365613428, 0.13655508349396236, 0.1054233679151083]</t>
         </is>
       </c>
       <c r="H16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1096,39 +1096,39 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>fuzzy logic control developed hamburg university applied science hamburg operation biogas reactor running energy crop commercially available measuring parameter methane content specific production rate spec included objective avoid stabilization buffering supplement like lime manure developed cover application careful start process gentle recovery strategy severe reactor failure enabling process organic loading rate hydraulic retention time throughput anaerobic digestion process stable content precondition load process concept interval feeding example interval proved reliable long term fermentation study stage completely stirred tank reactor cstr acidic beet silage mono input fermentation fodder beet silage stable volumetric reached enabled automatic recovery digester induced severe reactor failure attempt prove feasibility substrate changed sugar beet silage substantially buffering capacity accomplished stable fermentation level volatile fatty acid level interact change substrate dosage permanently experiment reactor temperature concomitantly specific dropped finally automatically enabled complete recovery</t>
+          <t>increase throughput installed base biomedical research equipment massive accumulation omics known highly variable dimensional sourced multiple incompatible platform useful biomarker identification drug discovery bulk remains underutilized deep neural network dnns efficient algorithm based compositional layer neuron advantage matched challenge omics present achieving state result surpassing human accuracy challenging task adoption deep learning biomedicine comparatively slow discus feature deep learning approach edge machine learning method consider limitation review number application deep learning biomedical study demonstrating proof concept practical utility</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[2, 3]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.058|x3: 0.000|x4: 0.176|x5: 0.000|x6: 0.000|x7: 0.139|x8: 0.092|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.099|x13: 0.115|x14: 0.301|x15: 0.067|x16: 0.118|x17: 0.000</t>
+          <t>x1: 0.119|x2: 0.000|x3: 0.159|x4: 0.401|x5: 0.398|x6: 0.201|x7: 0.267|x8: 0.164|x9: 0.230|x10: 0.175|x11: 0.094|x12: 0.158|x13: 0.121|x14: 0.286|x15: 0.119|x16: 0.275|x17: 0.000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.30]</t>
+          <t>[0.00, 0.19, 0.40]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[14, 4, 7, 16, 13]</t>
+          <t>[4, 5, 14, 16, 7, 9, 6, 10, 8, 3, 12, 13, 15, 1]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0.3008467778499739, 0.17616022573735401, 0.13937266063291792, 0.11761105470193374, 0.11470057836813585]</t>
+          <t>[0.400686196086229, 0.3981561146173784, 0.28610686930536505, 0.27451445466115076, 0.2669730727879295, 0.2296400491498093, 0.2009145837991311, 0.17512910901722772, 0.16350299334885418, 0.1591566300053723, 0.15790712497000986, 0.12095209797722717, 0.1190251330321183, 0.11856397163017163]</t>
         </is>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1137,32 +1137,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>reduction environmental pollution conservation recycling natural resource significant social environmental concern valuable mean pollution control minimization mitigation remain attractive approach interactive dynamic uncertain feature associated process resulting difficulty management control artificial intelligence effective approach tackling complexity study recent advancement based technology management control pollution minimization mitigation process examined literature relevant area application control management pollution minimization mitigation process investigated especially technology expert fuzzy logic neural network emerge frequently employed approach realizing process control highlighted result provide overview updated progress study field importantly reveal perspective research effective environmental process control aided measure demanding area enhanced research effort discussed including issue availability reliability methodology validity complexity</t>
+          <t>fuzzy logic control developed hamburg university applied science hamburg operation biogas reactor running energy crop commercially available measuring parameter methane content specific production rate spec included objective avoid stabilization buffering supplement like lime manure developed cover application careful start process gentle recovery strategy severe reactor failure enabling process organic loading rate hydraulic retention time throughput anaerobic digestion process stable content precondition load process concept interval feeding example interval proved reliable long term fermentation study stage completely stirred tank reactor cstr acidic beet silage mono input fermentation fodder beet silage stable volumetric reached enabled automatic recovery digester induced severe reactor failure attempt prove feasibility substrate changed sugar beet silage substantially buffering capacity accomplished stable fermentation level volatile fatty acid level interact change substrate dosage permanently experiment reactor temperature concomitantly specific dropped finally automatically enabled complete recovery</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.088|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.115|x7: 0.138|x8: 0.000|x9: 0.074|x10: 0.048|x11: 0.000|x12: 0.104|x13: 0.263|x14: 0.285|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.164|x3: 0.000|x4: 0.321|x5: 0.144|x6: 0.000|x7: 0.204|x8: 0.064|x9: 0.108|x10: 0.107|x11: 0.121|x12: 0.283|x13: 0.341|x14: 0.222|x15: 0.120|x16: 0.182|x17: 0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.29]</t>
+          <t>[0.00, 0.14, 0.34]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[14, 13, 7, 6, 12]</t>
+          <t>[13, 4, 12, 14, 7, 16, 2, 5, 11, 15, 9, 10]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0.2854494869786359, 0.2625669246821265, 0.13829950012809308, 0.11472672304333884, 0.10354520998987093]</t>
+          <t>[0.34129826621265413, 0.32065875568828656, 0.2826046494833136, 0.2218419200780934, 0.20381087664282083, 0.18237288633956802, 0.16446860690422624, 0.14390826120444647, 0.12073939502683115, 0.11972973919751537, 0.10828118579245358, 0.10708275972575082]</t>
         </is>
       </c>
       <c r="H18" t="b">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>work aided tool detection developed segment breast mass clinical ultrasound scan underlying multi algorithm based convolutional neural network mayo clinic institutional review board protocol prospective study automatic segmentation suspicious breast mass performed cohort consisted female patient clinically identified suspicious breast mass underwent clinical scan breast biopsy aided detection tool effectively segmented breast mass achieving mean dice coefficient true positive fraction false positive fraction avoiding positioning initial seed algorithm able segment image time image potential clinical application algorithm conventional seeded algorithm mean dice coefficient performs significantly better original algorithm</t>
+          <t>intuitionistic fuzzy ifss generalization fuzzy adding additional attribute parameter called membership degree paper intuitionistic fuzzy hopfield neural network ifhnn proposed combining ifss hopfield neural network stability ifhnn investigated shown given weight matrix given initial intuitionistic fuzzy pattern iteration process ifhnn converges limit cycle furthermore suitable extra condition converges stable point finite iteration finally kind lyapunov stability stable point ifhnn proved mean initial state network close stable point network state remain neighborhood stable point stability result indicate convergence memory process ifhnn numerical example provided effectiveness lyapunov stability ifhnn</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1188,29 +1188,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.133|x2: 0.000|x3: 0.081|x4: 0.248|x5: 0.130|x6: 0.066|x7: 0.185|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.036|x13: 0.283|x14: 0.079|x15: 0.000|x16: 0.060|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.102|x3: 0.225|x4: 0.244|x5: 0.078|x6: 0.000|x7: 0.087|x8: 0.000|x9: 0.366|x10: 0.000|x11: 0.091|x12: 0.236|x13: 0.370|x14: 0.221|x15: 0.205|x16: 0.053|x17: 0.000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.28]</t>
+          <t>[0.00, 0.13, 0.37]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[13, 4, 7, 1, 5]</t>
+          <t>[13, 9, 4, 12, 3, 14, 15, 2]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.2828895601511143, 0.24752021294341425, 0.18485711639588565, 0.13317106881199517, 0.12982732575845315]</t>
+          <t>[0.3700423914277741, 0.36559768829074774, 0.24392282734269977, 0.23608654677512167, 0.22457055445630583, 0.22067081524001364, 0.20490298740449137, 0.10233611344618057]</t>
         </is>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1219,36 +1219,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>coronary artery calcification strong independent predictor cardiovascular event clinically quantified cardiac calcium scoring csct shown cardiac angiography ccta purpose present method automatic quantification ccta method supervised learning directly identify quantify need coronary artery extraction commonly existing method</t>
+          <t>reduction environmental pollution conservation recycling natural resource significant social environmental concern valuable mean pollution control minimization mitigation remain attractive approach interactive dynamic uncertain feature associated process resulting difficulty management control artificial intelligence effective approach tackling complexity study recent advancement based technology management control pollution minimization mitigation process examined literature relevant area application control management pollution minimization mitigation process investigated especially technology expert fuzzy logic neural network emerge frequently employed approach realizing process control highlighted result provide overview updated progress study field importantly reveal perspective research effective environmental process control aided measure demanding area enhanced research effort discussed including issue availability reliability methodology validity complexity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.100|x2: 0.061|x3: 0.235|x4: 0.160|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.094|x11: 0.000|x12: 0.131|x13: 0.253|x14: 0.302|x15: 0.139|x16: 0.283|x17: 0.000</t>
+          <t>x1: 0.051|x2: 0.210|x3: 0.000|x4: 0.234|x5: 0.062|x6: 0.277|x7: 0.268|x8: 0.071|x9: 0.162|x10: 0.000|x11: 0.223|x12: 0.421|x13: 0.487|x14: 0.247|x15: 0.328|x16: 0.051|x17: 0.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.30]</t>
+          <t>[0.00, 0.18, 0.49]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[14, 16, 13, 3, 4, 15, 12, 1]</t>
+          <t>[13, 12, 15, 6, 7, 14, 4, 11, 2, 9]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[0.3018114835202948, 0.2830056315913664, 0.2528003025967981, 0.23483186051564434, 0.1598785108038049, 0.13865750243239544, 0.13120709215138737, 0.10038672121444339]</t>
+          <t>[0.48656408418740915, 0.42143596374736675, 0.3279816815106663, 0.276785586336828, 0.2678176434346656, 0.247139740390053, 0.2335344045027505, 0.22304780491861323, 0.2099773854784357, 0.16200353520085037]</t>
         </is>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
         <v>1</v>
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>automatic license plate recognition play important role numerous application number technique proposed worked restricted condition fixed illumination limited vehicle speed designated route stationary background study constraint possible working environment considered proposed technique consists main module license plate locating module license number identification module characterized fuzzy discipline attempt extract license plate input image conceptualized term neural subject identify number present license plate experiment conducted respective module experiment locating license plate image taken scene different condition employed image failed locate license plate present image license plate location rate success experiment identifying license number image license plate successfully located image failed identify number license plate located image identification rate success combining rate overall rate success algorithm</t>
+          <t>work aided tool detection developed segment breast mass clinical ultrasound scan underlying multi algorithm based convolutional neural network mayo clinic institutional review board protocol prospective study automatic segmentation suspicious breast mass performed cohort consisted female patient clinically identified suspicious breast mass underwent clinical scan breast biopsy aided detection tool effectively segmented breast mass achieving mean dice coefficient true positive fraction false positive fraction avoiding positioning initial seed algorithm able segment image time image potential clinical application algorithm conventional seeded algorithm mean dice coefficient performs significantly better original algorithm</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1270,29 +1270,29 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.211|x3: 0.000|x4: 0.214|x5: 0.134|x6: 0.000|x7: 0.086|x8: 0.112|x9: 0.103|x10: 0.000|x11: 0.000|x12: 0.084|x13: 0.091|x14: 0.235|x15: 0.000|x16: 0.237|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.077|x3: 0.379|x4: 0.248|x5: 0.291|x6: 0.000|x7: 0.163|x8: 0.101|x9: 0.000|x10: 0.126|x11: 0.127|x12: 0.160|x13: 0.550|x14: 0.215|x15: 0.196|x16: 0.205|x17: 0.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.24]</t>
+          <t>[0.00, 0.17, 0.55]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[16, 14, 4, 2, 5, 8, 9]</t>
+          <t>[13, 3, 5, 4, 14, 16, 15, 7, 12, 11, 10, 8]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.23684492723625256, 0.2352623171492253, 0.21409470716309392, 0.21074986165716697, 0.13396935395276874, 0.11245068780692581, 0.10328234530761843]</t>
+          <t>[0.5501797341356289, 0.3786956488361619, 0.2913274319515825, 0.2480017824773618, 0.21491268792713272, 0.2047285918968575, 0.19571955550312434, 0.16250243260611208, 0.16018349749689553, 0.12679135831961147, 0.12626921363207555, 0.10092356889892118]</t>
         </is>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1301,39 +1301,39 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>perception design vital step development autonomous vehicle vast selection available shelf scheme seemingly endless option sensor implemented research commercial vehicle difficult identify optimal application article present comprehensive review state perception technology available today provides date information advantage disadvantage limit ideal application specific sensor prevalent sensor current research commercial autonomous feature currently market localization mapping method currently implemented research information useful newcomer field gain greater understanding current solution landscape guide experienced researcher research area requiring development furthermore paper highlight future research area draw conclusion effective method perception effect localization mapping topic discussed perception automotive sensor section focus sensor topic discussed localization mapping section focus vehicle perceives road providing context automotive sensor improving current state perception robust reliable safe accessible ultimately providing greater efficiency mobility safety benefit public</t>
+          <t>coronary artery calcification strong independent predictor cardiovascular event clinically quantified cardiac calcium scoring csct shown cardiac angiography ccta purpose present method automatic quantification ccta method supervised learning directly identify quantify need coronary artery extraction commonly existing method</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.174|x3: 0.064|x4: 0.134|x5: 0.000|x6: 0.000|x7: 0.139|x8: 0.000|x9: 0.215|x10: 0.152|x11: 0.000|x12: 0.090|x13: 0.164|x14: 0.134|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.288|x4: 0.416|x5: 0.203|x6: 0.063|x7: 0.158|x8: 0.000|x9: 0.361|x10: 0.174|x11: 0.299|x12: 0.129|x13: 0.376|x14: 0.215|x15: 0.126|x16: 0.324|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.21]</t>
+          <t>[0.00, 0.18, 0.42]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[9, 2, 13, 10, 7, 4, 14]</t>
+          <t>[4, 13, 9, 16, 11, 3, 14, 5, 10, 7, 12, 15]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.21453095372384556, 0.17352380836207032, 0.16442638372585494, 0.15227436248369125, 0.13916613343048972, 0.13420935179253007, 0.13380309287400782]</t>
+          <t>[0.41643455517716926, 0.37577073633503, 0.36080926036360517, 0.3240838658062672, 0.2986141967610165, 0.28788899569342596, 0.21536594544469387, 0.2026359512759711, 0.17379959004585632, 0.15827747711791476, 0.12937737614488964, 0.1264260352915373]</t>
         </is>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>life depression seventh competition event aimed comparison multimedia processing machine learning method automatic audiovisual depression emotion analysis participant competing strictly condition goal challenge provide common benchmark test multimodal information processing bring depression emotion recognition community audiovisual processing community compare relative merit approach depression emotion recognition life paper present novelty introduced challenge guideline performance baseline proposed task dimensional emotion recognition time value continuous dimensional depression estimation value continuous</t>
+          <t>automatic license plate recognition play important role numerous application number technique proposed worked restricted condition fixed illumination limited vehicle speed designated route stationary background study constraint possible working environment considered proposed technique consists main module license plate locating module license number identification module characterized fuzzy discipline attempt extract license plate input image conceptualized term neural subject identify number present license plate experiment conducted respective module experiment locating license plate image taken scene different condition employed image failed locate license plate present image license plate location rate success experiment identifying license number image license plate successfully located image failed identify number license plate located image identification rate success combining rate overall rate success algorithm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1352,22 +1352,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.220|x3: 0.178|x4: 0.096|x5: 0.000|x6: 0.313|x7: 0.000|x8: 0.227|x9: 0.279|x10: 0.167|x11: 0.276|x12: 0.000|x13: 0.000|x14: 0.065|x15: 0.000|x16: 0.145|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.192|x3: 0.264|x4: 0.180|x5: 0.198|x6: 0.000|x7: 0.000|x8: 0.069|x9: 0.000|x10: 0.154|x11: 0.094|x12: 0.000|x13: 0.127|x14: 0.302|x15: 0.138|x16: 0.271|x17: 0.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.31]</t>
+          <t>[0.00, 0.12, 0.30]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[6, 9, 11, 8, 2, 3, 10, 16]</t>
+          <t>[14, 16, 3, 5, 2, 4, 10, 15, 13]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.313196367039086, 0.27920090633835787, 0.27628603011613784, 0.22661189523279637, 0.21968133508295404, 0.17849050386054835, 0.16700849446804775, 0.14524832113769254]</t>
+          <t>[0.3018136896290047, 0.2706964031209135, 0.26413902918236015, 0.19807658508361828, 0.19209976410077126, 0.17990885770509527, 0.153742168905781, 0.13843674331041933, 0.12667752591275466]</t>
         </is>
       </c>
       <c r="H23" t="b">
@@ -1383,39 +1383,39 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mimo multiple input multiple output fuzzy logic based model developed predict biogas methane production rate pilot scale mesophilic flow anaerobic sludge blanket uasb reactor treating molasses wastewater input variable volumetric organic loading rate volumetric chemical oxygen demand tcod removal rate influent alkalinity influent effluent fuzzified artificial intelligence based approach trapezoidal membership function level conducted fuzzy subset mamdani type fuzzy inference implement rule format product prod centre gravity centroid method employed inference operator defuzzification method respectively fuzzy logic predicted result compared output exponential linear regression model derived study uasb reactor showed remarkable performance treatment molasses wastewater tcod removal efficiency volumetric tcod removal rate tcod removed respectively finding study clearly indicated compared linear regression model proposed mimo fuzzy logic based model produced smaller deviation exhibited superior predictive performance forecasting biogas methane production rate satisfactory determination coefficient</t>
+          <t>perception design vital step development autonomous vehicle vast selection available shelf scheme seemingly endless option sensor implemented research commercial vehicle difficult identify optimal application article present comprehensive review state perception technology available today provides date information advantage disadvantage limit ideal application specific sensor prevalent sensor current research commercial autonomous feature currently market localization mapping method currently implemented research information useful newcomer field gain greater understanding current solution landscape guide experienced researcher research area requiring development furthermore paper highlight future research area draw conclusion effective method perception effect localization mapping topic discussed perception automotive sensor section focus sensor topic discussed localization mapping section focus vehicle perceives road providing context automotive sensor improving current state perception robust reliable safe accessible ultimately providing greater efficiency mobility safety benefit public</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.122|x3: 0.200|x4: 0.128|x5: 0.000|x6: 0.244|x7: 0.322|x8: 0.100|x9: 0.223|x10: 0.000|x11: 0.210|x12: 0.388|x13: 0.106|x14: 0.140|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.108|x2: 0.239|x3: 0.078|x4: 0.186|x5: 0.270|x6: 0.184|x7: 0.203|x8: 0.149|x9: 0.307|x10: 0.157|x11: 0.000|x12: 0.101|x13: 0.309|x14: 0.307|x15: 0.185|x16: 0.246|x17: 0.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.39]</t>
+          <t>[0.00, 0.18, 0.31]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[12, 7, 6, 9, 11, 3, 14, 4, 2, 13]</t>
+          <t>[13, 14, 9, 5, 16, 2, 7, 4, 15, 6, 10, 8, 1, 12]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[0.3875936901878349, 0.32159592067623255, 0.2435971157740895, 0.22342969068960472, 0.21040014410185995, 0.200134353971898, 0.14037485624671264, 0.12773383497452342, 0.12216738792477641, 0.10570976343486775]</t>
+          <t>[0.30860950433175555, 0.3073221441369988, 0.3068067334677107, 0.26951467620377, 0.24602041851101555, 0.23869763288402263, 0.20340463888780755, 0.186478345134436, 0.18526754048921645, 0.1839466332379046, 0.15735968770346404, 0.14851057098227022, 0.10769223709044633, 0.10082045092469365]</t>
         </is>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1424,39 +1424,39 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>fuzzy logic model developed simulate effect leachate recirculation sludge addition biogas generation anaerobic bioreactor landfill model designed fuzzy logic incorporated input variable time leachate recirculation sludge addition single manipulated output biogas generation rate biogas production rate measured experiment increasing proportionally rate leachate recirculation sludge addition experimental work involved operation simulated laboratory scale bioreactors different operating scheme experimental result employed formulating fuzzy rule base calibrating model verifying prediction model validated measured compiled published study model simulation demonstrated correlation experimental observation</t>
+          <t>life depression seventh competition event aimed comparison multimedia processing machine learning method automatic audiovisual depression emotion analysis participant competing strictly condition goal challenge provide common benchmark test multimodal information processing bring depression emotion recognition community audiovisual processing community compare relative merit approach depression emotion recognition life paper present novelty introduced challenge guideline performance baseline proposed task dimensional emotion recognition time value continuous dimensional depression estimation value continuous</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.263|x2: 0.138|x3: 0.000|x4: 0.099|x5: 0.000|x6: 0.000|x7: 0.376|x8: 0.177|x9: 0.228|x10: 0.000|x11: 0.071|x12: 0.262|x13: 0.135|x14: 0.242|x15: 0.164|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.118|x2: 0.236|x3: 0.362|x4: 0.295|x5: 0.121|x6: 0.301|x7: 0.205|x8: 0.162|x9: 0.300|x10: 0.123|x11: 0.173|x12: 0.094|x13: 0.000|x14: 0.053|x15: 0.049|x16: 0.173|x17: 0.000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.38]</t>
+          <t>[0.00, 0.16, 0.36]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[7, 1, 12, 14, 9, 8, 15, 2, 13]</t>
+          <t>[3, 6, 9, 4, 2, 7, 11, 16, 8, 10, 5, 1]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.3764612816982233, 0.2625345209010353, 0.26200237651242747, 0.24221709458881044, 0.2278840163551133, 0.17676910932984763, 0.1635845156914864, 0.1375500895169411, 0.13494746982547665]</t>
+          <t>[0.36190625081910377, 0.30141173687629025, 0.30005270963243724, 0.29450149384295143, 0.23600962342585677, 0.20545876563914817, 0.17342709946567414, 0.17303668637406147, 0.16218775811829797, 0.12259948320690776, 0.12051665175490636, 0.11761023060458717]</t>
         </is>
       </c>
       <c r="H25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1465,32 +1465,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>hypertension main cause maternal death preeclampsia affect pregnant woman pregnancy identification patient higher risk preeclampsia allows precaution taken prevent severe disease subsequent complication medicine different situation deal large range information need thorough assessment able help expert decision making process smart decision support allow grouping existing information finding pertinent information bayesian network offer model allow information capture handle situation uncertainty paper proposes construction support intelligent decision applied diagnosis preeclampsia bayesian network help expert pregnants care process qualitative quantitative modeling construction network presented main contribution work includes presentation bayesian network built help decision maker moment uncertainty care pregnant woman</t>
+          <t>mimo multiple input multiple output fuzzy logic based model developed predict biogas methane production rate pilot scale mesophilic flow anaerobic sludge blanket uasb reactor treating molasses wastewater input variable volumetric organic loading rate volumetric chemical oxygen demand tcod removal rate influent alkalinity influent effluent fuzzified artificial intelligence based approach trapezoidal membership function level conducted fuzzy subset mamdani type fuzzy inference implement rule format product prod centre gravity centroid method employed inference operator defuzzification method respectively fuzzy logic predicted result compared output exponential linear regression model derived study uasb reactor showed remarkable performance treatment molasses wastewater tcod removal efficiency volumetric tcod removal rate tcod removed respectively finding study clearly indicated compared linear regression model proposed mimo fuzzy logic based model produced smaller deviation exhibited superior predictive performance forecasting biogas methane production rate satisfactory determination coefficient</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.180|x3: 0.327|x4: 0.000|x5: 0.000|x6: 0.072|x7: 0.128|x8: 0.000|x9: 0.126|x10: 0.104|x11: 0.204|x12: 0.212|x13: 0.177|x14: 0.123|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.100|x3: 0.172|x4: 0.072|x5: 0.166|x6: 0.243|x7: 0.383|x8: 0.105|x9: 0.151|x10: 0.087|x11: 0.203|x12: 0.108|x13: 0.000|x14: 0.137|x15: 0.000|x16: 0.127|x17: 0.000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.33]</t>
+          <t>[0.00, 0.13, 0.38]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[3, 12, 11, 2, 13, 7, 9, 14, 10]</t>
+          <t>[7, 6, 11, 3, 5, 9, 14, 16, 12, 8, 2]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.32743789458402267, 0.21245488116645583, 0.20418406438083686, 0.18036606316781137, 0.1774911670402706, 0.12796272695056446, 0.1264295127283093, 0.12306934448133876, 0.1042986677188648]</t>
+          <t>[0.38269962555874154, 0.24288907869712614, 0.2028455168420778, 0.17202540556312354, 0.16612533532819976, 0.15137311966007877, 0.13710334397190296, 0.12699991172407454, 0.10803308983425887, 0.1049275585138265, 0.10019868906372076]</t>
         </is>
       </c>
       <c r="H26" t="b">
@@ -1506,36 +1506,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pregnancy delicate stage woman life cycle change health period lead risk pregnancy risk pregnancy endangers woman baby health life hypertensive disorder common cause pregnancy related complication present major challenge health care result increasing maternal fetal death exist technique widely mining early identification health disease better treatment provided early stage early identification hypertensive disorder main intent paper pinpoint present complication pregnant woman applying boosted random forest approach predicting hypertensive disorder classification method help predict risk diagnose decrease maternal fetal mortality remains large problem developing</t>
+          <t>fuzzy logic model developed simulate effect leachate recirculation sludge addition biogas generation anaerobic bioreactor landfill model designed fuzzy logic incorporated input variable time leachate recirculation sludge addition single manipulated output biogas generation rate biogas production rate measured experiment increasing proportionally rate leachate recirculation sludge addition experimental work involved operation simulated laboratory scale bioreactors different operating scheme experimental result employed formulating fuzzy rule base calibrating model verifying prediction model validated measured compiled published study model simulation demonstrated correlation experimental observation</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.371|x4: 0.135|x5: 0.204|x6: 0.111|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.108|x12: 0.081|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.197|x3: 0.000|x4: 0.205|x5: 0.230|x6: 0.318|x7: 0.600|x8: 0.101|x9: 0.279|x10: 0.071|x11: 0.120|x12: 0.410|x13: 0.251|x14: 0.202|x15: 0.085|x16: 0.098|x17: 0.000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.37]</t>
+          <t>[0.00, 0.19, 0.60]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[3, 5, 4, 6, 11]</t>
+          <t>[7, 12, 6, 9, 13, 5, 4, 14, 2, 11, 8]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[0.3712083332818656, 0.20406277041530146, 0.13476555835361811, 0.11117625289482184, 0.10816155497452973]</t>
+          <t>[0.6002959014108418, 0.410117355507373, 0.3182933353886937, 0.27910081395399705, 0.2511001083803059, 0.22986624353230387, 0.20458494402039917, 0.2019772387144947, 0.19662666401910656, 0.11993738370096899, 0.1012464424597269]</t>
         </is>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>national motor vehicle crash causation survey nmvccs conducted aimed collecting scene information event associated factor leading crash involving light vehicle facet crash occurrence investigated collection precrash movement critical crash event critical reason associated factor weighted sample crash investigated period represents estimated crash nationwide vehicle driver passenger estimated involved crash critical reason event crash causal chain assigned driver percent crash percent crash critical reason assigned vehicle component failure degradation percent crash attributed environment slick road weather estimated driver assigned critical reason recognition error accounted percent decision error percent performance error percent crash</t>
+          <t>hypertension main cause maternal death preeclampsia affect pregnant woman pregnancy identification patient higher risk preeclampsia allows precaution taken prevent severe disease subsequent complication medicine different situation deal large range information need thorough assessment able help expert decision making process smart decision support allow grouping existing information finding pertinent information bayesian network offer model allow information capture handle situation uncertainty paper proposes construction support intelligent decision applied diagnosis preeclampsia bayesian network help expert pregnant care process qualitative quantitative modeling construction network presented main contribution work includes presentation bayesian network built help decision maker moment uncertainty care pregnant woman</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1557,22 +1557,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.146|x2: 0.186|x3: 0.099|x4: 0.190|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.159|x9: 0.192|x10: 0.000|x11: 0.310|x12: 0.178|x13: 0.000|x14: 0.059|x15: 0.107|x16: 0.273|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.242|x3: 0.075|x4: 0.157|x5: 0.105|x6: 0.163|x7: 0.243|x8: 0.137|x9: 0.056|x10: 0.092|x11: 0.092|x12: 0.248|x13: 0.207|x14: 0.000|x15: 0.000|x16: 0.123|x17: 0.000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.31]</t>
+          <t>[0.00, 0.12, 0.25]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[11, 16, 9, 4, 2, 12, 8, 1, 15]</t>
+          <t>[12, 7, 2, 13, 6, 4, 8, 16, 5]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.31033589506171844, 0.273471492339169, 0.19248584302104785, 0.1903627606901225, 0.18638205820992543, 0.1777834111471446, 0.15861994008804442, 0.14644379091310433, 0.10711899739283087]</t>
+          <t>[0.24847535491474948, 0.2426699234708723, 0.24150384498895097, 0.2071948094460597, 0.16317112910291412, 0.15718615222003687, 0.1368939650516283, 0.12305564907905094, 0.1045162253974443]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1588,39 +1588,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>paper survey discus application derived soft sensing technique biological wastewater treatment plant emphasis given extensive overview current status specific challenge potential allow effective application soft sensor scale scenario soft sensor presented study effective inexpensive technology extracting modelling relevant process information directly process laboratory routinely acquired biological wastewater treatment facility extracted information timely analysis hard measure primary process variable process diagnostics characterize operation plant instrumentation information invaluable effective utilization advanced control optimization strategy</t>
+          <t>pregnancy delicate stage woman life cycle change health period lead risk pregnancy risk pregnancy endangers woman baby health life hypertensive disorder common cause pregnancy related complication present major challenge health care result increasing maternal fetal death exist technique widely mining early identification health disease better treatment provided early stage early identification hypertensive disorder main intent paper pinpoint present complication pregnant woman applying boosted random forest approach predicting hypertensive disorder classification method help predict risk diagnose decrease maternal fetal mortality remains large problem developing</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[3, 6, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.050|x3: 0.000|x4: 0.000|x5: 0.040|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.271|x13: 0.206|x14: 0.261|x15: 0.222|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.260|x4: 0.102|x5: 0.092|x6: 0.000|x7: 0.000|x8: 0.039|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.092|x14: 0.000|x15: 0.052|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.27]</t>
+          <t>[0.00, 0.04, 0.26]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[12, 14, 15, 13]</t>
+          <t>[3, 4]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.2712656526544842, 0.2606705343345569, 0.2224541046994496, 0.2058390841754536]</t>
+          <t>[0.26023855745928054, 0.10240185344174213]</t>
         </is>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>social twitter provide urgently needed drug abuse intelligence support campaign fighting national drug abuse crisis employed targeted tweet collection approach staged annotation strategy combine conventional annotation crowdsourced annotation produce annotated training dataset demo deep learning model trained boosting manner staged annotation method unlabeled collection detect drug abuse risk behavior tweet</t>
+          <t>national motor vehicle crash causation survey nmvccs conducted aimed collecting scene information event associated factor leading crash involving light vehicle facet crash occurrence investigated collection precrash movement critical crash event critical reason associated factor weighted sample crash investigated period represents estimated crash nationwide vehicle driver passenger estimated involved crash critical reason event crash causal chain assigned driver percent crash percent crash critical reason assigned vehicle component failure degradation percent crash attributed environment slick road weather estimated driver assigned critical reason recognition error accounted percent decision error percent performance error percent crash</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.215|x2: 0.000|x3: 0.166|x4: 0.125|x5: 0.102|x6: 0.172|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.154|x12: 0.142|x13: 0.098|x14: 0.227|x15: 0.077|x16: 0.133|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.000|x3: 0.201|x4: 0.061|x5: 0.291|x6: 0.290|x7: 0.179|x8: 0.102|x9: 0.253|x10: 0.165|x11: 0.205|x12: 0.313|x13: 0.174|x14: 0.000|x15: 0.244|x16: 0.280|x17: 0.000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.23]</t>
+          <t>[0.00, 0.17, 0.31]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[14, 1, 6, 3, 11, 12, 16, 4, 5]</t>
+          <t>[12, 5, 6, 16, 9, 15, 11, 3, 7, 13, 10, 8]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.22715989594674882, 0.21537957340576458, 0.17166601811612672, 0.16556277195365895, 0.15439822080679855, 0.14151025614595986, 0.1331376404896661, 0.12476354138410459, 0.102103872480305]</t>
+          <t>[0.31271236860493706, 0.29103153992833874, 0.28984480877143565, 0.27996122797038464, 0.2530032620977626, 0.2438568750737452, 0.20531558189949203, 0.20085966420197576, 0.179392568449693, 0.17442227060267862, 0.16528750714610113, 0.10225881291238419]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1670,39 +1670,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>goal research project combine intelligent decision patient decisionsupport tool provide information physician nurse parent facing difficult ethical decision care management neonatal intensive care nicu patient artificial intelligence approach based reasoning artificial neural network provide critical information estimate likelihood survival duration artificial ventilation estimate addition factor weight gestational presence major complication provide eritical information health care giver parent decide initiate intensive care infant terminate initiated</t>
+          <t>paper survey discus application derived soft sensing technique biological wastewater treatment plant emphasis given extensive overview current status specific challenge potential allow effective application soft sensor scale scenario soft sensor presented study effective inexpensive technology extracting modelling relevant process information directly process laboratory routinely acquired biological wastewater treatment facility extracted information timely analysis hard measure primary process variable process diagnostics characterize operation plant instrumentation information invaluable effective utilization advanced control optimization strategy</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.344|x4: 0.000|x5: 0.233|x6: 0.276|x7: 0.000|x8: 0.000|x9: 0.203|x10: 0.202|x11: 0.191|x12: 0.083|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.313|x3: 0.000|x4: 0.106|x5: 0.126|x6: 0.202|x7: 0.450|x8: 0.000|x9: 0.151|x10: 0.000|x11: 0.000|x12: 0.506|x13: 0.465|x14: 0.328|x15: 0.481|x16: 0.065|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.34]</t>
+          <t>[0.00, 0.19, 0.51]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[3, 6, 5, 9, 10, 11]</t>
+          <t>[12, 15, 13, 7, 14, 2, 6, 9, 5, 4]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.34368070367958603, 0.2758626980321053, 0.23343435872490442, 0.20311017246783206, 0.20199706390781796, 0.19106816796173035]</t>
+          <t>[0.5060608743611076, 0.4807571390787023, 0.4651691891096217, 0.4497677153270511, 0.3275030772764126, 0.31346071767749484, 0.20174552450226838, 0.1505113265429739, 0.12602567383924143, 0.10592972025116107]</t>
         </is>
       </c>
       <c r="H31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>severe maternal morbidity public health issue occur pregnancy delivery puerperium condition hypertensive disorder hemorrhage infection risk woman baby life condition difficult detect early stage response work proposes machine learning technique considered relevant medical setting order predict risk level severe maternal morbidity patient pregnancy population studied correspond pregnant woman receiving prenatal care attention clinica maternidad rafael calvo cartagena colombia paper present preliminary result ongoing project method material considered construction learning model</t>
+          <t>paper provide survey application deep learning cancer detection diagnosis hope provide overview progress field survey firstly provide overview deep learning popular architecture cancer detection diagnosis especially present popular deep learning architecture including convolutional neural network fully convolutional network auto encoders deep belief network survey secondly provide survey study exploiting deep learning cancer detection diagnosis survey organized based type cancer thirdly provide summary comment recent work application deep learning cancer detection diagnosis propose future research direction</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1721,22 +1721,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.406|x4: 0.106|x5: 0.000|x6: 0.089|x7: 0.080|x8: 0.038|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.167|x13: 0.000|x14: 0.000|x15: 0.067|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.055|x2: 0.000|x3: 0.351|x4: 0.478|x5: 0.262|x6: 0.161|x7: 0.265|x8: 0.076|x9: 0.244|x10: 0.125|x11: 0.000|x12: 0.000|x13: 0.119|x14: 0.000|x15: 0.143|x16: 0.212|x17: 0.000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.41]</t>
+          <t>[0.00, 0.15, 0.48]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[3, 12, 4]</t>
+          <t>[4, 3, 7, 5, 9, 16, 6, 15, 10, 13]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.40619560421214573, 0.16665160943802748, 0.10579442338174674]</t>
+          <t>[0.47836390126873823, 0.35100499171447913, 0.26531958479815365, 0.26178426560264967, 0.2439359110171702, 0.21196208389721516, 0.1609886314911215, 0.14348069386449572, 0.12481603893167623, 0.11925900765047279]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>background misuse prescription opioids mupo leading public health concern social playing expanded role public health research method estimating established epidemiological metric social purpose study demonstrate geographic variation social post mentioning prescription opioid misuse strongly correlate government estimate mupo month method wrote software acquire publicly available tweet twitter contained keyword related prescription opioid medical toxicologist emergency physician curated list keywords semantic distance semd automatically quantify similarity meaning tweet identify tweet mentioned mupo defined semd word shortest distance corresponding word centroid word centroid represented recognized meaning word validated automatic identification manual curation twitter metadata estimate location tweet compared estimated geographic distribution national survey drug usage health nsduh result tweet mentioned mupo formed distinct cluster away semantically unrelated tweet state bystate correlation twitter nsduh highly significant nsduh survey correlation strongest twitter nsduh aged correlation driven discussion opioid controlling geographic variation twitter usage conclusion mention mupo twitter correlate strongly state state nsduh estimate mupo demonstrated natural language processing analyze social provide insight syndromic</t>
+          <t>social twitter provide urgently needed drug abuse intelligence support campaign fighting national drug abuse crisis employed targeted tweet collection approach staged annotation strategy combine conventional annotation crowdsourced annotation produce annotated training dataset demo deep learning model trained boosting manner staged annotation method unlabeled collection detect drug abuse risk behavior tweet</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1762,29 +1762,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.425|x2: 0.000|x3: 0.048|x4: 0.283|x5: 0.099|x6: 0.000|x7: 0.156|x8: 0.208|x9: 0.000|x10: 0.000|x11: 0.106|x12: 0.122|x13: 0.237|x14: 0.136|x15: 0.000|x16: 0.160|x17: 0.000</t>
+          <t>x1: 0.122|x2: 0.000|x3: 0.165|x4: 0.235|x5: 0.238|x6: 0.334|x7: 0.270|x8: 0.169|x9: 0.084|x10: 0.061|x11: 0.172|x12: 0.000|x13: 0.067|x14: 0.202|x15: 0.069|x16: 0.052|x17: 0.000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.43]</t>
+          <t>[0.00, 0.13, 0.33]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[1, 4, 13, 8, 16, 7, 14, 12, 11]</t>
+          <t>[6, 7, 5, 4, 14, 11, 8, 3, 1]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.42525816481906126, 0.283266186754164, 0.23687377589023553, 0.2082529791176877, 0.15955375158456728, 0.15575256857062256, 0.135928409454824, 0.12241850400428878, 0.10643139379827508]</t>
+          <t>[0.3344407584798069, 0.2698924208989878, 0.23775684079279286, 0.2346333796947939, 0.20200400408002908, 0.17229525313929867, 0.16879584158745034, 0.16518031533782915, 0.12240207327926367]</t>
         </is>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>generating novel graph structure optimize given objective obeying given underlying rule fundamental chemistry biology social science research especially important task molecular graph generation goal discover novel molecule desired property drug likeness synthetic accessibility obeying physical chemical valency designing model molecule optimize desired property incorporating highly complex differentiable rule remains challenging task propose graph convolutional policy network gcpn general graph convolutional network based model goal directed graph generation reinforcement learning model trained optimize domain specific reward adversarial loss policy gradient environment incorporates domain specific rule experimental result gcpn achieve improvement chemical property optimization state baseline resembling known molecule achieve improvement constrained property optimization task</t>
+          <t>goal research project combine intelligent decision patient decisionsupport tool provide information physician nurse parent facing difficult ethical decision care management neonatal intensive care nicu patient artificial intelligence approach based reasoning artificial neural network provide critical information estimate likelihood survival duration artificial ventilation estimate addition factor weight gestational presence major complication provide eritical information health care giver parent decide initiate intensive care infant terminate initiated</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.061|x2: 0.000|x3: 0.163|x4: 0.164|x5: 0.187|x6: 0.048|x7: 0.000|x8: 0.000|x9: 0.155|x10: 0.000|x11: 0.094|x12: 0.274|x13: 0.098|x14: 0.112|x15: 0.063|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.476|x4: 0.325|x5: 0.345|x6: 0.154|x7: 0.421|x8: 0.058|x9: 0.297|x10: 0.000|x11: 0.000|x12: 0.210|x13: 0.200|x14: 0.182|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.27]</t>
+          <t>[0.00, 0.16, 0.48]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[12, 5, 4, 3, 9, 14]</t>
+          <t>[3, 7, 5, 4, 9, 12, 13, 14, 6]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.2738326665287191, 0.18680012661849146, 0.16379356596015207, 0.16300902238025003, 0.15485792109296695, 0.11192465335401862]</t>
+          <t>[0.47580857929730397, 0.4209087016354107, 0.34484491898133857, 0.32542176046914584, 0.29670796972633895, 0.21016107669982645, 0.20021392884312603, 0.18160141638282531, 0.15419039471528068]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>discrete hidden markov model hmms applied classify pregnancy disorder observation sequence generated transforming systolic blood pressure time series symbolic dynamic time series recorded woman pregnancy induced hypertension preeclampsia control gestational week hmms hidden state sufficient characterize different blood pressure variability significant classification based hmms hidden state pregnancy disorder preeclampsia pregnancy induced hypertension revealed different patho physiological autonomous regulation supposing different etiology disorder</t>
+          <t>severe maternal morbidity public health issue occur pregnancy delivery puerperium condition hypertensive disorder hemorrhage infection risk woman baby life condition difficult detect early stage response work proposes machine learning technique considered relevant medical setting order predict risk level severe maternal morbidity patient pregnancy population studied correspond pregnant woman receiving prenatal care attention clinica maternidad rafael calvo cartagena colombia paper present preliminary result ongoing project method material considered construction learning model</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1844,22 +1844,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.204|x3: 0.273|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.188|x8: 0.147|x9: 0.156|x10: 0.090|x11: 0.216|x12: 0.000|x13: 0.000|x14: 0.189|x15: 0.275|x16: 0.153|x17: 0.000</t>
+          <t>x1: 0.103|x2: 0.000|x3: 0.292|x4: 0.237|x5: 0.183|x6: 0.182|x7: 0.285|x8: 0.142|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.088|x13: 0.126|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.27]</t>
+          <t>[0.00, 0.10, 0.29]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[15, 3, 11, 2, 14, 7, 9, 16, 8]</t>
+          <t>[3, 7, 4, 5, 6, 8, 13, 1]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.2745277854958009, 0.27307427722665534, 0.2155069322061199, 0.20429696865070618, 0.18930734896655257, 0.188162981362852, 0.15627823337649652, 0.1529242329014695, 0.14733360648012248]</t>
+          <t>[0.29239368015198947, 0.2852262768869676, 0.2370611125281918, 0.18280948366060448, 0.1820192759886961, 0.14208614816865234, 0.12638506146382092, 0.10303357568851823]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>substance abuse significant public health problem united state group based intervention program offer promising mean reducing substance abuse effective inappropriate intervention group result increase deviant behavior participant process known deviancy training paper present guide based decision leverage social network information optimize structure intervention group</t>
+          <t>background misuse prescription opioids mupo leading public health concern social playing expanded role public health research method estimating established epidemiological metric social purpose study demonstrate geographic variation social post mentioning prescription opioid misuse strongly correlate government estimate mupo month method wrote software acquire publicly available tweet twitter contained keyword related prescription opioid medical toxicologist emergency physician curated list keywords semantic distance semd automatically quantify similarity meaning tweet identify tweet mentioned mupo defined semd word shortest distance corresponding word centroid word centroid represented recognized meaning word validated automatic identification manual curation twitter metadata estimate location tweet compared estimated geographic distribution national survey drug usage health nsduh result tweet mentioned mupo formed distinct cluster away semantically unrelated tweet state bystate correlation twitter nsduh highly significant nsduh survey correlation strongest twitter nsduh aged correlation driven discussion opioid controlling geographic variation twitter usage conclusion mention mupo twitter correlate strongly state state nsduh estimate mupo demonstrated natural language processing analyze social provide insight syndromic</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1885,22 +1885,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.109|x2: 0.000|x3: 0.255|x4: 0.148|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.144|x9: 0.336|x10: 0.143|x11: 0.121|x12: 0.110|x13: 0.217|x14: 0.361|x15: 0.000|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.159|x2: 0.283|x3: 0.168|x4: 0.443|x5: 0.166|x6: 0.000|x7: 0.112|x8: 0.219|x9: 0.279|x10: 0.165|x11: 0.102|x12: 0.090|x13: 0.220|x14: 0.228|x15: 0.089|x16: 0.232|x17: 0.000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.36]</t>
+          <t>[0.00, 0.17, 0.44]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[14, 9, 3, 13, 4, 8, 10, 11, 12, 1]</t>
+          <t>[4, 2, 9, 16, 14, 13, 8, 3, 5, 10, 1, 7, 11]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.3614167321549787, 0.3359184734698993, 0.25522473105617716, 0.21717545018511053, 0.14806844168523342, 0.1437932476849653, 0.14292983297733722, 0.12083889296408155, 0.10990957778823647, 0.109350411834568]</t>
+          <t>[0.443480686041175, 0.2831579476759045, 0.2788870014658321, 0.23200029034611422, 0.22839761144044332, 0.2203479788386868, 0.21911515257553907, 0.16820801570257404, 0.16595567622676272, 0.16471912882580597, 0.15889105270554368, 0.11174705106872479, 0.10203468149714452]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>seek automate design molecule based specific chemical property computational term task involves continuous embedding generation molecular graph primary contribution direct realization molecular graph task previously approached generating linear smile string instead graph junction tree variational autoencoder generates molecular graph phase generating tree structured scaffold chemical substructure combining molecule graph message passing network approach allows incrementally expand molecule maintaining chemical validity step evaluate model multiple task ranging molecular generation optimization task model outperforms previous state baseline significant margin</t>
+          <t>generating novel graph structure optimize given objective obeying given underlying rule fundamental chemistry biology social science research especially important task molecular graph generation goal discover novel molecule desired property drug likeness synthetic accessibility obeying physical chemical valency designing model molecule optimize desired property incorporating highly complex differentiable rule remains challenging task propose graph convolutional policy network gcpn general graph convolutional network based model goaldirected graph generation reinforcement learning model trained optimize domain specific reward adversarial loss policy gradient environment incorporates domain specific rule experimental result gcpn achieve improvement chemical property optimization state baseline resembling known molecule achieve improvement constrained property optimization task</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1926,29 +1926,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.193|x3: 0.000|x4: 0.000|x5: 0.137|x6: 0.055|x7: 0.278|x8: 0.121|x9: 0.232|x10: 0.161|x11: 0.000|x12: 0.360|x13: 0.000|x14: 0.222|x15: 0.254|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.119|x2: 0.000|x3: 0.213|x4: 0.260|x5: 0.211|x6: 0.176|x7: 0.262|x8: 0.164|x9: 0.285|x10: 0.073|x11: 0.122|x12: 0.161|x13: 0.053|x14: 0.060|x15: 0.079|x16: 0.076|x17: 0.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.36]</t>
+          <t>[0.00, 0.14, 0.29]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[12, 7, 15, 9, 14, 2, 10, 5, 8]</t>
+          <t>[9, 7, 4, 3, 5, 6, 8, 12, 11, 1]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[0.3601134884705995, 0.27792035983461805, 0.25430013751800346, 0.2315381443789792, 0.22233115320813227, 0.19253098445422642, 0.16107337702465213, 0.13651115227208352, 0.12071014404955835]</t>
+          <t>[0.2854256398933278, 0.2619354033872328, 0.2602478042082724, 0.2130110110662579, 0.2106500655971705, 0.17615020629273018, 0.16403393156241125, 0.16129483160132227, 0.1222946871686609, 0.11894898074835483]</t>
         </is>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>cancer characterized heterogeneous disease consisting different subtypes early diag nosis prognosis cancer type necessity cancer research facilitate subsequent clinical management patient importance classifying cancer patient risk group research team biomedical bioinformatics field study application machine learning method technique utilized model progression treatment cancerous condition addition ability tool detect feature complex datasets reveals importance variety technique including artificial neural network anns bayesian network support vector machine svms decision tree widely applied cancer research development predictive model resulting effective accurate decision making evident method improve understanding cancer progression appropriate level validation needed order method considered everyday clinical prac tice work present review recent approach employed modeling cancer progression predictive model discussed based supervised technique different input feature sample given growing trend application method cancer research present recent publication employ technique model cancer risk patient outcome</t>
+          <t>discrete hidden markov model hmms applied classify pregnancy disorder observation sequence generated transforming systolic blood pressure time series symbolic dynamic time series recorded woman pregnancy induced hypertension preeclampsia control gestational week hmms hidden state sufficient characterize different blood pressure variability significant classification based hmms hidden state pregnancy disorder preeclampsia pregnancy induced hypertension revealed different patho physiological autonomous regulation supposing different etiology disorder</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1967,22 +1967,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.000|x3: 0.183|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.201|x8: 0.068|x9: 0.000|x10: 0.117|x11: 0.000|x12: 0.129|x13: 0.245|x14: 0.228|x15: 0.053|x16: 0.061|x17: 0.000</t>
+          <t>x1: 0.105|x2: 0.000|x3: 0.260|x4: 0.146|x5: 0.136|x6: 0.081|x7: 0.280|x8: 0.145|x9: 0.070|x10: 0.099|x11: 0.136|x12: 0.178|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.134|x17: 0.000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.25]</t>
+          <t>[0.00, 0.10, 0.28]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[13, 14, 7, 3, 12, 10]</t>
+          <t>[7, 3, 12, 4, 8, 11, 5, 16, 1]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.24513739974793855, 0.22824363544169035, 0.2012629160171717, 0.18323431792178782, 0.12912451129846408, 0.11723428566401363]</t>
+          <t>[0.27967447096615344, 0.2604264905932882, 0.17756728988600215, 0.14562317120416862, 0.14459842144811416, 0.1364373756074898, 0.1356106871375951, 0.13438696100873937, 0.1048553472153417]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>eclampsia multi disorder pregnancy major maternal perinatal implication emerging therapeutic strategy maximally effective commenced week month prior clinical presentation disease widespread plasma alteration precede clinical onset eclampsia single plasma constituent emerged sensitive specific predictor risk consequently currently available method identifying condition prior clinical presentation limited clinical exploited genetic programming powerful mining method identify pattern metabolite distinguish plasma patient eclampsia taken healthy matched control resolution chromatography time flight mass spectrometry performed plasma sample woman eclampsia matched control normalised peak genetic programming produce model gave output patient control model trained generated tested separate hold model generated identified metabolomic pattern produce simple rule discriminate eclampsia normal pregnant control metabolite peak variable sensitivity specificity preeclampsia diagnosed level molecule metabolism blood plasma finding justify prospective assessment metabolomic technology screening tool eclampsia identification metabolite involved lead improved understanding aetiological basis eclampsia development targeted therapy</t>
+          <t>substance abuse significant public health problem united state group based intervention program offer promising mean reducing substance abuse effective inappropriate intervention group result increase deviant behavior participant process known deviancy training paper present guide based decision leverage social network information optimize structure intervention group</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2008,22 +2008,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.084|x2: 0.153|x3: 0.356|x4: 0.123|x5: 0.206|x6: 0.000|x7: 0.199|x8: 0.170|x9: 0.139|x10: 0.000|x11: 0.176|x12: 0.350|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.294|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.000|x3: 0.222|x4: 0.000|x5: 0.163|x6: 0.155|x7: 0.119|x8: 0.126|x9: 0.364|x10: 0.053|x11: 0.156|x12: 0.205|x13: 0.000|x14: 0.235|x15: 0.168|x16: 0.053|x17: 0.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.36]</t>
+          <t>[0.00, 0.12, 0.36]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[3, 12, 16, 5, 7, 11, 8, 2, 9, 4]</t>
+          <t>[9, 14, 3, 12, 15, 5, 11, 6, 8, 7]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[0.3557444794386448, 0.34976663213977705, 0.29368950642980773, 0.2055384834482069, 0.19928858405254415, 0.17622652407008935, 0.16998603701535517, 0.15251121874693224, 0.13891688416490172, 0.12278709860433525]</t>
+          <t>[0.36434861612179975, 0.2347571761143507, 0.22169933814307977, 0.2045062881013307, 0.16815895426302818, 0.16324698485647807, 0.15630780525933727, 0.15543754858974418, 0.12575510832786493, 0.11901601450687273]</t>
         </is>
       </c>
       <c r="H39" t="b">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>hypertensive disorder leading cause death pregnancy risk pregnancy accompaniment essential reduce complication decision support important tool patient accompaniment provide relevant information health expert clinical condition patient anytime paper model naive bayesian classifier introduced performance evaluated comparison mining classifier named decision tree study includes modeling performance evaluation comparison model pregnancy complication evaluation analysis result performed confusion matrix indicator founded result decision tree classifier performs better indicator confirming promising accuracy identifying hypertensive disorder pregnancy</t>
+          <t>seek automate design molecule based specific chemical property computational term task involves continuous embedding generation molecular graph primary contribution direct realization molecular graph task previously approached generating linear smile string instead graph junction tree variational autoencoder generates molecular graph phase generating tree structured scaffold chemical substructure combining molecule graph message passing network approach allows incrementally expand molecule maintaining chemical validity step evaluate model multiple task ranging molecular generation optimization task model outperforms previous state baseline significant margin</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2049,29 +2049,29 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.068|x3: 0.159|x4: 0.078|x5: 0.000|x6: 0.000|x7: 0.077|x8: 0.000|x9: 0.061|x10: 0.000|x11: 0.226|x12: 0.135|x13: 0.128|x14: 0.164|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.126|x2: 0.177|x3: 0.000|x4: 0.203|x5: 0.382|x6: 0.341|x7: 0.444|x8: 0.173|x9: 0.248|x10: 0.163|x11: 0.148|x12: 0.239|x13: 0.189|x14: 0.152|x15: 0.069|x16: 0.246|x17: 0.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.19, 0.44]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[11, 14, 3, 12, 13]</t>
+          <t>[7, 5, 6, 9, 16, 12, 4, 13, 2, 8, 10, 14, 11, 1]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.22637488475235157, 0.16403510595113507, 0.15852711778153752, 0.13499347222417923, 0.12829732823620515]</t>
+          <t>[0.44384544546915505, 0.38178149105253134, 0.3411297799442315, 0.24765146062635035, 0.2461566330460521, 0.23934916134259518, 0.2034590155809699, 0.18927717009037556, 0.17679839636578018, 0.17318757340980528, 0.16252547605981585, 0.15232689428211002, 0.14752974214219122, 0.1255867315936349]</t>
         </is>
       </c>
       <c r="H40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>dysplasia necrotizing enterocolitis retinopathy prematurity severe complication affecting weight vlbw infant finding gathered intensive care unit hour care predict vlbw infant risk developing gaussian process classification achieved classification result area receiver operator characteristic curve standard error compare favourably result achieved clinical standard snap snappe score sensitivity sensitivity close zero suggesting reliably predicted approach</t>
+          <t>cancer characterized heterogeneous disease consisting different subtypes early diag nosis prognosis cancer type necessity cancer research facilitate subsequent clinical management patient importance classifying cancer patient risk group research team biomedical bioinformatics field study application machine learning method technique utilized model progression treatment cancerous condition addition ability tool detect feature complex datasets reveals importance variety technique including artificial neural network anns bayesian network support vector machine svms decision tree widely applied cancer research development predictive model resulting effective accurate decision making evident method improve understanding cancer progression appropriate level validation needed order method considered everyday clinical prac tice work present review recent approach employed modeling cancer progression predictive model discussed based supervised technique different input feature sample given growing trend application method cancer research present recent publication employ technique model cancer risk patient outcome</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2090,22 +2090,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.161|x3: 0.167|x4: 0.000|x5: 0.087|x6: 0.148|x7: 0.000|x8: 0.080|x9: 0.148|x10: 0.267|x11: 0.000|x12: 0.110|x13: 0.000|x14: 0.165|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.166|x2: 0.244|x3: 0.275|x4: 0.147|x5: 0.310|x6: 0.160|x7: 0.302|x8: 0.228|x9: 0.195|x10: 0.145|x11: 0.054|x12: 0.000|x13: 0.000|x14: 0.225|x15: 0.080|x16: 0.190|x17: 0.000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.27]</t>
+          <t>[0.00, 0.16, 0.31]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[10, 3, 14, 2, 9, 6, 12]</t>
+          <t>[5, 7, 3, 2, 8, 14, 9, 16, 1, 6, 4, 10]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.26666987591448593, 0.16696968863804643, 0.1653681317624902, 0.16142379368515186, 0.14844721852778325, 0.14820377421516132, 0.11021436764850154]</t>
+          <t>[0.3104195835938648, 0.3022051966543963, 0.27496310816885594, 0.24409185354087, 0.2283952946213614, 0.2254333209640899, 0.19485390124279164, 0.19043042307139335, 0.16562053499641055, 0.16049611642375475, 0.1470757141485022, 0.14522817072166377]</t>
         </is>
       </c>
       <c r="H41" t="b">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>cardiac magnetic resonance imaging fully automatic segmentation heart enables precise structural functional measurement taken short axis image left ventricle work propose recurrent fully convolutional network rfcn learns image representation stack slice ability leverage inter slice spatial dependence internal memory unit rfcn combine anatomical detection segmentation single architecture trained significantly reducing computational time simplifying segmentation pipeline potentially enabling time application report investigation rfcn datasets including publicly available miccai challenge dataset comparison carried fully convolutional network deep restricted boltzmann machine including recurrent version leverage inter slice spatial correlation study suggest rfcn produce state result substantially improve delineation contour near apex heart</t>
+          <t>eclampsia multi disorder pregnancy major maternal perinatal implication emerging therapeutic strategy maximally effective commenced week month prior clinical presentation disease widespread plasma alteration precede clinical onset eclampsia single plasma constituent emerged sensitive specific predictor risk consequently currently available method identifying condition prior clinical presentation limited clinical exploited genetic programming powerful mining method identify pattern metabolite distinguish plasma patient eclampsia taken healthy matched control resolution chromatography time flight mass spectrometry performed plasma sample woman eclampsia matched control normalised peak genetic programming produce model gave output patient control model trained generated tested separate hold model generated identified metabolomic pattern produce simple rule discriminate eclampsia normal pregnant control metabolite peak variable sensitivity specificity preeclampsia diagnosed level molecule metabolism blood plasma finding justify prospective assessment metabolomic technology screening tool eclampsia identification metabolite involved lead improved understanding aetiological basis eclampsia development targeted therapy</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.125|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.285|x6: 0.116|x7: 0.293|x8: 0.171|x9: 0.198|x10: 0.078|x11: 0.352|x12: 0.000|x13: 0.102|x14: 0.211|x15: 0.123|x16: 0.072|x17: 0.000</t>
+          <t>x1: 0.105|x2: 0.220|x3: 0.184|x4: 0.270|x5: 0.161|x6: 0.090|x7: 0.308|x8: 0.145|x9: 0.000|x10: 0.131|x11: 0.079|x12: 0.168|x13: 0.137|x14: 0.081|x15: 0.000|x16: 0.197|x17: 0.000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.35]</t>
+          <t>[0.00, 0.13, 0.31]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[11, 7, 5, 14, 9, 8, 1, 15, 6, 13]</t>
+          <t>[7, 4, 2, 16, 3, 12, 5, 8, 13, 10, 1]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.3518875390723301, 0.2927144549500611, 0.2851588685829928, 0.2112277926809608, 0.1979419570075023, 0.17082701571898476, 0.12535007758153235, 0.12339087914019782, 0.1157472888692852, 0.10185154389864699]</t>
+          <t>[0.3079425212052223, 0.26994150729226285, 0.22037583236289274, 0.19680344545328113, 0.184289866400978, 0.16837060920468164, 0.16096761430055834, 0.14456960603716704, 0.13690968238665624, 0.13120062377163433, 0.10483445175957008]</t>
         </is>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -2162,39 +2162,39 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>anticipating future action human widely studied problem robotics requires spatiotemporal reasoning work propose deep learning approach anticipation sensory rich robotics application introduce sensory fusion architecture jointly learns anticipate fuse information multiple sensory stream architecture consists recurrent neural network rnns long short term memory lstm unit capture long temporal dependency train architecture sequence sequence prediction manner explicitly learns predict future given partial temporal context introduce novel loss layer anticipation prevents fitting encourages early anticipation architecture anticipate driving maneuver second happen natural driving mile context maneuver anticipation come multiple sensor installed vehicle approach significant improvement state maneuver anticipation increasing precision recall</t>
+          <t>hypertensive disorder leading cause death pregnancy risk pregnancy accompaniment essential reduce complication decision support important tool patient accompaniment provide relevant information health expert clinical condition patient anytime paper model naive bayesian classifier introduced performance evaluated comparison mining classifier named decision tree study includes modeling performance evaluation comparison model pregnancy complication evaluation analysis result performed confusion matrix indicator founded result decision tree classifier performs better indicator confirming promising accuracy identifying hypertensive disorder pregnancy</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.092|x2: 0.000|x3: 0.066|x4: 0.000|x5: 0.000|x6: 0.073|x7: 0.216|x8: 0.000|x9: 0.130|x10: 0.000|x11: 0.084|x12: 0.181|x13: 0.278|x14: 0.138|x15: 0.151|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.063|x2: 0.000|x3: 0.291|x4: 0.000|x5: 0.131|x6: 0.197|x7: 0.268|x8: 0.087|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.179|x13: 0.141|x14: 0.234|x15: 0.057|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.28]</t>
+          <t>[0.00, 0.10, 0.29]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[13, 7, 12, 15, 14, 9]</t>
+          <t>[3, 7, 14, 6, 12, 13, 5]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.27817113757553097, 0.21610368643070907, 0.18110436035929756, 0.15083468631845165, 0.1378965427049859, 0.13025673938100168]</t>
+          <t>[0.29141988854483447, 0.2684613602200848, 0.2338608980175432, 0.19656454633135692, 0.179277258319135, 0.14140085774235, 0.1306520071365431]</t>
         </is>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>criterion suggested help design clinical decision support better chance successfully deployed clinical environment criterion successfully applied designed estimate outcome neonatal intensive care unit nicu patient deployed pilot study child hospital eastern ontario cheo nicu result study showed accuracy deemed acceptable physician meet expectation ready deployment clinical environment</t>
+          <t>dysplasia necrotizing enterocolitis retinopathy prematurity severe complication affecting weight vlbw infant finding gathered intensive care unit hour care predict vlbw infant risk developing gaussian process classification achieved classification result area receiver operator characteristic curve standard error compare favourably result achieved clinical standard snap snappe score sensitivity sensitivity close zero suggesting reliably predicted approach</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2213,22 +2213,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.094|x3: 0.113|x4: 0.216|x5: 0.221|x6: 0.000|x7: 0.199|x8: 0.000|x9: 0.065|x10: 0.086|x11: 0.000|x12: 0.329|x13: 0.069|x14: 0.065|x15: 0.109|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.409|x3: 0.245|x4: 0.259|x5: 0.078|x6: 0.071|x7: 0.191|x8: 0.203|x9: 0.239|x10: 0.114|x11: 0.074|x12: 0.257|x13: 0.134|x14: 0.216|x15: 0.120|x16: 0.141|x17: 0.000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.33]</t>
+          <t>[0.00, 0.17, 0.41]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[12, 5, 4, 7, 3, 15]</t>
+          <t>[2, 4, 12, 3, 9, 14, 8, 7, 1, 16, 13, 15, 10]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.32913099601876583, 0.2209525260806199, 0.21640981598819928, 0.1990692015501113, 0.1128068597370676, 0.10949003705288457]</t>
+          <t>[0.40853194068700954, 0.2591970520970107, 0.25737410541820516, 0.2446690736034733, 0.23928293290166588, 0.2156992066663773, 0.20343110468406642, 0.19100816662253053, 0.14751778686396239, 0.14058972336779274, 0.13357717866791224, 0.12003248630627296, 0.11440674565396963]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2244,39 +2244,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>driver fatigue major cause traffic accident particularly driver large vehicle heavy truck prolonged driving period boredom working condition paper propose vision based fatigue detection driver monitoring easy flexible deployment large vehicle consists module head shoulder detection face detection detection openness estimation fusion drowsiness measure percentage eyelid closure perclos estimation fatigue level classification core innovative technique follows approach estimate continuous level openness based spectral regression fusion algorithm estimate state based adaptive integration multimodel detection robust measure perclos continuous level openness defined driver state classified experiment systematic evaluation analysis proposed algorithm comparison ground truth perclos measurement performed experimental result advantage accuracy robustness challenging situation camera oblique viewing angle driver face driving state monitoring</t>
+          <t>cardiac magnetic resonance imaging fully automatic segmentation heart enables precise structural functional measurement taken short axis image left ventricle work propose recurrent fully convolutional network rfcn learns image representation stack slice ability leverage inter slice spatial dependence internal memory unit rfcn combine anatomical detection segmentation single architecture trained significantly reducing computational time simplifying segmentation pipeline potentially enabling time application report investigation rfcn datasets including publicly available miccai challenge dataset comparison carried fully convolutional network deep restricted boltzmann machine including recurrent version leverage inter slice spatial correlation study suggest rfcn produce state result substantially improve delineation contour near apex heart</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.078|x2: 0.203|x3: 0.180|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.115|x10: 0.185|x11: 0.185|x12: 0.101|x13: 0.083|x14: 0.151|x15: 0.058|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.133|x2: 0.181|x3: 0.000|x4: 0.437|x5: 0.376|x6: 0.318|x7: 0.480|x8: 0.183|x9: 0.421|x10: 0.128|x11: 0.287|x12: 0.196|x13: 0.058|x14: 0.173|x15: 0.000|x16: 0.176|x17: 0.000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.20]</t>
+          <t>[0.00, 0.21, 0.48]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[2, 11, 10, 3, 14, 9, 12]</t>
+          <t>[7, 4, 9, 5, 6, 11, 12, 8, 2, 16, 14, 1, 10]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.20322402121267913, 0.1850454146832039, 0.18482738294285142, 0.18008719844608517, 0.1507312970432698, 0.11464546979891149, 0.10076724904891261]</t>
+          <t>[0.48030102640826977, 0.4369845583087799, 0.4212370516633006, 0.3764901721864419, 0.3176969839497171, 0.2874454775485485, 0.19615869633653382, 0.18320829671163533, 0.18085703973909067, 0.17561288281995033, 0.17321608235306046, 0.13285324536771012, 0.12826675360501688]</t>
         </is>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2285,39 +2285,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>rate depression growing alarming rate study open talking human paper motivate going phase life avoid effect depression propose chatbot enable positivity boosting conversation user chatbot personalize reply user conversation engaging emotionally supportive training motivating dialogue corpus corpus extended user historical chat social platform tensorflow framework power required server training advantage instead reaching phase requiring visit psychiatrist online free service reach mediate effect depression contribute betterment society</t>
+          <t>anticipating future action human widely studied problem robotics requires spatiotemporal reasoning work propose deep learning approach anticipation sensory rich robotics application introduce sensory fusion architecture jointly learns anticipate fuse information multiple sensory stream architecture consists recurrent neural network rnns long short term memory lstm unit capture long temporal dependency train architecture sequence sequence prediction manner explicitly learns predict future given partial temporal context introduce novel loss layer anticipation prevents fitting encourages early anticipation architecture anticipate driving maneuver second happen natural driving mile context maneuver anticipation come multiple sensor installed vehicle approach significant improvement state maneuver anticipation increasing precision recall</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.126|x3: 0.087|x4: 0.046|x5: 0.038|x6: 0.173|x7: 0.000|x8: 0.048|x9: 0.068|x10: 0.124|x11: 0.000|x12: 0.000|x13: 0.084|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.156|x2: 0.294|x3: 0.073|x4: 0.233|x5: 0.066|x6: 0.335|x7: 0.457|x8: 0.215|x9: 0.356|x10: 0.137|x11: 0.132|x12: 0.260|x13: 0.462|x14: 0.390|x15: 0.366|x16: 0.180|x17: 0.000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.17]</t>
+          <t>[0.00, 0.24, 0.46]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[6, 2, 10]</t>
+          <t>[13, 7, 14, 15, 9, 6, 2, 12, 4, 8, 16, 1, 10, 11]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.17326489452638413, 0.12588195537209962, 0.12435998110955995]</t>
+          <t>[0.46157219747855843, 0.4565883576915021, 0.3897108687053663, 0.36568869524997266, 0.3561918133061255, 0.33483235370271436, 0.2944598948325946, 0.26035320073699114, 0.2332246415223053, 0.2148933880979953, 0.17957823145061497, 0.15582964597840943, 0.1368515575400188, 0.1323898418441087]</t>
         </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -2326,32 +2326,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>paper process constructing proxy variable represent adult learner time management strategy online course based previous research value selected according result empirical validation regularity learning interval proven correlative predict learning performance indicated previous research regularity learning strong indicator explain learner consistent endeavor study demonstrates possibility learning analytics address learner specific competence basis theoretical background implication learning analytics field seeking pedagogical theory driven approach discussed</t>
+          <t>criterion suggested help design clinical decision support better chance successfully deployed clinical environment criterion successfully applied designed estimate outcome neonatal intensive care unit nicu patient deployed pilot study child hospital eastern ontario cheo nicu result study showed accuracy deemed acceptable physician meet expectation ready deployment clinical environment</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.112|x3: 0.048|x4: 0.312|x5: 0.184|x6: 0.157|x7: 0.058|x8: 0.142|x9: 0.075|x10: 0.000|x11: 0.060|x12: 0.000|x13: 0.355|x14: 0.051|x15: 0.000|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.161|x2: 0.054|x3: 0.272|x4: 0.346|x5: 0.225|x6: 0.000|x7: 0.000|x8: 0.222|x9: 0.220|x10: 0.170|x11: 0.000|x12: 0.098|x13: 0.226|x14: 0.134|x15: 0.000|x16: 0.241|x17: 0.000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.36]</t>
+          <t>[0.00, 0.14, 0.35]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[13, 4, 5, 6, 8, 16, 2]</t>
+          <t>[4, 3, 16, 13, 5, 8, 9, 10, 1, 14]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[0.3551518597369497, 0.3123464738168241, 0.1842097723085181, 0.1573451626839251, 0.1421193754024506, 0.11274050021833269, 0.11164271589745059]</t>
+          <t>[0.34638111109065167, 0.2718210692217663, 0.24102915894499102, 0.2255492903406841, 0.22517204788836961, 0.22150997038949677, 0.21957193508996473, 0.16986324256435933, 0.16062765156246914, 0.1340447310517447]</t>
         </is>
       </c>
       <c r="H47" t="b">
@@ -2367,32 +2367,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>standard behavioral intervention autism spectrum disorder effective therapy social deficit face criticism time intensive overdependent specialist earlier starting therapy strong predictor later success waitlists therapy month long address complication developed superpower glass machine learning assisted software google glass android smartphone designed social interaction pilot exploratory study examines prototype tool potential social affective learning child autism sent tool home family assessed change intake conclusion social responsiveness scale facial affect recognition task qualitative parent report repeated measure anova demonstrated decrease score point higher score indicate higher severity score correct response parent reported contact greater social acuity feasibility study support mobile technology potential therapeutic purpose</t>
+          <t>driver fatigue major cause traffic accident particularly driver large vehicle heavy truck prolonged driving period boredom working condition paper propose vision based fatigue detection driver monitoring easy flexible deployment large vehicle consists module head shoulder detection face detection detection openness estimation fusion drowsiness measure percentage eyelid closure perclos estimation fatigue level classification core innovative technique follows approach estimate continuous level openness based spectral regression fusion algorithm estimate state based adaptive integration multimodel detection robust measure perclos continuous level openness defined driver state classified experiment systematic evaluation analysis proposed algorithm comparison ground truth perclos measurement performed experimental result advantage accuracy robustness challenging situation camera oblique viewing angle driver face driving state monitoring</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3, 11]</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.192|x4: 0.197|x5: 0.141|x6: 0.217|x7: 0.000|x8: 0.266|x9: 0.106|x10: 0.000|x11: 0.000|x12: 0.188|x13: 0.000|x14: 0.068|x15: 0.000|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.055|x2: 0.274|x3: 0.302|x4: 0.125|x5: 0.131|x6: 0.073|x7: 0.000|x8: 0.076|x9: 0.117|x10: 0.144|x11: 0.113|x12: 0.000|x13: 0.000|x14: 0.201|x15: 0.182|x16: 0.249|x17: 0.000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.27]</t>
+          <t>[0.00, 0.12, 0.30]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[8, 6, 4, 3, 12, 16, 5, 9]</t>
+          <t>[3, 2, 16, 14, 15, 10, 5, 4, 9, 11]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[0.2656173523062185, 0.2166511139265447, 0.1969546635392305, 0.19241615417197797, 0.1879012473447593, 0.14732687662431812, 0.1409339278087572, 0.10620256434419618]</t>
+          <t>[0.30215898765384974, 0.2736387615379845, 0.24869663395168917, 0.200636776996345, 0.18178575584559392, 0.14382114842188243, 0.13106047572687457, 0.125295055170704, 0.1172534033580318, 0.11324822379095467]</t>
         </is>
       </c>
       <c r="H48" t="b">
@@ -2408,32 +2408,32 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>paper explores phenomenon emergence artificial intelligence teaching learning higher education investigates educational implication emerging technology student learn institution teach evolve recent technological advancement increasing speed adopting technology higher education explored order predict future nature higher education world artificial intelligence fabric university pinpoint challenge institution higher education student learning adoption technology teaching learning student support administration explore direction research</t>
+          <t>rate depression growing alarming rate study open talking human paper motivate going phase life avoid effect depression propose chatbot enable positivity boosting conversation user chatbot personalize reply user conversation engaging emotionally supportive training motivating dialogue corpus corpus extended user historical chat social platform tensorflow framework power required server training advantage instead reaching phase requiring visit psychiatrist online free service reach mediate effect depression contribute betterment society</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.488|x5: 0.000|x6: 0.000|x7: 0.149|x8: 0.000|x9: 0.264|x10: 0.039|x11: 0.000|x12: 0.251|x13: 0.040|x14: 0.147|x15: 0.000|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.000|x3: 0.123|x4: 0.198|x5: 0.220|x6: 0.304|x7: 0.184|x8: 0.106|x9: 0.000|x10: 0.052|x11: 0.000|x12: 0.137|x13: 0.070|x14: 0.000|x15: 0.213|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.49]</t>
+          <t>[0.00, 0.10, 0.30]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[4, 9, 12, 7, 14, 16]</t>
+          <t>[6, 5, 15, 4, 7, 12, 3, 8]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.4883318914638014, 0.26445411030321697, 0.2509862352783958, 0.1491497181367496, 0.14738906503128976, 0.10173154824102476]</t>
+          <t>[0.3038141682523461, 0.2203934348671067, 0.2127293413827333, 0.1982339590972179, 0.18419256966544623, 0.1373184139912278, 0.12285641514017505, 0.10558574554072146]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>social robot offer tremendous possibility autism spectrum disorder intervention date study population short isolated encounter controlled laboratory setting study focused month home based intervention increasing social communication skill child autonomous social robot child engaged triadic interaction caregiver robot complete activity emotional storytelling perspective taking sequencing robot encouraged engagement adapted difficulty activity child past performance modeled positive social skill maintained engagement month deployment child showed improvement joint attention skill adult presence robot result consistent caregiver questionnaire caregiver reported prompting time overall communication</t>
+          <t>paper process constructing proxy variable represent adult learner time management strategy online course based previous research value selected according result empirical validation regularity learning interval proven correlative predict learning performance indicated previous research regularity learning strong indicator explain learner consistent endeavor study demonstrates possibility learning analytics address learner specific competence basis theoretical background implication learning analytics field seeking pedagogical theory driven approach discussed</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2459,22 +2459,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.215|x2: 0.055|x3: 0.140|x4: 0.385|x5: 0.000|x6: 0.237|x7: 0.000|x8: 0.257|x9: 0.130|x10: 0.055|x11: 0.274|x12: 0.000|x13: 0.202|x14: 0.000|x15: 0.000|x16: 0.098|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.441|x3: 0.000|x4: 0.482|x5: 0.232|x6: 0.090|x7: 0.255|x8: 0.065|x9: 0.116|x10: 0.098|x11: 0.171|x12: 0.182|x13: 0.355|x14: 0.297|x15: 0.000|x16: 0.164|x17: 0.000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.39]</t>
+          <t>[0.00, 0.17, 0.48]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[4, 11, 8, 6, 1, 13, 3, 9]</t>
+          <t>[4, 2, 13, 14, 7, 5, 12, 11, 16, 9]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.3851050697497316, 0.2740154638949394, 0.2571165891297601, 0.23653660576625882, 0.2153783667697763, 0.20225943759118978, 0.13966535909928424, 0.1299341166261828]</t>
+          <t>[0.4817429106601455, 0.44071987295581466, 0.35489291138325885, 0.29650894277606393, 0.2552825996198788, 0.23240621040518472, 0.18230548677925423, 0.17116124866143081, 0.1636200038592534, 0.11624840506450478]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>achieved paper present artefact named ambient learning knowledge service model describing actionable knowledge extracted ambient learning support improvement consequently facilitate achievement sustainable development goal creative process adopted guide development model process involved carrying problem analysis literature review designing model combining ambient learning knowledge service concept demonstrating application developing prototype evaluation result revealed algorithm implemented waikato environment knowledge analysis weka software suitable extracting knowledge ambient learning prolog software applied create tool knowledge delivery</t>
+          <t>standard behavioral intervention autism spectrum disorder effective therapy social deficit face criticism time intensive overdependent specialist earlier starting therapy strong predictor later success waitlists therapy month long address complication developed superpower glass machine learning assisted software google glass android smartphone designed social interaction pilot exploratory study examines prototype tool potential social affective learning child autism sent tool home family assessed change intake conclusion social responsiveness scale facial affect recognition task qualitative parent report repeated measure anova demonstrated decrease score point higher score indicate higher severity score correct response parent reported contact greater social acuity feasibility study support mobile technology potential therapeutic purpose</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2500,22 +2500,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.143|x6: 0.215|x7: 0.333|x8: 0.000|x9: 0.000|x10: 0.116|x11: 0.113|x12: 0.451|x13: 0.112|x14: 0.287|x15: 0.000|x16: 0.083|x17: 0.000</t>
+          <t>x1: 0.113|x2: 0.169|x3: 0.000|x4: 0.307|x5: 0.256|x6: 0.142|x7: 0.251|x8: 0.156|x9: 0.238|x10: 0.129|x11: 0.000|x12: 0.000|x13: 0.167|x14: 0.301|x15: 0.000|x16: 0.187|x17: 0.000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.45]</t>
+          <t>[0.00, 0.14, 0.31]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[12, 7, 14, 6, 5, 4, 10, 11, 13]</t>
+          <t>[4, 14, 5, 7, 9, 16, 2, 13, 8, 6, 10, 1]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.4510855101190743, 0.3326855370202291, 0.28730763541545307, 0.21499452097019336, 0.14274910173371577, 0.12500214247095615, 0.11608401164143121, 0.11266296867630106, 0.11239166137162963]</t>
+          <t>[0.3065126850981404, 0.3007664846131149, 0.25647941492625403, 0.2512958386586317, 0.2382506639344864, 0.18742383515788774, 0.168623533790286, 0.16683721367604332, 0.1563609021274777, 0.1415921688143231, 0.12880522953812945, 0.11338489396555275]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>multiple study conducted project listen intelligent tutoring analyze educational learning analysis student interaction study defined phenomenon exploring happens question analyzing context specified phenomenon occurrence focus student decision resource suggest analysis monitoring needed best result study argue interact differently girl finding evident result bayesian knowledge tracing learning curve analysis model</t>
+          <t>paper explores phenomenon emergence artificial intelligence teaching learning higher education investigates educational implication emerging technology student learn institution teach evolve recent technological advancement increasing speed adopting technology higher education explored order predict future nature higher education world artificial intelligence fabric university pinpoint challenge institution higher education student learning adoption technology teaching learning student support administration explore direction research</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2541,22 +2541,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.159|x2: 0.000|x3: 0.000|x4: 0.330|x5: 0.000|x6: 0.224|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.221|x12: 0.113|x13: 0.224|x14: 0.077|x15: 0.000|x16: 0.086|x17: 0.000</t>
+          <t>x1: 0.116|x2: 0.000|x3: 0.066|x4: 0.634|x5: 0.267|x6: 0.000|x7: 0.327|x8: 0.160|x9: 0.081|x10: 0.086|x11: 0.000|x12: 0.186|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.104|x17: 0.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.33]</t>
+          <t>[0.00, 0.13, 0.63]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[4, 6, 13, 11, 1, 12]</t>
+          <t>[4, 7, 5, 12, 8, 13, 1, 16]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.3300696320285355, 0.22426672299649567, 0.2242070839776822, 0.22102168901448233, 0.15883051182162505, 0.11308105124260531]</t>
+          <t>[0.6336275393126214, 0.3272045872584007, 0.2671026405790192, 0.1855950184305396, 0.160348842649084, 0.12317092153090307, 0.11627674357137441, 0.1035082349707308]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>paper review contribution original work titled bsimulating instructional role pedagogical agent published international journal artificial intelligence education baylor human behavior original work operationalized instructional role simulated pedagogical agent demonstrated effectiveness agent role learning motivation publication work pedagogical agent research expanded scope provision intelligent guidance broad agent social affective support learner discus current progress pedagogical agent role capability speculate future agent role design expect optimizing role artificial including screen agent robot continue educational technology community technology continue evolve pedagogical agent experimental research virtual human interface design overview original paper motivation early empirical support presence pedagogical agent facilitated deeper learning enhanced motivation atkinson moreno</t>
+          <t>social robot offer tremendous possibility autism spectrum disorder intervention date study population short isolated encounter controlled laboratory setting study focused month home based intervention increasing social communication skill child autonomous social robot child engaged triadic interaction caregiver robot complete activity emotional storytelling perspective taking sequencing robot encouraged engagement adapted difficulty activity child past performance modeled positive social skill maintained engagement month deployment child showed improvement joint attention skill adult presence robot result consistent caregiver questionnaire caregiver reported prompting time overall communication</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2582,22 +2582,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.106|x2: 0.000|x3: 0.000|x4: 0.153|x5: 0.148|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.138|x10: 0.051|x11: 0.000|x12: 0.105|x13: 0.301|x14: 0.049|x15: 0.055|x16: 0.056|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.161|x3: 0.198|x4: 0.266|x5: 0.381|x6: 0.165|x7: 0.335|x8: 0.059|x9: 0.126|x10: 0.071|x11: 0.000|x12: 0.194|x13: 0.188|x14: 0.000|x15: 0.000|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.30]</t>
+          <t>[0.00, 0.13, 0.38]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[13, 4, 5, 9, 1, 12]</t>
+          <t>[5, 7, 4, 3, 12, 13, 6, 2, 9, 16]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.30144975243737826, 0.15316792619519887, 0.14782745689515203, 0.13757545580130945, 0.10572570231389924, 0.1050797070038125]</t>
+          <t>[0.3810958922724226, 0.335151040210281, 0.2661919599042752, 0.19833341947047423, 0.19415804031779726, 0.18758216576371797, 0.164726905871056, 0.16064006211699472, 0.12623768502841498, 0.11351786956927971]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>mixed method study examined design potential impact mixed reality integrated learning environment mile providing simulated immersive teaching practice university teaching assistant virtual reality based learning platform integrating kinect enabled sensorimotor interface developed university teaching assistant qualitative quantitative participant participation behavior engagement perception collected video screen recording interview survey teaching self efficacy sense presence tracking result indicated mile reinforced sense presence supported performance ample range virtual teaching task action avatar embodied live gesturing environmental fidelity mixed reality learning space design arrangement virtual agent avatar affordance embodied gesturing walking salient mile design feature affected participant sense presence virtual teaching performance</t>
+          <t>achieved paper present artefact named ambient learning knowledge service model describing actionable knowledge extracted ambient learning support improvement consequently facilitate achievement sustainable development goal creative process adopted guide development model process involved carrying problem analysis literature review designing model combining ambient learning knowledge service concept demonstrating application developing prototype evaluation result revealed algorithm implemented waikato environment knowledge analysis weka software suitable extracting knowledge ambient learning prolog software applied create tool knowledge delivery</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2623,22 +2623,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.051|x3: 0.000|x4: 0.159|x5: 0.114|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.165|x10: 0.099|x11: 0.268|x12: 0.114|x13: 0.105|x14: 0.176|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.086|x2: 0.201|x3: 0.177|x4: 0.345|x5: 0.144|x6: 0.000|x7: 0.269|x8: 0.118|x9: 0.110|x10: 0.122|x11: 0.000|x12: 0.266|x13: 0.178|x14: 0.071|x15: 0.000|x16: 0.190|x17: 0.000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.27]</t>
+          <t>[0.00, 0.13, 0.34]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[11, 14, 9, 4, 12, 5, 13]</t>
+          <t>[4, 7, 12, 2, 16, 13, 3, 5, 10, 8, 9]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.26769434161812833, 0.1762060075553132, 0.16538974210870133, 0.1589276098056032, 0.11381536053630852, 0.11362068419168887, 0.10454935639117793]</t>
+          <t>[0.3448611686812703, 0.2688466123182098, 0.26577227086640115, 0.2008916145055883, 0.1902420225144264, 0.17808833936873866, 0.17688559511022112, 0.1443933285661272, 0.12236332263333385, 0.11813602968245032, 0.11001781855609577]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2654,39 +2654,39 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>help investigator efficiently connect uncover network individual involved criminal activity based evidence connection visiting address transacting bank account formulate problem active search connection target entity evidence different type given lead relevance queried interactively investigator present redthread efficient solution inferring related relevant node incorporating user feedback guide inference experiment focus building combating human trafficking investigator follows lead expose organized activity different escort advertisement connected possibly orchestrated redthread local algorithm enables online building mining posted largest classified advertising website result redthread interpretable explain result connected initial lead experimentally redthread learns importance different type different piece evidence transferred</t>
+          <t>multiple study conducted project listen intelligent tutoring analyze educational learning analysis student interaction study defined phenomenon exploring happens question analyzing context specified phenomenon occurrence focus student decision resource suggest analysis monitoring needed best result study argue interact differently girl finding evident result bayesian knowledge tracing learning curve analysis model</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.223|x3: 0.000|x4: 0.142|x5: 0.000|x6: 0.120|x7: 0.000|x8: 0.167|x9: 0.160|x10: 0.000|x11: 0.090|x12: 0.232|x13: 0.227|x14: 0.000|x15: 0.110|x16: 0.148|x17: 0.000</t>
+          <t>x1: 0.123|x2: 0.116|x3: 0.000|x4: 0.456|x5: 0.364|x6: 0.200|x7: 0.368|x8: 0.170|x9: 0.000|x10: 0.090|x11: 0.000|x12: 0.000|x13: 0.295|x14: 0.245|x15: 0.000|x16: 0.106|x17: 0.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.23]</t>
+          <t>[0.00, 0.15, 0.46]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[12, 13, 2, 8, 9, 16, 4, 6, 15]</t>
+          <t>[4, 7, 5, 13, 14, 6, 8, 1, 2, 16]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.2316846401254312, 0.22657652377194504, 0.2231361622721109, 0.16672366596935545, 0.16007479595006904, 0.14760825260646782, 0.14167922580512546, 0.11971054334851867, 0.10968300505207376]</t>
+          <t>[0.4556408607117165, 0.36839718483082334, 0.3643052934987746, 0.29472477761177923, 0.24479165987880985, 0.20000491745915389, 0.16965061482799154, 0.12302191092361506, 0.11578618033143985, 0.10586652638520222]</t>
         </is>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2695,39 +2695,39 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>increasingly decision significant impact life prediction affect different population subgroup result issue fairness received recent number fairness enhanced classifier appeared literature paper seek study following question different technique fundamentally compare account difference specifically seek bring attention appreciated aspect fairness enhancing intervention require investigation algorithm receive broad adoption present result open benchmark developed compare number different algorithm variety fairness measure existing datasets different algorithm tend prefer specific formulation fairness preservation measure strongly correlate addition fairness preserving algorithm tend sensitive fluctuation dataset composition simulated benchmark varying training test split different preprocessing indicating fairness intervention brittle previously thought computing methodology machine learning software engineering software library repository</t>
+          <t>paper review contribution original work titled bsimulating instructional role pedagogical agent published international journal artificial intelligence education baylor human behavior original work operationalized instructional role simulated pedagogical agent demonstrated effectiveness agent role learning motivation publication work pedagogical agent research expanded scope provision intelligent guidance broad agent social affective support learner discus current progress pedagogical agent role capability speculate future agent role design expect optimizing role artificial including screen agent robot continue educational technology community technology continue evolve pedagogical agent experimental research virtual human interface design overview original paper motivation early empirical support presence pedagogical agent facilitated deeper learning enhanced motivation atkinson moreno</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.000|x3: 0.100|x4: 0.138|x5: 0.000|x6: 0.145|x7: 0.122|x8: 0.051|x9: 0.189|x10: 0.000|x11: 0.209|x12: 0.000|x13: 0.236|x14: 0.174|x15: 0.082|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.062|x3: 0.076|x4: 0.482|x5: 0.417|x6: 0.110|x7: 0.445|x8: 0.111|x9: 0.160|x10: 0.082|x11: 0.000|x12: 0.246|x13: 0.389|x14: 0.099|x15: 0.000|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.24]</t>
+          <t>[0.00, 0.17, 0.48]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[13, 11, 9, 14, 6, 4, 7, 1]</t>
+          <t>[4, 7, 5, 13, 12, 9, 16, 8, 6]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.23628432827371165, 0.20854643249271249, 0.18866125827879612, 0.17360523275270137, 0.14541201119131747, 0.13781372422043303, 0.12191435954657966, 0.11544438868847585]</t>
+          <t>[0.4818260120213931, 0.4452188883492362, 0.4174970009337431, 0.38872976967689327, 0.24647925382498492, 0.16023702001735785, 0.11383837484876372, 0.11094901398133472, 0.11008318331925063]</t>
         </is>
       </c>
       <c r="H56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
@@ -2736,32 +2736,32 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>human trafficking challenging enforcement problem demand persistent fight globe study leverage readily available website backpage classified advertisement discern potential pattern human trafficking activity manifest online identify trafficking related advertisement lack ground truth rely human analyst human trafficking victim survivor enforcement hand labeling portion crawled present semisupervised learning approach trained available labeled unlabeled evaluated unseen verification expert</t>
+          <t>domain objective reached order opportunity equality defined digital equity different international organization working reach goal analysis point reaching objective international organization international union united international federation information processing working goal presented paper</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.280|x3: 0.000|x4: 0.331|x5: 0.118|x6: 0.105|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.104|x12: 0.000|x13: 0.193|x14: 0.268|x15: 0.257|x16: 0.340|x17: 0.000</t>
+          <t>x1: 0.123|x2: 0.151|x3: 0.079|x4: 0.373|x5: 0.180|x6: 0.000|x7: 0.000|x8: 0.169|x9: 0.050|x10: 0.114|x11: 0.068|x12: 0.098|x13: 0.297|x14: 0.097|x15: 0.000|x16: 0.153|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.34]</t>
+          <t>[0.00, 0.11, 0.37]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[16, 4, 2, 14, 15, 13, 5, 6, 11]</t>
+          <t>[4, 13, 5, 8, 16, 2, 1, 10]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.34026241441382443, 0.3309022967673713, 0.28031772404488864, 0.2677622245015418, 0.2569310845792428, 0.19337401284535582, 0.11800336845494407, 0.10479088411915995, 0.10372866610004201]</t>
+          <t>[0.37277690176579714, 0.2969599288479569, 0.17965423883454906, 0.1692073448521954, 0.1532396256138967, 0.15128482651803835, 0.12270047430793996, 0.11385408401488836]</t>
         </is>
       </c>
       <c r="H57" t="b">
@@ -2777,39 +2777,39 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>work investigate gender based inequality context resume search engine tool allow recruiter proactively search candidate based keywords filter ranking algorithm demographic feature account directly indirectly produce ranking disadvantage candidate collect search result monster careerbuilder based title city resulting candidate statistical test examine search engine produce ranking exhibit type indirect discrimination individual group unfairness furthermore controlled experiment website inferred gender candidate explicit feature ranking algorithm</t>
+          <t>mixed method study examined design potential impact mixed reality integrated learning environment mile providing simulated immersive teaching practice university teaching assistant virtual reality based learning platform integrating kinect enabled sensorimotor interface developed university teaching assistant qualitative quantitative participant participation behavior engagement perception collected video screen recording interview survey teaching self efficacy sense presence tracking result indicated mile reinforced sense presence supported performance ample range virtual teaching task action avatar embodied live gesturing environmental fidelity mixed reality learning space design arrangement virtual agent avatar affordance embodied gesturing walking salient mile design feature affected participant sense presence virtual teaching performance</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.071|x5: 0.058|x6: 0.000|x7: 0.209|x8: 0.213|x9: 0.234|x10: 0.153|x11: 0.231|x12: 0.182|x13: 0.000|x14: 0.239|x15: 0.132|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.084|x2: 0.141|x3: 0.000|x4: 0.252|x5: 0.342|x6: 0.188|x7: 0.192|x8: 0.116|x9: 0.000|x10: 0.076|x11: 0.133|x12: 0.226|x13: 0.213|x14: 0.140|x15: 0.000|x16: 0.101|x17: 0.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.24]</t>
+          <t>[0.00, 0.13, 0.34]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[14, 9, 11, 8, 7, 12, 10, 15]</t>
+          <t>[5, 4, 12, 13, 7, 6, 2, 14, 11, 8, 16]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.23948652630714798, 0.23438230803832288, 0.23100387025690577, 0.21317804441650287, 0.2085458607354656, 0.1822240460492241, 0.15264114411977192, 0.1320409877602171]</t>
+          <t>[0.34158205398622105, 0.252057326783474, 0.2259250592234877, 0.2134305558590514, 0.19234406121961597, 0.18763386242184674, 0.14091288840811714, 0.1402225133177967, 0.13335633039541972, 0.11634754820573373, 0.10100165257505013]</t>
         </is>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>blind application machine learning risk amplifying bias present danger facing word embedding popular framework represent text vector machine learning natural language processing task word embeddings trained google news article exhibit female male gender stereotype disturbing extent raise concern widespread tends amplify bias geometrically gender bias shown captured direction word embedding second gender neutral word shown linearly separable gender definition word word embedding property provide methodology modifying embedding remove gender stereotype association word receptionist female maintaining desired association word queen female crowd worker evaluation standard benchmark empirically demonstrate algorithm significantly reduce gender bias embeddings preserving useful property ability cluster related concept solve analogy task resulting embeddings application amplifying gender bias</t>
+          <t>help investigator efficiently connect uncover network individual involved criminal activity based evidence connection visiting address transacting bank account formulate problem active search connection target entity evidence different type given lead relevance queried interactively investigator present redthread efficient solution inferring related relevant node incorporating user feedback guide inference experiment focus building combating human trafficking investigator follows lead expose organized activity different escort advertisement connected possibly orchestrated redthread local algorithm enables online building mining posted largest classified advertising website result redthread interpretable explain result connected initial lead experimentally redthread learns importance different type different piece evidence transferred</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2828,22 +2828,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.307|x2: 0.070|x3: 0.063|x4: 0.263|x5: 0.168|x6: 0.150|x7: 0.142|x8: 0.134|x9: 0.084|x10: 0.000|x11: 0.048|x12: 0.212|x13: 0.220|x14: 0.122|x15: 0.090|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.217|x3: 0.053|x4: 0.185|x5: 0.306|x6: 0.150|x7: 0.135|x8: 0.057|x9: 0.289|x10: 0.082|x11: 0.209|x12: 0.422|x13: 0.298|x14: 0.220|x15: 0.184|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.31]</t>
+          <t>[0.00, 0.17, 0.42]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[1, 4, 13, 12, 5, 6, 7, 8, 14]</t>
+          <t>[12, 5, 13, 9, 14, 2, 11, 4, 15, 6, 16, 7]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.3066991049777092, 0.2634358176344564, 0.220383724614771, 0.21231100489578933, 0.1675886544732984, 0.15048125749131058, 0.14223563928703367, 0.1343987846748655, 0.12238869870390032]</t>
+          <t>[0.4218632253298178, 0.30609292904087465, 0.29766231694558526, 0.28863878382171243, 0.22018743951390624, 0.21653248449670354, 0.20894536182207404, 0.1852955422087766, 0.18412434151199603, 0.15041919459067465, 0.13671336137082102, 0.13518291269449081]</t>
         </is>
       </c>
       <c r="H59" t="b">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>technology facilitated sexual violence tfsv refers range behavior digital technology facilitate virtual face face sexually based harm behavior include online sexual harassment gender sexuality based harassment cyberstalking image based sexual exploitation carriage service coerce victim unwanted sexual article review current state knowledge different dimension drawing existing empirical study growing body research technology facilitated harm perpetrated child adolescent dearth qualitative quantitative research tfsv adult existing study provide reliable nature scope impact tfsv preliminary study indicate harm like sexual violence broadly predominantly gender sexuality based young woman overrepresented victim category review collect empirical evidence date prevalence gender based nature tfsv adult discus implication policy program suggestion future research</t>
+          <t>increasingly decision significant impact life prediction affect different population subgroup result issue fairness received recent number fairness enhanced classifier appeared literature paper seek study following question different technique fundamentally compare account difference specifically seek bring attention appreciated aspect fairness enhancing intervention require investigation algorithm receive broad adoption present result open benchmark developed compare number different algorithm variety fairness measure existing datasets different algorithm tend prefer specific formulation fairness preservation measure strongly correlate addition fairness preserving algorithm tend sensitive fluctuation dataset composition simulated benchmark varying training test split different preprocessing indicating fairness intervention brittle previously thought computing methodology machine learning software engineering software library repository</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2869,22 +2869,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.099|x5: 0.313|x6: 0.121|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.089|x12: 0.194|x13: 0.099|x14: 0.138|x15: 0.158|x16: 0.194|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.096|x3: 0.126|x4: 0.134|x5: 0.120|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.078|x10: 0.051|x11: 0.000|x12: 0.240|x13: 0.299|x14: 0.293|x15: 0.301|x16: 0.058|x17: 0.000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.31]</t>
+          <t>[0.00, 0.12, 0.30]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[5, 16, 12, 15, 14, 6]</t>
+          <t>[15, 13, 14, 12, 4, 3, 5, 8]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.312729535001239, 0.1944192047195631, 0.19350887532608374, 0.15836720865867707, 0.13750808096077993, 0.12089949716182478]</t>
+          <t>[0.30108226584200815, 0.2986021191789287, 0.29334127716489883, 0.2402805783684537, 0.1344149177985571, 0.12592256818417313, 0.11993260932926954, 0.1032521439393677]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2900,36 +2900,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>improved understanding geographical variation inequity health status wealth access resource country increasingly recognized central meeting development goal development health indicator assessed national subnational scale conceal important inequity rural poor represented ability target limited resource fundamental especially international context funding health development come pressure recently prompted exploration potential spatial interpolation method based geolocated cluster national household survey resolution mapping feature population structure vaccination coverage access sanitation remains unclear predictable different factor different setting variable demographic group test accuracy spatial interpolation method producing gender disaggregated resolution rate literacy stunting modern contraceptive method combination geolocated demographic health survey cluster geospatial covariates bayesian geostatistical machine learning modelling method tested income country varying gridded environmental socio economic covariate datasets build spatial resolution uncertainty estimate result potential approach producing resolution gender disaggregated socio economic indicator explained variance cross validation female literacy nigeria kenya range variable substantial variation country variable seen variable showing poor mapping accuracy range explained variance geostatistical machine learning approach analysis offer robust basis construction timely level support geographically stratified decision making monitoring progress development goal great variability result country variable highlight challenge applying interpolation method universally multiple country importance validation quantifying uncertainty undertaken</t>
+          <t>human trafficking challenging enforcement problem demand persistent fight globe study leverage readily available website backpage classified advertisement discern potential pattern human trafficking activity manifest online identify trafficking related advertisement lack ground truth rely human analyst human trafficking victim survivor enforcement hand labeling portion crawled present semisupervised learning approach trained available labeled unlabeled evaluated unseen verification expert</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[1, 3, 6, 16]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.156|x2: 0.087|x3: 0.052|x4: 0.271|x5: 0.155|x6: 0.000|x7: 0.199|x8: 0.195|x9: 0.155|x10: 0.000|x11: 0.055|x12: 0.058|x13: 0.184|x14: 0.103|x15: 0.000|x16: 0.179|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.256|x3: 0.073|x4: 0.279|x5: 0.507|x6: 0.431|x7: 0.070|x8: 0.000|x9: 0.000|x10: 0.138|x11: 0.212|x12: 0.113|x13: 0.000|x14: 0.382|x15: 0.108|x16: 0.255|x17: 0.000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.27]</t>
+          <t>[0.00, 0.17, 0.51]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[4, 7, 8, 13, 16, 1, 9, 5, 14]</t>
+          <t>[5, 6, 14, 4, 2, 16, 11, 10, 12, 15]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.27134389780059603, 0.19893211902771768, 0.1953058667263321, 0.1842976577060851, 0.17911626647791906, 0.15635629529533634, 0.15479538657930722, 0.15474954955288606, 0.10272194757080269]</t>
+          <t>[0.507186288751642, 0.43066414475270215, 0.3816748988628043, 0.27858681865641877, 0.25622461300958627, 0.25497653571635925, 0.21178486325556956, 0.1382835552768081, 0.1126313068073066, 0.107737191059661]</t>
         </is>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I61" t="b">
         <v>1</v>
@@ -2941,36 +2941,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>compactness landscape connectivity essential property effective functioning conservation reserve article introduce linear integer programming model determine optimal configuration conservation reserve property connectivity defined structural physical connectivity functional connectivity model developed address property apply model identify optimal conservation management area protection gopher tortoise military installation benning georgia serf safe refuge risk specie recent expansion military mission installation increase pressure scarce habitat area requires moving existent population area suitably chosen conservation management area boundary installation model suitable spatially coherent management area outside heavily training area</t>
+          <t>appreciate help michael gallagher retired police officer currently work domestic violence agency jurisdiction studied provided important information meaning variable related enforcement procedure received important assistance prosecutorial context domestic violence marian braccia deputy district attorney district attorney office jurisdiction thanks anonymous reviewer article</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[6, 15]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.058|x2: 0.113|x3: 0.093|x4: 0.089|x5: 0.099|x6: 0.074|x7: 0.174|x8: 0.072|x9: 0.206|x10: 0.000|x11: 0.157|x12: 0.213|x13: 0.047|x14: 0.144|x15: 0.259|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.093|x3: 0.000|x4: 0.000|x5: 0.181|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.074|x11: 0.000|x12: 0.080|x13: 0.000|x14: 0.190|x15: 0.150|x16: 0.134|x17: 0.000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.26]</t>
+          <t>[0.00, 0.05, 0.19]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[15, 12, 9, 7, 11, 14, 2]</t>
+          <t>[14, 5, 15, 16]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.25919376889089857, 0.21255583741493717, 0.20583556317657942, 0.1735067547913011, 0.15714783900795, 0.1440073848610828, 0.11286797050602076]</t>
+          <t>[0.19037633101350265, 0.1806197021056856, 0.14971936251033008, 0.1340658869685934]</t>
         </is>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I62" t="b">
         <v>1</v>
@@ -2982,39 +2982,39 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>negotiation active involvement participation water manager expert stakeholder representative general public requires decision support tool environmental decision support build transparency flexibility order reach sound action plan management instrument possible active involvement stakeholder application bayesian network paper example study danish farmer hydrologist disputed degree pesticide application affected quality deep groundwater instead selecting opinion decision include adopting approach possible view result point view accepting reality situation mired insoluble conflict laying foundation future compromise paper explores tool acting dealing management groundwater protection allow stakeholder divergent value belief surfaced negotiated participatory process area conventional physically based groundwater model insufficient lack physical understanding flexibility lack integration capability agency able address institutional arrangement influencing groundwater protection complexity</t>
+          <t>work investigate gender based inequality context resume search engine tool allow recruiter proactively search candidate based keywords filter ranking algorithm demographic feature account directly indirectly produce ranking disadvantage candidate collect search result monster careerbuilder based title city resulting candidate statistical test examine search engine produce ranking exhibit type indirect discrimination individual group unfairness furthermore controlled experiment website inferred gender candidate explicit feature ranking algorithm</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.041|x4: 0.000|x5: 0.156|x6: 0.095|x7: 0.118|x8: 0.000|x9: 0.000|x10: 0.099|x11: 0.100|x12: 0.216|x13: 0.245|x14: 0.297|x15: 0.094|x16: 0.170|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.113|x5: 0.280|x6: 0.243|x7: 0.191|x8: 0.066|x9: 0.273|x10: 0.000|x11: 0.449|x12: 0.196|x13: 0.314|x14: 0.100|x15: 0.145|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.30]</t>
+          <t>[0.00, 0.14, 0.45]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[14, 13, 12, 16, 5, 7, 11]</t>
+          <t>[11, 13, 5, 9, 6, 12, 7, 15, 4]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.2973594951570079, 0.24458548192739152, 0.21608919192451712, 0.1700514942036368, 0.15624162310958423, 0.11768607939249907, 0.10020906922561681]</t>
+          <t>[0.4491521365552992, 0.31419432125431745, 0.2795369171846933, 0.27348378185664446, 0.24258014817285053, 0.1957536599331477, 0.19119735727868742, 0.14513182262223698, 0.1131859428204431]</t>
         </is>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -3023,32 +3023,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>produced artificial intelligence ecosystem service aries platform supply defined carbon storage flood regulation demand specified recreation water joint spatial prioritisation biodiversity employing marxan zone laying spatial representation multiple management zone given transboundary setting danube river comparative analysis including country level purchasing power parity adjusted gross domestic product country percent cover area potential cost factor illustrating scheme balancing establishing specific zone country demonstrate emphasizing biodiversity target model coupling framework cost effectively test spatially explicit management option multi national study discus possible limitation future development requirement effectively managing balance biodiversity supply demand freshwater ecosystem</t>
+          <t>blind application machine learning risk amplifying bias present danger facing word embedding popular framework represent text vector machine learning natural language processing task word embeddings trained google news article exhibit female male gender stereotype disturbing extent raise concern widespread tends amplify bias geometrically gender bias shown captured direction word embedding second gender neutral word shown linearly separable gender definition word word embedding property provide methodology modifying embedding remove gender stereotype association word receptionist female maintaining desired association word queen female crowd worker evaluation standard benchmark empirically demonstrate algorithm significantly reduce gender bias embeddings preserving useful property ability cluster related concept solve analogy task resulting embeddings application amplifying gender bias</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[6, 15]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.168|x5: 0.193|x6: 0.241|x7: 0.096|x8: 0.000|x9: 0.068|x10: 0.000|x11: 0.069|x12: 0.175|x13: 0.127|x14: 0.181|x15: 0.160|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.088|x2: 0.000|x3: 0.171|x4: 0.330|x5: 0.275|x6: 0.000|x7: 0.234|x8: 0.121|x9: 0.080|x10: 0.058|x11: 0.000|x12: 0.113|x13: 0.167|x14: 0.075|x15: 0.162|x16: 0.064|x17: 0.000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.24]</t>
+          <t>[0.00, 0.11, 0.33]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[6, 5, 14, 12, 4, 15, 13]</t>
+          <t>[4, 5, 7, 3, 13, 15, 8, 12]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[0.24144695255940674, 0.1932360123464854, 0.18118572124363075, 0.17473798059731302, 0.167505879228776, 0.1599276413209672, 0.12674551227264858]</t>
+          <t>[0.3296594295705046, 0.2749893718988993, 0.23370879906505657, 0.17092042756115586, 0.16691716059678877, 0.16176053095359094, 0.12136798550042033, 0.11319015093633795]</t>
         </is>
       </c>
       <c r="H64" t="b">
@@ -3064,32 +3064,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>deciding implement conservation action order meet conservation target efficiently important component systematic conservation planning mathematical optimisation quantitative transparent framework solving problem despite advantage exact method integer linear programming conservation planning problem date solved heuristic approach simulated annealing explain implement common conservation planning problem marxan marxan zone framework formulation extended account spatial dependency planning unit arising environmental flow river simulated datasets demonstrate outperforms respect solution quality close optimality processing time range problem size modestly sized quadratic problem spatial unit specie example processing time approximately required achieve solution optimality achieved solution optimality largest quadratic problem evaluated processing time exceeding required achieve solution optimality achieved solution optimality approximately hour heuristic conceptually simple applied large linear objective function unlike produce solution unknown quality discus approach facilitate quantification trade curve sensitivity analysis solving linear quadratic conservation planning problem recommend heuristic approach possible</t>
+          <t>technology facilitated sexual violence tfsv refers range behavior digital technology facilitate virtual face face sexually based harm behavior include online sexual harassment gender sexuality based harassment cyberstalking image based sexual exploitation carriage service coerce victim unwanted sexual article review current state knowledge different dimension drawing existing empirical study growing body research technology facilitated harm perpetrated child adolescent dearth qualitative quantitative research tfsv adult existing study provide reliable nature scope impact tfsv preliminary study indicate harm like sexual violence broadly predominantly gender sexuality based young woman overrepresented victim category review collect empirical evidence date prevalence gender based nature tfsv adult discus implication policy program suggestion future research</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[6, 14]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.075|x3: 0.052|x4: 0.057|x5: 0.156|x6: 0.106|x7: 0.287|x8: 0.060|x9: 0.159|x10: 0.099|x11: 0.000|x12: 0.237|x13: 0.194|x14: 0.170|x15: 0.124|x16: 0.052|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.000|x3: 0.000|x4: 0.084|x5: 0.380|x6: 0.200|x7: 0.078|x8: 0.106|x9: 0.000|x10: 0.089|x11: 0.071|x12: 0.140|x13: 0.072|x14: 0.149|x15: 0.071|x16: 0.131|x17: 0.000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.29]</t>
+          <t>[0.00, 0.10, 0.38]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[7, 12, 13, 14, 9, 5, 15, 6]</t>
+          <t>[5, 6, 14, 12, 16, 8]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.2868229348207056, 0.23704002380755534, 0.19376898915870516, 0.17036084145501248, 0.15929888628670652, 0.1555332732132881, 0.12400112722031562, 0.10617232441430818]</t>
+          <t>[0.38011143501827166, 0.2002323474074612, 0.1490686234303923, 0.14036382459302876, 0.13072857937002608, 0.10593843493885056]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3105,39 +3105,39 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>emerged metaheuristic optimization technique colony optimization received considerable attention water resource environmental planning management decade different version proved flexible powerful solving number spatially temporally complex water resource problem discrete continuous domain single multiple objective reviewing large number peer reviewed journal paper valuable conference paper intend touch characteristic algorithm critically review state application water resource environmental management problem discrete continuous domain paper seek promote opportunity advantage disadvantage algorithm applied different area water resource problem research practice intends identify present major seminal contribution algorithm finding organized area reservoir operation surface water management water distribution urban drainage sewer groundwater management environmental watershed management current trend challenge algorithm discussed called attempt carry convergence analysis active area</t>
+          <t>study analyzes digital game development africa examining individual text operate broader international development discourse political economic product implication international development gaming industry conceptual framework proposed process looking individual game alongside organization funding structure argue digital game technological platform present revolutionary approach development africa reinforce subvert dominant approach play</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.070|x3: 0.000|x4: 0.105|x5: 0.073|x6: 0.072|x7: 0.201|x8: 0.000|x9: 0.088|x10: 0.205|x11: 0.000|x12: 0.000|x13: 0.306|x14: 0.355|x15: 0.116|x16: 0.201|x17: 0.000</t>
+          <t>x1: 0.086|x2: 0.107|x3: 0.244|x4: 0.341|x5: 0.127|x6: 0.150|x7: 0.285|x8: 0.118|x9: 0.475|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.103|x14: 0.175|x15: 0.130|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.35]</t>
+          <t>[0.00, 0.14, 0.48]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[14, 13, 10, 7, 16, 15, 4]</t>
+          <t>[9, 4, 7, 3, 14, 6, 15, 5, 8, 2, 13]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.3548863965627041, 0.3056304918810367, 0.20487351124448033, 0.20146599921875383, 0.20124052902761, 0.11631784338317226, 0.10523503483696511]</t>
+          <t>[0.47502122070133024, 0.3409125593699958, 0.2847190763585319, 0.24394954655976953, 0.17502775823183303, 0.1497597237393095, 0.13031513508843856, 0.1267670542362049, 0.11843827831854904, 0.10690541720502596, 0.10277901599557959]</t>
         </is>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -3146,39 +3146,39 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>live paradox artificial intelligence match surpass human level performance domain leveraging rapid advance technology driving soaring stock price measured productivity growth declined past decade income stagnated late majority american potential explanation clash expectation statistic false hope mismeasurement redistribution implementation argue biggest contributor paradox impressive capability particularly based machine learning diffused widely importantly like general purpose technology effect realized wave complementary innovation developed implemented required adjustment cost organizational change skill modeled kind intangible capital portion value intangible capital reflected market value firm going forward national statistic fail measure benefit technology wrong sign</t>
+          <t>improved understanding geographical variation inequity health status wealth access resource country increasingly recognized central meeting development goal development health indicator assessed national subnational scale conceal important inequity rural poor represented ability target limited resource fundamental especially international context funding health development come pressure recently prompted exploration potential spatial interpolation method based geolocated cluster national household survey resolution mapping feature population structure vaccination coverage access sanitation remains unclear predictable different factor different setting variable demographic group test accuracy spatial interpolation method producing gender disaggregated resolution rate literacy stunting modern contraceptive method combination geolocated demographic health survey cluster geospatial covariates bayesian geostatistical machine learning modelling method tested income country varying gridded environmental socio economic covariate datasets build spatial resolution uncertainty estimate result potential approach producing resolution gender disaggregated socio economic indicator explained variance cross validation female literacy nigeria kenya range variable substantial variation country variable seen variable showing poor mapping accuracy range explained variance geostatistical machine learning approach analysis offer robust basis construction timely level support geographically stratified decision making monitoring progress development goal great variability result country variable highlight challenge applying interpolation method universally multiple country importance validation quantifying uncertainty undertaken</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.179|x3: 0.000|x4: 0.199|x5: 0.042|x6: 0.000|x7: 0.064|x8: 0.059|x9: 0.174|x10: 0.153|x11: 0.000|x12: 0.000|x13: 0.184|x14: 0.118|x15: 0.000|x16: 0.045|x17: 0.000</t>
+          <t>x1: 0.087|x2: 0.247|x3: 0.137|x4: 0.204|x5: 0.088|x6: 0.088|x7: 0.098|x8: 0.120|x9: 0.180|x10: 0.134|x11: 0.084|x12: 0.105|x13: 0.131|x14: 0.148|x15: 0.000|x16: 0.211|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.20]</t>
+          <t>[0.00, 0.12, 0.25]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[4, 13, 2, 9, 10, 14]</t>
+          <t>[2, 16, 4, 9, 14, 3, 10, 13, 8, 12]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.19856469332172388, 0.1836515848103525, 0.17854117765729757, 0.17425675471729332, 0.15269790607193126, 0.11849671595148009]</t>
+          <t>[0.24728886910678155, 0.21119292619950583, 0.20432220191415906, 0.17961177752210164, 0.147533324450637, 0.13737035249427695, 0.13360352355199884, 0.13095667121454338, 0.12032063767204088, 0.10469569590151404]</t>
         </is>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
       <c r="I67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -3187,32 +3187,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>summarize framework study implication automation demand labor wage employment task based framework emphasizes displacement effect automation creates machine replace labor task perform displacement effect tends reduce demand labor wage counteracted productivity effect resulting cost saving generated automation increase demand labor automated task productivity effect complemented additional capital accumulation deepening automation improvement existing machinery increase demand labor countervailing effect incomplete strong automation crease output worker wage reduce labor national income powerful countervailing force automation creation labor intensive task reinstates labor activity tends increase labor counterbalance impact automation framework highlight constraint imperfection slow adjustment economy labor market automation weaken resulting productivity gain transformation mismatch skill requirement technology possibility automation introduced excessive rate possibly expense productivity enhancing technology</t>
+          <t>compactness landscape connectivity essential property effective functioning conservation reserve article introduce linear integer programming model determine optimal configuration conservation reserve property connectivity defined structural physical connectivity functional connectivity model developed address property apply model identify optimal conservation management area protection gopher tortoise military installation benning georgia serf safe refuge risk specie recent expansion military mission installation increase pressure scarce habitat area requires moving existent population area suitably chosen conservation management area boundary installation model suitable spatially coherent management area outside heavily training area</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.183|x3: 0.000|x4: 0.073|x5: 0.215|x6: 0.094|x7: 0.263|x8: 0.334|x9: 0.141|x10: 0.166|x11: 0.142|x12: 0.122|x13: 0.085|x14: 0.076|x15: 0.104|x16: 0.125|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.111|x3: 0.000|x4: 0.095|x5: 0.000|x6: 0.216|x7: 0.263|x8: 0.000|x9: 0.183|x10: 0.000|x11: 0.133|x12: 0.099|x13: 0.095|x14: 0.185|x15: 0.250|x16: 0.074|x17: 0.000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.33]</t>
+          <t>[0.00, 0.10, 0.26]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[8, 7, 5, 2, 10, 11, 9, 16, 12, 15]</t>
+          <t>[7, 15, 6, 14, 9, 11, 2]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.33388477988205784, 0.26347063572874135, 0.21471425869567712, 0.18344098713030352, 0.16603674956736286, 0.14221437249351257, 0.14097075695798977, 0.12495194572877283, 0.12224582332938821, 0.1039595598386088]</t>
+          <t>[0.2630544701508909, 0.24978323497295385, 0.21648556103607652, 0.18532885665745283, 0.18323262040791172, 0.1325917840018016, 0.11102325357564176]</t>
         </is>
       </c>
       <c r="H68" t="b">
@@ -3228,32 +3228,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>examine susceptible computerisation begin implementing novel methodology estimate probability computerisation detailed occupation gaussian process classifier based estimate examine expected impact future computerisation labour market outcome primary objective analysing number risk relationship occupation probability computerisation wage educational attainment according estimate percent employment risk provide evidence wage educational attainment exhibit strong negative relationship occupation probability computerisation</t>
+          <t>negotiation active involvement participation water manager expert stakeholder representative general public requires decision support tool environmental decision support build transparency flexibility order reach sound action plan management instrument possible active involvement stakeholder application bayesian network paper example study danish farmer hydrologist disputed degree pesticide application affected quality deep groundwater instead selecting opinion decision include adopting approach possible view result point view accepting reality situation mired insoluble conflict laying foundation future compromise paper explores tool acting dealing management groundwater protection allow stakeholder divergent value belief surfaced negotiated participatory process area conventional physically based groundwater model insufficient lack physical understanding flexibility lack integration capability agency able address institutional arrangement influencing groundwater protection complexity</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.144|x2: 0.000|x3: 0.246|x4: 0.181|x5: 0.238|x6: 0.202|x7: 0.000|x8: 0.313|x9: 0.169|x10: 0.000|x11: 0.000|x12: 0.084|x13: 0.181|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.087|x2: 0.152|x3: 0.000|x4: 0.210|x5: 0.103|x6: 0.225|x7: 0.269|x8: 0.120|x9: 0.129|x10: 0.120|x11: 0.078|x12: 0.326|x13: 0.451|x14: 0.295|x15: 0.165|x16: 0.185|x17: 0.000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.31]</t>
+          <t>[0.00, 0.17, 0.45]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[8, 3, 5, 6, 13, 4, 9, 1]</t>
+          <t>[13, 12, 14, 7, 6, 4, 16, 15, 2, 9, 8, 10, 5]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.3129290252874519, 0.24590558081020747, 0.2381307915384591, 0.20235655671903807, 0.18141976387367736, 0.18074852201800964, 0.16919243025742006, 0.1435834953292346]</t>
+          <t>[0.45137675770092356, 0.32604233717849024, 0.2953277325475671, 0.26862813182752887, 0.22535537487659194, 0.2104016008273923, 0.18484303963591223, 0.16509194192949775, 0.15222564075161127, 0.1285979350393454, 0.12042872351206482, 0.12005643321964257, 0.10250081897227725]</t>
         </is>
       </c>
       <c r="H69" t="b">
@@ -3269,36 +3269,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>reliable water level forecasting reservoir inflow essential reservoir operation objective paper develop apply hybrid model daily water level forecasting investigate accuracy hybrid model wavelet based artificial neural network wann wavelet based adaptive neuro fuzzy inference wanfis wavelet decomposition employed decompose input time series approximation component decomposed time series input artificial neural network adaptive neuro fuzzy inference anfis wann wanfis model respectively based statistical performance wann wanfis model produce better efficiency anfis model wanfis yield best performance model wavelet decomposition improves accuracy anfis study evaluates accuracy wann wanfis model different mother wavelet including daubechies symmlet coiflet wavelet model performance dependent input mother wavelet wavelet decomposition mother wavelet improve efficiency anfis model result obtained study indicate conjunction wavelet decomposition artificial intelligence model useful tool accurate forecasting daily water level yield better efficiency conventional forecasting model</t>
+          <t>produced artificial intelligence ecosystem service aries platform supply defined carbon storage flood regulation demand specified recreation water joint spatial prioritisation biodiversity employing marxan zone laying spatial representation multiple management zone given transboundary setting danube river comparative analysis including country level purchasing power parity adjusted gross domestic product country percent cover area potential cost factor illustrating scheme balancing establishing specific zone country demonstrate emphasizing biodiversity target model coupling framework cost effectively test spatially explicit management option multi national study discus possible limitation future development requirement effectively managing balance biodiversity supply demand freshwater ecosystem</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[6, 9]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.179|x3: 0.092|x4: 0.087|x5: 0.000|x6: 0.059|x7: 0.342|x8: 0.211|x9: 0.301|x10: 0.138|x11: 0.164|x12: 0.311|x13: 0.130|x14: 0.146|x15: 0.088|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.154|x3: 0.000|x4: 0.171|x5: 0.210|x6: 0.389|x7: 0.305|x8: 0.051|x9: 0.225|x10: 0.000|x11: 0.219|x12: 0.196|x13: 0.367|x14: 0.371|x15: 0.304|x16: 0.055|x17: 0.000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.34]</t>
+          <t>[0.00, 0.18, 0.39]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[7, 12, 9, 8, 2, 11, 14, 10, 13]</t>
+          <t>[6, 14, 13, 7, 15, 9, 11, 5, 12, 4, 2]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[0.3415137097425838, 0.31073781564907615, 0.30072363536657554, 0.2113837247223213, 0.1790319439866431, 0.1635293397826684, 0.1457348395462127, 0.1384679440054062, 0.13029122245115585]</t>
+          <t>[0.3890039164620576, 0.3706754789461664, 0.3671684533667084, 0.3047381224408091, 0.3035592535451258, 0.2251400722787911, 0.21875607987010995, 0.20981724696094925, 0.19579406436023225, 0.17149629331610594, 0.15422891317220896]</t>
         </is>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70" t="b">
         <v>1</v>
@@ -3310,32 +3310,32 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>electricity important asset influence economy political social security country reliable accurate planning prediction electricity demand country vital paper electricity demand ontario province canada modeled adaptive neuro fuzzy inference anfis neuro fuzzy structure defined artificial neural network trained experimental parameter fuzzy inference input model include number employment gross domestic product population dwelling count meteorological parameter related annual weather temperature collected screened statistical method based neuro fuzzy model electricity demand built electricity demand sensitive employment</t>
+          <t>deciding implement conservation action order meet conservation target efficiently important component systematic conservation planning mathematical optimisation quantitative transparent framework solving problem despite advantage exact method integer linear programming conservation planning problem date solved heuristic approach simulated annealing explain implement common conservation planning problem marxan marxan zone framework formulation extended account spatial dependency planning unit arising environmental flow river simulated datasets demonstrate outperforms respect solution quality close optimality processing time range problem size modestly sized quadratic problem spatial unit specie example processing time approximately required achieve solution optimality achieved solution optimality largest quadratic problem evaluated processing time exceeding required achieve solution optimality achieved solution optimality approximately hour heuristic conceptually simple applied large linear objective function unlike produce solution unknown quality discus approach facilitate quantification trade curve sensitivity analysis solving linear quadratic conservation planning problem recommend heuristic approach possible</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[6, 14]</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.122|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.193|x8: 0.000|x9: 0.270|x10: 0.000|x11: 0.218|x12: 0.243|x13: 0.231|x14: 0.075|x15: 0.190|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.192|x5: 0.264|x6: 0.196|x7: 0.355|x8: 0.066|x9: 0.196|x10: 0.000|x11: 0.177|x12: 0.317|x13: 0.272|x14: 0.230|x15: 0.116|x16: 0.070|x17: 0.000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.27]</t>
+          <t>[0.00, 0.14, 0.36]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[9, 12, 13, 11, 7, 15, 2]</t>
+          <t>[7, 12, 13, 5, 14, 9, 6, 4, 11, 15]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.2697692848077432, 0.24292705220679398, 0.23149680637765846, 0.21764546927657058, 0.19264555298242655, 0.19019519404723167, 0.12234698021270919]</t>
+          <t>[0.35526817833178614, 0.3165014322155656, 0.27224574464619966, 0.26447616623062137, 0.2303084321276456, 0.19643999463064257, 0.1963466699709792, 0.192249524639069, 0.1766821889768962, 0.11552553027775693]</t>
         </is>
       </c>
       <c r="H71" t="b">
@@ -3351,39 +3351,39 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>city region twentieth century radical turn taking place information communication technology converging innovation regional economy innovative cluster agglomeration intelligent city orientation creation environment improve cognitive skill ability learn foresee innovate paper discus driving force sustaining rise intelligent city globalization innovation cluster network open innovation based collaborative environment look movement shaping local initiative world european living application developed large company like cisco paper focus planning challenge building intelligent city interactive innovation discus problem integration physical institutional digital dimension intelligent city bridge connect spatiality</t>
+          <t>emerged metaheuristic optimization technique colony optimization received considerable attention water resource environmental planning management decade different version proved flexible powerful solving number spatially temporally complex water resource problem discrete continuous domain single multiple objective reviewing large number peer reviewed journal paper valuable conference paper intend touch characteristic algorithm critically review state application water resource environmental management problem discrete continuous domain paper seek promote opportunity advantage disadvantage algorithm applied different area water resource problem research practice intends identify present major seminal contribution algorithm finding organized area reservoir operation surface water management water distribution urban drainage sewer groundwater management environmental watershed management current trend challenge algorithm discussed called attempt carry convergence analysis active area</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.143|x5: 0.145|x6: 0.063|x7: 0.000|x8: 0.000|x9: 0.237|x10: 0.000|x11: 0.222|x12: 0.226|x13: 0.113|x14: 0.158|x15: 0.000|x16: 0.059|x17: 0.000</t>
+          <t>x1: 0.066|x2: 0.187|x3: 0.070|x4: 0.253|x5: 0.183|x6: 0.063|x7: 0.051|x8: 0.091|x9: 0.000|x10: 0.089|x11: 0.000|x12: 0.170|x13: 0.222|x14: 0.312|x15: 0.171|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.24]</t>
+          <t>[0.00, 0.12, 0.31]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[9, 12, 11, 14, 5, 4, 13]</t>
+          <t>[14, 4, 13, 2, 5, 15, 12, 16]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.23741043874543563, 0.22637566217637176, 0.22170721710758592, 0.158140082033038, 0.14498642025499134, 0.14303085636163426, 0.11298423367680435]</t>
+          <t>[0.31197170629070575, 0.25342905586614733, 0.22191864000670317, 0.18719934689441978, 0.18271177600805488, 0.17133735081797946, 0.17005971219479482, 0.13663506797746666]</t>
         </is>
       </c>
       <c r="H72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -3392,32 +3392,32 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>problem statement recent commercial residential development substantially impacted flux quality water recharge aquifer discharge stream lake wetland ultimately recycled potable contaminant source varied scope composition issue urban water sustainability public health concern level economic development worldwide require cheap innovative environmental sensing capability interactive monitoring network tailored distributed water treatment technology address need roundtable organized explore potential role advance biotechnology bioengineering developing causative relationship spatial temporal change urbanization pattern groundwater surface water quality parameter address aspect socioeconomic constraint implementing sustainable exploitation water resource workshop outcome interactive framework quantitative analysis coupling human natural requires integrating information derived online offline point measurement geographic information based remote sensing imagery analysis groundwater</t>
+          <t>increasing incorporation artificial intelligence automated decision making procedure highlight importance decision theory automated need decision procedure explainable involved traditional realist account explanation explanation relation hold hold eternally explanans explanandum adequate account notion explanation required artificial decision procedure offer alternative account explanation context automated decision making explanation epistemic phenomenon dependent context account explanation better account talk explanation derived concept explanatory power allows differentiate reason cause hand need epistemic aspect explanation aspect theoretical backdrop review existing approach explanation artificial intelligence machine learning suggest desideratum truly explainable decision fulfill good constructing post decision especially clearly exclusively intuitive spontaneous unconscious decision generally count adequate explanation</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.077|x4: 0.092|x5: 0.000|x6: 0.269|x7: 0.197|x8: 0.000|x9: 0.146|x10: 0.000|x11: 0.184|x12: 0.083|x13: 0.056|x14: 0.067|x15: 0.062|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.112|x2: 0.177|x3: 0.133|x4: 0.216|x5: 0.327|x6: 0.194|x7: 0.326|x8: 0.154|x9: 0.150|x10: 0.138|x11: 0.070|x12: 0.220|x13: 0.238|x14: 0.000|x15: 0.109|x16: 0.206|x17: 0.000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.27]</t>
+          <t>[0.00, 0.16, 0.33]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[6, 7, 11, 9]</t>
+          <t>[5, 7, 13, 12, 4, 16, 6, 2, 8, 9, 10, 3, 1, 15]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.2689949209856903, 0.1968158676614711, 0.18431683493431708, 0.14575984218216834]</t>
+          <t>[0.32702499880131314, 0.3262398287718086, 0.2375213347229672, 0.2197386847965258, 0.21623023536363764, 0.20556352557326843, 0.19356462255584964, 0.1768755770677202, 0.1541367416305805, 0.14965576388336893, 0.13768735680598446, 0.13258276585960033, 0.11177204702829566, 0.10865710027864117]</t>
         </is>
       </c>
       <c r="H73" t="b">
@@ -3433,36 +3433,36 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>chapter present methodology maintenance optimization heterogeneous infrastructure composed multiple facility different characteristic environment material deterioration process present stage approach step optimal near optimal maintenance policy facility input level optimization second step problem formulated constrained combinatorial optimization problem best combination facility level optimal near optimal solution identified evolutionary algorithm adopted solve combinatorial optimization problem performance evaluated hypothetical pavement section near optimal solution difference optimal solution obtained numerical experiment potential proposed algorithm solve maintenance optimization problem realistic heterogeneous</t>
+          <t>live paradox artificial intelligence match surpass human level performance domain leveraging rapid advance technology driving soaring stock price measured productivity growth declined past decade income stagnated late majority american potential explanation clash expectation statistic false hope mismeasurement redistribution implementation argue biggest contributor paradox impressive capability particularly based machine learning diffused widely importantly like general purpose technology effect realized wave complementary innovation developed implemented required adjustment cost organizational change skill modeled kind intangible capital portion value intangible capital reflected market value firm going forward national statistic fail measure benefit technology wrong sign</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[9, 11]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.295|x3: 0.164|x4: 0.204|x5: 0.000|x6: 0.130|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.106|x11: 0.147|x12: 0.116|x13: 0.320|x14: 0.261|x15: 0.000|x16: 0.201|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.144|x3: 0.101|x4: 0.361|x5: 0.261|x6: 0.000|x7: 0.127|x8: 0.137|x9: 0.158|x10: 0.123|x11: 0.000|x12: 0.175|x13: 0.208|x14: 0.193|x15: 0.093|x16: 0.183|x17: 0.000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.32]</t>
+          <t>[0.00, 0.14, 0.36]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[13, 2, 14, 4, 16, 3, 11, 6, 12, 10]</t>
+          <t>[4, 5, 13, 14, 16, 12, 9, 2, 8, 7, 10, 3]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.3197394742516631, 0.2946269941494288, 0.26143013831895356, 0.2042361626640738, 0.20057944202439812, 0.1637666642524239, 0.14687843018057017, 0.1302505720209371, 0.11637835041661042, 0.1061375259018231]</t>
+          <t>[0.36114516088140175, 0.26082004384216984, 0.2076642938491682, 0.19275296655205051, 0.18331277273458177, 0.17494155247297005, 0.1580012457837795, 0.14358141609810807, 0.13717969931772742, 0.12734272516891637, 0.1227273597069943, 0.10133350248459377]</t>
         </is>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I74" t="b">
         <v>1</v>
@@ -3474,36 +3474,36 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>impact industrial digital information revolution undoubtedly substantial practically aspect society life firm employment forthcoming revolution produce similar farreaching effect examining analogous invention industrial digital revolution article claim target bring extensive change affect aspect society life addition impact firm employment considerable resulting richly interconnected organization decision making based analysis exploitation intensified global competition firm capable buying good obtaining service world internet exploiting unlimited additional benefit open widespread usage invention paper concludes significant competitive advantage continue accrue utilizing internet widely willing entrepreneurial risk order turn innovative worldwide commercial success story greatest challenge facing society firm utilising benefit availing technology providing vast opportunity immense productivity improvement avoiding danger disadvantage term unemployment greater wealth inequality</t>
+          <t>summarize framework study implication automation demand labor wage employment task based framework emphasizes displacement effect automation creates machine replace labor task perform displacement effect tends reduce demand labor wage counteracted productivity effect resulting cost saving generated automation increase demand labor automated task productivity effect complemented additional capital accumulation deepening automation improvement existing machinery increase demand labor countervailing effect incomplete strong automation crease output worker wage reduce labor national income powerful countervailing force automation creation labor intensive task reinstates labor activity tends increase labor counterbalance impact automation framework highlight constraint imperfection slow adjustment economy labor market automation weaken resulting productivity gain transformation mismatch skill requirement technology possibility automation introduced excessive rate possibly expense productivity enhancing technology</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[10, 11]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.182|x3: 0.000|x4: 0.207|x5: 0.120|x6: 0.081|x7: 0.087|x8: 0.116|x9: 0.313|x10: 0.187|x11: 0.000|x12: 0.150|x13: 0.124|x14: 0.195|x15: 0.000|x16: 0.163|x17: 0.000</t>
+          <t>x1: 0.109|x2: 0.226|x3: 0.000|x4: 0.106|x5: 0.295|x6: 0.145|x7: 0.058|x8: 0.151|x9: 0.121|x10: 0.109|x11: 0.000|x12: 0.180|x13: 0.000|x14: 0.116|x15: 0.000|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.31]</t>
+          <t>[0.00, 0.10, 0.29]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[9, 4, 14, 10, 2, 16, 12, 13, 5, 8]</t>
+          <t>[5, 2, 12, 16, 8, 6, 9, 14, 1, 10, 4]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.3132183848248368, 0.20736347148420017, 0.19491746703526433, 0.18723947009084044, 0.18246586830320696, 0.16278558306991742, 0.15001382351481274, 0.12355014552820165, 0.12003371342077929, 0.11626130929484646]</t>
+          <t>[0.2949743885599509, 0.22648833555491166, 0.1798984125585996, 0.15192286351195725, 0.1509725591877032, 0.1450678073508493, 0.12059192434666112, 0.11584493934363457, 0.10947754446472764, 0.10941062493724858, 0.10582118684989232]</t>
         </is>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -3515,39 +3515,39 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>market abuse attracted attention financial regulator world difficult fully prevent reason lack thoroughly study market abuse strategy corresponding effective market abuse approach paper strategy reported price manipulation analysed related empirical study transformation defined convert time varying financial trading time series machine learning algorithm easily applied detection price manipulation evaluation experiment conducted stock nasdaq promising improved performance effectively detecting manipulation</t>
+          <t>combination availability large finegrained human behavioral advance machine learning presiding growing reliance algorithm address complex societal problem algorithmic decision making process lead objective potentially fairer decision human influenced greed prejudice fatigue hunger algorithmic decision making criticized potential enhance discrimination information power asymmetry opacity paper provide overview available technical solution enhance fairness accountability transparency algorithmic decision making highlight criticality urgency engage multi disciplinary team researcher practitioner policy maker citizen develop deploy evaluate world algorithmic decision making process designed maximize fairness transparency open algortihms opal project step</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.122|x3: 0.000|x4: 0.109|x5: 0.108|x6: 0.067|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.190|x11: 0.072|x12: 0.069|x13: 0.000|x14: 0.089|x15: 0.000|x16: 0.216|x17: 0.000</t>
+          <t>x1: 0.067|x2: 0.184|x3: 0.135|x4: 0.112|x5: 0.252|x6: 0.125|x7: 0.271|x8: 0.092|x9: 0.060|x10: 0.141|x11: 0.140|x12: 0.298|x13: 0.439|x14: 0.217|x15: 0.000|x16: 0.237|x17: 0.000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.22]</t>
+          <t>[0.00, 0.16, 0.44]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[16, 10, 2, 4, 5]</t>
+          <t>[13, 12, 7, 5, 16, 14, 2, 10, 11, 3, 6, 4]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.21625074891786045, 0.190153338639795, 0.12150900537335906, 0.10905502568462945, 0.1075625044052]</t>
+          <t>[0.438628924642113, 0.29756170820554717, 0.2709884582858156, 0.25241238203432564, 0.23720244513441638, 0.21706831738074323, 0.18419067536427583, 0.14109329348926689, 0.14011377231299635, 0.1345974879491422, 0.12489481698930492, 0.11243446827560431]</t>
         </is>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -3556,36 +3556,36 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>society increasingly relying driven predictive model automated decision making design nature noisiness observational model systematically disadvantage belonging certain category group instead relying solely individual merit happen computing process fair intentioned mining study predictive model free discrimination historical built biased incomplete contain past discriminatory decision discrimination aware mining emerging research discipline firm consensus measure performance algorithm goal survey review discrimination measure analytically computationally analyze performance highlight implication measure measure discipline measuring discrimination potentially suitable purpose survey primarily intended researcher mining machine learning step producing unifying view performance criterion developing algorithm discriminatory predictive modeling addition practitioner policy maker study diagnosing potential discrimination predictive model</t>
+          <t>examine susceptible computerisation begin implementing novel methodology estimate probability computerisation detailed occupation gaussian process classifier based estimate examine expected impact future computerisation labour market outcome primary objective analysing number risk relationship occupation probability computerisation wage educational attainment according estimate percent employment risk provide evidence wage educational attainment exhibit strong negative relationship occupation probability computerisation</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[10, 16]</t>
+          <t>[8, 9]</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.098|x4: 0.143|x5: 0.161|x6: 0.059|x7: 0.308|x8: 0.000|x9: 0.135|x10: 0.120|x11: 0.115|x12: 0.155|x13: 0.187|x14: 0.091|x15: 0.000|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.126|x2: 0.000|x3: 0.150|x4: 0.132|x5: 0.219|x6: 0.000|x7: 0.000|x8: 0.174|x9: 0.000|x10: 0.086|x11: 0.000|x12: 0.114|x13: 0.094|x14: 0.056|x15: 0.070|x16: 0.097|x17: 0.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.31]</t>
+          <t>[0.00, 0.08, 0.22]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[7, 13, 5, 12, 4, 9, 10, 11, 16]</t>
+          <t>[5, 8, 3, 4, 1, 12]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.3076775931172506, 0.18659979584392464, 0.16064801772763543, 0.1546187112985621, 0.14324712963356842, 0.13534024499625757, 0.12010299340554378, 0.11457533489236484, 0.10216047013312063]</t>
+          <t>[0.2193493728226247, 0.1735588083451009, 0.1504988863624216, 0.1321096065170861, 0.12585593209837798, 0.11360274454287764]</t>
         </is>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="b">
         <v>1</v>
@@ -3597,32 +3597,32 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>background increasing discriminatory challenge facing artificial intelligence application paper examines requirement needed comply european discrimination prevent discrimination automated online advertising business paper explains circumstance automated targeting advertisement direct indirect discrimination paper concludes technical recommendation dismantle danger automated advertising option like influencing processing altering algorithmic model evaluated paper examines possibility technique like mining machine learning actively battle direct indirect discrimination european discrimination directive prohibit direct indirect discrimination field employment ground race ethnic origin sexual orientation religious belief disability legal framework</t>
+          <t>paper present comprehensive review study employ operational research artificial intelligence technique assessment bank performance discus numerous application envelopment analysis widely applied technique field discus application technique neural network support vector machine multicriteria decision recent bank failure prediction study assessment bank</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[8, 10]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.246|x6: 0.000|x7: 0.000|x8: 0.145|x9: 0.160|x10: 0.239|x11: 0.243|x12: 0.279|x13: 0.000|x14: 0.101|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.060|x2: 0.055|x3: 0.000|x4: 0.170|x5: 0.245|x6: 0.281|x7: 0.215|x8: 0.083|x9: 0.383|x10: 0.108|x11: 0.203|x12: 0.292|x13: 0.260|x14: 0.390|x15: 0.314|x16: 0.176|x17: 0.000</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.28]</t>
+          <t>[0.00, 0.19, 0.39]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[12, 5, 11, 10, 9, 8, 14]</t>
+          <t>[14, 9, 15, 12, 6, 13, 5, 7, 11, 16, 4, 10]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[0.2794599231283232, 0.24599011325492773, 0.24265080740284387, 0.2386088669874197, 0.1601736092280639, 0.14535389123074735, 0.10096862190940482]</t>
+          <t>[0.39009940459859604, 0.3826446725776705, 0.3140274999840102, 0.2915517884889396, 0.2814044385290212, 0.26012729404735435, 0.24458822624168425, 0.21531167254636782, 0.20251475429521984, 0.17593205503044593, 0.17033847952632747, 0.107737794464697]</t>
         </is>
       </c>
       <c r="H78" t="b">
@@ -3638,32 +3638,32 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>long cartographic tradition describing city focus characteristic resident review history type urban social analysis highlight persistent challenge paper existing geodemographic approach extended coupling kohonen self organizing algorithm mining technique geographic information approach allows construction linked social attribute geographic space novel type geodemographic classification allows hierarchical grouping exploration relationship social similarity geographic proximity allows filter complex demographic datasets capable highlighting general social pattern retaining fundamental social fingerprint city dataset describing attribute census tract york city analyzed illustrate technique pair social geographic formally compared simple pattern metric analysis york city question assumption functional spatial relationship underlie modeling statistical technique</t>
+          <t>reliable water level forecasting reservoir inflow essential reservoir operation objective paper develop apply hybrid model daily water level forecasting investigate accuracy hybrid model wavelet based artificial neural network wann wavelet based adaptive neuro fuzzy inference wanfis wavelet decomposition employed decompose input time series approximation component decomposed time series input artificial neural network adaptive neuro fuzzy inference anfis wann wanfis model respectively based statistical performance wann wanfis model produce better efficiency anfis model wanfis yield best performance model wavelet decomposition improves accuracy anfis study evaluates accuracy wann wanfis model different mother wavelet including daubechies symmlet coiflet wavelet model performance dependent input mother wavelet wavelet decomposition mother wavelet improve efficiency anfis model result obtained study indicate conjunction wavelet decomposition artificial intelligence model useful tool accurate forecasting daily water level yield better efficiency conventional forecasting model</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[10, 11]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.173|x2: 0.108|x3: 0.000|x4: 0.087|x5: 0.105|x6: 0.131|x7: 0.067|x8: 0.000|x9: 0.063|x10: 0.129|x11: 0.333|x12: 0.225|x13: 0.124|x14: 0.176|x15: 0.146|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.101|x2: 0.222|x3: 0.000|x4: 0.100|x5: 0.000|x6: 0.256|x7: 0.315|x8: 0.139|x9: 0.186|x10: 0.067|x11: 0.144|x12: 0.247|x13: 0.208|x14: 0.101|x15: 0.000|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.33]</t>
+          <t>[0.00, 0.13, 0.32]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[11, 12, 14, 1, 15, 6, 10, 13, 2, 5]</t>
+          <t>[7, 6, 12, 2, 13, 9, 11, 8, 14, 1]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.33349887727744426, 0.2252759499590762, 0.17616299159236426, 0.17272104019470524, 0.14593637002505866, 0.13064031041723737, 0.12947097014369682, 0.12408344459680458, 0.10846911442863318, 0.10455092725822578]</t>
+          <t>[0.315241910576343, 0.25595021264997847, 0.24706876662062766, 0.2223186321113393, 0.20762321729756414, 0.18639723449741247, 0.14352369166138418, 0.13913722248288388, 0.10136172973937556, 0.10089516626746901]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3679,39 +3679,39 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>present aidr artificial intelligence disaster response platform designed perform automatic classification crisis related microblog communication aidr enables human machine work apply human intelligence large scale speed objective aidr classify message post disaster user defined category information need damage purpose continuously ingests twitter process machine learning classification technique leverage human participation crowdsourcing time aidr successfully tested classify informative informative tweet posted pakistan earthquake overall achieved classification quality measured aidr available http aidr qcri</t>
+          <t>electricity important asset influence economy political social security country reliable accurate planning prediction electricity demand country vital paper electricity demand ontario province canada modeled adaptive neuro fuzzy inference anfis neuro fuzzy structure defined artificial neural network trained experimental parameter fuzzy inference input model include number employment gross domestic product population dwelling count meteorological parameter related annual weather temperature collected screened statistical method based neuro fuzzy model electricity demand built electricity demand sensitive employment</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.238|x6: 0.229|x7: 0.260|x8: 0.212|x9: 0.000|x10: 0.241|x11: 0.055|x12: 0.252|x13: 0.136|x14: 0.090|x15: 0.000|x16: 0.205|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.189|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.386|x7: 0.444|x8: 0.117|x9: 0.437|x10: 0.049|x11: 0.326|x12: 0.000|x13: 0.309|x14: 0.052|x15: 0.167|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.26]</t>
+          <t>[0.00, 0.15, 0.44]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[7, 12, 10, 5, 6, 8, 16, 13]</t>
+          <t>[7, 9, 6, 11, 13, 2, 15, 8]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.2598881616238621, 0.25197683975239465, 0.24119030302856004, 0.2378994512767133, 0.22860997274555747, 0.21172170857759479, 0.2049404327022385, 0.13598960407419602]</t>
+          <t>[0.44416773482529986, 0.4365675451260242, 0.3856864226662196, 0.3255449345759706, 0.3085533342581161, 0.18898860881789828, 0.16692100836928103, 0.11706840070478514]</t>
         </is>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3720,39 +3720,39 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>paper present result attempt perform modeling concentration urban area vicinity copper smelter serbia anfis methodological approach obtained model develop prediction tool calculate potential concentration prescribed limitation based input parameter predictor technogenic meteorological input parameter considered accordingly dependence concentration modeled function wind speed wind direction temperature humidity sulfur emitted process sulfidic copper concentration treatment</t>
+          <t>city region twentieth century radical turn taking place information communication technology converging innovation regional economy innovative cluster agglomeration intelligent city orientation creation environment improve cognitive skill ability learn foresee innovate paper discus driving force sustaining rise intelligent city globalization innovation cluster network open innovation based collaborative environment look movement shaping local initiative world european living application developed large company like cisco paper focus planning challenge building intelligent city interactive innovation discus problem integration physical institutional digital dimension intelligent city bridge connect spatiality</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[9, 11]</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.107|x3: 0.000|x4: 0.153|x5: 0.294|x6: 0.000|x7: 0.182|x8: 0.111|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.124|x13: 0.322|x14: 0.153|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.165|x3: 0.000|x4: 0.160|x5: 0.124|x6: 0.203|x7: 0.286|x8: 0.000|x9: 0.259|x10: 0.055|x11: 0.283|x12: 0.495|x13: 0.398|x14: 0.253|x15: 0.213|x16: 0.091|x17: 0.000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.32]</t>
+          <t>[0.00, 0.18, 0.49]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[13, 5, 7, 4, 14, 12, 8, 2]</t>
+          <t>[12, 13, 7, 11, 9, 14, 15, 6, 2, 4, 5]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.32162054819130775, 0.2941028701224543, 0.1823156729425922, 0.15290313151424625, 0.15253309440695104, 0.1240404590365722, 0.1106602443046269, 0.10719326964657554]</t>
+          <t>[0.4947502169752407, 0.39797528605896054, 0.2862684027311161, 0.28327907655214307, 0.259252654215938, 0.2534059755708022, 0.21313080381282123, 0.20305698725084084, 0.1653208062462864, 0.15950430249528555, 0.12411463400003064]</t>
         </is>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>study present basic concept application artificial intelligence development intelligent transport smart city india growing urbanization government realized need developing smart city cope challenge urban living magnet investment india transport smart city accessible safe environmentally friendly faster comfortable affordable compromising future need indian city largely lack intelligent transport india problem inefficient public transport severe congestion increasing incidence road accident inadequate parking space rapidly increasing energy cost development intelligent transportation essential smart city concern environmental economic social equity artificial intelligence technology resolve issue urgent need adopt artificial intelligence development intelligent transport better understand control operation smart city main objective study present basic concept artificial intelligence application development intelligent transport smart city india study concludes artificial intelligence need adopted develop smart public transport intelligent traffic management control smart traveller information smart parking management safe mobility emergency smart city expected study pave development intelligent transport smart city india</t>
+          <t>problem statement recent commercial residential development substantially impacted flux quality water recharge aquifer discharge stream lake wetland ultimately recycled potable contaminant source varied scope composition issue urban water sustainability public health concern level economic development worldwide require cheap innovative environmental sensing capability interactive monitoring network tailored distributed water treatment technology address need roundtable organized explore potential role advance biotechnology bioengineering developing causative relationship spatial temporal change urbanization pattern groundwater surface water quality parameter address aspect socioeconomic constraint implementing sustainable exploitation water resource workshop outcome interactive framework quantitative analysis coupling human natural requires integrating information derived online offline point measurement geographic information based remote sensing imagery analysis groundwater</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3771,26 +3771,26 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.101|x3: 0.000|x4: 0.169|x5: 0.000|x6: 0.120|x7: 0.114|x8: 0.000|x9: 0.071|x10: 0.000|x11: 0.247|x12: 0.000|x13: 0.046|x14: 0.100|x15: 0.000|x16: 0.042|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.175|x4: 0.315|x5: 0.166|x6: 0.246|x7: 0.372|x8: 0.000|x9: 0.270|x10: 0.090|x11: 0.361|x12: 0.297|x13: 0.270|x14: 0.179|x15: 0.230|x16: 0.164|x17: 0.000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.25]</t>
+          <t>[0.00, 0.18, 0.37]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[11, 4, 6, 7, 2]</t>
+          <t>[7, 11, 4, 12, 13, 9, 6, 15, 14, 3, 5, 16]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.2468251152962055, 0.169320420223892, 0.11957132904859138, 0.1136872194242647, 0.1005754777336332]</t>
+          <t>[0.3723093809048664, 0.36118895477495805, 0.31532031514693853, 0.2969571394792453, 0.2703368452674481, 0.26973190113946915, 0.24613288684165996, 0.22957424288472075, 0.17863089812169555, 0.17468599834717313, 0.16621712462805904, 0.16375025017604203]</t>
         </is>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3802,36 +3802,36 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>nonlinear artificial intelligence ensemble prediction naiep model developed predicting typhoon based multiple neural network expected output evolutionary genetic algorithm model validated short range forecast typhoon south china result naiep model clearly better climatology persistence cliper model forecast typhoon identical predictor sample prediction genetic neural network ensemble prediction gnnep model compared single prediction model proven theoretically accurate computation analysis generalization capacity gnnep demonstrate prediction ensemble model integrates prediction optimized ensemble member generalization capacity ensemble prediction model enhanced model better address overfitting problem generally exists traditional neural network approach practical weather prediction</t>
+          <t>chapter present methodology maintenance optimization heterogeneous infrastructure composed multiple facility different characteristic environment material deterioration process present stage approach step optimal near optimal maintenance policy facility input level optimization second step problem formulated constrained combinatorial optimization problem best combination facility level optimal near optimal solution identified evolutionary algorithm adopted solve combinatorial optimization problem performance evaluated hypothetical pavement section near optimal solution difference optimal solution obtained numerical experiment potential proposed algorithm solve maintenance optimization problem realistic heterogeneous</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[11, 13]</t>
+          <t>[9, 11]</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.083|x2: 0.369|x3: 0.000|x4: 0.069|x5: 0.000|x6: 0.123|x7: 0.162|x8: 0.000|x9: 0.208|x10: 0.000|x11: 0.094|x12: 0.402|x13: 0.234|x14: 0.146|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.051|x2: 0.245|x3: 0.203|x4: 0.091|x5: 0.271|x6: 0.123|x7: 0.109|x8: 0.071|x9: 0.108|x10: 0.119|x11: 0.121|x12: 0.205|x13: 0.329|x14: 0.395|x15: 0.151|x16: 0.203|x17: 0.000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.40]</t>
+          <t>[0.00, 0.16, 0.40]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[12, 2, 13, 9, 7, 14, 6]</t>
+          <t>[14, 13, 5, 2, 12, 16, 3, 15, 6, 11, 10, 7, 9]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[0.4019911740225669, 0.36856314362261194, 0.23441816139321936, 0.20826550782104175, 0.1624204236123236, 0.14586574893858667, 0.12327675553581091]</t>
+          <t>[0.3950750230704068, 0.32919218657649585, 0.2706395435800742, 0.2451171171878317, 0.20501154387022236, 0.20314353511735814, 0.20279919805527286, 0.1509954008098773, 0.12318957285670326, 0.12129602892487443, 0.11923027584882398, 0.10888502971086289, 0.10787981055533256]</t>
         </is>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I83" t="b">
         <v>1</v>
@@ -3843,32 +3843,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>automatic video analysis urban surveillance camera fast emerging field based vision technique present comprehensive review state vision traffic video critical analysis outlook future research direction field increasing relevance intelligent transport decreasing hardware cost increasing deployment camera opened wide application field video analytics monitoring objective congestion traffic rule violation vehicle interaction targeted camera typically originally installed human operator detection classification vehicle highway successfully classical visual surveillance technique background estimation motion tracking time urban domain challenging respect traffic density camera angle lead degree occlusion variety road user method object categorization modeling inspired advanced technique tackle challenge commonly benchmark challenge direct comparison proposed algorithm difficult addition evaluation challenging weather condition rain darkness desirable rarely performed future work directed robust combined detector classifier road user focus realistic condition evaluation</t>
+          <t>impact industrial digital information revolution undoubtedly substantial practically aspect society life firm employment forthcoming revolution produce similar farreaching effect examining analogous invention industrial digital revolution article claim target bring extensive change affect aspect society life addition impact firm employment considerable resulting richly interconnected organization decision making based analysis exploitation intensified global competition firm capable buying good obtaining service world internet exploiting unlimited additional benefit open widespread usage invention paper concludes significant competitive advantage continue accrue utilizing internet widely willing entrepreneurial risk order turn innovative worldwide commercial success story greatest challenge facing society firm utilising benefit availing technology providing vast opportunity immense productivity improvement avoiding danger disadvantage term unemployment greater wealth inequality</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[10, 11]</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.053|x3: 0.255|x4: 0.091|x5: 0.000|x6: 0.000|x7: 0.134|x8: 0.000|x9: 0.144|x10: 0.219|x11: 0.262|x12: 0.138|x13: 0.141|x14: 0.091|x15: 0.000|x16: 0.214|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.149|x3: 0.136|x4: 0.289|x5: 0.092|x6: 0.098|x7: 0.128|x8: 0.100|x9: 0.258|x10: 0.108|x11: 0.150|x12: 0.092|x13: 0.261|x14: 0.366|x15: 0.112|x16: 0.170|x17: 0.000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.26]</t>
+          <t>[0.00, 0.15, 0.37]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[11, 3, 10, 16, 9, 13, 12, 7]</t>
+          <t>[14, 4, 13, 9, 16, 11, 2, 3, 7, 15, 10, 8]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.2621211171191206, 0.2548527177743149, 0.21922134053953518, 0.2135399385881895, 0.14382812276751974, 0.1413035847045106, 0.13824893384664846, 0.133861041190191]</t>
+          <t>[0.3656895482601285, 0.28873521572518557, 0.261271231591967, 0.2580227343407108, 0.1696432555258181, 0.14975310880678336, 0.14907845241189743, 0.1359384707186995, 0.12816611940692713, 0.11176879048210608, 0.10808874516303613, 0.10037845853512799]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -3884,39 +3884,39 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>loss matter captured statistic dollar value engineer chipping away staggering number long time seat belt save thousand supercomputer designer create frame body protect inside absorbing energy crash possible result number fatality mile vehicle travel decreased ultimate solution save life limb money smashing place exactly engineer united state europe japan trying applying advanced microprocessor radar speed signal processing chip algorithm program mark face automotive industry safety kick accident occurs attempting minimize injury damage prevent collision altogether collision avoidance feature road pricey adaptive cruise control option group luxury</t>
+          <t>market abuse attracted attention financial regulator world difficult fully prevent reason lack thoroughly study market abuse strategy corresponding effective market abuse approach paper strategy reported price manipulation analysed related empirical study transformation defined convert time varying financial trading time series machine learning algorithm easily applied detection price manipulation evaluation experiment conducted stock nasdaq promising improved performance effectively detecting manipulation</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.061|x4: 0.000|x5: 0.072|x6: 0.116|x7: 0.191|x8: 0.068|x9: 0.306|x10: 0.211|x11: 0.000|x12: 0.421|x13: 0.305|x14: 0.373|x15: 0.061|x16: 0.136|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.000|x3: 0.092|x4: 0.241|x5: 0.293|x6: 0.218|x7: 0.339|x8: 0.081|x9: 0.238|x10: 0.112|x11: 0.086|x12: 0.223|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.184|x17: 0.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.42]</t>
+          <t>[0.00, 0.13, 0.34]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[12, 14, 9, 13, 10, 7, 16, 6]</t>
+          <t>[7, 5, 4, 9, 12, 6, 16, 10]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.42057822181076954, 0.37253851605028115, 0.30615438814058216, 0.3047624762311711, 0.21116608518094426, 0.19106033368182815, 0.13570425166258254, 0.11631308384844254]</t>
+          <t>[0.3388782589233226, 0.2926577653427226, 0.24071784469211366, 0.2381131075019146, 0.22334610027373678, 0.21753868169572213, 0.18411973292226277, 0.11150169307690164]</t>
         </is>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3925,39 +3925,39 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>harmful algal bloom considered environmental problem nowadays occur coastal water world cause acute ecological damage ensuing economic loss fish kill shellfish poisoning public health threat posed toxic bloom recently driven model including machine learning technique employed mimic dynamic algal bloom important step application technique selection significant model input variable present paper extensively technique artificial neural network genetic programming selecting significant input variable efficacy technique demonstrated test problem known dependence applied world study water quality tolo harbour hong kong technique overcome limitation currently technique input variable selection review presented interpretation weight trained evolved equation demonstrate ability identify ecologically significant variable precisely significant variable suggested technique indicate chlorophyll chla significant input predicting algal bloom suggesting auto regressive nature persistence algal bloom dynamic related long flushing time semi enclosed coastal water study confirms previous understanding algal bloom coastal water hong kong occur life cycle order week</t>
+          <t>society increasingly relying driven predictive model automated decision making design nature noisiness observational model systematically disadvantage belonging certain category group instead relying solely individual merit happen computing process fair intentioned mining study predictive model free discrimination historical built biased incomplete contain past discriminatory decision discrimination aware mining emerging research discipline firm consensus measure performance algorithm goal survey review discrimination measure analytically computationally analyze performance highlight implication measure measure discipline measuring discrimination potentially suitable purpose survey primarily intended researcher mining machine learning step producing unifying view performance criterion developing algorithm discriminatory predictive modeling addition practitioner policy maker study diagnosing potential discrimination predictive model</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[6, 11]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.100|x2: 0.158|x3: 0.000|x4: 0.000|x5: 0.117|x6: 0.000|x7: 0.132|x8: 0.081|x9: 0.000|x10: 0.085|x11: 0.067|x12: 0.214|x13: 0.074|x14: 0.272|x15: 0.072|x16: 0.116|x17: 0.000</t>
+          <t>x1: 0.102|x2: 0.000|x3: 0.128|x4: 0.277|x5: 0.253|x6: 0.000|x7: 0.237|x8: 0.141|x9: 0.162|x10: 0.125|x11: 0.138|x12: 0.105|x13: 0.267|x14: 0.130|x15: 0.000|x16: 0.186|x17: 0.000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.27]</t>
+          <t>[0.00, 0.13, 0.28]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[14, 12, 2, 7, 5, 16, 1]</t>
+          <t>[4, 13, 5, 7, 16, 9, 8, 11, 14, 3, 10, 12, 1]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.27158326918947245, 0.2139250601579812, 0.1584855390956216, 0.13212571501686413, 0.11660536717459918, 0.11563813967873614, 0.10012271641000936]</t>
+          <t>[0.277111466021689, 0.2669748884215652, 0.2528157242292047, 0.23669445384768345, 0.18588086045712918, 0.16199428582433312, 0.1406761452221416, 0.13828286221292985, 0.13043318256882022, 0.12771129804027406, 0.1247718421867405, 0.10517818014713874, 0.10201111398353975]</t>
         </is>
       </c>
       <c r="H86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -3966,36 +3966,36 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>forest importantly influence environment life ability accurately predicting area involved forest event help optimizing management effort given complexity task powerful computational tool needed predicting area burned forest purpose study develop intelligent based genetic programming prediction burned area related forest analysis meteorological geometric semantic genetic programming based recently defined geometric semantic genetic operator genetic programming experimental result achieved database forest event showed appropriateness proposed prediction burned area particular result obtained geometric semantic genetic programming significantly better produced standard genetic programming state machine learning method training sample study suggests deeper investigation genetic programming field forest prediction productive giere investigaciones profundas programacion genetica campo prediccion incendios forestales pueden productivas</t>
+          <t>background increasing discriminatory challenge facing artificial intelligence application paper examines requirement needed comply european discrimination prevent discrimination automated online advertising business paper explains circumstance automated targeting advertisement direct indirect discrimination paper concludes technical recommendation dismantle danger automated advertising option like influencing processing altering algorithmic model evaluated paper examines possibility technique like mining machine learning actively battle direct indirect discrimination european discrimination directive prohibit direct indirect discrimination field employment ground race ethnic origin sexual orientation religious belief disability legal framework</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[11, 15]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.070|x3: 0.000|x4: 0.088|x5: 0.070|x6: 0.000|x7: 0.000|x8: 0.043|x9: 0.000|x10: 0.000|x11: 0.084|x12: 0.106|x13: 0.000|x14: 0.102|x15: 0.129|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.064|x2: 0.051|x3: 0.000|x4: 0.000|x5: 0.149|x6: 0.204|x7: 0.207|x8: 0.088|x9: 0.270|x10: 0.103|x11: 0.308|x12: 0.140|x13: 0.103|x14: 0.198|x15: 0.132|x16: 0.165|x17: 0.000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.13]</t>
+          <t>[0.00, 0.13, 0.31]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[15, 12, 14]</t>
+          <t>[11, 9, 7, 6, 14, 16, 5, 12, 15, 10, 13]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.12855416464846464, 0.10580356119786367, 0.10179897990857477]</t>
+          <t>[0.3081376098170843, 0.2701072958681774, 0.20659856976829855, 0.20389267158759178, 0.19849210492488245, 0.16492605851014244, 0.14945309608194196, 0.1401778554688354, 0.13174340201837703, 0.10313178043311066, 0.10309272522173857]</t>
         </is>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="b">
         <v>1</v>
@@ -4007,32 +4007,32 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>pedestrian vulnerable traffic participant motion prediction utmost importance intelligent transportation predicting motion pedestrian especially hard structured environment inertia compared road vehicle account uncertainty present approach probabilistic prediction pedestrian motion markov chain contrast previous work consider motion model constraint semantic goal explicitly adapt prediction based crash probability traffic participant approach work situation typically challenging pure machine learning technique learn behavior particular road section consequently struggle different road section usefulness combining aforementioned aspect single approach demonstrated evaluation recording pedestrian</t>
+          <t>long cartographic tradition describing city focus characteristic resident review history type urban social analysis highlight persistent challenge paper existing geodemographic approach extended coupling kohonen self organizing algorithm mining technique geographic information approach allows construction linked social attribute geographic space novel type geodemographic classification allows hierarchical grouping exploration relationship social similarity geographic proximity allows filter complex demographic datasets capable highlighting general social pattern retaining fundamental social fingerprint city dataset describing attribute census tract york city analyzed illustrate technique pair social geographic formally compared simple pattern metric analysis york city question assumption functional spatial relationship underlie modeling statistical technique</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.071|x2: 0.000|x3: 0.139|x4: 0.059|x5: 0.124|x6: 0.142|x7: 0.095|x8: 0.166|x9: 0.183|x10: 0.092|x11: 0.321|x12: 0.235|x13: 0.177|x14: 0.162|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.240|x3: 0.000|x4: 0.245|x5: 0.215|x6: 0.232|x7: 0.282|x8: 0.173|x9: 0.216|x10: 0.101|x11: 0.359|x12: 0.394|x13: 0.233|x14: 0.247|x15: 0.161|x16: 0.127|x17: 0.000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.32]</t>
+          <t>[0.00, 0.20, 0.39]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[11, 12, 9, 13, 8, 14, 6, 3, 5]</t>
+          <t>[12, 11, 7, 14, 4, 2, 13, 6, 9, 5, 8, 15, 16, 1, 10]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[0.32063177911854795, 0.23506107032941975, 0.18337158841803128, 0.17706000599360144, 0.16583340667798666, 0.16160248068371458, 0.14230043071157686, 0.13896696433620737, 0.12377115824059193]</t>
+          <t>[0.39372168451759787, 0.3589993906583739, 0.28205102231932894, 0.2465426290370988, 0.24510193167930158, 0.2395611867522861, 0.2333207465430876, 0.23184665133147453, 0.21561117599130444, 0.2154542265678507, 0.1725786744951272, 0.16072165981854702, 0.12673258675803248, 0.12514518937983884, 0.10089990372514658]</t>
         </is>
       </c>
       <c r="H88" t="b">
@@ -4048,32 +4048,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>recent advance field artificial intelligence increasing number decision making task delegated software requirement success adoption user trust choice fully automated decision achieve explanation facility widely investigated mean establishing trust early expert today increasingly sophisticated machine learning algorithm challenge context explanation accountability trust constantly arise work systematically review literature explanation advice giving family includes recommender successful class advicegiving software practice investigate purpose explanation generated presented user evaluated result derive novel comprehensive taxonomy aspect considered designing explanation facility current future decision support taxonomy includes variety different facet explanation objective responsiveness content presentation identified challenge remain unaddressed example related fine grained issue associated presentation explanation explanation facility evaluated</t>
+          <t>present aidr artificial intelligence disaster response platform designed perform automatic classification crisis related microblog communication aidr enables human machine work apply human intelligence large scale speed objective aidr classify message post disaster user defined category information need damage purpose continuously ingests twitter process machine learning classification technique leverage human participation crowdsourcing time aidr successfully tested classify informative informative tweet posted pakistan earthquake overall achieved classification quality measured aidr available http aidr qcri</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[12]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.068|x2: 0.137|x3: 0.077|x4: 0.000|x5: 0.084|x6: 0.191|x7: 0.000|x8: 0.194|x9: 0.082|x10: 0.075|x11: 0.189|x12: 0.281|x13: 0.134|x14: 0.233|x15: 0.213|x16: 0.152|x17: 0.000</t>
+          <t>x1: 0.118|x2: 0.145|x3: 0.139|x4: 0.204|x5: 0.181|x6: 0.197|x7: 0.000|x8: 0.163|x9: 0.093|x10: 0.125|x11: 0.105|x12: 0.261|x13: 0.291|x14: 0.268|x15: 0.177|x16: 0.178|x17: 0.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.28]</t>
+          <t>[0.00, 0.16, 0.29]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[12, 14, 15, 8, 6, 11, 16, 2, 13]</t>
+          <t>[13, 14, 12, 4, 6, 5, 16, 15, 8, 2, 3, 10, 1, 11]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.2814849033680742, 0.23339109357951396, 0.2133305541641091, 0.19410882357540327, 0.19063735749099672, 0.1885584800479032, 0.1522887819842598, 0.13695086030594944, 0.13403930562336552]</t>
+          <t>[0.29097635229815305, 0.26825490155113124, 0.26119373596884843, 0.20398388335000436, 0.19689832988923248, 0.18053777324725487, 0.17798063447873871, 0.17716474205314617, 0.16279306871653423, 0.14457098534812882, 0.13860752724041575, 0.12527046245176407, 0.11804917075563137, 0.10460117065222994]</t>
         </is>
       </c>
       <c r="H89" t="b">
@@ -4089,32 +4089,32 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>current globalization faced challenge meet continuously growing worldwide demand capital consumer good simultaneously ensuring sustainable evolvement human existence social environmental economic dimension order cope challenge industrial value creation geared sustainability currently industrial value creation early industrialized country shaped development fourth stage called industry development provides immense opportunity realization sustainable manufacturing paper present state review industry based recent development research practice subsequently overview different opportunity sustainable manufacturing industry presented retrofitting manufacturing equipment specific opportunity sustainable manufacturing industry exemplarily outlined</t>
+          <t>paper present result attempt perform modeling concentration urban area vicinity copper smelter serbia anfis methodological approach obtained model develop prediction tool calculate potential concentration prescribed limitation based input parameter predictor technogenic meteorological input parameter considered accordingly dependence concentration modeled function wind speed wind direction temperature humidity sulfur emitted process sulfidic copper concentration treatment</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[9, 12]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.110|x2: 0.179|x3: 0.000|x4: 0.000|x5: 0.148|x6: 0.161|x7: 0.000|x8: 0.120|x9: 0.408|x10: 0.158|x11: 0.247|x12: 0.248|x13: 0.356|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.117|x2: 0.112|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.148|x7: 0.404|x8: 0.161|x9: 0.251|x10: 0.112|x11: 0.205|x12: 0.242|x13: 0.339|x14: 0.164|x15: 0.156|x16: 0.154|x17: 0.000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.41]</t>
+          <t>[0.00, 0.15, 0.40]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[9, 13, 12, 11, 2, 6, 10, 5, 8, 1]</t>
+          <t>[7, 13, 9, 12, 11, 14, 8, 15, 16, 6, 1, 10, 2]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.4082043388184158, 0.35559204303867115, 0.24834974436614815, 0.24680488577483375, 0.17868868182068987, 0.16074787692272938, 0.15824478902452466, 0.14790418608950678, 0.1199053573073035, 0.11046757253662003]</t>
+          <t>[0.4044747031712287, 0.3390211865196525, 0.2506256959032332, 0.2422948665900264, 0.20512200976514447, 0.1636145926075977, 0.1611256435304884, 0.15638664156991716, 0.1536348399808349, 0.14806788737568316, 0.11684003966631874, 0.11238878845948397, 0.11235148209805015]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4130,36 +4130,36 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>climate impact study hydrology rely climate change information fine spatial resolution general circulation model gcms advanced tool estimating future climate change scenario operate coarse scale output downscaled obtain information relevant hydrologic study paper support vector machine approach proposed statistical downscaling precipitation monthly time scale effectiveness approach illustrated application meteorological division msds india climate variable affecting spatio temporal variation precipitation india identified following pertaining identified climate variable predictor classified cluster analysis group representing season based downscaling model developed season significant rainfall principal component extracted predictor input contemporaneous precipitation observed output proposed shown superior conventional downscaling multi layer propagation artificial neural network subsequently based applied future climate prediction second generation coupled global climate model cgcm obtain future projection precipitation msds result analyzed impact climate change precipitation india shown svms provide promising alternative conventional artificial neural network statistical downscaling suitable conducting climate impact study</t>
+          <t>study present basic concept application artificial intelligence development intelligent transport smart city india growing urbanization government realized need developing smart city cope challenge urban living magnet investment india transport smart city accessible safe environmentally friendly faster comfortable affordable compromising future need indian city largely lack intelligent transport india problem inefficient public transport severe congestion increasing incidence road accident inadequate parking space rapidly increasing energy cost development intelligent transportation essential smart city concern environmental economic social equity artificial intelligence technology resolve issue urgent need adopt artificial intelligence development intelligent transport better understand control operation smart city main objective study present basic concept artificial intelligence application development intelligent transport smart city india study concludes artificial intelligence need adopted develop smart public transport intelligent traffic management control smart traveller information smart parking management safe mobility emergency smart city expected study pave development intelligent transport smart city india</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[6, 13]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.105|x3: 0.080|x4: 0.000|x5: 0.078|x6: 0.000|x7: 0.139|x8: 0.000|x9: 0.281|x10: 0.000|x11: 0.196|x12: 0.237|x13: 0.266|x14: 0.205|x15: 0.143|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.174|x4: 0.212|x5: 0.000|x6: 0.185|x7: 0.314|x8: 0.000|x9: 0.126|x10: 0.082|x11: 0.440|x12: 0.179|x13: 0.292|x14: 0.080|x15: 0.113|x16: 0.142|x17: 0.000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.28]</t>
+          <t>[0.00, 0.14, 0.44]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[9, 13, 12, 14, 11, 15, 7, 2]</t>
+          <t>[11, 7, 13, 4, 6, 12, 3, 16, 9, 15]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.2810868256575925, 0.26581427447933587, 0.2371836989952646, 0.20532440258265924, 0.19557202017522393, 0.14252462923599984, 0.1394958880093052, 0.1052855029135744]</t>
+          <t>[0.43973061350313747, 0.31379295740647517, 0.2921952658708744, 0.21247429161479758, 0.18485052198028135, 0.17853414979574384, 0.17365545043365996, 0.1415471347178054, 0.12616104540402215, 0.11269304340027272]</t>
         </is>
       </c>
       <c r="H91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="b">
         <v>1</v>
@@ -4171,32 +4171,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>fully automated identification possible spill present synthetic aperture radar satellite image based artificial intelligence fuzzy logic developed spill recognized expert dark pattern characteristic shape particular context analyzes satellite image assigns probability dark image shape spill output consists image table providing user relevant information decision making study area aegean greece responded satisfactorily image processed complete algorithmic procedure coded visual stand dynamic link library linked sort application variant window operating</t>
+          <t>license plate recognition divided following step preprocessing plate region extraction plate region thresholding character segmentation character recognition post processing step combination color shape information plate satisfactory extraction result achieved step channel selected threshold computed finally region thresholded step character segmented vertical horizontal direction tentative optimization applied step euclidean distance based template matching confusing character special processing necessary step validity checked machine manual experiment performed program based aforementioned algorithm indicates based color image processing quick accurate</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.086|x4: 0.188|x5: 0.189|x6: 0.256|x7: 0.000|x8: 0.124|x9: 0.238|x10: 0.067|x11: 0.000|x12: 0.426|x13: 0.263|x14: 0.296|x15: 0.316|x16: 0.182|x17: 0.000</t>
+          <t>x1: 0.151|x2: 0.128|x3: 0.000|x4: 0.276|x5: 0.172|x6: 0.196|x7: 0.273|x8: 0.208|x9: 0.128|x10: 0.156|x11: 0.143|x12: 0.200|x13: 0.093|x14: 0.000|x15: 0.066|x16: 0.219|x17: 0.000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.43]</t>
+          <t>[0.00, 0.14, 0.28]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[12, 15, 14, 13, 6, 9, 5, 4, 16, 8]</t>
+          <t>[4, 7, 16, 8, 12, 6, 5, 10, 1, 11, 2, 9]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.42595910419868865, 0.3158923171596854, 0.2956791187286605, 0.2630759835036764, 0.2557264336327774, 0.23774810396371815, 0.18949390690875895, 0.188028718019299, 0.18183476093095846, 0.12425146367539673]</t>
+          <t>[0.2764714730929501, 0.272685754789257, 0.2194190466549056, 0.20806350244721886, 0.20003492712761092, 0.19614913312787258, 0.1717518277040861, 0.15595806730561676, 0.150876963755594, 0.14261706306420696, 0.12811566777696606, 0.12767975374631524]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4212,32 +4212,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>understanding specific relationship ecological socioeconomic condition marine tenure contribute successful functioning self governance institution common pool resource complex factor influencing fishing activity coastal community implementation customary marine tenure water represented bayesian belief network model developed bayesian belief network model includes link factor fishing community island indonesia based indepth local survey result showed cumulative impact multiple factor social economic environmental outcome larger impact single source implies management policy intervention effective addressing multiple factor simultaneously local community perception fish stock abundance trend single important factor influencing social economic environmental outcome community based management frequency outsider sighted territorial water strongly negatively linked weak strong implementation customary tenure sasi occurrence intervillage intravillage conflict ecological variable drive conflict illustrates close connection ecological social outcome importance considering social ecological</t>
+          <t>nonlinear artificial intelligence ensemble prediction naiep model developed predicting typhoon based multiple neural network expected output evolutionary genetic algorithm model validated short range forecast typhoon south china result naiep model clearly better climatology persistence cliper model forecast typhoon identical predictor sample prediction genetic neural network ensemble prediction gnnep model compared single prediction model proven theoretically accurate computation analysis generalization capacity gnnep demonstrate prediction ensemble model integrates prediction optimized ensemble member generalization capacity ensemble prediction model enhanced model better address overfitting problem generally exists traditional neural network approach practical weather prediction</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.173|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.264|x6: 0.179|x7: 0.000|x8: 0.077|x9: 0.146|x10: 0.000|x11: 0.156|x12: 0.206|x13: 0.244|x14: 0.215|x15: 0.167|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.130|x2: 0.373|x3: 0.000|x4: 0.150|x5: 0.110|x6: 0.368|x7: 0.478|x8: 0.179|x9: 0.483|x10: 0.117|x11: 0.330|x12: 0.148|x13: 0.207|x14: 0.086|x15: 0.051|x16: 0.155|x17: 0.000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.26]</t>
+          <t>[0.00, 0.20, 0.48]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[5, 13, 14, 12, 6, 1, 15, 11, 9]</t>
+          <t>[9, 7, 2, 6, 11, 13, 8, 16, 4, 12, 1, 10, 5]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.2643648100134093, 0.24405945278964644, 0.2151328104286323, 0.2064669974975213, 0.17937947521485145, 0.17266831287002465, 0.16668331225757824, 0.1555523492115244, 0.14586043932282539]</t>
+          <t>[0.4830401482532427, 0.47824249219514753, 0.37342077754711045, 0.3679395299781119, 0.3302307527109429, 0.2071466111999134, 0.17874125303155422, 0.15455830620115923, 0.14991540581314583, 0.1476615829765861, 0.12961397476288491, 0.11650185594734941, 0.10993084206476787]</t>
         </is>
       </c>
       <c r="H93" t="b">
@@ -4253,32 +4253,32 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>wallis alofi futuna island central pacific ocean characterized different reef geomorphology following request local environment service developed indicative conservation plan island objective representing extent coral reef habitat area keeping subsistence fishing ground open extraction objective ambitious current convention biological diversity aichi target objective achieved simultaneously large compromise needed size island dependence local community coral reef resource fishery objective significantly limited extent habitat available conservation problem exacerbated conservation plan larger conservation unit complex habitat typology result indicate international conservation guideline carefully adapted pacific island incentive feasible necessary reduction available fishing ground probably needed</t>
+          <t>automatic video analysis urban surveillance camera fast emerging field based vision technique present comprehensive review state vision traffic video critical analysis outlook future research direction field increasing relevance intelligent transport decreasing hardware cost increasing deployment camera opened wide application field video analytics monitoring objective congestion traffic rule violation vehicle interaction targeted camera typically originally installed human operator detection classification vehicle highway successfully classical visual surveillance technique background estimation motion tracking time urban domain challenging respect traffic density camera angle lead degree occlusion variety road user method object categorization modeling inspired advanced technique tackle challenge commonly benchmark challenge direct comparison proposed algorithm difficult addition evaluation challenging weather condition rain darkness desirable rarely performed future work directed robust combined detector classifier road user focus realistic condition evaluation</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.211|x2: 0.110|x3: 0.000|x4: 0.119|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.097|x10: 0.053|x11: 0.000|x12: 0.080|x13: 0.162|x14: 0.264|x15: 0.313|x16: 0.107|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.132|x3: 0.328|x4: 0.078|x5: 0.223|x6: 0.246|x7: 0.000|x8: 0.071|x9: 0.000|x10: 0.157|x11: 0.310|x12: 0.000|x13: 0.233|x14: 0.155|x15: 0.245|x16: 0.277|x17: 0.000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.31]</t>
+          <t>[0.00, 0.15, 0.33]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[15, 14, 1, 13, 4, 2, 16]</t>
+          <t>[3, 11, 16, 6, 15, 13, 5, 10, 14, 2]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.3128326727286172, 0.2641155454695094, 0.21063174664420714, 0.16204689013691861, 0.11903384991878391, 0.10987295279065439, 0.10725384260981459]</t>
+          <t>[0.3282956758422698, 0.31024256636429615, 0.27688673320466956, 0.24566389743175102, 0.24517552999901912, 0.23275732960164894, 0.22275219361749046, 0.15727119904993028, 0.15493537033013413, 0.13198101294655062]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4294,32 +4294,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>competition marine space recognized challenge implementation activity emerging blue growth initiative amplify competition marine spatial planning framework requires decision maker analyse spatially explicit environmental socio economic determine user conflict emerge consider potential management scenario present research spatially explicit bayesian belief network applied purpose developed analyse potential reallocation artisanal fishing effort alternative site introduction area offshore aquaculture site basque continental shelf constructed model combined discrete operational fishery continuous environmental expert judgment produce fishing activity suitability different metier longlines trap effort reallocation scenario metier best alternative fishing location identified based environmental suitability past revenue past fishing presence closure lesser effect longline activity displacing local fishing effort respectively comparatively local effort trap took place closed ground alternative site identified greatest number alternative fishing ground surrounding aquaculture site present research demonstrates bbns support spatially explicit scenario building user user conflict analysis sustainable successful ecosystem based marine spatial planning</t>
+          <t>loss matter captured statistic dollar value engineer chipping away staggering number long time seat belt save thousand supercomputer designer create frame body protect inside absorbing energy crash possible result number fatality mile vehicle travel decreased ultimate solution save life limb money smashing place exactly engineer united state europe japan trying applying advanced microprocessor radar speed signal processing chip algorithm program mark face automotive industry safety kick accident occurs attempting minimize injury damage prevent collision altogether collision avoidance feature road pricey adaptive cruise control option group luxury</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.191|x3: 0.000|x4: 0.082|x5: 0.000|x6: 0.083|x7: 0.116|x8: 0.000|x9: 0.146|x10: 0.095|x11: 0.116|x12: 0.134|x13: 0.324|x14: 0.313|x15: 0.157|x16: 0.100|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.164|x4: 0.180|x5: 0.284|x6: 0.161|x7: 0.122|x8: 0.000|x9: 0.251|x10: 0.119|x11: 0.333|x12: 0.242|x13: 0.260|x14: 0.342|x15: 0.278|x16: 0.233|x17: 0.000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.32]</t>
+          <t>[0.00, 0.17, 0.34]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[13, 14, 2, 15, 9, 12, 11, 7, 16]</t>
+          <t>[14, 11, 5, 15, 13, 9, 12, 16, 4, 3, 6, 7, 10]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.32419990304094726, 0.3133268027022865, 0.19094272212945607, 0.1572709867121675, 0.1463652773363189, 0.13406947262181293, 0.11603691264552667, 0.11570684266437353, 0.10000648815542311]</t>
+          <t>[0.34206410924357306, 0.3327774925730429, 0.28358568243133775, 0.27773237827875424, 0.2598082181595289, 0.2509880701167725, 0.24214937529334138, 0.2329063734329694, 0.17984798263092178, 0.16403460854363483, 0.1605465744757945, 0.12233581531439734, 0.11903053764858511]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4335,32 +4335,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>predicting oceanic process encountered problematic dynamic coastal water diverse physical chemical biological factor interact varied rapidly changing combination defining process requires efficient sampling specific water mass prompt sample return subsequent analysis compound challenge motivated effort develop mobile autonomous process sampling autonomous underwater vehicle auvs feature recognized artificial intelligence integrates sensor estimate probabilistic state adaptive control survey navigation triggering targeted water sampler demonstrate utility focused intermediate nepheloid layer inls episodic transport event play role zooplankton ecology multiple field test monterey california recognized mapped sampled inls invertebrate larva contained water sample subsequently characterized molecular probe developed throughput screening preliminary result support hypothesis inls function vehicle episodic larval transport applying greater coastal ocean observing permitted description regional oceanographic dynamic influenced pattern scale larval transport</t>
+          <t>harmful algal bloom considered environmental problem nowadays occur coastal water world cause acute ecological damage ensuing economic loss fish kill shellfish poisoning public health threat posed toxic bloom recently driven model including machine learning technique employed mimic dynamic algal bloom important step application technique selection significant model input variable present paper extensively technique artificial neural network genetic programming selecting significant input variable efficacy technique demonstrated test problem known dependence applied world study water quality tolo harbour hong kong technique overcome limitation currently technique input variable selection review presented interpretation weight trained evolved equation demonstrate ability identify ecologically significant variable precisely significant variable suggested technique indicate chlorophyll chla significant input predicting algal bloom suggesting auto regressive nature persistence algal bloom dynamic related long flushing time semi enclosed coastal water study confirms previous understanding algal bloom coastal water hong kong occur life cycle order week</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.203|x2: 0.075|x3: 0.081|x4: 0.000|x5: 0.000|x6: 0.059|x7: 0.171|x8: 0.171|x9: 0.279|x10: 0.000|x11: 0.136|x12: 0.247|x13: 0.231|x14: 0.140|x15: 0.238|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.083|x2: 0.255|x3: 0.000|x4: 0.228|x5: 0.175|x6: 0.208|x7: 0.181|x8: 0.115|x9: 0.218|x10: 0.121|x11: 0.205|x12: 0.143|x13: 0.054|x14: 0.225|x15: 0.000|x16: 0.189|x17: 0.000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.28]</t>
+          <t>[0.00, 0.14, 0.25]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[9, 12, 15, 13, 1, 7, 8, 14, 11]</t>
+          <t>[2, 4, 14, 9, 6, 11, 16, 7, 5, 12, 10, 8]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.2786610923506202, 0.24700247086058721, 0.2376857635885568, 0.23145867211261678, 0.2028282256955925, 0.17120130540549583, 0.1708407969957484, 0.1396639935052229, 0.1360646435399073]</t>
+          <t>[0.2545383500958861, 0.22793428433968183, 0.22519298446210437, 0.21805168425235483, 0.2081337521058205, 0.20468033035067001, 0.18942499582727845, 0.18098470395874702, 0.17517957730996375, 0.1433713440223884, 0.12130174487468054, 0.11503262398836137]</t>
         </is>
       </c>
       <c r="H96" t="b">
@@ -4376,39 +4376,39 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>canada pacific coast region renewed commitment pursue marine spatial planning british columbia marine conservation analysis bcmca project aimed stage designed provide resource manager scientist decision maker stakeholder resource inform coast wide integrated marine planning management initiative geographic information decision support tool marxan develop main product atlas known marine ecological value human analysis area conservation value human value biophysical datasets human datasets collated refined applicable identified ecological expert workshop expert review physical marine classification representation guidance human working group ecological richness marxan result importance nearshore continental shelf region richness category human shipping transport closely linked shoreline continental shelf example ecological marxan solution identifying area conservation value overlapped human sector footprint percentage ranging planning unit selected marxan contain commercial fishery experience bcmca project potential provide valuable guidance region seeking jump start planning process collating spatial information carrying exploratory analysis</t>
+          <t>forest importantly influence environment life ability accurately predicting area involved forest event help optimizing management effort given complexity task powerful computational tool needed predicting area burned forest purpose study develop intelligent based genetic programming prediction burned area related forest analysis meteorological geometric semantic genetic programming based recently defined geometric semantic genetic operator genetic programming experimental result achieved database forest event showed appropriateness proposed prediction burned area particular result obtained geometric semantic genetic programming significantly better produced standard genetic programming state machine learning method training sample study suggests deeper investigation genetic programming field forest prediction productive giere investigaciones profundas programacion genetica campo prediccion incendios forestales pueden productivas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.069|x5: 0.131|x6: 0.117|x7: 0.179|x8: 0.041|x9: 0.234|x10: 0.000|x11: 0.099|x12: 0.211|x13: 0.241|x14: 0.170|x15: 0.167|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.326|x3: 0.000|x4: 0.116|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.071|x9: 0.106|x10: 0.061|x11: 0.064|x12: 0.063|x13: 0.088|x14: 0.212|x15: 0.202|x16: 0.090|x17: 0.000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.24]</t>
+          <t>[0.00, 0.08, 0.33]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[13, 9, 12, 7, 14, 15, 5, 6]</t>
+          <t>[2, 14, 15, 4, 9]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.2410562536806964, 0.2339249428081821, 0.2106463862829793, 0.17892623176010353, 0.16985639969915065, 0.1671114350651627, 0.13107361713124513, 0.11736169095042442]</t>
+          <t>[0.3262904924688024, 0.21187589012335936, 0.20179418509645022, 0.11622380406495987, 0.10614118758352646]</t>
         </is>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4417,32 +4417,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>conservation planning research influenced conservation action globally decade successful implementation systematic conservation plan region customary marine tenure exists minimal region local community knowledge understanding socioeconomic reality offer best spatially explicit information analysis required socioeconomic available scale relevant conservation planning process undertaken kadavu yaubula management support team team researcher university south pacific local community systematic conservation planning tool effectively applied useful customary governance context study fiji participatory approach meeting local scale conservation fishery need spatial conservation planning tool marxan zone reconfigure collection locally designed marine protected area province kadavu order achieve broader objective local scale value tool process identifying conceptualising management issue working community collate participatory technique engaging community management decision making output tool secondary value outcome invaluable developing marine protected area network design approach combine traditional knowledge ecological feature manner appropriate melanesian context</t>
+          <t>pedestrian vulnerable traffic participant motion prediction utmost importance intelligent transportation predicting motion pedestrian especially hard structured environment inertia compared road vehicle account uncertainty present approach probabilistic prediction pedestrian motion markov chain contrast previous work consider motion model constraint semantic goal explicitly adapt prediction based crash probability traffic participant approach work situation typically challenging pure machine learning technique learn behavior particular road section consequently struggle different road section usefulness combining aforementioned aspect single approach demonstrated evaluation recording pedestrian</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.113|x2: 0.000|x3: 0.000|x4: 0.264|x5: 0.000|x6: 0.127|x7: 0.054|x8: 0.000|x9: 0.275|x10: 0.094|x11: 0.130|x12: 0.251|x13: 0.216|x14: 0.243|x15: 0.144|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.170|x2: 0.170|x3: 0.191|x4: 0.321|x5: 0.241|x6: 0.238|x7: 0.446|x8: 0.235|x9: 0.307|x10: 0.133|x11: 0.131|x12: 0.273|x13: 0.305|x14: 0.000|x15: 0.117|x16: 0.164|x17: 0.000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.28]</t>
+          <t>[0.00, 0.20, 0.45]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[9, 4, 12, 14, 13, 15, 11, 6, 1]</t>
+          <t>[7, 4, 9, 13, 12, 5, 6, 8, 3, 1, 2, 16, 10, 11, 15]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.2750001447180909, 0.26384140213533835, 0.25139171086510037, 0.2434458069444708, 0.2158696557866198, 0.14392696191929136, 0.13003138993552996, 0.12712564646825628, 0.11287998623787483]</t>
+          <t>[0.44642617499534293, 0.3214732538875961, 0.30654660635242975, 0.30519907753571945, 0.27326382155419504, 0.24060277889095635, 0.2384880338897661, 0.23489912060968235, 0.1905463097586367, 0.17033677550169343, 0.16975466984099274, 0.1637236324592629, 0.13281796450810052, 0.1313541430771568, 0.11655903849317861]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4458,32 +4458,32 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>environmental economic impact exotic fungal specie natural plantation forest historically catastrophic recorded surveillance control action challenging costly time consuming hazardous remote area prolonged period testing observation site based test limitation verify rapid proliferation exotic pathogen deterioration rate host recent remote sensing approach offered fast broad scale affordable survey additional indicator complement ground test paper proposes framework consolidates site based insight remote sensing capability detect segment deterioration fungal pathogen natural plantation forest approach illustrated experimentation myrtle rust austropuccinia psidii paperbark tree melaleuca quinquenervia south wale australia method integrates unmanned aerial vehicle uavs hyperspectral image sensor processing algorithm machine learning imagery acquired headwall nano hyperspec camera orthorectified headwall spectralview processed python programming language extreme gradient boosting xgboost geospatial abstraction library gdal scikit learn library sample extracted labelled class class deterioration status class background object insight reveal individual detection rate healthy tree deteriorated tree global multiclass detection rate methodology versatile applied additional datasets taken different image sensor processing large datasets freeware tool</t>
+          <t>recent advance field artificial intelligence increasing number decision making task delegated software requirement success adoption user trust choice fully automated decision achieve explanation facility widely investigated mean establishing trust early expert today increasingly sophisticated machine learning algorithm challenge context explanation accountability trust constantly arise work systematically review literature explanation advice giving family includes recommender successful class advicegiving software practice investigate purpose explanation generated presented user evaluated result derive novel comprehensive taxonomy aspect considered designing explanation facility current future decision support taxonomy includes variety different facet explanation objective responsiveness content presentation identified challenge remain unaddressed example related fine grained issue associated presentation explanation explanation facility evaluated</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.080|x3: 0.147|x4: 0.000|x5: 0.126|x6: 0.050|x7: 0.167|x8: 0.000|x9: 0.052|x10: 0.160|x11: 0.000|x12: 0.100|x13: 0.093|x14: 0.195|x15: 0.280|x16: 0.091|x17: 0.000</t>
+          <t>x1: 0.062|x2: 0.206|x3: 0.105|x4: 0.084|x5: 0.275|x6: 0.312|x7: 0.131|x8: 0.085|x9: 0.061|x10: 0.092|x11: 0.173|x12: 0.292|x13: 0.235|x14: 0.320|x15: 0.248|x16: 0.145|x17: 0.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.28]</t>
+          <t>[0.00, 0.17, 0.32]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[15, 14, 7, 10, 3, 5]</t>
+          <t>[14, 6, 12, 5, 15, 13, 2, 11, 16, 7, 3]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.2803763070716851, 0.19494300118634575, 0.16659063725967937, 0.16000509266655147, 0.14727294505478492, 0.1259842625446066]</t>
+          <t>[0.31953545052944304, 0.31216343820906334, 0.292063554727029, 0.2749105867556514, 0.24803952998176168, 0.23465590726280008, 0.20635398992823964, 0.17257549149009813, 0.14534952884754127, 0.13053871384227936, 0.10453377159275531]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4499,32 +4499,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>conservation planning integral strategic effective operation conservation organization drawing biological science conservation planning historically limited social offer approach integrating social conservation planning capture place context spatial pattern trend human need capacity hierarchical approach provides nested framework characterizing mapping social domain economic health political empowerment education culture domain multiple attribute attribute characterized indicator existing novel display spatial temporal heterogeneity social conservation scientist planner decision maker measure benchmark integrate conservation planning process selecting indicator integrating conservation planning iterative participatory process tailored local context planning goal social complement biophysical threat oriented social conservation planning process inform decision conserve biodiversity provide structure exploring socioecological relationship foster adaptive management building existing conservation planning method insight multiple discipline approach putting readily merge current planning practice facilitate rigorous decision making</t>
+          <t>rapid progress machine learning artificial intelligence brought increasing attention potential impact technology society paper discus potential impact problem accident machine learning defined unintended harmful behavior emerge poor design world present list practical research problem related accident risk categorized according problem originates having wrong objective function avoiding effect avoiding reward hacking objective function expensive evaluate frequently scalable supervision undesirable behavior learning process safe exploration distributional shift review previous work area suggesting research direction focus relevance cutting edge finally consider level question think productively safety forward looking application</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[1, 15]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.161|x2: 0.000|x3: 0.000|x4: 0.068|x5: 0.087|x6: 0.000|x7: 0.126|x8: 0.000|x9: 0.000|x10: 0.139|x11: 0.175|x12: 0.188|x13: 0.290|x14: 0.164|x15: 0.182|x16: 0.086|x17: 0.000</t>
+          <t>x1: 0.089|x2: 0.000|x3: 0.205|x4: 0.000|x5: 0.241|x6: 0.106|x7: 0.000|x8: 0.122|x9: 0.068|x10: 0.072|x11: 0.159|x12: 0.163|x13: 0.311|x14: 0.360|x15: 0.195|x16: 0.090|x17: 0.000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.29]</t>
+          <t>[0.00, 0.13, 0.36]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[13, 12, 15, 11, 14, 1, 10, 7]</t>
+          <t>[14, 13, 5, 3, 15, 12, 11, 8, 6]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.28981123082582955, 0.1878732591132038, 0.181789862234941, 0.17547526743693626, 0.16394391264826755, 0.1609698396652628, 0.13941415446261998, 0.1257783998762507]</t>
+          <t>[0.36014152970474056, 0.3112648134484417, 0.24056521254488464, 0.20549388678053127, 0.19533854601795766, 0.16331535600735214, 0.15928148037687553, 0.12210214793130567, 0.10630259565578472]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4540,32 +4540,32 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ecoacoustic monitoring proved viable approach capture ecological related animal community expert manually annotate audio sample analysis large datasets significantly facilitated automatic pattern recognition method unsupervised learning method require labelled particularly suited analyse poorly documented habitat tropical environment propose method named multiresolution analysis acoustic diversity maad automate detection relevant structure audio maad designed decompose acoustic community elementary component soundtypes based time frequency attribute short time fourier transform detect region time frequency domain characterised estimating median frequency running wavelet analysis multiple scale angle finally grouped model based subspace clustering technique automatically annotated clustered soundtypes test performance automatic method applied maad distinct tropical environment french guiana lowland rainforest rock savanna compared manual automatic annotation adjusted rand similarity manual automated partition consistent indicating cluster intelligible analysis weight feature estimated clustering process revealed important information structure acoustic community particular median frequency strongest effect modelling cluster classification performance suggesting role community organisation number cluster maad regarded estimation soundtype richness given environment maad comprehensive promising method automatically analyse passive acoustic recording combining maad manual analysis maximally exploit strength human reasoning algorithm composition acoustic community estimated accurately quickly large scale</t>
+          <t>current globalization faced challenge meet continuously growing worldwide demand capital consumer good simultaneously ensuring sustainable evolvement human existence social environmental economic dimension order cope challenge industrial value creation geared sustainability currently industrial value creation early industrialized country shaped development fourth stage called industry development provides immense opportunity realization sustainable manufacturing paper present state review industry based recent development research practice subsequently overview different opportunity sustainable manufacturing industry presented retrofitting manufacturing equipment specific opportunity sustainable manufacturing industry exemplarily outlined</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[12]</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.105|x5: 0.000|x6: 0.190|x7: 0.136|x8: 0.223|x9: 0.215|x10: 0.000|x11: 0.233|x12: 0.298|x13: 0.133|x14: 0.168|x15: 0.202|x16: 0.079|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.118|x3: 0.133|x4: 0.233|x5: 0.062|x6: 0.075|x7: 0.157|x8: 0.081|x9: 0.413|x10: 0.109|x11: 0.209|x12: 0.378|x13: 0.206|x14: 0.000|x15: 0.158|x16: 0.178|x17: 0.000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.30]</t>
+          <t>[0.00, 0.15, 0.41]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[12, 11, 8, 9, 15, 6, 14, 7, 13, 4]</t>
+          <t>[9, 12, 4, 11, 13, 16, 15, 7, 3, 2, 10]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.29802529632530467, 0.23295976156631407, 0.2229034077738215, 0.215142535641369, 0.20192427123044168, 0.18954580456749576, 0.16842767101969564, 0.1356817908796564, 0.13293158540183325, 0.10526029439068353]</t>
+          <t>[0.4134196678715728, 0.37773655218388413, 0.23346479522411298, 0.20942140149384944, 0.20590909224595524, 0.17833715559312707, 0.15812883604129221, 0.1565786068852888, 0.1327731097143066, 0.11794547124717332, 0.10865805988110001]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4581,39 +4581,39 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>extensive research ecosystem service mapped survey based biophysical approach comparative mapping public value quantified model lacking paper mapped cold spot perceived modeled ecosystem service synthesizing result social value mapping study resident living near pike isabel national forest located southern rocky mountain corresponding biophysically modeled ecosystem service social value developed social value ecosystem service tool providing statistically modeled continuous value surface value type including aesthetic biodiversity life sustaining value biophysically modeled carbon sequestration storage scenic viewsheds sediment regulation water yield generated artificial intelligence ecosystem service tool hotspot perceived modeled service located wilderness area additionally regression analysis evaluate spatial relationship perceived biodiversity cultural ecosystem service corresponding biophysical model output goal determine publicly valued location aesthetic biodiversity life sustaining value relate meaningfully result corresponding biophysical ecosystem service model weak relationship perceived biophysically modeled service indicating public perception ecosystem service provisioning region limited believe biophysical social approach ecosystem service mapping serve methodological complement advance ecosystem service based resource management benefitting resource manager showing potential location synergy conflict area supplying ecosystem service valued public</t>
+          <t>climate impact study hydrology rely climate change information fine spatial resolution general circulation model gcms advanced tool estimating future climate change scenario operate coarse scale output downscaled obtain information relevant hydrologic study paper support vector machine approach proposed statistical downscaling precipitation monthly time scale effectiveness approach illustrated application meteorological division msds india climate variable affecting spatio temporal variation precipitation india identified following pertaining identified climate variable predictor classified cluster analysis group representing season based downscaling model developed season significant rainfall principal component extracted predictor input contemporaneous precipitation observed output proposed shown superior conventional downscaling multi layer propagation artificial neural network subsequently based applied future climate prediction second generation coupled global climate model cgcm obtain future projection precipitation msds result analyzed impact climate change precipitation india shown svms provide promising alternative conventional artificial neural network statistical downscaling suitable conducting climate impact study</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[13]</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.103|x5: 0.155|x6: 0.172|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.094|x12: 0.055|x13: 0.098|x14: 0.233|x15: 0.066|x16: 0.167|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.135|x3: 0.156|x4: 0.105|x5: 0.080|x6: 0.137|x7: 0.378|x8: 0.137|x9: 0.376|x10: 0.084|x11: 0.250|x12: 0.162|x13: 0.235|x14: 0.244|x15: 0.126|x16: 0.109|x17: 0.000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.23]</t>
+          <t>[0.00, 0.17, 0.38]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[14, 6, 16, 5, 4]</t>
+          <t>[7, 9, 11, 14, 13, 12, 3, 8, 6, 2, 15, 16, 4]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.23288946120037587, 0.17245630214467877, 0.16749561498706525, 0.1547262523162641, 0.10313143709869066]</t>
+          <t>[0.377980827498767, 0.3762391940130675, 0.25041934301555774, 0.2442876501122866, 0.2349185704150391, 0.16154508921332408, 0.1562978825406501, 0.13706333180791314, 0.1366570784618654, 0.13516106925054186, 0.1260144652645661, 0.10875563329138797, 0.10461835821233444]</t>
         </is>
       </c>
       <c r="H102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -4622,32 +4622,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>effective sustainable forest management broad area need consistent country wide forest inventory stand level inventory appropriate unit local regional forest management south korea currently produce forest type contains categorical parameter stand crucial forest attribute understanding forest ecosystem currently missing included future forest type estimation forest stand challenging south korea stand exist irregular patch highly rugged terrain study proposed stand estimation model suitable rugged terrain highly mixed tree specie arithmetic mean target variable plot level estimation model developed descriptive statistic airborne light detection ranging lidar machine learning approach support vector regression modified regression tree random forest scheme central plot based scheme stand based scheme expanding plot level stand level investigated result showed varied performance metric coefficient determination root mean square error mean bias model forest estimation plot level statistically significant difference mean plot model term estimated bias value stand level validation based tree measurement selected stand produced varied result scheme machine learning implies additional reference thorough stand level validation identify statistically robust approach future nonetheless research finding study guide estimating stand forest rugged terrain complex composition tree specie</t>
+          <t>fully automated identification possible spill present synthetic aperture radar satellite image based artificial intelligence fuzzy logic developed spill recognized expert dark pattern characteristic shape particular context analyzes satellite image assigns probability dark image shape spill output consists image table providing user relevant information decision making study area aegean greece responded satisfactorily image processed complete algorithmic procedure coded visual stand dynamic link library linked sort application variant window operating</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.186|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.177|x6: 0.096|x7: 0.000|x8: 0.110|x9: 0.000|x10: 0.082|x11: 0.000|x12: 0.141|x13: 0.106|x14: 0.109|x15: 0.183|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.136|x2: 0.167|x3: 0.000|x4: 0.230|x5: 0.216|x6: 0.336|x7: 0.177|x8: 0.187|x9: 0.140|x10: 0.105|x11: 0.304|x12: 0.344|x13: 0.327|x14: 0.185|x15: 0.109|x16: 0.130|x17: 0.000</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.19]</t>
+          <t>[0.00, 0.18, 0.34]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[1, 15, 5, 12, 8, 14, 13]</t>
+          <t>[12, 6, 13, 11, 4, 5, 8, 14, 7, 2, 9, 1, 16, 15, 10]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.18598670573124756, 0.18285271748239315, 0.17725136605832603, 0.14065180445743208, 0.11021447541442832, 0.10935255308516847, 0.10604687003471812]</t>
+          <t>[0.34374114184449606, 0.33626868299195756, 0.3272549784875737, 0.30428465799964366, 0.22972059198374353, 0.21578493405029703, 0.1868909325721921, 0.18530385206654312, 0.17659161614690785, 0.1666370312290784, 0.14029839499558242, 0.1355237037168347, 0.1297565260221334, 0.10909755490587361, 0.1054125317031069]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4663,36 +4663,36 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>tropical forest condition important implication biodiversity climate change human need structural feature forest serve useful indicator forest condition potential assessed remotely sensed imagery provide quantitative information forest ecosystem temporal spatial resolution investigate utility remote sensing assessing predicting mapping important forest structural feature stem density basal area tropical littoral forest southeastern madagascar analysed relationship basal area stem density measurement normalised difference vegetation ndvi radiance measurement band landsat enhanced thematic mapper plus strong relationship identified individual band field based measurement basal area weak insignificant relationship spectral response stem density measurement ndvi significantly correlated basal area strongly significantly correlated stem density subset represented extreme value artificial neural network predict basal area radiance value band produce predictive basal area entire forest landscape anns produced strong significant relationship predicted actual measure basal area jackknife method larger predicted basal area produced assessed relation existing forest condition derived field assessment predictive basal area provided finer stand structural heterogeneity captured known climatic influence forest structure displayed trend basal area associated degree human accessibility finding demonstrate utility anns integrating satellite landsat spectral band limited field survey pattern basal area landscape scale</t>
+          <t>understanding specific relationship ecological socioeconomic condition marine tenure contribute successful functioning self governance institution common pool resource complex factor influencing fishing activity coastal community implementation customary marine tenure water represented bayesian belief network model developed bayesian belief network model includes link factor fishing community island indonesia based indepth local survey result showed cumulative impact multiple factor social economic environmental outcome larger impact single source implies management policy intervention effective addressing multiple factor simultaneously local community perception fish stock abundance trend single important factor influencing social economic environmental outcome community based management frequency outsider sighted territorial water strongly negatively linked weak strong implementation customary tenure sasi occurrence intervillage intravillage conflict ecological variable drive conflict illustrates close connection ecological social outcome importance considering social ecological</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[13, 15]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.059|x4: 0.000|x5: 0.140|x6: 0.086|x7: 0.000|x8: 0.000|x9: 0.119|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.097|x14: 0.170|x15: 0.158|x16: 0.106|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.168|x3: 0.000|x4: 0.174|x5: 0.167|x6: 0.224|x7: 0.309|x8: 0.071|x9: 0.160|x10: 0.096|x11: 0.199|x12: 0.224|x13: 0.277|x14: 0.392|x15: 0.081|x16: 0.158|x17: 0.000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.17]</t>
+          <t>[0.00, 0.16, 0.39]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[14, 15, 5, 9, 16]</t>
+          <t>[14, 7, 13, 6, 12, 11, 4, 2, 5, 9, 16]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.16953986298029455, 0.15787188003228594, 0.13985922001694434, 0.11900784660395641, 0.10612399084134717]</t>
+          <t>[0.39179867886252145, 0.30898263362569045, 0.2769993371792661, 0.22439148091289302, 0.22397963119044156, 0.19940209284797628, 0.17356390327343424, 0.1679819912665207, 0.1672067792126913, 0.15964812671451392, 0.157628884601168]</t>
         </is>
       </c>
       <c r="H104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="b">
         <v>1</v>
@@ -4704,39 +4704,39 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>marxan widely conservation planning software world designed solving complex conservation planning problem landscape seascape paper substantial extension marxan called marxan zone decision support tool provides landuse zoning option geographical region biodiversity conservation function designed enhance original marxan software expand utility decision support tool major element decision problem allowing parcel land allocated specific zone reserved unreserved zone option action objective constraint flexibility define contribution zone achieve target specified feature specie habitat objective minimize cost implementing zoning plan ensuring variety conservation land objective achieved outline capability limitation additional requirement software perform comparison original version marxan feature number study demonstrate functionality software highlight flexibility address range complex spatial planning problem study demonstrate design multiple marine park western australia california zoning forest east kalimantan</t>
+          <t>wallis alofi futuna island central pacific ocean characterized different reef geomorphology following request local environment service developed indicative conservation plan island objective representing extent coral reef habitat area keeping subsistence fishing ground open extraction objective ambitious current convention biological diversity aichi target objective achieved simultaneously large compromise needed size island dependence local community coral reef resource fishery objective significantly limited extent habitat available conservation problem exacerbated conservation plan larger conservation unit complex habitat typology result indicate international conservation guideline carefully adapted pacific island incentive feasible necessary reduction available fishing ground probably needed</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.181|x5: 0.096|x6: 0.000|x7: 0.052|x8: 0.000|x9: 0.163|x10: 0.000|x11: 0.125|x12: 0.200|x13: 0.120|x14: 0.161|x15: 0.096|x16: 0.055|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.100|x3: 0.000|x4: 0.000|x5: 0.119|x6: 0.051|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.071|x11: 0.177|x12: 0.178|x13: 0.351|x14: 0.518|x15: 0.352|x16: 0.115|x17: 0.000</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.20]</t>
+          <t>[0.00, 0.12, 0.52]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[12, 4, 9, 14, 11, 13]</t>
+          <t>[14, 15, 13, 12, 11, 5, 16, 2]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.20011788431243324, 0.18050443546691583, 0.16287367821697424, 0.16141113544360564, 0.12538527381465422, 0.11956728350254647]</t>
+          <t>[0.5182629779863562, 0.35166844732043107, 0.35106722350676617, 0.17829264054381497, 0.1766354640628107, 0.11949234777184399, 0.11536497115223607, 0.10038145501450543]</t>
         </is>
       </c>
       <c r="H105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -4745,39 +4745,39 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>despite extensive research demonstrating benefit applying cost effective conservation technique optimization large remains evidence research action profession design implement conservation program study examines international survey conservation professional familiar cost effective conservation technique primary result study replicate previous result smaller sample agricultural preservation professional vast majority survey respondent viewed cost effectiveness virtue ultimately consider important program design criterion result reinforce idea advocate cost effective conservation need address concern fairness transparency remedy knowledge expertise professional involved finally lack incentive conservation professional change practice challenge public pressure encouragement experimentation evidence based policy improve cost effectiveness conservation</t>
+          <t>competition marine space recognized challenge implementation activity emerging blue growth initiative amplify competition marine spatial planning framework requires decision maker analyse spatially explicit environmental socio economic determine user conflict emerge consider potential management scenario present research spatially explicit bayesian belief network applied purpose developed analyse potential reallocation artisanal fishing effort alternative site introduction area offshore aquaculture site basque continental shelf constructed model combined discrete operational fishery continuous environmental expert judgment produce fishing activity suitability different metier longlines trap effort reallocation scenario metier best alternative fishing location identified based environmental suitability past revenue past fishing presence closure lesser effect longline activity displacing local fishing effort respectively comparatively local effort trap took place closed ground alternative site identified greatest number alternative fishing ground surrounding aquaculture site present research demonstrates bbns support spatially explicit scenario building user user conflict analysis sustainable successful ecosystem based marine spatial planning</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.090|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.169|x12: 0.182|x13: 0.080|x14: 0.214|x15: 0.094|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.079|x3: 0.000|x4: 0.202|x5: 0.218|x6: 0.098|x7: 0.222|x8: 0.000|x9: 0.124|x10: 0.108|x11: 0.131|x12: 0.000|x13: 0.285|x14: 0.397|x15: 0.166|x16: 0.205|x17: 0.000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.21]</t>
+          <t>[0.00, 0.13, 0.40]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[14, 12, 11]</t>
+          <t>[14, 13, 7, 5, 16, 4, 15, 11, 9, 10]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.21370511131806205, 0.182137254038853, 0.1691276008682561]</t>
+          <t>[0.39697483345079365, 0.28458766675190783, 0.22237284781819208, 0.2175513778982917, 0.20522595243162317, 0.2024886342722648, 0.16625946647885326, 0.13116446370248003, 0.12436830104010005, 0.10791980793763262]</t>
         </is>
       </c>
       <c r="H106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -4786,32 +4786,32 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>surveying threatened invasive specie obtain accurate population estimate important challenging task requires considerable investment time resource estimate existing ground based monitoring technique camera trap survey performed foot known resource intensive potentially inaccurate imprecise difficult validate recent development unmanned aerial vehicle artificial intelligence miniaturized thermal imaging represent opportunity wildlife expert inexpensively survey relatively large area presented paper includes thermal image acquisition video processing pipeline perform object detection classification tracking wildlife forest open area tested thermal video ground based test flight footage able detect target wildlife located surveyed area flexible user readily define type object classify object characteristic considered classification</t>
+          <t>artificial intelligence technique neural network fuzzy applied alternative method determine beach litter grading based litter survey antalya coastline turkish riviera litter measurement categorized assessed artificial intelligence technique lead litter categorization constructed neural network satisfactorily predicted grading antalya beach litter category based number litter item general litter category concluded neural network speed prediction litter item beach grading characteristic main litter category field study save field effort fast reliable estimation litter category required management research study beach especially concerned health safety economic implication main advantage fuzzy consider linguistic adjectival definition result additional information inherent linguistic comment refinement judgment field study incorporated grading</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.125|x2: 0.079|x3: 0.079|x4: 0.000|x5: 0.199|x6: 0.000|x7: 0.000|x8: 0.147|x9: 0.000|x10: 0.206|x11: 0.116|x12: 0.115|x13: 0.000|x14: 0.283|x15: 0.186|x16: 0.227|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.137|x3: 0.182|x4: 0.137|x5: 0.195|x6: 0.000|x7: 0.140|x8: 0.065|x9: 0.150|x10: 0.119|x11: 0.000|x12: 0.133|x13: 0.221|x14: 0.397|x15: 0.157|x16: 0.205|x17: 0.000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.28]</t>
+          <t>[0.00, 0.13, 0.40]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[14, 16, 10, 5, 15, 8, 1, 11, 12]</t>
+          <t>[14, 13, 16, 5, 3, 15, 9, 7, 4, 2, 12, 10]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.2825928273561896, 0.22667033890255475, 0.2060884280761995, 0.1986986074361659, 0.18635263523892032, 0.14681906368347225, 0.1249304535214475, 0.11645719254499891, 0.11542368379111564]</t>
+          <t>[0.3969594322139904, 0.22097134000102564, 0.20458696496965217, 0.19542074823100808, 0.1818193859063278, 0.15660705377212114, 0.1497683021953605, 0.14005794430712934, 0.13743341166246145, 0.13691305244815916, 0.13334469599954138, 0.11884016791413503]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4827,39 +4827,39 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>number distribution free ranging giant panda essential formulation effective conservation strategy ideal method identify individual specie traditional bite size method bamboo fragment feces lack accuracy modern based estimation expensive demand fresh sample lack identifiable individual feature panda pelage apparent sexual dimorphism impede reliable estimation camera trap image propose innovative invasive technique identify specie footprint identification technique based pairwise comparison trail unbroken series footprint discriminant analysis ward clustering method collected footprint captive animal train algorithm animal model validation accuracy individual identification individual footprint fewer footprint trail accuracy discrimination single footprint trail cost effective method provides promising future monitoring wild panda population understanding dynamic especially useful monitoring reintroduced animal detachment collar collection protocol straightforward accessible citizen scientist conservation professional alike</t>
+          <t>predicting oceanic process encountered problematic dynamic coastal water diverse physical chemical biological factor interact varied rapidly changing combination defining process requires efficient sampling specific water mass prompt sample return subsequent analysis compound challenge motivated effort develop mobile autonomous process sampling autonomous underwater vehicle auvs feature recognized artificial intelligence integrates sensor estimate probabilistic state adaptive control survey navigation triggering targeted water sampler demonstrate utility focused intermediate nepheloid layer inls episodic transport event play role zooplankton ecology multiple field test monterey california recognized mapped sampled inls invertebrate larva contained water sample subsequently characterized molecular probe developed throughput screening preliminary result support hypothesis inls function vehicle episodic larval transport applying greater coastal ocean observing permitted description regional oceanographic dynamic influenced pattern scale larval transport</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.093|x3: 0.128|x4: 0.000|x5: 0.059|x6: 0.101|x7: 0.205|x8: 0.000|x9: 0.211|x10: 0.000|x11: 0.251|x12: 0.285|x13: 0.072|x14: 0.092|x15: 0.061|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.067|x2: 0.124|x3: 0.111|x4: 0.000|x5: 0.000|x6: 0.273|x7: 0.361|x8: 0.092|x9: 0.492|x10: 0.080|x11: 0.328|x12: 0.187|x13: 0.270|x14: 0.205|x15: 0.282|x16: 0.118|x17: 0.000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.28]</t>
+          <t>[0.00, 0.18, 0.49]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[12, 11, 9, 7, 3, 6]</t>
+          <t>[9, 7, 11, 15, 6, 13, 14, 12, 2, 16, 3]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.2848878913991957, 0.25064696244741, 0.2109694793716224, 0.20496138927997018, 0.12783440115206818, 0.10134775805212844]</t>
+          <t>[0.4920878726361695, 0.36123952035901624, 0.32841942387365813, 0.2815014258841634, 0.27286175071016855, 0.26988975664565, 0.20549873218654596, 0.18697267675129783, 0.12443637723011963, 0.1175528232844012, 0.11088398618366963]</t>
         </is>
       </c>
       <c r="H108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -4868,32 +4868,32 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>increasing number surveillance camera indoor outdoor location grown demand intelligent detects abnormal event human action recognition highly reached topic vision abnormal behavior detection lately attracting research attention proposed order ensure human safety paper interested study main step composing video surveillance behavior representation behavior modeling technique related feature extraction description behavior representation reviewed classification method framework behavior modeling provided available datasets metric performance evaluation presented finally example existing video surveillance world described</t>
+          <t>canada pacific coast region renewed commitment pursue marine spatial planning british columbia marine conservation analysis bcmca project aimed stage designed provide resource manager scientist decision maker stakeholder resource inform coast wide integrated marine planning management initiative geographic information decision support tool marxan develop main product atlas known marine ecological value human analysis area conservation value human value biophysical datasets human datasets collated refined applicable identified ecological expert workshop expert review physical marine classification representation guidance human working group ecological richness marxan result importance nearshore continental shelf region richness category human shipping transport closely linked shoreline continental shelf example ecological marxan solution identifying area conservation value overlapped human sector footprint percentage ranging planning unit selected marxan contain commercial fishery experience bcmca project potential provide valuable guidance region seeking jump start planning process collating spatial information carrying exploratory analysis</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.213|x2: 0.000|x3: 0.287|x4: 0.181|x5: 0.074|x6: 0.127|x7: 0.095|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.343|x12: 0.126|x13: 0.252|x14: 0.117|x15: 0.000|x16: 0.200|x17: 0.000</t>
+          <t>x1: 0.050|x2: 0.260|x3: 0.000|x4: 0.124|x5: 0.140|x6: 0.000|x7: 0.123|x8: 0.069|x9: 0.163|x10: 0.099|x11: 0.169|x12: 0.272|x13: 0.417|x14: 0.387|x15: 0.311|x16: 0.165|x17: 0.000</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.34]</t>
+          <t>[0.00, 0.16, 0.42]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[11, 3, 13, 1, 16, 4, 6, 12, 14]</t>
+          <t>[13, 14, 15, 12, 2, 11, 16, 9, 5, 4, 7]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.343035801381213, 0.287305298674085, 0.2518196329014255, 0.21328052515865936, 0.19986795654882913, 0.18148342155811759, 0.1272348615387768, 0.1262693779003167, 0.11689628164905119]</t>
+          <t>[0.4169357976444374, 0.38664765865915107, 0.31108772334629753, 0.2721031061403179, 0.26016348889910096, 0.16908396761032893, 0.16526562391104124, 0.16268234978254875, 0.139830262708493, 0.12390277034681027, 0.12251586968143306]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4909,39 +4909,39 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>visual surveillance dynamic scene especially human vehicle currently active research topic vision wide spectrum promising application including access control special area human identification distance crowd flux statistic congestion analysis detection anomalous behavior interactive surveillance multiple camera general processing framework visual surveillance dynamic scene includes following stage modeling environment detection motion classification moving object tracking understanding description behavior human identification fusion multiple camera review recent development general strategy stage finally analyze possible research direction occlusion handling combination twoand dimensional tracking combination motion analysis biometrics anomaly detection behavior prediction content based retrieval surveillance video behavior understanding natural language description fusion information multiple sensor remote surveillance</t>
+          <t>conservation planning research influenced conservation action globally decade successful implementation systematic conservation plan region customary marine tenure exists minimal region local community knowledge understanding socioeconomic reality offer best spatially explicit information analysis required socioeconomic available scale relevant conservation planning process undertaken kadavu yaubula management support team team researcher university south pacific local community systematic conservation planning tool effectively applied useful customary governance context study fiji participatory approach meeting local scale conservation fishery need spatial conservation planning tool marxan zone reconfigure collection locally designed marine protected area province kadavu order achieve broader objective local scale value tool process identifying conceptualising management issue working community collate participatory technique engaging community management decision making output tool secondary value outcome invaluable developing marine protected area network design approach combine traditional knowledge ecological feature manner appropriate melanesian context</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.100|x2: 0.182|x3: 0.129|x4: 0.264|x5: 0.076|x6: 0.235|x7: 0.221|x8: 0.058|x9: 0.069|x10: 0.099|x11: 0.141|x12: 0.173|x13: 0.158|x14: 0.165|x15: 0.000|x16: 0.073|x17: 0.000</t>
+          <t>x1: 0.083|x2: 0.200|x3: 0.000|x4: 0.212|x5: 0.091|x6: 0.178|x7: 0.177|x8: 0.114|x9: 0.194|x10: 0.082|x11: 0.129|x12: 0.183|x13: 0.343|x14: 0.309|x15: 0.143|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.26]</t>
+          <t>[0.00, 0.15, 0.34]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[4, 6, 7, 2, 12, 14, 13, 11, 3]</t>
+          <t>[13, 14, 4, 2, 9, 12, 6, 7, 15, 11, 8, 16]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.26423785236465197, 0.23515238908402258, 0.22119445187817455, 0.18186917805774108, 0.1729249662848591, 0.1651539429184643, 0.1575472853918907, 0.14143709860672218, 0.12894178653537466]</t>
+          <t>[0.3425546691774213, 0.30854779725726733, 0.21168481240368917, 0.19971567038811144, 0.19407674942917236, 0.18347506383283357, 0.1781891297859582, 0.17689220126351937, 0.14329496746665196, 0.12909811671076662, 0.11400229249501866, 0.11264740321160023]</t>
         </is>
       </c>
       <c r="H110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -4950,39 +4950,39 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>game improve social awareness letting experience difficult social situation learn experience assert moving strict realism social simulation offer technique role play offer possibility feedback reflection discus design game interpersonal skill training domain enforcement game feature intelligent virtual agent trainee interact different scenario improve social awareness interacting virtual agent trainee experience behaviour influence course intervention outcome discus intend improve learning experience game including meta technique role play close describing current future implementation game</t>
+          <t>environmental economic impact exotic fungal specie natural plantation forest historically catastrophic recorded surveillance control action challenging costly time consuming hazardous remote area prolonged period testing observation site based test limitation verify rapid proliferation exotic pathogen deterioration rate host recent remote sensing approach offered fast broad scale affordable survey additional indicator complement ground test paper proposes framework consolidates site based insight remote sensing capability detect segment deterioration fungal pathogen natural plantation forest approach illustrated experimentation myrtle rust austropuccinia psidii paperbark tree melaleuca quinquenervia south wale australia method integrates unmanned aerial vehicle uavs hyperspectral image sensor processing algorithm machine learning imagery acquired headwall nano hyperspec camera orthorectified headwall spectralview processed python programming language extreme gradient boosting xgboost geospatial abstraction library gdal scikit learn library sample extracted labelled class class deterioration status class background object insight reveal individual detection rate healthy tree deteriorated tree global multiclass detection rate methodology versatile applied additional datasets taken different image sensor processing large datasets freeware tool</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.187|x5: 0.160|x6: 0.000|x7: 0.000|x8: 0.095|x9: 0.132|x10: 0.105|x11: 0.085|x12: 0.372|x13: 0.214|x14: 0.166|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.092|x2: 0.097|x3: 0.149|x4: 0.212|x5: 0.142|x6: 0.151|x7: 0.133|x8: 0.127|x9: 0.171|x10: 0.074|x11: 0.186|x12: 0.252|x13: 0.245|x14: 0.179|x15: 0.185|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.37]</t>
+          <t>[0.00, 0.15, 0.25]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[12, 13, 4, 14, 5, 9, 10]</t>
+          <t>[12, 13, 4, 11, 15, 14, 9, 6, 3, 5, 7, 8]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.3716352824642934, 0.21400055222087427, 0.18704503546377, 0.16598923813136832, 0.16003998473753975, 0.132342787871362, 0.10530043007703002]</t>
+          <t>[0.2518729362968818, 0.24524067570890604, 0.21173821135719645, 0.18569758129527716, 0.18450645923890707, 0.17881227524456955, 0.1709111407245183, 0.15095635426999343, 0.1488325509092208, 0.14215896197919428, 0.13340041363836697, 0.12712577737388486]</t>
         </is>
       </c>
       <c r="H111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -4991,39 +4991,39 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>paper envisions future autonomous agent foster support social behavior hybrid society human machine social behavior occurs agent perform costly action benefit helping voluntarily donating charity providing information sharing resource social behavior discus question challenge purely utilitarian view human decision making contextualize role hybrid society condition mechanism lead society agent human social engineer autonomous entity agent robot lead altruistic cooperative behavior hybrid society propose social simulation game theory population dynamic study virtual environment robot agent human interact research constitute basis establishing foundation field social computing aiming understanding predicting promoting sociality human artificial agent multiagent</t>
+          <t>conservation planning integral strategic effective operation conservation organization drawing biological science conservation planning historically limited social offer approach integrating social conservation planning capture place context spatial pattern trend human need capacity hierarchical approach provides nested framework characterizing mapping social domain economic health political empowerment education culture domain multiple attribute attribute characterized indicator existing novel display spatial temporal heterogeneity social conservation scientist planner decision maker measure benchmark integrate conservation planning process selecting indicator integrating conservation planning iterative participatory process tailored local context planning goal social complement biophysical threat oriented social conservation planning process inform decision conserve biodiversity provide structure exploring socioecological relationship foster adaptive management building existing conservation planning method insight multiple discipline approach putting readily merge current planning practice facilitate rigorous decision making</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.148|x5: 0.258|x6: 0.213|x7: 0.139|x8: 0.000|x9: 0.156|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.087|x14: 0.095|x15: 0.044|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.087|x2: 0.231|x3: 0.000|x4: 0.167|x5: 0.144|x6: 0.102|x7: 0.093|x8: 0.120|x9: 0.143|x10: 0.083|x11: 0.172|x12: 0.280|x13: 0.476|x14: 0.359|x15: 0.344|x16: 0.114|x17: 0.000</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.26]</t>
+          <t>[0.00, 0.17, 0.48]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[5, 6, 9, 4, 7]</t>
+          <t>[13, 14, 15, 12, 2, 11, 4, 5, 9, 8, 16, 6]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.2576393749549913, 0.21341927312973794, 0.15644160328522078, 0.14767066932785383, 0.13883892116547997]</t>
+          <t>[0.4760068359188109, 0.35920883699318656, 0.3443073053813328, 0.27976180673200474, 0.23082560791043832, 0.1722867687821803, 0.16719412043929707, 0.14433172787920917, 0.14319551859107935, 0.12034657599904486, 0.11370632008256162, 0.10242425719509235]</t>
         </is>
       </c>
       <c r="H112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -5032,32 +5032,32 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>drone increasingly purpose recording footage inaccessible area delivering package rise drone usage introduces privacy security concern flying boundary drone collect public private space stored disseminated commercial personal drone regulation focusing privacy security fairly minimal united state inform privacy security guideline drone design regulation need understand user perception drone privacy security paper laboratory study participant interacted model drone elicit user perception privacy security issue drone present result discus implication work recommendation improve drone design regulation enhance individual privacy security</t>
+          <t>ecoacoustic monitoring proved viable approach capture ecological related animal community expert manually annotate audio sample analysis large datasets significantly facilitated automatic pattern recognition method unsupervised learning method require labelled particularly suited analyse poorly documented habitat tropical environment propose method named multiresolution analysis acoustic diversity maad automate detection relevant structure audio maad designed decompose acoustic community elementary component soundtypes based time frequency attribute short time fourier transform detect region time frequency domain characterised estimating median frequency running wavelet analysis multiple scale angle finally grouped model based subspace clustering technique automatically annotated clustered soundtypes test performance automatic method applied maad distinct tropical environment french guiana lowland rainforest rock savanna compared manual automatic annotation adjusted rand similarity manual automated partition consistent indicating cluster intelligible analysis weight feature estimated clustering process revealed important information structure acoustic community particular median frequency strongest effect modelling cluster classification performance suggesting role community organisation number cluster maad regarded estimation soundtype richness given environment maad comprehensive promising method automatically analyse passive acoustic recording combining maad manual analysis maximally exploit strength human reasoning algorithm composition acoustic community estimated accurately quickly large scale</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.104|x5: 0.000|x6: 0.114|x7: 0.111|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.174|x12: 0.166|x13: 0.098|x14: 0.181|x15: 0.000|x16: 0.183|x17: 0.000</t>
+          <t>x1: 0.081|x2: 0.088|x3: 0.000|x4: 0.248|x5: 0.125|x6: 0.225|x7: 0.253|x8: 0.112|x9: 0.237|x10: 0.074|x11: 0.127|x12: 0.083|x13: 0.219|x14: 0.227|x15: 0.171|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.18]</t>
+          <t>[0.00, 0.14, 0.25]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[16, 14, 11, 12, 6, 7, 4]</t>
+          <t>[7, 4, 9, 14, 6, 13, 15, 11, 5, 8]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.1832277495743993, 0.1807293377171925, 0.17351314578033328, 0.16585293696195721, 0.11432021128642661, 0.11144163045283977, 0.10379071413664148]</t>
+          <t>[0.253470806635598, 0.24752092246776297, 0.2368002263767707, 0.22703877366164862, 0.2248610043612683, 0.21879130434020533, 0.1706002412341182, 0.12712146094057292, 0.1254773151452676, 0.1120161381128343]</t>
         </is>
       </c>
       <c r="H113" t="b">
@@ -5073,39 +5073,39 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>automated driving fundamentally change road transportation improve quality life present role human automated vehicle clearly established interview conducted expert researcher field human factor automated driving identify commonality distinctive perspective challenge development expert indicated level inform driver capability operational status ensure safety changing automated manual mode research particularly address interaction human driver vulnerable road user additionally driver training program modified ensure human capable finally reflection interview provided showing discordance interviewee statementswhich appear long history work human factor research rapid development automation technology expect perspective instrumental stakeholder involved development instructive</t>
+          <t>extensive research ecosystem service mapped survey based biophysical approach comparative mapping public value quantified model lacking paper mapped cold spot perceived modeled ecosystem service synthesizing result social value mapping study resident living near pike isabel national forest located southern rocky mountain corresponding biophysically modeled ecosystem service social value developed social value ecosystem service tool providing statistically modeled continuous value surface value type including aesthetic biodiversity life sustaining value biophysically modeled carbon sequestration storage scenic viewsheds sediment regulation water yield generated artificial intelligence ecosystem service tool hotspot perceived modeled service located wilderness area additionally regression analysis evaluate spatial relationship perceived biodiversity cultural ecosystem service corresponding biophysical model output goal determine publicly valued location aesthetic biodiversity life sustaining value relate meaningfully result corresponding biophysical ecosystem service model weak relationship perceived biophysically modeled service indicating public perception ecosystem service provisioning region limited believe biophysical social approach ecosystem service mapping serve methodological complement advance ecosystem service based resource management benefitting resource manager showing potential location synergy conflict area supplying ecosystem service valued public</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[3, 11]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.178|x3: 0.203|x4: 0.068|x5: 0.000|x6: 0.194|x7: 0.112|x8: 0.266|x9: 0.218|x10: 0.000|x11: 0.163|x12: 0.230|x13: 0.269|x14: 0.000|x15: 0.084|x16: 0.215|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.070|x3: 0.000|x4: 0.155|x5: 0.141|x6: 0.198|x7: 0.203|x8: 0.105|x9: 0.182|x10: 0.058|x11: 0.173|x12: 0.161|x13: 0.060|x14: 0.094|x15: 0.060|x16: 0.071|x17: 0.000</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.27]</t>
+          <t>[0.00, 0.11, 0.20]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[13, 8, 12, 9, 16, 3, 6, 2, 11, 7]</t>
+          <t>[7, 6, 9, 11, 12, 4, 5, 8]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.2692162805262492, 0.2657465830724682, 0.23031438629203826, 0.21772843530003647, 0.2154601779703823, 0.2030810270994365, 0.19430030458434444, 0.17844143500199997, 0.16250670570686965, 0.11189825602112378]</t>
+          <t>[0.20266629694109833, 0.1978466819299071, 0.1818012899055294, 0.17332701664225766, 0.16096606543239986, 0.155095259350919, 0.14062127476697153, 0.10547395641346984]</t>
         </is>
       </c>
       <c r="H114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
@@ -5114,39 +5114,39 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>background worrying public health issue china lack timely effective surveillance diffusion adoption internet aggregated internet search engine contain user information concern reality health status provide opportunity surveillance paper search engine monitor forecast china method machine learning method artificial neural network anns forecast incidence death search trend related largest chinese search engine baiducom collected selected input variable anns officially reported actual incidence death output variable criterion mean absolute percentage error root mean squared percentage error agreement test forecasting performance method result based monthly time series january june article criterion method lead satisfactory forecasting incidence death regardless change number search query conclusion despite inability selfdetect online searching internetbased adopted timely costeffective complement traditional surveillance</t>
+          <t>effective sustainable forest management broad area need consistent country wide forest inventory stand level inventory appropriate unit local regional forest management south korea currently produce forest type contains categorical parameter stand crucial forest attribute understanding forest ecosystem currently missing included future forest type estimation forest stand challenging south korea stand exist irregular patch highly rugged terrain study proposed stand estimation model suitable rugged terrain highly mixed tree specie arithmetic mean target variable plot level estimation model developed descriptive statistic airborne light detection ranging lidar machine learning approach support vector regression modified regression tree random forest scheme central plot based scheme stand based scheme expanding plot level stand level investigated result showed varied performance metric coefficient determination root mean square error mean bias model forest estimation plot level statistically significant difference mean plot model term estimated bias value stand level validation based tree measurement selected stand produced varied result scheme machine learning implies additional reference thorough stand level validation identify statistically robust approach future nonetheless research finding study guide estimating stand forest rugged terrain complex composition tree specie</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.137|x2: 0.078|x3: 0.000|x4: 0.000|x5: 0.184|x6: 0.166|x7: 0.148|x8: 0.000|x9: 0.168|x10: 0.000|x11: 0.185|x12: 0.000|x13: 0.000|x14: 0.263|x15: 0.000|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.106|x2: 0.000|x3: 0.142|x4: 0.122|x5: 0.166|x6: 0.167|x7: 0.234|x8: 0.147|x9: 0.192|x10: 0.000|x11: 0.077|x12: 0.085|x13: 0.062|x14: 0.177|x15: 0.226|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.26]</t>
+          <t>[0.00, 0.11, 0.23]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[14, 11, 5, 9, 6, 7, 1]</t>
+          <t>[7, 15, 9, 14, 6, 5, 8, 3, 4, 1]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.2632105965061261, 0.18465202383541096, 0.18391582739079074, 0.16772894235949132, 0.16609147129807156, 0.1484651688555832, 0.13738793572038363]</t>
+          <t>[0.23391218367473743, 0.22634361068413017, 0.19233466084342984, 0.1770550717159432, 0.167351797535954, 0.16584344599485257, 0.14681832931788688, 0.14245182083543592, 0.12207114869913753, 0.10646511036586553]</t>
         </is>
       </c>
       <c r="H115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -5155,32 +5155,32 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>introduction artificial intelligence branch science capable analysing complex medical potential exploit meaningful relationship diagnosis treatment predicting outcome clinical scenario method medline internet search carried keywords artificial intelligence neural network reference obtained article overview different artificial intelligent technique presented paper review important clinical application result proficiency artificial intelligent technique explored field medicine artificial neural network commonly analytical tool whilst artificial intelligent technique fuzzy expert evolutionary computation hybrid intelligent different clinical setting discussion artificial intelligence technique potential applied field medicine need clinical trial appropriately designed emergent technique application clinical setting</t>
+          <t>tropical forest condition important implication biodiversity climate change human need structural feature forest serve useful indicator forest condition potential assessed remotely sensed imagery provide quantitative information forest ecosystem temporal spatial resolution investigate utility remote sensing assessing predicting mapping important forest structural feature stem density basal area tropical littoral forest southeastern madagascar analysed relationship basal area stem density measurement normalised difference vegetation ndvi radiance measurement band landsat enhanced thematic mapper plus strong relationship identified individual band field based measurement basal area weak insignificant relationship spectral response stem density measurement ndvi significantly correlated basal area strongly significantly correlated stem density subset represented extreme value artificial neural network predict basal area radiance value band produce predictive basal area entire forest landscape anns produced strong significant relationship predicted actual measure basal area jackknife method larger predicted basal area produced assessed relation existing forest condition derived field assessment predictive basal area provided finer stand structural heterogeneity captured known climatic influence forest structure displayed trend basal area associated degree human accessibility finding demonstrate utility anns integrating satellite landsat spectral band limited field survey pattern basal area landscape scale</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.114|x4: 0.071|x5: 0.000|x6: 0.000|x7: 0.083|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.045|x12: 0.087|x13: 0.139|x14: 0.101|x15: 0.052|x16: 0.040|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.103|x3: 0.079|x4: 0.154|x5: 0.231|x6: 0.076|x7: 0.117|x8: 0.000|x9: 0.158|x10: 0.103|x11: 0.113|x12: 0.159|x13: 0.200|x14: 0.287|x15: 0.283|x16: 0.184|x17: 0.000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.14]</t>
+          <t>[0.00, 0.13, 0.29]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[13, 3, 14]</t>
+          <t>[14, 15, 5, 13, 16, 12, 9, 4, 7, 11, 2, 10]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.1387823476372126, 0.11420804630663368, 0.10129758811246171]</t>
+          <t>[0.28695484468553095, 0.2827951470728806, 0.23078926576091546, 0.2000672137494413, 0.1842119137794503, 0.15873493128086935, 0.15826935149465776, 0.15381496673284945, 0.11707974670250546, 0.11309353267271012, 0.10303653501571546, 0.10282995114813973]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5196,32 +5196,32 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>objective introduce summarize current research field public health epidemiology informatics method literature concerning public health epidemiology informatics searched pubmed science returned reference reviewed section editor select candidate best paper paper peerreviewed external reviewer provide editorial team enlightened vision select best paper result reference retrieved pubmed science finally selected best paper analyzes relationship disease social mass public emotion understand public overreaction leading noticeable reduction social economic activity context nationwide outbreak middle east respiratory syndrome mers korea second paper concern methodology deidentify patient note electronic health record based artificial neural network outperformed existing method conclusion surveillance productive topic public health informatics important topic public health appearing example artificial intelligence approach increasing</t>
+          <t>marxan widely conservation planning software world designed solving complex conservation planning problem landscape seascape paper substantial extension marxan called marxan zone decision support tool provides landuse zoning option geographical region biodiversity conservation function designed enhance original marxan software expand utility decision support tool major element decision problem allowing parcel land allocated specific zone reserved unreserved zone option action objective constraint flexibility define contribution zone achieve target specified feature specie habitat objective minimize cost implementing zoning plan ensuring variety conservation land objective achieved outline capability limitation additional requirement software perform comparison original version marxan feature number study demonstrate functionality software highlight flexibility address range complex spatial planning problem study demonstrate design multiple marine park western australia california zoning forest east kalimantan</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.112|x2: 0.041|x3: 0.118|x4: 0.062|x5: 0.079|x6: 0.150|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.159|x14: 0.163|x15: 0.097|x16: 0.105|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.202|x3: 0.054|x4: 0.075|x5: 0.000|x6: 0.227|x7: 0.151|x8: 0.137|x9: 0.245|x10: 0.103|x11: 0.245|x12: 0.298|x13: 0.414|x14: 0.356|x15: 0.286|x16: 0.144|x17: 0.000</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.16]</t>
+          <t>[0.00, 0.18, 0.41]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[14, 13, 6, 3, 1, 16]</t>
+          <t>[13, 14, 12, 15, 9, 11, 6, 2, 7, 16, 8, 10]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.16337127583000616, 0.15913205102915212, 0.1497060491713947, 0.11805712030242953, 0.1123820888974115, 0.10457809814500946]</t>
+          <t>[0.4143159071947155, 0.3555437234881459, 0.2982559953642037, 0.2855362065355987, 0.24523997837608036, 0.2447359193733386, 0.22670920076651485, 0.20183192921556128, 0.15056546598350384, 0.14439077368743777, 0.1368819987833992, 0.10262221238913845]</t>
         </is>
       </c>
       <c r="H117" t="b">
@@ -5237,32 +5237,32 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>optical microscope widely tool diagnosing infectious disease developing world reliance trained microscopist field microscopy suffers poor sensitivity specificity reproducibility goal work called autoscope lowcost automated digital microscope coupled vision classification algorithm accurately diagnose variety infectious disease targeting usecases developing world initial target malaria difficulty task manual microscopy currently central highly imperfect tool malaria work field addition diagnosis algorithm performs specie identification quantitation parasite load parameter critical field application effectively rapid diagnostic test rdts</t>
+          <t>despite extensive research demonstrating benefit applying cost effective conservation technique optimization large remains evidence research action profession design implement conservation program study examines international survey conservation professional familiar cost effective conservation technique primary result study replicate previous result smaller sample agricultural preservation professional vast majority survey respondent viewed cost effectiveness virtue ultimately consider important program design criterion result reinforce idea advocate cost effective conservation need address concern fairness transparency remedy knowledge expertise professional involved finally lack incentive conservation professional change practice challenge public pressure encouragement experimentation evidence based policy improve cost effectiveness conservation</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.152|x2: 0.167|x3: 0.171|x4: 0.083|x5: 0.114|x6: 0.177|x7: 0.102|x8: 0.241|x9: 0.067|x10: 0.060|x11: 0.000|x12: 0.119|x13: 0.000|x14: 0.127|x15: 0.065|x16: 0.126|x17: 0.000</t>
+          <t>x1: 0.082|x2: 0.000|x3: 0.110|x4: 0.000|x5: 0.090|x6: 0.000|x7: 0.000|x8: 0.113|x9: 0.083|x10: 0.075|x11: 0.166|x12: 0.000|x13: 0.244|x14: 0.392|x15: 0.142|x16: 0.100|x17: 0.000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.24]</t>
+          <t>[0.00, 0.09, 0.39]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[8, 6, 3, 2, 1, 14, 16, 12, 5, 7]</t>
+          <t>[14, 13, 11, 15, 8, 3, 16]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.24099716099131105, 0.17729441024738163, 0.17062041174239911, 0.16675929213001112, 0.1518777475681774, 0.12707111013638664, 0.12608000160729707, 0.11929080212761671, 0.11405908842242873, 0.1022554511074621]</t>
+          <t>[0.3924473364040172, 0.24359655519443274, 0.1656762374716744, 0.14201382260863143, 0.1125639812189473, 0.11044716550627043, 0.10040199473155458]</t>
         </is>
       </c>
       <c r="H118" t="b">
@@ -5278,32 +5278,32 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>background study validate fetal medicine foundation multiple logistic regression algorithm prediction risk preeclampsia australian population model predicts risk population rate preeclampsia variety demographic factor mean maternal arterial blood pressure uterine artery plasma protein pappa shown predict earlyonset preeclampsia delivery prior week woman falsepositive rate method woman attended trimester screening royal prince alfred hospital body mass assessed addition factor traditionally aneuploidy including pappa delivery risk earlyonset delivery prior week preeclampsia late preeclampsia gestational hypertension calculated risk algorithm result woman screened delivered locally woman perform preeclampsia screening available included woman live risk early preeclampsia calculated woman delivered week early preeclampsia prevalence early preeclampsia pregnancy risk generated maternal history pappa detected early preeclampsia falsepositive rate respectively conclusion study early preeclampsia algorithm effective australian population</t>
+          <t>surveying threatened invasive specie obtain accurate population estimate important challenging task requires considerable investment time resource estimate existing ground based monitoring technique camera trap survey performed foot known resource intensive potentially inaccurate imprecise difficult validate recent development unmanned aerial vehicle artificial intelligence miniaturized thermal imaging represent opportunity wildlife expert inexpensively survey relatively large area presented paper includes thermal image acquisition video processing pipeline perform object detection classification tracking wildlife forest open area tested thermal video ground based test flight footage able detect target wildlife located surveyed area flexible user readily define type object classify object characteristic considered classification</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.117|x2: 0.201|x3: 0.311|x4: 0.118|x5: 0.104|x6: 0.092|x7: 0.102|x8: 0.000|x9: 0.072|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.162|x14: 0.000|x15: 0.000|x16: 0.154|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.124|x3: 0.102|x4: 0.244|x5: 0.443|x6: 0.361|x7: 0.212|x8: 0.137|x9: 0.191|x10: 0.162|x11: 0.287|x12: 0.252|x13: 0.165|x14: 0.217|x15: 0.312|x16: 0.260|x17: 0.000</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.31]</t>
+          <t>[0.00, 0.21, 0.44]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[3, 2, 13, 16, 4, 1, 5, 7]</t>
+          <t>[5, 6, 15, 11, 16, 12, 4, 14, 7, 9, 13, 10, 8, 2, 3]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.31084083465383333, 0.20059968141585094, 0.162064671807387, 0.15434649779965642, 0.1183287853618548, 0.11682436436175132, 0.10410723935365246, 0.10166441458805466]</t>
+          <t>[0.4431852223652255, 0.3614160526803533, 0.3115285640753207, 0.28651152487516335, 0.260228149602193, 0.25223386621907434, 0.24384188833009512, 0.21738656738091108, 0.21228371135186025, 0.19076158271172922, 0.16458565457646576, 0.16227150505177945, 0.1368649657930637, 0.12362234755927197, 0.102077614150011]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5319,32 +5319,32 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>identifying robust survival subgroup hepatocellular carcinoma significantly improve patient care currently endeavor integrating multiomics explicitly predict survival multiple patient cohort lacking present deep learning based model robustly differentiates survival subpopulation patient cohort build based model patient rnaseq mirnaseq methylation tcga predicts prognosis good alternative model genomics clinical considered based model provides optimal subgroup patient significant survival difference good model fitness cindex aggressive subtype associated frequent inactivation mutation higher expression stemness marker epcam tumor marker birc activated signaling pathway validated multiomics model external datasets omics type lirijp cohort cindex cohort cindex chinese cohort cindex etabm cohort cindex hawaiian cohort cindex study employ deep learning identify multiomics feature linked differential survival patient given robustness multiple cohort expect workflow useful predicting prognosis prediction</t>
+          <t>number distribution free ranging giant panda essential formulation effective conservation strategy ideal method identify individual specie traditional bite size method bamboo fragment feces lack accuracy modern based estimation expensive demand fresh sample lack identifiable individual feature panda pelage apparent sexual dimorphism impede reliable estimation camera trap image propose innovative invasive technique identify specie footprint identification technique based pairwise comparison trail unbroken series footprint discriminant analysis ward clustering method collected footprint captive animal train algorithm animal model validation accuracy individual identification individual footprint fewer footprint trail accuracy discrimination single footprint trail cost effective method provides promising future monitoring wild panda population understanding dynamic especially useful monitoring reintroduced animal detachment collar collection protocol straightforward accessible citizen scientist conservation professional alike</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.135|x2: 0.000|x3: 0.197|x4: 0.400|x5: 0.140|x6: 0.261|x7: 0.371|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.199|x13: 0.240|x14: 0.282|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.072|x2: 0.000|x3: 0.156|x4: 0.000|x5: 0.162|x6: 0.214|x7: 0.318|x8: 0.099|x9: 0.290|x10: 0.060|x11: 0.241|x12: 0.103|x13: 0.176|x14: 0.266|x15: 0.283|x16: 0.076|x17: 0.000</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.40]</t>
+          <t>[0.00, 0.15, 0.32]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[4, 7, 14, 6, 13, 12, 3, 5, 1]</t>
+          <t>[7, 9, 15, 14, 11, 6, 13, 5, 3, 12]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.39968697294191746, 0.3709049110410921, 0.28210594963830976, 0.2614007543208711, 0.24017235608682647, 0.1986735900090609, 0.19725362802822483, 0.13992830084178076, 0.135284898322521]</t>
+          <t>[0.3175850188439625, 0.2901890994468798, 0.2826732401069891, 0.2660325395691783, 0.24113552350105097, 0.21407478321249446, 0.17633664284780123, 0.16200462800522566, 0.15604514432803832, 0.10316548184642951]</t>
         </is>
       </c>
       <c r="H120" t="b">
@@ -5360,32 +5360,32 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>present method predicting preterm infant inhospital mortality bayesian gaussian process classification combined feature extracted sensor measurement hour care weight infant weight standard clinical feature calculated arrival neonatal intensive care unit time period hour evaluated achieved classification result area receiver operating characteristic curve excess result achieved clinical standard snapii snappeii score</t>
+          <t>increasing number surveillance camera indoor outdoor location grown demand intelligent detects abnormal event human action recognition highly reached topic vision abnormal behavior detection lately attracting research attention proposed order ensure human safety paper interested study main step composing video surveillance behavior representation behavior modeling technique related feature extraction description behavior representation reviewed classification method framework behavior modeling provided available datasets metric performance evaluation presented finally example existing video surveillance world described</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.176|x4: 0.000|x5: 0.132|x6: 0.198|x7: 0.000|x8: 0.050|x9: 0.061|x10: 0.107|x11: 0.105|x12: 0.219|x13: 0.000|x14: 0.221|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.142|x2: 0.000|x3: 0.412|x4: 0.000|x5: 0.247|x6: 0.388|x7: 0.000|x8: 0.195|x9: 0.000|x10: 0.163|x11: 0.372|x12: 0.054|x13: 0.120|x14: 0.133|x15: 0.175|x16: 0.239|x17: 0.000</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.22]</t>
+          <t>[0.00, 0.16, 0.41]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[14, 12, 6, 3, 5, 10, 11]</t>
+          <t>[3, 6, 11, 5, 16, 8, 15, 10, 1, 14, 13]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.22074689558158733, 0.21862946741505646, 0.19768570249614936, 0.1763650515856972, 0.13164691387879807, 0.10653586618142576, 0.10518309880316515]</t>
+          <t>[0.4123364147165509, 0.3882674950426829, 0.3719393873946573, 0.24695117890832238, 0.2390438162208799, 0.19531558932964704, 0.1748069027139805, 0.16343187917818325, 0.1416328320228445, 0.13290211172667066, 0.12005612693405034]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5401,32 +5401,32 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>common barrier healthcare psychiatric condition stigma associated disorder perceived stigma prevents reporting symptom stigma particularly pervasive problem military service member preventing reporting symptom combatrelated condition like posttraumatic disorder ptsd research reporting service member anonymous assessment example service member report symptom ptsd anonymously answer postdeployment health assessment pdha symptom checklist compared official pdha identifiable linked military record investigate factor influence reporting psychological symptom service member transformative technology automated virtual human interview symptom virtual human interviewer allow simultaneous technique eliciting disclosure incompatible afford anonymity building rapport examined virtual human interviewer increase disclosure mental health symptom activeduty service member returned yearlong deployment afghanistan service member reported symptom conversation virtual human interviewer official pdha reported virtual human interviewer anonymized pdha second larger sample activeduty service member similar effect approached statistical significance respondent study shared virtual human interviewer anonymized pdhaeven condition control stigma ramification service member military recordsvirtual human interviewer build rapport provide superior option encourage reporting</t>
+          <t>visual surveillance dynamic scene especially human vehicle currently active research topic vision wide spectrum promising application including access control special area human identification distance crowd flux statistic congestion analysis detection anomalous behavior interactive surveillance multiple camera general processing framework visual surveillance dynamic scene includes following stage modeling environment detection motion classification moving object tracking understanding description behavior human identification fusion multiple camera review recent development general strategy stage finally analyze possible research direction occlusion handling combination twoand dimensional tracking combination motion analysis biometrics anomaly detection behavior prediction content based retrieval surveillance video behavior understanding natural language description fusion information multiple sensor remote surveillance</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[3]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.235|x2: 0.064|x3: 0.189|x4: 0.000|x5: 0.098|x6: 0.000|x7: 0.068|x8: 0.064|x9: 0.072|x10: 0.188|x11: 0.074|x12: 0.296|x13: 0.000|x14: 0.084|x15: 0.086|x16: 0.073|x17: 0.000</t>
+          <t>x1: 0.160|x2: 0.193|x3: 0.273|x4: 0.202|x5: 0.142|x6: 0.304|x7: 0.161|x8: 0.220|x9: 0.159|x10: 0.148|x11: 0.182|x12: 0.192|x13: 0.154|x14: 0.256|x15: 0.265|x16: 0.199|x17: 0.000</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.30]</t>
+          <t>[0.00, 0.19, 0.30]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[12, 1, 3, 10]</t>
+          <t>[6, 3, 15, 14, 8, 4, 16, 2, 12, 11, 7, 1, 9, 13, 10, 5]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.29647214148626794, 0.23521912833628203, 0.18890882073051513, 0.18767457476312374]</t>
+          <t>[0.30437076393032797, 0.2731664795404999, 0.2646654229778418, 0.25624092407667093, 0.21999422532556312, 0.20157210029557993, 0.1994081220052635, 0.19328977686213475, 0.19197936133546953, 0.18222237526985088, 0.16095382522379909, 0.15952851110590657, 0.15889472268334742, 0.15350937101593412, 0.1481166525121355, 0.1418899652265481]</t>
         </is>
       </c>
       <c r="H122" t="b">
@@ -5442,32 +5442,32 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>contribution provides review fundamental goal development future perspective driver assistance mobility fundamental desire mankind virtually society strives safe efficient mobility ecological economic cost technical implementation significantly differs society depending culture degree potential evolutionary roadmap driver assistance discussed emerging based proprioceptive sensor review progress incented exteroceptive sensor radar video lidar ultimate goal automated cooperative traffic remains vision future intermediate step realized mitigate avoid collision selected driving situation research extends stateoftheart automated driving urban traffic cooperative driving addressing communication collaboration different vehicle cooperative vehicle operation driver machine intelligence step considered important interim period reliable unsupervised automated driving conceivable traffic situation available prospective evolution driver assistance stimulated technological societal market trend paper close view current research field</t>
+          <t>game improve social awareness letting experience difficult social situation learn experience assert moving strict realism social simulation offer technique role play offer possibility feedback reflection discus design game interpersonal skill training domain enforcement game feature intelligent virtual agent trainee interact different scenario improve social awareness interacting virtual agent trainee experience behaviour influence course intervention outcome discus intend improve learning experience game including meta technique role play close describing current future implementation game</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>[11, 3]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.161|x3: 0.080|x4: 0.000|x5: 0.000|x6: 0.065|x7: 0.203|x8: 0.247|x9: 0.308|x10: 0.162|x11: 0.000|x12: 0.299|x13: 0.304|x14: 0.000|x15: 0.000|x16: 0.073|x17: 0.000</t>
+          <t>x1: 0.116|x2: 0.180|x3: 0.000|x4: 0.324|x5: 0.292|x6: 0.000|x7: 0.156|x8: 0.160|x9: 0.129|x10: 0.075|x11: 0.000|x12: 0.205|x13: 0.355|x14: 0.145|x15: 0.104|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.31]</t>
+          <t>[0.00, 0.14, 0.35]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[9, 13, 12, 8, 7, 10, 2]</t>
+          <t>[13, 4, 5, 12, 2, 8, 7, 14, 9, 1, 15]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.30784859596057956, 0.30417573690142397, 0.2992282425191477, 0.24666092956911, 0.2034780652680652, 0.1621614085387618, 0.1610162141554649]</t>
+          <t>[0.35498964032907787, 0.3242783997261499, 0.2916241689036636, 0.20464263988036036, 0.18007264681480736, 0.160413753533252, 0.15620773863561163, 0.14462043137415728, 0.1290551236346405, 0.11632381361010181, 0.10425836796102729]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5483,39 +5483,39 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>discussion woman access digital information communication technology developing country inconclusive claim woman technophobic better user digital tool argue woman embrace digital communication article question empirical test analyze latin american african country believed extensive empirical study field result surprisingly consistent revealing reason fewer woman access direct result unfavorable condition respect employment education income controlling variable woman turn active user digital tool turn alleged digital gender divide opportunity given woman affinity given digital technology tool improve living condition represent concrete tangible opportunity tackle longstanding challenge gender inequality developing country including access employment income education health service</t>
+          <t>paper envisions future autonomous agent foster support social behavior hybrid society human machine social behavior occurs agent perform costly action benefit helping voluntarily donating charity providing information sharing resource social behavior discus question challenge purely utilitarian view human decision making contextualize role hybrid society condition mechanism lead society agent human social engineer autonomous entity agent robot lead altruistic cooperative behavior hybrid society propose social simulation game theory population dynamic study virtual environment robot agent human interact research constitute basis establishing foundation field social computing aiming understanding predicting promoting sociality human artificial agent multiagent</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>[4, 5]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.159|x4: 0.457|x5: 0.198|x6: 0.227|x7: 0.000|x8: 0.348|x9: 0.067|x10: 0.121|x11: 0.000|x12: 0.097|x13: 0.182|x14: 0.078|x15: 0.000|x16: 0.095|x17: 0.000</t>
+          <t>x1: 0.113|x2: 0.152|x3: 0.245|x4: 0.126|x5: 0.430|x6: 0.166|x7: 0.195|x8: 0.155|x9: 0.000|x10: 0.072|x11: 0.000|x12: 0.167|x13: 0.430|x14: 0.467|x15: 0.165|x16: 0.078|x17: 0.000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.46]</t>
+          <t>[0.00, 0.17, 0.47]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[4, 8, 6, 5, 13, 3, 10]</t>
+          <t>[14, 5, 13, 3, 7, 12, 6, 15, 8, 2, 4, 1]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[0.45675014587848184, 0.3484624435605257, 0.2269083276289751, 0.19832509301222132, 0.18173099142569654, 0.15894339600700863, 0.12113456810600814]</t>
+          <t>[0.46653771305263625, 0.43013322233091333, 0.4300043607581631, 0.2449598517369578, 0.19515605778092532, 0.16733149261935126, 0.16633059034331998, 0.16523394482166923, 0.15515611209607905, 0.1521337384560429, 0.12621608378878713, 0.11251124212482905]</t>
         </is>
       </c>
       <c r="H124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
@@ -5524,32 +5524,32 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>intelligent tutoring program model learner psychological state provide individualized instruction developed diverse subject area algebra medicine reading help learner acquire domain specific cognitive metacognitive knowledge meta analysis conducted research compared outcome student learning learning nonits learning environment meta analysis examined effect size varied type type comparison treatment received learner type learning outcome knowledge learned procedural declarative factor search major bibliographic database effect size involving participant extracted analyzed associated greater achievement comparison teacher large group instruction nonits based instruction textbook workbook significant difference learning learning individualized human tutoring smallgroup instruction significant positive mean effect size regardless principal mean instruction supplement teacher instruction integral component teacher instruction homework significant positive effect size level education subject domain evaluated provided feedback modeled student misconception claim relatively effective tool learning consistent analysis potential publication bias</t>
+          <t>decade scientific research unmanned aerial vehicle uavs spectacularly design multiple type aerial platform major challenge today development autonomously operating aerial agent capable completing mission independently human interaction extent visual sensing technique integrated control pipeline uavs order enhance navigation guidance skill article present comprehensive literature review vision based application uavs focusing mainly current development trend application sorted different category according research topic research group specifically vision based position attitude control pose estimation mapping obstacle detection target tracking identified component autonomous agent aerial platform reach greater level autonomy integrating technology onboard additionally article concept fusion multiple sensor highlighted overview challenge kanellakis</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.054|x3: 0.000|x4: 0.270|x5: 0.094|x6: 0.050|x7: 0.050|x8: 0.000|x9: 0.141|x10: 0.000|x11: 0.197|x12: 0.139|x13: 0.141|x14: 0.104|x15: 0.000|x16: 0.061|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.000|x3: 0.198|x4: 0.321|x5: 0.460|x6: 0.201|x7: 0.220|x8: 0.105|x9: 0.129|x10: 0.105|x11: 0.217|x12: 0.272|x13: 0.332|x14: 0.267|x15: 0.197|x16: 0.163|x17: 0.000</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.27]</t>
+          <t>[0.00, 0.19, 0.46]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[4, 11, 9, 13, 12, 14]</t>
+          <t>[5, 13, 4, 12, 14, 7, 11, 6, 3, 15, 16, 9, 10, 8]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.2702309518408875, 0.1972561828254406, 0.14095534592472775, 0.14067539608496363, 0.13913127308565118, 0.10365661355325673]</t>
+          <t>[0.4598639623773619, 0.33154938468096823, 0.3212726628591867, 0.27161045599594275, 0.2673736983715421, 0.22008952031987214, 0.21650764421589824, 0.20078718916407082, 0.19792674040037794, 0.19677232896967342, 0.16284631798523355, 0.12914668773864516, 0.10545596371029892, 0.10457926574783587]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5565,39 +5565,39 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>long research tradition focused information communication technology development explore role artificial intelligence start technical review characteristic trait deep learning technology lead natural metaphor international development based empirical evidence study derive characteristic align technological trait isolation present plethora opportunity contribute international development especially attainment sustainable development goal sdgs combination create clear tension looming threat hegemonic intelligence indoctrination pushed global economy scale potential promise honor celebrate local diversity help flexible design conclude achieved active public policy dialogue international level effort national level especially developing country study provides terminology concept identify frame arising discussion</t>
+          <t>drone increasingly purpose recording footage inaccessible area delivering package rise drone usage introduces privacy security concern flying boundary drone collect public private space stored disseminated commercial personal drone regulation focusing privacy security fairly minimal united state inform privacy security guideline drone design regulation need understand user perception drone privacy security paper laboratory study participant interacted model drone elicit user perception privacy security issue drone present result discus implication work recommendation improve drone design regulation enhance individual privacy security</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>[5]</t>
+          <t>[16]</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.047|x2: 0.057|x3: 0.000|x4: 0.307|x5: 0.148|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.054|x12: 0.198|x13: 0.216|x14: 0.261|x15: 0.000|x16: 0.060|x17: 0.000</t>
+          <t>x1: 0.084|x2: 0.243|x3: 0.000|x4: 0.226|x5: 0.000|x6: 0.163|x7: 0.160|x8: 0.116|x9: 0.239|x10: 0.069|x11: 0.290|x12: 0.169|x13: 0.293|x14: 0.295|x15: 0.187|x16: 0.088|x17: 0.000</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.31]</t>
+          <t>[0.00, 0.15, 0.30]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[4, 14, 13, 12, 5]</t>
+          <t>[14, 13, 11, 2, 9, 4, 15, 12, 6, 7, 8]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[0.3065648093930125, 0.2609503315220408, 0.21641344199027393, 0.19778221962039155, 0.14775183526319915]</t>
+          <t>[0.29524672945619734, 0.2926147395653779, 0.2896110460790516, 0.24292400059407748, 0.23900077371190795, 0.22597510220780337, 0.186933877041738, 0.16948405316471735, 0.1634340762432456, 0.15958507099128447, 0.11601089255578549]</t>
         </is>
       </c>
       <c r="H126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5606,39 +5606,39 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>protecting world freshwater resource requires diagnosing threat broad range scale fromglobal local present worldwide synthesis jointly consider human biodiversity perspective water security spatial framework quantifies multiple stressor account downstream impact nearly world population exposed level threat water security massive investment water technology enables rich offset stressor level remedying underlying cause wealthy remain vulnerable similar lack precautionary investment jeopardizes biodiversity habitat associated continental discharge classified moderately highly threatened cumulative threat framework offer tool prioritizing policy management response crisis underscore necessity limiting threat source instead costly remediation symptom order assure global water security human freshwater biodiversity</t>
+          <t>automated driving fundamentally change road transportation improve quality life present role human automated vehicle clearly established interview conducted expert researcher field human factor automated driving identify commonality distinctive perspective challenge development expert indicated level inform driver capability operational status ensure safety changing automated manual mode research particularly address interaction human driver vulnerable road user additionally driver training program modified ensure human capable finally reflection interview provided showing discordance interviewee statementswhich appear long history work human factor research rapid development automation technology expect perspective instrumental stakeholder involved development instructive</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>[6]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.143|x2: 0.167|x3: 0.059|x4: 0.068|x5: 0.000|x6: 0.122|x7: 0.000|x8: 0.060|x9: 0.111|x10: 0.000|x11: 0.217|x12: 0.120|x13: 0.245|x14: 0.116|x15: 0.165|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.093|x4: 0.157|x5: 0.134|x6: 0.081|x7: 0.208|x8: 0.000|x9: 0.113|x10: 0.074|x11: 0.244|x12: 0.179|x13: 0.326|x14: 0.189|x15: 0.127|x16: 0.132|x17: 0.000</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.25]</t>
+          <t>[0.00, 0.12, 0.33]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[13, 11, 2, 15, 1, 6, 12, 14, 9]</t>
+          <t>[13, 11, 7, 14, 12, 4, 5, 16, 15, 9]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.24524043669980664, 0.21678702907148087, 0.16704186752129307, 0.16536969025387477, 0.14293768682315675, 0.1220696742728291, 0.12026721422231121, 0.11648033428284715, 0.11131232476729494]</t>
+          <t>[0.32585047494289426, 0.24388849717603292, 0.20824427006429744, 0.18901487395171054, 0.17905848964763169, 0.1565587865879136, 0.1344245768592134, 0.13236237874017082, 0.12730537439764344, 0.11313321432169941]</t>
         </is>
       </c>
       <c r="H127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
@@ -5647,39 +5647,39 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>storytelling negative connotation science narrative format communication disregarded communicating science nonexpert audience narrative offer comprehension engagement nonexperts science information mass content biased narrative format narrative intrinsically persuasive offer science communicator tactic persuading resistant audience raise ethical consideration future intersection narrative research ongoing discussion science communication introduced</t>
+          <t>background worrying public health issue china lack timely effective surveillance diffusion adoption internet aggregated internet search engine contain user information concern reality health status provide opportunity surveillance paper search engine monitor forecast china method machine learning method artificial neural network anns forecast incidence death search trend related largest chinese search engine baiducom collected selected input variable anns officially reported actual incidence death output variable criterion mean absolute percentage error root mean squared percentage error agreement test forecasting performance method result based monthly time series january june article criterion method lead satisfactory forecasting incidence death regardless change number search query conclusion despite inability selfdetect online searching internetbased adopted timely costeffective complement traditional surveillance</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>[4]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.374|x2: 0.249|x3: 0.085|x4: 0.000|x5: 0.068|x6: 0.116|x7: 0.193|x8: 0.239|x9: 0.381|x10: 0.141|x11: 0.000|x12: 0.196|x13: 0.206|x14: 0.203|x15: 0.209|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.169|x3: 0.233|x4: 0.122|x5: 0.182|x6: 0.068|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.220|x12: 0.000|x13: 0.000|x14: 0.126|x15: 0.000|x16: 0.103|x17: 0.000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.38]</t>
+          <t>[0.00, 0.08, 0.23]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[9, 1, 2, 8, 15, 13, 14, 12, 7, 10, 6]</t>
+          <t>[3, 11, 5, 2, 14, 4, 16]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.38148067815827785, 0.37409545299944436, 0.24877657133377426, 0.2394241565565229, 0.20904055155628978, 0.20582389364288026, 0.20291243800551828, 0.19605330816374653, 0.19296828077559702, 0.14144183627702647, 0.11630551442724935]</t>
+          <t>[0.2326341472745171, 0.2198094918359102, 0.18218844720095617, 0.1686710866766744, 0.12564405845421703, 0.12175110616170759, 0.10268246908275279]</t>
         </is>
       </c>
       <c r="H128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -5688,32 +5688,32 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>reliable economic livelihood remain scarce developing world hampering effort study outcome design policy improve demonstrate accurate inexpensive scalable method estimating consumption expenditure asset wealth resolution satellite imagery survey satellite african country nigeria tanzania uganda malawi rwandawe convolutional neural network trained identify image feature explain variation locallevel economic outcome method requires publicly available transform effort track target poverty developing country demonstrates powerful machine learning technique applied setting limited training suggesting broad potential application scientific domain</t>
+          <t>introduction artificial intelligence branch science capable analysing complex medical potential exploit meaningful relationship diagnosis treatment predicting outcome clinical scenario method medline internet search carried keywords artificial intelligence neural network reference obtained article overview different artificial intelligent technique presented paper review important clinical application result proficiency artificial intelligent technique explored field medicine artificial neural network commonly analytical tool whilst artificial intelligent technique fuzzy expert evolutionary computation hybrid intelligent different clinical setting discussion artificial intelligence technique potential applied field medicine need clinical trial appropriately designed emergent technique application clinical setting</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>[7]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.145|x4: 0.278|x5: 0.192|x6: 0.135|x7: 0.245|x8: 0.000|x9: 0.195|x10: 0.000|x11: 0.000|x12: 0.062|x13: 0.278|x14: 0.233|x15: 0.145|x16: 0.073|x17: 0.000</t>
+          <t>x1: 0.096|x2: 0.232|x3: 0.198|x4: 0.113|x5: 0.142|x6: 0.000|x7: 0.227|x8: 0.132|x9: 0.130|x10: 0.149|x11: 0.000|x12: 0.163|x13: 0.449|x14: 0.286|x15: 0.329|x16: 0.237|x17: 0.000</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.28]</t>
+          <t>[0.00, 0.17, 0.45]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[13, 4, 7, 14, 9, 5, 15, 3, 6]</t>
+          <t>[13, 15, 14, 16, 2, 7, 3, 12, 10, 5, 8, 9, 4]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.2780491651926235, 0.27803613652486797, 0.24537314780346398, 0.23321531240360954, 0.19530713392627644, 0.19204683441152876, 0.14543536348365968, 0.14481929023241247, 0.13517995089247187]</t>
+          <t>[0.448982034430804, 0.3290525576416159, 0.28581696989099536, 0.23652089605399823, 0.23199090273061063, 0.22721729215113834, 0.19791900704235244, 0.16328192258937915, 0.14900706363918254, 0.14187194155052504, 0.13175144244734677, 0.13013413448977507, 0.11288368068426784]</t>
         </is>
       </c>
       <c r="H129" t="b">
@@ -5729,36 +5729,36 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>today standard tablet device posse equivalent processing power desktop nasa space shuttle programme storing cost today cost approximately human genome sequenced took decade cost today genome sequenced hour thousand dollar appeared apple founder steve enabled outside developer create application iphone today decade later economy worth trillion revenue global pharmaceutical market whatsapp created sends message news celebrity gossip quality travel fast globally forum termed period accelerating innovation science technology transformative change technology capability combined merging digital physical biological realm impact society fourth industrial revolution transforming social network scientific research radically reshaping agenda industry government international community fourth industrial revolution reshaping healthcare mobility education worldwide reshape environmental community related institution work scientist tell facing urgent global environmental challenge despite international environmental agreement established environmental professional aware complacent policybased institutional approach worked necessary longer appear sufficient manage growing environmental challenge goal target sound ability deliver environmental outcome required need augmented result increasing great potential exploring science technology innovation driving fourth industrial revolution applied improving environmental natural resource management arrangement includes technology innovation able imagine technology starting transform look health surely harnessed help transform look environment example wearable tech measuring heart rate quality breathe growing realization rapid advance science technology unintended negative consequence nature need recognized avoided technology come need improved agile governance fourth industrial revolution fully sustainable industrial revolution effective enabling environment approach help government create smart safeguard protocol policy effective oversight recourse mechanism need place avoid unintended consequence ensure society nature benefit revolution example wearable sensor measure quality breathe control access collected government civil society industry important role play help answer question develop principle usage guideline mean bringing stakeholder codevelop science technology development needed need help better understand manage nature environment avoid creating negative unforeseen outcome focus developing policy principle alongside interact acceleration programme promote innovation wider deployment science technology environmental management heart challenge practical term environmental sector helped harness science technology revolution reshaping wider economy society current arrangement enhanced better manage environmental sustain planet earth given increasing pressure nature face human activity time policy principle protocol developed environmental sector risk technology individual society environment minimized opportunity maximized</t>
+          <t>objective introduce summarize current research field public health epidemiology informatics method literature concerning public health epidemiology informatics searched pubmed science returned reference reviewed section editor select candidate best paper paper peerreviewed external reviewer provide editorial team enlightened vision select best paper result reference retrieved pubmed science finally selected best paper analyzes relationship disease social mass public emotion understand public overreaction leading noticeable reduction social economic activity context nationwide outbreak middle east respiratory syndrome mers korea second paper concern methodology deidentify patient note electronic health record based artificial neural network outperformed existing method conclusion surveillance productive topic public health informatics important topic public health appearing example artificial intelligence approach increasing</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>[3, 4, 7, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.085|x6: 0.118|x7: 0.062|x8: 0.091|x9: 0.130|x10: 0.052|x11: 0.000|x12: 0.234|x13: 0.098|x14: 0.158|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.067|x2: 0.179|x3: 0.159|x4: 0.100|x5: 0.093|x6: 0.000|x7: 0.000|x8: 0.092|x9: 0.049|x10: 0.116|x11: 0.187|x12: 0.115|x13: 0.303|x14: 0.320|x15: 0.206|x16: 0.189|x17: 0.000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.13, 0.32]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[12, 14, 9, 6]</t>
+          <t>[14, 13, 15, 16, 11, 2, 3, 10, 12, 4]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.23432149083235526, 0.15829857041264964, 0.13038829481441272, 0.11831700243694089]</t>
+          <t>[0.3204918136573801, 0.30327529776407836, 0.20553398835549114, 0.188925632915499, 0.18678894261046478, 0.17934315787608723, 0.1592833044760229, 0.11623046360495395, 0.11525118512050836, 0.1001185337856111]</t>
         </is>
       </c>
       <c r="H130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I130" t="b">
         <v>1</v>
@@ -5770,32 +5770,32 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>robot assisted technology task previously performed labor increasing concern future wage analyze effect increase industrial robot usage local labor market model robot compete human labor production different task robot reduce employment wage local labor market effect robot estimated regressing change employment wage exposure robot local labor market defined national penetration robot industry local distribution employment industry approach estimate large robust negative effect robot employment wage commuting zone bolster evidence showing commuting zone exposed robot post exhibit differential trend impact robot distinct impact import china mexico decline routine offshoring type capital capital stock fact exposure robot weakly correlated variable according estimate robot thousand worker reduces employment population ratio percentage point wage percent</t>
+          <t>optical microscope widely tool diagnosing infectious disease developing world reliance trained microscopist field microscopy suffers poor sensitivity specificity reproducibility goal work called autoscope lowcost automated digital microscope coupled vision classification algorithm accurately diagnose variety infectious disease targeting usecases developing world initial target malaria difficulty task manual microscopy currently central highly imperfect tool malaria work field addition diagnosis algorithm performs specie identification quantitation parasite load parameter critical field application effectively rapid diagnostic test rdts</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>[8]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.089|x3: 0.065|x4: 0.088|x5: 0.000|x6: 0.164|x7: 0.118|x8: 0.267|x9: 0.097|x10: 0.321|x11: 0.000|x12: 0.087|x13: 0.000|x14: 0.253|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.056|x2: 0.168|x3: 0.157|x4: 0.204|x5: 0.084|x6: 0.204|x7: 0.243|x8: 0.077|x9: 0.306|x10: 0.091|x11: 0.156|x12: 0.144|x13: 0.208|x14: 0.000|x15: 0.160|x16: 0.146|x17: 0.000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.32]</t>
+          <t>[0.00, 0.14, 0.31]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[10, 8, 14, 6, 7]</t>
+          <t>[9, 7, 13, 6, 4, 2, 15, 3, 11, 16, 12]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.32095687334136247, 0.2668074543305338, 0.2526298087249573, 0.16411429338509312, 0.1178135665455882]</t>
+          <t>[0.30640213858030796, 0.2431132635229385, 0.20834383073084173, 0.20415471727805162, 0.20387455391664694, 0.16769999645501552, 0.16049582526037728, 0.15669857499794668, 0.15631169413342094, 0.14613539137636164, 0.1440692819198746]</t>
         </is>
       </c>
       <c r="H131" t="b">
@@ -5811,36 +5811,36 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>time finally come artificial intelligence period hype followed winter past today announcement technical breakthrough enabling superhuman performance machine follow rapid succession power realworld application ranging facial recognition language translator assistant like siri alexa barely notice consumer application company sector increasingly harnessing power operation embracing promise considerable benefit business economy contribution productivity growth innovation adopter starting reap benefit adoption relatively early stage uneven readiness varies widely company sector country time impact work profound occupation demand skill decline grow change work alongside everevolving increasingly capable machine scenario developed suggest created lost automation transition disruptive occupation skill requirement shift significantly potential contribute tackling pressing societal challenge healthcare climate change humanitarian crisis introduce exacerbate social challenge misuse challenge related bias privacy cybersecurity given economic benefit policy maker business leader embrace place measure facilitate adoption soften disruptive transition accompany place focus responsible briefing note draw ongoing research mckinsey global institute technology limitation impact concludes issue policy maker business leader need address list main source note suggestion reading appear</t>
+          <t>background study validate fetal medicine foundation multiple logistic regression algorithm prediction risk preeclampsia australian population model predicts risk population rate preeclampsia variety demographic factor mean maternal arterial blood pressure uterine artery plasma protein pappa shown predict earlyonset preeclampsia delivery prior week woman falsepositive rate method woman attended trimester screening royal prince alfred hospital body mass assessed addition factor traditionally aneuploidy including pappa delivery risk earlyonset delivery prior week preeclampsia late preeclampsia gestational hypertension calculated risk algorithm result woman screened delivered locally woman perform preeclampsia screening available included woman live risk early preeclampsia calculated woman delivered week early preeclampsia prevalence early preeclampsia pregnancy risk generated maternal history pappa detected early preeclampsia falsepositive rate respectively conclusion study early preeclampsia algorithm effective australian population</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>[8, 9, 12, 16]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.205|x5: 0.253|x6: 0.072|x7: 0.148|x8: 0.000|x9: 0.191|x10: 0.072|x11: 0.000|x12: 0.160|x13: 0.188|x14: 0.000|x15: 0.000|x16: 0.108|x17: 0.000</t>
+          <t>x1: 0.067|x2: 0.000|x3: 0.199|x4: 0.117|x5: 0.247|x6: 0.053|x7: 0.311|x8: 0.092|x9: 0.000|x10: 0.052|x11: 0.113|x12: 0.106|x13: 0.328|x14: 0.181|x15: 0.167|x16: 0.064|x17: 0.000</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.25]</t>
+          <t>[0.00, 0.12, 0.33]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[5, 4, 9, 13, 12, 7, 16]</t>
+          <t>[13, 7, 5, 3, 14, 15, 4, 11, 12]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.25261780585214216, 0.20512741512822033, 0.1913080350479134, 0.1883823669893756, 0.1597689932818617, 0.14804868855804063, 0.10764496840943272]</t>
+          <t>[0.32787264400047583, 0.3108738438716773, 0.2470739468993299, 0.19866584734366796, 0.18053652380110344, 0.1671815451790863, 0.11711828259279902, 0.11320068106168979, 0.10590269538778103]</t>
         </is>
       </c>
       <c r="H132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="b">
         <v>1</v>
@@ -5852,32 +5852,32 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>recent revival concern automation digitalisation result jobless future debate fuelled study europe arguing substantial risk computerisation study follow occupationbased approach proposed frey osborne assume occupation single jobtasks automated technology argue lead overestimation automatibility occupation labelled highrisk occupation contain substantial task hard automate paper serf purpose firstly estimate automatibility oecd country based taskbased approach contrast study account heterogeneity worker task occupation overall oecd country automatable threat technological advance pronounced compared occupationbased approach heterogeneity oecd country instance automatable korea corresponding austria difference country reflect general difference workplace organisation difference previous investment automation technology difference education worker country second purpose paper critically reflect recent study generate figure risk computerisation provide comprehensive discussion possible adjustment process firm worker automation digitalisation particular argue estimated risk equated actual expected employment loss technological advance reason utilisation technology slow process economic legal societal hurdle technological substitution place expected second technology introduced worker adjust changing technological endowment switching task preventing technological unemployment technological change generates additional demand technology higher competitiveness main conclusion paper automation digitalisation unlikely destroy large number qualified worker bear brunt adjustment cost automatibility higher compared highly qualified worker challenge future coping rising inequality ensuring sufficient retraining especially qualified worker</t>
+          <t>identifying robust survival subgroup hepatocellular carcinoma significantly improve patient care currently endeavor integrating multiomics explicitly predict survival multiple patient cohort lacking present deep learning based model robustly differentiates survival subpopulation patient cohort build based model patient rnaseq mirnaseq methylation tcga predicts prognosis good alternative model genomics clinical considered based model provides optimal subgroup patient significant survival difference good model fitness cindex aggressive subtype associated frequent inactivation mutation higher expression stemness marker epcam tumor marker birc activated signaling pathway validated multiomics model external datasets omics type lirijp cohort cindex cohort cindex chinese cohort cindex etabm cohort cindex hawaiian cohort cindex study employ deep learning identify multiomics feature linked differential survival patient given robustness multiple cohort expect workflow useful predicting prognosis prediction</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>[8, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.201|x2: 0.087|x3: 0.109|x4: 0.160|x5: 0.096|x6: 0.000|x7: 0.000|x8: 0.230|x9: 0.171|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.100|x14: 0.121|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.187|x2: 0.000|x3: 0.155|x4: 0.356|x5: 0.235|x6: 0.373|x7: 0.576|x8: 0.257|x9: 0.361|x10: 0.130|x11: 0.085|x12: 0.057|x13: 0.292|x14: 0.229|x15: 0.091|x16: 0.150|x17: 0.000</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.23]</t>
+          <t>[0.00, 0.21, 0.58]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[8, 1, 9, 4, 14, 3]</t>
+          <t>[7, 6, 9, 4, 13, 8, 5, 14, 1, 3, 16, 10]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.23003748938999974, 0.20098237513178877, 0.1713469364233134, 0.1597114773262293, 0.12086265520106942, 0.10860482882574765]</t>
+          <t>[0.5761485506672466, 0.37321428945883756, 0.36088089997320794, 0.3561976851477928, 0.2924361910600979, 0.2573835126658065, 0.23463896834939213, 0.2288088879840173, 0.18664130159789802, 0.15536346179122157, 0.15000491484581846, 0.13039611419694502]</t>
         </is>
       </c>
       <c r="H133" t="b">
@@ -5893,32 +5893,32 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>cellular network assumed enabler infrastructure provider industry offering variety service diverse requirement standardization cellular network expedited implies candidate technology adopted worthwhile provide insight candidate technique examine design philosophy article highlight fundamental feature revolutionary technique emerges initial intelligence nearly important aspect cellular network including radio resource management mobility management service provisioning management faced increasingly complicated configuration issue blossoming service requirement insufficient cellular network lack complete functionality introduce fundamental concept discus relationship candidate technique cellular network specifically highlight opportunity challenge exploit achieve intelligent network demonstrate effectiveness manage orchestrate cellular network resource envision empowered cellular network acclaimed enabler reality</t>
+          <t>present method predicting preterm infant inhospital mortality bayesian gaussian process classification combined feature extracted sensor measurement hour care weight infant weight standard clinical feature calculated arrival neonatal intensive care unit time period hour evaluated achieved classification result area receiver operating characteristic curve excess result achieved clinical standard snapii snappeii score</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>[9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.038|x3: 0.000|x4: 0.108|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.232|x10: 0.000|x11: 0.052|x12: 0.091|x13: 0.142|x14: 0.038|x15: 0.092|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.162|x3: 0.213|x4: 0.130|x5: 0.188|x6: 0.331|x7: 0.056|x8: 0.134|x9: 0.199|x10: 0.116|x11: 0.070|x12: 0.324|x13: 0.158|x14: 0.257|x15: 0.261|x16: 0.172|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.23]</t>
+          <t>[0.00, 0.17, 0.33]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[9, 13, 4]</t>
+          <t>[6, 12, 15, 14, 3, 9, 5, 16, 2, 13, 8, 4, 10]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.2317632069598891, 0.14184318855537906, 0.10818632558286881]</t>
+          <t>[0.33069374035383237, 0.32356351376212733, 0.26112722215240625, 0.25660012665329784, 0.2125424293321285, 0.19929464848048545, 0.18760346188648494, 0.1719699918879664, 0.16222373343068858, 0.15759456460380622, 0.13422778412770467, 0.1295953592483018, 0.1162766128346218]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5934,36 +5934,36 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>agenda enthusiastic great potential accelerating human progress brought information communication technology global time acknowledges dark innovation challenge cybersecurity threat risk privacy unleashed artificial intelligence military related cyber operation cyberattacks climate change increasing inequality power concentration challenge solved country acting isolation urgently require strengthened multilateralism time major technological shift necessary implement global transition required agenda resilient economic social development model technology exists strategy needed generalize global level</t>
+          <t>common barrier healthcare psychiatric condition stigma associated disorder perceived stigma prevents reporting symptom stigma particularly pervasive problem military service member preventing reporting symptom combatrelated condition like posttraumatic disorder ptsd research reporting service member anonymous assessment example service member report symptom ptsd anonymously answer postdeployment health assessment pdha symptom checklist compared official pdha identifiable linked military record investigate factor influence reporting psychological symptom service member transformative technology automated virtual human interview symptom virtual human interviewer allow simultaneous technique eliciting disclosure incompatible afford anonymity building rapport examined virtual human interviewer increase disclosure mental health symptom activeduty service member returned yearlong deployment afghanistan service member reported symptom conversation virtual human interviewer official pdha reported virtual human interviewer anonymized pdha second larger sample activeduty service member similar effect approached statistical significance respondent study shared virtual human interviewer anonymized pdhaeven condition control stigma ramification service member military recordsvirtual human interviewer build rapport provide superior option encourage reporting</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>[8, 11, 9]</t>
+          <t>[3]</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.290|x8: 0.000|x9: 0.365|x10: 0.143|x11: 0.075|x12: 0.184|x13: 0.418|x14: 0.075|x15: 0.080|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.129|x3: 0.194|x4: 0.000|x5: 0.248|x6: 0.150|x7: 0.175|x8: 0.110|x9: 0.081|x10: 0.168|x11: 0.140|x12: 0.000|x13: 0.149|x14: 0.208|x15: 0.000|x16: 0.283|x17: 0.000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.42]</t>
+          <t>[0.00, 0.12, 0.28]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[13, 9, 7, 12, 10]</t>
+          <t>[16, 5, 14, 3, 7, 10, 6, 13, 11, 2, 8]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.41767146773410496, 0.365351286340083, 0.28954962292421765, 0.18366202515671243, 0.14274472851975176]</t>
+          <t>[0.28276083717827877, 0.24799346741649334, 0.2075952352671981, 0.19366879808518733, 0.17527923795967684, 0.16834903737535267, 0.1502862224633357, 0.1490931121078784, 0.14044052623330636, 0.12915660159577844, 0.11010319628698877]</t>
         </is>
       </c>
       <c r="H135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I135" t="b">
         <v>1</v>
@@ -5975,32 +5975,32 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>advocate algorithmic technique like mining argue technique eliminate human bias decision making process algorithm good work frequently imperfect allow algorithm inherit prejudice prior decision maker simply reflect widespread bias persist society large mining discover surprisingly useful regularity preexisting pattern exclusion inequality unthinking reliance mining deny historically disadvantaged vulnerable group participation society worse resulting discrimination unintentional emergent property algorithm conscious choice programmer unusually hard identify source problem explain court</t>
+          <t>contribution provides review fundamental goal development future perspective driver assistance mobility fundamental desire mankind virtually society strives safe efficient mobility ecological economic cost technical implementation significantly differs society depending culture degree potential evolutionary roadmap driver assistance discussed emerging based proprioceptive sensor review progress incented exteroceptive sensor radar video lidar ultimate goal automated cooperative traffic remains vision future intermediate step realized mitigate avoid collision selected driving situation research extends stateoftheart automated driving urban traffic cooperative driving addressing communication collaboration different vehicle cooperative vehicle operation driver machine intelligence step considered important interim period reliable unsupervised automated driving conceivable traffic situation available prospective evolution driver assistance stimulated technological societal market trend paper close view current research field</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[11, 3]</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.267|x2: 0.000|x3: 0.210|x4: 0.192|x5: 0.340|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.000|x10: 0.230|x11: 0.172|x12: 0.190|x13: 0.000|x14: 0.218|x15: 0.000|x16: 0.123|x17: 0.000</t>
+          <t>x1: 0.062|x2: 0.293|x3: 0.174|x4: 0.052|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.085|x9: 0.310|x10: 0.121|x11: 0.206|x12: 0.084|x13: 0.347|x14: 0.321|x15: 0.151|x16: 0.201|x17: 0.000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.34]</t>
+          <t>[0.00, 0.14, 0.35]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[5, 1, 10, 14, 3, 4, 12, 11, 7, 16]</t>
+          <t>[13, 14, 9, 2, 11, 16, 3, 15, 10]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.34035857739975994, 0.2666075396479299, 0.22963462161442558, 0.21756131781659366, 0.21018665205503037, 0.19204511698924792, 0.1896331926373488, 0.17164473862183452, 0.1553960228957848, 0.12263519454386998]</t>
+          <t>[0.34725077407570437, 0.3205505280661923, 0.30959566228863844, 0.293394348346672, 0.20551775956329316, 0.20078207710887006, 0.17364152514776418, 0.1513926043395652, 0.12101440192898412]</t>
         </is>
       </c>
       <c r="H136" t="b">
@@ -6016,39 +6016,39 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>globalization created opportunity difficult problem community psychologist economic change created different area world promoted emergence sharing economy fostered huge disparity country political change polarization growth nationalist populist amplify divisiveness transformation notion citizenship identity technological change brought artificial intelligence revolution open opportunity danger prospect diffusion social network able promoting political participation increasing political polarization finally community psychologist pursue help develop opportunity reduce problem emerge change discussed</t>
+          <t>discussion woman access digital information communication technology developing country inconclusive claim woman technophobic better user digital tool argue woman embrace digital communication article question empirical test analyze latin american african country believed extensive empirical study field result surprisingly consistent revealing reason fewer woman access direct result unfavorable condition respect employment education income controlling variable woman turn active user digital tool turn alleged digital gender divide opportunity given woman affinity given digital technology tool improve living condition represent concrete tangible opportunity tackle longstanding challenge gender inequality developing country including access employment income education health service</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>[10]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.184|x3: 0.000|x4: 0.225|x5: 0.099|x6: 0.000|x7: 0.000|x8: 0.082|x9: 0.186|x10: 0.000|x11: 0.000|x12: 0.251|x13: 0.136|x14: 0.174|x15: 0.000|x16: 0.115|x17: 0.000</t>
+          <t>x1: 0.070|x2: 0.242|x3: 0.147|x4: 0.348|x5: 0.243|x6: 0.123|x7: 0.222|x8: 0.097|x9: 0.172|x10: 0.083|x11: 0.000|x12: 0.133|x13: 0.094|x14: 0.000|x15: 0.000|x16: 0.123|x17: 0.000</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.25]</t>
+          <t>[0.00, 0.12, 0.35]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[12, 4, 9, 2, 14, 13, 16]</t>
+          <t>[4, 5, 2, 7, 9, 3, 12, 6, 16]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.25058237131114014, 0.22486776848156095, 0.18612940220373672, 0.18369920610673343, 0.1743334520766438, 0.1360883220287531, 0.1146218460831589]</t>
+          <t>[0.34805882208603645, 0.2432202031941039, 0.2424139923494518, 0.22200796246777935, 0.17185735693708484, 0.14725785443104614, 0.13282226841652373, 0.12307437745859984, 0.1229543463444736]</t>
         </is>
       </c>
       <c r="H137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -6057,32 +6057,32 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>advance artificial intelligence robotics leading industrial revolution paper present model necessary feature analyze implication inequality output assumption robot capital distinct traditional capital degree human labor capitalist skilled worker save analyze range variant reflect widely different view automation transform labor market main result surprisingly robust automation good growth equality benchmark model wage fall short eventually rise eventually easily generation</t>
+          <t>intelligent tutoring program model learner psychological state provide individualized instruction developed diverse subject area algebra medicine reading help learner acquire domainspecific cognitive metacognitive knowledge metaanalysis conducted research compared outcome student learning learning nonits learning environment metaanalysis examined effect size varied type type comparison treatment received learner type learning outcome knowledge learned procedural declarative factor search major bibliographic database effect size involving participant extracted analyzed associated greater achievement comparison teacherled largegroup instruction nonits computerbased instruction textbook workbook significant difference learning learning individualized human tutoring smallgroup instruction significant positive mean effect size regardless principal mean instruction supplement teacherled instruction integral component teacherled instruction homework significant positive effect size level education subject domain evaluated provided feedback modeled student misconception claim relatively effective tool learning consistent analysis potential publication bias</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>[9, 10]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.193|x3: 0.165|x4: 0.121|x5: 0.000|x6: 0.109|x7: 0.267|x8: 0.134|x9: 0.164|x10: 0.208|x11: 0.000|x12: 0.234|x13: 0.272|x14: 0.223|x15: 0.000|x16: 0.162|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.118|x3: 0.078|x4: 0.434|x5: 0.233|x6: 0.000|x7: 0.217|x8: 0.104|x9: 0.101|x10: 0.094|x11: 0.051|x12: 0.191|x13: 0.133|x14: 0.000|x15: 0.000|x16: 0.140|x17: 0.000</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.27]</t>
+          <t>[0.00, 0.12, 0.43]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[13, 7, 12, 14, 10, 2, 3, 9, 16, 8, 4, 6]</t>
+          <t>[4, 5, 7, 12, 16, 13, 2, 8, 9]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.2720259723772627, 0.26694179493926273, 0.23437563033615907, 0.2225250127407398, 0.20841942907862893, 0.19307425188946659, 0.16464142501110826, 0.1639516093663474, 0.16193095709877675, 0.13385769938102093, 0.1206355808166237, 0.10862573382434704]</t>
+          <t>[0.4335847406226388, 0.2334211325060561, 0.2172767464537124, 0.1908022704906474, 0.14003552485063667, 0.13309960183153463, 0.11811672545117177, 0.10416246566635728, 0.1011017164113872]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6098,32 +6098,32 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>study present application artificial intelligence development sustainable transport smart city india huge demand supply public transport urban city india rapid urbanization india realize importance developing smart city improve quality life captivate foreign investment build superior quality infrastructure india majority indian city facing problem congestion safety inadequate public transport facility inappropriate information inadequate parking space environmental pollution sustainable transport eliminate problem providing safer faster comfortable efficient environment friendly help development smart city implementation intelligent transport urgent need develop intelligent transport indian city play role development sustainable transport main requirement adopt artificial intelligence development smart city india main objective article present major application intelligent transport development sustainable transport smart city study implementation intelligent transport development sustainable transport smart city india</t>
+          <t>long research tradition focused information communication technology development explore role artificial intelligence start technical review characteristic trait deep learning technology lead natural metaphor international development based empirical evidence study derive characteristic align technological trait isolation present plethora opportunity contribute international development especially attainment sustainable development goal sdgs combination create clear tension looming threat hegemonic intelligence indoctrination pushed global economy scale potential promise honor celebrate local diversity help flexible design conclude achieved active public policy dialogue international level effort national level especially developing country study provides terminology concept identify frame arising discussion</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>[11]</t>
+          <t>[5]</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.071|x2: 0.000|x3: 0.000|x4: 0.104|x5: 0.000|x6: 0.097|x7: 0.300|x8: 0.000|x9: 0.074|x10: 0.000|x11: 0.356|x12: 0.126|x13: 0.133|x14: 0.071|x15: 0.059|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.092|x2: 0.269|x3: 0.000|x4: 0.318|x5: 0.182|x6: 0.000|x7: 0.080|x8: 0.126|x9: 0.203|x10: 0.115|x11: 0.000|x12: 0.106|x13: 0.250|x14: 0.245|x15: 0.127|x16: 0.174|x17: 0.000</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.36]</t>
+          <t>[0.00, 0.13, 0.32]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[11, 7, 13, 12, 4]</t>
+          <t>[4, 2, 13, 14, 9, 5, 16, 15, 8, 10, 12]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.3558192785221434, 0.30031712289994683, 0.13272005462533806, 0.12609787672976702, 0.10434609712021069]</t>
+          <t>[0.31763746270528687, 0.2688579625710888, 0.25044274791919596, 0.2447834108052024, 0.20291559809537052, 0.18178474035146497, 0.1735143400367226, 0.12685764402107233, 0.1262229531446557, 0.11541896029321054, 0.10590275104273945]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6139,36 +6139,36 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>machine learning algorithm tremendously power recent fully utilized ecology sustainable resource management domain wildlife reserve design forest management invasive specie spread thing domain common contain dynamic characterized spatially spreading process requires parameter precisely model dynamic spread rate directional bias element spreading present related work artificial intelligence machine learning sustainability domain including forest wildfire prediction introduce novel approach learning domain reinforcement learning agent cell landscape action location point time includes spreading north south east west spreading approach inverts usual setup dynamic corresponding markov decision process known function immed iate wildfire spread learn agent policy predictive model dynamic complex spatial process reward provided correctly classifying cell compared satellite related examine behavior algorithm problem value iteration policy iteration qlearning monte carlo tree search asynchronous advantage actorcritic compare gaussian processbased supervised learning approach discus relation approach manually constructed stateoftheart method forest wildfire modeling validate approach satellite image massive wildfire event northern alberta canada fort mcmurray richardson result learn predictive agentbased policy model spatial dynamic readily available satellite image method additional advantage term</t>
+          <t>protecting world freshwater resource requires diagnosing threat broad range scale fromglobal local present worldwide synthesis jointly consider human biodiversity perspective water security spatial framework quantifies multiple stressor account downstream impact nearly world population exposed level threat water security massive investment water technology enables rich offset stressor level remedying underlying cause wealthy remain vulnerable similar lack precautionary investment jeopardizes biodiversity habitat associated continental discharge classified moderately highly threatened cumulative threat framework offer tool prioritizing policy management response crisis underscore necessity limiting threat source instead costly remediation symptom order assure global water security human freshwater biodiversity</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>[11, 15]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.055|x2: 0.000|x3: 0.074|x4: 0.132|x5: 0.165|x6: 0.256|x7: 0.000|x8: 0.069|x9: 0.150|x10: 0.000|x11: 0.000|x12: 0.132|x13: 0.128|x14: 0.170|x15: 0.172|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.273|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.194|x7: 0.158|x8: 0.053|x9: 0.201|x10: 0.000|x11: 0.133|x12: 0.159|x13: 0.318|x14: 0.276|x15: 0.368|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.26]</t>
+          <t>[0.00, 0.13, 0.37]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[6, 15, 14, 5, 9, 4, 12, 13]</t>
+          <t>[15, 13, 14, 2, 9, 6, 12, 7, 11]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.2561992770859075, 0.17186988353430344, 0.169690438047916, 0.1645610217818985, 0.14959468799369874, 0.13198241974483257, 0.13150987589109062, 0.1278339298503141]</t>
+          <t>[0.3676329170722658, 0.31841669997450534, 0.2761251443995693, 0.27264222113019265, 0.2007797010555527, 0.1935474440726264, 0.1592857667415472, 0.15831753942359658, 0.13314894136760114]</t>
         </is>
       </c>
       <c r="H140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="b">
         <v>1</v>
@@ -6180,39 +6180,39 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ability transform vast complex ambiguous information insight potential reveal longheld secret help solve world enduring problem like powerful technology great care taken development deployment reap societal benefit need trust sure follow ethical principle moral value professional code social norm human follow scenario research educational effort carefully designed regulation place achieve goal international business machine corporation actively engaged internally collaborator competitor global discussion ethical beneficial possible society</t>
+          <t>storytelling negative connotation science narrative format communication disregarded communicating science nonexpert audience narrative offer comprehension engagement nonexperts science information mass content biased narrative format narrative intrinsically persuasive offer science communicator tactic persuading resistant audience raise ethical consideration future intersection narrative research ongoing discussion science communication introduced</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>[16, 10]</t>
+          <t>[6]</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.196|x2: 0.000|x3: 0.000|x4: 0.194|x5: 0.206|x6: 0.130|x7: 0.084|x8: 0.310|x9: 0.245|x10: 0.222|x11: 0.000|x12: 0.218|x13: 0.414|x14: 0.171|x15: 0.123|x16: 0.322|x17: 0.000</t>
+          <t>x1: 0.106|x2: 0.250|x3: 0.225|x4: 0.000|x5: 0.290|x6: 0.000|x7: 0.244|x8: 0.146|x9: 0.396|x10: 0.114|x11: 0.062|x12: 0.063|x13: 0.514|x14: 0.453|x15: 0.272|x16: 0.163|x17: 0.000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.41]</t>
+          <t>[0.00, 0.19, 0.51]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[13, 16, 8, 9, 10, 12, 5, 1, 4, 14, 6, 15]</t>
+          <t>[13, 14, 9, 5, 15, 2, 7, 3, 16, 8, 10, 1]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.4136686859032747, 0.3220003281812292, 0.3100977820204599, 0.24531371789938441, 0.2221128885812516, 0.21820944115362795, 0.2056142038811355, 0.19631971137842266, 0.19364934621563362, 0.170815031838207, 0.129759705423881, 0.12297809828966906]</t>
+          <t>[0.5144249829191926, 0.4530495595375246, 0.3963545408943545, 0.2903622926211641, 0.2717460507624651, 0.2497048927035769, 0.24371621451722, 0.22468015596410618, 0.16340298321116042, 0.1459275942978593, 0.1142807930591971, 0.10581919508638668]</t>
         </is>
       </c>
       <c r="H141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
@@ -6221,36 +6221,36 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>recent witnessed exponential growth automation power decision impact life society bring potential benefit reducing human bias speeding decision making fraught risk increasing machine bias rendering decision making opaque remote consideration fairness accountability transparency process fundamental omidyar network governance citizen engagement initiative started funding advocating open following snowden revelation summer included privacy surveillance reform effort realizing openness privacy closely related focused helping develop framework governing collection access storage usage right recently started looking impact release light processing power access decision government corporate sector actor increasingly automated government algorithm screen immigrant allocate social service vital know interrogate hold accountable main increase individual control agency decision impact life ultimately society believe accountability transparency agenda benefit better understanding ultimately scrutinizing automated decision making explore question partnered upturn landscape public scrutiny automated decision making term civil society nascent sector regulation place help regulate study developed clear pave textured practical understanding algorithmic transparency omidyar network explore issue companion paper released later hope report help civil society actor consider gain empowering public audience effectively scrutinize understand help govern automated decision hope start laying policy framework governance adding growing rich literature social economic impact decision finally hope report finding analysis help inform funders decision important growing field</t>
+          <t>reliable economic livelihood remain scarce developing world hampering effort study outcome design policy improve demonstrate accurate inexpensive scalable method estimating consumption expenditure asset wealth highresolution satellite imagery survey satellite african uganda malawi rwandawe convolutional neural network trained identify image feature explain variation locallevel economic outcome method requires publicly available transform effort track target poverty developing country demonstrates powerful machine learning technique applied setting limited training suggesting broad potential application scientific domain</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>[10, 11, 16]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.173|x6: 0.086|x7: 0.000|x8: 0.099|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.139|x13: 0.064|x14: 0.197|x15: 0.000|x16: 0.171|x17: 0.000</t>
+          <t>x1: 0.096|x2: 0.000|x3: 0.082|x4: 0.524|x5: 0.241|x6: 0.000|x7: 0.292|x8: 0.132|x9: 0.414|x10: 0.092|x11: 0.000|x12: 0.000|x13: 0.224|x14: 0.172|x15: 0.059|x16: 0.125|x17: 0.000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.20]</t>
+          <t>[0.00, 0.14, 0.52]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[14, 5, 16, 12]</t>
+          <t>[4, 9, 7, 5, 13, 14, 8, 16]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.1972425807272171, 0.17290416733989486, 0.17106513003220614, 0.13905935583461998]</t>
+          <t>[0.5242809863378969, 0.41366596521594573, 0.29190165597962564, 0.2414450953711947, 0.22426005479065328, 0.1715229500830201, 0.132133363651142, 0.12506007517629386]</t>
         </is>
       </c>
       <c r="H142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="b">
         <v>1</v>
@@ -6262,32 +6262,32 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>protected area effective tool reducing biodiversity loss current legislation distinguishes type marine protected area allowing different level resource extraction theory spatial conservation planning focused identifying notake reserve current approach zoning multiple type protected area result suboptimal plan term protecting biodiversity minimizing negative socioeconomic impact overcame limitation application multizone planning tool marxan zone design network type protected area context california marine life protection produced zoning configuration entail mean value loss fishery compromising conservation goal spatial numerical optimization tool allows multiple zone outperforms tool identify zone marine reserve overall impact fishing industry reduced second equitable impact different fishing sector achieved finally examined tradeoff representing biodiversity feature impacting fishery approach applicable marine terrestrial conservation planning delivers ecosystembased management outcome balance conservation industry objective</t>
+          <t>today standard tablet device posse equivalent processing power desktop nasa space shuttle programme storing cost today cost approximately human genome sequenced took decade cost today genome sequenced hour thousand dollar appeared apple founder steve enabled outside developer create application iphone today decade later economy worth trillion revenue global pharmaceutical market whatsapp created sends message news celebrity gossip quality travel fast globally forum termed period accelerating innovation science technology transformative change technology capability combined merging digital physical biological realm impact society fourth industrial revolution transforming social network scientific research radically reshaping agenda industry government international community fourth industrial revolution reshaping healthcare mobility education worldwide reshape environmental community related institution work scientist tell facing urgent global environmental challenge despite international environmental agreement established environmental professional aware complacent policybased institutional approach worked necessary longer appear sufficient manage growing environmental challenge goal target sound ability deliver environmental outcome required need augmented result increasing great potential exploring science technology innovation driving fourth industrial revolution applied improving environmental natural resource management arrangement includes technology innovation able imagine technology starting transform look health surely harnessed help transform look environment example wearable tech measuring heart rate quality breathe growing realization rapid advance science technology unintended negative consequence nature need recognized avoided technology come need improved agile governance fourth industrial revolution fully sustainable industrial revolution effective enabling environment approach help government create smart safeguard protocol policy effective oversight recourse mechanism need place avoid unintended consequence ensure society nature benefit revolution example wearable sensor measure quality breathe control access collected government civil society industry important role play help answer question develop principle usage guideline mean bringing stakeholder codevelop science technology development needed need help better understand manage nature environment avoid creating negative unforeseen outcome focus developing policy principle alongside interact acceleration programme promote innovation wider deployment science technology environmental management heart challenge practical term environmental sector helped harness science technology revolution reshaping wider economy society current arrangement enhanced better manage environmental sustain planet earth given increasing pressure nature face human activity time policy principle protocol developed environmental sector risk technology individual society environment minimized opportunity maximized</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[7]</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.149|x5: 0.000|x6: 0.000|x7: 0.082|x8: 0.000|x9: 0.075|x10: 0.000|x11: 0.000|x12: 0.165|x13: 0.000|x14: 0.234|x15: 0.167|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.132|x3: 0.000|x4: 0.212|x5: 0.117|x6: 0.065|x7: 0.238|x8: 0.065|x9: 0.208|x10: 0.086|x11: 0.184|x12: 0.000|x13: 0.295|x14: 0.377|x15: 0.188|x16: 0.141|x17: 0.000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.23]</t>
+          <t>[0.00, 0.14, 0.38]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[14, 15, 12, 4]</t>
+          <t>[14, 13, 7, 4, 9, 15, 11, 16, 2, 5]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.23403262182664028, 0.16650037576818688, 0.16488529854353667, 0.14886766223998643]</t>
+          <t>[0.3770964636119836, 0.29542323187397496, 0.23769776618562471, 0.2118347148950049, 0.2078108750848547, 0.18752587668411086, 0.18415995843532437, 0.14088142666012277, 0.13151879837814434, 0.11746689163919016]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6303,32 +6303,32 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>national oceanic atmospheric administration noaa integrated coral observing network icon operational work closely government international environmental partner involved coral reef research icon program pioneered artificial intelligence technique near realtime stream environment sensor network seakeys network florida australia institute marine science weather network noaa coral reef ecosystem division network pacific integrated coral observing network icon station caribbean innovative approach coral monitoring station deployment icon program recently pioneered technique near realtime integration satellite situ radar source purpose ecological forecasting event coral bleaching coral spawning upwelling marine behavioral physical oceanographic event icon program ushered pulse amplitude modulating fluorometry measure near realtime physiological recording response environmental coral bleaching providing better ecological forecasting capability artificial intelligence integrative technique herewith technique report coral calcification instrumentation augmenting icon network sensor array</t>
+          <t>robot technology task previously performed labor increasing concern future wage analyze effect increase industrial robot usage local labor market model robot compete human labor production different task robot reduce employment wage local labor market effect robot estimated regressing change employment wage exposure robot local labor marketdefined national penetration robot industry local distribution employment industry approach estimate large robust negative effect robot employment wage commuting zone bolster evidence showing commuting zone exposed robot post exhibit differential trend impact robot distinct impact import china mexico decline routine offshoring type capital capital stock fact exposure robot weakly correlated variable according estimate robot thousand worker reduces employment population ratio percentage point wage percent</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.047|x5: 0.049|x6: 0.193|x7: 0.118|x8: 0.000|x9: 0.128|x10: 0.000|x11: 0.124|x12: 0.050|x13: 0.150|x14: 0.359|x15: 0.207|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.217|x3: 0.000|x4: 0.148|x5: 0.307|x6: 0.070|x7: 0.054|x8: 0.126|x9: 0.097|x10: 0.143|x11: 0.099|x12: 0.107|x13: 0.167|x14: 0.338|x15: 0.100|x16: 0.227|x17: 0.000</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.36]</t>
+          <t>[0.00, 0.13, 0.34]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[14, 15, 6, 13, 9, 11, 7]</t>
+          <t>[14, 5, 16, 2, 13, 4, 10, 8, 12, 15]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.3592692773778325, 0.20714933676462907, 0.1933269231329126, 0.15030440258653843, 0.1282259181068988, 0.12387811799489704, 0.11762665043691542]</t>
+          <t>[0.33770654705047504, 0.30736937874431264, 0.2267637494199569, 0.21660637164358992, 0.16722200977333124, 0.14834929822618484, 0.14271569140209142, 0.1256169585862842, 0.10690214544799477, 0.10009896686138615]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6344,32 +6344,32 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>marine cabled video observatory allow destructive sampling specie frequency duration attained lack appropriate method automatically process video imagery limit technology purpose ecosystem monitoring automation prerequisite deal huge quantity video footage captured camera transform device true autonomous sensor study developed novel methodology based genetic programming content based image analysis capture temporal dynamic fish abundance processed image acquired challenging world coastal scenario testing site image collected frequency continuously night highly variable environmental condition allowed test effectiveness approach changing light radiation water turbidity background confusion biofouling growth camera housing automated recognition result highly correlated manual count highly reliable track fish variation different hourly daily monthly time scale addition methodology easily transferred cabled video observatory</t>
+          <t>time finally come artificial intelligence period hype followed winter past today announcement technical breakthrough enabling superhuman performance machine follow rapid succession power realworld application ranging facial recognition language translator assistant like siri alexa barely notice consumer application company sector increasingly harnessing power operation embracing promise considerable benefit business economy contribution productivity growth innovation adopter starting reap benefit adoption relatively early stage uneven readiness varies widely company sector country time impact work profound occupation demand skill decline grow change work alongside everevolving increasingly capable machine scenario developed suggest created lost automation transition disruptive occupation skill requirement shift significantly potential contribute tackling pressing societal challenge healthcare climate change humanitarian crisis introduce exacerbate social challenge misuse challenge related bias privacy cybersecurity given economic benefit policy maker business leader embrace place measure facilitate adoption soften disruptive transition accompany place focus responsible briefing note draw ongoing research mckinsey global institute technology limitation impact concludes issue policy maker business leader need address list main source note suggestion reading appear</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>[14]</t>
+          <t>[12, 8]</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.064|x2: 0.000|x3: 0.000|x4: 0.182|x5: 0.079|x6: 0.133|x7: 0.085|x8: 0.205|x9: 0.069|x10: 0.000|x11: 0.193|x12: 0.066|x13: 0.000|x14: 0.204|x15: 0.138|x16: 0.132|x17: 0.000</t>
+          <t>x1: 0.083|x2: 0.076|x3: 0.084|x4: 0.216|x5: 0.191|x6: 0.000|x7: 0.303|x8: 0.114|x9: 0.200|x10: 0.105|x11: 0.000|x12: 0.162|x13: 0.281|x14: 0.222|x15: 0.079|x16: 0.158|x17: 0.000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.20]</t>
+          <t>[0.00, 0.13, 0.30]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[8, 14, 11, 4, 15, 6, 16]</t>
+          <t>[7, 13, 14, 4, 9, 5, 12, 16, 8, 10]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.20463994365874236, 0.20352049233417993, 0.1928683873436658, 0.18197190003993385, 0.13815947140605378, 0.13291336392083591, 0.13248846943099124]</t>
+          <t>[0.30269272046533585, 0.28116406182204146, 0.2219547179279073, 0.21585847094673571, 0.1996866182343271, 0.1913260639952067, 0.16232690827908147, 0.15783846934267265, 0.11436320567054101, 0.10489739084089264]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6385,39 +6385,39 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>having accurate detailed date information location behavior animal wild improve ability study conserve ecosystem investigate ability automatically accurately inexpensively collect help catalyze transformation field ecology wildlife biology zoology conservation biology animal behavior science motion sensor camera trap enable collecting wildlife picture inexpensively unobtrusively frequently extracting information picture remains expensive time consuming manual task demonstrate information automatically extracted deep learning cuttingedge type artificial intelligence train deep convolutional neural network identify count behavior specie image snapshot serengeti dataset deep neural network automatically identify animal accuracy expect number improve rapidly come importantly classifies image confident automate animal identification performing accuracy crowdsourced team human volunteer saving human labeling effort image dataset efficiency gain highlight importance deep neural network automate extraction camera trap image reducing roadblock widely technology result suggest deep learning enable inexpensive unobtrusive volume realtime collection wealth information vast number animal wild</t>
+          <t>recent revival concern automation digitalisation result jobless future debate fuelled study europe arguing substantial risk computerisation study follow occupationbased approach proposed frey osborne assume occupation single jobtasks automated technology argue lead overestimation automatibility occupation labelled highrisk occupation contain substantial task hard automate paper serf purpose firstly estimate automatibility oecd country based taskbased approach contrast study account heterogeneity worker task occupation overall oecd country automatable threat technological advance pronounced compared occupationbased approach heterogeneity oecd country instance automatable korea corresponding austria difference country reflect general difference workplace organisation difference previous investment automation technology difference education worker country second purpose paper critically reflect recent study generate figure risk computerisation provide comprehensive discussion possible adjustment process firm worker automation digitalisation particular argue estimated risk equated actual expected employment loss technological advance reason utilisation technology slow process economic legal societal hurdle technological substitution place expected second technology introduced worker adjust changing technological endowment switching task preventing technological unemployment technological change generates additional demand technology higher competitiveness main conclusion paper automation digitalisation unlikely destroy large number qualified worker bear brunt adjustment cost automatibility higher compared highly qualified worker challenge future coping rising inequality ensuring sufficient retraining especially qualified worker</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[8]</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.350|x3: 0.000|x4: 0.244|x5: 0.000|x6: 0.000|x7: 0.172|x8: 0.094|x9: 0.156|x10: 0.110|x11: 0.153|x12: 0.334|x13: 0.000|x14: 0.203|x15: 0.090|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.130|x2: 0.106|x3: 0.137|x4: 0.337|x5: 0.064|x6: 0.000|x7: 0.155|x8: 0.179|x9: 0.193|x10: 0.087|x11: 0.054|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.000|x16: 0.098|x17: 0.000</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.35]</t>
+          <t>[0.00, 0.10, 0.34]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[2, 12, 4, 14, 7, 9, 11, 1, 16, 10]</t>
+          <t>[4, 9, 8, 7, 3, 1, 2]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.3504624909005746, 0.3342028493347272, 0.2436575287496687, 0.20340147545520998, 0.1718021752884336, 0.15595504617393155, 0.15283901107663805, 0.11529463088628854, 0.11407152663524622, 0.1097959974331346]</t>
+          <t>[0.33712002540636476, 0.19325808242995843, 0.1786743635264884, 0.15528039438792282, 0.1374912265551584, 0.1295654699299241, 0.10590069291075463]</t>
         </is>
       </c>
       <c r="H146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -6426,39 +6426,39 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>specie ecosystem worldwide continue decline disappear spite decade investment conservation effort systematic conservation planning field study designed improve conservation program identifying land configuration protected efficiently sustain biodiversity despite contributing specie persistence landscape criticized replacing sitebased conservation plan consider social context contrast land science emerging field explores process landuse landcover change integrates social process conservation analysis suggest incorporating insight social process livelihood adaptation agricultural intensification enhance legitimacy conservation plan reducing conservation planning implementation represents necessary step reinvent decision support tool help reconcile longstanding divide landscape level specie conservation social need</t>
+          <t>cellular network assumed enabler infrastructure provider industry offering variety service diverse requirement standardization cellular network expedited implies candidate technology adopted worthwhile provide insight candidate technique examine design philosophy article highlight fundamental feature revolutionary technique emerges initial intelligence nearly important aspect cellular network including radio resource management mobility management service provisioning management faced complicated configuration issue blossoming service requirement insufficient cellular network lack complete functionality introduce fundamental concept discus relationship candidate technique cellular network specifically highlight opportunity challenge exploit achieve intelligent network demonstrate effectiveness manage orchestrate cellular network resource envision aiempowered cellular network acclaimed enabler reality</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[9]</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.065|x3: 0.000|x4: 0.171|x5: 0.119|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.061|x10: 0.000|x11: 0.000|x12: 0.125|x13: 0.240|x14: 0.229|x15: 0.066|x16: 0.069|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.219|x3: 0.000|x4: 0.200|x5: 0.064|x6: 0.147|x7: 0.070|x8: 0.000|x9: 0.461|x10: 0.108|x11: 0.000|x12: 0.082|x13: 0.292|x14: 0.114|x15: 0.322|x16: 0.198|x17: 0.000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.24]</t>
+          <t>[0.00, 0.13, 0.46]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[13, 14, 4, 12, 5]</t>
+          <t>[9, 15, 13, 2, 4, 16, 6, 14, 10]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.239624313743925, 0.22899014639220602, 0.1711891433100593, 0.12506723521467475, 0.11932623919018875]</t>
+          <t>[0.46149495451898415, 0.3223249110768234, 0.29180998948605846, 0.21922766024528112, 0.20022243224340464, 0.19837881638296156, 0.14663290881011223, 0.11405542772406163, 0.10760447979973921]</t>
         </is>
       </c>
       <c r="H147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -6467,39 +6467,39 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>identifying boundary specie niche observational environmental common problem ecology conservation biology variety technique developed applied model niche predict distribution examine performance pattern recognition method ecological niche model enms particularly class pattern recognition flexible seldom methodology modeling ecological niche distribution presence development class method perform comparably class method presence absence remove modeling decision sampling pseudo absence background point absence point unavailable studied method class classification method class classification common primarily pattern recognition common specie distribution ecological niche modeling mountain plant specie presence absence available assessed accuracy standard metric compared tradeoff omission commission error classification group effect prevalence spatial autocorrelation accuracy class model presence comparable class model presence absence performance evaluated measure weighting omission commission error equally class model superior reducing omission error yielding higher sensitivity class model superior reducing commission error yielding higher specificity method spatial autocorrelation influential prevalence result differ previous effort evaluate alternative modelling approach build particularly noteworthy exhaustively sampled population minimizing false absence record accurate transferable model specie ecological niche distribution needed advance ecological research crucial effective environmental planning conservation pattern recognition approach studied good potential future modeling study study provides introduction promising method ecological modeling inherited pattern recognition discipline</t>
+          <t>agenda enthusiastic great potential accelerating human progress brought information communication technology global time acknowledges dark innovation challenge cybersecurity threat risk privacy unleashed artificial intelligence military related cyber operation cyberattacks climate change increasing inequality power concentration challenge solved country acting isolation urgently require strengthened multilateralism time major technological shift necessary implement global transition required agenda resilient economic social development model technology exists strategy needed generalize global level</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>[15]</t>
+          <t>[11, 9]</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.198|x3: 0.054|x4: 0.146|x5: 0.000|x6: 0.086|x7: 0.069|x8: 0.000|x9: 0.059|x10: 0.131|x11: 0.160|x12: 0.131|x13: 0.143|x14: 0.112|x15: 0.000|x16: 0.125|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.231|x5: 0.000|x6: 0.276|x7: 0.543|x8: 0.000|x9: 0.542|x10: 0.000|x11: 0.298|x12: 0.096|x13: 0.565|x14: 0.317|x15: 0.224|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.20]</t>
+          <t>[0.00, 0.18, 0.57]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[2, 11, 4, 13, 10, 12, 16, 14]</t>
+          <t>[13, 7, 9, 14, 11, 6, 4, 15]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.19830698704946836, 0.15996783314209542, 0.14555674879428696, 0.14347703573397783, 0.13108983617948833, 0.1306128733817212, 0.12512675511561097, 0.11176280864737467]</t>
+          <t>[0.5653531455833122, 0.5425474977485238, 0.54235927103756, 0.3170272365823382, 0.2980709938398032, 0.2755511742199046, 0.2309039627888604, 0.22389576156134094]</t>
         </is>
       </c>
       <c r="H148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -6508,32 +6508,32 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>apply recently developed spatial surveillance technique enforcement domain goal helping local police department rapidly detect respond better predict prevent emerging spatial pattern crime background geographic surveillance technique increasingly important enforcement crime prevention method mapping crime automatically detecting crime spot electronic report situational awareness enabled rapid police response emerging crime area additionally recent work crime forecasting enabled enforcement official predict prevent rise crime variety leading indicator current crime detection forecasting method require coarse aggregation month square mile computational consideration relatively number crime limitation reduce spatial temporal precision department pinpoint cluster crime ability rapidly respond cluster propose expectation based spatial scan statistic method originally developed surveillance domain finer aggregation efficiently search emerging spacetime cluster varying size duration method detection cluster violent crime prediction cluster detecting cluster leading indicator crime</t>
+          <t>advocate algorithmic technique like mining argue technique eliminate human bias decisionmaking process algorithm good work frequently imperfect allow algorithm inherit prejudice prior decision maker simply reflect widespread bias persist society large mining discover surprisingly useful regularity preexisting pattern exclusion inequality unthinking reliance mining deny historically disadvantaged vulnerable group participation society worse resulting discrimination unintentional emergent property algorithm conscious choice programmer unusually hard identify source problem explain court</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>[16]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.078|x2: 0.000|x3: 0.056|x4: 0.136|x5: 0.184|x6: 0.000|x7: 0.147|x8: 0.000|x9: 0.103|x10: 0.000|x11: 0.138|x12: 0.000|x13: 0.064|x14: 0.085|x15: 0.000|x16: 0.171|x17: 0.000</t>
+          <t>x1: 0.072|x2: 0.126|x3: 0.325|x4: 0.406|x5: 0.441|x6: 0.072|x7: 0.093|x8: 0.099|x9: 0.056|x10: 0.212|x11: 0.136|x12: 0.145|x13: 0.295|x14: 0.154|x15: 0.068|x16: 0.373|x17: 0.000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.18]</t>
+          <t>[0.00, 0.18, 0.44]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[5, 16, 7, 11, 4, 9]</t>
+          <t>[5, 4, 16, 3, 13, 10, 14, 12, 11, 2]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.1840756606436956, 0.17063255662583685, 0.14723116375286166, 0.13841524948616638, 0.1360191829799109, 0.10323603309407593]</t>
+          <t>[0.4405712153931418, 0.4057079226145564, 0.3729814102720984, 0.3251929337618253, 0.29488431003563603, 0.212489483060893, 0.15363239640566106, 0.14482556769001287, 0.13593761770854365, 0.12554952141649506]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6549,39 +6549,39 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>bullying widespread european school despite multiple intervention strategy having proposed present study investigates effect novel virtual learning strategy fearnot tackle bullying german sample approach intended primarily victim increase coping skill heighten empathy defence victim involved bystander paper focus defender role applying quantitative qualitative methodology present study fearnot helped involved child defender german subsample effect subsample german defender child initially uninvolved nominated defender peer intervention period significantly popular baseline cognitive empathy theory mind virtual victim compared permanently involved pupil gender interacts defender effect affective empathy emotional contagion particularly associated defender status girl finding discussed relation previous research antibullying intervention strategy cultural difference bullying prevalence rate intervention outcome</t>
+          <t>globalization created opportunity difficult problem community psychologist economic change created different area world promoted emergence sharing economy fostered huge disparity country political change polarization growth nationalist populist amplify divisiveness transformation notion citizenship identity technological change brought artificial intelligence revolution open opportunity danger prospect diffusion social network able promoting political participation increasing political polarization finally community psychologist pursue help develop opportunity reduce problem emerge change discussed</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>[4, 16]</t>
+          <t>[10]</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.109|x3: 0.174|x4: 0.363|x5: 0.088|x6: 0.058|x7: 0.000|x8: 0.177|x9: 0.059|x10: 0.000|x11: 0.048|x12: 0.000|x13: 0.150|x14: 0.133|x15: 0.000|x16: 0.320|x17: 0.000</t>
+          <t>x1: 0.056|x2: 0.216|x3: 0.157|x4: 0.283|x5: 0.171|x6: 0.000|x7: 0.000|x8: 0.077|x9: 0.073|x10: 0.085|x11: 0.000|x12: 0.081|x13: 0.349|x14: 0.255|x15: 0.055|x16: 0.134|x17: 0.000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.36]</t>
+          <t>[0.00, 0.12, 0.35]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[4, 16, 8, 3, 13, 14, 2]</t>
+          <t>[13, 4, 14, 2, 5, 3, 16]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.3627937139201496, 0.3204920586705223, 0.1773545975122773, 0.17413255299735023, 0.1495350230074337, 0.13310911712273948, 0.10920338521302134]</t>
+          <t>[0.349128225931729, 0.2826014500468159, 0.2552610276191057, 0.21648876830882507, 0.1706820328834066, 0.15652622637249605, 0.13405142143607846]</t>
         </is>
       </c>
       <c r="H150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
@@ -6590,38 +6590,612 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>understanding video event translation lowlevel content video sequence level semantic concept research topic received recent important application work include smart surveillance semantic video database indexing interactive technology applied video domain including airport terminal parking trac subway station aerial surveillance sign language work survey main component event understanding process abstraction event modeling abstraction process molding informative unit input event model event modeling devoted describing event formally enabling recognition event occur video sequence event modeling decomposed category pattern recognition method state event model semantic event model survey discus proposed taxonomy literature unifying terminology discus popular abstraction scheme motion history image event modeling formalism hidden markov model video event understanding extensive example literature finally consider application domain video event understanding light proposed taxonomy propose future direction research field</t>
+          <t>advance artificial intelligence robotics leading industrial revolution paper present model necessary feature analyze implication inequality output assumption robot capital distinct traditional capital degree human labor capitalist skilled worker save analyze range variant reflect widely different view automation transform labor market main result surprisingly robust automation good growth equality benchmark model wage fall short eventually rise eventually easily generation</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>[10]</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>x1: 0.129|x2: 0.168|x3: 0.200|x4: 0.157|x5: 0.286|x6: 0.114|x7: 0.355|x8: 0.177|x9: 0.145|x10: 0.153|x11: 0.127|x12: 0.220|x13: 0.237|x14: 0.230|x15: 0.000|x16: 0.226|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>[0.00, 0.17, 0.36]</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>[7, 5, 13, 14, 16, 12, 3, 8, 2, 4, 10, 9, 1, 11, 6]</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>[0.3554981549827274, 0.2856132440860462, 0.23675351508942952, 0.2301903093710979, 0.22644622063381553, 0.22042993648612955, 0.2000279526051995, 0.17720968096199263, 0.16763883549045855, 0.1568912712156394, 0.15320573806777033, 0.14470415477383677, 0.128503357374874, 0.1265831739357857, 0.11391146307337827]</t>
+        </is>
+      </c>
+      <c r="H151" t="b">
+        <v>1</v>
+      </c>
+      <c r="I151" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>study present application artificial intelligence development sustainable transport smart city india huge demand supply public transport urban city india rapid urbanization india realize importance developing smart city improve quality life captivate foreign investment build superior quality infrastructure india majority indian city facing problem congestion safety inadequate public transport facility inappropriate information inadequate parking space environmental pollution sustainable transport eliminate problem providing safer faster comfortable efficient environment friendly help development smart city implementation intelligent transport urgent need develop intelligent transport indian city play role development sustainable transport main requirement adopt artificial intelligence development smart city india main objective article present major application intelligent transport development sustainable transport smart city study implementation intelligent transport development sustainable transport smart city india</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>x1: 0.000|x2: 0.080|x3: 0.000|x4: 0.109|x5: 0.000|x6: 0.292|x7: 0.257|x8: 0.000|x9: 0.119|x10: 0.000|x11: 0.536|x12: 0.258|x13: 0.444|x14: 0.252|x15: 0.184|x16: 0.068|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>[0.00, 0.15, 0.54]</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>[11, 13, 6, 12, 7, 14, 15, 9, 4]</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>[0.5360647526143769, 0.4438510997783136, 0.2919655819044574, 0.25781038611244583, 0.25716491448138745, 0.2524185689418219, 0.18359920689934844, 0.11887921737759928, 0.10858349236062292]</t>
+        </is>
+      </c>
+      <c r="H152" t="b">
+        <v>1</v>
+      </c>
+      <c r="I152" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ecologist variety tool collecting analyzing relatively tool facilitate ecological reasoning time simulation model basic mean organizing ecological knowledge rapidly processed technology computerbased manipulation knowledge developed artificial intelligence area ecological science technology prove important include modelling simulation integration qualitative quantitative knowledge theoretical development natural resource management researcher manager basic applied ecology affected development aiderived technology added ecological toolkit</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>x1: 0.000|x2: 0.230|x3: 0.000|x4: 0.265|x5: 0.124|x6: 0.189|x7: 0.307|x8: 0.047|x9: 0.315|x10: 0.000|x11: 0.000|x12: 0.108|x13: 0.122|x14: 0.335|x15: 0.000|x16: 0.049|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>[0.00, 0.12, 0.33]</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>[14, 9, 7, 4, 2, 6, 5, 13, 12]</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>[0.3346796384620365, 0.31547485699803346, 0.30650946294415965, 0.2650033318806787, 0.229825339263915, 0.1892799521923059, 0.12433113738092239, 0.12174234851748117, 0.10751769978469654]</t>
+        </is>
+      </c>
+      <c r="H153" t="b">
+        <v>0</v>
+      </c>
+      <c r="I153" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>machine learning algorithm tremendously power recent fully utilized ecology sustainable resource management domain wildlife reserve design forest management invasive specie spread thing domain common contain dynamic characterized spatially spreading process requires parameter precisely model dynamic spread rate directional bias element spreading present related work artificial intelligence machine learning sustainability domain including forest wildfire prediction introduce novel approach learning domain reinforcement learning agent cell landscape action location point time includes spreading north south east west spreading approach inverts usual setup dynamic corresponding markov decision process known function immed iate wildfire spread learn agent policy predictive model dynamic complex spatial process reward provided correctly classifying cell compared satellite related examine behavior algorithm problem value iteration policy iteration qlearning monte carlo tree search asynchronous advantage actorcritic compare gaussian processbased supervised learning approach discus relation approach manually constructed stateoftheart method forest wildfire modeling validate approach satellite image massive wildfire event northern alberta canada fort mcmurray richardson result learn predictive agentbased policy model spatial dynamic readily available satellite image method additional advantage term</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>[11]</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>x1: 0.142|x2: 0.000|x3: 0.070|x4: 0.251|x5: 0.000|x6: 0.149|x7: 0.265|x8: 0.196|x9: 0.318|x10: 0.087|x11: 0.133|x12: 0.235|x13: 0.303|x14: 0.161|x15: 0.226|x16: 0.091|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>[0.00, 0.15, 0.32]</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>[9, 13, 7, 4, 12, 15, 8, 14, 6, 1, 11]</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>[0.3175648715656011, 0.3033245108461478, 0.2646730906125413, 0.25067397515562384, 0.2348224562931814, 0.2255582588130749, 0.1956827350806765, 0.16057506208354957, 0.1485662636516021, 0.1418990672612191, 0.13286162006830288]</t>
+        </is>
+      </c>
+      <c r="H154" t="b">
+        <v>1</v>
+      </c>
+      <c r="I154" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>ability transform vast complex ambiguous information insight potential reveal longheld secret help solve world enduring problem like powerful technology great care taken development deployment reap societal benefit need trust sure follow ethical principle moral value professional code social norm human follow scenario research educational effort carefully designed regulation place achieve goal international business machine corporation actively engaged internally collaborator competitor global discussion ethical beneficial possible society</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>x1: 0.155|x2: 0.222|x3: 0.000|x4: 0.132|x5: 0.143|x6: 0.062|x7: 0.309|x8: 0.214|x9: 0.091|x10: 0.110|x11: 0.000|x12: 0.195|x13: 0.392|x14: 0.233|x15: 0.136|x16: 0.127|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>[0.00, 0.15, 0.39]</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>[13, 7, 14, 2, 8, 12, 1, 5, 15, 4, 16, 10]</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>[0.3918949559607101, 0.3088076835403592, 0.23334683600883857, 0.22245152800558537, 0.21376190652505178, 0.19530727641146822, 0.1550091536659029, 0.1430381151708741, 0.13588449989086562, 0.1317073057844818, 0.12732277591642624, 0.1097079055370169]</t>
+        </is>
+      </c>
+      <c r="H155" t="b">
+        <v>1</v>
+      </c>
+      <c r="I155" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>recent witnessed exponential growth automation power decision impact life society bring potential benefit reducing human bias speeding decisionmaking fraught risk increasing machine bias rendering decisionmaking opaque remote consideration fairness accountability transparency process fundamental omidyar network governance citizen engagement initiative started funding advocating open following snowden revelation summer included privacy surveillance reform effort realizing openness privacy closely related focused helping develop framework governing collection access storage usage right recently started looking impact release light processing power access decision government corporate sector actor increasingly automated government algorithm screen immigrant allocate social service vital know interrogate hold accountable main increase individual control agency decision impact life ultimately society believe accountability transparency agenda benefit better understanding ultimately scrutinizing automated decisionmaking explore question partnered upturn landscape public scrutiny automated decisionmaking term civil society nascent sector regulation place help regulate study developed clear pave textured practical understanding algorithmic transparency omidyar network explore issue companion paper released later hope report help civil society actor consider gain empowering public audience effectively scrutinize understand help govern automated decision hope start laying policy framework governance adding growing rich literature social economic impact decision finally hope report finding analysis help inform funders decision important growing field</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>[12]</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>x1: 0.073|x2: 0.106|x3: 0.145|x4: 0.155|x5: 0.190|x6: 0.173|x7: 0.000|x8: 0.101|x9: 0.202|x10: 0.097|x11: 0.163|x12: 0.104|x13: 0.299|x14: 0.276|x15: 0.133|x16: 0.149|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>[0.00, 0.14, 0.30]</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>[13, 14, 9, 5, 6, 11, 4, 16, 3, 15, 2, 12, 8]</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>[0.29860165905164937, 0.27612985775773025, 0.20188324127293245, 0.19024105423571816, 0.17268425986344332, 0.16288753336725498, 0.1554101193858467, 0.14865292484474077, 0.14499523041177564, 0.13257778683170743, 0.10556126632484356, 0.10367026843165088, 0.10117706539591798]</t>
+        </is>
+      </c>
+      <c r="H156" t="b">
+        <v>1</v>
+      </c>
+      <c r="I156" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>protected area effective tool reducing biodiversity loss current legislation distinguishes type marine protected area allowing different level resource extraction theory spatial conservation planning focused identifying notake reserve current approach zoning multiple type protected area result suboptimal plan term protecting biodiversity minimizing negative socioeconomic impact overcame limitation application multizone planning tool marxan zone design network type protected area context california marine life protection produced zoning configuration entail mean value loss fishery compromising conservation goal spatial numerical optimization tool allows multiple zone outperforms tool identify zone marine reserve overall impact fishing industry reduced second equitable impact different fishing sector achieved finally examined tradeoff representing biodiversity feature impacting fishery approach applicable marine terrestrial conservation planning delivers ecosystembased management outcome balance conservation industry objective</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>x1: 0.087|x2: 0.168|x3: 0.000|x4: 0.000|x5: 0.057|x6: 0.000|x7: 0.165|x8: 0.120|x9: 0.229|x10: 0.000|x11: 0.135|x12: 0.125|x13: 0.237|x14: 0.418|x15: 0.288|x16: 0.000|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>[0.00, 0.12, 0.42]</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>[14, 15, 13, 9, 2, 7, 11, 12, 8]</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>[0.41807916391240146, 0.2876758373404982, 0.23706848947726994, 0.22948241083223872, 0.16809854346042427, 0.1646902355635832, 0.13545204639981284, 0.12540776458498243, 0.11972242736247515]</t>
+        </is>
+      </c>
+      <c r="H157" t="b">
+        <v>1</v>
+      </c>
+      <c r="I157" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>national oceanic atmospheric administration noaa integrated coral observing network icon operational work closely government international environmental partner involved coral reef research icon program pioneered artificial intelligence technique near realtime stream environment sensor network seakeys network florida australia institute marine science weather network noaa coral reef ecosystem division network pacific integrated coral observing network icon station caribbean innovative approach coral monitoring station deployment icon program recently pioneered technique near realtime integration satellite situ radar source purpose ecological forecasting event coral bleaching coral spawning upwelling marine behavioral physical oceanographic event icon program ushered pulseamplitude modulating fluorometry measure near realtime physiological recording response environmental coral bleaching providing better ecological forecasting capability artificial intelligence integrative technique herewith technique report coral calcification instrumentation augmenting icon network sensor array</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>x1: 0.059|x2: 0.110|x3: 0.078|x4: 0.054|x5: 0.171|x6: 0.257|x7: 0.294|x8: 0.081|x9: 0.275|x10: 0.069|x11: 0.129|x12: 0.098|x13: 0.279|x14: 0.397|x15: 0.142|x16: 0.101|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>[0.00, 0.15, 0.40]</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>[14, 7, 13, 9, 6, 5, 15, 11, 2, 16]</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>[0.3973648435327611, 0.29449947450382585, 0.2788544152354458, 0.2745051936790853, 0.25718300981804165, 0.17143130631755346, 0.14205680335040471, 0.12861236100733128, 0.10954944998387864, 0.10134428668834805]</t>
+        </is>
+      </c>
+      <c r="H158" t="b">
+        <v>1</v>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>marine cabled allow nondestructive sampling specie frequency duration attained lack appropriate method automatically process video imagery limit technology purpose ecosystem monitoring automation prerequisite deal huge quantity video footage captured camera transform device true autonomous sensor study developed novel methodology based genetic programming contentbased image analysis capture temporal dynamic fish abundance processed image acquired challenging realworld coastal scenario obseaemso testingsite image collected frequency continuously night highly variable environmental condition allowed test effectiveness approach changing light radiation water turbidity background confusion biofouling growth camera housing automated recognition result highly correlated manual count highly reliable track fish variation different hourly daily monthly time scale addition methodology easily transferred cabled</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>[14]</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>x1: 0.119|x2: 0.000|x3: 0.070|x4: 0.284|x5: 0.114|x6: 0.205|x7: 0.353|x8: 0.165|x9: 0.187|x10: 0.111|x11: 0.360|x12: 0.078|x13: 0.232|x14: 0.231|x15: 0.119|x16: 0.150|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>[0.00, 0.16, 0.36]</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>[11, 7, 4, 13, 14, 6, 9, 8, 16, 1, 15, 5, 10]</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>[0.3604058825347398, 0.35298834877402113, 0.2844922264552224, 0.23177807292116503, 0.2307029647682033, 0.2053497045229588, 0.18717495503254233, 0.1646575642023172, 0.14987491416898685, 0.11940120710281486, 0.11896876325638571, 0.11426845879426614, 0.11118185713223959]</t>
+        </is>
+      </c>
+      <c r="H159" t="b">
+        <v>1</v>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>having accurate detailed uptodate information location behavior animal wild improve ability study conserve ecosystem investigate ability automatically accurately inexpensively collect help catalyze transformation field ecology wildlife biology zoology conservation biology animal behavior science motionsensor camera trap enable collecting wildlife picture inexpensively unobtrusively frequently extracting information picture remains expensive timeconsuming manual task demonstrate information automatically extracted deep learning cuttingedge type artificial intelligence train deep convolutional neural network identify count behavior specie millionimage snapshot serengeti dataset deep neural network automatically identify animal accuracy expect number improve rapidly come importantly classifies image confident automate animal identification performing accuracy crowdsourced team human volunteer saving human labeling effort millionimage dataset efficiency gain highlight importance deep neural network automate extraction cameratrap image reducing roadblock widely technology result suggest deep learning enable inexpensive unobtrusive highvolume realtime collection wealth information vast number animal wild</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>x1: 0.129|x2: 0.385|x3: 0.000|x4: 0.198|x5: 0.178|x6: 0.276|x7: 0.218|x8: 0.178|x9: 0.332|x10: 0.152|x11: 0.209|x12: 0.312|x13: 0.257|x14: 0.346|x15: 0.216|x16: 0.224|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>[0.00, 0.21, 0.38]</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>[2, 14, 9, 12, 6, 13, 16, 7, 15, 11, 4, 5, 8, 10, 1]</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>[0.38461177623203374, 0.34647453501906406, 0.33237818373102385, 0.3122485266316792, 0.27575832395787014, 0.25692706537522464, 0.22389063984567914, 0.2181470294674709, 0.21609531356130768, 0.20852694043363085, 0.19806794669237213, 0.17825553794205146, 0.17823514949957386, 0.15210144246851942, 0.12924697448002392]</t>
+        </is>
+      </c>
+      <c r="H160" t="b">
+        <v>1</v>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>specie ecosystem worldwide continue decline disappear spite decade investment conservation effort systematic conservation planning field study designed improve conservation program identifying land configuration protected efficiently sustain biodiversity despite contributing specie persistence landscape criticized replacing sitebased conservation plan consider social context contrast land science emerging field explores process landuse landcover change integrates social process conservation analysis suggest incorporating insight social process livelihood adaptation agricultural intensification enhance legitimacy conservation plan reducing conservation planning implementation represents necessary step reinvent decisionsupport tool help reconcile longstanding divide landscapelevel specie conservation social need</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>x1: 0.067|x2: 0.288|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.092|x9: 0.080|x10: 0.070|x11: 0.138|x12: 0.169|x13: 0.346|x14: 0.253|x15: 0.317|x16: 0.098|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>[0.00, 0.11, 0.35]</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>[13, 15, 2, 14, 12, 11]</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>[0.3456736987260011, 0.3167264992095181, 0.28814407369813944, 0.25336376946383043, 0.16903370484714067, 0.138383861322437]</t>
+        </is>
+      </c>
+      <c r="H161" t="b">
+        <v>1</v>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>identifying boundary specie niche observational environmental common problem ecology conservation biology variety technique developed applied model niche predict distribution examine performance pattern recognition method ecological niche model enms particularly oneclass pattern recognition flexible seldom methodology modeling ecological niche distribution presenceonly development oneclass method perform comparably twoclass method presenceabsence remove modeling decision sampling pseudoabsences background point absence point unavailable studied method oneclass classification method twoclass classification common primarily pattern recognition common specie distribution ecological niche modeling mountain plant specie presenceabsence available assessed accuracy standard metric compared tradeoff omission commission error classification group effect prevalence spatial autocorrelation accuracy oneclass model presenceonly comparable twoclass model presenceabsence performance evaluated measure weighting omission commission error equally oneclass model superior reducing omission error yielding higher sensitivity twoclasses model superior reducing commission error yielding higher specificity method spatial autocorrelation influential prevalence result differ previous effort evaluate alternative modelling approach build particularly noteworthy exhaustively sampled population minimizing false absence record accurate transferable model specie ecological niche distribution needed advance ecological research crucial effective environmental planning conservation approach studied good potential future modeling study study provides introduction promising method ecological modeling inherited pattern recognition discipline</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>[15]</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>x1: 0.076|x2: 0.138|x3: 0.000|x4: 0.000|x5: 0.145|x6: 0.165|x7: 0.246|x8: 0.104|x9: 0.096|x10: 0.108|x11: 0.208|x12: 0.134|x13: 0.076|x14: 0.151|x15: 0.064|x16: 0.168|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>[0.00, 0.11, 0.25]</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>[7, 11, 16, 6, 14, 5, 2, 12, 10, 8]</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>[0.2457970791024662, 0.20831945723492828, 0.16804247430884367, 0.1653027912506848, 0.1506852277905623, 0.14478610241270992, 0.13809712893169007, 0.13403160006967882, 0.10809165970300558, 0.10438473056252287]</t>
+        </is>
+      </c>
+      <c r="H162" t="b">
+        <v>0</v>
+      </c>
+      <c r="I162" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>apply recently developed spatial biosurveillance technique enforcement domain goal helping local police department rapidly detect respond better predict prevent emerging spatial pattern crime background geographic surveillance technique increasingly important enforcement crime prevention method mapping crime automatically detecting crime spot electronic report situational awareness enabled rapid police response emerging crime area additionally recent work crime forecasting enabled enforcement official predict prevent rise crime variety leading indicator current crime detection forecasting method require coarse aggregation month square mile computational consideration relatively number crime limitation reduce spatial temporal precision department pinpoint cluster crime ability rapidly respond cluster propose spatial scan statistic method originally developed biosurveillance domain finer aggregation efficiently search emerging spacetime cluster varying size duration method detection cluster violent crime prediction cluster detecting cluster leading indicator crime</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
           <t>[16]</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>x1: 0.150|x2: 0.112|x3: 0.141|x4: 0.211|x5: 0.000|x6: 0.000|x7: 0.105|x8: 0.097|x9: 0.055|x10: 0.090|x11: 0.000|x12: 0.211|x13: 0.064|x14: 0.140|x15: 0.000|x16: 0.202|x17: 0.000</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>[0.00, 0.09, 0.21]</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>[4, 12, 16, 1, 3, 14, 2, 7]</t>
-        </is>
-      </c>
-      <c r="G151" t="inlineStr">
-        <is>
-          <t>[0.21143965683876456, 0.2106727376711863, 0.20223787343016492, 0.15035117931483938, 0.1413210271755098, 0.14002253795373082, 0.11190494000999338, 0.10533062976067169]</t>
-        </is>
-      </c>
-      <c r="H151" t="b">
-        <v>1</v>
-      </c>
-      <c r="I151" t="b">
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>x1: 0.000|x2: 0.121|x3: 0.093|x4: 0.210|x5: 0.232|x6: 0.066|x7: 0.000|x8: 0.062|x9: 0.101|x10: 0.130|x11: 0.321|x12: 0.178|x13: 0.134|x14: 0.193|x15: 0.133|x16: 0.227|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>[0.00, 0.13, 0.32]</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>[11, 5, 16, 4, 14, 12, 13, 15, 10, 2, 9]</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>[0.32079971472283947, 0.23248855301287652, 0.22725661637801894, 0.20970208506465715, 0.19318855729872184, 0.17751567399014645, 0.1340377370928641, 0.13317629038395226, 0.12986533948968737, 0.12141358295013478, 0.10142479495438883]</t>
+        </is>
+      </c>
+      <c r="H163" t="b">
+        <v>1</v>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>bullying widespread european school despite multiple intervention strategy having proposed present study investigates effect novel virtual learning strategy fearnot tackle bullying german sample approach intended primarily victim increase coping skill heighten empathy defence victim noninvolved bystander paper focus defender role applying quantitative qualitative methodology present study fearnot helped noninvolved child defender german subsample effect subsample german defender child initially uninvolved nominated defender peer intervention period significantly popular baseline cognitive empathy theory mind virtual victim compared permanently noninvolved pupil gender interacts defender effect affective empathy emotional contagion particularly associated defender status girl finding discussed relation previous research antibullying intervention strategy cultural difference bullying prevalence rate intervention outcome</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>x1: 0.107|x2: 0.213|x3: 0.283|x4: 0.279|x5: 0.096|x6: 0.000|x7: 0.131|x8: 0.148|x9: 0.167|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.108|x14: 0.064|x15: 0.063|x16: 0.223|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>[0.00, 0.12, 0.28]</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>[3, 4, 16, 2, 9, 8, 10, 7, 13, 1]</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>[0.2832449367494694, 0.2788493141107345, 0.22303526818483194, 0.21267419851332797, 0.16728296827327013, 0.14793273969407159, 0.14540369918329316, 0.13061510751942368, 0.10848485893154906, 0.10727322352342968]</t>
+        </is>
+      </c>
+      <c r="H164" t="b">
+        <v>1</v>
+      </c>
+      <c r="I164" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>understanding video event translation lowlevel content video sequence level semantic concept research topic received recent important application work include smart surveillance semantic video database indexing teractive technology applied video domain including airport terminal parking trac subway station aerial surveillance sign language work survey main component event understanding process abstraction event modeling abstraction process molding informative unit input event model event modeling devoted describing event formally enabling recognition event occur video sequence event modeling decomposed category pattern recognition method state event model semantic event model survey discus proposed taxonomy literature unifying terminology discus popular abstraction scheme motion history image event modeling formalism hidden markov model video event understanding extensive example literature finally consider applica tion domain video event understanding light proposed taxonomy propose future direction research</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>[16]</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>x1: 0.070|x2: 0.084|x3: 0.313|x4: 0.226|x5: 0.189|x6: 0.145|x7: 0.196|x8: 0.096|x9: 0.185|x10: 0.117|x11: 0.175|x12: 0.159|x13: 0.120|x14: 0.142|x15: 0.096|x16: 0.189|x17: 0.000</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>[0.00, 0.15, 0.31]</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>[3, 4, 7, 16, 5, 9, 11, 12, 6, 14, 13, 10]</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>[0.3126140408238892, 0.22649291995015786, 0.19584452095364102, 0.1891046272112939, 0.18892095739744372, 0.18498979611846358, 0.1751607946704376, 0.15856232595086794, 0.1449000248139913, 0.14248392686069095, 0.12000003993246995, 0.11728778631558866]</t>
+        </is>
+      </c>
+      <c r="H165" t="b">
+        <v>1</v>
+      </c>
+      <c r="I165" t="b">
         <v>1</v>
       </c>
     </row>

--- a/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
@@ -491,22 +491,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.081|x2: 0.052|x3: 0.107|x4: 0.132|x5: 0.111|x6: 0.364|x7: 0.244|x8: 0.112|x9: 0.102|x10: 0.072|x11: 0.215|x12: 0.127|x13: 0.165|x14: 0.336|x15: 0.167|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.069|x2: 0.218|x3: 0.121|x4: 0.215|x5: 0.253|x6: 0.365|x7: 0.069|x8: 0.053|x9: 0.063|x10: 0.000|x11: 0.262|x12: 0.308|x13: 0.190|x14: 0.411|x15: 0.112|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.36]</t>
+          <t>[0.00, 0.16, 0.41]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[6, 14, 7, 11, 15, 13, 4, 12, 8, 5, 3, 9]</t>
+          <t>[14, 6, 12, 11, 5, 2, 4, 13, 3, 15]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.36409800191135017, 0.33573741880332136, 0.24381717236082945, 0.21466113595721995, 0.16658938609517604, 0.16530938038056675, 0.1315599482634857, 0.12653830946389838, 0.11152027396825492, 0.11074088125643025, 0.10749439924166723, 0.10210182897581009]</t>
+          <t>[0.41148144114090524, 0.3645447655467877, 0.3078833684787102, 0.2619039388743707, 0.252642183891878, 0.21778733597709585, 0.2147650720804054, 0.18995299369933955, 0.12075975214161114, 0.1116356959283938]</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -532,22 +532,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.144|x2: 0.149|x3: 0.000|x4: 0.403|x5: 0.170|x6: 0.195|x7: 0.272|x8: 0.199|x9: 0.389|x10: 0.130|x11: 0.142|x12: 0.121|x13: 0.079|x14: 0.078|x15: 0.052|x16: 0.172|x17: 0.000</t>
+          <t>x1: 0.163|x2: 0.126|x3: 0.000|x4: 0.406|x5: 0.252|x6: 0.159|x7: 0.295|x8: 0.253|x9: 0.365|x10: 0.092|x11: 0.106|x12: 0.165|x13: 0.065|x14: 0.130|x15: 0.113|x16: 0.187|x17: 0.000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.40]</t>
+          <t>[0.00, 0.17, 0.41]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[4, 9, 7, 8, 6, 16, 5, 2, 1, 11, 10, 12]</t>
+          <t>[4, 9, 7, 8, 5, 16, 12, 1, 6, 14, 2, 15, 11]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.4034217463506944, 0.388932077317825, 0.272341125751394, 0.19898435464382777, 0.1952040406477759, 0.17172797463672163, 0.17000884352456783, 0.14921843471372048, 0.14429323216426695, 0.14225932866498356, 0.1295237954759095, 0.12059673001772572]</t>
+          <t>[0.40613210937239846, 0.3647774188152846, 0.29450065257315683, 0.2529488364699076, 0.2523061688342017, 0.1874123618373383, 0.16459577847072326, 0.1625031357321372, 0.15899806603621558, 0.12968413844919116, 0.12569831456829378, 0.11323468115103592, 0.10629525997561931]</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -573,22 +573,22 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.126|x2: 0.117|x3: 0.000|x4: 0.156|x5: 0.209|x6: 0.176|x7: 0.305|x8: 0.173|x9: 0.224|x10: 0.103|x11: 0.133|x12: 0.163|x13: 0.263|x14: 0.195|x15: 0.224|x16: 0.130|x17: 0.000</t>
+          <t>x1: 0.183|x2: 0.124|x3: 0.000|x4: 0.195|x5: 0.174|x6: 0.176|x7: 0.362|x8: 0.214|x9: 0.264|x10: 0.064|x11: 0.249|x12: 0.138|x13: 0.267|x14: 0.226|x15: 0.256|x16: 0.131|x17: 0.000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.30]</t>
+          <t>[0.00, 0.18, 0.36]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[7, 13, 9, 15, 5, 14, 6, 8, 12, 4, 11, 16, 1, 2, 10]</t>
+          <t>[7, 13, 9, 15, 11, 14, 8, 4, 1, 6, 5, 12, 16, 2]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.30454474449287816, 0.2634581489391385, 0.22401034443903134, 0.22395521485366499, 0.20945041489116972, 0.19450361106003547, 0.17563821228065069, 0.17335896428053318, 0.16344415564254716, 0.1557994462148624, 0.13342051406696886, 0.13042679203882296, 0.1257110154487402, 0.11720683362566234, 0.10296343458947788]</t>
+          <t>[0.3615787690190195, 0.2671056521010285, 0.26372765266614334, 0.25613584126339456, 0.24859840394455465, 0.22587481749431995, 0.21404781422339642, 0.19529923327434648, 0.18295152378893828, 0.1758600855385478, 0.17401653069226214, 0.13832698017194328, 0.13127735709281105, 0.12365409758839366]</t>
         </is>
       </c>
       <c r="H4" t="b">
@@ -614,29 +614,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.136|x3: 0.000|x4: 0.365|x5: 0.205|x6: 0.000|x7: 0.352|x8: 0.136|x9: 0.211|x10: 0.100|x11: 0.000|x12: 0.136|x13: 0.118|x14: 0.122|x15: 0.000|x16: 0.140|x17: 0.000</t>
+          <t>x1: 0.189|x2: 0.138|x3: 0.000|x4: 0.422|x5: 0.259|x6: 0.191|x7: 0.460|x8: 0.234|x9: 0.259|x10: 0.000|x11: 0.000|x12: 0.247|x13: 0.216|x14: 0.152|x15: 0.000|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.36]</t>
+          <t>[0.00, 0.17, 0.46]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[4, 7, 9, 5, 16, 2, 8, 12, 14, 13, 10]</t>
+          <t>[7, 4, 5, 9, 12, 8, 13, 6, 1, 14, 2]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.3645429270584081, 0.3518468080630555, 0.21104177129398155, 0.20483615200293742, 0.14031791881894828, 0.1360148741793888, 0.135887961547622, 0.13587348384792589, 0.12186701351126758, 0.11811209211650486, 0.10031955075715424]</t>
+          <t>[0.4604238491153061, 0.42201121287908777, 0.25935000558943205, 0.2588205315922658, 0.24704159508988674, 0.23363500672039175, 0.21552813091524045, 0.19115739317731148, 0.18873130787542655, 0.15189159106508032, 0.13774756904556085]</t>
         </is>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -655,22 +655,22 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.060|x2: 0.242|x3: 0.000|x4: 0.149|x5: 0.131|x6: 0.209|x7: 0.205|x8: 0.083|x9: 0.288|x10: 0.071|x11: 0.141|x12: 0.342|x13: 0.298|x14: 0.287|x15: 0.220|x16: 0.104|x17: 0.000</t>
+          <t>x1: 0.110|x2: 0.255|x3: 0.000|x4: 0.126|x5: 0.092|x6: 0.233|x7: 0.268|x8: 0.121|x9: 0.308|x10: 0.000|x11: 0.146|x12: 0.462|x13: 0.286|x14: 0.282|x15: 0.277|x16: 0.098|x17: 0.000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.34]</t>
+          <t>[0.00, 0.18, 0.46]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[12, 13, 9, 14, 2, 15, 6, 7, 4, 11, 5, 16]</t>
+          <t>[12, 9, 13, 14, 15, 7, 2, 6, 11, 4, 8, 1]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.3419899539483251, 0.29837872260321036, 0.28839903426270486, 0.2866532444299898, 0.24198974242633203, 0.22011859548625234, 0.20883471238476128, 0.2049389900709131, 0.1487883187419176, 0.14085778905225912, 0.13123203449066517, 0.10413434169517484]</t>
+          <t>[0.46207039687486456, 0.3083247326429674, 0.2855365967497307, 0.2819871371778147, 0.2769903989420251, 0.2677090057874061, 0.25451552152978413, 0.23320878002609902, 0.14557943075995164, 0.12617607827041455, 0.12053968494981482, 0.10971254078108657]</t>
         </is>
       </c>
       <c r="H6" t="b">
@@ -696,22 +696,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.131|x2: 0.000|x3: 0.000|x4: 0.290|x5: 0.086|x6: 0.111|x7: 0.187|x8: 0.181|x9: 0.205|x10: 0.132|x11: 0.470|x12: 0.078|x13: 0.340|x14: 0.215|x15: 0.060|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.243|x2: 0.093|x3: 0.000|x4: 0.365|x5: 0.092|x6: 0.104|x7: 0.227|x8: 0.264|x9: 0.126|x10: 0.077|x11: 0.462|x12: 0.156|x13: 0.295|x14: 0.198|x15: 0.135|x16: 0.157|x17: 0.000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.47]</t>
+          <t>[0.00, 0.18, 0.46]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[11, 13, 4, 14, 9, 7, 16, 8, 10, 1, 6]</t>
+          <t>[11, 4, 13, 8, 1, 7, 14, 16, 12, 15, 9, 6]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.47030406996765783, 0.34011486239411187, 0.2902987593835573, 0.214622624536499, 0.20513557236570812, 0.18744970722686688, 0.1837619819157212, 0.18080108334467568, 0.13196622368488145, 0.131107657892507, 0.11125168915899047]</t>
+          <t>[0.462219098361613, 0.3646102982362627, 0.2945222083921363, 0.2639723993773803, 0.24263359545502106, 0.22719703864437638, 0.197657445516624, 0.15730536114909838, 0.15551973013555576, 0.13485674344653692, 0.12560287710851184, 0.10361472321347011]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -737,22 +737,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.249|x3: 0.000|x4: 0.297|x5: 0.000|x6: 0.098|x7: 0.317|x8: 0.089|x9: 0.429|x10: 0.124|x11: 0.126|x12: 0.000|x13: 0.269|x14: 0.253|x15: 0.158|x16: 0.205|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.326|x3: 0.000|x4: 0.245|x5: 0.000|x6: 0.068|x7: 0.318|x8: 0.172|x9: 0.401|x10: 0.090|x11: 0.160|x12: 0.089|x13: 0.219|x14: 0.269|x15: 0.187|x16: 0.184|x17: 0.000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.43]</t>
+          <t>[0.00, 0.17, 0.40]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[9, 7, 4, 13, 14, 2, 16, 15, 11, 10]</t>
+          <t>[9, 2, 7, 14, 4, 13, 15, 16, 8, 11, 1]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.4289553738975179, 0.31733896110729387, 0.2968765186948129, 0.26861701590816944, 0.25259869519532985, 0.2486483428853988, 0.20529107125139495, 0.15830532562873556, 0.12598840500095376, 0.12413629143535113]</t>
+          <t>[0.4009846389759105, 0.32592675387118963, 0.31793084073304834, 0.26941171749456644, 0.24484866821322954, 0.21872016566787558, 0.18736025351954685, 0.18358710678990223, 0.17170712730622692, 0.15989997707622824, 0.12519603838135454]</t>
         </is>
       </c>
       <c r="H8" t="b">
@@ -778,22 +778,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.100|x2: 0.160|x3: 0.000|x4: 0.224|x5: 0.248|x6: 0.000|x7: 0.102|x8: 0.138|x9: 0.168|x10: 0.094|x11: 0.176|x12: 0.151|x13: 0.369|x14: 0.325|x15: 0.078|x16: 0.127|x17: 0.000</t>
+          <t>x1: 0.162|x2: 0.127|x3: 0.000|x4: 0.183|x5: 0.156|x6: 0.086|x7: 0.142|x8: 0.169|x9: 0.184|x10: 0.000|x11: 0.111|x12: 0.177|x13: 0.291|x14: 0.340|x15: 0.099|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.37]</t>
+          <t>[0.00, 0.14, 0.34]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[13, 14, 5, 4, 11, 9, 2, 12, 8, 16, 7, 1]</t>
+          <t>[14, 13, 9, 4, 12, 8, 1, 5, 7, 2, 11]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.3688268566621254, 0.3254279200294692, 0.24823778526383491, 0.22351552284088283, 0.17649396144575458, 0.1680578605803681, 0.1603769491226958, 0.1514129029824807, 0.1381894247510843, 0.12654035801434904, 0.10178269360426492, 0.10020787204072384]</t>
+          <t>[0.3403699066702214, 0.2907731721754869, 0.18432592336554302, 0.1830484788959685, 0.1767470264205944, 0.16879020615228058, 0.1622436618846031, 0.15596094876550956, 0.1418787414259271, 0.12684512571288234, 0.11081842485674127]</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -819,29 +819,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.089|x2: 0.000|x3: 0.090|x4: 0.220|x5: 0.171|x6: 0.312|x7: 0.363|x8: 0.123|x9: 0.434|x10: 0.059|x11: 0.245|x12: 0.201|x13: 0.308|x14: 0.207|x15: 0.127|x16: 0.065|x17: 0.000</t>
+          <t>x1: 0.187|x2: 0.143|x3: 0.000|x4: 0.260|x5: 0.092|x6: 0.302|x7: 0.417|x8: 0.228|x9: 0.386|x10: 0.000|x11: 0.262|x12: 0.147|x13: 0.311|x14: 0.200|x15: 0.106|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.43]</t>
+          <t>[0.00, 0.18, 0.42]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[9, 7, 6, 13, 11, 4, 14, 12, 5, 15, 8]</t>
+          <t>[7, 9, 13, 6, 11, 4, 8, 14, 1, 12, 2, 15]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.43436020963709265, 0.36273901505764455, 0.31204999831085817, 0.3076933372556203, 0.24452634004004248, 0.2199070607582122, 0.2065700445769639, 0.2006237569973317, 0.17138134238112057, 0.1269118030747411, 0.12298442634745144]</t>
+          <t>[0.4166017358227773, 0.3861916494177911, 0.311394216084402, 0.3024133496101969, 0.26209607640750293, 0.25993756485221836, 0.22766658010239363, 0.20021426192413222, 0.18725857449373784, 0.14731512764299134, 0.1431734443582128, 0.10574947814542306]</t>
         </is>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -860,22 +860,22 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.108|x2: 0.212|x3: 0.128|x4: 0.223|x5: 0.159|x6: 0.000|x7: 0.177|x8: 0.148|x9: 0.078|x10: 0.123|x11: 0.109|x12: 0.131|x13: 0.234|x14: 0.171|x15: 0.134|x16: 0.180|x17: 0.000</t>
+          <t>x1: 0.208|x2: 0.219|x3: 0.126|x4: 0.187|x5: 0.174|x6: 0.000|x7: 0.331|x8: 0.239|x9: 0.074|x10: 0.079|x11: 0.267|x12: 0.208|x13: 0.182|x14: 0.172|x15: 0.164|x16: 0.162|x17: 0.000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.23]</t>
+          <t>[0.00, 0.16, 0.33]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[13, 4, 2, 16, 7, 14, 5, 8, 15, 12, 3, 10, 11, 1]</t>
+          <t>[7, 11, 8, 2, 1, 12, 4, 13, 5, 14, 15, 16, 3]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.23401637433089487, 0.22296840429103473, 0.21159782823497805, 0.1801298414914453, 0.17728399215442633, 0.17113505356030187, 0.15879115789396833, 0.14841777451178445, 0.13422743968715115, 0.13098104162205312, 0.12836343034922043, 0.12340883468313657, 0.10894111022088201, 0.10762494585700343]</t>
+          <t>[0.33060793615973205, 0.26744886945583257, 0.238676032313461, 0.21855367241668924, 0.20813758246925826, 0.208123076578919, 0.18653068990757982, 0.18244078995124638, 0.1737417589880331, 0.17218607271734526, 0.16415714893603492, 0.16212328176592516, 0.1264549125773125]</t>
         </is>
       </c>
       <c r="H11" t="b">
@@ -901,22 +901,22 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.096|x2: 0.224|x3: 0.000|x4: 0.182|x5: 0.128|x6: 0.155|x7: 0.324|x8: 0.132|x9: 0.143|x10: 0.122|x11: 0.153|x12: 0.260|x13: 0.189|x14: 0.145|x15: 0.061|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.168|x2: 0.300|x3: 0.000|x4: 0.205|x5: 0.225|x6: 0.165|x7: 0.356|x8: 0.219|x9: 0.205|x10: 0.070|x11: 0.129|x12: 0.260|x13: 0.133|x14: 0.206|x15: 0.101|x16: 0.142|x17: 0.000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.32]</t>
+          <t>[0.00, 0.17, 0.36]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[7, 12, 2, 13, 16, 4, 6, 11, 14, 9, 8, 5, 10]</t>
+          <t>[7, 2, 12, 5, 8, 14, 4, 9, 1, 6, 16, 13, 11, 15]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.32366220989965094, 0.2601901969918193, 0.22356511762249368, 0.18946798730900435, 0.18447365907444155, 0.18151690122015213, 0.15452440654109467, 0.15328760877825673, 0.1453559966587933, 0.1432591112384588, 0.13238690890347998, 0.12845867752280044, 0.12233550138757744]</t>
+          <t>[0.3564303526545258, 0.30033737502115526, 0.2597126177079975, 0.22501945247444285, 0.21897866976756133, 0.2056793517867838, 0.2050089507734979, 0.20474826541915736, 0.16826227776992622, 0.16491713773251349, 0.14237833957446008, 0.13280832318715055, 0.12878466484637588, 0.10107378348828239]</t>
         </is>
       </c>
       <c r="H12" t="b">
@@ -942,22 +942,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.055|x2: 0.334|x3: 0.229|x4: 0.181|x5: 0.116|x6: 0.000|x7: 0.177|x8: 0.076|x9: 0.145|x10: 0.000|x11: 0.104|x12: 0.000|x13: 0.237|x14: 0.420|x15: 0.210|x16: 0.054|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.346|x3: 0.219|x4: 0.220|x5: 0.104|x6: 0.000|x7: 0.191|x8: 0.104|x9: 0.137|x10: 0.000|x11: 0.142|x12: 0.000|x13: 0.180|x14: 0.332|x15: 0.240|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.42]</t>
+          <t>[0.00, 0.14, 0.35]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[14, 2, 13, 3, 15, 4, 7, 9, 5, 11]</t>
+          <t>[2, 14, 15, 4, 3, 7, 13, 11, 9, 8, 5]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.42040339307482155, 0.3337412362819798, 0.23747257620502885, 0.22941777166845354, 0.2095538624183633, 0.18050471817976307, 0.1765576495896354, 0.14489779587081827, 0.11615876015903315, 0.10353815023611865]</t>
+          <t>[0.3457247232715943, 0.332367027029738, 0.23975312539412397, 0.22042339313763587, 0.21874733474666966, 0.19051133654084515, 0.1795580309810016, 0.14228845922035094, 0.1368001381555393, 0.10374111601718951, 0.10369290056981983]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -983,22 +983,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.000|x3: 0.221|x4: 0.393|x5: 0.186|x6: 0.385|x7: 0.399|x8: 0.102|x9: 0.433|x10: 0.080|x11: 0.392|x12: 0.000|x13: 0.078|x14: 0.145|x15: 0.161|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.155|x2: 0.000|x3: 0.188|x4: 0.461|x5: 0.174|x6: 0.384|x7: 0.494|x8: 0.224|x9: 0.411|x10: 0.079|x11: 0.479|x12: 0.000|x13: 0.171|x14: 0.179|x15: 0.233|x16: 0.161|x17: 0.000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.43]</t>
+          <t>[0.00, 0.22, 0.49]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[9, 7, 4, 11, 6, 3, 5, 15, 14, 16, 8]</t>
+          <t>[7, 11, 4, 9, 6, 15, 8, 3, 14, 5, 13, 16, 1]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.43289430791853306, 0.3986656023638738, 0.3932333327392336, 0.3921040698245193, 0.3848747995800291, 0.2212957584226509, 0.18567445529104193, 0.1610577070402689, 0.14484891851938864, 0.11433563004029675, 0.10243565784649104]</t>
+          <t>[0.4942613467901716, 0.47883798747167317, 0.46053248641880073, 0.41107649314696426, 0.38433030545055047, 0.23346551216039663, 0.2240411406240233, 0.18825846749520359, 0.1793027703716831, 0.17448348250933263, 0.17085145650012631, 0.1610905954581016, 0.15492718591856713]</t>
         </is>
       </c>
       <c r="H14" t="b">
@@ -1024,22 +1024,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.101|x2: 0.223|x3: 0.367|x4: 0.146|x5: 0.000|x6: 0.000|x7: 0.176|x8: 0.139|x9: 0.136|x10: 0.110|x11: 0.000|x12: 0.256|x13: 0.159|x14: 0.000|x15: 0.197|x16: 0.158|x17: 0.000</t>
+          <t>x1: 0.133|x2: 0.184|x3: 0.385|x4: 0.164|x5: 0.000|x6: 0.105|x7: 0.231|x8: 0.179|x9: 0.126|x10: 0.094|x11: 0.064|x12: 0.302|x13: 0.059|x14: 0.000|x15: 0.245|x16: 0.193|x17: 0.000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.37]</t>
+          <t>[0.00, 0.14, 0.39]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[3, 12, 2, 15, 7, 13, 16, 4, 8, 9, 10, 1]</t>
+          <t>[3, 12, 15, 7, 16, 2, 8, 4, 1, 9, 6]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.36680640896188327, 0.2562966527227545, 0.2233508651134816, 0.19665880330843277, 0.1762545618316234, 0.1590312771821507, 0.15821775100184562, 0.14635873121449833, 0.1390152937747067, 0.13630305805059553, 0.11018320690336203, 0.10080674983177494]</t>
+          <t>[0.3851162999694396, 0.3019804558381369, 0.2453473282883306, 0.23083418455727142, 0.19301105823564985, 0.18404311489654657, 0.17862913433933264, 0.16440824681265398, 0.13274555599938703, 0.12573308183861684, 0.10475417176598543]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1065,22 +1065,22 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.055|x3: 0.231|x4: 0.000|x5: 0.105|x6: 0.081|x7: 0.147|x8: 0.045|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.172|x14: 0.137|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.081|x2: 0.090|x3: 0.231|x4: 0.000|x5: 0.157|x6: 0.132|x7: 0.183|x8: 0.046|x9: 0.000|x10: 0.000|x11: 0.050|x12: 0.066|x13: 0.199|x14: 0.171|x15: 0.058|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.23]</t>
+          <t>[0.00, 0.09, 0.23]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[3, 13, 7, 14, 5]</t>
+          <t>[3, 13, 7, 14, 5, 6]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.23083789334656457, 0.17242153263386678, 0.14658431365613428, 0.13655508349396236, 0.1054233679151083]</t>
+          <t>[0.23121288753398694, 0.19880310085533787, 0.18291423539063403, 0.17084958952305135, 0.15688217395387713, 0.13237164467748141]</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.119|x2: 0.000|x3: 0.159|x4: 0.401|x5: 0.398|x6: 0.201|x7: 0.267|x8: 0.164|x9: 0.230|x10: 0.175|x11: 0.094|x12: 0.158|x13: 0.121|x14: 0.286|x15: 0.119|x16: 0.275|x17: 0.000</t>
+          <t>x1: 0.195|x2: 0.000|x3: 0.247|x4: 0.462|x5: 0.436|x6: 0.258|x7: 0.441|x8: 0.285|x9: 0.310|x10: 0.150|x11: 0.159|x12: 0.141|x13: 0.076|x14: 0.340|x15: 0.154|x16: 0.306|x17: 0.000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.40]</t>
+          <t>[0.00, 0.23, 0.46]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[4, 5, 14, 16, 7, 9, 6, 10, 8, 3, 12, 13, 15, 1]</t>
+          <t>[4, 7, 5, 14, 9, 16, 8, 6, 3, 1, 11, 15, 10, 12]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0.400686196086229, 0.3981561146173784, 0.28610686930536505, 0.27451445466115076, 0.2669730727879295, 0.2296400491498093, 0.2009145837991311, 0.17512910901722772, 0.16350299334885418, 0.1591566300053723, 0.15790712497000986, 0.12095209797722717, 0.1190251330321183, 0.11856397163017163]</t>
+          <t>[0.46193381772761877, 0.4414524152436265, 0.4361628368365892, 0.3402286077451048, 0.3097577747144662, 0.3062504242307567, 0.2849007058113053, 0.2577582821217616, 0.24717880107215875, 0.19537646632431693, 0.15940245366856237, 0.1539989180532034, 0.14955511041709646, 0.14149653504393625]</t>
         </is>
       </c>
       <c r="H17" t="b">
@@ -1147,22 +1147,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.164|x3: 0.000|x4: 0.321|x5: 0.144|x6: 0.000|x7: 0.204|x8: 0.064|x9: 0.108|x10: 0.107|x11: 0.121|x12: 0.283|x13: 0.341|x14: 0.222|x15: 0.120|x16: 0.182|x17: 0.000</t>
+          <t>x1: 0.085|x2: 0.217|x3: 0.000|x4: 0.256|x5: 0.098|x6: 0.059|x7: 0.184|x8: 0.069|x9: 0.081|x10: 0.085|x11: 0.124|x12: 0.304|x13: 0.219|x14: 0.215|x15: 0.151|x16: 0.174|x17: 0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.34]</t>
+          <t>[0.00, 0.14, 0.30]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[13, 4, 12, 14, 7, 16, 2, 5, 11, 15, 9, 10]</t>
+          <t>[12, 4, 13, 2, 14, 7, 16, 15, 11]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0.34129826621265413, 0.32065875568828656, 0.2826046494833136, 0.2218419200780934, 0.20381087664282083, 0.18237288633956802, 0.16446860690422624, 0.14390826120444647, 0.12073939502683115, 0.11972973919751537, 0.10828118579245358, 0.10708275972575082]</t>
+          <t>[0.3041499472000997, 0.2562111992148797, 0.21861321319702795, 0.21712220698136855, 0.21516157998146954, 0.18370988239773853, 0.1738539696660137, 0.15106472926663575, 0.12416774198206589]</t>
         </is>
       </c>
       <c r="H18" t="b">
@@ -1188,22 +1188,22 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.102|x3: 0.225|x4: 0.244|x5: 0.078|x6: 0.000|x7: 0.087|x8: 0.000|x9: 0.366|x10: 0.000|x11: 0.091|x12: 0.236|x13: 0.370|x14: 0.221|x15: 0.205|x16: 0.053|x17: 0.000</t>
+          <t>x1: 0.133|x2: 0.055|x3: 0.254|x4: 0.281|x5: 0.000|x6: 0.000|x7: 0.070|x8: 0.144|x9: 0.352|x10: 0.000|x11: 0.256|x12: 0.287|x13: 0.338|x14: 0.225|x15: 0.152|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.37]</t>
+          <t>[0.00, 0.15, 0.35]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[13, 9, 4, 12, 3, 14, 15, 2]</t>
+          <t>[9, 13, 12, 4, 11, 3, 14, 15, 8, 1]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.3700423914277741, 0.36559768829074774, 0.24392282734269977, 0.23608654677512167, 0.22457055445630583, 0.22067081524001364, 0.20490298740449137, 0.10233611344618057]</t>
+          <t>[0.35240777660493344, 0.3384333447177215, 0.28748192561943625, 0.28106135007043215, 0.2555574103879102, 0.2536033779307936, 0.22472427616526316, 0.1520517630573833, 0.14422037484978303, 0.13261106334249373]</t>
         </is>
       </c>
       <c r="H19" t="b">
@@ -1229,22 +1229,22 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.051|x2: 0.210|x3: 0.000|x4: 0.234|x5: 0.062|x6: 0.277|x7: 0.268|x8: 0.071|x9: 0.162|x10: 0.000|x11: 0.223|x12: 0.421|x13: 0.487|x14: 0.247|x15: 0.328|x16: 0.051|x17: 0.000</t>
+          <t>x1: 0.140|x2: 0.239|x3: 0.000|x4: 0.174|x5: 0.099|x6: 0.307|x7: 0.292|x8: 0.106|x9: 0.207|x10: 0.051|x11: 0.274|x12: 0.505|x13: 0.439|x14: 0.298|x15: 0.354|x16: 0.104|x17: 0.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.49]</t>
+          <t>[0.00, 0.21, 0.50]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[13, 12, 15, 6, 7, 14, 4, 11, 2, 9]</t>
+          <t>[12, 13, 15, 6, 14, 7, 11, 2, 9, 4, 1, 8, 16]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[0.48656408418740915, 0.42143596374736675, 0.3279816815106663, 0.276785586336828, 0.2678176434346656, 0.247139740390053, 0.2335344045027505, 0.22304780491861323, 0.2099773854784357, 0.16200353520085037]</t>
+          <t>[0.5049326215609028, 0.4389495167186454, 0.354469603477439, 0.3073989432963187, 0.29841180368060166, 0.29206727870728644, 0.2741465930241769, 0.23880224237189812, 0.20746832465827186, 0.17402610524214082, 0.13981922761036494, 0.10630262544284479, 0.10425763700782871]</t>
         </is>
       </c>
       <c r="H20" t="b">
@@ -1270,22 +1270,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.077|x3: 0.379|x4: 0.248|x5: 0.291|x6: 0.000|x7: 0.163|x8: 0.101|x9: 0.000|x10: 0.126|x11: 0.127|x12: 0.160|x13: 0.550|x14: 0.215|x15: 0.196|x16: 0.205|x17: 0.000</t>
+          <t>x1: 0.183|x2: 0.000|x3: 0.422|x4: 0.332|x5: 0.246|x6: 0.000|x7: 0.204|x8: 0.132|x9: 0.000|x10: 0.094|x11: 0.186|x12: 0.151|x13: 0.440|x14: 0.179|x15: 0.194|x16: 0.193|x17: 0.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.55]</t>
+          <t>[0.00, 0.17, 0.44]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[13, 3, 5, 4, 14, 16, 15, 7, 12, 11, 10, 8]</t>
+          <t>[13, 3, 4, 5, 7, 15, 16, 11, 1, 14, 12, 8]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.5501797341356289, 0.3786956488361619, 0.2913274319515825, 0.2480017824773618, 0.21491268792713272, 0.2047285918968575, 0.19571955550312434, 0.16250243260611208, 0.16018349749689553, 0.12679135831961147, 0.12626921363207555, 0.10092356889892118]</t>
+          <t>[0.4404225430377008, 0.4222737090597828, 0.33151761850473005, 0.24649665009621405, 0.20425275653440073, 0.19377254758421547, 0.19253528844889573, 0.18593615441553227, 0.18333117459679324, 0.17927580171180793, 0.15148904115781336, 0.13230779259601902]</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -1311,22 +1311,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.288|x4: 0.416|x5: 0.203|x6: 0.063|x7: 0.158|x8: 0.000|x9: 0.361|x10: 0.174|x11: 0.299|x12: 0.129|x13: 0.376|x14: 0.215|x15: 0.126|x16: 0.324|x17: 0.000</t>
+          <t>x1: 0.096|x2: 0.086|x3: 0.127|x4: 0.420|x5: 0.188|x6: 0.147|x7: 0.113|x8: 0.100|x9: 0.315|x10: 0.179|x11: 0.211|x12: 0.161|x13: 0.298|x14: 0.244|x15: 0.160|x16: 0.366|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.42]</t>
+          <t>[0.00, 0.19, 0.42]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[4, 13, 9, 16, 11, 3, 14, 5, 10, 7, 12, 15]</t>
+          <t>[4, 16, 9, 13, 14, 11, 5, 10, 12, 15, 6, 3, 7, 8]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.41643455517716926, 0.37577073633503, 0.36080926036360517, 0.3240838658062672, 0.2986141967610165, 0.28788899569342596, 0.21536594544469387, 0.2026359512759711, 0.17379959004585632, 0.15827747711791476, 0.12937737614488964, 0.1264260352915373]</t>
+          <t>[0.4198289129890484, 0.36595661032033805, 0.3150560503777153, 0.2979132094738232, 0.2444344518767767, 0.21119620968138092, 0.18838824968194884, 0.1787121810583533, 0.1606729259602243, 0.15970410486987677, 0.14731793625660863, 0.12667940712012773, 0.11254235939083294, 0.1004228578211696]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1352,22 +1352,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.192|x3: 0.264|x4: 0.180|x5: 0.198|x6: 0.000|x7: 0.000|x8: 0.069|x9: 0.000|x10: 0.154|x11: 0.094|x12: 0.000|x13: 0.127|x14: 0.302|x15: 0.138|x16: 0.271|x17: 0.000</t>
+          <t>x1: 0.147|x2: 0.259|x3: 0.286|x4: 0.195|x5: 0.202|x6: 0.101|x7: 0.081|x8: 0.154|x9: 0.000|x10: 0.134|x11: 0.216|x12: 0.000|x13: 0.138|x14: 0.332|x15: 0.182|x16: 0.275|x17: 0.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.30]</t>
+          <t>[0.00, 0.16, 0.33]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[14, 16, 3, 5, 2, 4, 10, 15, 13]</t>
+          <t>[14, 3, 16, 2, 11, 5, 4, 15, 8, 1, 13, 10, 6]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.3018136896290047, 0.2706964031209135, 0.26413902918236015, 0.19807658508361828, 0.19209976410077126, 0.17990885770509527, 0.153742168905781, 0.13843674331041933, 0.12667752591275466]</t>
+          <t>[0.3315112921346628, 0.2860988605755836, 0.27512689106303323, 0.2590987441981529, 0.21591259767096152, 0.20220325280393758, 0.19529334907197102, 0.18160923246637753, 0.15425998541303615, 0.1470992029745219, 0.13843030107866525, 0.13435616513837326, 0.10119459679213548]</t>
         </is>
       </c>
       <c r="H23" t="b">
@@ -1393,22 +1393,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.108|x2: 0.239|x3: 0.078|x4: 0.186|x5: 0.270|x6: 0.184|x7: 0.203|x8: 0.149|x9: 0.307|x10: 0.157|x11: 0.000|x12: 0.101|x13: 0.309|x14: 0.307|x15: 0.185|x16: 0.246|x17: 0.000</t>
+          <t>x1: 0.137|x2: 0.366|x3: 0.052|x4: 0.166|x5: 0.206|x6: 0.166|x7: 0.176|x8: 0.179|x9: 0.320|x10: 0.095|x11: 0.164|x12: 0.251|x13: 0.203|x14: 0.369|x15: 0.177|x16: 0.194|x17: 0.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.31]</t>
+          <t>[0.00, 0.19, 0.37]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[13, 14, 9, 5, 16, 2, 7, 4, 15, 6, 10, 8, 1, 12]</t>
+          <t>[14, 2, 9, 12, 5, 13, 16, 8, 15, 7, 6, 4, 11, 1]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[0.30860950433175555, 0.3073221441369988, 0.3068067334677107, 0.26951467620377, 0.24602041851101555, 0.23869763288402263, 0.20340463888780755, 0.186478345134436, 0.18526754048921645, 0.1839466332379046, 0.15735968770346404, 0.14851057098227022, 0.10769223709044633, 0.10082045092469365]</t>
+          <t>[0.369112298278044, 0.3663689906086794, 0.32015598724593525, 0.2509282649127657, 0.20579874205372833, 0.2026047311858922, 0.19364743525580758, 0.1786602027774208, 0.17733590272763844, 0.1757637476285298, 0.16589807532514617, 0.1656888399944319, 0.1641448447297343, 0.13701909328744177]</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -1434,22 +1434,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.236|x3: 0.362|x4: 0.295|x5: 0.121|x6: 0.301|x7: 0.205|x8: 0.162|x9: 0.300|x10: 0.123|x11: 0.173|x12: 0.094|x13: 0.000|x14: 0.053|x15: 0.049|x16: 0.173|x17: 0.000</t>
+          <t>x1: 0.127|x2: 0.352|x3: 0.429|x4: 0.344|x5: 0.152|x6: 0.307|x7: 0.140|x8: 0.227|x9: 0.193|x10: 0.074|x11: 0.188|x12: 0.000|x13: 0.000|x14: 0.173|x15: 0.000|x16: 0.153|x17: 0.000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.36]</t>
+          <t>[0.00, 0.17, 0.43]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[3, 6, 9, 4, 2, 7, 11, 16, 8, 10, 5, 1]</t>
+          <t>[3, 2, 4, 6, 8, 9, 11, 14, 16, 5, 7, 1]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.36190625081910377, 0.30141173687629025, 0.30005270963243724, 0.29450149384295143, 0.23600962342585677, 0.20545876563914817, 0.17342709946567414, 0.17303668637406147, 0.16218775811829797, 0.12259948320690776, 0.12051665175490636, 0.11761023060458717]</t>
+          <t>[0.42908903575587437, 0.3519301208733941, 0.3442036190189045, 0.30745440494704146, 0.22681910061111793, 0.1933038878050119, 0.18819473973055226, 0.1730725034354038, 0.15251606656141475, 0.15170585601284206, 0.14014808443425342, 0.12699710450076107]</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -1475,22 +1475,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.100|x3: 0.172|x4: 0.072|x5: 0.166|x6: 0.243|x7: 0.383|x8: 0.105|x9: 0.151|x10: 0.087|x11: 0.203|x12: 0.108|x13: 0.000|x14: 0.137|x15: 0.000|x16: 0.127|x17: 0.000</t>
+          <t>x1: 0.107|x2: 0.225|x3: 0.157|x4: 0.105|x5: 0.196|x6: 0.248|x7: 0.410|x8: 0.195|x9: 0.177|x10: 0.073|x11: 0.176|x12: 0.190|x13: 0.000|x14: 0.230|x15: 0.000|x16: 0.150|x17: 0.000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.38]</t>
+          <t>[0.00, 0.16, 0.41]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[7, 6, 11, 3, 5, 9, 14, 16, 12, 8, 2]</t>
+          <t>[7, 6, 14, 2, 5, 8, 12, 9, 11, 3, 16, 1, 4]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.38269962555874154, 0.24288907869712614, 0.2028455168420778, 0.17202540556312354, 0.16612533532819976, 0.15137311966007877, 0.13710334397190296, 0.12699991172407454, 0.10803308983425887, 0.1049275585138265, 0.10019868906372076]</t>
+          <t>[0.4095610516311563, 0.24808186302386942, 0.2301618604074661, 0.2253250813292387, 0.19594860572622638, 0.19475269443438484, 0.18999054870525572, 0.17665260287720796, 0.17551830333280108, 0.15681780508695475, 0.15000308076822041, 0.10672431186937044, 0.10473024454411625]</t>
         </is>
       </c>
       <c r="H26" t="b">
@@ -1516,22 +1516,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.197|x3: 0.000|x4: 0.205|x5: 0.230|x6: 0.318|x7: 0.600|x8: 0.101|x9: 0.279|x10: 0.071|x11: 0.120|x12: 0.410|x13: 0.251|x14: 0.202|x15: 0.085|x16: 0.098|x17: 0.000</t>
+          <t>x1: 0.159|x2: 0.146|x3: 0.000|x4: 0.259|x5: 0.259|x6: 0.280|x7: 0.683|x8: 0.209|x9: 0.411|x10: 0.058|x11: 0.137|x12: 0.534|x13: 0.250|x14: 0.196|x15: 0.197|x16: 0.119|x17: 0.000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.60]</t>
+          <t>[0.00, 0.23, 0.68]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[7, 12, 6, 9, 13, 5, 4, 14, 2, 11, 8]</t>
+          <t>[7, 12, 9, 6, 5, 4, 13, 8, 15, 14, 1, 2, 11, 16]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[0.6002959014108418, 0.410117355507373, 0.3182933353886937, 0.27910081395399705, 0.2511001083803059, 0.22986624353230387, 0.20458494402039917, 0.2019772387144947, 0.19662666401910656, 0.11993738370096899, 0.1012464424597269]</t>
+          <t>[0.6828015191430186, 0.5340947523597689, 0.4109176276122763, 0.2799901554543109, 0.2586235318235481, 0.25854973023895517, 0.2504802224321944, 0.20918081105493183, 0.1974591722029979, 0.19630189020319136, 0.15867129412421335, 0.14550330807083678, 0.13682934162518612, 0.11926465152674781]</t>
         </is>
       </c>
       <c r="H27" t="b">
@@ -1557,22 +1557,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.242|x3: 0.075|x4: 0.157|x5: 0.105|x6: 0.163|x7: 0.243|x8: 0.137|x9: 0.056|x10: 0.092|x11: 0.092|x12: 0.248|x13: 0.207|x14: 0.000|x15: 0.000|x16: 0.123|x17: 0.000</t>
+          <t>x1: 0.103|x2: 0.302|x3: 0.000|x4: 0.220|x5: 0.088|x6: 0.075|x7: 0.214|x8: 0.101|x9: 0.071|x10: 0.000|x11: 0.092|x12: 0.231|x13: 0.180|x14: 0.000|x15: 0.000|x16: 0.089|x17: 0.000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.25]</t>
+          <t>[0.00, 0.10, 0.30]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[12, 7, 2, 13, 6, 4, 8, 16, 5]</t>
+          <t>[2, 12, 4, 7, 13, 1, 8]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.24847535491474948, 0.2426699234708723, 0.24150384498895097, 0.2071948094460597, 0.16317112910291412, 0.15718615222003687, 0.1368939650516283, 0.12305564907905094, 0.1045162253974443]</t>
+          <t>[0.30205876906874796, 0.23111980761210751, 0.22021081084208405, 0.21365033374577375, 0.18040683846175096, 0.10264271731301752, 0.10064629296897205]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1598,22 +1598,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.260|x4: 0.102|x5: 0.092|x6: 0.000|x7: 0.000|x8: 0.039|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.092|x14: 0.000|x15: 0.052|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.101|x2: 0.000|x3: 0.336|x4: 0.000|x5: 0.155|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.100|x13: 0.103|x14: 0.000|x15: 0.100|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.00, 0.04, 0.26]</t>
+          <t>[0.00, 0.06, 0.34]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[3, 4]</t>
+          <t>[3, 5, 13, 1]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.26023855745928054, 0.10240185344174213]</t>
+          <t>[0.33598979211856717, 0.15517437480864082, 0.10301117591211167, 0.1007891014383534]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1639,22 +1639,22 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.074|x2: 0.000|x3: 0.201|x4: 0.061|x5: 0.291|x6: 0.290|x7: 0.179|x8: 0.102|x9: 0.253|x10: 0.165|x11: 0.205|x12: 0.313|x13: 0.174|x14: 0.000|x15: 0.244|x16: 0.280|x17: 0.000</t>
+          <t>x1: 0.130|x2: 0.000|x3: 0.166|x4: 0.000|x5: 0.274|x6: 0.229|x7: 0.102|x8: 0.181|x9: 0.243|x10: 0.150|x11: 0.210|x12: 0.324|x13: 0.109|x14: 0.072|x15: 0.216|x16: 0.308|x17: 0.000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.31]</t>
+          <t>[0.00, 0.16, 0.32]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[12, 5, 6, 16, 9, 15, 11, 3, 7, 13, 10, 8]</t>
+          <t>[12, 16, 5, 9, 6, 15, 11, 8, 3, 10, 1, 13, 7]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.31271236860493706, 0.29103153992833874, 0.28984480877143565, 0.27996122797038464, 0.2530032620977626, 0.2438568750737452, 0.20531558189949203, 0.20085966420197576, 0.179392568449693, 0.17442227060267862, 0.16528750714610113, 0.10225881291238419]</t>
+          <t>[0.3242347206204177, 0.3079693220518069, 0.2741741866578573, 0.24264920390612427, 0.22915817309124073, 0.2156342025537738, 0.20976267039269872, 0.18125470839434132, 0.1658169840949017, 0.15039452134711748, 0.1303656007222648, 0.10859121372830495, 0.10194389330676391]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1680,22 +1680,22 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.313|x3: 0.000|x4: 0.106|x5: 0.126|x6: 0.202|x7: 0.450|x8: 0.000|x9: 0.151|x10: 0.000|x11: 0.000|x12: 0.506|x13: 0.465|x14: 0.328|x15: 0.481|x16: 0.065|x17: 0.000</t>
+          <t>x1: 0.121|x2: 0.251|x3: 0.000|x4: 0.109|x5: 0.139|x6: 0.200|x7: 0.446|x8: 0.099|x9: 0.182|x10: 0.055|x11: 0.068|x12: 0.636|x13: 0.354|x14: 0.319|x15: 0.499|x16: 0.112|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.51]</t>
+          <t>[0.00, 0.21, 0.64]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[12, 15, 13, 7, 14, 2, 6, 9, 5, 4]</t>
+          <t>[12, 15, 7, 13, 14, 2, 6, 9, 5, 1, 16, 4]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.5060608743611076, 0.4807571390787023, 0.4651691891096217, 0.4497677153270511, 0.3275030772764126, 0.31346071767749484, 0.20174552450226838, 0.1505113265429739, 0.12602567383924143, 0.10592972025116107]</t>
+          <t>[0.6355093433421629, 0.49863560102167515, 0.44590622239584493, 0.3538038172607646, 0.3188400774713232, 0.2509959252377904, 0.20017370064303974, 0.18182253156221678, 0.13860703553709497, 0.12115942006428058, 0.11233934245494007, 0.10910557545029782]</t>
         </is>
       </c>
       <c r="H31" t="b">
@@ -1721,22 +1721,22 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.055|x2: 0.000|x3: 0.351|x4: 0.478|x5: 0.262|x6: 0.161|x7: 0.265|x8: 0.076|x9: 0.244|x10: 0.125|x11: 0.000|x12: 0.000|x13: 0.119|x14: 0.000|x15: 0.143|x16: 0.212|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.256|x4: 0.423|x5: 0.319|x6: 0.187|x7: 0.281|x8: 0.102|x9: 0.243|x10: 0.103|x11: 0.088|x12: 0.168|x13: 0.000|x14: 0.000|x15: 0.136|x16: 0.211|x17: 0.000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.48]</t>
+          <t>[0.00, 0.15, 0.42]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[4, 3, 7, 5, 9, 16, 6, 15, 10, 13]</t>
+          <t>[4, 5, 7, 3, 9, 16, 6, 12, 15, 10, 8]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.47836390126873823, 0.35100499171447913, 0.26531958479815365, 0.26178426560264967, 0.2439359110171702, 0.21196208389721516, 0.1609886314911215, 0.14348069386449572, 0.12481603893167623, 0.11925900765047279]</t>
+          <t>[0.4232131831028448, 0.31902418149698697, 0.28114063273412687, 0.25584321149212963, 0.2431246541611684, 0.2106491335126375, 0.18685696411432834, 0.1681009383867283, 0.13628723154187383, 0.10286893316435211, 0.10211575925272545]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1762,29 +1762,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.122|x2: 0.000|x3: 0.165|x4: 0.235|x5: 0.238|x6: 0.334|x7: 0.270|x8: 0.169|x9: 0.084|x10: 0.061|x11: 0.172|x12: 0.000|x13: 0.067|x14: 0.202|x15: 0.069|x16: 0.052|x17: 0.000</t>
+          <t>x1: 0.121|x2: 0.000|x3: 0.095|x4: 0.425|x5: 0.412|x6: 0.391|x7: 0.307|x8: 0.123|x9: 0.000|x10: 0.000|x11: 0.278|x12: 0.000|x13: 0.152|x14: 0.307|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.33]</t>
+          <t>[0.00, 0.15, 0.42]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[6, 7, 5, 4, 14, 11, 8, 3, 1]</t>
+          <t>[4, 5, 6, 7, 14, 11, 13, 8, 1]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.3344407584798069, 0.2698924208989878, 0.23775684079279286, 0.2346333796947939, 0.20200400408002908, 0.17229525313929867, 0.16879584158745034, 0.16518031533782915, 0.12240207327926367]</t>
+          <t>[0.4248497628104516, 0.41190776449524275, 0.3914605158561376, 0.30710410445103437, 0.30676201127456904, 0.2775594313670074, 0.15249431355117304, 0.12315970013122314, 0.12085126498144592]</t>
         </is>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.476|x4: 0.325|x5: 0.345|x6: 0.154|x7: 0.421|x8: 0.058|x9: 0.297|x10: 0.000|x11: 0.000|x12: 0.210|x13: 0.200|x14: 0.182|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.215|x3: 0.431|x4: 0.257|x5: 0.254|x6: 0.000|x7: 0.303|x8: 0.140|x9: 0.196|x10: 0.000|x11: 0.000|x12: 0.249|x13: 0.166|x14: 0.238|x15: 0.055|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.48]</t>
+          <t>[0.00, 0.15, 0.43]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[3, 7, 5, 4, 9, 12, 13, 14, 6]</t>
+          <t>[3, 7, 4, 5, 12, 14, 2, 9, 13, 8, 1]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.47580857929730397, 0.4209087016354107, 0.34484491898133857, 0.32542176046914584, 0.29670796972633895, 0.21016107669982645, 0.20021392884312603, 0.18160141638282531, 0.15419039471528068]</t>
+          <t>[0.4307764929699302, 0.3034248694510947, 0.25677341523435937, 0.25371711242314066, 0.24947592589198794, 0.2384356427455455, 0.21484782731983107, 0.19622082526646373, 0.16551972141164462, 0.13983231170279045, 0.11498691817605639]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1844,22 +1844,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.103|x2: 0.000|x3: 0.292|x4: 0.237|x5: 0.183|x6: 0.182|x7: 0.285|x8: 0.142|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.088|x13: 0.126|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.117|x2: 0.054|x3: 0.207|x4: 0.209|x5: 0.155|x6: 0.154|x7: 0.328|x8: 0.086|x9: 0.000|x10: 0.000|x11: 0.130|x12: 0.226|x13: 0.236|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.29]</t>
+          <t>[0.00, 0.11, 0.33]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[3, 7, 4, 5, 6, 8, 13, 1]</t>
+          <t>[7, 13, 12, 4, 3, 5, 6, 11, 1]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.29239368015198947, 0.2852262768869676, 0.2370611125281918, 0.18280948366060448, 0.1820192759886961, 0.14208614816865234, 0.12638506146382092, 0.10303357568851823]</t>
+          <t>[0.32770720613927584, 0.23645834293772697, 0.22647209886330377, 0.20859662342282642, 0.20727456450069798, 0.15450661893358575, 0.15393579622124473, 0.1300054562570428, 0.11688666424853023]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1885,22 +1885,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.159|x2: 0.283|x3: 0.168|x4: 0.443|x5: 0.166|x6: 0.000|x7: 0.112|x8: 0.219|x9: 0.279|x10: 0.165|x11: 0.102|x12: 0.090|x13: 0.220|x14: 0.228|x15: 0.089|x16: 0.232|x17: 0.000</t>
+          <t>x1: 0.223|x2: 0.237|x3: 0.144|x4: 0.527|x5: 0.223|x6: 0.000|x7: 0.067|x8: 0.252|x9: 0.179|x10: 0.123|x11: 0.234|x12: 0.172|x13: 0.274|x14: 0.255|x15: 0.055|x16: 0.251|x17: 0.000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.44]</t>
+          <t>[0.00, 0.19, 0.53]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[4, 2, 9, 16, 14, 13, 8, 3, 5, 10, 1, 7, 11]</t>
+          <t>[4, 13, 14, 8, 16, 2, 11, 5, 1, 9, 12, 3, 10]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.443480686041175, 0.2831579476759045, 0.2788870014658321, 0.23200029034611422, 0.22839761144044332, 0.2203479788386868, 0.21911515257553907, 0.16820801570257404, 0.16595567622676272, 0.16471912882580597, 0.15889105270554368, 0.11174705106872479, 0.10203468149714452]</t>
+          <t>[0.5266593956699355, 0.27353446748624793, 0.25541925037416086, 0.25171788271696366, 0.25112332717308117, 0.2367861370980693, 0.23373215011338389, 0.223077266743708, 0.22298572159743302, 0.17893210271686208, 0.17175804184547777, 0.143515378656914, 0.1226342037501314]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1926,22 +1926,22 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.119|x2: 0.000|x3: 0.213|x4: 0.260|x5: 0.211|x6: 0.176|x7: 0.262|x8: 0.164|x9: 0.285|x10: 0.073|x11: 0.122|x12: 0.161|x13: 0.053|x14: 0.060|x15: 0.079|x16: 0.076|x17: 0.000</t>
+          <t>x1: 0.176|x2: 0.000|x3: 0.115|x4: 0.310|x5: 0.289|x6: 0.208|x7: 0.373|x8: 0.270|x9: 0.349|x10: 0.074|x11: 0.161|x12: 0.218|x13: 0.056|x14: 0.094|x15: 0.070|x16: 0.151|x17: 0.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.29]</t>
+          <t>[0.00, 0.17, 0.37]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[9, 7, 4, 3, 5, 6, 8, 12, 11, 1]</t>
+          <t>[7, 9, 4, 5, 8, 12, 6, 1, 11, 16, 3]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[0.2854256398933278, 0.2619354033872328, 0.2602478042082724, 0.2130110110662579, 0.2106500655971705, 0.17615020629273018, 0.16403393156241125, 0.16129483160132227, 0.1222946871686609, 0.11894898074835483]</t>
+          <t>[0.3728449738040977, 0.3490204279039664, 0.3098556860158171, 0.289166593690544, 0.2704552859347241, 0.21753774853297345, 0.20753216784662862, 0.176042142266082, 0.16148982648129095, 0.15094214824705057, 0.11546287599319362]</t>
         </is>
       </c>
       <c r="H37" t="b">
@@ -1967,22 +1967,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.105|x2: 0.000|x3: 0.260|x4: 0.146|x5: 0.136|x6: 0.081|x7: 0.280|x8: 0.145|x9: 0.070|x10: 0.099|x11: 0.136|x12: 0.178|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.134|x17: 0.000</t>
+          <t>x1: 0.177|x2: 0.000|x3: 0.271|x4: 0.197|x5: 0.229|x6: 0.090|x7: 0.385|x8: 0.219|x9: 0.107|x10: 0.067|x11: 0.201|x12: 0.313|x13: 0.118|x14: 0.000|x15: 0.000|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.28]</t>
+          <t>[0.00, 0.15, 0.38]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[7, 3, 12, 4, 8, 11, 5, 16, 1]</t>
+          <t>[7, 12, 3, 5, 8, 11, 4, 1, 16, 13, 9]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.27967447096615344, 0.2604264905932882, 0.17756728988600215, 0.14562317120416862, 0.14459842144811416, 0.1364373756074898, 0.1356106871375951, 0.13438696100873937, 0.1048553472153417]</t>
+          <t>[0.3848808069411875, 0.31345408755460435, 0.2710066231775642, 0.2293748798243466, 0.21879417643089016, 0.2013312958308712, 0.19657687862597226, 0.17684478933714856, 0.13698273265186386, 0.11789832242103741, 0.10713759908434775]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -2008,22 +2008,22 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.000|x3: 0.222|x4: 0.000|x5: 0.163|x6: 0.155|x7: 0.119|x8: 0.126|x9: 0.364|x10: 0.053|x11: 0.156|x12: 0.205|x13: 0.000|x14: 0.235|x15: 0.168|x16: 0.053|x17: 0.000</t>
+          <t>x1: 0.098|x2: 0.151|x3: 0.168|x4: 0.000|x5: 0.182|x6: 0.086|x7: 0.000|x8: 0.196|x9: 0.346|x10: 0.000|x11: 0.247|x12: 0.226|x13: 0.000|x14: 0.318|x15: 0.177|x16: 0.086|x17: 0.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.36]</t>
+          <t>[0.00, 0.13, 0.35]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[9, 14, 3, 12, 15, 5, 11, 6, 8, 7]</t>
+          <t>[9, 14, 11, 12, 8, 5, 15, 3, 2]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[0.36434861612179975, 0.2347571761143507, 0.22169933814307977, 0.2045062881013307, 0.16815895426302818, 0.16324698485647807, 0.15630780525933727, 0.15543754858974418, 0.12575510832786493, 0.11901601450687273]</t>
+          <t>[0.34578291754270635, 0.31837480387385186, 0.2473767321735112, 0.2258509539625454, 0.19579079835710594, 0.18194624100019774, 0.17670118495184825, 0.16811154274716744, 0.15114627300445282]</t>
         </is>
       </c>
       <c r="H39" t="b">
@@ -2049,22 +2049,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.126|x2: 0.177|x3: 0.000|x4: 0.203|x5: 0.382|x6: 0.341|x7: 0.444|x8: 0.173|x9: 0.248|x10: 0.163|x11: 0.148|x12: 0.239|x13: 0.189|x14: 0.152|x15: 0.069|x16: 0.246|x17: 0.000</t>
+          <t>x1: 0.221|x2: 0.286|x3: 0.000|x4: 0.295|x5: 0.379|x6: 0.356|x7: 0.560|x8: 0.306|x9: 0.372|x10: 0.146|x11: 0.096|x12: 0.259|x13: 0.168|x14: 0.161|x15: 0.130|x16: 0.298|x17: 0.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.44]</t>
+          <t>[0.00, 0.24, 0.56]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[7, 5, 6, 9, 16, 12, 4, 13, 2, 8, 10, 14, 11, 1]</t>
+          <t>[7, 5, 9, 6, 8, 16, 4, 2, 12, 1, 13, 14, 10, 15]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.44384544546915505, 0.38178149105253134, 0.3411297799442315, 0.24765146062635035, 0.2461566330460521, 0.23934916134259518, 0.2034590155809699, 0.18927717009037556, 0.17679839636578018, 0.17318757340980528, 0.16252547605981585, 0.15232689428211002, 0.14752974214219122, 0.1255867315936349]</t>
+          <t>[0.5602206651057726, 0.3788586223391752, 0.37194758572162967, 0.3558797249177633, 0.3056102560981428, 0.2981688665404902, 0.29520816824159923, 0.28596323304060395, 0.25923715235854794, 0.22140574132498836, 0.16831162988137965, 0.16058698264051202, 0.14560854199765405, 0.12981499709895505]</t>
         </is>
       </c>
       <c r="H40" t="b">
@@ -2090,22 +2090,22 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.166|x2: 0.244|x3: 0.275|x4: 0.147|x5: 0.310|x6: 0.160|x7: 0.302|x8: 0.228|x9: 0.195|x10: 0.145|x11: 0.054|x12: 0.000|x13: 0.000|x14: 0.225|x15: 0.080|x16: 0.190|x17: 0.000</t>
+          <t>x1: 0.208|x2: 0.271|x3: 0.344|x4: 0.194|x5: 0.355|x6: 0.145|x7: 0.319|x8: 0.293|x9: 0.192|x10: 0.099|x11: 0.068|x12: 0.075|x13: 0.000|x14: 0.253|x15: 0.158|x16: 0.202|x17: 0.000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.31]</t>
+          <t>[0.00, 0.19, 0.35]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[5, 7, 3, 2, 8, 14, 9, 16, 1, 6, 4, 10]</t>
+          <t>[5, 3, 7, 8, 2, 14, 1, 16, 4, 9, 15, 6]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.3104195835938648, 0.3022051966543963, 0.27496310816885594, 0.24409185354087, 0.2283952946213614, 0.2254333209640899, 0.19485390124279164, 0.19043042307139335, 0.16562053499641055, 0.16049611642375475, 0.1470757141485022, 0.14522817072166377]</t>
+          <t>[0.3549909202490522, 0.34421924524521946, 0.31924202676833124, 0.2930951362070352, 0.2713030770189928, 0.2532066152422053, 0.20775220110876272, 0.20184326333041747, 0.19433427380919382, 0.19183501851546428, 0.15844578085166025, 0.1445633311941414]</t>
         </is>
       </c>
       <c r="H41" t="b">
@@ -2131,22 +2131,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.105|x2: 0.220|x3: 0.184|x4: 0.270|x5: 0.161|x6: 0.090|x7: 0.308|x8: 0.145|x9: 0.000|x10: 0.131|x11: 0.079|x12: 0.168|x13: 0.137|x14: 0.081|x15: 0.000|x16: 0.197|x17: 0.000</t>
+          <t>x1: 0.142|x2: 0.223|x3: 0.164|x4: 0.309|x5: 0.221|x6: 0.085|x7: 0.297|x8: 0.134|x9: 0.000|x10: 0.112|x11: 0.170|x12: 0.205|x13: 0.171|x14: 0.107|x15: 0.000|x16: 0.229|x17: 0.000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.31]</t>
+          <t>[0.00, 0.15, 0.31]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[7, 4, 2, 16, 3, 12, 5, 8, 13, 10, 1]</t>
+          <t>[4, 7, 16, 2, 5, 12, 13, 11, 3, 1, 8, 10, 14]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.3079425212052223, 0.26994150729226285, 0.22037583236289274, 0.19680344545328113, 0.184289866400978, 0.16837060920468164, 0.16096761430055834, 0.14456960603716704, 0.13690968238665624, 0.13120062377163433, 0.10483445175957008]</t>
+          <t>[0.30882528070500853, 0.2968703583027404, 0.228739194283447, 0.22307794672465867, 0.22131643620557792, 0.20500108872590225, 0.17109953657708507, 0.1697323785439237, 0.1635804442590593, 0.14211165590844718, 0.1340184856205282, 0.11170307941190755, 0.10744522060154686]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.063|x2: 0.000|x3: 0.291|x4: 0.000|x5: 0.131|x6: 0.197|x7: 0.268|x8: 0.087|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.179|x13: 0.141|x14: 0.234|x15: 0.057|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.153|x2: 0.156|x3: 0.321|x4: 0.052|x5: 0.168|x6: 0.078|x7: 0.274|x8: 0.148|x9: 0.000|x10: 0.000|x11: 0.100|x12: 0.286|x13: 0.220|x14: 0.345|x15: 0.155|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.29]</t>
+          <t>[0.00, 0.14, 0.35]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[3, 7, 14, 6, 12, 13, 5]</t>
+          <t>[14, 3, 12, 7, 13, 5, 2, 15, 1, 8, 11]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.29141988854483447, 0.2684613602200848, 0.2338608980175432, 0.19656454633135692, 0.179277258319135, 0.14140085774235, 0.1306520071365431]</t>
+          <t>[0.34547784262508685, 0.32066983425979273, 0.2861323655362315, 0.2743557760529962, 0.21979718327224224, 0.167759124579586, 0.1558288889198941, 0.1545243306900383, 0.15270880814799512, 0.14844891570441565, 0.10012929261956059]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2213,22 +2213,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.409|x3: 0.245|x4: 0.259|x5: 0.078|x6: 0.071|x7: 0.191|x8: 0.203|x9: 0.239|x10: 0.114|x11: 0.074|x12: 0.257|x13: 0.134|x14: 0.216|x15: 0.120|x16: 0.141|x17: 0.000</t>
+          <t>x1: 0.267|x2: 0.535|x3: 0.177|x4: 0.312|x5: 0.123|x6: 0.000|x7: 0.219|x8: 0.339|x9: 0.223|x10: 0.086|x11: 0.203|x12: 0.417|x13: 0.182|x14: 0.271|x15: 0.074|x16: 0.177|x17: 0.000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.41]</t>
+          <t>[0.00, 0.21, 0.54]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[2, 4, 12, 3, 9, 14, 8, 7, 1, 16, 13, 15, 10]</t>
+          <t>[2, 12, 8, 4, 14, 1, 9, 7, 11, 13, 16, 3, 5]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.40853194068700954, 0.2591970520970107, 0.25737410541820516, 0.2446690736034733, 0.23928293290166588, 0.2156992066663773, 0.20343110468406642, 0.19100816662253053, 0.14751778686396239, 0.14058972336779274, 0.13357717866791224, 0.12003248630627296, 0.11440674565396963]</t>
+          <t>[0.5352942378255433, 0.4173910265352049, 0.33944833073759834, 0.31169233799212437, 0.27113028357533286, 0.2674878233096158, 0.22326727680724587, 0.21866307130786955, 0.20263244130976862, 0.18223067389565462, 0.17698976523194124, 0.17656596512770958, 0.12334860408179343]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2254,22 +2254,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.133|x2: 0.181|x3: 0.000|x4: 0.437|x5: 0.376|x6: 0.318|x7: 0.480|x8: 0.183|x9: 0.421|x10: 0.128|x11: 0.287|x12: 0.196|x13: 0.058|x14: 0.173|x15: 0.000|x16: 0.176|x17: 0.000</t>
+          <t>x1: 0.139|x2: 0.114|x3: 0.000|x4: 0.440|x5: 0.407|x6: 0.344|x7: 0.520|x8: 0.241|x9: 0.378|x10: 0.084|x11: 0.136|x12: 0.250|x13: 0.000|x14: 0.197|x15: 0.000|x16: 0.172|x17: 0.000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.48]</t>
+          <t>[0.00, 0.20, 0.52]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[7, 4, 9, 5, 6, 11, 12, 8, 2, 16, 14, 1, 10]</t>
+          <t>[7, 4, 5, 9, 6, 12, 8, 14, 16, 1, 11, 2]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.48030102640826977, 0.4369845583087799, 0.4212370516633006, 0.3764901721864419, 0.3176969839497171, 0.2874454775485485, 0.19615869633653382, 0.18320829671163533, 0.18085703973909067, 0.17561288281995033, 0.17321608235306046, 0.13285324536771012, 0.12826675360501688]</t>
+          <t>[0.5203402717618058, 0.43964038394475313, 0.4073717707599151, 0.37822112006118574, 0.344363692158988, 0.2502308286535209, 0.2412593344031186, 0.19688240615447877, 0.17167707266088936, 0.13928661205829881, 0.13566823741198986, 0.11377498314293612]</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -2295,22 +2295,22 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.156|x2: 0.294|x3: 0.073|x4: 0.233|x5: 0.066|x6: 0.335|x7: 0.457|x8: 0.215|x9: 0.356|x10: 0.137|x11: 0.132|x12: 0.260|x13: 0.462|x14: 0.390|x15: 0.366|x16: 0.180|x17: 0.000</t>
+          <t>x1: 0.301|x2: 0.358|x3: 0.073|x4: 0.250|x5: 0.125|x6: 0.313|x7: 0.464|x8: 0.339|x9: 0.380|x10: 0.108|x11: 0.245|x12: 0.454|x13: 0.460|x14: 0.424|x15: 0.395|x16: 0.222|x17: 0.000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.00, 0.24, 0.46]</t>
+          <t>[0.00, 0.29, 0.46]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[13, 7, 14, 15, 9, 6, 2, 12, 4, 8, 16, 1, 10, 11]</t>
+          <t>[7, 13, 12, 14, 15, 9, 2, 8, 6, 1, 4, 11, 16, 5, 10]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.46157219747855843, 0.4565883576915021, 0.3897108687053663, 0.36568869524997266, 0.3561918133061255, 0.33483235370271436, 0.2944598948325946, 0.26035320073699114, 0.2332246415223053, 0.2148933880979953, 0.17957823145061497, 0.15582964597840943, 0.1368515575400188, 0.1323898418441087]</t>
+          <t>[0.46352607214415287, 0.4595426315041493, 0.45426703518758343, 0.42389430808772927, 0.3949297812139876, 0.3800175682736293, 0.3582944042437168, 0.33942347947070456, 0.31321941717258855, 0.3014450510057078, 0.2502926241256532, 0.24532435361219115, 0.22174350644799046, 0.12455860438751694, 0.1082867874367921]</t>
         </is>
       </c>
       <c r="H46" t="b">
@@ -2336,22 +2336,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.161|x2: 0.054|x3: 0.272|x4: 0.346|x5: 0.225|x6: 0.000|x7: 0.000|x8: 0.222|x9: 0.220|x10: 0.170|x11: 0.000|x12: 0.098|x13: 0.226|x14: 0.134|x15: 0.000|x16: 0.241|x17: 0.000</t>
+          <t>x1: 0.160|x2: 0.058|x3: 0.271|x4: 0.348|x5: 0.267|x6: 0.071|x7: 0.052|x8: 0.191|x9: 0.202|x10: 0.110|x11: 0.000|x12: 0.195|x13: 0.200|x14: 0.210|x15: 0.000|x16: 0.226|x17: 0.000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.35]</t>
+          <t>[0.00, 0.15, 0.35]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[4, 3, 16, 13, 5, 8, 9, 10, 1, 14]</t>
+          <t>[4, 3, 5, 16, 14, 9, 13, 12, 8, 1, 10]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[0.34638111109065167, 0.2718210692217663, 0.24102915894499102, 0.2255492903406841, 0.22517204788836961, 0.22150997038949677, 0.21957193508996473, 0.16986324256435933, 0.16062765156246914, 0.1340447310517447]</t>
+          <t>[0.34774516825291457, 0.2713194696415752, 0.26723312185360704, 0.22591577148724093, 0.20999037088770886, 0.20196562580545285, 0.1998703812804966, 0.1945817064252507, 0.1909120357035557, 0.1598452539491743, 0.1103242819486832]</t>
         </is>
       </c>
       <c r="H47" t="b">
@@ -2377,22 +2377,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.055|x2: 0.274|x3: 0.302|x4: 0.125|x5: 0.131|x6: 0.073|x7: 0.000|x8: 0.076|x9: 0.117|x10: 0.144|x11: 0.113|x12: 0.000|x13: 0.000|x14: 0.201|x15: 0.182|x16: 0.249|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.292|x3: 0.368|x4: 0.089|x5: 0.168|x6: 0.125|x7: 0.000|x8: 0.120|x9: 0.189|x10: 0.127|x11: 0.215|x12: 0.176|x13: 0.000|x14: 0.120|x15: 0.187|x16: 0.260|x17: 0.000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.30]</t>
+          <t>[0.00, 0.15, 0.37]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[3, 2, 16, 14, 15, 10, 5, 4, 9, 11]</t>
+          <t>[3, 2, 16, 11, 9, 15, 12, 5, 10, 6, 8, 14]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[0.30215898765384974, 0.2736387615379845, 0.24869663395168917, 0.200636776996345, 0.18178575584559392, 0.14382114842188243, 0.13106047572687457, 0.125295055170704, 0.1172534033580318, 0.11324822379095467]</t>
+          <t>[0.3684901619130521, 0.2918172586859375, 0.25976692360071907, 0.21501417555002195, 0.18850051555199632, 0.18699218980914153, 0.17596253255846106, 0.1677478567507925, 0.12685523959484316, 0.12548835215566514, 0.11991511026734378, 0.11951572598194318]</t>
         </is>
       </c>
       <c r="H48" t="b">
@@ -2418,29 +2418,29 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.000|x3: 0.123|x4: 0.198|x5: 0.220|x6: 0.304|x7: 0.184|x8: 0.106|x9: 0.000|x10: 0.052|x11: 0.000|x12: 0.137|x13: 0.070|x14: 0.000|x15: 0.213|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.140|x2: 0.000|x3: 0.092|x4: 0.332|x5: 0.272|x6: 0.271|x7: 0.232|x8: 0.156|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.139|x13: 0.137|x14: 0.000|x15: 0.162|x16: 0.061|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.30]</t>
+          <t>[0.00, 0.12, 0.33]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[6, 5, 15, 4, 7, 12, 3, 8]</t>
+          <t>[4, 5, 6, 7, 15, 8, 1, 12, 13]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.3038141682523461, 0.2203934348671067, 0.2127293413827333, 0.1982339590972179, 0.18419256966544623, 0.1373184139912278, 0.12285641514017505, 0.10558574554072146]</t>
+          <t>[0.3319226193178683, 0.27203087418162364, 0.27137479849897406, 0.2319354889852037, 0.16212052254175913, 0.15563067514607776, 0.1402500487733331, 0.13880247787092856, 0.1371841189896361]</t>
         </is>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2459,22 +2459,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.441|x3: 0.000|x4: 0.482|x5: 0.232|x6: 0.090|x7: 0.255|x8: 0.065|x9: 0.116|x10: 0.098|x11: 0.171|x12: 0.182|x13: 0.355|x14: 0.297|x15: 0.000|x16: 0.164|x17: 0.000</t>
+          <t>x1: 0.080|x2: 0.316|x3: 0.000|x4: 0.585|x5: 0.274|x6: 0.123|x7: 0.184|x8: 0.070|x9: 0.214|x10: 0.088|x11: 0.292|x12: 0.210|x13: 0.271|x14: 0.352|x15: 0.000|x16: 0.181|x17: 0.000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.48]</t>
+          <t>[0.00, 0.19, 0.59]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[4, 2, 13, 14, 7, 5, 12, 11, 16, 9]</t>
+          <t>[4, 14, 2, 11, 5, 13, 9, 12, 7, 16, 6]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.4817429106601455, 0.44071987295581466, 0.35489291138325885, 0.29650894277606393, 0.2552825996198788, 0.23240621040518472, 0.18230548677925423, 0.17116124866143081, 0.1636200038592534, 0.11624840506450478]</t>
+          <t>[0.585072083799078, 0.3515711082866912, 0.3162797536117322, 0.2924992439136996, 0.27417682098863483, 0.27057499703252247, 0.21436522487919188, 0.2097660970923312, 0.1844978434951575, 0.1809324470988524, 0.12302041622036834]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2500,22 +2500,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.113|x2: 0.169|x3: 0.000|x4: 0.307|x5: 0.256|x6: 0.142|x7: 0.251|x8: 0.156|x9: 0.238|x10: 0.129|x11: 0.000|x12: 0.000|x13: 0.167|x14: 0.301|x15: 0.000|x16: 0.187|x17: 0.000</t>
+          <t>x1: 0.150|x2: 0.195|x3: 0.000|x4: 0.318|x5: 0.259|x6: 0.159|x7: 0.171|x8: 0.186|x9: 0.114|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.111|x14: 0.337|x15: 0.061|x16: 0.160|x17: 0.000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.31]</t>
+          <t>[0.00, 0.14, 0.34]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[4, 14, 5, 7, 9, 16, 2, 13, 8, 6, 10, 1]</t>
+          <t>[14, 4, 5, 2, 8, 7, 16, 6, 1, 9, 13]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.3065126850981404, 0.3007664846131149, 0.25647941492625403, 0.2512958386586317, 0.2382506639344864, 0.18742383515788774, 0.168623533790286, 0.16683721367604332, 0.1563609021274777, 0.1415921688143231, 0.12880522953812945, 0.11338489396555275]</t>
+          <t>[0.33711265807222185, 0.3176044989532137, 0.2591569793079358, 0.1949595966244383, 0.18640143076108925, 0.171063798204691, 0.16007554079677216, 0.15918710575993233, 0.14992937612085272, 0.1139750990840969, 0.11075014903521653]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2541,22 +2541,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.116|x2: 0.000|x3: 0.066|x4: 0.634|x5: 0.267|x6: 0.000|x7: 0.327|x8: 0.160|x9: 0.081|x10: 0.086|x11: 0.000|x12: 0.186|x13: 0.123|x14: 0.000|x15: 0.000|x16: 0.104|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.042|x3: 0.000|x4: 0.475|x5: 0.203|x6: 0.000|x7: 0.147|x8: 0.151|x9: 0.000|x10: 0.000|x11: 0.045|x12: 0.102|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.043|x17: 0.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.63]</t>
+          <t>[0.00, 0.08, 0.47]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[4, 7, 5, 12, 8, 13, 1, 16]</t>
+          <t>[4, 5, 8, 7, 1, 12]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.6336275393126214, 0.3272045872584007, 0.2671026405790192, 0.1855950184305396, 0.160348842649084, 0.12317092153090307, 0.11627674357137441, 0.1035082349707308]</t>
+          <t>[0.4748659036269974, 0.20308772857597115, 0.15128078864473543, 0.14732305180096167, 0.1146659470060235, 0.10155726910685149]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2582,22 +2582,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.161|x3: 0.198|x4: 0.266|x5: 0.381|x6: 0.165|x7: 0.335|x8: 0.059|x9: 0.126|x10: 0.071|x11: 0.000|x12: 0.194|x13: 0.188|x14: 0.000|x15: 0.000|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.084|x2: 0.114|x3: 0.121|x4: 0.403|x5: 0.465|x6: 0.193|x7: 0.314|x8: 0.081|x9: 0.126|x10: 0.055|x11: 0.000|x12: 0.135|x13: 0.196|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.38]</t>
+          <t>[0.00, 0.14, 0.47]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[5, 7, 4, 3, 12, 13, 6, 2, 9, 16]</t>
+          <t>[5, 4, 7, 13, 6, 12, 9, 3, 2, 16]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.3810958922724226, 0.335151040210281, 0.2661919599042752, 0.19833341947047423, 0.19415804031779726, 0.18758216576371797, 0.164726905871056, 0.16064006211699472, 0.12623768502841498, 0.11351786956927971]</t>
+          <t>[0.46505188238526346, 0.40308738751083234, 0.31404191624118416, 0.1961379571135151, 0.1926635647165169, 0.13506854167362367, 0.12634879832090187, 0.12111847296697863, 0.1136767431610561, 0.11325524097347268]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2623,22 +2623,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.086|x2: 0.201|x3: 0.177|x4: 0.345|x5: 0.144|x6: 0.000|x7: 0.269|x8: 0.118|x9: 0.110|x10: 0.122|x11: 0.000|x12: 0.266|x13: 0.178|x14: 0.071|x15: 0.000|x16: 0.190|x17: 0.000</t>
+          <t>x1: 0.166|x2: 0.214|x3: 0.168|x4: 0.404|x5: 0.167|x6: 0.000|x7: 0.345|x8: 0.196|x9: 0.140|x10: 0.086|x11: 0.113|x12: 0.333|x13: 0.173|x14: 0.050|x15: 0.055|x16: 0.176|x17: 0.000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.34]</t>
+          <t>[0.00, 0.16, 0.40]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[4, 7, 12, 2, 16, 13, 3, 5, 10, 8, 9]</t>
+          <t>[4, 7, 12, 2, 8, 16, 13, 3, 5, 1, 9, 11]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.3448611686812703, 0.2688466123182098, 0.26577227086640115, 0.2008916145055883, 0.1902420225144264, 0.17808833936873866, 0.17688559511022112, 0.1443933285661272, 0.12236332263333385, 0.11813602968245032, 0.11001781855609577]</t>
+          <t>[0.40357660470568546, 0.3451503494076079, 0.33288666676044176, 0.2142857592401674, 0.19591407206647263, 0.17599962747671374, 0.17276829968983926, 0.1680223223780293, 0.1671705216535585, 0.16587163779688052, 0.13994562902748212, 0.1127070178380864]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2664,22 +2664,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.123|x2: 0.116|x3: 0.000|x4: 0.456|x5: 0.364|x6: 0.200|x7: 0.368|x8: 0.170|x9: 0.000|x10: 0.090|x11: 0.000|x12: 0.000|x13: 0.295|x14: 0.245|x15: 0.000|x16: 0.106|x17: 0.000</t>
+          <t>x1: 0.177|x2: 0.121|x3: 0.000|x4: 0.435|x5: 0.372|x6: 0.253|x7: 0.375|x8: 0.177|x9: 0.000|x10: 0.072|x11: 0.000|x12: 0.000|x13: 0.233|x14: 0.217|x15: 0.058|x16: 0.148|x17: 0.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.46]</t>
+          <t>[0.00, 0.16, 0.44]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[4, 7, 5, 13, 14, 6, 8, 1, 2, 16]</t>
+          <t>[4, 7, 5, 6, 13, 14, 1, 8, 16, 2]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.4556408607117165, 0.36839718483082334, 0.3643052934987746, 0.29472477761177923, 0.24479165987880985, 0.20000491745915389, 0.16965061482799154, 0.12302191092361506, 0.11578618033143985, 0.10586652638520222]</t>
+          <t>[0.43506430078034614, 0.3751307016325419, 0.37156166779352107, 0.253432135413812, 0.23273643521132317, 0.2172041712549373, 0.17709904840387733, 0.1770451654482588, 0.14821045392916576, 0.12134700681197402]</t>
         </is>
       </c>
       <c r="H55" t="b">
@@ -2705,22 +2705,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.062|x3: 0.076|x4: 0.482|x5: 0.417|x6: 0.110|x7: 0.445|x8: 0.111|x9: 0.160|x10: 0.082|x11: 0.000|x12: 0.246|x13: 0.389|x14: 0.099|x15: 0.000|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.135|x2: 0.088|x3: 0.000|x4: 0.579|x5: 0.454|x6: 0.184|x7: 0.438|x8: 0.103|x9: 0.122|x10: 0.000|x11: 0.051|x12: 0.340|x13: 0.373|x14: 0.157|x15: 0.066|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.48]</t>
+          <t>[0.00, 0.19, 0.58]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[4, 7, 5, 13, 12, 9, 16, 8, 6]</t>
+          <t>[4, 5, 7, 13, 12, 6, 14, 1, 9, 8]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.4818260120213931, 0.4452188883492362, 0.4174970009337431, 0.38872976967689327, 0.24647925382498492, 0.16023702001735785, 0.11383837484876372, 0.11094901398133472, 0.11008318331925063]</t>
+          <t>[0.578970251091343, 0.4536297120826999, 0.4384458637704602, 0.37256896043644144, 0.3399396530031523, 0.1835593751911758, 0.15689535868801832, 0.13522594159662105, 0.12186565082729274, 0.10349122960369014]</t>
         </is>
       </c>
       <c r="H56" t="b">
@@ -2746,22 +2746,22 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.123|x2: 0.151|x3: 0.079|x4: 0.373|x5: 0.180|x6: 0.000|x7: 0.000|x8: 0.169|x9: 0.050|x10: 0.114|x11: 0.068|x12: 0.098|x13: 0.297|x14: 0.097|x15: 0.000|x16: 0.153|x17: 0.000</t>
+          <t>x1: 0.158|x2: 0.157|x3: 0.000|x4: 0.385|x5: 0.166|x6: 0.000|x7: 0.000|x8: 0.156|x9: 0.000|x10: 0.059|x11: 0.102|x12: 0.173|x13: 0.211|x14: 0.077|x15: 0.000|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.37]</t>
+          <t>[0.00, 0.10, 0.38]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[4, 13, 5, 8, 16, 2, 1, 10]</t>
+          <t>[4, 13, 12, 5, 1, 2, 8, 16, 11]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.37277690176579714, 0.2969599288479569, 0.17965423883454906, 0.1692073448521954, 0.1532396256138967, 0.15128482651803835, 0.12270047430793996, 0.11385408401488836]</t>
+          <t>[0.38489154304109924, 0.21060927619590147, 0.1730677080380984, 0.16601633034589605, 0.15822146851478663, 0.15690830690268387, 0.15574131943791109, 0.1203184195232913, 0.10209217214037122]</t>
         </is>
       </c>
       <c r="H57" t="b">
@@ -2787,22 +2787,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.084|x2: 0.141|x3: 0.000|x4: 0.252|x5: 0.342|x6: 0.188|x7: 0.192|x8: 0.116|x9: 0.000|x10: 0.076|x11: 0.133|x12: 0.226|x13: 0.213|x14: 0.140|x15: 0.000|x16: 0.101|x17: 0.000</t>
+          <t>x1: 0.139|x2: 0.205|x3: 0.000|x4: 0.402|x5: 0.398|x6: 0.123|x7: 0.205|x8: 0.120|x9: 0.000|x10: 0.068|x11: 0.307|x12: 0.191|x13: 0.200|x14: 0.190|x15: 0.000|x16: 0.140|x17: 0.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.34]</t>
+          <t>[0.00, 0.16, 0.40]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[5, 4, 12, 13, 7, 6, 2, 14, 11, 8, 16]</t>
+          <t>[4, 5, 11, 2, 7, 13, 12, 14, 16, 1, 6, 8]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.34158205398622105, 0.252057326783474, 0.2259250592234877, 0.2134305558590514, 0.19234406121961597, 0.18763386242184674, 0.14091288840811714, 0.1402225133177967, 0.13335633039541972, 0.11634754820573373, 0.10100165257505013]</t>
+          <t>[0.40187253692176383, 0.3980239726393096, 0.30659625539755325, 0.2051360692582499, 0.20482360645693026, 0.20033547464718326, 0.1911854226183855, 0.18989397819046344, 0.14003131831650042, 0.13894417685136445, 0.12287579990901623, 0.1203373092466172]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2828,22 +2828,22 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.217|x3: 0.053|x4: 0.185|x5: 0.306|x6: 0.150|x7: 0.135|x8: 0.057|x9: 0.289|x10: 0.082|x11: 0.209|x12: 0.422|x13: 0.298|x14: 0.220|x15: 0.184|x16: 0.137|x17: 0.000</t>
+          <t>x1: 0.086|x2: 0.222|x3: 0.116|x4: 0.390|x5: 0.285|x6: 0.148|x7: 0.217|x8: 0.105|x9: 0.286|x10: 0.070|x11: 0.180|x12: 0.320|x13: 0.207|x14: 0.175|x15: 0.102|x16: 0.143|x17: 0.000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.42]</t>
+          <t>[0.00, 0.18, 0.39]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[12, 5, 13, 9, 14, 2, 11, 4, 15, 6, 16, 7]</t>
+          <t>[4, 12, 9, 5, 2, 7, 13, 11, 14, 6, 16, 3, 8, 15]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.4218632253298178, 0.30609292904087465, 0.29766231694558526, 0.28863878382171243, 0.22018743951390624, 0.21653248449670354, 0.20894536182207404, 0.1852955422087766, 0.18412434151199603, 0.15041919459067465, 0.13671336137082102, 0.13518291269449081]</t>
+          <t>[0.38982195097819566, 0.32008712701446773, 0.2859107883653808, 0.2847044282889016, 0.22181039378236703, 0.21709077773433777, 0.20664821561419175, 0.17951902545577836, 0.1749149909905353, 0.14831959697285302, 0.14276210404724018, 0.11575561542797017, 0.1049626136678682, 0.1021230932386886]</t>
         </is>
       </c>
       <c r="H59" t="b">
@@ -2869,22 +2869,22 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.075|x2: 0.096|x3: 0.126|x4: 0.134|x5: 0.120|x6: 0.000|x7: 0.000|x8: 0.103|x9: 0.078|x10: 0.051|x11: 0.000|x12: 0.240|x13: 0.299|x14: 0.293|x15: 0.301|x16: 0.058|x17: 0.000</t>
+          <t>x1: 0.122|x2: 0.090|x3: 0.060|x4: 0.146|x5: 0.130|x6: 0.000|x7: 0.000|x8: 0.116|x9: 0.081|x10: 0.000|x11: 0.067|x12: 0.285|x13: 0.227|x14: 0.252|x15: 0.291|x16: 0.056|x17: 0.000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.30]</t>
+          <t>[0.00, 0.11, 0.29]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[15, 13, 14, 12, 4, 3, 5, 8]</t>
+          <t>[15, 12, 14, 13, 4, 5, 1, 8]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.30108226584200815, 0.2986021191789287, 0.29334127716489883, 0.2402805783684537, 0.1344149177985571, 0.12592256818417313, 0.11993260932926954, 0.1032521439393677]</t>
+          <t>[0.29144844967068617, 0.2848867374670127, 0.2515903162013756, 0.22668792081001457, 0.14621883803566244, 0.13022443392934271, 0.12178073400965764, 0.1157139732936845]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2910,22 +2910,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.256|x3: 0.073|x4: 0.279|x5: 0.507|x6: 0.431|x7: 0.070|x8: 0.000|x9: 0.000|x10: 0.138|x11: 0.212|x12: 0.113|x13: 0.000|x14: 0.382|x15: 0.108|x16: 0.255|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.287|x3: 0.146|x4: 0.423|x5: 0.518|x6: 0.456|x7: 0.161|x8: 0.000|x9: 0.000|x10: 0.134|x11: 0.245|x12: 0.088|x13: 0.000|x14: 0.395|x15: 0.079|x16: 0.274|x17: 0.000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.51]</t>
+          <t>[0.00, 0.19, 0.52]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[5, 6, 14, 4, 2, 16, 11, 10, 12, 15]</t>
+          <t>[5, 6, 4, 14, 2, 16, 11, 7, 3, 10]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.507186288751642, 0.43066414475270215, 0.3816748988628043, 0.27858681865641877, 0.25622461300958627, 0.25497653571635925, 0.21178486325556956, 0.1382835552768081, 0.1126313068073066, 0.107737191059661]</t>
+          <t>[0.5178173141109501, 0.45569183405623787, 0.4233851098002716, 0.3951366368060966, 0.28658815563549034, 0.27371105855611183, 0.2448230550545428, 0.1614676633508533, 0.14633927906062494, 0.1336647538940081]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2951,22 +2951,22 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.093|x3: 0.000|x4: 0.000|x5: 0.181|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.074|x11: 0.000|x12: 0.080|x13: 0.000|x14: 0.190|x15: 0.150|x16: 0.134|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.123|x3: 0.000|x4: 0.078|x5: 0.211|x6: 0.000|x7: 0.000|x8: 0.066|x9: 0.000|x10: 0.093|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.234|x15: 0.176|x16: 0.190|x17: 0.000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.00, 0.05, 0.19]</t>
+          <t>[0.00, 0.07, 0.23]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[14, 5, 15, 16]</t>
+          <t>[14, 5, 16, 15, 2]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.19037633101350265, 0.1806197021056856, 0.14971936251033008, 0.1340658869685934]</t>
+          <t>[0.23423043872544308, 0.21066916008650488, 0.1903753834768397, 0.1757129268988946, 0.12320036214526096]</t>
         </is>
       </c>
       <c r="H62" t="b">
@@ -2992,22 +2992,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.113|x5: 0.280|x6: 0.243|x7: 0.191|x8: 0.066|x9: 0.273|x10: 0.000|x11: 0.449|x12: 0.196|x13: 0.314|x14: 0.100|x15: 0.145|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.081|x2: 0.000|x3: 0.000|x4: 0.141|x5: 0.264|x6: 0.218|x7: 0.290|x8: 0.097|x9: 0.303|x10: 0.000|x11: 0.449|x12: 0.199|x13: 0.227|x14: 0.221|x15: 0.127|x16: 0.054|x17: 0.000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.45]</t>
+          <t>[0.00, 0.16, 0.45]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[11, 13, 5, 9, 6, 12, 7, 15, 4]</t>
+          <t>[11, 9, 7, 5, 13, 14, 6, 12, 4, 15]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.4491521365552992, 0.31419432125431745, 0.2795369171846933, 0.27348378185664446, 0.24258014817285053, 0.1957536599331477, 0.19119735727868742, 0.14513182262223698, 0.1131859428204431]</t>
+          <t>[0.4491006978843297, 0.302781822272635, 0.2895471659388889, 0.26426423828756657, 0.22663215907880505, 0.22130480042559625, 0.21805969464582675, 0.19928834060460146, 0.14066768616795952, 0.1268470924935858]</t>
         </is>
       </c>
       <c r="H63" t="b">
@@ -3033,22 +3033,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.088|x2: 0.000|x3: 0.171|x4: 0.330|x5: 0.275|x6: 0.000|x7: 0.234|x8: 0.121|x9: 0.080|x10: 0.058|x11: 0.000|x12: 0.113|x13: 0.167|x14: 0.075|x15: 0.162|x16: 0.064|x17: 0.000</t>
+          <t>x1: 0.186|x2: 0.000|x3: 0.071|x4: 0.392|x5: 0.327|x6: 0.000|x7: 0.364|x8: 0.223|x9: 0.161|x10: 0.054|x11: 0.000|x12: 0.086|x13: 0.183|x14: 0.137|x15: 0.218|x16: 0.110|x17: 0.000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.33]</t>
+          <t>[0.00, 0.15, 0.39]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 3, 13, 15, 8, 12]</t>
+          <t>[4, 7, 5, 8, 15, 1, 13, 9, 14, 16]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[0.3296594295705046, 0.2749893718988993, 0.23370879906505657, 0.17092042756115586, 0.16691716059678877, 0.16176053095359094, 0.12136798550042033, 0.11319015093633795]</t>
+          <t>[0.3915061312884858, 0.3636797847366113, 0.32666386093951416, 0.22252354375333908, 0.21820860630771416, 0.1855495374307723, 0.18263955001059734, 0.16129064649957459, 0.1372659144574001, 0.11049006841097934]</t>
         </is>
       </c>
       <c r="H64" t="b">
@@ -3074,22 +3074,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.077|x2: 0.000|x3: 0.000|x4: 0.084|x5: 0.380|x6: 0.200|x7: 0.078|x8: 0.106|x9: 0.000|x10: 0.089|x11: 0.071|x12: 0.140|x13: 0.072|x14: 0.149|x15: 0.071|x16: 0.131|x17: 0.000</t>
+          <t>x1: 0.089|x2: 0.000|x3: 0.053|x4: 0.147|x5: 0.469|x6: 0.213|x7: 0.069|x8: 0.111|x9: 0.000|x10: 0.074|x11: 0.107|x12: 0.121|x13: 0.000|x14: 0.269|x15: 0.077|x16: 0.151|x17: 0.000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.38]</t>
+          <t>[0.00, 0.11, 0.47]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[5, 6, 14, 12, 16, 8]</t>
+          <t>[5, 14, 6, 16, 4, 12, 8, 11]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.38011143501827166, 0.2002323474074612, 0.1490686234303923, 0.14036382459302876, 0.13072857937002608, 0.10593843493885056]</t>
+          <t>[0.4692664904844661, 0.2687150290296304, 0.21257417081224367, 0.15119730877676438, 0.1471996585576623, 0.12117648697072735, 0.11098699788213225, 0.1073359627701689]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3115,22 +3115,22 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.086|x2: 0.107|x3: 0.244|x4: 0.341|x5: 0.127|x6: 0.150|x7: 0.285|x8: 0.118|x9: 0.475|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.103|x14: 0.175|x15: 0.130|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.079|x2: 0.000|x3: 0.288|x4: 0.348|x5: 0.113|x6: 0.058|x7: 0.280|x8: 0.142|x9: 0.394|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.091|x14: 0.203|x15: 0.142|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.48]</t>
+          <t>[0.00, 0.13, 0.39]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[9, 4, 7, 3, 14, 6, 15, 5, 8, 2, 13]</t>
+          <t>[9, 4, 3, 7, 14, 15, 8, 5]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.47502122070133024, 0.3409125593699958, 0.2847190763585319, 0.24394954655976953, 0.17502775823183303, 0.1497597237393095, 0.13031513508843856, 0.1267670542362049, 0.11843827831854904, 0.10690541720502596, 0.10277901599557959]</t>
+          <t>[0.39372237569478813, 0.34757687933481846, 0.2883519101993603, 0.27959373778057506, 0.20344596994192127, 0.1424499231247783, 0.141986494794284, 0.11339990085549347]</t>
         </is>
       </c>
       <c r="H66" t="b">
@@ -3156,22 +3156,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.247|x3: 0.137|x4: 0.204|x5: 0.088|x6: 0.088|x7: 0.098|x8: 0.120|x9: 0.180|x10: 0.134|x11: 0.084|x12: 0.105|x13: 0.131|x14: 0.148|x15: 0.000|x16: 0.211|x17: 0.000</t>
+          <t>x1: 0.114|x2: 0.233|x3: 0.124|x4: 0.206|x5: 0.152|x6: 0.063|x7: 0.135|x8: 0.171|x9: 0.194|x10: 0.101|x11: 0.000|x12: 0.105|x13: 0.000|x14: 0.156|x15: 0.086|x16: 0.208|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.25]</t>
+          <t>[0.00, 0.12, 0.23]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[2, 16, 4, 9, 14, 3, 10, 13, 8, 12]</t>
+          <t>[2, 16, 4, 9, 8, 14, 5, 7, 3, 1, 12, 10]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.24728886910678155, 0.21119292619950583, 0.20432220191415906, 0.17961177752210164, 0.147533324450637, 0.13737035249427695, 0.13360352355199884, 0.13095667121454338, 0.12032063767204088, 0.10469569590151404]</t>
+          <t>[0.23349980565637213, 0.20769616897149507, 0.20577463596549803, 0.19415359800780319, 0.17090675199240435, 0.15569857296676273, 0.1520514616190989, 0.13467954047050523, 0.12362963280486917, 0.11390675828156484, 0.10514021475572838, 0.10142687495621211]</t>
         </is>
       </c>
       <c r="H67" t="b">
@@ -3197,22 +3197,22 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.111|x3: 0.000|x4: 0.095|x5: 0.000|x6: 0.216|x7: 0.263|x8: 0.000|x9: 0.183|x10: 0.000|x11: 0.133|x12: 0.099|x13: 0.095|x14: 0.185|x15: 0.250|x16: 0.074|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.150|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.139|x7: 0.178|x8: 0.000|x9: 0.192|x10: 0.000|x11: 0.126|x12: 0.265|x13: 0.122|x14: 0.170|x15: 0.285|x16: 0.075|x17: 0.000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.26]</t>
+          <t>[0.00, 0.10, 0.28]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[7, 15, 6, 14, 9, 11, 2]</t>
+          <t>[15, 12, 9, 7, 14, 2, 6, 11, 13]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.2630544701508909, 0.24978323497295385, 0.21648556103607652, 0.18532885665745283, 0.18323262040791172, 0.1325917840018016, 0.11102325357564176]</t>
+          <t>[0.2845389681327958, 0.2650327169084221, 0.1921579818200435, 0.17786635731930633, 0.17003826375080405, 0.14954591251477856, 0.13869280514392066, 0.12628472300344235, 0.12177575599329182]</t>
         </is>
       </c>
       <c r="H68" t="b">
@@ -3238,22 +3238,22 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.152|x3: 0.000|x4: 0.210|x5: 0.103|x6: 0.225|x7: 0.269|x8: 0.120|x9: 0.129|x10: 0.120|x11: 0.078|x12: 0.326|x13: 0.451|x14: 0.295|x15: 0.165|x16: 0.185|x17: 0.000</t>
+          <t>x1: 0.138|x2: 0.152|x3: 0.000|x4: 0.143|x5: 0.000|x6: 0.292|x7: 0.274|x8: 0.089|x9: 0.103|x10: 0.113|x11: 0.201|x12: 0.494|x13: 0.435|x14: 0.346|x15: 0.233|x16: 0.231|x17: 0.000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.45]</t>
+          <t>[0.00, 0.19, 0.49]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[13, 12, 14, 7, 6, 4, 16, 15, 2, 9, 8, 10, 5]</t>
+          <t>[12, 13, 14, 6, 7, 15, 16, 11, 2, 4, 1, 10, 9]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.45137675770092356, 0.32604233717849024, 0.2953277325475671, 0.26862813182752887, 0.22535537487659194, 0.2104016008273923, 0.18484303963591223, 0.16509194192949775, 0.15222564075161127, 0.1285979350393454, 0.12042872351206482, 0.12005643321964257, 0.10250081897227725]</t>
+          <t>[0.4936948236885655, 0.4346737730234504, 0.3463394882092223, 0.29220867635649317, 0.27386617283662856, 0.23319672463622962, 0.23097205262181966, 0.20064510896664173, 0.15181481482741793, 0.14303049928114595, 0.13789560297948733, 0.11279347912704214, 0.1029543708259003]</t>
         </is>
       </c>
       <c r="H69" t="b">
@@ -3279,22 +3279,22 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.154|x3: 0.000|x4: 0.171|x5: 0.210|x6: 0.389|x7: 0.305|x8: 0.051|x9: 0.225|x10: 0.000|x11: 0.219|x12: 0.196|x13: 0.367|x14: 0.371|x15: 0.304|x16: 0.055|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.124|x3: 0.000|x4: 0.183|x5: 0.246|x6: 0.402|x7: 0.218|x8: 0.000|x9: 0.107|x10: 0.000|x11: 0.256|x12: 0.158|x13: 0.375|x14: 0.348|x15: 0.362|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.39]</t>
+          <t>[0.00, 0.17, 0.40]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[6, 14, 13, 7, 15, 9, 11, 5, 12, 4, 2]</t>
+          <t>[6, 13, 15, 14, 11, 5, 7, 4, 12, 2, 9]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[0.3890039164620576, 0.3706754789461664, 0.3671684533667084, 0.3047381224408091, 0.3035592535451258, 0.2251400722787911, 0.21875607987010995, 0.20981724696094925, 0.19579406436023225, 0.17149629331610594, 0.15422891317220896]</t>
+          <t>[0.40238243388132927, 0.37492440548852246, 0.36156228316479233, 0.3478897652623652, 0.25640398401808345, 0.24642785857910318, 0.2177643253207338, 0.18311537885833687, 0.15765857111166512, 0.12419845919761302, 0.10726143327382243]</t>
         </is>
       </c>
       <c r="H70" t="b">
@@ -3320,22 +3320,22 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.192|x5: 0.264|x6: 0.196|x7: 0.355|x8: 0.066|x9: 0.196|x10: 0.000|x11: 0.177|x12: 0.317|x13: 0.272|x14: 0.230|x15: 0.116|x16: 0.070|x17: 0.000</t>
+          <t>x1: 0.104|x2: 0.092|x3: 0.000|x4: 0.243|x5: 0.235|x6: 0.146|x7: 0.330|x8: 0.104|x9: 0.118|x10: 0.000|x11: 0.217|x12: 0.349|x13: 0.203|x14: 0.200|x15: 0.152|x16: 0.052|x17: 0.000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.36]</t>
+          <t>[0.00, 0.15, 0.35]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[7, 12, 13, 5, 14, 9, 6, 4, 11, 15]</t>
+          <t>[12, 7, 4, 5, 11, 13, 14, 15, 6, 9, 8, 1]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.35526817833178614, 0.3165014322155656, 0.27224574464619966, 0.26447616623062137, 0.2303084321276456, 0.19643999463064257, 0.1963466699709792, 0.192249524639069, 0.1766821889768962, 0.11552553027775693]</t>
+          <t>[0.3491827546576221, 0.32994456129398214, 0.24287444865109445, 0.23501263226698735, 0.21743679042959907, 0.20253765609050003, 0.20006469467616234, 0.15162038334682226, 0.14615632267173137, 0.11787346208721648, 0.10422885584828512, 0.10405991302989218]</t>
         </is>
       </c>
       <c r="H71" t="b">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.066|x2: 0.187|x3: 0.070|x4: 0.253|x5: 0.183|x6: 0.063|x7: 0.051|x8: 0.091|x9: 0.000|x10: 0.089|x11: 0.000|x12: 0.170|x13: 0.222|x14: 0.312|x15: 0.171|x16: 0.137|x17: 0.000</t>
+          <t>x1: 0.113|x2: 0.248|x3: 0.058|x4: 0.246|x5: 0.138|x6: 0.000|x7: 0.097|x8: 0.096|x9: 0.000|x10: 0.098|x11: 0.000|x12: 0.214|x13: 0.235|x14: 0.343|x15: 0.233|x16: 0.200|x17: 0.000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.31]</t>
+          <t>[0.00, 0.14, 0.34]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[14, 4, 13, 2, 5, 15, 12, 16]</t>
+          <t>[14, 2, 4, 13, 15, 12, 16, 5, 1]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.31197170629070575, 0.25342905586614733, 0.22191864000670317, 0.18719934689441978, 0.18271177600805488, 0.17133735081797946, 0.17005971219479482, 0.13663506797746666]</t>
+          <t>[0.34306904522946324, 0.24792937044395716, 0.2458141150890743, 0.2351252942037907, 0.23339105558837525, 0.21367808789407286, 0.20034745924711023, 0.1378109968782179, 0.11278926164276246]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3402,22 +3402,22 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.112|x2: 0.177|x3: 0.133|x4: 0.216|x5: 0.327|x6: 0.194|x7: 0.326|x8: 0.154|x9: 0.150|x10: 0.138|x11: 0.070|x12: 0.220|x13: 0.238|x14: 0.000|x15: 0.109|x16: 0.206|x17: 0.000</t>
+          <t>x1: 0.183|x2: 0.144|x3: 0.128|x4: 0.261|x5: 0.401|x6: 0.166|x7: 0.357|x8: 0.205|x9: 0.140|x10: 0.089|x11: 0.000|x12: 0.211|x13: 0.227|x14: 0.000|x15: 0.164|x16: 0.183|x17: 0.000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.33]</t>
+          <t>[0.00, 0.17, 0.40]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[5, 7, 13, 12, 4, 16, 6, 2, 8, 9, 10, 3, 1, 15]</t>
+          <t>[5, 7, 4, 13, 12, 8, 1, 16, 6, 15, 2, 9, 3]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.32702499880131314, 0.3262398287718086, 0.2375213347229672, 0.2197386847965258, 0.21623023536363764, 0.20556352557326843, 0.19356462255584964, 0.1768755770677202, 0.1541367416305805, 0.14965576388336893, 0.13768735680598446, 0.13258276585960033, 0.11177204702829566, 0.10865710027864117]</t>
+          <t>[0.40085418921523663, 0.3574337361502028, 0.26136386370198744, 0.2274442042404271, 0.2110413948007467, 0.2050484494187126, 0.1831659417305884, 0.18262830930638266, 0.16616469991916233, 0.16413429993634904, 0.14414099969570096, 0.1402894027252854, 0.12763662785852364]</t>
         </is>
       </c>
       <c r="H73" t="b">
@@ -3443,22 +3443,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.144|x3: 0.101|x4: 0.361|x5: 0.261|x6: 0.000|x7: 0.127|x8: 0.137|x9: 0.158|x10: 0.123|x11: 0.000|x12: 0.175|x13: 0.208|x14: 0.193|x15: 0.093|x16: 0.183|x17: 0.000</t>
+          <t>x1: 0.144|x2: 0.255|x3: 0.000|x4: 0.370|x5: 0.182|x6: 0.067|x7: 0.104|x8: 0.191|x9: 0.254|x10: 0.092|x11: 0.000|x12: 0.192|x13: 0.147|x14: 0.141|x15: 0.062|x16: 0.188|x17: 0.000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.36]</t>
+          <t>[0.00, 0.14, 0.37]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[4, 5, 13, 14, 16, 12, 9, 2, 8, 7, 10, 3]</t>
+          <t>[4, 2, 9, 12, 8, 16, 5, 13, 1, 14, 7]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.36114516088140175, 0.26082004384216984, 0.2076642938491682, 0.19275296655205051, 0.18331277273458177, 0.17494155247297005, 0.1580012457837795, 0.14358141609810807, 0.13717969931772742, 0.12734272516891637, 0.1227273597069943, 0.10133350248459377]</t>
+          <t>[0.36990452513427474, 0.2545453344045384, 0.25376327776579355, 0.19197731700230153, 0.19093521486923443, 0.18761430038083482, 0.1817820481004735, 0.14652569656052364, 0.1436324768308061, 0.14137323842036578, 0.10381036367117003]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3484,22 +3484,22 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.109|x2: 0.226|x3: 0.000|x4: 0.106|x5: 0.295|x6: 0.145|x7: 0.058|x8: 0.151|x9: 0.121|x10: 0.109|x11: 0.000|x12: 0.180|x13: 0.000|x14: 0.116|x15: 0.000|x16: 0.152|x17: 0.000</t>
+          <t>x1: 0.102|x2: 0.323|x3: 0.000|x4: 0.153|x5: 0.292|x6: 0.065|x7: 0.069|x8: 0.182|x9: 0.196|x10: 0.076|x11: 0.000|x12: 0.149|x13: 0.000|x14: 0.127|x15: 0.000|x16: 0.155|x17: 0.000</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.29]</t>
+          <t>[0.00, 0.11, 0.32]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[5, 2, 12, 16, 8, 6, 9, 14, 1, 10, 4]</t>
+          <t>[2, 5, 9, 8, 16, 4, 12, 14, 1]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.2949743885599509, 0.22648833555491166, 0.1798984125585996, 0.15192286351195725, 0.1509725591877032, 0.1450678073508493, 0.12059192434666112, 0.11584493934363457, 0.10947754446472764, 0.10941062493724858, 0.10582118684989232]</t>
+          <t>[0.32283493264418334, 0.29217079890888675, 0.19627888072642552, 0.18153191716399886, 0.15530953174515397, 0.15313266979130594, 0.14871996375812932, 0.12681211342240395, 0.10156834590660621]</t>
         </is>
       </c>
       <c r="H75" t="b">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.184|x3: 0.135|x4: 0.112|x5: 0.252|x6: 0.125|x7: 0.271|x8: 0.092|x9: 0.060|x10: 0.141|x11: 0.140|x12: 0.298|x13: 0.439|x14: 0.217|x15: 0.000|x16: 0.237|x17: 0.000</t>
+          <t>x1: 0.109|x2: 0.221|x3: 0.089|x4: 0.000|x5: 0.239|x6: 0.117|x7: 0.248|x8: 0.088|x9: 0.153|x10: 0.094|x11: 0.067|x12: 0.409|x13: 0.315|x14: 0.210|x15: 0.000|x16: 0.192|x17: 0.000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.44]</t>
+          <t>[0.00, 0.15, 0.41]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[13, 12, 7, 5, 16, 14, 2, 10, 11, 3, 6, 4]</t>
+          <t>[12, 13, 7, 5, 2, 14, 16, 9, 6, 1]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.438628924642113, 0.29756170820554717, 0.2709884582858156, 0.25241238203432564, 0.23720244513441638, 0.21706831738074323, 0.18419067536427583, 0.14109329348926689, 0.14011377231299635, 0.1345974879491422, 0.12489481698930492, 0.11243446827560431]</t>
+          <t>[0.4091952989243658, 0.31547001702357846, 0.2481982872920898, 0.2393012989316801, 0.22055531659583016, 0.20975571121022174, 0.19184223837855888, 0.15251827138330462, 0.11729251735542438, 0.10927323984450037]</t>
         </is>
       </c>
       <c r="H76" t="b">
@@ -3566,22 +3566,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.126|x2: 0.000|x3: 0.150|x4: 0.132|x5: 0.219|x6: 0.000|x7: 0.000|x8: 0.174|x9: 0.000|x10: 0.086|x11: 0.000|x12: 0.114|x13: 0.094|x14: 0.056|x15: 0.070|x16: 0.097|x17: 0.000</t>
+          <t>x1: 0.156|x2: 0.000|x3: 0.146|x4: 0.160|x5: 0.308|x6: 0.000|x7: 0.000|x8: 0.178|x9: 0.000|x10: 0.000|x11: 0.063|x12: 0.165|x13: 0.086|x14: 0.056|x15: 0.077|x16: 0.080|x17: 0.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.22]</t>
+          <t>[0.00, 0.09, 0.31]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[5, 8, 3, 4, 1, 12]</t>
+          <t>[5, 8, 12, 4, 1, 3]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.2193493728226247, 0.1735588083451009, 0.1504988863624216, 0.1321096065170861, 0.12585593209837798, 0.11360274454287764]</t>
+          <t>[0.3079373875338788, 0.17775625928224426, 0.16544752131604684, 0.16010350971750004, 0.15590726618645498, 0.1463642171850932]</t>
         </is>
       </c>
       <c r="H77" t="b">
@@ -3607,29 +3607,29 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.060|x2: 0.055|x3: 0.000|x4: 0.170|x5: 0.245|x6: 0.281|x7: 0.215|x8: 0.083|x9: 0.383|x10: 0.108|x11: 0.203|x12: 0.292|x13: 0.260|x14: 0.390|x15: 0.314|x16: 0.176|x17: 0.000</t>
+          <t>x1: 0.134|x2: 0.000|x3: 0.093|x4: 0.255|x5: 0.314|x6: 0.246|x7: 0.309|x8: 0.172|x9: 0.369|x10: 0.093|x11: 0.113|x12: 0.363|x13: 0.247|x14: 0.342|x15: 0.324|x16: 0.191|x17: 0.000</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.39]</t>
+          <t>[0.00, 0.21, 0.37]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[14, 9, 15, 12, 6, 13, 5, 7, 11, 16, 4, 10]</t>
+          <t>[9, 12, 14, 15, 5, 7, 4, 13, 6, 16, 8, 1, 11]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[0.39009940459859604, 0.3826446725776705, 0.3140274999840102, 0.2915517884889396, 0.2814044385290212, 0.26012729404735435, 0.24458822624168425, 0.21531167254636782, 0.20251475429521984, 0.17593205503044593, 0.17033847952632747, 0.107737794464697]</t>
+          <t>[0.36945821572089793, 0.3630133737808053, 0.34158365972432614, 0.32363131593330424, 0.31375262152934963, 0.3085678679633142, 0.25456241324856826, 0.24711086470020685, 0.24584246001352925, 0.19051600964386678, 0.17179276989631037, 0.13436790399395868, 0.11304672478258944]</t>
         </is>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3648,22 +3648,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.101|x2: 0.222|x3: 0.000|x4: 0.100|x5: 0.000|x6: 0.256|x7: 0.315|x8: 0.139|x9: 0.186|x10: 0.067|x11: 0.144|x12: 0.247|x13: 0.208|x14: 0.101|x15: 0.000|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.170|x2: 0.249|x3: 0.000|x4: 0.127|x5: 0.056|x6: 0.274|x7: 0.425|x8: 0.198|x9: 0.253|x10: 0.000|x11: 0.235|x12: 0.367|x13: 0.257|x14: 0.121|x15: 0.000|x16: 0.095|x17: 0.000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.32]</t>
+          <t>[0.00, 0.17, 0.42]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[7, 6, 12, 2, 13, 9, 11, 8, 14, 1]</t>
+          <t>[7, 12, 6, 13, 9, 2, 11, 8, 1, 4, 14]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.315241910576343, 0.25595021264997847, 0.24706876662062766, 0.2223186321113393, 0.20762321729756414, 0.18639723449741247, 0.14352369166138418, 0.13913722248288388, 0.10136172973937556, 0.10089516626746901]</t>
+          <t>[0.424812182714101, 0.36651502579973794, 0.2736236189151385, 0.2571753041611875, 0.253430729643871, 0.24949975003168445, 0.2346554640669032, 0.19788216789904897, 0.1699360489559117, 0.12697066229787468, 0.1206159041995517]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3689,22 +3689,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.189|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.386|x7: 0.444|x8: 0.117|x9: 0.437|x10: 0.049|x11: 0.326|x12: 0.000|x13: 0.309|x14: 0.052|x15: 0.167|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.131|x2: 0.155|x3: 0.000|x4: 0.088|x5: 0.000|x6: 0.360|x7: 0.480|x8: 0.140|x9: 0.390|x10: 0.000|x11: 0.327|x12: 0.129|x13: 0.371|x14: 0.000|x15: 0.170|x16: 0.069|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.44]</t>
+          <t>[0.00, 0.17, 0.48]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[7, 9, 6, 11, 13, 2, 15, 8]</t>
+          <t>[7, 9, 13, 6, 11, 15, 2, 8, 1, 12]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.44416773482529986, 0.4365675451260242, 0.3856864226662196, 0.3255449345759706, 0.3085533342581161, 0.18898860881789828, 0.16692100836928103, 0.11706840070478514]</t>
+          <t>[0.4802693861506525, 0.390380877641221, 0.3711707600469272, 0.35980005359418693, 0.32710601735305544, 0.17028421243031192, 0.15514897465647748, 0.14012599342301066, 0.1311902570822818, 0.12886568977890325]</t>
         </is>
       </c>
       <c r="H80" t="b">
@@ -3730,22 +3730,22 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.165|x3: 0.000|x4: 0.160|x5: 0.124|x6: 0.203|x7: 0.286|x8: 0.000|x9: 0.259|x10: 0.055|x11: 0.283|x12: 0.495|x13: 0.398|x14: 0.253|x15: 0.213|x16: 0.091|x17: 0.000</t>
+          <t>x1: 0.060|x2: 0.171|x3: 0.000|x4: 0.181|x5: 0.100|x6: 0.180|x7: 0.253|x8: 0.051|x9: 0.329|x10: 0.050|x11: 0.262|x12: 0.562|x13: 0.318|x14: 0.238|x15: 0.178|x16: 0.102|x17: 0.000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.49]</t>
+          <t>[0.00, 0.18, 0.56]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[12, 13, 7, 11, 9, 14, 15, 6, 2, 4, 5]</t>
+          <t>[12, 9, 13, 11, 7, 14, 4, 6, 15, 2, 16, 5]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.4947502169752407, 0.39797528605896054, 0.2862684027311161, 0.28327907655214307, 0.259252654215938, 0.2534059755708022, 0.21313080381282123, 0.20305698725084084, 0.1653208062462864, 0.15950430249528555, 0.12411463400003064]</t>
+          <t>[0.562002821713349, 0.3290909407349751, 0.3180752344051188, 0.2618102984067496, 0.2528720778938254, 0.2383621948329007, 0.18056544584130266, 0.1798668941796329, 0.17781738920734338, 0.17069973541842381, 0.10203717509174962, 0.10037243752872668]</t>
         </is>
       </c>
       <c r="H81" t="b">
@@ -3771,22 +3771,22 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.175|x4: 0.315|x5: 0.166|x6: 0.246|x7: 0.372|x8: 0.000|x9: 0.270|x10: 0.090|x11: 0.361|x12: 0.297|x13: 0.270|x14: 0.179|x15: 0.230|x16: 0.164|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.000|x3: 0.154|x4: 0.294|x5: 0.160|x6: 0.254|x7: 0.350|x8: 0.070|x9: 0.158|x10: 0.074|x11: 0.399|x12: 0.310|x13: 0.127|x14: 0.161|x15: 0.229|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.37]</t>
+          <t>[0.00, 0.17, 0.40]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[7, 11, 4, 12, 13, 9, 6, 15, 14, 3, 5, 16]</t>
+          <t>[11, 7, 12, 4, 6, 15, 14, 5, 9, 3, 16, 13]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.3723093809048664, 0.36118895477495805, 0.31532031514693853, 0.2969571394792453, 0.2703368452674481, 0.26973190113946915, 0.24613288684165996, 0.22957424288472075, 0.17863089812169555, 0.17468599834717313, 0.16621712462805904, 0.16375025017604203]</t>
+          <t>[0.39880043320285496, 0.3502159631854996, 0.31020718689315385, 0.29432320798447587, 0.25442162984674527, 0.22910740887945952, 0.16059368007799246, 0.1603683599821819, 0.15763740862224232, 0.1537449531565247, 0.15227724076335028, 0.12740250625937383]</t>
         </is>
       </c>
       <c r="H82" t="b">
@@ -3812,22 +3812,22 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.051|x2: 0.245|x3: 0.203|x4: 0.091|x5: 0.271|x6: 0.123|x7: 0.109|x8: 0.071|x9: 0.108|x10: 0.119|x11: 0.121|x12: 0.205|x13: 0.329|x14: 0.395|x15: 0.151|x16: 0.203|x17: 0.000</t>
+          <t>x1: 0.168|x2: 0.297|x3: 0.249|x4: 0.084|x5: 0.208|x6: 0.193|x7: 0.267|x8: 0.191|x9: 0.173|x10: 0.102|x11: 0.204|x12: 0.281|x13: 0.223|x14: 0.398|x15: 0.177|x16: 0.210|x17: 0.000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.40]</t>
+          <t>[0.00, 0.20, 0.40]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[14, 13, 5, 2, 12, 16, 3, 15, 6, 11, 10, 7, 9]</t>
+          <t>[14, 2, 12, 7, 3, 13, 16, 5, 11, 6, 8, 15, 9, 1, 10]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[0.3950750230704068, 0.32919218657649585, 0.2706395435800742, 0.2451171171878317, 0.20501154387022236, 0.20314353511735814, 0.20279919805527286, 0.1509954008098773, 0.12318957285670326, 0.12129602892487443, 0.11923027584882398, 0.10888502971086289, 0.10787981055533256]</t>
+          <t>[0.3982811142672414, 0.2974910781671193, 0.28126978568028616, 0.26664205486351666, 0.2487164842535962, 0.22315295359159384, 0.2095932099518231, 0.2079684972586637, 0.20385097576967035, 0.1932612794884888, 0.19125226081297036, 0.17725568600476868, 0.17251779518092616, 0.16799834163893418, 0.10235328076933495]</t>
         </is>
       </c>
       <c r="H83" t="b">
@@ -3853,26 +3853,26 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.149|x3: 0.136|x4: 0.289|x5: 0.092|x6: 0.098|x7: 0.128|x8: 0.100|x9: 0.258|x10: 0.108|x11: 0.150|x12: 0.092|x13: 0.261|x14: 0.366|x15: 0.112|x16: 0.170|x17: 0.000</t>
+          <t>x1: 0.098|x2: 0.170|x3: 0.000|x4: 0.283|x5: 0.075|x6: 0.000|x7: 0.059|x8: 0.124|x9: 0.253|x10: 0.064|x11: 0.194|x12: 0.213|x13: 0.175|x14: 0.344|x15: 0.156|x16: 0.131|x17: 0.000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.37]</t>
+          <t>[0.00, 0.14, 0.34]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[14, 4, 13, 9, 16, 11, 2, 3, 7, 15, 10, 8]</t>
+          <t>[14, 4, 9, 12, 11, 13, 2, 15, 16, 8]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.3656895482601285, 0.28873521572518557, 0.261271231591967, 0.2580227343407108, 0.1696432555258181, 0.14975310880678336, 0.14907845241189743, 0.1359384707186995, 0.12816611940692713, 0.11176879048210608, 0.10808874516303613, 0.10037845853512799]</t>
+          <t>[0.3438674495414746, 0.2830451488317866, 0.25291026593751237, 0.21258790571763578, 0.19442139275945697, 0.1747734556188927, 0.16985965248204388, 0.15638740990882444, 0.13098823719955546, 0.12408158136541568]</t>
         </is>
       </c>
       <c r="H84" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="b">
         <v>1</v>
@@ -3894,29 +3894,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.000|x3: 0.092|x4: 0.241|x5: 0.293|x6: 0.218|x7: 0.339|x8: 0.081|x9: 0.238|x10: 0.112|x11: 0.086|x12: 0.223|x13: 0.000|x14: 0.000|x15: 0.072|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.160|x4: 0.192|x5: 0.353|x6: 0.096|x7: 0.216|x8: 0.094|x9: 0.119|x10: 0.078|x11: 0.057|x12: 0.280|x13: 0.000|x14: 0.133|x15: 0.124|x16: 0.159|x17: 0.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.34]</t>
+          <t>[0.00, 0.12, 0.35]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[7, 5, 4, 9, 12, 6, 16, 10]</t>
+          <t>[5, 12, 7, 4, 3, 16, 14, 15, 9]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.3388782589233226, 0.2926577653427226, 0.24071784469211366, 0.2381131075019146, 0.22334610027373678, 0.21753868169572213, 0.18411973292226277, 0.11150169307690164]</t>
+          <t>[0.3530924437419267, 0.2802552289958369, 0.21632932460174556, 0.1917879546193082, 0.1597173642316863, 0.15886495936115144, 0.13263407874190855, 0.12414454605068442, 0.11853947215737036]</t>
         </is>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.102|x2: 0.000|x3: 0.128|x4: 0.277|x5: 0.253|x6: 0.000|x7: 0.237|x8: 0.141|x9: 0.162|x10: 0.125|x11: 0.138|x12: 0.105|x13: 0.267|x14: 0.130|x15: 0.000|x16: 0.186|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.067|x3: 0.103|x4: 0.280|x5: 0.239|x6: 0.000|x7: 0.283|x8: 0.130|x9: 0.130|x10: 0.077|x11: 0.127|x12: 0.056|x13: 0.216|x14: 0.135|x15: 0.065|x16: 0.159|x17: 0.000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3945,19 +3945,19 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[4, 13, 5, 7, 16, 9, 8, 11, 14, 3, 10, 12, 1]</t>
+          <t>[7, 4, 5, 13, 16, 14, 8, 9, 11, 1, 3]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.277111466021689, 0.2669748884215652, 0.2528157242292047, 0.23669445384768345, 0.18588086045712918, 0.16199428582433312, 0.1406761452221416, 0.13828286221292985, 0.13043318256882022, 0.12771129804027406, 0.1247718421867405, 0.10517818014713874, 0.10201111398353975]</t>
+          <t>[0.2834772451766838, 0.2802780695944387, 0.2386759248095563, 0.21612752548505917, 0.1586905491081992, 0.13472231795336395, 0.1298644979074388, 0.1297980757611492, 0.12749418374137286, 0.12481235578397591, 0.10339030078889853]</t>
         </is>
       </c>
       <c r="H86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -3976,29 +3976,29 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.064|x2: 0.051|x3: 0.000|x4: 0.000|x5: 0.149|x6: 0.204|x7: 0.207|x8: 0.088|x9: 0.270|x10: 0.103|x11: 0.308|x12: 0.140|x13: 0.103|x14: 0.198|x15: 0.132|x16: 0.165|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.160|x6: 0.127|x7: 0.176|x8: 0.075|x9: 0.282|x10: 0.078|x11: 0.264|x12: 0.188|x13: 0.124|x14: 0.193|x15: 0.158|x16: 0.160|x17: 0.000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.31]</t>
+          <t>[0.00, 0.12, 0.28]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[11, 9, 7, 6, 14, 16, 5, 12, 15, 10, 13]</t>
+          <t>[9, 11, 14, 12, 7, 5, 16, 15, 6, 13]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.3081376098170843, 0.2701072958681774, 0.20659856976829855, 0.20389267158759178, 0.19849210492488245, 0.16492605851014244, 0.14945309608194196, 0.1401778554688354, 0.13174340201837703, 0.10313178043311066, 0.10309272522173857]</t>
+          <t>[0.28221793249963795, 0.2639931440317768, 0.1931499802206547, 0.1877680754316101, 0.17567413634356774, 0.16032704454928853, 0.16017815440294197, 0.15771540716583762, 0.12666224195749845, 0.1242151525086655]</t>
         </is>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4017,29 +4017,29 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.125|x2: 0.240|x3: 0.000|x4: 0.245|x5: 0.215|x6: 0.232|x7: 0.282|x8: 0.173|x9: 0.216|x10: 0.101|x11: 0.359|x12: 0.394|x13: 0.233|x14: 0.247|x15: 0.161|x16: 0.127|x17: 0.000</t>
+          <t>x1: 0.166|x2: 0.194|x3: 0.000|x4: 0.316|x5: 0.255|x6: 0.174|x7: 0.329|x8: 0.181|x9: 0.148|x10: 0.077|x11: 0.407|x12: 0.439|x13: 0.237|x14: 0.258|x15: 0.267|x16: 0.157|x17: 0.000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.39]</t>
+          <t>[0.00, 0.21, 0.44]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[12, 11, 7, 14, 4, 2, 13, 6, 9, 5, 8, 15, 16, 1, 10]</t>
+          <t>[12, 11, 7, 4, 15, 14, 5, 13, 2, 8, 6, 1, 16, 9]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[0.39372168451759787, 0.3589993906583739, 0.28205102231932894, 0.2465426290370988, 0.24510193167930158, 0.2395611867522861, 0.2333207465430876, 0.23184665133147453, 0.21561117599130444, 0.2154542265678507, 0.1725786744951272, 0.16072165981854702, 0.12673258675803248, 0.12514518937983884, 0.10089990372514658]</t>
+          <t>[0.43899600304038866, 0.4073199284654383, 0.3288613674355777, 0.3160486378740622, 0.26713314464509974, 0.2576215630749833, 0.2550281230529509, 0.2369039789630587, 0.19446601075393938, 0.1813208759915305, 0.17422523565754755, 0.16595170027327874, 0.15719023338499138, 0.14768168629142156]</t>
         </is>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -4058,29 +4058,29 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.145|x3: 0.139|x4: 0.204|x5: 0.181|x6: 0.197|x7: 0.000|x8: 0.163|x9: 0.093|x10: 0.125|x11: 0.105|x12: 0.261|x13: 0.291|x14: 0.268|x15: 0.177|x16: 0.178|x17: 0.000</t>
+          <t>x1: 0.135|x2: 0.000|x3: 0.000|x4: 0.257|x5: 0.199|x6: 0.324|x7: 0.065|x8: 0.162|x9: 0.183|x10: 0.063|x11: 0.076|x12: 0.374|x13: 0.170|x14: 0.225|x15: 0.131|x16: 0.129|x17: 0.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.29]</t>
+          <t>[0.00, 0.15, 0.37]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[13, 14, 12, 4, 6, 5, 16, 15, 8, 2, 3, 10, 1, 11]</t>
+          <t>[12, 6, 4, 14, 5, 9, 13, 8, 1, 15, 16]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.29097635229815305, 0.26825490155113124, 0.26119373596884843, 0.20398388335000436, 0.19689832988923248, 0.18053777324725487, 0.17798063447873871, 0.17716474205314617, 0.16279306871653423, 0.14457098534812882, 0.13860752724041575, 0.12527046245176407, 0.11804917075563137, 0.10460117065222994]</t>
+          <t>[0.3740147237033689, 0.32389688356282337, 0.2568416918324916, 0.22517189215406164, 0.19927038664612942, 0.18312115464037776, 0.17046690197793712, 0.1624593916308967, 0.13476391273067326, 0.13069957053422437, 0.1291112940177614]</t>
         </is>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -4099,22 +4099,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.117|x2: 0.112|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.148|x7: 0.404|x8: 0.161|x9: 0.251|x10: 0.112|x11: 0.205|x12: 0.242|x13: 0.339|x14: 0.164|x15: 0.156|x16: 0.154|x17: 0.000</t>
+          <t>x1: 0.215|x2: 0.205|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.231|x7: 0.459|x8: 0.224|x9: 0.164|x10: 0.061|x11: 0.254|x12: 0.271|x13: 0.333|x14: 0.048|x15: 0.139|x16: 0.125|x17: 0.000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.40]</t>
+          <t>[0.00, 0.16, 0.46]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[7, 13, 9, 12, 11, 14, 8, 15, 16, 6, 1, 10, 2]</t>
+          <t>[7, 13, 12, 11, 6, 8, 1, 2, 9, 15, 16]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.4044747031712287, 0.3390211865196525, 0.2506256959032332, 0.2422948665900264, 0.20512200976514447, 0.1636145926075977, 0.1611256435304884, 0.15638664156991716, 0.1536348399808349, 0.14806788737568316, 0.11684003966631874, 0.11238878845948397, 0.11235148209805015]</t>
+          <t>[0.459164842386319, 0.3334081409268137, 0.2710745840359669, 0.2543552400088449, 0.2312204093621876, 0.22378745614310494, 0.21477239485567898, 0.20455119353970158, 0.16379933478458322, 0.13943819764507503, 0.12466296412300115]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4140,22 +4140,22 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.174|x4: 0.212|x5: 0.000|x6: 0.185|x7: 0.314|x8: 0.000|x9: 0.126|x10: 0.082|x11: 0.440|x12: 0.179|x13: 0.292|x14: 0.080|x15: 0.113|x16: 0.142|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.147|x4: 0.158|x5: 0.000|x6: 0.179|x7: 0.267|x8: 0.000|x9: 0.166|x10: 0.000|x11: 0.456|x12: 0.234|x13: 0.173|x14: 0.049|x15: 0.152|x16: 0.091|x17: 0.000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.44]</t>
+          <t>[0.00, 0.12, 0.46]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[11, 7, 13, 4, 6, 12, 3, 16, 9, 15]</t>
+          <t>[11, 7, 12, 6, 13, 9, 4, 15, 3]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.43973061350313747, 0.31379295740647517, 0.2921952658708744, 0.21247429161479758, 0.18485052198028135, 0.17853414979574384, 0.17365545043365996, 0.1415471347178054, 0.12616104540402215, 0.11269304340027272]</t>
+          <t>[0.456282901296476, 0.26650701058934423, 0.23421763577760027, 0.17860638143605137, 0.17271473660274267, 0.16600807134724685, 0.15834361894845816, 0.15155296828906042, 0.14735182874140856]</t>
         </is>
       </c>
       <c r="H91" t="b">
@@ -4181,22 +4181,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.151|x2: 0.128|x3: 0.000|x4: 0.276|x5: 0.172|x6: 0.196|x7: 0.273|x8: 0.208|x9: 0.128|x10: 0.156|x11: 0.143|x12: 0.200|x13: 0.093|x14: 0.000|x15: 0.066|x16: 0.219|x17: 0.000</t>
+          <t>x1: 0.178|x2: 0.113|x3: 0.050|x4: 0.325|x5: 0.273|x6: 0.138|x7: 0.243|x8: 0.237|x9: 0.126|x10: 0.087|x11: 0.142|x12: 0.229|x13: 0.063|x14: 0.000|x15: 0.000|x16: 0.179|x17: 0.000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.28]</t>
+          <t>[0.00, 0.14, 0.33]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[4, 7, 16, 8, 12, 6, 5, 10, 1, 11, 2, 9]</t>
+          <t>[4, 5, 7, 8, 12, 16, 1, 11, 6, 9, 2]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.2764714730929501, 0.272685754789257, 0.2194190466549056, 0.20806350244721886, 0.20003492712761092, 0.19614913312787258, 0.1717518277040861, 0.15595806730561676, 0.150876963755594, 0.14261706306420696, 0.12811566777696606, 0.12767975374631524]</t>
+          <t>[0.32537074594704346, 0.27273764895647074, 0.2434402297076144, 0.23681636133944192, 0.22882957598439846, 0.17865731204952345, 0.17809292685906178, 0.14249278902936938, 0.1377846379243883, 0.12574957388249278, 0.11277712315009414]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4222,22 +4222,22 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.130|x2: 0.373|x3: 0.000|x4: 0.150|x5: 0.110|x6: 0.368|x7: 0.478|x8: 0.179|x9: 0.483|x10: 0.117|x11: 0.330|x12: 0.148|x13: 0.207|x14: 0.086|x15: 0.051|x16: 0.155|x17: 0.000</t>
+          <t>x1: 0.153|x2: 0.394|x3: 0.000|x4: 0.283|x5: 0.146|x6: 0.289|x7: 0.552|x8: 0.173|x9: 0.366|x10: 0.070|x11: 0.338|x12: 0.197|x13: 0.336|x14: 0.000|x15: 0.104|x16: 0.143|x17: 0.000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.48]</t>
+          <t>[0.00, 0.21, 0.55]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[9, 7, 2, 6, 11, 13, 8, 16, 4, 12, 1, 10, 5]</t>
+          <t>[7, 2, 9, 11, 13, 6, 4, 12, 8, 1, 5, 16, 15]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.4830401482532427, 0.47824249219514753, 0.37342077754711045, 0.3679395299781119, 0.3302307527109429, 0.2071466111999134, 0.17874125303155422, 0.15455830620115923, 0.14991540581314583, 0.1476615829765861, 0.12961397476288491, 0.11650185594734941, 0.10993084206476787]</t>
+          <t>[0.5519074703008406, 0.3942407198630107, 0.36613422884761115, 0.3375382680451017, 0.3361193748539327, 0.289317499769884, 0.28265117595066813, 0.19698835463308642, 0.1730628837240002, 0.15258885919447107, 0.14632129215710307, 0.1427778451576717, 0.1041308620580543]</t>
         </is>
       </c>
       <c r="H93" t="b">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.132|x3: 0.328|x4: 0.078|x5: 0.223|x6: 0.246|x7: 0.000|x8: 0.071|x9: 0.000|x10: 0.157|x11: 0.310|x12: 0.000|x13: 0.233|x14: 0.155|x15: 0.245|x16: 0.277|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.149|x3: 0.267|x4: 0.148|x5: 0.175|x6: 0.243|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.134|x11: 0.393|x12: 0.000|x13: 0.169|x14: 0.153|x15: 0.195|x16: 0.274|x17: 0.000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.33]</t>
+          <t>[0.00, 0.14, 0.39]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[3, 11, 16, 6, 15, 13, 5, 10, 14, 2]</t>
+          <t>[11, 16, 3, 6, 15, 5, 13, 14, 2, 4, 10]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.3282956758422698, 0.31024256636429615, 0.27688673320466956, 0.24566389743175102, 0.24517552999901912, 0.23275732960164894, 0.22275219361749046, 0.15727119904993028, 0.15493537033013413, 0.13198101294655062]</t>
+          <t>[0.3928996541951096, 0.2744628125729947, 0.2666511776755668, 0.24269161396833955, 0.19516838131227535, 0.17481008153601116, 0.16857044058733336, 0.15264318433723825, 0.149388556316644, 0.14838496645192498, 0.13403186736098138]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4304,22 +4304,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.164|x4: 0.180|x5: 0.284|x6: 0.161|x7: 0.122|x8: 0.000|x9: 0.251|x10: 0.119|x11: 0.333|x12: 0.242|x13: 0.260|x14: 0.342|x15: 0.278|x16: 0.233|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.053|x3: 0.267|x4: 0.274|x5: 0.301|x6: 0.181|x7: 0.055|x8: 0.063|x9: 0.274|x10: 0.098|x11: 0.388|x12: 0.300|x13: 0.086|x14: 0.353|x15: 0.209|x16: 0.201|x17: 0.000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.34]</t>
+          <t>[0.00, 0.18, 0.39]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[14, 11, 5, 15, 13, 9, 12, 16, 4, 3, 6, 7, 10]</t>
+          <t>[11, 14, 5, 12, 9, 4, 3, 15, 16, 6]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.34206410924357306, 0.3327774925730429, 0.28358568243133775, 0.27773237827875424, 0.2598082181595289, 0.2509880701167725, 0.24214937529334138, 0.2329063734329694, 0.17984798263092178, 0.16403460854363483, 0.1605465744757945, 0.12233581531439734, 0.11903053764858511]</t>
+          <t>[0.38779907603103675, 0.3531570452827311, 0.301483177607127, 0.2997940543371602, 0.27435234580319123, 0.27369824206460075, 0.2668017065186255, 0.20936917466674432, 0.20088357661070336, 0.18051049049159204]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4345,22 +4345,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.083|x2: 0.255|x3: 0.000|x4: 0.228|x5: 0.175|x6: 0.208|x7: 0.181|x8: 0.115|x9: 0.218|x10: 0.121|x11: 0.205|x12: 0.143|x13: 0.054|x14: 0.225|x15: 0.000|x16: 0.189|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.275|x3: 0.086|x4: 0.199|x5: 0.203|x6: 0.144|x7: 0.230|x8: 0.131|x9: 0.191|x10: 0.084|x11: 0.199|x12: 0.172|x13: 0.112|x14: 0.294|x15: 0.060|x16: 0.171|x17: 0.000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.25]</t>
+          <t>[0.00, 0.16, 0.29]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[2, 4, 14, 9, 6, 11, 16, 7, 5, 12, 10, 8]</t>
+          <t>[14, 2, 7, 5, 4, 11, 9, 12, 16, 6, 8, 13]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.2545383500958861, 0.22793428433968183, 0.22519298446210437, 0.21805168425235483, 0.2081337521058205, 0.20468033035067001, 0.18942499582727845, 0.18098470395874702, 0.17517957730996375, 0.1433713440223884, 0.12130174487468054, 0.11503262398836137]</t>
+          <t>[0.29370459400753696, 0.2747907302045767, 0.22994275935508043, 0.20295461036185714, 0.19874912269330092, 0.19866164302671432, 0.19096916876303824, 0.1721364342976772, 0.17137949039806016, 0.14361032511739025, 0.13148590712956248, 0.1119369522765417]</t>
         </is>
       </c>
       <c r="H96" t="b">
@@ -4386,29 +4386,29 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.326|x3: 0.000|x4: 0.116|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.071|x9: 0.106|x10: 0.061|x11: 0.064|x12: 0.063|x13: 0.088|x14: 0.212|x15: 0.202|x16: 0.090|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.194|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.068|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.055|x11: 0.142|x12: 0.000|x13: 0.064|x14: 0.206|x15: 0.191|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.33]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[2, 14, 15, 4, 9]</t>
+          <t>[14, 2, 15, 11, 16]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.3262904924688024, 0.21187589012335936, 0.20179418509645022, 0.11622380406495987, 0.10614118758352646]</t>
+          <t>[0.20607903188882767, 0.19392035030021582, 0.19117070675555428, 0.14161643813130528, 0.11323278061454468]</t>
         </is>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -4427,22 +4427,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.170|x2: 0.170|x3: 0.191|x4: 0.321|x5: 0.241|x6: 0.238|x7: 0.446|x8: 0.235|x9: 0.307|x10: 0.133|x11: 0.131|x12: 0.273|x13: 0.305|x14: 0.000|x15: 0.117|x16: 0.164|x17: 0.000</t>
+          <t>x1: 0.233|x2: 0.193|x3: 0.155|x4: 0.343|x5: 0.233|x6: 0.266|x7: 0.451|x8: 0.269|x9: 0.213|x10: 0.070|x11: 0.261|x12: 0.309|x13: 0.281|x14: 0.067|x15: 0.083|x16: 0.144|x17: 0.000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.45]</t>
+          <t>[0.00, 0.21, 0.45]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[7, 4, 9, 13, 12, 5, 6, 8, 3, 1, 2, 16, 10, 11, 15]</t>
+          <t>[7, 4, 12, 13, 8, 6, 11, 1, 5, 9, 2, 3, 16]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.44642617499534293, 0.3214732538875961, 0.30654660635242975, 0.30519907753571945, 0.27326382155419504, 0.24060277889095635, 0.2384880338897661, 0.23489912060968235, 0.1905463097586367, 0.17033677550169343, 0.16975466984099274, 0.1637236324592629, 0.13281796450810052, 0.1313541430771568, 0.11655903849317861]</t>
+          <t>[0.45138011352108687, 0.34348972170729986, 0.30906809461538814, 0.280693208203609, 0.26894098629219904, 0.26630772777969475, 0.2608539868177893, 0.23349359793061528, 0.23261232555761632, 0.21281952393045714, 0.19258586047374673, 0.15503256093735793, 0.14401152639468645]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4468,22 +4468,22 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.062|x2: 0.206|x3: 0.105|x4: 0.084|x5: 0.275|x6: 0.312|x7: 0.131|x8: 0.085|x9: 0.061|x10: 0.092|x11: 0.173|x12: 0.292|x13: 0.235|x14: 0.320|x15: 0.248|x16: 0.145|x17: 0.000</t>
+          <t>x1: 0.156|x2: 0.307|x3: 0.132|x4: 0.097|x5: 0.287|x6: 0.351|x7: 0.107|x8: 0.163|x9: 0.094|x10: 0.000|x11: 0.202|x12: 0.299|x13: 0.224|x14: 0.315|x15: 0.251|x16: 0.080|x17: 0.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.32]</t>
+          <t>[0.00, 0.18, 0.35]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[14, 6, 12, 5, 15, 13, 2, 11, 16, 7, 3]</t>
+          <t>[6, 14, 2, 12, 5, 15, 13, 11, 8, 1, 3, 7]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.31953545052944304, 0.31216343820906334, 0.292063554727029, 0.2749105867556514, 0.24803952998176168, 0.23465590726280008, 0.20635398992823964, 0.17257549149009813, 0.14534952884754127, 0.13053871384227936, 0.10453377159275531]</t>
+          <t>[0.3507126477728007, 0.3146827375180001, 0.30727710863819235, 0.2993402520352446, 0.28712478316942497, 0.2507567783800517, 0.22437465125067418, 0.2020442285894793, 0.16322238537545347, 0.15610521921334705, 0.13176066558294453, 0.10728301078431007]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4509,22 +4509,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.089|x2: 0.000|x3: 0.205|x4: 0.000|x5: 0.241|x6: 0.106|x7: 0.000|x8: 0.122|x9: 0.068|x10: 0.072|x11: 0.159|x12: 0.163|x13: 0.311|x14: 0.360|x15: 0.195|x16: 0.090|x17: 0.000</t>
+          <t>x1: 0.151|x2: 0.074|x3: 0.203|x4: 0.146|x5: 0.289|x6: 0.148|x7: 0.157|x8: 0.147|x9: 0.124|x10: 0.000|x11: 0.200|x12: 0.176|x13: 0.282|x14: 0.415|x15: 0.172|x16: 0.090|x17: 0.000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.36]</t>
+          <t>[0.00, 0.16, 0.42]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[14, 13, 5, 3, 15, 12, 11, 8, 6]</t>
+          <t>[14, 5, 13, 3, 11, 12, 15, 7, 1, 6, 8, 4, 9]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.36014152970474056, 0.3112648134484417, 0.24056521254488464, 0.20549388678053127, 0.19533854601795766, 0.16331535600735214, 0.15928148037687553, 0.12210214793130567, 0.10630259565578472]</t>
+          <t>[0.4154830120718299, 0.28868482575187915, 0.2815484398665056, 0.20286238435394766, 0.19953256113832474, 0.17580935640581236, 0.17193918148981627, 0.15707529705732495, 0.15084056799058496, 0.14835540679427517, 0.14676372284278325, 0.14639687899248044, 0.12367133528638284]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4550,22 +4550,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.118|x3: 0.133|x4: 0.233|x5: 0.062|x6: 0.075|x7: 0.157|x8: 0.081|x9: 0.413|x10: 0.109|x11: 0.209|x12: 0.378|x13: 0.206|x14: 0.000|x15: 0.158|x16: 0.178|x17: 0.000</t>
+          <t>x1: 0.109|x2: 0.147|x3: 0.086|x4: 0.248|x5: 0.000|x6: 0.190|x7: 0.219|x8: 0.175|x9: 0.409|x10: 0.067|x11: 0.291|x12: 0.503|x13: 0.126|x14: 0.000|x15: 0.080|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.41]</t>
+          <t>[0.00, 0.16, 0.50]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[9, 12, 4, 11, 13, 16, 15, 7, 3, 2, 10]</t>
+          <t>[12, 9, 11, 4, 7, 6, 8, 2, 16, 13, 1]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.4134196678715728, 0.37773655218388413, 0.23346479522411298, 0.20942140149384944, 0.20590909224595524, 0.17833715559312707, 0.15812883604129221, 0.1565786068852888, 0.1327731097143066, 0.11794547124717332, 0.10865805988110001]</t>
+          <t>[0.5029681985342825, 0.4093878699121688, 0.2913554418904217, 0.24764922694627603, 0.21949865212085454, 0.19035773907742207, 0.17482491674769604, 0.1466863104274851, 0.1368333671309388, 0.12564104624350952, 0.10895628125856495]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.135|x3: 0.156|x4: 0.105|x5: 0.080|x6: 0.137|x7: 0.378|x8: 0.137|x9: 0.376|x10: 0.084|x11: 0.250|x12: 0.162|x13: 0.235|x14: 0.244|x15: 0.126|x16: 0.109|x17: 0.000</t>
+          <t>x1: 0.181|x2: 0.171|x3: 0.157|x4: 0.136|x5: 0.095|x6: 0.104|x7: 0.385|x8: 0.229|x9: 0.314|x10: 0.051|x11: 0.331|x12: 0.284|x13: 0.231|x14: 0.272|x15: 0.137|x16: 0.104|x17: 0.000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.38]</t>
+          <t>[0.00, 0.19, 0.39]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[7, 9, 11, 14, 13, 12, 3, 8, 6, 2, 15, 16, 4]</t>
+          <t>[7, 11, 9, 12, 14, 13, 8, 1, 2, 3, 15, 4, 6, 16]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.377980827498767, 0.3762391940130675, 0.25041934301555774, 0.2442876501122866, 0.2349185704150391, 0.16154508921332408, 0.1562978825406501, 0.13706333180791314, 0.1366570784618654, 0.13516106925054186, 0.1260144652645661, 0.10875563329138797, 0.10461835821233444]</t>
+          <t>[0.38517966732610553, 0.3307924975475738, 0.3136899618265226, 0.28403419874590613, 0.272004007043903, 0.2306943542564668, 0.22873654084561168, 0.18136946085595884, 0.17088445107151004, 0.15694032890458282, 0.13694389264397092, 0.13574512467049166, 0.10418711295678569, 0.10409901459366257]</t>
         </is>
       </c>
       <c r="H102" t="b">
@@ -4632,22 +4632,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.136|x2: 0.167|x3: 0.000|x4: 0.230|x5: 0.216|x6: 0.336|x7: 0.177|x8: 0.187|x9: 0.140|x10: 0.105|x11: 0.304|x12: 0.344|x13: 0.327|x14: 0.185|x15: 0.109|x16: 0.130|x17: 0.000</t>
+          <t>x1: 0.157|x2: 0.166|x3: 0.000|x4: 0.341|x5: 0.191|x6: 0.441|x7: 0.295|x8: 0.139|x9: 0.135|x10: 0.050|x11: 0.339|x12: 0.445|x13: 0.351|x14: 0.256|x15: 0.070|x16: 0.103|x17: 0.000</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.34]</t>
+          <t>[0.00, 0.20, 0.44]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[12, 6, 13, 11, 4, 5, 8, 14, 7, 2, 9, 1, 16, 15, 10]</t>
+          <t>[12, 6, 13, 4, 11, 7, 14, 5, 2, 1, 8, 9, 16]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.34374114184449606, 0.33626868299195756, 0.3272549784875737, 0.30428465799964366, 0.22972059198374353, 0.21578493405029703, 0.1868909325721921, 0.18530385206654312, 0.17659161614690785, 0.1666370312290784, 0.14029839499558242, 0.1355237037168347, 0.1297565260221334, 0.10909755490587361, 0.1054125317031069]</t>
+          <t>[0.44490250435713363, 0.44137724355509345, 0.3511591856039939, 0.3408871453634009, 0.33881973678704635, 0.29500166113217063, 0.2555071005836101, 0.19114778252452677, 0.16562910492952596, 0.15686342830415986, 0.13921477212697678, 0.1354390516207424, 0.10307598356822961]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4673,22 +4673,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.052|x2: 0.168|x3: 0.000|x4: 0.174|x5: 0.167|x6: 0.224|x7: 0.309|x8: 0.071|x9: 0.160|x10: 0.096|x11: 0.199|x12: 0.224|x13: 0.277|x14: 0.392|x15: 0.081|x16: 0.158|x17: 0.000</t>
+          <t>x1: 0.113|x2: 0.183|x3: 0.000|x4: 0.206|x5: 0.234|x6: 0.210|x7: 0.313|x8: 0.111|x9: 0.195|x10: 0.076|x11: 0.308|x12: 0.252|x13: 0.274|x14: 0.496|x15: 0.151|x16: 0.156|x17: 0.000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.39]</t>
+          <t>[0.00, 0.19, 0.50]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[14, 7, 13, 6, 12, 11, 4, 2, 5, 9, 16]</t>
+          <t>[14, 7, 11, 13, 12, 5, 6, 4, 9, 2, 16, 15, 1, 8]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.39179867886252145, 0.30898263362569045, 0.2769993371792661, 0.22439148091289302, 0.22397963119044156, 0.19940209284797628, 0.17356390327343424, 0.1679819912665207, 0.1672067792126913, 0.15964812671451392, 0.157628884601168]</t>
+          <t>[0.4960539976901367, 0.3128717394634475, 0.30800091285232095, 0.2737240103420907, 0.2518374515970723, 0.23360919547739661, 0.20950995483041993, 0.20582429169702576, 0.1949042848847925, 0.18261166323014952, 0.15610955886679637, 0.15100027396993093, 0.11330973627100237, 0.1106159216586325]</t>
         </is>
       </c>
       <c r="H104" t="b">
@@ -4714,22 +4714,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.100|x3: 0.000|x4: 0.000|x5: 0.119|x6: 0.051|x7: 0.000|x8: 0.058|x9: 0.000|x10: 0.071|x11: 0.177|x12: 0.178|x13: 0.351|x14: 0.518|x15: 0.352|x16: 0.115|x17: 0.000</t>
+          <t>x1: 0.106|x2: 0.085|x3: 0.000|x4: 0.000|x5: 0.131|x6: 0.000|x7: 0.000|x8: 0.068|x9: 0.000|x10: 0.079|x11: 0.227|x12: 0.281|x13: 0.259|x14: 0.528|x15: 0.448|x16: 0.162|x17: 0.000</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.52]</t>
+          <t>[0.00, 0.14, 0.53]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[14, 15, 13, 12, 11, 5, 16, 2]</t>
+          <t>[14, 15, 12, 13, 11, 16, 5, 1]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.5182629779863562, 0.35166844732043107, 0.35106722350676617, 0.17829264054381497, 0.1766354640628107, 0.11949234777184399, 0.11536497115223607, 0.10038145501450543]</t>
+          <t>[0.5276311876485591, 0.44752463206396886, 0.28071073792732515, 0.25875937735746174, 0.22722747718750555, 0.16205289587884725, 0.13057632523583673, 0.10628498883627291]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4755,22 +4755,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.079|x3: 0.000|x4: 0.202|x5: 0.218|x6: 0.098|x7: 0.222|x8: 0.000|x9: 0.124|x10: 0.108|x11: 0.131|x12: 0.000|x13: 0.285|x14: 0.397|x15: 0.166|x16: 0.205|x17: 0.000</t>
+          <t>x1: 0.051|x2: 0.000|x3: 0.058|x4: 0.172|x5: 0.291|x6: 0.121|x7: 0.211|x8: 0.000|x9: 0.109|x10: 0.093|x11: 0.212|x12: 0.156|x13: 0.232|x14: 0.452|x15: 0.264|x16: 0.191|x17: 0.000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.40]</t>
+          <t>[0.00, 0.15, 0.45]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[14, 13, 7, 5, 16, 4, 15, 11, 9, 10]</t>
+          <t>[14, 5, 15, 13, 11, 7, 16, 4, 12, 6, 9]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.39697483345079365, 0.28458766675190783, 0.22237284781819208, 0.2175513778982917, 0.20522595243162317, 0.2024886342722648, 0.16625946647885326, 0.13116446370248003, 0.12436830104010005, 0.10791980793763262]</t>
+          <t>[0.4524883014637859, 0.29113739257613447, 0.26436199599997395, 0.2322934804676898, 0.2124953321712607, 0.21109350737588686, 0.1913859674924611, 0.17160013293831908, 0.15563881843599553, 0.12131061388496975, 0.10910760493600376]</t>
         </is>
       </c>
       <c r="H106" t="b">
@@ -4796,22 +4796,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.137|x3: 0.182|x4: 0.137|x5: 0.195|x6: 0.000|x7: 0.140|x8: 0.065|x9: 0.150|x10: 0.119|x11: 0.000|x12: 0.133|x13: 0.221|x14: 0.397|x15: 0.157|x16: 0.205|x17: 0.000</t>
+          <t>x1: 0.130|x2: 0.207|x3: 0.203|x4: 0.054|x5: 0.261|x6: 0.056|x7: 0.109|x8: 0.158|x9: 0.185|x10: 0.081|x11: 0.154|x12: 0.321|x13: 0.166|x14: 0.383|x15: 0.243|x16: 0.167|x17: 0.000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.40]</t>
+          <t>[0.00, 0.17, 0.38]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[14, 13, 16, 5, 3, 15, 9, 7, 4, 2, 12, 10]</t>
+          <t>[14, 12, 5, 15, 2, 3, 9, 16, 13, 8, 11, 1, 7]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.3969594322139904, 0.22097134000102564, 0.20458696496965217, 0.19542074823100808, 0.1818193859063278, 0.15660705377212114, 0.1497683021953605, 0.14005794430712934, 0.13743341166246145, 0.13691305244815916, 0.13334469599954138, 0.11884016791413503]</t>
+          <t>[0.3829250735250261, 0.3205007557134183, 0.2605803580195757, 0.24324990861603157, 0.20651572317701292, 0.202938161589803, 0.18479094577193036, 0.166740966932565, 0.16644728644471105, 0.15779847842688138, 0.15434479375993293, 0.13024349470605776, 0.10856928592121659]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4837,22 +4837,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.124|x3: 0.111|x4: 0.000|x5: 0.000|x6: 0.273|x7: 0.361|x8: 0.092|x9: 0.492|x10: 0.080|x11: 0.328|x12: 0.187|x13: 0.270|x14: 0.205|x15: 0.282|x16: 0.118|x17: 0.000</t>
+          <t>x1: 0.156|x2: 0.116|x3: 0.061|x4: 0.000|x5: 0.000|x6: 0.267|x7: 0.336|x8: 0.201|x9: 0.425|x10: 0.000|x11: 0.389|x12: 0.205|x13: 0.277|x14: 0.205|x15: 0.291|x16: 0.098|x17: 0.000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.49]</t>
+          <t>[0.00, 0.18, 0.42]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[9, 7, 11, 15, 6, 13, 14, 12, 2, 16, 3]</t>
+          <t>[9, 11, 7, 15, 13, 6, 12, 14, 8, 1, 2]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.4920878726361695, 0.36123952035901624, 0.32841942387365813, 0.2815014258841634, 0.27286175071016855, 0.26988975664565, 0.20549873218654596, 0.18697267675129783, 0.12443637723011963, 0.1175528232844012, 0.11088398618366963]</t>
+          <t>[0.4245632062634277, 0.38905531853579267, 0.3360295877650219, 0.2914695999399798, 0.2771248642720239, 0.26687956489130515, 0.20546202186133838, 0.20462046295332653, 0.20093454038111458, 0.15580186967442794, 0.11643926178448306]</t>
         </is>
       </c>
       <c r="H108" t="b">
@@ -4878,22 +4878,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.050|x2: 0.260|x3: 0.000|x4: 0.124|x5: 0.140|x6: 0.000|x7: 0.123|x8: 0.069|x9: 0.163|x10: 0.099|x11: 0.169|x12: 0.272|x13: 0.417|x14: 0.387|x15: 0.311|x16: 0.165|x17: 0.000</t>
+          <t>x1: 0.141|x2: 0.257|x3: 0.000|x4: 0.178|x5: 0.183|x6: 0.000|x7: 0.181|x8: 0.129|x9: 0.178|x10: 0.060|x11: 0.153|x12: 0.281|x13: 0.335|x14: 0.444|x15: 0.369|x16: 0.124|x17: 0.000</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.42]</t>
+          <t>[0.00, 0.18, 0.44]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[13, 14, 15, 12, 2, 11, 16, 9, 5, 4, 7]</t>
+          <t>[14, 15, 13, 12, 2, 5, 7, 4, 9, 11, 1, 8, 16]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.4169357976444374, 0.38664765865915107, 0.31108772334629753, 0.2721031061403179, 0.26016348889910096, 0.16908396761032893, 0.16526562391104124, 0.16268234978254875, 0.139830262708493, 0.12390277034681027, 0.12251586968143306]</t>
+          <t>[0.44425261915685593, 0.3688201709440384, 0.33488435866881616, 0.2808700619657514, 0.2569706223913272, 0.18319418613123425, 0.1811974118580157, 0.17804475411529036, 0.1779878592442747, 0.15300658817655494, 0.14074144752590184, 0.12873741265037092, 0.1236684052785825]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4919,22 +4919,22 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.083|x2: 0.200|x3: 0.000|x4: 0.212|x5: 0.091|x6: 0.178|x7: 0.177|x8: 0.114|x9: 0.194|x10: 0.082|x11: 0.129|x12: 0.183|x13: 0.343|x14: 0.309|x15: 0.143|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.128|x2: 0.205|x3: 0.000|x4: 0.155|x5: 0.105|x6: 0.241|x7: 0.067|x8: 0.120|x9: 0.187|x10: 0.050|x11: 0.142|x12: 0.303|x13: 0.309|x14: 0.387|x15: 0.216|x16: 0.103|x17: 0.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.34]</t>
+          <t>[0.00, 0.16, 0.39]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[13, 14, 4, 2, 9, 12, 6, 7, 15, 11, 8, 16]</t>
+          <t>[14, 13, 12, 6, 15, 2, 9, 4, 11, 1, 8, 5, 16]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.3425546691774213, 0.30854779725726733, 0.21168481240368917, 0.19971567038811144, 0.19407674942917236, 0.18347506383283357, 0.1781891297859582, 0.17689220126351937, 0.14329496746665196, 0.12909811671076662, 0.11400229249501866, 0.11264740321160023]</t>
+          <t>[0.38660013795270776, 0.30888427880032693, 0.30255629555156194, 0.24124057849442349, 0.21581869843431026, 0.20538633056747208, 0.18707028731483571, 0.15471525877520018, 0.1419663159188481, 0.12792740430701047, 0.11981831554702382, 0.10549847091794505, 0.1026915004404613]</t>
         </is>
       </c>
       <c r="H110" t="b">
@@ -4960,22 +4960,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.092|x2: 0.097|x3: 0.149|x4: 0.212|x5: 0.142|x6: 0.151|x7: 0.133|x8: 0.127|x9: 0.171|x10: 0.074|x11: 0.186|x12: 0.252|x13: 0.245|x14: 0.179|x15: 0.185|x16: 0.092|x17: 0.000</t>
+          <t>x1: 0.162|x2: 0.121|x3: 0.090|x4: 0.223|x5: 0.164|x6: 0.072|x7: 0.126|x8: 0.180|x9: 0.159|x10: 0.000|x11: 0.223|x12: 0.300|x13: 0.230|x14: 0.150|x15: 0.194|x16: 0.087|x17: 0.000</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.25]</t>
+          <t>[0.00, 0.15, 0.30]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[12, 13, 4, 11, 15, 14, 9, 6, 3, 5, 7, 8]</t>
+          <t>[12, 13, 4, 11, 15, 8, 5, 1, 9, 14, 7, 2]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.2518729362968818, 0.24524067570890604, 0.21173821135719645, 0.18569758129527716, 0.18450645923890707, 0.17881227524456955, 0.1709111407245183, 0.15095635426999343, 0.1488325509092208, 0.14215896197919428, 0.13340041363836697, 0.12712577737388486]</t>
+          <t>[0.29981721653440574, 0.23016410347742117, 0.22313564033288183, 0.22278748532610823, 0.1941670299542286, 0.1802697910633496, 0.1642803121528124, 0.16249293275173857, 0.15933967577181424, 0.15033793424465686, 0.12589701209643792, 0.12083337630142718]</t>
         </is>
       </c>
       <c r="H111" t="b">
@@ -5001,22 +5001,22 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.231|x3: 0.000|x4: 0.167|x5: 0.144|x6: 0.102|x7: 0.093|x8: 0.120|x9: 0.143|x10: 0.083|x11: 0.172|x12: 0.280|x13: 0.476|x14: 0.359|x15: 0.344|x16: 0.114|x17: 0.000</t>
+          <t>x1: 0.119|x2: 0.223|x3: 0.000|x4: 0.102|x5: 0.000|x6: 0.000|x7: 0.087|x8: 0.081|x9: 0.164|x10: 0.060|x11: 0.149|x12: 0.377|x13: 0.405|x14: 0.356|x15: 0.424|x16: 0.123|x17: 0.000</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.48]</t>
+          <t>[0.00, 0.16, 0.42]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[13, 14, 15, 12, 2, 11, 4, 5, 9, 8, 16, 6]</t>
+          <t>[15, 13, 12, 14, 2, 9, 11, 16, 1, 4]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.4760068359188109, 0.35920883699318656, 0.3443073053813328, 0.27976180673200474, 0.23082560791043832, 0.1722867687821803, 0.16719412043929707, 0.14433172787920917, 0.14319551859107935, 0.12034657599904486, 0.11370632008256162, 0.10242425719509235]</t>
+          <t>[0.42436754752540096, 0.40491824940914906, 0.3766002256982239, 0.35595287810148457, 0.22284512628989542, 0.1643436610310859, 0.14906466210953065, 0.12336178722679025, 0.11913783995189411, 0.10197646001179661]</t>
         </is>
       </c>
       <c r="H112" t="b">
@@ -5042,22 +5042,22 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.081|x2: 0.088|x3: 0.000|x4: 0.248|x5: 0.125|x6: 0.225|x7: 0.253|x8: 0.112|x9: 0.237|x10: 0.074|x11: 0.127|x12: 0.083|x13: 0.219|x14: 0.227|x15: 0.171|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.136|x2: 0.107|x3: 0.071|x4: 0.317|x5: 0.164|x6: 0.280|x7: 0.281|x8: 0.160|x9: 0.213|x10: 0.000|x11: 0.167|x12: 0.147|x13: 0.205|x14: 0.250|x15: 0.148|x16: 0.089|x17: 0.000</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.25]</t>
+          <t>[0.00, 0.16, 0.32]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[7, 4, 9, 14, 6, 13, 15, 11, 5, 8]</t>
+          <t>[4, 7, 6, 14, 9, 13, 11, 5, 8, 15, 12, 1, 2]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.253470806635598, 0.24752092246776297, 0.2368002263767707, 0.22703877366164862, 0.2248610043612683, 0.21879130434020533, 0.1706002412341182, 0.12712146094057292, 0.1254773151452676, 0.1120161381128343]</t>
+          <t>[0.3174909974807208, 0.2808860995708429, 0.2801610697473139, 0.2501834424323805, 0.21306905517062505, 0.2049470245763742, 0.16685393094015646, 0.1638690137997065, 0.15969612007788717, 0.1484034799711533, 0.1469093974621559, 0.13563969170872595, 0.10697872001702922]</t>
         </is>
       </c>
       <c r="H113" t="b">
@@ -5083,22 +5083,22 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.070|x3: 0.000|x4: 0.155|x5: 0.141|x6: 0.198|x7: 0.203|x8: 0.105|x9: 0.182|x10: 0.058|x11: 0.173|x12: 0.161|x13: 0.060|x14: 0.094|x15: 0.060|x16: 0.071|x17: 0.000</t>
+          <t>x1: 0.071|x2: 0.074|x3: 0.000|x4: 0.225|x5: 0.132|x6: 0.228|x7: 0.202|x8: 0.087|x9: 0.121|x10: 0.000|x11: 0.223|x12: 0.078|x13: 0.100|x14: 0.095|x15: 0.063|x16: 0.085|x17: 0.000</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.20]</t>
+          <t>[0.00, 0.10, 0.23]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[7, 6, 9, 11, 12, 4, 5, 8]</t>
+          <t>[6, 4, 11, 7, 5, 9, 13]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.20266629694109833, 0.1978466819299071, 0.1818012899055294, 0.17332701664225766, 0.16096606543239986, 0.155095259350919, 0.14062127476697153, 0.10547395641346984]</t>
+          <t>[0.22832838279223072, 0.22450535491869145, 0.22295374513191277, 0.20170522108073857, 0.13209464720786931, 0.12075813333067544, 0.10008658769671598]</t>
         </is>
       </c>
       <c r="H114" t="b">
@@ -5124,22 +5124,22 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.106|x2: 0.000|x3: 0.142|x4: 0.122|x5: 0.166|x6: 0.167|x7: 0.234|x8: 0.147|x9: 0.192|x10: 0.000|x11: 0.077|x12: 0.085|x13: 0.062|x14: 0.177|x15: 0.226|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.143|x2: 0.053|x3: 0.122|x4: 0.143|x5: 0.169|x6: 0.149|x7: 0.261|x8: 0.197|x9: 0.177|x10: 0.000|x11: 0.150|x12: 0.092|x13: 0.069|x14: 0.201|x15: 0.214|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.23]</t>
+          <t>[0.00, 0.13, 0.26]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[7, 15, 9, 14, 6, 5, 8, 3, 4, 1]</t>
+          <t>[7, 15, 14, 8, 9, 5, 11, 6, 4, 1, 3]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.23391218367473743, 0.22634361068413017, 0.19233466084342984, 0.1770550717159432, 0.167351797535954, 0.16584344599485257, 0.14681832931788688, 0.14245182083543592, 0.12207114869913753, 0.10646511036586553]</t>
+          <t>[0.2614385595295732, 0.21356208045152617, 0.20066318388034782, 0.19689368915534922, 0.17672924225163406, 0.16942158807383265, 0.15019444604217067, 0.14881345690416617, 0.14332205027466552, 0.1425786117156277, 0.12219980576216503]</t>
         </is>
       </c>
       <c r="H115" t="b">
@@ -5165,22 +5165,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.103|x3: 0.079|x4: 0.154|x5: 0.231|x6: 0.076|x7: 0.117|x8: 0.000|x9: 0.158|x10: 0.103|x11: 0.113|x12: 0.159|x13: 0.200|x14: 0.287|x15: 0.283|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.109|x3: 0.000|x4: 0.167|x5: 0.196|x6: 0.120|x7: 0.142|x8: 0.064|x9: 0.213|x10: 0.117|x11: 0.153|x12: 0.209|x13: 0.101|x14: 0.248|x15: 0.290|x16: 0.239|x17: 0.000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.29]</t>
+          <t>[0.00, 0.14, 0.29]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[14, 15, 5, 13, 16, 12, 9, 4, 7, 11, 2, 10]</t>
+          <t>[15, 14, 16, 9, 12, 5, 4, 11, 7, 6, 10, 2, 13]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.28695484468553095, 0.2827951470728806, 0.23078926576091546, 0.2000672137494413, 0.1842119137794503, 0.15873493128086935, 0.15826935149465776, 0.15381496673284945, 0.11707974670250546, 0.11309353267271012, 0.10303653501571546, 0.10282995114813973]</t>
+          <t>[0.29018370022548373, 0.2477631848073853, 0.23919471875551643, 0.21343247089516237, 0.20884841830815015, 0.19590236367538263, 0.16726108014212338, 0.15346895569662183, 0.14179502280943104, 0.12034742966716942, 0.11680895680233618, 0.10894458706385936, 0.10141561786562689]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5206,22 +5206,22 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.202|x3: 0.054|x4: 0.075|x5: 0.000|x6: 0.227|x7: 0.151|x8: 0.137|x9: 0.245|x10: 0.103|x11: 0.245|x12: 0.298|x13: 0.414|x14: 0.356|x15: 0.286|x16: 0.144|x17: 0.000</t>
+          <t>x1: 0.141|x2: 0.199|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.236|x7: 0.161|x8: 0.126|x9: 0.239|x10: 0.068|x11: 0.323|x12: 0.449|x13: 0.384|x14: 0.429|x15: 0.342|x16: 0.138|x17: 0.000</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.41]</t>
+          <t>[0.00, 0.20, 0.45]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[13, 14, 12, 15, 9, 11, 6, 2, 7, 16, 8, 10]</t>
+          <t>[12, 14, 13, 15, 11, 9, 6, 2, 7, 1, 16, 8, 4]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.4143159071947155, 0.3555437234881459, 0.2982559953642037, 0.2855362065355987, 0.24523997837608036, 0.2447359193733386, 0.22670920076651485, 0.20183192921556128, 0.15056546598350384, 0.14439077368743777, 0.1368819987833992, 0.10262221238913845]</t>
+          <t>[0.449318978331845, 0.4291060500028683, 0.38375774374441035, 0.3423702127245816, 0.3226014757183252, 0.23934516296723707, 0.23645358547323939, 0.19865021079394599, 0.16106958835257507, 0.14084004461852245, 0.13837613522955733, 0.126252375291199, 0.101411463815305]</t>
         </is>
       </c>
       <c r="H117" t="b">
@@ -5247,22 +5247,22 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.082|x2: 0.000|x3: 0.110|x4: 0.000|x5: 0.090|x6: 0.000|x7: 0.000|x8: 0.113|x9: 0.083|x10: 0.075|x11: 0.166|x12: 0.000|x13: 0.244|x14: 0.392|x15: 0.142|x16: 0.100|x17: 0.000</t>
+          <t>x1: 0.088|x2: 0.080|x3: 0.102|x4: 0.000|x5: 0.117|x6: 0.000|x7: 0.000|x8: 0.074|x9: 0.080|x10: 0.066|x11: 0.209|x12: 0.000|x13: 0.218|x14: 0.493|x15: 0.216|x16: 0.134|x17: 0.000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.39]</t>
+          <t>[0.00, 0.11, 0.49]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[14, 13, 11, 15, 8, 3, 16]</t>
+          <t>[14, 13, 15, 11, 16, 5, 3]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.3924473364040172, 0.24359655519443274, 0.1656762374716744, 0.14201382260863143, 0.1125639812189473, 0.11044716550627043, 0.10040199473155458]</t>
+          <t>[0.4927998657810325, 0.21848999792329088, 0.2160718648462515, 0.20915232418789012, 0.13440161267915338, 0.11708046082702366, 0.10158945059062896]</t>
         </is>
       </c>
       <c r="H118" t="b">
@@ -5288,22 +5288,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.124|x3: 0.102|x4: 0.244|x5: 0.443|x6: 0.361|x7: 0.212|x8: 0.137|x9: 0.191|x10: 0.162|x11: 0.287|x12: 0.252|x13: 0.165|x14: 0.217|x15: 0.312|x16: 0.260|x17: 0.000</t>
+          <t>x1: 0.109|x2: 0.107|x3: 0.000|x4: 0.267|x5: 0.419|x6: 0.335|x7: 0.196|x8: 0.137|x9: 0.221|x10: 0.109|x11: 0.205|x12: 0.366|x13: 0.160|x14: 0.191|x15: 0.455|x16: 0.224|x17: 0.000</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.44]</t>
+          <t>[0.00, 0.21, 0.45]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[5, 6, 15, 11, 16, 12, 4, 14, 7, 9, 13, 10, 8, 2, 3]</t>
+          <t>[15, 5, 12, 6, 4, 16, 9, 11, 7, 14, 13, 8, 10, 1, 2]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.4431852223652255, 0.3614160526803533, 0.3115285640753207, 0.28651152487516335, 0.260228149602193, 0.25223386621907434, 0.24384188833009512, 0.21738656738091108, 0.21228371135186025, 0.19076158271172922, 0.16458565457646576, 0.16227150505177945, 0.1368649657930637, 0.12362234755927197, 0.102077614150011]</t>
+          <t>[0.454909886683455, 0.4193176879649406, 0.36558827482727435, 0.33474877640841666, 0.266963117750907, 0.2241009947149513, 0.2205942671583623, 0.20480612588226865, 0.19605611981200755, 0.19128535004966787, 0.15975412128061653, 0.1373260589187759, 0.10943804924796487, 0.10909647861367647, 0.1073371461170068]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5329,22 +5329,22 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.072|x2: 0.000|x3: 0.156|x4: 0.000|x5: 0.162|x6: 0.214|x7: 0.318|x8: 0.099|x9: 0.290|x10: 0.060|x11: 0.241|x12: 0.103|x13: 0.176|x14: 0.266|x15: 0.283|x16: 0.076|x17: 0.000</t>
+          <t>x1: 0.104|x2: 0.079|x3: 0.120|x4: 0.122|x5: 0.198|x6: 0.205|x7: 0.322|x8: 0.145|x9: 0.217|x10: 0.058|x11: 0.123|x12: 0.223|x13: 0.102|x14: 0.212|x15: 0.296|x16: 0.120|x17: 0.000</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.32]</t>
+          <t>[0.00, 0.16, 0.32]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[7, 9, 15, 14, 11, 6, 13, 5, 3, 12]</t>
+          <t>[7, 15, 12, 9, 14, 6, 5, 8, 11, 4, 3, 16, 1, 13]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.3175850188439625, 0.2901890994468798, 0.2826732401069891, 0.2660325395691783, 0.24113552350105097, 0.21407478321249446, 0.17633664284780123, 0.16200462800522566, 0.15604514432803832, 0.10316548184642951]</t>
+          <t>[0.3224196555608855, 0.29609492492899014, 0.22285760138010222, 0.21690101816133447, 0.21241819127401268, 0.20535955983988236, 0.1980780591280605, 0.14488651956258433, 0.12339449467177431, 0.12190363357426853, 0.11980129516747064, 0.11967517091162379, 0.10442360634520105, 0.10226870439689222]</t>
         </is>
       </c>
       <c r="H120" t="b">
@@ -5370,22 +5370,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.142|x2: 0.000|x3: 0.412|x4: 0.000|x5: 0.247|x6: 0.388|x7: 0.000|x8: 0.195|x9: 0.000|x10: 0.163|x11: 0.372|x12: 0.054|x13: 0.120|x14: 0.133|x15: 0.175|x16: 0.239|x17: 0.000</t>
+          <t>x1: 0.168|x2: 0.000|x3: 0.359|x4: 0.205|x5: 0.308|x6: 0.370|x7: 0.000|x8: 0.180|x9: 0.000|x10: 0.116|x11: 0.359|x12: 0.074|x13: 0.131|x14: 0.196|x15: 0.122|x16: 0.237|x17: 0.000</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.41]</t>
+          <t>[0.00, 0.17, 0.37]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[3, 6, 11, 5, 16, 8, 15, 10, 1, 14, 13]</t>
+          <t>[6, 11, 3, 5, 16, 4, 14, 8, 1, 13, 15, 10]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.4123364147165509, 0.3882674950426829, 0.3719393873946573, 0.24695117890832238, 0.2390438162208799, 0.19531558932964704, 0.1748069027139805, 0.16343187917818325, 0.1416328320228445, 0.13290211172667066, 0.12005612693405034]</t>
+          <t>[0.37004055156719834, 0.3590093603837286, 0.35891634317750615, 0.30831200252724333, 0.23724008830332208, 0.2051230022552181, 0.1957990171127827, 0.17955599672709802, 0.1675799581516939, 0.13102726731342157, 0.12154748730988853, 0.11585442760017489]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5411,22 +5411,22 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.160|x2: 0.193|x3: 0.273|x4: 0.202|x5: 0.142|x6: 0.304|x7: 0.161|x8: 0.220|x9: 0.159|x10: 0.148|x11: 0.182|x12: 0.192|x13: 0.154|x14: 0.256|x15: 0.265|x16: 0.199|x17: 0.000</t>
+          <t>x1: 0.231|x2: 0.229|x3: 0.225|x4: 0.248|x5: 0.182|x6: 0.348|x7: 0.213|x8: 0.283|x9: 0.134|x10: 0.105|x11: 0.298|x12: 0.307|x13: 0.161|x14: 0.342|x15: 0.242|x16: 0.216|x17: 0.000</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.30]</t>
+          <t>[0.00, 0.22, 0.35]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[6, 3, 15, 14, 8, 4, 16, 2, 12, 11, 7, 1, 9, 13, 10, 5]</t>
+          <t>[6, 14, 12, 11, 8, 4, 15, 1, 2, 3, 16, 7, 5, 13, 9, 10]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.30437076393032797, 0.2731664795404999, 0.2646654229778418, 0.25624092407667093, 0.21999422532556312, 0.20157210029557993, 0.1994081220052635, 0.19328977686213475, 0.19197936133546953, 0.18222237526985088, 0.16095382522379909, 0.15952851110590657, 0.15889472268334742, 0.15350937101593412, 0.1481166525121355, 0.1418899652265481]</t>
+          <t>[0.3475752028417145, 0.34217824489432275, 0.30710640479329554, 0.2980941225848231, 0.283061844151694, 0.24846296465840093, 0.24182285022026828, 0.23087176465521786, 0.22858466996552168, 0.22549686477440312, 0.21567152584598429, 0.21269605968530503, 0.18217385726531926, 0.16084413418650334, 0.1343253536971408, 0.10532158099939869]</t>
         </is>
       </c>
       <c r="H122" t="b">
@@ -5452,22 +5452,22 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.116|x2: 0.180|x3: 0.000|x4: 0.324|x5: 0.292|x6: 0.000|x7: 0.156|x8: 0.160|x9: 0.129|x10: 0.075|x11: 0.000|x12: 0.205|x13: 0.355|x14: 0.145|x15: 0.104|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.235|x2: 0.268|x3: 0.073|x4: 0.332|x5: 0.356|x6: 0.000|x7: 0.137|x8: 0.226|x9: 0.096|x10: 0.000|x11: 0.092|x12: 0.306|x13: 0.387|x14: 0.187|x15: 0.159|x16: 0.081|x17: 0.000</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.35]</t>
+          <t>[0.00, 0.17, 0.39]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[13, 4, 5, 12, 2, 8, 7, 14, 9, 1, 15]</t>
+          <t>[13, 5, 4, 12, 2, 1, 8, 14, 15, 7]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.35498964032907787, 0.3242783997261499, 0.2916241689036636, 0.20464263988036036, 0.18007264681480736, 0.160413753533252, 0.15620773863561163, 0.14462043137415728, 0.1290551236346405, 0.11632381361010181, 0.10425836796102729]</t>
+          <t>[0.38669396011850643, 0.35617987329181133, 0.3318112715523273, 0.30555480864060325, 0.2675429304144024, 0.23466907985605331, 0.2261874005593403, 0.18674322847461783, 0.15866220696394223, 0.13739175636753667]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5493,22 +5493,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.113|x2: 0.152|x3: 0.245|x4: 0.126|x5: 0.430|x6: 0.166|x7: 0.195|x8: 0.155|x9: 0.000|x10: 0.072|x11: 0.000|x12: 0.167|x13: 0.430|x14: 0.467|x15: 0.165|x16: 0.078|x17: 0.000</t>
+          <t>x1: 0.236|x2: 0.180|x3: 0.200|x4: 0.169|x5: 0.483|x6: 0.122|x7: 0.199|x8: 0.229|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.103|x13: 0.335|x14: 0.536|x15: 0.245|x16: 0.083|x17: 0.000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.47]</t>
+          <t>[0.00, 0.19, 0.54]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[14, 5, 13, 3, 7, 12, 6, 15, 8, 2, 4, 1]</t>
+          <t>[14, 5, 13, 15, 1, 8, 3, 7, 2, 4, 6, 12]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[0.46653771305263625, 0.43013322233091333, 0.4300043607581631, 0.2449598517369578, 0.19515605778092532, 0.16733149261935126, 0.16633059034331998, 0.16523394482166923, 0.15515611209607905, 0.1521337384560429, 0.12621608378878713, 0.11251124212482905]</t>
+          <t>[0.5355413602423065, 0.48270004723426757, 0.3345114000950106, 0.245234364161696, 0.23585658107134239, 0.2293144268209147, 0.19968541104330423, 0.1994366644778266, 0.1801845262419412, 0.16918933495019564, 0.12248283719645328, 0.10298488243917871]</t>
         </is>
       </c>
       <c r="H124" t="b">
@@ -5534,22 +5534,22 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.000|x3: 0.198|x4: 0.321|x5: 0.460|x6: 0.201|x7: 0.220|x8: 0.105|x9: 0.129|x10: 0.105|x11: 0.217|x12: 0.272|x13: 0.332|x14: 0.267|x15: 0.197|x16: 0.163|x17: 0.000</t>
+          <t>x1: 0.172|x2: 0.000|x3: 0.208|x4: 0.349|x5: 0.474|x6: 0.109|x7: 0.283|x8: 0.180|x9: 0.137|x10: 0.077|x11: 0.245|x12: 0.274|x13: 0.268|x14: 0.303|x15: 0.182|x16: 0.158|x17: 0.000</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.46]</t>
+          <t>[0.00, 0.20, 0.47]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[5, 13, 4, 12, 14, 7, 11, 6, 3, 15, 16, 9, 10, 8]</t>
+          <t>[5, 4, 14, 7, 12, 13, 11, 3, 15, 8, 1, 16, 9, 6]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.4598639623773619, 0.33154938468096823, 0.3212726628591867, 0.27161045599594275, 0.2673736983715421, 0.22008952031987214, 0.21650764421589824, 0.20078718916407082, 0.19792674040037794, 0.19677232896967342, 0.16284631798523355, 0.12914668773864516, 0.10545596371029892, 0.10457926574783587]</t>
+          <t>[0.4742255852552783, 0.34889960213621657, 0.3029886586788061, 0.28266110341717465, 0.2735985454115319, 0.26843200131837947, 0.2448871578615763, 0.20791386356211572, 0.18150653135245345, 0.1803000550127226, 0.17241447039145572, 0.15797918935134034, 0.13693112180084493, 0.10945430946559893]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5575,29 +5575,29 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.084|x2: 0.243|x3: 0.000|x4: 0.226|x5: 0.000|x6: 0.163|x7: 0.160|x8: 0.116|x9: 0.239|x10: 0.069|x11: 0.290|x12: 0.169|x13: 0.293|x14: 0.295|x15: 0.187|x16: 0.088|x17: 0.000</t>
+          <t>x1: 0.179|x2: 0.321|x3: 0.000|x4: 0.231|x5: 0.000|x6: 0.087|x7: 0.260|x8: 0.191|x9: 0.235|x10: 0.065|x11: 0.400|x12: 0.338|x13: 0.324|x14: 0.331|x15: 0.249|x16: 0.133|x17: 0.000</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.30]</t>
+          <t>[0.00, 0.20, 0.40]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[14, 13, 11, 2, 9, 4, 15, 12, 6, 7, 8]</t>
+          <t>[11, 12, 14, 13, 2, 7, 15, 9, 4, 8, 1, 16]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[0.29524672945619734, 0.2926147395653779, 0.2896110460790516, 0.24292400059407748, 0.23900077371190795, 0.22597510220780337, 0.186933877041738, 0.16948405316471735, 0.1634340762432456, 0.15958507099128447, 0.11601089255578549]</t>
+          <t>[0.4001279102166799, 0.33841443756166084, 0.3313998799344551, 0.32404295310481707, 0.32102269359669733, 0.25953729022122735, 0.24902146996915306, 0.23473121756085147, 0.23061024927349524, 0.19089408144537232, 0.1794722317354762, 0.13293283149269475]</t>
         </is>
       </c>
       <c r="H126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -5616,22 +5616,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.093|x4: 0.157|x5: 0.134|x6: 0.081|x7: 0.208|x8: 0.000|x9: 0.113|x10: 0.074|x11: 0.244|x12: 0.179|x13: 0.326|x14: 0.189|x15: 0.127|x16: 0.132|x17: 0.000</t>
+          <t>x1: 0.107|x2: 0.071|x3: 0.000|x4: 0.194|x5: 0.144|x6: 0.277|x7: 0.242|x8: 0.126|x9: 0.223|x10: 0.069|x11: 0.240|x12: 0.266|x13: 0.198|x14: 0.150|x15: 0.188|x16: 0.141|x17: 0.000</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.33]</t>
+          <t>[0.00, 0.16, 0.28]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[13, 11, 7, 14, 12, 4, 5, 16, 15, 9]</t>
+          <t>[6, 12, 7, 11, 9, 13, 4, 15, 14, 5, 16, 8, 1]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.32585047494289426, 0.24388849717603292, 0.20824427006429744, 0.18901487395171054, 0.17905848964763169, 0.1565587865879136, 0.1344245768592134, 0.13236237874017082, 0.12730537439764344, 0.11313321432169941]</t>
+          <t>[0.27748436851890756, 0.2662859342029152, 0.24249161126065258, 0.24003253175087308, 0.22322638713209256, 0.19751905336153042, 0.19437251793605506, 0.18822831762691325, 0.14999225922159287, 0.14447563882700462, 0.14136996876592625, 0.12586560484851234, 0.1071798895820795]</t>
         </is>
       </c>
       <c r="H127" t="b">
@@ -5657,22 +5657,22 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.169|x3: 0.233|x4: 0.122|x5: 0.182|x6: 0.068|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.220|x12: 0.000|x13: 0.000|x14: 0.126|x15: 0.000|x16: 0.103|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.201|x3: 0.264|x4: 0.206|x5: 0.278|x6: 0.082|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.000|x11: 0.227|x12: 0.000|x13: 0.000|x14: 0.245|x15: 0.000|x16: 0.103|x17: 0.000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.23]</t>
+          <t>[0.00, 0.10, 0.28]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[3, 11, 5, 2, 14, 4, 16]</t>
+          <t>[5, 3, 14, 11, 4, 2, 16]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.2326341472745171, 0.2198094918359102, 0.18218844720095617, 0.1686710866766744, 0.12564405845421703, 0.12175110616170759, 0.10268246908275279]</t>
+          <t>[0.27763698177395835, 0.26404556631023485, 0.24464700434127343, 0.22656357867482269, 0.20640194574247267, 0.20078874818383677, 0.10314797106715012]</t>
         </is>
       </c>
       <c r="H128" t="b">
@@ -5698,22 +5698,22 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.096|x2: 0.232|x3: 0.198|x4: 0.113|x5: 0.142|x6: 0.000|x7: 0.227|x8: 0.132|x9: 0.130|x10: 0.149|x11: 0.000|x12: 0.163|x13: 0.449|x14: 0.286|x15: 0.329|x16: 0.237|x17: 0.000</t>
+          <t>x1: 0.193|x2: 0.268|x3: 0.192|x4: 0.161|x5: 0.104|x6: 0.000|x7: 0.206|x8: 0.172|x9: 0.090|x10: 0.150|x11: 0.158|x12: 0.278|x13: 0.382|x14: 0.278|x15: 0.375|x16: 0.307|x17: 0.000</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.45]</t>
+          <t>[0.00, 0.19, 0.38]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[13, 15, 14, 16, 2, 7, 3, 12, 10, 5, 8, 9, 4]</t>
+          <t>[13, 15, 16, 14, 12, 2, 7, 1, 3, 8, 4, 11, 10, 5]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.448982034430804, 0.3290525576416159, 0.28581696989099536, 0.23652089605399823, 0.23199090273061063, 0.22721729215113834, 0.19791900704235244, 0.16328192258937915, 0.14900706363918254, 0.14187194155052504, 0.13175144244734677, 0.13013413448977507, 0.11288368068426784]</t>
+          <t>[0.38197414229718263, 0.37486510887721713, 0.3074840655884228, 0.2780872297010056, 0.2775527140430504, 0.26847594273314895, 0.20566319537833538, 0.19284831810303188, 0.19219245035060564, 0.17169559805860854, 0.1605227770950851, 0.15823804900868824, 0.15015754997264733, 0.1039989197300698]</t>
         </is>
       </c>
       <c r="H129" t="b">
@@ -5739,22 +5739,22 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.179|x3: 0.159|x4: 0.100|x5: 0.093|x6: 0.000|x7: 0.000|x8: 0.092|x9: 0.049|x10: 0.116|x11: 0.187|x12: 0.115|x13: 0.303|x14: 0.320|x15: 0.206|x16: 0.189|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.182|x3: 0.124|x4: 0.148|x5: 0.057|x6: 0.000|x7: 0.000|x8: 0.070|x9: 0.068|x10: 0.096|x11: 0.302|x12: 0.140|x13: 0.274|x14: 0.269|x15: 0.238|x16: 0.197|x17: 0.000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.32]</t>
+          <t>[0.00, 0.13, 0.30]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[14, 13, 15, 16, 11, 2, 3, 10, 12, 4]</t>
+          <t>[11, 13, 14, 15, 16, 2, 4, 12, 3]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.3204918136573801, 0.30327529776407836, 0.20553398835549114, 0.188925632915499, 0.18678894261046478, 0.17934315787608723, 0.1592833044760229, 0.11623046360495395, 0.11525118512050836, 0.1001185337856111]</t>
+          <t>[0.3021517128396932, 0.2735205689634356, 0.2688946979364525, 0.23770705901359385, 0.19748316637371713, 0.18214639543641845, 0.14807293460077087, 0.14028470254360467, 0.12364389169740865]</t>
         </is>
       </c>
       <c r="H130" t="b">
@@ -5780,29 +5780,29 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.056|x2: 0.168|x3: 0.157|x4: 0.204|x5: 0.084|x6: 0.204|x7: 0.243|x8: 0.077|x9: 0.306|x10: 0.091|x11: 0.156|x12: 0.144|x13: 0.208|x14: 0.000|x15: 0.160|x16: 0.146|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.155|x3: 0.091|x4: 0.246|x5: 0.074|x6: 0.390|x7: 0.380|x8: 0.134|x9: 0.322|x10: 0.084|x11: 0.151|x12: 0.302|x13: 0.190|x14: 0.000|x15: 0.154|x16: 0.172|x17: 0.000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.31]</t>
+          <t>[0.00, 0.17, 0.39]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[9, 7, 13, 6, 4, 2, 15, 3, 11, 16, 12]</t>
+          <t>[6, 7, 9, 12, 4, 13, 16, 2, 15, 11, 8, 1]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.30640213858030796, 0.2431132635229385, 0.20834383073084173, 0.20415471727805162, 0.20387455391664694, 0.16769999645501552, 0.16049582526037728, 0.15669857499794668, 0.15631169413342094, 0.14613539137636164, 0.1440692819198746]</t>
+          <t>[0.38974919616437365, 0.37960812559699814, 0.3224623441530645, 0.30202993821270835, 0.24619289793130178, 0.19025238566633176, 0.1720798146020908, 0.15504778703780805, 0.1539861649624024, 0.1507928982005253, 0.13426208393292705, 0.10048025312505418]</t>
         </is>
       </c>
       <c r="H131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
@@ -5821,22 +5821,22 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.000|x3: 0.199|x4: 0.117|x5: 0.247|x6: 0.053|x7: 0.311|x8: 0.092|x9: 0.000|x10: 0.052|x11: 0.113|x12: 0.106|x13: 0.328|x14: 0.181|x15: 0.167|x16: 0.064|x17: 0.000</t>
+          <t>x1: 0.197|x2: 0.111|x3: 0.183|x4: 0.191|x5: 0.267|x6: 0.065|x7: 0.354|x8: 0.167|x9: 0.000|x10: 0.000|x11: 0.083|x12: 0.160|x13: 0.312|x14: 0.139|x15: 0.101|x16: 0.080|x17: 0.000</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.33]</t>
+          <t>[0.00, 0.14, 0.35]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[13, 7, 5, 3, 14, 15, 4, 11, 12]</t>
+          <t>[7, 13, 5, 1, 4, 3, 8, 12, 14, 2, 15]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.32787264400047583, 0.3108738438716773, 0.2470739468993299, 0.19866584734366796, 0.18053652380110344, 0.1671815451790863, 0.11711828259279902, 0.11320068106168979, 0.10590269538778103]</t>
+          <t>[0.3543074523723414, 0.3124854505941513, 0.26741015223437437, 0.19652226996041708, 0.19080500050413315, 0.18312467672794144, 0.1674237066200961, 0.15990499177842363, 0.1387861485372411, 0.11090319063136317, 0.10117809238848166]</t>
         </is>
       </c>
       <c r="H132" t="b">
@@ -5862,29 +5862,29 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.187|x2: 0.000|x3: 0.155|x4: 0.356|x5: 0.235|x6: 0.373|x7: 0.576|x8: 0.257|x9: 0.361|x10: 0.130|x11: 0.085|x12: 0.057|x13: 0.292|x14: 0.229|x15: 0.091|x16: 0.150|x17: 0.000</t>
+          <t>x1: 0.193|x2: 0.109|x3: 0.078|x4: 0.323|x5: 0.261|x6: 0.427|x7: 0.598|x8: 0.249|x9: 0.305|x10: 0.061|x11: 0.186|x12: 0.167|x13: 0.205|x14: 0.246|x15: 0.160|x16: 0.126|x17: 0.000</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.58]</t>
+          <t>[0.00, 0.22, 0.60]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[7, 6, 9, 4, 13, 8, 5, 14, 1, 3, 16, 10]</t>
+          <t>[7, 6, 4, 9, 5, 8, 14, 13, 1, 11, 12, 15, 16, 2]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.5761485506672466, 0.37321428945883756, 0.36088089997320794, 0.3561976851477928, 0.2924361910600979, 0.2573835126658065, 0.23463896834939213, 0.2288088879840173, 0.18664130159789802, 0.15536346179122157, 0.15000491484581846, 0.13039611419694502]</t>
+          <t>[0.598067019280215, 0.4271459291481365, 0.32343039785268657, 0.30518857580721576, 0.26064265484782023, 0.24888630686581303, 0.24589473215863247, 0.2046178152879629, 0.19283392177596262, 0.18644354147945585, 0.16723907884232472, 0.16015302892689004, 0.1257146422810357, 0.10904164368658588]</t>
         </is>
       </c>
       <c r="H133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
@@ -5903,22 +5903,22 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.162|x3: 0.213|x4: 0.130|x5: 0.188|x6: 0.331|x7: 0.056|x8: 0.134|x9: 0.199|x10: 0.116|x11: 0.070|x12: 0.324|x13: 0.158|x14: 0.257|x15: 0.261|x16: 0.172|x17: 0.000</t>
+          <t>x1: 0.105|x2: 0.220|x3: 0.136|x4: 0.057|x5: 0.170|x6: 0.418|x7: 0.186|x8: 0.141|x9: 0.169|x10: 0.074|x11: 0.155|x12: 0.385|x13: 0.091|x14: 0.208|x15: 0.230|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.33]</t>
+          <t>[0.00, 0.17, 0.42]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[6, 12, 15, 14, 3, 9, 5, 16, 2, 13, 8, 4, 10]</t>
+          <t>[6, 12, 15, 2, 14, 7, 5, 9, 11, 16, 8, 3, 1]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.33069374035383237, 0.32356351376212733, 0.26112722215240625, 0.25660012665329784, 0.2125424293321285, 0.19929464848048545, 0.18760346188648494, 0.1719699918879664, 0.16222373343068858, 0.15759456460380622, 0.13422778412770467, 0.1295953592483018, 0.1162766128346218]</t>
+          <t>[0.41828068969491433, 0.3848886167298853, 0.22973202973451057, 0.22015439628035136, 0.20790881833357708, 0.18599588003945236, 0.16989899587083165, 0.16878129874452508, 0.15490421418076633, 0.15174961100433282, 0.14147952397008787, 0.13627872515265696, 0.10531259740456407]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5944,22 +5944,22 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.129|x3: 0.194|x4: 0.000|x5: 0.248|x6: 0.150|x7: 0.175|x8: 0.110|x9: 0.081|x10: 0.168|x11: 0.140|x12: 0.000|x13: 0.149|x14: 0.208|x15: 0.000|x16: 0.283|x17: 0.000</t>
+          <t>x1: 0.122|x2: 0.103|x3: 0.243|x4: 0.000|x5: 0.325|x6: 0.227|x7: 0.143|x8: 0.123|x9: 0.000|x10: 0.126|x11: 0.104|x12: 0.078|x13: 0.171|x14: 0.230|x15: 0.000|x16: 0.257|x17: 0.000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.28]</t>
+          <t>[0.00, 0.13, 0.33]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[16, 5, 14, 3, 7, 10, 6, 13, 11, 2, 8]</t>
+          <t>[5, 16, 3, 14, 6, 13, 7, 10, 8, 1, 11, 2]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.28276083717827877, 0.24799346741649334, 0.2075952352671981, 0.19366879808518733, 0.17527923795967684, 0.16834903737535267, 0.1502862224633357, 0.1490931121078784, 0.14044052623330636, 0.12915660159577844, 0.11010319628698877]</t>
+          <t>[0.32543173215901056, 0.2571467822392814, 0.2431350549164556, 0.2304375153095916, 0.2265538299116514, 0.17077776994267113, 0.14301245901293752, 0.1255757131040555, 0.12264953578711824, 0.12173861236934846, 0.10398165974835008, 0.1028353542596141]</t>
         </is>
       </c>
       <c r="H135" t="b">
@@ -5985,22 +5985,22 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.062|x2: 0.293|x3: 0.174|x4: 0.052|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.085|x9: 0.310|x10: 0.121|x11: 0.206|x12: 0.084|x13: 0.347|x14: 0.321|x15: 0.151|x16: 0.201|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.230|x3: 0.149|x4: 0.119|x5: 0.056|x6: 0.000|x7: 0.000|x8: 0.096|x9: 0.164|x10: 0.071|x11: 0.272|x12: 0.277|x13: 0.243|x14: 0.270|x15: 0.172|x16: 0.146|x17: 0.000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.35]</t>
+          <t>[0.00, 0.14, 0.28]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[13, 14, 9, 2, 11, 16, 3, 15, 10]</t>
+          <t>[12, 11, 14, 13, 2, 15, 9, 3, 16, 4]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.34725077407570437, 0.3205505280661923, 0.30959566228863844, 0.293394348346672, 0.20551775956329316, 0.20078207710887006, 0.17364152514776418, 0.1513926043395652, 0.12101440192898412]</t>
+          <t>[0.2770771025613805, 0.2721685003725155, 0.27036273904256797, 0.24273661689999745, 0.2300725014915482, 0.17183584608008773, 0.1642804271948107, 0.14944630230789344, 0.14639425624357688, 0.11897446154911329]</t>
         </is>
       </c>
       <c r="H136" t="b">
@@ -6026,22 +6026,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.070|x2: 0.242|x3: 0.147|x4: 0.348|x5: 0.243|x6: 0.123|x7: 0.222|x8: 0.097|x9: 0.172|x10: 0.083|x11: 0.000|x12: 0.133|x13: 0.094|x14: 0.000|x15: 0.000|x16: 0.123|x17: 0.000</t>
+          <t>x1: 0.128|x2: 0.303|x3: 0.115|x4: 0.381|x5: 0.263|x6: 0.290|x7: 0.288|x8: 0.201|x9: 0.212|x10: 0.000|x11: 0.000|x12: 0.246|x13: 0.000|x14: 0.057|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.35]</t>
+          <t>[0.00, 0.15, 0.38]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[4, 5, 2, 7, 9, 3, 12, 6, 16]</t>
+          <t>[4, 2, 6, 7, 5, 12, 9, 8, 1, 3]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.34805882208603645, 0.2432202031941039, 0.2424139923494518, 0.22200796246777935, 0.17185735693708484, 0.14725785443104614, 0.13282226841652373, 0.12307437745859984, 0.1229543463444736]</t>
+          <t>[0.3812776271896622, 0.3033308627206345, 0.2895972379051762, 0.288328851149362, 0.2629220446815573, 0.2464486364455287, 0.21205405847383169, 0.20109957743697854, 0.1284836848599138, 0.11520769814955223]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6067,22 +6067,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.118|x3: 0.078|x4: 0.434|x5: 0.233|x6: 0.000|x7: 0.217|x8: 0.104|x9: 0.101|x10: 0.094|x11: 0.051|x12: 0.191|x13: 0.133|x14: 0.000|x15: 0.000|x16: 0.140|x17: 0.000</t>
+          <t>x1: 0.126|x2: 0.144|x3: 0.066|x4: 0.388|x5: 0.227|x6: 0.000|x7: 0.179|x8: 0.152|x9: 0.056|x10: 0.086|x11: 0.108|x12: 0.154|x13: 0.089|x14: 0.089|x15: 0.000|x16: 0.177|x17: 0.000</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.43]</t>
+          <t>[0.00, 0.12, 0.39]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 12, 16, 13, 2, 8, 9]</t>
+          <t>[4, 5, 7, 16, 12, 8, 2, 1, 11]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.4335847406226388, 0.2334211325060561, 0.2172767464537124, 0.1908022704906474, 0.14003552485063667, 0.13309960183153463, 0.11811672545117177, 0.10416246566635728, 0.1011017164113872]</t>
+          <t>[0.38794543846174734, 0.22697519925102616, 0.17921369285852826, 0.17682524515096631, 0.15354201918187027, 0.15220318863723473, 0.14371208949663689, 0.1264448501955329, 0.10774879418178494]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6108,22 +6108,22 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.092|x2: 0.269|x3: 0.000|x4: 0.318|x5: 0.182|x6: 0.000|x7: 0.080|x8: 0.126|x9: 0.203|x10: 0.115|x11: 0.000|x12: 0.106|x13: 0.250|x14: 0.245|x15: 0.127|x16: 0.174|x17: 0.000</t>
+          <t>x1: 0.204|x2: 0.278|x3: 0.000|x4: 0.441|x5: 0.244|x6: 0.000|x7: 0.195|x8: 0.252|x9: 0.323|x10: 0.095|x11: 0.000|x12: 0.197|x13: 0.261|x14: 0.337|x15: 0.210|x16: 0.195|x17: 0.000</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.32]</t>
+          <t>[0.00, 0.19, 0.44]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[4, 2, 13, 14, 9, 5, 16, 15, 8, 10, 12]</t>
+          <t>[4, 14, 9, 2, 13, 8, 5, 15, 1, 12, 7, 16]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.31763746270528687, 0.2688579625710888, 0.25044274791919596, 0.2447834108052024, 0.20291559809537052, 0.18178474035146497, 0.1735143400367226, 0.12685764402107233, 0.1262229531446557, 0.11541896029321054, 0.10590275104273945]</t>
+          <t>[0.44121482601629936, 0.3374352954546621, 0.32286022144786175, 0.27828734344407163, 0.261093169228352, 0.25203331799898276, 0.24422729293593556, 0.20950511484028753, 0.2038439285287451, 0.19670819904307668, 0.19509973489119692, 0.19480269015267293]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6149,22 +6149,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.273|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.194|x7: 0.158|x8: 0.053|x9: 0.201|x10: 0.000|x11: 0.133|x12: 0.159|x13: 0.318|x14: 0.276|x15: 0.368|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.110|x2: 0.275|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.158|x7: 0.145|x8: 0.090|x9: 0.104|x10: 0.000|x11: 0.104|x12: 0.192|x13: 0.282|x14: 0.260|x15: 0.344|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.37]</t>
+          <t>[0.00, 0.12, 0.34]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[15, 13, 14, 2, 9, 6, 12, 7, 11]</t>
+          <t>[15, 13, 2, 14, 12, 6, 7, 1, 11, 9]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.3676329170722658, 0.31841669997450534, 0.2761251443995693, 0.27264222113019265, 0.2007797010555527, 0.1935474440726264, 0.1592857667415472, 0.15831753942359658, 0.13314894136760114]</t>
+          <t>[0.34418781645250474, 0.28221189309856287, 0.2747675175287813, 0.2595530858045844, 0.19189286878807718, 0.15787386079006907, 0.1451667382325382, 0.10961137133032911, 0.10446427483625359, 0.10422055206380473]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6190,22 +6190,22 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.106|x2: 0.250|x3: 0.225|x4: 0.000|x5: 0.290|x6: 0.000|x7: 0.244|x8: 0.146|x9: 0.396|x10: 0.114|x11: 0.062|x12: 0.063|x13: 0.514|x14: 0.453|x15: 0.272|x16: 0.163|x17: 0.000</t>
+          <t>x1: 0.218|x2: 0.275|x3: 0.232|x4: 0.000|x5: 0.339|x6: 0.000|x7: 0.263|x8: 0.244|x9: 0.355|x10: 0.080|x11: 0.182|x12: 0.135|x13: 0.392|x14: 0.477|x15: 0.330|x16: 0.163|x17: 0.000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.51]</t>
+          <t>[0.00, 0.22, 0.48]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[13, 14, 9, 5, 15, 2, 7, 3, 16, 8, 10, 1]</t>
+          <t>[14, 13, 9, 5, 15, 2, 7, 8, 3, 1, 11, 16, 12]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.5144249829191926, 0.4530495595375246, 0.3963545408943545, 0.2903622926211641, 0.2717460507624651, 0.2497048927035769, 0.24371621451722, 0.22468015596410618, 0.16340298321116042, 0.1459275942978593, 0.1142807930591971, 0.10581919508638668]</t>
+          <t>[0.4768536717759604, 0.39166315690193493, 0.3548917319568194, 0.3386801542375622, 0.3304844093420754, 0.2750269270171384, 0.26291559602757997, 0.2436620291238957, 0.23232798971971239, 0.21838618343643038, 0.18227301761546855, 0.16282331166091316, 0.1352536941566342]</t>
         </is>
       </c>
       <c r="H141" t="b">
@@ -6231,22 +6231,22 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.096|x2: 0.000|x3: 0.082|x4: 0.524|x5: 0.241|x6: 0.000|x7: 0.292|x8: 0.132|x9: 0.414|x10: 0.092|x11: 0.000|x12: 0.000|x13: 0.224|x14: 0.172|x15: 0.059|x16: 0.125|x17: 0.000</t>
+          <t>x1: 0.136|x2: 0.000|x3: 0.000|x4: 0.578|x5: 0.265|x6: 0.000|x7: 0.348|x8: 0.188|x9: 0.355|x10: 0.085|x11: 0.000|x12: 0.000|x13: 0.181|x14: 0.179|x15: 0.072|x16: 0.173|x17: 0.000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.52]</t>
+          <t>[0.00, 0.15, 0.58]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[4, 9, 7, 5, 13, 14, 8, 16]</t>
+          <t>[4, 9, 7, 5, 8, 13, 14, 16, 1]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.5242809863378969, 0.41366596521594573, 0.29190165597962564, 0.2414450953711947, 0.22426005479065328, 0.1715229500830201, 0.132133363651142, 0.12506007517629386]</t>
+          <t>[0.5775610593677779, 0.35544882790169224, 0.3478049978297321, 0.26514625695679517, 0.18792923696651948, 0.18109150683534536, 0.17890363505377246, 0.17345790636338812, 0.13585250830410964]</t>
         </is>
       </c>
       <c r="H142" t="b">
@@ -6272,22 +6272,22 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.132|x3: 0.000|x4: 0.212|x5: 0.117|x6: 0.065|x7: 0.238|x8: 0.065|x9: 0.208|x10: 0.086|x11: 0.184|x12: 0.000|x13: 0.295|x14: 0.377|x15: 0.188|x16: 0.141|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.118|x3: 0.000|x4: 0.232|x5: 0.105|x6: 0.000|x7: 0.226|x8: 0.100|x9: 0.204|x10: 0.067|x11: 0.194|x12: 0.055|x13: 0.236|x14: 0.346|x15: 0.204|x16: 0.136|x17: 0.000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.38]</t>
+          <t>[0.00, 0.14, 0.35]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[14, 13, 7, 4, 9, 15, 11, 16, 2, 5]</t>
+          <t>[14, 13, 4, 7, 9, 15, 11, 16, 2, 5, 8]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.3770964636119836, 0.29542323187397496, 0.23769776618562471, 0.2118347148950049, 0.2078108750848547, 0.18752587668411086, 0.18415995843532437, 0.14088142666012277, 0.13151879837814434, 0.11746689163919016]</t>
+          <t>[0.3461956687171484, 0.23623215850931484, 0.2316779402360161, 0.22584456792931445, 0.2039491226577389, 0.20385417896516306, 0.19359926170837968, 0.13621782873521504, 0.11760709660231317, 0.10513790878486794, 0.10046250247845846]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6313,22 +6313,22 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.217|x3: 0.000|x4: 0.148|x5: 0.307|x6: 0.070|x7: 0.054|x8: 0.126|x9: 0.097|x10: 0.143|x11: 0.099|x12: 0.107|x13: 0.167|x14: 0.338|x15: 0.100|x16: 0.227|x17: 0.000</t>
+          <t>x1: 0.095|x2: 0.114|x3: 0.000|x4: 0.197|x5: 0.223|x6: 0.000|x7: 0.074|x8: 0.108|x9: 0.169|x10: 0.086|x11: 0.147|x12: 0.000|x13: 0.173|x14: 0.375|x15: 0.128|x16: 0.176|x17: 0.000</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.34]</t>
+          <t>[0.00, 0.12, 0.37]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[14, 5, 16, 2, 13, 4, 10, 8, 12, 15]</t>
+          <t>[14, 5, 4, 16, 13, 9, 11, 15, 2, 8]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.33770654705047504, 0.30736937874431264, 0.2267637494199569, 0.21660637164358992, 0.16722200977333124, 0.14834929822618484, 0.14271569140209142, 0.1256169585862842, 0.10690214544799477, 0.10009896686138615]</t>
+          <t>[0.37455298444587015, 0.22305883810465618, 0.19738838679913906, 0.1760976111763638, 0.17310891104487128, 0.16876888188056044, 0.14731853118263263, 0.12835560366119347, 0.11439168616584071, 0.1075806542053613]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6354,22 +6354,22 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.083|x2: 0.076|x3: 0.084|x4: 0.216|x5: 0.191|x6: 0.000|x7: 0.303|x8: 0.114|x9: 0.200|x10: 0.105|x11: 0.000|x12: 0.162|x13: 0.281|x14: 0.222|x15: 0.079|x16: 0.158|x17: 0.000</t>
+          <t>x1: 0.204|x2: 0.160|x3: 0.125|x4: 0.252|x5: 0.287|x6: 0.000|x7: 0.275|x8: 0.238|x9: 0.247|x10: 0.090|x11: 0.000|x12: 0.262|x13: 0.272|x14: 0.269|x15: 0.105|x16: 0.184|x17: 0.000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.30]</t>
+          <t>[0.00, 0.17, 0.29]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[7, 13, 14, 4, 9, 5, 12, 16, 8, 10]</t>
+          <t>[5, 7, 13, 14, 12, 4, 9, 8, 1, 16, 2, 3, 15]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.30269272046533585, 0.28116406182204146, 0.2219547179279073, 0.21585847094673571, 0.1996866182343271, 0.1913260639952067, 0.16232690827908147, 0.15783846934267265, 0.11436320567054101, 0.10489739084089264]</t>
+          <t>[0.28659787351294547, 0.27549799903790667, 0.2723192980456219, 0.26885846205272873, 0.26228573877758843, 0.2516729915012013, 0.24658513367998275, 0.23761130722110002, 0.20397280541758225, 0.184074855030251, 0.16037801146606048, 0.12531389553286015, 0.10459743183941181]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6395,22 +6395,22 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.130|x2: 0.106|x3: 0.137|x4: 0.337|x5: 0.064|x6: 0.000|x7: 0.155|x8: 0.179|x9: 0.193|x10: 0.087|x11: 0.054|x12: 0.000|x13: 0.081|x14: 0.000|x15: 0.000|x16: 0.098|x17: 0.000</t>
+          <t>x1: 0.180|x2: 0.135|x3: 0.133|x4: 0.329|x5: 0.100|x6: 0.000|x7: 0.178|x8: 0.244|x9: 0.205|x10: 0.000|x11: 0.109|x12: 0.100|x13: 0.096|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.34]</t>
+          <t>[0.00, 0.11, 0.33]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[4, 9, 8, 7, 3, 1, 2]</t>
+          <t>[4, 8, 9, 1, 7, 2, 3, 11, 5, 12]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.33712002540636476, 0.19325808242995843, 0.1786743635264884, 0.15528039438792282, 0.1374912265551584, 0.1295654699299241, 0.10590069291075463]</t>
+          <t>[0.32887455195774273, 0.24388492590576025, 0.20516902160961514, 0.1801816209680651, 0.17781037287051743, 0.13464017371325063, 0.13311174806195983, 0.10877956522700002, 0.10045054502334033, 0.10011272663198108]</t>
         </is>
       </c>
       <c r="H146" t="b">
@@ -6436,22 +6436,22 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.219|x3: 0.000|x4: 0.200|x5: 0.064|x6: 0.147|x7: 0.070|x8: 0.000|x9: 0.461|x10: 0.108|x11: 0.000|x12: 0.082|x13: 0.292|x14: 0.114|x15: 0.322|x16: 0.198|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.207|x3: 0.000|x4: 0.287|x5: 0.117|x6: 0.092|x7: 0.103|x8: 0.000|x9: 0.422|x10: 0.078|x11: 0.000|x12: 0.164|x13: 0.236|x14: 0.087|x15: 0.251|x16: 0.159|x17: 0.000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.46]</t>
+          <t>[0.00, 0.13, 0.42]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[9, 15, 13, 2, 4, 16, 6, 14, 10]</t>
+          <t>[9, 4, 15, 13, 2, 12, 16, 5, 7]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.46149495451898415, 0.3223249110768234, 0.29180998948605846, 0.21922766024528112, 0.20022243224340464, 0.19837881638296156, 0.14663290881011223, 0.11405542772406163, 0.10760447979973921]</t>
+          <t>[0.4222325748554656, 0.28698461213361176, 0.2506513626050326, 0.2356051854619404, 0.20660834688899582, 0.16396555581350794, 0.15907340444703855, 0.11731733036286073, 0.1031546453829259]</t>
         </is>
       </c>
       <c r="H147" t="b">
@@ -6477,22 +6477,22 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.231|x5: 0.000|x6: 0.276|x7: 0.543|x8: 0.000|x9: 0.542|x10: 0.000|x11: 0.298|x12: 0.096|x13: 0.565|x14: 0.317|x15: 0.224|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.137|x2: 0.053|x3: 0.000|x4: 0.141|x5: 0.000|x6: 0.179|x7: 0.488|x8: 0.140|x9: 0.552|x10: 0.000|x11: 0.296|x12: 0.235|x13: 0.503|x14: 0.214|x15: 0.276|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.57]</t>
+          <t>[0.00, 0.19, 0.55]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[13, 7, 9, 14, 11, 6, 4, 15]</t>
+          <t>[9, 13, 7, 11, 15, 12, 14, 6, 4, 8, 1]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.5653531455833122, 0.5425474977485238, 0.54235927103756, 0.3170272365823382, 0.2980709938398032, 0.2755511742199046, 0.2309039627888604, 0.22389576156134094]</t>
+          <t>[0.5517776112101447, 0.5030516884939702, 0.4882708076880032, 0.2955518045139128, 0.27644265831884735, 0.2349476799617367, 0.21350220545795645, 0.17924417821119354, 0.1405321073704393, 0.14006373517308918, 0.13702628096407987]</t>
         </is>
       </c>
       <c r="H148" t="b">
@@ -6518,22 +6518,22 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.072|x2: 0.126|x3: 0.325|x4: 0.406|x5: 0.441|x6: 0.072|x7: 0.093|x8: 0.099|x9: 0.056|x10: 0.212|x11: 0.136|x12: 0.145|x13: 0.295|x14: 0.154|x15: 0.068|x16: 0.373|x17: 0.000</t>
+          <t>x1: 0.086|x2: 0.172|x3: 0.275|x4: 0.468|x5: 0.456|x6: 0.000|x7: 0.058|x8: 0.054|x9: 0.051|x10: 0.185|x11: 0.216|x12: 0.214|x13: 0.266|x14: 0.191|x15: 0.065|x16: 0.380|x17: 0.000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.44]</t>
+          <t>[0.00, 0.18, 0.47]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[5, 4, 16, 3, 13, 10, 14, 12, 11, 2]</t>
+          <t>[4, 5, 16, 3, 13, 11, 12, 14, 10, 2]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.4405712153931418, 0.4057079226145564, 0.3729814102720984, 0.3251929337618253, 0.29488431003563603, 0.212489483060893, 0.15363239640566106, 0.14482556769001287, 0.13593761770854365, 0.12554952141649506]</t>
+          <t>[0.46829422221855016, 0.45612952164768183, 0.3795548770650786, 0.27547162237398104, 0.26636178071086103, 0.2163233661861834, 0.21383262722229462, 0.19058227249610193, 0.18535279319660272, 0.17227374523618214]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6559,22 +6559,22 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.056|x2: 0.216|x3: 0.157|x4: 0.283|x5: 0.171|x6: 0.000|x7: 0.000|x8: 0.077|x9: 0.073|x10: 0.085|x11: 0.000|x12: 0.081|x13: 0.349|x14: 0.255|x15: 0.055|x16: 0.134|x17: 0.000</t>
+          <t>x1: 0.150|x2: 0.270|x3: 0.204|x4: 0.325|x5: 0.182|x6: 0.000|x7: 0.000|x8: 0.146|x9: 0.100|x10: 0.073|x11: 0.111|x12: 0.204|x13: 0.268|x14: 0.202|x15: 0.098|x16: 0.150|x17: 0.000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.35]</t>
+          <t>[0.00, 0.15, 0.32]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[13, 4, 14, 2, 5, 3, 16]</t>
+          <t>[4, 2, 13, 3, 12, 14, 5, 1, 16, 8, 11]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.349128225931729, 0.2826014500468159, 0.2552610276191057, 0.21648876830882507, 0.1706820328834066, 0.15652622637249605, 0.13405142143607846]</t>
+          <t>[0.32457833391302054, 0.27010424266758815, 0.26807024397957935, 0.204492907731713, 0.20390342688216237, 0.20195447079772874, 0.182012716558209, 0.1502322307058853, 0.14967142902761682, 0.14558692361412479, 0.11094919400257036]</t>
         </is>
       </c>
       <c r="H150" t="b">
@@ -6600,22 +6600,22 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.129|x2: 0.168|x3: 0.200|x4: 0.157|x5: 0.286|x6: 0.114|x7: 0.355|x8: 0.177|x9: 0.145|x10: 0.153|x11: 0.127|x12: 0.220|x13: 0.237|x14: 0.230|x15: 0.000|x16: 0.226|x17: 0.000</t>
+          <t>x1: 0.152|x2: 0.206|x3: 0.154|x4: 0.125|x5: 0.175|x6: 0.062|x7: 0.363|x8: 0.177|x9: 0.190|x10: 0.106|x11: 0.148|x12: 0.230|x13: 0.208|x14: 0.186|x15: 0.103|x16: 0.216|x17: 0.000</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.36]</t>
+          <t>[0.00, 0.16, 0.36]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[7, 5, 13, 14, 16, 12, 3, 8, 2, 4, 10, 9, 1, 11, 6]</t>
+          <t>[7, 12, 16, 13, 2, 9, 14, 8, 5, 3, 1, 11, 4, 10, 15]</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[0.3554981549827274, 0.2856132440860462, 0.23675351508942952, 0.2301903093710979, 0.22644622063381553, 0.22042993648612955, 0.2000279526051995, 0.17720968096199263, 0.16763883549045855, 0.1568912712156394, 0.15320573806777033, 0.14470415477383677, 0.128503357374874, 0.1265831739357857, 0.11391146307337827]</t>
+          <t>[0.36347880235505653, 0.2302127972241836, 0.21611686419624576, 0.20817030976985804, 0.20580719811260126, 0.18998398810995112, 0.1859215478068668, 0.17666310873196633, 0.17450963301218098, 0.15425521745409151, 0.15194633426094437, 0.1477217188596113, 0.12482382346142677, 0.10553905866106598, 0.10323962893553938]</t>
         </is>
       </c>
       <c r="H151" t="b">
@@ -6641,22 +6641,22 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.080|x3: 0.000|x4: 0.109|x5: 0.000|x6: 0.292|x7: 0.257|x8: 0.000|x9: 0.119|x10: 0.000|x11: 0.536|x12: 0.258|x13: 0.444|x14: 0.252|x15: 0.184|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.100|x2: 0.000|x3: 0.000|x4: 0.162|x5: 0.000|x6: 0.240|x7: 0.270|x8: 0.000|x9: 0.177|x10: 0.000|x11: 0.643|x12: 0.352|x13: 0.472|x14: 0.222|x15: 0.186|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.54]</t>
+          <t>[0.00, 0.17, 0.64]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[11, 13, 6, 12, 7, 14, 15, 9, 4]</t>
+          <t>[11, 13, 12, 7, 6, 14, 15, 9, 4]</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[0.5360647526143769, 0.4438510997783136, 0.2919655819044574, 0.25781038611244583, 0.25716491448138745, 0.2524185689418219, 0.18359920689934844, 0.11887921737759928, 0.10858349236062292]</t>
+          <t>[0.642684603257414, 0.4724461301592094, 0.35227084232408656, 0.2703479487153894, 0.2404679299728271, 0.22171487498263268, 0.18636438144918252, 0.1771424117841341, 0.16241341280296934]</t>
         </is>
       </c>
       <c r="H152" t="b">
@@ -6682,22 +6682,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.230|x3: 0.000|x4: 0.265|x5: 0.124|x6: 0.189|x7: 0.307|x8: 0.047|x9: 0.315|x10: 0.000|x11: 0.000|x12: 0.108|x13: 0.122|x14: 0.335|x15: 0.000|x16: 0.049|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.307|x3: 0.000|x4: 0.306|x5: 0.203|x6: 0.227|x7: 0.321|x8: 0.092|x9: 0.273|x10: 0.000|x11: 0.000|x12: 0.071|x13: 0.109|x14: 0.364|x15: 0.000|x16: 0.042|x17: 0.000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.33]</t>
+          <t>[0.00, 0.14, 0.36]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[14, 9, 7, 4, 2, 6, 5, 13, 12]</t>
+          <t>[14, 7, 2, 4, 9, 6, 5, 13]</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.3346796384620365, 0.31547485699803346, 0.30650946294415965, 0.2650033318806787, 0.229825339263915, 0.1892799521923059, 0.12433113738092239, 0.12174234851748117, 0.10751769978469654]</t>
+          <t>[0.3638811116410754, 0.3211319257659956, 0.3067391123291072, 0.3061341299669655, 0.2726895267335492, 0.2268111720596364, 0.20275449569523835, 0.1087775689761749]</t>
         </is>
       </c>
       <c r="H153" t="b">
@@ -6723,22 +6723,22 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.142|x2: 0.000|x3: 0.070|x4: 0.251|x5: 0.000|x6: 0.149|x7: 0.265|x8: 0.196|x9: 0.318|x10: 0.087|x11: 0.133|x12: 0.235|x13: 0.303|x14: 0.161|x15: 0.226|x16: 0.091|x17: 0.000</t>
+          <t>x1: 0.237|x2: 0.000|x3: 0.000|x4: 0.261|x5: 0.157|x6: 0.127|x7: 0.367|x8: 0.264|x9: 0.294|x10: 0.000|x11: 0.225|x12: 0.327|x13: 0.366|x14: 0.240|x15: 0.327|x16: 0.065|x17: 0.000</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.32]</t>
+          <t>[0.00, 0.19, 0.37]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[9, 13, 7, 4, 12, 15, 8, 14, 6, 1, 11]</t>
+          <t>[7, 13, 15, 12, 9, 8, 4, 14, 1, 11, 5, 6]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.3175648715656011, 0.3033245108461478, 0.2646730906125413, 0.25067397515562384, 0.2348224562931814, 0.2255582588130749, 0.1956827350806765, 0.16057506208354957, 0.1485662636516021, 0.1418990672612191, 0.13286162006830288]</t>
+          <t>[0.36692272990000013, 0.36574551635906916, 0.3269872175341376, 0.32682572198471316, 0.2942431698612541, 0.2644815176912122, 0.2612125103682079, 0.2402189734675179, 0.2365614769338449, 0.22517633108738871, 0.15713285353243117, 0.12729343166361057]</t>
         </is>
       </c>
       <c r="H154" t="b">
@@ -6764,22 +6764,22 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>x1: 0.155|x2: 0.222|x3: 0.000|x4: 0.132|x5: 0.143|x6: 0.062|x7: 0.309|x8: 0.214|x9: 0.091|x10: 0.110|x11: 0.000|x12: 0.195|x13: 0.392|x14: 0.233|x15: 0.136|x16: 0.127|x17: 0.000</t>
+          <t>x1: 0.221|x2: 0.231|x3: 0.000|x4: 0.145|x5: 0.183|x6: 0.000|x7: 0.345|x8: 0.231|x9: 0.136|x10: 0.079|x11: 0.068|x12: 0.315|x13: 0.320|x14: 0.250|x15: 0.218|x16: 0.162|x17: 0.000</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.39]</t>
+          <t>[0.00, 0.17, 0.34]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[13, 7, 14, 2, 8, 12, 1, 5, 15, 4, 16, 10]</t>
+          <t>[7, 13, 12, 14, 8, 2, 1, 15, 5, 16, 4, 9]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[0.3918949559607101, 0.3088076835403592, 0.23334683600883857, 0.22245152800558537, 0.21376190652505178, 0.19530727641146822, 0.1550091536659029, 0.1430381151708741, 0.13588449989086562, 0.1317073057844818, 0.12732277591642624, 0.1097079055370169]</t>
+          <t>[0.34458402159738216, 0.31955025870111703, 0.3152290976173132, 0.24956836488036155, 0.23114457694892757, 0.23064348263932316, 0.2210517862852132, 0.21807529094234188, 0.18316948671079022, 0.1618650302851519, 0.14490389632722994, 0.13605609950223954]</t>
         </is>
       </c>
       <c r="H155" t="b">
@@ -6805,22 +6805,22 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.106|x3: 0.145|x4: 0.155|x5: 0.190|x6: 0.173|x7: 0.000|x8: 0.101|x9: 0.202|x10: 0.097|x11: 0.163|x12: 0.104|x13: 0.299|x14: 0.276|x15: 0.133|x16: 0.149|x17: 0.000</t>
+          <t>x1: 0.136|x2: 0.106|x3: 0.100|x4: 0.146|x5: 0.258|x6: 0.226|x7: 0.000|x8: 0.146|x9: 0.179|x10: 0.055|x11: 0.094|x12: 0.143|x13: 0.244|x14: 0.274|x15: 0.127|x16: 0.113|x17: 0.000</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.30]</t>
+          <t>[0.00, 0.14, 0.27]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[13, 14, 9, 5, 6, 11, 4, 16, 3, 15, 2, 12, 8]</t>
+          <t>[14, 5, 13, 6, 9, 4, 8, 12, 1, 15, 16, 2, 3]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.29860165905164937, 0.27612985775773025, 0.20188324127293245, 0.19024105423571816, 0.17268425986344332, 0.16288753336725498, 0.1554101193858467, 0.14865292484474077, 0.14499523041177564, 0.13257778683170743, 0.10556126632484356, 0.10367026843165088, 0.10117706539591798]</t>
+          <t>[0.2736352605626431, 0.2580276804535137, 0.24362821279941194, 0.2257166007659623, 0.1794880079458638, 0.1463952657882272, 0.1456964291070448, 0.14266843988347416, 0.136240277184811, 0.1266723439002791, 0.11309948942522195, 0.10636872250794352, 0.10022044195819321]</t>
         </is>
       </c>
       <c r="H156" t="b">
@@ -6846,22 +6846,22 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.168|x3: 0.000|x4: 0.000|x5: 0.057|x6: 0.000|x7: 0.165|x8: 0.120|x9: 0.229|x10: 0.000|x11: 0.135|x12: 0.125|x13: 0.237|x14: 0.418|x15: 0.288|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.150|x3: 0.000|x4: 0.000|x5: 0.070|x6: 0.000|x7: 0.187|x8: 0.165|x9: 0.172|x10: 0.000|x11: 0.187|x12: 0.194|x13: 0.221|x14: 0.436|x15: 0.281|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.42]</t>
+          <t>[0.00, 0.13, 0.44]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[14, 15, 13, 9, 2, 7, 11, 12, 8]</t>
+          <t>[14, 15, 13, 12, 7, 11, 9, 8, 2, 1]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[0.41807916391240146, 0.2876758373404982, 0.23706848947726994, 0.22948241083223872, 0.16809854346042427, 0.1646902355635832, 0.13545204639981284, 0.12540776458498243, 0.11972242736247515]</t>
+          <t>[0.43550460956521125, 0.28053960813407325, 0.22120025323780226, 0.19420978769649935, 0.18697227806015718, 0.18696533824704026, 0.17235123575851247, 0.16529494553490423, 0.14982815653159234, 0.14781306912036424]</t>
         </is>
       </c>
       <c r="H157" t="b">
@@ -6887,22 +6887,22 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.110|x3: 0.078|x4: 0.054|x5: 0.171|x6: 0.257|x7: 0.294|x8: 0.081|x9: 0.275|x10: 0.069|x11: 0.129|x12: 0.098|x13: 0.279|x14: 0.397|x15: 0.142|x16: 0.101|x17: 0.000</t>
+          <t>x1: 0.087|x2: 0.126|x3: 0.000|x4: 0.000|x5: 0.209|x6: 0.271|x7: 0.322|x8: 0.102|x9: 0.263|x10: 0.071|x11: 0.203|x12: 0.161|x13: 0.209|x14: 0.449|x15: 0.149|x16: 0.145|x17: 0.000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.40]</t>
+          <t>[0.00, 0.16, 0.45]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[14, 7, 13, 9, 6, 5, 15, 11, 2, 16]</t>
+          <t>[14, 7, 6, 9, 13, 5, 11, 12, 15, 16, 2, 8]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[0.3973648435327611, 0.29449947450382585, 0.2788544152354458, 0.2745051936790853, 0.25718300981804165, 0.17143130631755346, 0.14205680335040471, 0.12861236100733128, 0.10954944998387864, 0.10134428668834805]</t>
+          <t>[0.44919048338475176, 0.3219395332054726, 0.2706930251785251, 0.2631059365968205, 0.20931516835235747, 0.2087657996591092, 0.20331699492534958, 0.1608104519850736, 0.1486396908610969, 0.1451167924742117, 0.12643037867892276, 0.1024206600853781]</t>
         </is>
       </c>
       <c r="H158" t="b">
@@ -6928,22 +6928,22 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.119|x2: 0.000|x3: 0.070|x4: 0.284|x5: 0.114|x6: 0.205|x7: 0.353|x8: 0.165|x9: 0.187|x10: 0.111|x11: 0.360|x12: 0.078|x13: 0.232|x14: 0.231|x15: 0.119|x16: 0.150|x17: 0.000</t>
+          <t>x1: 0.169|x2: 0.000|x3: 0.084|x4: 0.324|x5: 0.127|x6: 0.250|x7: 0.382|x8: 0.205|x9: 0.188|x10: 0.079|x11: 0.379|x12: 0.150|x13: 0.182|x14: 0.278|x15: 0.104|x16: 0.161|x17: 0.000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.36]</t>
+          <t>[0.00, 0.18, 0.38]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[11, 7, 4, 13, 14, 6, 9, 8, 16, 1, 15, 5, 10]</t>
+          <t>[7, 11, 4, 14, 6, 8, 9, 13, 1, 16, 12, 5, 15]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.3604058825347398, 0.35298834877402113, 0.2844922264552224, 0.23177807292116503, 0.2307029647682033, 0.2053497045229588, 0.18717495503254233, 0.1646575642023172, 0.14987491416898685, 0.11940120710281486, 0.11896876325638571, 0.11426845879426614, 0.11118185713223959]</t>
+          <t>[0.3822542451778167, 0.37943749585665887, 0.3243544182300361, 0.2779501487719493, 0.2500647124492601, 0.20481336234495068, 0.18785341527439914, 0.18239908439580957, 0.16882848947558707, 0.1611859833169764, 0.14981301826268442, 0.12680854616398157, 0.10445975515887256]</t>
         </is>
       </c>
       <c r="H159" t="b">
@@ -6969,22 +6969,22 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.129|x2: 0.385|x3: 0.000|x4: 0.198|x5: 0.178|x6: 0.276|x7: 0.218|x8: 0.178|x9: 0.332|x10: 0.152|x11: 0.209|x12: 0.312|x13: 0.257|x14: 0.346|x15: 0.216|x16: 0.224|x17: 0.000</t>
+          <t>x1: 0.209|x2: 0.408|x3: 0.000|x4: 0.268|x5: 0.177|x6: 0.246|x7: 0.305|x8: 0.281|x9: 0.360|x10: 0.113|x11: 0.235|x12: 0.411|x13: 0.198|x14: 0.339|x15: 0.242|x16: 0.231|x17: 0.000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.38]</t>
+          <t>[0.00, 0.24, 0.41]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[2, 14, 9, 12, 6, 13, 16, 7, 15, 11, 4, 5, 8, 10, 1]</t>
+          <t>[12, 2, 9, 14, 7, 8, 4, 6, 15, 11, 16, 1, 13, 5, 10]</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[0.38461177623203374, 0.34647453501906406, 0.33237818373102385, 0.3122485266316792, 0.27575832395787014, 0.25692706537522464, 0.22389063984567914, 0.2181470294674709, 0.21609531356130768, 0.20852694043363085, 0.19806794669237213, 0.17825553794205146, 0.17823514949957386, 0.15210144246851942, 0.12924697448002392]</t>
+          <t>[0.41130490483449533, 0.4081527948910059, 0.36025269251513087, 0.3390568513983831, 0.30453675273023534, 0.2806565415737656, 0.26750681722721265, 0.2455184455028868, 0.24180610693509522, 0.23451364132523292, 0.23091179054302408, 0.20942468070908107, 0.19842806267576196, 0.17730770283038003, 0.11276405059034418]</t>
         </is>
       </c>
       <c r="H160" t="b">
@@ -7010,22 +7010,22 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.067|x2: 0.288|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.092|x9: 0.080|x10: 0.070|x11: 0.138|x12: 0.169|x13: 0.346|x14: 0.253|x15: 0.317|x16: 0.098|x17: 0.000</t>
+          <t>x1: 0.136|x2: 0.331|x3: 0.000|x4: 0.045|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.105|x9: 0.129|x10: 0.000|x11: 0.182|x12: 0.234|x13: 0.373|x14: 0.312|x15: 0.339|x16: 0.074|x17: 0.000</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.35]</t>
+          <t>[0.00, 0.13, 0.37]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[13, 15, 2, 14, 12, 11]</t>
+          <t>[13, 15, 2, 14, 12, 11, 1, 9, 8]</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[0.3456736987260011, 0.3167264992095181, 0.28814407369813944, 0.25336376946383043, 0.16903370484714067, 0.138383861322437]</t>
+          <t>[0.373306834232395, 0.3389796259575126, 0.33145831548511195, 0.31239219564453935, 0.2337595869058033, 0.18164924612069067, 0.13559920956945917, 0.12864079426474562, 0.10484570765344542]</t>
         </is>
       </c>
       <c r="H161" t="b">
@@ -7051,29 +7051,29 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.138|x3: 0.000|x4: 0.000|x5: 0.145|x6: 0.165|x7: 0.246|x8: 0.104|x9: 0.096|x10: 0.108|x11: 0.208|x12: 0.134|x13: 0.076|x14: 0.151|x15: 0.064|x16: 0.168|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.095|x3: 0.000|x4: 0.000|x5: 0.177|x6: 0.163|x7: 0.269|x8: 0.000|x9: 0.000|x10: 0.092|x11: 0.239|x12: 0.088|x13: 0.085|x14: 0.229|x15: 0.222|x16: 0.189|x17: 0.000</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.25]</t>
+          <t>[0.00, 0.11, 0.27]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[7, 11, 16, 6, 14, 5, 2, 12, 10, 8]</t>
+          <t>[7, 11, 14, 15, 16, 5, 6]</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[0.2457970791024662, 0.20831945723492828, 0.16804247430884367, 0.1653027912506848, 0.1506852277905623, 0.14478610241270992, 0.13809712893169007, 0.13403160006967882, 0.10809165970300558, 0.10438473056252287]</t>
+          <t>[0.268642389753709, 0.23915908881064132, 0.22938854802785716, 0.2218083875578721, 0.18864916770242657, 0.1769109178714846, 0.16294628125343688]</t>
         </is>
       </c>
       <c r="H162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -7092,22 +7092,22 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.121|x3: 0.093|x4: 0.210|x5: 0.232|x6: 0.066|x7: 0.000|x8: 0.062|x9: 0.101|x10: 0.130|x11: 0.321|x12: 0.178|x13: 0.134|x14: 0.193|x15: 0.133|x16: 0.227|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.000|x3: 0.121|x4: 0.182|x5: 0.262|x6: 0.093|x7: 0.000|x8: 0.081|x9: 0.070|x10: 0.126|x11: 0.319|x12: 0.243|x13: 0.117|x14: 0.290|x15: 0.233|x16: 0.258|x17: 0.000</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.32]</t>
+          <t>[0.00, 0.15, 0.32]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[11, 5, 16, 4, 14, 12, 13, 15, 10, 2, 9]</t>
+          <t>[11, 14, 5, 16, 12, 15, 4, 10, 3, 13]</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0.32079971472283947, 0.23248855301287652, 0.22725661637801894, 0.20970208506465715, 0.19318855729872184, 0.17751567399014645, 0.1340377370928641, 0.13317629038395226, 0.12986533948968737, 0.12141358295013478, 0.10142479495438883]</t>
+          <t>[0.31876815747237064, 0.28959619808367665, 0.26172608999076347, 0.2576354261271466, 0.24277774414560105, 0.23281398236136736, 0.18219762112481575, 0.1258143387020049, 0.12079494668834065, 0.11745965134830721]</t>
         </is>
       </c>
       <c r="H163" t="b">
@@ -7133,22 +7133,22 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.107|x2: 0.213|x3: 0.283|x4: 0.279|x5: 0.096|x6: 0.000|x7: 0.131|x8: 0.148|x9: 0.167|x10: 0.145|x11: 0.000|x12: 0.000|x13: 0.108|x14: 0.064|x15: 0.063|x16: 0.223|x17: 0.000</t>
+          <t>x1: 0.146|x2: 0.343|x3: 0.214|x4: 0.351|x5: 0.134|x6: 0.000|x7: 0.067|x8: 0.185|x9: 0.159|x10: 0.115|x11: 0.096|x12: 0.000|x13: 0.124|x14: 0.112|x15: 0.000|x16: 0.235|x17: 0.000</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.28]</t>
+          <t>[0.00, 0.13, 0.35]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[3, 4, 16, 2, 9, 8, 10, 7, 13, 1]</t>
+          <t>[4, 2, 16, 3, 8, 9, 1, 5, 13, 10, 14]</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.2832449367494694, 0.2788493141107345, 0.22303526818483194, 0.21267419851332797, 0.16728296827327013, 0.14793273969407159, 0.14540369918329316, 0.13061510751942368, 0.10848485893154906, 0.10727322352342968]</t>
+          <t>[0.35092022021938146, 0.34300648965607095, 0.2354275479998435, 0.21447811491651475, 0.1848391312279063, 0.15907562701500397, 0.14595388122085431, 0.13382067971585404, 0.12423402254547102, 0.11496928706231911, 0.11195245039411755]</t>
         </is>
       </c>
       <c r="H164" t="b">
@@ -7174,22 +7174,22 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>x1: 0.070|x2: 0.084|x3: 0.313|x4: 0.226|x5: 0.189|x6: 0.145|x7: 0.196|x8: 0.096|x9: 0.185|x10: 0.117|x11: 0.175|x12: 0.159|x13: 0.120|x14: 0.142|x15: 0.096|x16: 0.189|x17: 0.000</t>
+          <t>x1: 0.095|x2: 0.092|x3: 0.336|x4: 0.275|x5: 0.219|x6: 0.074|x7: 0.186|x8: 0.112|x9: 0.155|x10: 0.110|x11: 0.208|x12: 0.241|x13: 0.148|x14: 0.151|x15: 0.116|x16: 0.225|x17: 0.000</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.31]</t>
+          <t>[0.00, 0.16, 0.34]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[3, 4, 7, 16, 5, 9, 11, 12, 6, 14, 13, 10]</t>
+          <t>[3, 4, 12, 16, 5, 11, 7, 9, 14, 13, 15, 8, 10]</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0.3126140408238892, 0.22649291995015786, 0.19584452095364102, 0.1891046272112939, 0.18892095739744372, 0.18498979611846358, 0.1751607946704376, 0.15856232595086794, 0.1449000248139913, 0.14248392686069095, 0.12000003993246995, 0.11728778631558866]</t>
+          <t>[0.3360548999061056, 0.27484192990350587, 0.24054042518215862, 0.22463664914185094, 0.2193097634190127, 0.20821664204383564, 0.18633523442402883, 0.1546302503488144, 0.15142447645270948, 0.14758239970601522, 0.11605924585971915, 0.1122017328463767, 0.10969963209201025]</t>
         </is>
       </c>
       <c r="H165" t="b">

--- a/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>artificial intelligence displacing creating upheaval world change work live governance policy regulation governance policy regulation mitigate alleviate negative aspect advancement governance policy regulation impact future work future humanity longitudinal multiple study research study evolution revolution governance policy regulation governance policy regulation impact advancement impacted advancement research plan study leading country research china</t>
+          <t>artificial intelligence displacing job creating upheaval world change way work way live governance policy regulation governance policy regulation mitigate alleviate negative aspect advancement governance policy regulation impact future work future humanity longitudinal multiple study research study evolution revolution governance policy regulation governance policy regulation impact advancement impacted advancement research plan study leading country research china</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,22 +491,22 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>x1: 0.069|x2: 0.218|x3: 0.121|x4: 0.215|x5: 0.253|x6: 0.365|x7: 0.069|x8: 0.053|x9: 0.063|x10: 0.000|x11: 0.262|x12: 0.308|x13: 0.190|x14: 0.411|x15: 0.112|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.063|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.035|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.060|x12: 0.052|x13: 0.037|x14: 0.109|x15: 0.039|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.41]</t>
+          <t>[0.00, 0.02, 0.11]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[14, 6, 12, 11, 5, 2, 4, 13, 3, 15]</t>
+          <t>[14]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.41148144114090524, 0.3645447655467877, 0.3078833684787102, 0.2619039388743707, 0.252642183891878, 0.21778733597709585, 0.2147650720804054, 0.18995299369933955, 0.12075975214161114, 0.1116356959283938]</t>
+          <t>[0.10902336655334757]</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>deep learning recent brought breakthrough domain notably voice image recognition work extend deep learning application domain classification mobile phone datasets classic machine learning method produced good result telecom prediction task underutilized resource intensive domain specific feature engineering traditional machine learning algorithm require separate feature engineering different country work socio economic status large identified mobile phone datasets accurately classified deep learning avoiding cumbersome manual feature engineering process implement simple deep learning architecture compare traditional mining model benchmark model achieves test location trace sole input contrast benchmarked state mining model include feature category basic phone usage pattern handset type social network structure individual mobility traditional machine learning model achieve best scenario believe result encouraging regional household income important input wide range economic policy underdeveloped country reliable statistic income lacking frequently updated rarely fine grained region country making income prediction simpler efficient great help policy maker charity organization ultimately benefit poor</t>
+          <t>deep learning ha recent brought breakthrough domain notably voice image recognition work extend deep learning new application domain classification mobile phone datasets classic machine learning method produced good result telecom prediction task underutilized resource intensive domain specific feature engineering traditional machine learning algorithm require separate feature engineering different country work socio economic status large identified mobile phone datasets accurately classified deep learning avoiding cumbersome manual feature engineering process implement simple deep learning architecture compare traditional mining model benchmark model achieves auc test location trace sole input contrast benchmarked state art mining model include feature category basic phone usage pattern handset type social network structure individual mobility traditional machine learning model achieve auc best scenario believe result encouraging regional household income important input wide range economic policy underdeveloped country reliable statistic income lacking frequently updated rarely fine grained sub region country making income prediction simpler efficient great help policy maker charity organization ultimately benefit poor</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,22 +532,22 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>x1: 0.163|x2: 0.126|x3: 0.000|x4: 0.406|x5: 0.252|x6: 0.159|x7: 0.295|x8: 0.253|x9: 0.365|x10: 0.092|x11: 0.106|x12: 0.165|x13: 0.065|x14: 0.130|x15: 0.113|x16: 0.187|x17: 0.000</t>
+          <t>x1: 0.115|x2: 0.068|x3: 0.000|x4: 0.139|x5: 0.000|x6: 0.000|x7: 0.169|x8: 0.065|x9: 0.196|x10: 0.114|x11: 0.159|x12: 0.203|x13: 0.106|x14: 0.158|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.41]</t>
+          <t>[0.00, 0.09, 0.20]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[4, 9, 7, 8, 5, 16, 12, 1, 6, 14, 2, 15, 11]</t>
+          <t>[12, 9, 7, 11, 14, 4, 1, 10, 13]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.40613210937239846, 0.3647774188152846, 0.29450065257315683, 0.2529488364699076, 0.2523061688342017, 0.1874123618373383, 0.16459577847072326, 0.1625031357321372, 0.15899806603621558, 0.12968413844919116, 0.12569831456829378, 0.11323468115103592, 0.10629525997561931]</t>
+          <t>[0.20329691461715152, 0.19615461779776833, 0.16912394144251294, 0.15917303704715569, 0.15816885292462896, 0.1386962109341194, 0.11497367206276943, 0.11363477539880147, 0.10647016990740617]</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -563,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>drought period threatens water resource agriculture socioeconomic activity crucial decision maker realistic anticipation drought event mitigate impact research standardized precipitation predict drought time series analysis technique adopted technique autoregressive integrating moving arima feed forward backpropagation neural network fbnn different activation function sigmoid bipolar sigmoid hyperbolic tangent adequacy technique predicting drought condition examined arid ecosystem monthly precipitation calculating time series timescales obtained tropical rainfall measuring mission trmm prediction carried compared lead time model performance statistic coefficient correlation mean absolute error root mean square error rmse overall result prove excellent performance predicting model anticipating drought condition concerning model accuracy measure despite fbnn model remain somewhat better arima model rmse additionally fbnn based hyperbolic tangent activation function demonstrated best similarity actual predicted eventually activation function fbnn model good result respecting prediction degree variation timescales activation function equally sigmoid bipolar sigmoid function manifesting adjusted higher error rmse conclusion fbnn considered promising technique predicting drought monitoring arid ecosystem</t>
+          <t>drought period threatens water resource agriculture socioeconomic activity crucial decision maker realistic anticipation drought event mitigate impact research aim standardized precipitation spi predict drought time series analysis technique adopted technique autoregressive integrating moving arima feed forward backpropagation neural network fbnn different activation function sigmoid bipolar sigmoid hyperbolic tangent adequacy technique predicting drought condition ha examined arid ecosystem monthly precipitation calculating spi time series spi timescales obtained tropical rainfall measuring mission trmm prediction spi wa carried compared lead time model performance statistic coefficient correlation mean absolute error mae root mean square error rmse overall result prove excellent performance predicting model anticipating drought condition concerning model accuracy measure despite fbnn model remain somewhat better arima model mae rmse additionally fbnn based hyperbolic tangent activation function demonstrated best similarity actual predicted spi eventually activation function fbnn model ha good result respecting spi prediction degree variation timescales activation function equally sigmoid bipolar sigmoid function manifesting le adjusted higher error mae rmse conclusion fbnn considered promising technique predicting spi drought monitoring arid ecosystem</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -573,26 +573,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>x1: 0.183|x2: 0.124|x3: 0.000|x4: 0.195|x5: 0.174|x6: 0.176|x7: 0.362|x8: 0.214|x9: 0.264|x10: 0.064|x11: 0.249|x12: 0.138|x13: 0.267|x14: 0.226|x15: 0.256|x16: 0.131|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.117|x3: 0.000|x4: 0.000|x5: 0.075|x6: 0.058|x7: 0.111|x8: 0.100|x9: 0.077|x10: 0.196|x11: 0.197|x12: 0.141|x13: 0.063|x14: 0.125|x15: 0.150|x16: 0.085|x17: 0.000</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.36]</t>
+          <t>[0.00, 0.09, 0.20]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[7, 13, 9, 15, 11, 14, 8, 4, 1, 6, 5, 12, 16, 2]</t>
+          <t>[11, 10, 15, 12, 14, 2, 7, 8]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.3615787690190195, 0.2671056521010285, 0.26372765266614334, 0.25613584126339456, 0.24859840394455465, 0.22587481749431995, 0.21404781422339642, 0.19529923327434648, 0.18295152378893828, 0.1758600855385478, 0.17401653069226214, 0.13832698017194328, 0.13127735709281105, 0.12365409758839366]</t>
+          <t>[0.19721743000463715, 0.19562552329806734, 0.1501509633817256, 0.14087290874856165, 0.1252765912604202, 0.11669630866733278, 0.11062445304024741, 0.10029504718837813]</t>
         </is>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
         <v>1</v>
@@ -604,7 +604,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>paper aimed making recommendation establish stewardship embody morality prevent automation risk faced development country ldcs transition digital modernity recent study reveal qualified individual developed country face risk highly subject automation indicates corresponding risk seen ldcs rise digitalization override developing country opportunity elevate income country middle income country aftermath world western society tried support ldcs maintain principle free world contribute reducing poverty market oriented development cold defense free world lost significance economy getting important political instrument advancement automation technology aggravate opportunity developing country economic growth international society need alternative principle</t>
+          <t>paper aimed making recommendation establish stewardship embody morality prevent automation risk faced development country ldcs transition digital modernity recent study reveal law qualified individual developed country face risk job highly subject automation indicates corresponding risk seen ldcs rise digitalization override developing country opportunity elevate low income country middle income country aftermath world war western society tried support ldcs maintain principle free world contribute reducing poverty market oriented development end cold war defense free world ha lost significance economy getting important political instrument advancement automation technology aggravate opportunity developing country economic growth international society need alternative principle</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -614,22 +614,22 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.189|x2: 0.138|x3: 0.000|x4: 0.422|x5: 0.259|x6: 0.191|x7: 0.460|x8: 0.234|x9: 0.259|x10: 0.000|x11: 0.000|x12: 0.247|x13: 0.216|x14: 0.152|x15: 0.000|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.000|x3: 0.000|x4: 0.086|x5: 0.000|x6: 0.000|x7: 0.038|x8: 0.220|x9: 0.206|x10: 0.129|x11: 0.064|x12: 0.000|x13: 0.071|x14: 0.000|x15: 0.000|x16: 0.165|x17: 0.000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.46]</t>
+          <t>[0.00, 0.07, 0.22]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[7, 4, 5, 9, 12, 8, 13, 6, 1, 14, 2]</t>
+          <t>[8, 9, 16, 1, 10]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.4604238491153061, 0.42201121287908777, 0.25935000558943205, 0.2588205315922658, 0.24704159508988674, 0.23363500672039175, 0.21552813091524045, 0.19115739317731148, 0.18873130787542655, 0.15189159106508032, 0.13774756904556085]</t>
+          <t>[0.21960885064840377, 0.2055382941869249, 0.16508355835153396, 0.14831995740500345, 0.12932555554533817]</t>
         </is>
       </c>
       <c r="H5" t="b">
@@ -645,7 +645,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>smart farming development emphasizes information communication technology cyber physical farm management cycle technology internet thing cloud computing expected leverage development introduce robot artificial intelligence farming encompassed phenomenon massive volume wide variety captured analysed decision making review gain insight state application smart farming identify related socio economic challenge addressed following structured approach conceptual framework analysis developed future study topic review scope application smart farming primary production influencing entire food supply chain provide predictive insight farming operation drive time operational decision redesign business process game changing business model author suggest cause major shift role power relation different player current food supply chain network landscape stakeholder exhibit interesting game powerful tech company venture capitalist startup entrant time public institution publish open condition privacy guaranteed future smart farming unravel continuum extreme scenario closed proprietary farmer highly integrated food supply chain open collaborative farmer stakeholder chain network flexible choosing business partner technology food production development application infrastructure platform standard institutional embedment play crucial role battle scenario socio economic perspective author propose research priority organizational issue concerning governance issue suitable business model sharing different supply chain scenario</t>
+          <t>smart farming development emphasizes information communication technology cyber physical farm management cycle new technology internet thing cloud computing expected leverage development introduce robot artificial intelligence farming encompassed phenomenon big massive volume wide variety captured analysed decision making review aim gain insight state art big application smart farming identify related socio economic challenge addressed following structured approach conceptual framework analysis wa developed future study topic review scope big application smart farming primary production influencing entire food supply chain big provide predictive insight farming operation drive time operational decision redesign business process game changing business model author suggest big cause major shift role power relation different player current food supply chain network landscape stakeholder exhibit interesting game powerful tech company venture capitalist startup new entrant time public institution publish open condition privacy guaranteed future smart farming unravel continuum extreme scenario closed proprietary farmer highly integrated food supply chain open collaborative farmer stakeholder chain network flexible choosing business partner technology food production development application infrastructure platform standard institutional embedment play crucial role battle scenario socio economic perspective author propose research priority organizational issue concerning governance issue suitable business model sharing different supply chain scenario</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -655,29 +655,29 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>x1: 0.110|x2: 0.255|x3: 0.000|x4: 0.126|x5: 0.092|x6: 0.233|x7: 0.268|x8: 0.121|x9: 0.308|x10: 0.000|x11: 0.146|x12: 0.462|x13: 0.286|x14: 0.282|x15: 0.277|x16: 0.098|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.139|x8: 0.000|x9: 0.056|x10: 0.000|x11: 0.108|x12: 0.129|x13: 0.000|x14: 0.073|x15: 0.036|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.46]</t>
+          <t>[0.00, 0.03, 0.14]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[12, 9, 13, 14, 15, 7, 2, 6, 11, 4, 8, 1]</t>
+          <t>[7, 12, 11]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.46207039687486456, 0.3083247326429674, 0.2855365967497307, 0.2819871371778147, 0.2769903989420251, 0.2677090057874061, 0.25451552152978413, 0.23320878002609902, 0.14557943075995164, 0.12617607827041455, 0.12053968494981482, 0.10971254078108657]</t>
+          <t>[0.13937468273890674, 0.12923773993519785, 0.1082097762717469]</t>
         </is>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -686,7 +686,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>paper describes fruit counting pipeline based deep learning accurately count fruit unstructured environment obtaining reliable fruit count challenging variation appearance illumination change occlusion foliage neighboring fruit propose novel approach deep learning input image fruit count pipeline utilizes custom crowd sourcing platform quickly label large blob detector based fully convolutional network extract candidate region image counting algorithm based second convolutional network estimate number fruit region finally linear regression model fruit count estimate fruit count analyze performance pipeline distinct orange daylight green apple night utilizing human generated label ground truth pipeline short training time performs limited size method generalizes able perform highly occluded fruit challenging human labelers annotate</t>
+          <t>paper describes fruit counting pipeline based deep learning accurately count fruit unstructured environment obtaining reliable fruit count challenging variation appearance illumination change occlusion foliage neighboring fruit propose novel approach deep learning map input image fruit count pipeline utilizes custom crowd sourcing platform quickly label large set blob detector based fully convolutional network extract candidate region image counting algorithm based second convolutional network estimate number fruit region finally linear regression model map fruit count estimate fruit count analyze performance pipeline distinct set orange daylight green apple night utilizing human generated label ground truth pipeline ha short training time performs limited set size method generalizes set able perform highly occluded fruit challenging human labelers annotate</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -696,22 +696,22 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.243|x2: 0.093|x3: 0.000|x4: 0.365|x5: 0.092|x6: 0.104|x7: 0.227|x8: 0.264|x9: 0.126|x10: 0.077|x11: 0.462|x12: 0.156|x13: 0.295|x14: 0.198|x15: 0.135|x16: 0.157|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.177|x5: 0.203|x6: 0.298|x7: 0.334|x8: 0.000|x9: 0.185|x10: 0.000|x11: 0.635|x12: 0.277|x13: 0.000|x14: 0.000|x15: 0.135|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.46]</t>
+          <t>[0.00, 0.14, 0.63]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[11, 4, 13, 8, 1, 7, 14, 16, 12, 15, 9, 6]</t>
+          <t>[11, 7, 6, 12, 5, 9, 4, 15]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.462219098361613, 0.3646102982362627, 0.2945222083921363, 0.2639723993773803, 0.24263359545502106, 0.22719703864437638, 0.197657445516624, 0.15730536114909838, 0.15551973013555576, 0.13485674344653692, 0.12560287710851184, 0.10361472321347011]</t>
+          <t>[0.6347132626934252, 0.33448692655139467, 0.29771858038215665, 0.277106296597248, 0.20250882628401037, 0.18478664419179056, 0.17736659105138297, 0.1348221275036706]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -727,7 +727,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>recent deep learning algorithm convolutional neural network recurrent neural network generative adversarial network widely studied applied field including agriculture researcher field agriculture software framework sufficiently examining idea mechanism technique article provides concise summary major algorithm including concept limitation implementation training process example code help researcher agriculture gain holistic picture major technique quickly research application agriculture summarized analyzed future opportunity discussed paper expected help researcher agriculture better understand algorithm learn major technique quickly facilitate analysis enhance related research agriculture promote application effectively</t>
+          <t>recent deep learning algorithm convolutional neural network cnn recurrent neural network rnn generative adversarial network gan ha widely studied applied field including agriculture researcher field agriculture software framework sufficiently examining idea mechanism technique article provides concise summary major algorithm including concept limitation implementation training process example code help researcher agriculture gain holistic picture major technique quickly research application agriculture summarized analyzed future opportunity discussed paper expected help researcher agriculture better understand algorithm learn major technique quickly facilitate analysis enhance related research agriculture promote application effectively</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -737,29 +737,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>x1: 0.125|x2: 0.326|x3: 0.000|x4: 0.245|x5: 0.000|x6: 0.068|x7: 0.318|x8: 0.172|x9: 0.401|x10: 0.090|x11: 0.160|x12: 0.089|x13: 0.219|x14: 0.269|x15: 0.187|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.068|x5: 0.000|x6: 0.000|x7: 0.153|x8: 0.096|x9: 0.238|x10: 0.083|x11: 0.179|x12: 0.145|x13: 0.182|x14: 0.000|x15: 0.192|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.40]</t>
+          <t>[0.00, 0.08, 0.24]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[9, 2, 7, 14, 4, 13, 15, 16, 8, 11, 1]</t>
+          <t>[9, 15, 13, 11, 7, 12]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.4009846389759105, 0.32592675387118963, 0.31793084073304834, 0.26941171749456644, 0.24484866821322954, 0.21872016566787558, 0.18736025351954685, 0.18358710678990223, 0.17170712730622692, 0.15989997707622824, 0.12519603838135454]</t>
+          <t>[0.23846440885309886, 0.1924828913691132, 0.18182218723928298, 0.17912100211609722, 0.1534644200367067, 0.14467243118726525]</t>
         </is>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -768,7 +768,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>detection identification extreme weather event large scale climate simulation important problem risk management informing governmental policy decision advancing basic understanding climate recent work shown fully supervised convolutional neural network cnns yield acceptable accuracy classifying known type extreme weather event large labeled available different type spatially localized climate pattern including hurricane extra tropical cyclone weather blocking event existing labeled pattern incomplete covering certain geographic area having false negative type climate pose number interesting machine learning challenge present multichannel spatiotemporal architecture semi supervised bounding prediction exploratory analysis demonstrate approach able leverage temporal information unlabeled improve localization extreme weather event explore representation learned model order better understand important present dataset extremeweather encourage machine learning research area help facilitate work understanding mitigating effect climate change dataset available github code available http github eracah detect</t>
+          <t>detection identification extreme weather event large scale climate simulation important problem risk management informing governmental policy decision advancing basic understanding climate recent work ha shown fully supervised convolutional neural network cnns yield acceptable accuracy classifying known type extreme weather event large labeled available different type spatially localized climate pattern including hurricane extra tropical cyclone weather blocking event existing labeled pattern incomplete way covering certain geographic area having false negative type climate pose number interesting machine learning challenge present multichannel spatiotemporal cnn architecture semi supervised bounding box prediction exploratory analysis demonstrate approach able leverage temporal information unlabeled improve localization extreme weather event explore representation learned model order better understand important present dataset extremeweather encourage machine learning research area help facilitate work understanding mitigating effect climate change dataset available github code available http github com eracah hur detect</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -778,22 +778,22 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.162|x2: 0.127|x3: 0.000|x4: 0.183|x5: 0.156|x6: 0.086|x7: 0.142|x8: 0.169|x9: 0.184|x10: 0.000|x11: 0.111|x12: 0.177|x13: 0.291|x14: 0.340|x15: 0.099|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.118|x2: 0.199|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.188|x11: 0.068|x12: 0.000|x13: 0.153|x14: 0.157|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.34]</t>
+          <t>[0.00, 0.05, 0.20]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[14, 13, 9, 4, 12, 8, 1, 5, 7, 2, 11]</t>
+          <t>[2, 10, 14, 13, 1]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.3403699066702214, 0.2907731721754869, 0.18432592336554302, 0.1830484788959685, 0.1767470264205944, 0.16879020615228058, 0.1622436618846031, 0.15596094876550956, 0.1418787414259271, 0.12684512571288234, 0.11081842485674127]</t>
+          <t>[0.19926111478617098, 0.18765613843195297, 0.15657547360020382, 0.15276332636421255, 0.1184975054021234]</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -809,7 +809,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>study project future variability reference artificial intelligence method constructed extreme learning machine support vector regression mountainous inland watershed north west china global climate model output retrieved coupled model inter comparison project phase cmip employed downscale monthly historical period validation approach future period projection representative concentration pathway scenario following conclusion drawn method demonstrate good performance estimating food agriculture organization penman monteith variation future mainly occurs spring autumn season summer winter change moderately annually value shown increase rate approximately decade respectively near term projection term projection long term projection scenario compared historical period relative change approximately near long term period respectively warming scenario accordance analysis aver opportunity downscale monthly artificial intelligence useful practice water management policy</t>
+          <t>study aim project future variability reference artificial intelligence method constructed extreme learning machine elm support vector regression svr mountainous inland watershed north west china global climate model gcm output retrieved coupled model inter comparison project phase cmip employed downscale monthly historical period validation approach future period projection representative concentration pathway rcp scenario following conclusion drawn elm svr method demonstrate good performance estimating food agriculture organization fao penman monteith variation future mainly occurs spring autumn season summer winter change moderately annually value shown increase rate approximately decade respectively near term projection mid term projection long term projection rcp rcp scenario compared historical period relative change approximately near mid long term period respectively rcp rcp warming scenario accordance analysis aver opportunity downscale monthly artificial intelligence useful practice water management policy</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -819,22 +819,22 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.187|x2: 0.143|x3: 0.000|x4: 0.260|x5: 0.092|x6: 0.302|x7: 0.417|x8: 0.228|x9: 0.386|x10: 0.000|x11: 0.262|x12: 0.147|x13: 0.311|x14: 0.200|x15: 0.106|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.113|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.000|x8: 0.037|x9: 0.081|x10: 0.076|x11: 0.138|x12: 0.139|x13: 0.132|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.42]</t>
+          <t>[0.00, 0.05, 0.14]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[7, 9, 13, 6, 11, 4, 8, 14, 1, 12, 2, 15]</t>
+          <t>[12, 11, 13, 2]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.4166017358227773, 0.3861916494177911, 0.311394216084402, 0.3024133496101969, 0.26209607640750293, 0.25993756485221836, 0.22766658010239363, 0.20021426192413222, 0.18725857449373784, 0.14731512764299134, 0.1431734443582128, 0.10574947814542306]</t>
+          <t>[0.13941429857301793, 0.1382500848127017, 0.13150627219528663, 0.11257594236361114]</t>
         </is>
       </c>
       <c r="H10" t="b">
@@ -850,7 +850,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>paper examines remote sensing satellite predict food shortage different category household famine prone area normalized difference vegetation ndvi rainfall estimate derived multi spectral satellite radiometer image long predict crop yield famine overall prediction food insecurity area heterogeneous population directly predict sector society household risk work information household uganda collected method clustering household cluster decision boundary relevant improved specificity famine prediction easily classification result predicting food security status household level given different combination satellite demographic household category clustering method food security classification performance model demonstrates potential approach making prediction famine specific area demographic group</t>
+          <t>paper examines remote sensing satellite predict food shortage different category household famine prone area normalized difference vegetation ndvi rainfall estimate derived multi spectral satellite radiometer image ha long predict crop yield famine overall prediction food insecurity area heterogeneous population doe directly predict sector society household risk work information household uganda collected method clustering household way cluster decision boundary relevant improved specificity famine prediction easily classification result predicting food security status household level given different combination satellite demographic household category clustering method food security classification performance model demonstrates potential approach making prediction famine specific area demographic group</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -860,29 +860,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>x1: 0.208|x2: 0.219|x3: 0.126|x4: 0.187|x5: 0.174|x6: 0.000|x7: 0.331|x8: 0.239|x9: 0.074|x10: 0.079|x11: 0.267|x12: 0.208|x13: 0.182|x14: 0.172|x15: 0.164|x16: 0.162|x17: 0.000</t>
+          <t>x1: 0.153|x2: 0.077|x3: 0.000|x4: 0.094|x5: 0.172|x6: 0.000|x7: 0.165|x8: 0.000|x9: 0.000|x10: 0.126|x11: 0.183|x12: 0.000|x13: 0.000|x14: 0.157|x15: 0.108|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.33]</t>
+          <t>[0.00, 0.07, 0.18]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[7, 11, 8, 2, 1, 12, 4, 13, 5, 14, 15, 16, 3]</t>
+          <t>[11, 5, 7, 14, 1, 10, 15]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.33060793615973205, 0.26744886945583257, 0.238676032313461, 0.21855367241668924, 0.20813758246925826, 0.208123076578919, 0.18653068990757982, 0.18244078995124638, 0.1737417589880331, 0.17218607271734526, 0.16415714893603492, 0.16212328176592516, 0.1264549125773125]</t>
+          <t>[0.18289172748806112, 0.17174393678029065, 0.1650956772479849, 0.15660143363668888, 0.15304240711718195, 0.1261529697363328, 0.10788127799435901]</t>
         </is>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -891,7 +891,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>inadequacy spatial soil information limiting factor making evidence based decision improve food security land management developing country digital soil mapping technique applied world improve availability usability soil africa particularly tanzania scale necessary farm management decision kilombero valley identified intensified rice production valley lack detailed todate soil information decision making overall objective study develop predictive soil portion kilombero valley technique widely decision tree algorithm source digital elevation model dems evaluated predictive ability firstly numerical classification performed collected soil profile arrive soil taxon secondly derived taxon spatially predicted mapped following scorpan framework random forest machine learning algorithm datasets train model derived legacy soil rapideye satellite image dems srtm aster worlddem separate predictive model built source mapping showed sensitive training sampling result showed prediction soil taxon srtm worddem identical suggest algorithm freely available srtm combination mapping soil kilombero valley combination tested applied area relatively flat terrain like kilombero valley</t>
+          <t>inadequacy spatial soil information limiting factor making evidence based decision improve food security land management developing country digital soil mapping dsm technique applied world improve availability usability soil le ha africa particularly tanzania scale necessary farm management decision kilombero valley ha identified intensified rice production valley lack detailed todate soil information decision making overall objective study wa develop predictive soil map portion kilombero valley dsm technique widely decision tree algorithm source digital elevation model dems evaluated predictive ability firstly numerical classification wa performed collected soil profile arrive soil taxon secondly derived taxon spatially predicted mapped following scorpan framework random forest machine learning algorithm datasets train model derived legacy soil map rapideye satellite image dems arc srtm aster worlddem separate predictive model built dem source mapping showed wa le sensitive training set sampling result showed prediction soil taxon arc srtm worddem identical suggest algorithm freely available srtm dem combination mapping soil kilombero valley combination tested applied area relatively flat terrain like kilombero valley</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -901,29 +901,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.168|x2: 0.300|x3: 0.000|x4: 0.205|x5: 0.225|x6: 0.165|x7: 0.356|x8: 0.219|x9: 0.205|x10: 0.070|x11: 0.129|x12: 0.260|x13: 0.133|x14: 0.206|x15: 0.101|x16: 0.142|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.072|x3: 0.000|x4: 0.080|x5: 0.093|x6: 0.080|x7: 0.203|x8: 0.087|x9: 0.105|x10: 0.162|x11: 0.151|x12: 0.052|x13: 0.000|x14: 0.075|x15: 0.056|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.36]</t>
+          <t>[0.00, 0.07, 0.20]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[7, 2, 12, 5, 8, 14, 4, 9, 1, 6, 16, 13, 11, 15]</t>
+          <t>[7, 10, 11, 9]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.3564303526545258, 0.30033737502115526, 0.2597126177079975, 0.22501945247444285, 0.21897866976756133, 0.2056793517867838, 0.2050089507734979, 0.20474826541915736, 0.16826227776992622, 0.16491713773251349, 0.14237833957446008, 0.13280832318715055, 0.12878466484637588, 0.10107378348828239]</t>
+          <t>[0.20264547866711533, 0.16195322615127897, 0.1505120500309505, 0.10518277773936256]</t>
         </is>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -932,7 +932,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>smallholder production russia decline decade likelihood continued marginalization smallholder confront obstacle path dependency includes fact smallholder production remains traditional subsistence oriented second institution state policy restrict land animal russia role food regime mean smallholder unable help russia emergence global food superpower fourth smallholder left ongoing technological revolution agroholdings technological advancement expands scope large farm smallholder widen</t>
+          <t>smallholder production russia ha decline decade likelihood continued marginalization smallholder confront obstacle path dependency includes fact smallholder production remains traditional subsistence oriented second institution state policy restrict land animal russia role food regime mean smallholder unable help russia emergence global food superpower fourth smallholder left ongoing technological revolution led agroholdings technological advancement expands scope gap large farm smallholder widen</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -942,22 +942,22 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.346|x3: 0.219|x4: 0.220|x5: 0.104|x6: 0.000|x7: 0.191|x8: 0.104|x9: 0.137|x10: 0.000|x11: 0.142|x12: 0.000|x13: 0.180|x14: 0.332|x15: 0.240|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.293|x2: 0.134|x3: 0.000|x4: 0.227|x5: 0.000|x6: 0.000|x7: 0.090|x8: 0.080|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.059|x13: 0.172|x14: 0.200|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.35]</t>
+          <t>[0.00, 0.07, 0.29]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[2, 14, 15, 4, 3, 7, 13, 11, 9, 8, 5]</t>
+          <t>[1, 4, 14, 13, 2]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.3457247232715943, 0.332367027029738, 0.23975312539412397, 0.22042339313763587, 0.21874733474666966, 0.19051133654084515, 0.1795580309810016, 0.14228845922035094, 0.1368001381555393, 0.10374111601718951, 0.10369290056981983]</t>
+          <t>[0.2931257815742697, 0.22664856755792942, 0.19958840948938839, 0.17177813256871452, 0.1337485161468289]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -973,7 +973,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>crop disease major threat food security rapid identification remains difficult world lack necessary infrastructure combination increasing global smartphone penetration recent advance vision possible deep learning paved smartphone assisted disease diagnosis public dataset image diseased healthy plant leaf collected controlled condition train deep convolutional neural network identify crop specie disease absence thereof trained model achieves accuracy held test demonstrating feasibility approach overall approach training deep learning model increasingly large publicly available image datasets present clear path smartphone assisted crop disease diagnosis massive global scale</t>
+          <t>crop disease major threat food security rapid identification remains difficult world lack necessary infrastructure combination increasing global smartphone penetration recent advance vision possible deep learning ha paved way smartphone assisted disease diagnosis public dataset image diseased healthy plant leaf collected controlled condition train deep convolutional neural network identify crop specie disease absence thereof trained model achieves accuracy held test set demonstrating feasibility approach overall approach training deep learning model increasingly large publicly available image datasets present clear path smartphone assisted crop disease diagnosis massive global scale</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -983,22 +983,22 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>x1: 0.155|x2: 0.000|x3: 0.188|x4: 0.461|x5: 0.174|x6: 0.384|x7: 0.494|x8: 0.224|x9: 0.411|x10: 0.079|x11: 0.479|x12: 0.000|x13: 0.171|x14: 0.179|x15: 0.233|x16: 0.161|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.103|x4: 0.082|x5: 0.078|x6: 0.202|x7: 0.193|x8: 0.000|x9: 0.102|x10: 0.000|x11: 0.215|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[0.00, 0.22, 0.49]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[7, 11, 4, 9, 6, 15, 8, 3, 14, 5, 13, 16, 1]</t>
+          <t>[11, 6, 7, 3, 9]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.4942613467901716, 0.47883798747167317, 0.46053248641880073, 0.41107649314696426, 0.38433030545055047, 0.23346551216039663, 0.2240411406240233, 0.18825846749520359, 0.1793027703716831, 0.17448348250933263, 0.17085145650012631, 0.1610905954581016, 0.15492718591856713]</t>
+          <t>[0.21490257421584005, 0.2016243943819962, 0.19302319987000882, 0.1034427089546579, 0.10244512230987095]</t>
         </is>
       </c>
       <c r="H14" t="b">
@@ -1014,7 +1014,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>paper present automatic traffic surveillance estimate important traffic parameter video sequence camera different traditional method classify vehicle proposed method good capability categorize specific class linearity feature addition order reduce occlusion vehicle automatic scheme detecting lane dividing proposed lane dividing occlusion vehicle reduced normalization scheme developed tackling problem feature size variation vehicle feature extracted optimal classifier designed robustly categorize vehicle different class shadow occlusion noise exist designed classifier collect different evidence database verified vehicle better decision enhance robustness accuracy classification experimental result proposed method robust powerful traditional method</t>
+          <t>paper present automatic traffic surveillance estimate important traffic parameter video sequence camera different traditional method classify vehicle car car proposed method ha good capability categorize car specific class new linearity feature addition order reduce occlusion vehicle automatic scheme detecting lane dividing proposed lane dividing occlusion vehicle reduced normalization scheme developed tackling problem feature size variation vehicle feature extracted optimal classifier designed robustly categorize vehicle different class shadow occlusion noise exist designed classifier collect different evidence database verified vehicle better decision enhance robustness accuracy classification experimental result proposed method robust powerful traditional method</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1024,22 +1024,22 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>x1: 0.133|x2: 0.184|x3: 0.385|x4: 0.164|x5: 0.000|x6: 0.105|x7: 0.231|x8: 0.179|x9: 0.126|x10: 0.094|x11: 0.064|x12: 0.302|x13: 0.059|x14: 0.000|x15: 0.245|x16: 0.193|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.152|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.434|x8: 0.099|x9: 0.000|x10: 0.142|x11: 0.000|x12: 0.264|x13: 0.259|x14: 0.000|x15: 0.000|x16: 0.266|x17: 0.000</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.39]</t>
+          <t>[0.00, 0.10, 0.43]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[3, 12, 15, 7, 16, 2, 8, 4, 1, 9, 6]</t>
+          <t>[7, 16, 12, 13, 3, 10]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.3851162999694396, 0.3019804558381369, 0.2453473282883306, 0.23083418455727142, 0.19301105823564985, 0.18404311489654657, 0.17862913433933264, 0.16440824681265398, 0.13274555599938703, 0.12573308183861684, 0.10475417176598543]</t>
+          <t>[0.43364122942066863, 0.26563992869602204, 0.26402621367685847, 0.25916402572022934, 0.1523647902115716, 0.14201637926850388]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>significant advance smart decision support development influenced important result pregnancy care considering effort reduce number woman death problem related pregnancy decrease presented impact area human development hypertensive disorder pregnancy particularly eclampsia eclampsia account significant proportion perinatal morbidity maternal mortality context paper proposes inference model mining technique capable operating extract pattern assist knowledge discovery identifying hypertensive crisis complicate pregnancy impact meaningful reduction incidence sequela death pregnant woman comparison bayesian classifier performed work better classify hypertensive disorder severity result showed naive bayes classifier excellent performance presenting better precision measure compared experimented classifier finding good performance predict hypertensive disorder bayesian method need evaluated technique based artificial intelligence tree based method</t>
+          <t>significant advance smart decision support ds development influenced important result pregnancy care considering effort reduce number woman death problem related pregnancy decrease presented le impact area human development hypertensive disorder pregnancy particularly pre eclampsia eclampsia account significant proportion perinatal morbidity maternal mortality context paper proposes inference model mining technique capable operating set extract pattern assist knowledge discovery identifying hypertensive crisis complicate pregnancy impact meaningful reduction incidence sequela death pregnant woman comparison bayesian classifier performed work better classify hypertensive disorder severity result showed naive bayes classifier excellent performance presenting better precision measure compared experimented classifier finding good performance predict hypertensive disorder bayesian method need evaluated technique based artificial intelligence tree based method</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1065,29 +1065,29 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.081|x2: 0.090|x3: 0.231|x4: 0.000|x5: 0.157|x6: 0.132|x7: 0.183|x8: 0.046|x9: 0.000|x10: 0.000|x11: 0.050|x12: 0.066|x13: 0.199|x14: 0.171|x15: 0.058|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.099|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.090|x8: 0.000|x9: 0.060|x10: 0.000|x11: 0.065|x12: 0.122|x13: 0.102|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.23]</t>
+          <t>[0.00, 0.04, 0.12]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[3, 13, 7, 14, 5, 6]</t>
+          <t>[12, 13]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.23121288753398694, 0.19880310085533787, 0.18291423539063403, 0.17084958952305135, 0.15688217395387713, 0.13237164467748141]</t>
+          <t>[0.12153776030861407, 0.10195157541123813]</t>
         </is>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>increase throughput installed base biomedical research equipment massive accumulation omics known highly variable dimensional sourced multiple incompatible platform useful biomarker identification drug discovery bulk remains underutilized deep neural network dnns efficient algorithm based compositional layer neuron advantage matched challenge omics present achieving state result surpassing human accuracy challenging task adoption deep learning biomedicine comparatively slow discus feature deep learning approach edge machine learning method consider limitation review number application deep learning biomedical study demonstrating proof concept practical utility</t>
+          <t>increase throughput installed base biomedical research equipment led massive accumulation omics known highly variable dimensional sourced multiple incompatible platform useful biomarker identification drug discovery bulk remains underutilized deep neural network dnns efficient algorithm based compositional layer neuron advantage matched challenge omics present achieving state art result surpassing human accuracy challenging task adoption deep learning biomedicine ha comparatively slow discus feature deep learning approach edge machine learning method consider limitation review number application deep learning biomedical study demonstrating proof concept practical utility</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1106,22 +1106,22 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>x1: 0.195|x2: 0.000|x3: 0.247|x4: 0.462|x5: 0.436|x6: 0.258|x7: 0.441|x8: 0.285|x9: 0.310|x10: 0.150|x11: 0.159|x12: 0.141|x13: 0.076|x14: 0.340|x15: 0.154|x16: 0.306|x17: 0.000</t>
+          <t>x1: 0.121|x2: 0.000|x3: 0.113|x4: 0.192|x5: 0.062|x6: 0.053|x7: 0.257|x8: 0.057|x9: 0.060|x10: 0.000|x11: 0.000|x12: 0.210|x13: 0.119|x14: 0.000|x15: 0.077|x16: 0.051|x17: 0.000</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[0.00, 0.23, 0.46]</t>
+          <t>[0.00, 0.08, 0.26]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[4, 7, 5, 14, 9, 16, 8, 6, 3, 1, 11, 15, 10, 12]</t>
+          <t>[7, 12, 4, 1, 13, 3]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0.46193381772761877, 0.4414524152436265, 0.4361628368365892, 0.3402286077451048, 0.3097577747144662, 0.3062504242307567, 0.2849007058113053, 0.2577582821217616, 0.24717880107215875, 0.19537646632431693, 0.15940245366856237, 0.1539989180532034, 0.14955511041709646, 0.14149653504393625]</t>
+          <t>[0.2569640787700494, 0.21031347227530311, 0.1918251287463793, 0.12083338959038316, 0.11893759950912872, 0.11312682503160083]</t>
         </is>
       </c>
       <c r="H17" t="b">
@@ -1137,7 +1137,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>fuzzy logic control developed hamburg university applied science hamburg operation biogas reactor running energy crop commercially available measuring parameter methane content specific production rate spec included objective avoid stabilization buffering supplement like lime manure developed cover application careful start process gentle recovery strategy severe reactor failure enabling process organic loading rate hydraulic retention time throughput anaerobic digestion process stable content precondition load process concept interval feeding example interval proved reliable long term fermentation study stage completely stirred tank reactor cstr acidic beet silage mono input fermentation fodder beet silage stable volumetric reached enabled automatic recovery digester induced severe reactor failure attempt prove feasibility substrate changed sugar beet silage substantially buffering capacity accomplished stable fermentation level volatile fatty acid level interact change substrate dosage permanently experiment reactor temperature concomitantly specific dropped finally automatically enabled complete recovery</t>
+          <t>fuzzy logic control flc wa developed hamburg university applied science haw hamburg operation biogas reactor running energy crop commercially available measuring parameter methane content specific gas production rate spec gpr included objective wa avoid stabilization buffering supplement like lime manure developed flc cover application careful start process gentle recovery strategy severe reactor failure enabling process organic loading rate olr low hydraulic retention time hrt throughput anaerobic digestion process stable content precondition load process wa concept interval feeding example interval flc wa proved reliable long term fermentation study stage completely stirred tank reactor cstr acidic beet silage mono input fermentation fodder beet silage fbs stable hrt olr volumetric gpr reached flc enabled automatic recovery digester induced severe reactor failure attempt prove feasibility flc substrate fbs wa changed sugar beet silage sb substantially buffering capacity fbs sb flc accomplished stable fermentation level volatile fatty acid level vfa flc interact change substrate dosage permanently experiment reactor temperature wa concomitantly specific gpr dropped finally flc automatically enabled complete recovery</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1147,22 +1147,22 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>x1: 0.085|x2: 0.217|x3: 0.000|x4: 0.256|x5: 0.098|x6: 0.059|x7: 0.184|x8: 0.069|x9: 0.081|x10: 0.085|x11: 0.124|x12: 0.304|x13: 0.219|x14: 0.215|x15: 0.151|x16: 0.174|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.063|x3: 0.000|x4: 0.047|x5: 0.000|x6: 0.000|x7: 0.191|x8: 0.050|x9: 0.079|x10: 0.000|x11: 0.000|x12: 0.249|x13: 0.101|x14: 0.114|x15: 0.048|x16: 0.046|x17: 0.000</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.30]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>[12, 4, 13, 2, 14, 7, 16, 15, 11]</t>
+          <t>[12, 7, 14, 13]</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0.3041499472000997, 0.2562111992148797, 0.21861321319702795, 0.21712220698136855, 0.21516157998146954, 0.18370988239773853, 0.1738539696660137, 0.15106472926663575, 0.12416774198206589]</t>
+          <t>[0.24895629738823016, 0.19108121410091145, 0.11411018393431292, 0.10109805718817427]</t>
         </is>
       </c>
       <c r="H18" t="b">
@@ -1178,7 +1178,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>intuitionistic fuzzy ifss generalization fuzzy adding additional attribute parameter called membership degree paper intuitionistic fuzzy hopfield neural network ifhnn proposed combining ifss hopfield neural network stability ifhnn investigated shown given weight matrix given initial intuitionistic fuzzy pattern iteration process ifhnn converges limit cycle furthermore suitable extra condition converges stable point finite iteration finally kind lyapunov stability stable point ifhnn proved mean initial state network close stable point network state remain neighborhood stable point stability result indicate convergence memory process ifhnn numerical example provided effectiveness lyapunov stability ifhnn</t>
+          <t>intuitionistic fuzzy set ifss generalization fuzzy set adding additional attribute parameter called membership degree paper max min intuitionistic fuzzy hopfield neural network ifhnn proposed combining ifss hopfield neural network stability ifhnn investigated shown given weight matrix given initial intuitionistic fuzzy pattern iteration process ifhnn converges limit cycle furthermore suitable extra condition converges stable point finite iteration finally kind lyapunov stability stable point ifhnn proved mean initial state network close stable point network state remain neighborhood stable point stability result indicate convergence memory process ifhnn numerical example provided effectiveness lyapunov stability ifhnn</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1188,29 +1188,29 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>x1: 0.133|x2: 0.055|x3: 0.254|x4: 0.281|x5: 0.000|x6: 0.000|x7: 0.070|x8: 0.144|x9: 0.352|x10: 0.000|x11: 0.256|x12: 0.287|x13: 0.338|x14: 0.225|x15: 0.152|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.100|x3: 0.000|x4: 0.207|x5: 0.000|x6: 0.085|x7: 0.160|x8: 0.097|x9: 0.176|x10: 0.169|x11: 0.153|x12: 0.000|x13: 0.336|x14: 0.000|x15: 0.134|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.35]</t>
+          <t>[0.00, 0.10, 0.34]</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>[9, 13, 12, 4, 11, 3, 14, 15, 8, 1]</t>
+          <t>[13, 4, 9, 10, 7, 11, 15, 2]</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.35240777660493344, 0.3384333447177215, 0.28748192561943625, 0.28106135007043215, 0.2555574103879102, 0.2536033779307936, 0.22472427616526316, 0.1520517630573833, 0.14422037484978303, 0.13261106334249373]</t>
+          <t>[0.3362654523417955, 0.20718495856202213, 0.17584598359103304, 0.1691120223612876, 0.16044309435797605, 0.1531231250578407, 0.1340883740064488, 0.10012611381106963]</t>
         </is>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1229,29 +1229,29 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>x1: 0.140|x2: 0.239|x3: 0.000|x4: 0.174|x5: 0.099|x6: 0.307|x7: 0.292|x8: 0.106|x9: 0.207|x10: 0.051|x11: 0.274|x12: 0.505|x13: 0.439|x14: 0.298|x15: 0.354|x16: 0.104|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.030|x7: 0.095|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.074|x12: 0.114|x13: 0.161|x14: 0.094|x15: 0.062|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.50]</t>
+          <t>[0.00, 0.04, 0.16]</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>[12, 13, 15, 6, 14, 7, 11, 2, 9, 4, 1, 8, 16]</t>
+          <t>[13, 12]</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[0.5049326215609028, 0.4389495167186454, 0.354469603477439, 0.3073989432963187, 0.29841180368060166, 0.29206727870728644, 0.2741465930241769, 0.23880224237189812, 0.20746832465827186, 0.17402610524214082, 0.13981922761036494, 0.10630262544284479, 0.10425763700782871]</t>
+          <t>[0.16139825039009026, 0.11403493653565916]</t>
         </is>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
       <c r="I20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>work aided tool detection developed segment breast mass clinical ultrasound scan underlying multi algorithm based convolutional neural network mayo clinic institutional review board protocol prospective study automatic segmentation suspicious breast mass performed cohort consisted female patient clinically identified suspicious breast mass underwent clinical scan breast biopsy aided detection tool effectively segmented breast mass achieving mean dice coefficient true positive fraction false positive fraction avoiding positioning initial seed algorithm able segment image time image potential clinical application algorithm conventional seeded algorithm mean dice coefficient performs significantly better original algorithm</t>
+          <t>work aided tool detection wa developed segment breast mass clinical ultrasound scan underlying multi net algorithm based convolutional neural network mayo clinic institutional review board protocol prospective study automatic segmentation suspicious breast mass wa performed cohort consisted female patient clinically identified suspicious breast mass underwent clinical scan breast biopsy aided detection tool effectively segmented breast mass achieving mean dice coefficient true positive fraction tpf false positive fraction fpf avoiding positioning initial seed algorithm able segment image time image potential clinical application algorithm par conventional seeded algorithm mean dice coefficient performs significantly better original net algorithm</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1270,22 +1270,22 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>x1: 0.183|x2: 0.000|x3: 0.422|x4: 0.332|x5: 0.246|x6: 0.000|x7: 0.204|x8: 0.132|x9: 0.000|x10: 0.094|x11: 0.186|x12: 0.151|x13: 0.440|x14: 0.179|x15: 0.194|x16: 0.193|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.171|x4: 0.000|x5: 0.054|x6: 0.076|x7: 0.115|x8: 0.000|x9: 0.075|x10: 0.106|x11: 0.111|x12: 0.061|x13: 0.333|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.44]</t>
+          <t>[0.00, 0.06, 0.33]</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>[13, 3, 4, 5, 7, 15, 16, 11, 1, 14, 12, 8]</t>
+          <t>[13, 3, 7, 11, 10]</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.4404225430377008, 0.4222737090597828, 0.33151761850473005, 0.24649665009621405, 0.20425275653440073, 0.19377254758421547, 0.19253528844889573, 0.18593615441553227, 0.18333117459679324, 0.17927580171180793, 0.15148904115781336, 0.13230779259601902]</t>
+          <t>[0.3334893657587324, 0.17089288008188813, 0.1147304118206118, 0.11104800206296328, 0.10610254948397234]</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>coronary artery calcification strong independent predictor cardiovascular event clinically quantified cardiac calcium scoring csct shown cardiac angiography ccta purpose present method automatic quantification ccta method supervised learning directly identify quantify need coronary artery extraction commonly existing method</t>
+          <t>coronary artery calcification cac strong independent predictor cardiovascular event cac clinically quantified cardiac calcium scoring csct ha shown cardiac angiography ccta purpose present method automatic cac quantification ccta method supervised learning directly identify quantify cac need coronary artery extraction commonly existing method</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1311,22 +1311,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.096|x2: 0.086|x3: 0.127|x4: 0.420|x5: 0.188|x6: 0.147|x7: 0.113|x8: 0.100|x9: 0.315|x10: 0.179|x11: 0.211|x12: 0.161|x13: 0.298|x14: 0.244|x15: 0.160|x16: 0.366|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.156|x4: 0.140|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.000|x9: 0.066|x10: 0.000|x11: 0.000|x12: 0.191|x13: 0.216|x14: 0.143|x15: 0.054|x16: 0.107|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.42]</t>
+          <t>[0.00, 0.07, 0.22]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>[4, 16, 9, 13, 14, 11, 5, 10, 12, 15, 6, 3, 7, 8]</t>
+          <t>[13, 12, 3, 14, 4, 16]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.4198289129890484, 0.36595661032033805, 0.3150560503777153, 0.2979132094738232, 0.2444344518767767, 0.21119620968138092, 0.18838824968194884, 0.1787121810583533, 0.1606729259602243, 0.15970410486987677, 0.14731793625660863, 0.12667940712012773, 0.11254235939083294, 0.1004228578211696]</t>
+          <t>[0.21575178362338177, 0.19074582376634303, 0.15560450037668502, 0.14330365420501984, 0.14004271072050078, 0.10734798496144016]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>automatic license plate recognition play important role numerous application number technique proposed worked restricted condition fixed illumination limited vehicle speed designated route stationary background study constraint possible working environment considered proposed technique consists main module license plate locating module license number identification module characterized fuzzy discipline attempt extract license plate input image conceptualized term neural subject identify number present license plate experiment conducted respective module experiment locating license plate image taken scene different condition employed image failed locate license plate present image license plate location rate success experiment identifying license number image license plate successfully located image failed identify number license plate located image identification rate success combining rate overall rate success algorithm</t>
+          <t>automatic license plate recognition lpr play important role numerous application number technique proposed worked restricted condition fixed illumination limited vehicle speed designated route stationary background study constraint possible working environment considered proposed lpr technique consists main module license plate locating module license number identification module characterized fuzzy discipline attempt extract license plate input image conceptualized term neural subject aim identify number present license plate experiment conducted respective module experiment locating license plate image taken scene different condition employed image failed locate license plate present image license plate location rate success experiment identifying license number image license plate successfully located image failed identify number license plate located image identification rate success combining rate overall rate success lpr algorithm</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1352,29 +1352,29 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>x1: 0.147|x2: 0.259|x3: 0.286|x4: 0.195|x5: 0.202|x6: 0.101|x7: 0.081|x8: 0.154|x9: 0.000|x10: 0.134|x11: 0.216|x12: 0.000|x13: 0.138|x14: 0.332|x15: 0.182|x16: 0.275|x17: 0.000</t>
+          <t>x1: 0.052|x2: 0.054|x3: 0.077|x4: 0.306|x5: 0.151|x6: 0.000|x7: 0.259|x8: 0.099|x9: 0.128|x10: 0.119|x11: 0.067|x12: 0.000|x13: 0.000|x14: 0.146|x15: 0.000|x16: 0.204|x17: 0.000</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.33]</t>
+          <t>[0.00, 0.10, 0.31]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>[14, 3, 16, 2, 11, 5, 4, 15, 8, 1, 13, 10, 6]</t>
+          <t>[4, 7, 16, 5, 14, 9, 10]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.3315112921346628, 0.2860988605755836, 0.27512689106303323, 0.2590987441981529, 0.21591259767096152, 0.20220325280393758, 0.19529334907197102, 0.18160923246637753, 0.15425998541303615, 0.1470992029745219, 0.13843030107866525, 0.13435616513837326, 0.10119459679213548]</t>
+          <t>[0.3064412547857989, 0.2587608435132903, 0.20390123303704713, 0.15073330226926288, 0.146078167815543, 0.12787676747716922, 0.11890242196222267]</t>
         </is>
       </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1383,7 +1383,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>perception design vital step development autonomous vehicle vast selection available shelf scheme seemingly endless option sensor implemented research commercial vehicle difficult identify optimal application article present comprehensive review state perception technology available today provides date information advantage disadvantage limit ideal application specific sensor prevalent sensor current research commercial autonomous feature currently market localization mapping method currently implemented research information useful newcomer field gain greater understanding current solution landscape guide experienced researcher research area requiring development furthermore paper highlight future research area draw conclusion effective method perception effect localization mapping topic discussed perception automotive sensor section focus sensor topic discussed localization mapping section focus vehicle perceives road providing context automotive sensor improving current state perception robust reliable safe accessible ultimately providing greater efficiency mobility safety benefit public</t>
+          <t>perception design vital step development autonomous vehicle vast selection available shelf scheme seemingly endless option sensor implemented research commercial vehicle difficult identify optimal application article present comprehensive review state art perception technology available today provides date information advantage disadvantage limit ideal application specific sensor prevalent sensor current research commercial av autonomous feature currently market localization mapping method currently implemented research information useful newcomer field gain greater understanding current solution landscape guide experienced researcher research area requiring development furthermore paper highlight future research area draw conclusion effective method perception effect localization mapping topic discussed perception automotive sensor section focus sensor topic discussed localization mapping section focus vehicle perceives road providing context automotive sensor improving current state art perception av robust reliable safe accessible ultimately providing greater efficiency mobility safety benefit public</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1393,22 +1393,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>x1: 0.137|x2: 0.366|x3: 0.052|x4: 0.166|x5: 0.206|x6: 0.166|x7: 0.176|x8: 0.179|x9: 0.320|x10: 0.095|x11: 0.164|x12: 0.251|x13: 0.203|x14: 0.369|x15: 0.177|x16: 0.194|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.000|x3: 0.000|x4: 0.170|x5: 0.055|x6: 0.065|x7: 0.195|x8: 0.000|x9: 0.000|x10: 0.197|x11: 0.120|x12: 0.000|x13: 0.121|x14: 0.152|x15: 0.000|x16: 0.056|x17: 0.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.37]</t>
+          <t>[0.00, 0.08, 0.20]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>[14, 2, 9, 12, 5, 13, 16, 8, 15, 7, 6, 4, 11, 1]</t>
+          <t>[10, 7, 4, 14, 1, 13, 11]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[0.369112298278044, 0.3663689906086794, 0.32015598724593525, 0.2509282649127657, 0.20579874205372833, 0.2026047311858922, 0.19364743525580758, 0.1786602027774208, 0.17733590272763844, 0.1757637476285298, 0.16589807532514617, 0.1656888399944319, 0.1641448447297343, 0.13701909328744177]</t>
+          <t>[0.19719250200274563, 0.19496391031066584, 0.1704943278573634, 0.15161208400821724, 0.14780712597538825, 0.12139634317517799, 0.11983631260260366]</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -1424,7 +1424,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>life depression seventh competition event aimed comparison multimedia processing machine learning method automatic audiovisual depression emotion analysis participant competing strictly condition goal challenge provide common benchmark test multimodal information processing bring depression emotion recognition community audiovisual processing community compare relative merit approach depression emotion recognition life paper present novelty introduced challenge guideline performance baseline proposed task dimensional emotion recognition time value continuous dimensional depression estimation value continuous</t>
+          <t>life depression ect seventh competition event aimed comparison multimedia processing machine learning method automatic audiovisual depression emotion analysis participant competing strictly condition goal challenge provide common benchmark test set multimodal information processing bring depression emotion recognition community audiovisual processing community compare relative merit approach depression emotion recognition life paper present novelty introduced challenge guideline performance baseline proposed task dimensional emotion recognition time value continuous dimensional depression estimation value continuous</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1434,22 +1434,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.127|x2: 0.352|x3: 0.429|x4: 0.344|x5: 0.152|x6: 0.307|x7: 0.140|x8: 0.227|x9: 0.193|x10: 0.074|x11: 0.188|x12: 0.000|x13: 0.000|x14: 0.173|x15: 0.000|x16: 0.153|x17: 0.000</t>
+          <t>x1: 0.223|x2: 0.131|x3: 0.229|x4: 0.000|x5: 0.000|x6: 0.297|x7: 0.000|x8: 0.184|x9: 0.137|x10: 0.000|x11: 0.153|x12: 0.141|x13: 0.078|x14: 0.150|x15: 0.000|x16: 0.077|x17: 0.000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.43]</t>
+          <t>[0.00, 0.11, 0.30]</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>[3, 2, 4, 6, 8, 9, 11, 14, 16, 5, 7, 1]</t>
+          <t>[6, 3, 1, 8, 11, 14, 12, 9, 2]</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.42908903575587437, 0.3519301208733941, 0.3442036190189045, 0.30745440494704146, 0.22681910061111793, 0.1933038878050119, 0.18819473973055226, 0.1730725034354038, 0.15251606656141475, 0.15170585601284206, 0.14014808443425342, 0.12699710450076107]</t>
+          <t>[0.29675504684182796, 0.22903358025388637, 0.22310625312191643, 0.18371257880418218, 0.1534692775788764, 0.14971353000306786, 0.14122654620309166, 0.13724795828605832, 0.1308926670929242]</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mimo multiple input multiple output fuzzy logic based model developed predict biogas methane production rate pilot scale mesophilic flow anaerobic sludge blanket uasb reactor treating molasses wastewater input variable volumetric organic loading rate volumetric chemical oxygen demand tcod removal rate influent alkalinity influent effluent fuzzified artificial intelligence based approach trapezoidal membership function level conducted fuzzy subset mamdani type fuzzy inference implement rule format product prod centre gravity centroid method employed inference operator defuzzification method respectively fuzzy logic predicted result compared output exponential linear regression model derived study uasb reactor showed remarkable performance treatment molasses wastewater tcod removal efficiency volumetric tcod removal rate tcod removed respectively finding study clearly indicated compared linear regression model proposed mimo fuzzy logic based model produced smaller deviation exhibited superior predictive performance forecasting biogas methane production rate satisfactory determination coefficient</t>
+          <t>mimo multiple input multiple output fuzzy logic based model wa developed predict biogas methane production rate pilot scale mesophilic flow anaerobic sludge blanket uasb reactor treating molasses wastewater input variable volumetric organic loading rate olr volumetric chemical oxygen demand tcod removal rate influent alkalinity influent effluent fuzzified artificial intelligence based approach trapezoidal membership function level conducted fuzzy subset mamdani type fuzzy inference wa implement rule format product prod centre gravity cog centroid method employed inference operator defuzzification method respectively fuzzy logic predicted result compared output exponential linear regression model derived study uasb reactor showed remarkable performance treatment molasses wastewater tcod removal efficiency volumetric tcod removal rate tcod removed respectively finding study clearly indicated compared linear regression model proposed mimo fuzzy logic based model produced smaller deviation exhibited superior predictive performance forecasting biogas methane production rate satisfactory determination coefficient</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1475,29 +1475,29 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>x1: 0.107|x2: 0.225|x3: 0.157|x4: 0.105|x5: 0.196|x6: 0.248|x7: 0.410|x8: 0.195|x9: 0.177|x10: 0.073|x11: 0.176|x12: 0.190|x13: 0.000|x14: 0.230|x15: 0.000|x16: 0.150|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.063|x4: 0.055|x5: 0.000|x6: 0.075|x7: 0.314|x8: 0.000|x9: 0.252|x10: 0.084|x11: 0.000|x12: 0.245|x13: 0.133|x14: 0.116|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.41]</t>
+          <t>[0.00, 0.08, 0.31]</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>[7, 6, 14, 2, 5, 8, 12, 9, 11, 3, 16, 1, 4]</t>
+          <t>[7, 9, 12, 13, 14]</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.4095610516311563, 0.24808186302386942, 0.2301618604074661, 0.2253250813292387, 0.19594860572622638, 0.19475269443438484, 0.18999054870525572, 0.17665260287720796, 0.17551830333280108, 0.15681780508695475, 0.15000308076822041, 0.10672431186937044, 0.10473024454411625]</t>
+          <t>[0.31444625362246226, 0.25178370070674577, 0.24545874540802676, 0.13284379338559216, 0.11581927347309336]</t>
         </is>
       </c>
       <c r="H26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1506,7 +1506,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>fuzzy logic model developed simulate effect leachate recirculation sludge addition biogas generation anaerobic bioreactor landfill model designed fuzzy logic incorporated input variable time leachate recirculation sludge addition single manipulated output biogas generation rate biogas production rate measured experiment increasing proportionally rate leachate recirculation sludge addition experimental work involved operation simulated laboratory scale bioreactors different operating scheme experimental result employed formulating fuzzy rule base calibrating model verifying prediction model validated measured compiled published study model simulation demonstrated correlation experimental observation</t>
+          <t>fuzzy logic model wa developed simulate effect leachate recirculation sludge addition biogas generation anaerobic bioreactor landfill model wa designed fuzzy logic fl incorporated input variable time leachate recirculation sludge addition single manipulated output biogas generation rate biogas production rate wa measured experiment wa increasing proportionally rate leachate recirculation sludge addition experimental work involved operation simulated laboratory scale bioreactors different operating scheme experimental result employed formulating fuzzy rule base calibrating model verifying prediction model wa validated measured wa compiled published study fl model simulation demonstrated correlation experimental observation</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1516,26 +1516,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>x1: 0.159|x2: 0.146|x3: 0.000|x4: 0.259|x5: 0.259|x6: 0.280|x7: 0.683|x8: 0.209|x9: 0.411|x10: 0.058|x11: 0.137|x12: 0.534|x13: 0.250|x14: 0.196|x15: 0.197|x16: 0.119|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.110|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.501|x8: 0.169|x9: 0.281|x10: 0.000|x11: 0.174|x12: 0.248|x13: 0.191|x14: 0.122|x15: 0.000|x16: 0.135|x17: 0.000</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[0.00, 0.23, 0.68]</t>
+          <t>[0.00, 0.11, 0.50]</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>[7, 12, 9, 6, 5, 4, 13, 8, 15, 14, 1, 2, 11, 16]</t>
+          <t>[7, 9, 12, 13, 11, 8, 16, 14, 3]</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[0.6828015191430186, 0.5340947523597689, 0.4109176276122763, 0.2799901554543109, 0.2586235318235481, 0.25854973023895517, 0.2504802224321944, 0.20918081105493183, 0.1974591722029979, 0.19630189020319136, 0.15867129412421335, 0.14550330807083678, 0.13682934162518612, 0.11926465152674781]</t>
+          <t>[0.5012389128296757, 0.2811158471376203, 0.24808301863484955, 0.19134170486843394, 0.17404701676147094, 0.16915205663215213, 0.1353316926699688, 0.12163793935375772, 0.1104419998611991]</t>
         </is>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" t="b">
         <v>1</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>hypertension main cause maternal death preeclampsia affect pregnant woman pregnancy identification patient higher risk preeclampsia allows precaution taken prevent severe disease subsequent complication medicine different situation deal large range information need thorough assessment able help expert decision making process smart decision support allow grouping existing information finding pertinent information bayesian network offer model allow information capture handle situation uncertainty paper proposes construction support intelligent decision applied diagnosis preeclampsia bayesian network help expert pregnant care process qualitative quantitative modeling construction network presented main contribution work includes presentation bayesian network built help decision maker moment uncertainty care pregnant woman</t>
+          <t>hypertension main cause maternal death preeclampsia affect pregnant woman pregnancy identification patient higher risk preeclampsia allows precaution taken prevent severe disease subsequent complication medicine different situation deal large range information need thorough assessment able help expert decision making process smart decision support allow grouping existing information finding pertinent information bayesian network offer model allow information capture handle situation uncertainty paper proposes construction support intelligent decision applied diagnosis preeclampsia bayesian network help expert pregnants care process qualitative quantitative modeling construction network presented main contribution work includes presentation bayesian network built help decision maker moment uncertainty care pregnant woman</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1557,22 +1557,22 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>x1: 0.103|x2: 0.302|x3: 0.000|x4: 0.220|x5: 0.088|x6: 0.075|x7: 0.214|x8: 0.101|x9: 0.071|x10: 0.000|x11: 0.092|x12: 0.231|x13: 0.180|x14: 0.000|x15: 0.000|x16: 0.089|x17: 0.000</t>
+          <t>x1: 0.076|x2: 0.110|x3: 0.000|x4: 0.000|x5: 0.033|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.046|x11: 0.092|x12: 0.076|x13: 0.122|x14: 0.050|x15: 0.000|x16: 0.106|x17: 0.000</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.30]</t>
+          <t>[0.00, 0.04, 0.12]</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>[2, 12, 4, 7, 13, 1, 8]</t>
+          <t>[13, 2, 16]</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.30205876906874796, 0.23111980761210751, 0.22021081084208405, 0.21365033374577375, 0.18040683846175096, 0.10264271731301752, 0.10064629296897205]</t>
+          <t>[0.12172262135201788, 0.10980999893590104, 0.10579038573372028]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1588,7 +1588,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pregnancy delicate stage woman life cycle change health period lead risk pregnancy risk pregnancy endangers woman baby health life hypertensive disorder common cause pregnancy related complication present major challenge health care result increasing maternal fetal death exist technique widely mining early identification health disease better treatment provided early stage early identification hypertensive disorder main intent paper pinpoint present complication pregnant woman applying boosted random forest approach predicting hypertensive disorder classification method help predict risk diagnose decrease maternal fetal mortality remains large problem developing</t>
+          <t>pregnancy delicate stage woman life cycle change health period lead risk pregnancy risk pregnancy endangers woman baby health life hypertensive disorder common cause pregnancy related complication present era major challenge health care result increasing maternal fetal death exist technique widely mining early identification health disease better treatment provided early stage early identification hypertensive disorder main intent paper pinpoint present complication pregnant woman applying boosted random forest approach predicting hypertensive disorder classification method help predict risk diagnose decrease maternal fetal mortality remains large problem developing</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1598,22 +1598,22 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>x1: 0.101|x2: 0.000|x3: 0.336|x4: 0.000|x5: 0.155|x6: 0.000|x7: 0.000|x8: 0.087|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.100|x13: 0.103|x14: 0.000|x15: 0.100|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.067|x3: 0.224|x4: 0.000|x5: 0.046|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.093|x11: 0.000|x12: 0.136|x13: 0.044|x14: 0.000|x15: 0.000|x16: 0.094|x17: 0.000</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.34]</t>
+          <t>[0.00, 0.04, 0.22]</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>[3, 5, 13, 1]</t>
+          <t>[3, 12]</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.33598979211856717, 0.15517437480864082, 0.10301117591211167, 0.1007891014383534]</t>
+          <t>[0.22416279327979383, 0.1356238063981988]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>national motor vehicle crash causation survey nmvccs conducted aimed collecting scene information event associated factor leading crash involving light vehicle facet crash occurrence investigated collection precrash movement critical crash event critical reason associated factor weighted sample crash investigated period represents estimated crash nationwide vehicle driver passenger estimated involved crash critical reason event crash causal chain assigned driver percent crash percent crash critical reason assigned vehicle component failure degradation percent crash attributed environment slick road weather estimated driver assigned critical reason recognition error accounted percent decision error percent performance error percent crash</t>
+          <t>national motor vehicle crash causation survey nmvccs conducted wa aimed collecting scene information event associated factor leading crash involving light vehicle facet crash occurrence investigated collection precrash movement critical pre crash event critical reason associated factor weighted sample crash wa investigated period represents estimated crash nationwide vehicle driver passenger estimated involved crash critical reason event crash causal chain wa assigned driver percent crash percent crash critical reason wa assigned vehicle component failure degradation percent crash wa attributed environment slick road weather estimated driver assigned critical reason recognition error accounted percent decision error percent performance error percent crash</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1639,29 +1639,29 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.130|x2: 0.000|x3: 0.166|x4: 0.000|x5: 0.274|x6: 0.229|x7: 0.102|x8: 0.181|x9: 0.243|x10: 0.150|x11: 0.210|x12: 0.324|x13: 0.109|x14: 0.072|x15: 0.216|x16: 0.308|x17: 0.000</t>
+          <t>x1: 0.163|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.113|x6: 0.076|x7: 0.128|x8: 0.149|x9: 0.188|x10: 0.165|x11: 0.176|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.091|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.32]</t>
+          <t>[0.00, 0.08, 0.19]</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>[12, 16, 5, 9, 6, 15, 11, 8, 3, 10, 1, 13, 7]</t>
+          <t>[9, 11, 10, 1, 16, 8, 7, 5]</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.3242347206204177, 0.3079693220518069, 0.2741741866578573, 0.24264920390612427, 0.22915817309124073, 0.2156342025537738, 0.20976267039269872, 0.18125470839434132, 0.1658169840949017, 0.15039452134711748, 0.1303656007222648, 0.10859121372830495, 0.10194389330676391]</t>
+          <t>[0.18752747928569577, 0.17575114305920275, 0.16479636862304725, 0.16323915278439916, 0.15215939947689422, 0.14891981074677135, 0.12828166931285087, 0.11286909313050646]</t>
         </is>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1680,29 +1680,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.121|x2: 0.251|x3: 0.000|x4: 0.109|x5: 0.139|x6: 0.200|x7: 0.446|x8: 0.099|x9: 0.182|x10: 0.055|x11: 0.068|x12: 0.636|x13: 0.354|x14: 0.319|x15: 0.499|x16: 0.112|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.093|x7: 0.287|x8: 0.000|x9: 0.000|x10: 0.065|x11: 0.107|x12: 0.245|x13: 0.077|x14: 0.130|x15: 0.126|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.64]</t>
+          <t>[0.00, 0.07, 0.29]</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>[12, 15, 7, 13, 14, 2, 6, 9, 5, 1, 16, 4]</t>
+          <t>[7, 12, 14, 15, 11]</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.6355093433421629, 0.49863560102167515, 0.44590622239584493, 0.3538038172607646, 0.3188400774713232, 0.2509959252377904, 0.20017370064303974, 0.18182253156221678, 0.13860703553709497, 0.12115942006428058, 0.11233934245494007, 0.10910557545029782]</t>
+          <t>[0.28663283395391775, 0.2447327978539352, 0.13007893641884738, 0.12553627422941877, 0.10656145061778927]</t>
         </is>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>paper provide survey application deep learning cancer detection diagnosis hope provide overview progress field survey firstly provide overview deep learning popular architecture cancer detection diagnosis especially present popular deep learning architecture including convolutional neural network fully convolutional network auto encoders deep belief network survey secondly provide survey study exploiting deep learning cancer detection diagnosis survey organized based type cancer thirdly provide summary comment recent work application deep learning cancer detection diagnosis propose future research direction</t>
+          <t>paper aim provide survey application deep learning cancer detection diagnosis hope provide overview progress field survey firstly provide overview deep learning popular architecture cancer detection diagnosis especially present popular deep learning architecture including convolutional neural network fully convolutional network auto encoders deep belief network survey secondly provide survey study exploiting deep learning cancer detection diagnosis survey organized based type cancer thirdly provide summary comment recent work application deep learning cancer detection diagnosis propose future research direction</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1721,29 +1721,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.256|x4: 0.423|x5: 0.319|x6: 0.187|x7: 0.281|x8: 0.102|x9: 0.243|x10: 0.103|x11: 0.088|x12: 0.168|x13: 0.000|x14: 0.000|x15: 0.136|x16: 0.211|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.000|x3: 0.080|x4: 0.153|x5: 0.048|x6: 0.000|x7: 0.060|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.061|x12: 0.025|x13: 0.000|x14: 0.027|x15: 0.000|x16: 0.025|x17: 0.000</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.42]</t>
+          <t>[0.00, 0.03, 0.15]</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 3, 9, 16, 6, 12, 15, 10, 8]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.4232131831028448, 0.31902418149698697, 0.28114063273412687, 0.25584321149212963, 0.2431246541611684, 0.2106491335126375, 0.18685696411432834, 0.1681009383867283, 0.13628723154187383, 0.10286893316435211, 0.10211575925272545]</t>
+          <t>[0.15344264359946477]</t>
         </is>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1762,29 +1762,29 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>x1: 0.121|x2: 0.000|x3: 0.095|x4: 0.425|x5: 0.412|x6: 0.391|x7: 0.307|x8: 0.123|x9: 0.000|x10: 0.000|x11: 0.278|x12: 0.000|x13: 0.152|x14: 0.307|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.135|x3: 0.167|x4: 0.135|x5: 0.000|x6: 0.310|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.156|x12: 0.174|x13: 0.044|x14: 0.116|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.42]</t>
+          <t>[0.00, 0.07, 0.31]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>[4, 5, 6, 7, 14, 11, 13, 8, 1]</t>
+          <t>[6, 12, 3, 11, 4, 2, 14]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.4248497628104516, 0.41190776449524275, 0.3914605158561376, 0.30710410445103437, 0.30676201127456904, 0.2775594313670074, 0.15249431355117304, 0.12315970013122314, 0.12085126498144592]</t>
+          <t>[0.3101571631021249, 0.17411298976165188, 0.1671106087326843, 0.1556561760613016, 0.13516504865932294, 0.13511702809353626, 0.11620282062470005]</t>
         </is>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>goal research project combine intelligent decision patient decisionsupport tool provide information physician nurse parent facing difficult ethical decision care management neonatal intensive care nicu patient artificial intelligence approach based reasoning artificial neural network provide critical information estimate likelihood survival duration artificial ventilation estimate addition factor weight gestational presence major complication provide eritical information health care giver parent decide initiate intensive care infant terminate initiated</t>
+          <t>goal research project combine intelligent decision aid patient decisionsupport tool provide information physician nurse parent facing difficult ethical decision care management neonatal intensive care nicu patient artificial intelligence approach based reasoning artificial neural network provide critical information estimate likelihood survival duration artificial ventilation estimate addition factor weight gestational presence major complication provide eritical information health care giver parent decide initiate intensive care infant terminate ha initiated</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1803,22 +1803,22 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.215|x3: 0.431|x4: 0.257|x5: 0.254|x6: 0.000|x7: 0.303|x8: 0.140|x9: 0.196|x10: 0.000|x11: 0.000|x12: 0.249|x13: 0.166|x14: 0.238|x15: 0.055|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.062|x2: 0.084|x3: 0.139|x4: 0.101|x5: 0.089|x6: 0.092|x7: 0.000|x8: 0.000|x9: 0.103|x10: 0.092|x11: 0.045|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.43]</t>
+          <t>[0.00, 0.05, 0.14]</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>[3, 7, 4, 5, 12, 14, 2, 9, 13, 8, 1]</t>
+          <t>[3, 9, 4]</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.4307764929699302, 0.3034248694510947, 0.25677341523435937, 0.25371711242314066, 0.24947592589198794, 0.2384356427455455, 0.21484782731983107, 0.19622082526646373, 0.16551972141164462, 0.13983231170279045, 0.11498691817605639]</t>
+          <t>[0.13917375151730288, 0.10334569830695427, 0.10083205751946206]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>severe maternal morbidity public health issue occur pregnancy delivery puerperium condition hypertensive disorder hemorrhage infection risk woman baby life condition difficult detect early stage response work proposes machine learning technique considered relevant medical setting order predict risk level severe maternal morbidity patient pregnancy population studied correspond pregnant woman receiving prenatal care attention clinica maternidad rafael calvo cartagena colombia paper present preliminary result ongoing project method material considered construction learning model</t>
+          <t>severe maternal morbidity public health issue occur pregnancy delivery puerperium condition hypertensive disorder hemorrhage infection risk woman baby life condition difficult detect early stage response work proposes machine learning technique considered relevant bio medical setting order predict risk level severe maternal morbidity patient pregnancy population studied correspond pregnant woman receiving prenatal care attention clinica maternidad rafael calvo cartagena colombia paper present preliminary result ongoing project method material considered construction learning model</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1844,22 +1844,22 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.117|x2: 0.054|x3: 0.207|x4: 0.209|x5: 0.155|x6: 0.154|x7: 0.328|x8: 0.086|x9: 0.000|x10: 0.000|x11: 0.130|x12: 0.226|x13: 0.236|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.067|x3: 0.217|x4: 0.094|x5: 0.000|x6: 0.150|x7: 0.077|x8: 0.000|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.064|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.080|x17: 0.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.33]</t>
+          <t>[0.00, 0.05, 0.22]</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>[7, 13, 12, 4, 3, 5, 6, 11, 1]</t>
+          <t>[3, 6]</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.32770720613927584, 0.23645834293772697, 0.22647209886330377, 0.20859662342282642, 0.20727456450069798, 0.15450661893358575, 0.15393579622124473, 0.1300054562570428, 0.11688666424853023]</t>
+          <t>[0.21650372044814453, 0.15009115611693863]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>background misuse prescription opioids mupo leading public health concern social playing expanded role public health research method estimating established epidemiological metric social purpose study demonstrate geographic variation social post mentioning prescription opioid misuse strongly correlate government estimate mupo month method wrote software acquire publicly available tweet twitter contained keyword related prescription opioid medical toxicologist emergency physician curated list keywords semantic distance semd automatically quantify similarity meaning tweet identify tweet mentioned mupo defined semd word shortest distance corresponding word centroid word centroid represented recognized meaning word validated automatic identification manual curation twitter metadata estimate location tweet compared estimated geographic distribution national survey drug usage health nsduh result tweet mentioned mupo formed distinct cluster away semantically unrelated tweet state bystate correlation twitter nsduh highly significant nsduh survey correlation strongest twitter nsduh aged correlation driven discussion opioid controlling geographic variation twitter usage conclusion mention mupo twitter correlate strongly state state nsduh estimate mupo demonstrated natural language processing analyze social provide insight syndromic</t>
+          <t>background misuse prescription opioids mupo leading public health concern social playing expanded role public health research method estimating established epidemiological metric social purpose study wa demonstrate geographic variation social post mentioning prescription opioid misuse strongly correlate government estimate mupo month method wrote software acquire publicly available tweet twitter contained keyword related prescription opioid medical toxicologist emergency physician curated list keywords semantic distance semd automatically quantify similarity meaning tweet identify tweet mentioned mupo defined semd word shortest distance corresponding word centroid word centroid represented recognized meaning word validated automatic identification manual curation twitter metadata estimate location tweet compared estimated geographic distribution national survey drug usage health nsduh result tweet mentioned mupo formed distinct cluster far away semantically unrelated tweet state bystate correlation twitter nsduh wa highly significant nsduh survey correlation wa strongest twitter nsduh aged correlation wa driven discussion opioid controlling geographic variation twitter usage conclusion mention mupo twitter correlate strongly state state nsduh estimate mupo demonstrated natural language processing analyze social provide insight syndromic</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1885,22 +1885,22 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>x1: 0.223|x2: 0.237|x3: 0.144|x4: 0.527|x5: 0.223|x6: 0.000|x7: 0.067|x8: 0.252|x9: 0.179|x10: 0.123|x11: 0.234|x12: 0.172|x13: 0.274|x14: 0.255|x15: 0.055|x16: 0.251|x17: 0.000</t>
+          <t>x1: 0.136|x2: 0.000|x3: 0.149|x4: 0.153|x5: 0.083|x6: 0.000|x7: 0.000|x8: 0.231|x9: 0.121|x10: 0.113|x11: 0.211|x12: 0.000|x13: 0.070|x14: 0.075|x15: 0.000|x16: 0.094|x17: 0.000</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.53]</t>
+          <t>[0.00, 0.08, 0.23]</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>[4, 13, 14, 8, 16, 2, 11, 5, 1, 9, 12, 3, 10]</t>
+          <t>[8, 11, 4, 3, 1, 9, 10]</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.5266593956699355, 0.27353446748624793, 0.25541925037416086, 0.25171788271696366, 0.25112332717308117, 0.2367861370980693, 0.23373215011338389, 0.223077266743708, 0.22298572159743302, 0.17893210271686208, 0.17175804184547777, 0.143515378656914, 0.1226342037501314]</t>
+          <t>[0.23121698751320677, 0.21071605652418904, 0.15296372708481984, 0.14897596845731817, 0.1361199772788804, 0.12097335385011636, 0.1134695759749604]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1916,7 +1916,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>generating novel graph structure optimize given objective obeying given underlying rule fundamental chemistry biology social science research especially important task molecular graph generation goal discover novel molecule desired property drug likeness synthetic accessibility obeying physical chemical valency designing model molecule optimize desired property incorporating highly complex differentiable rule remains challenging task propose graph convolutional policy network gcpn general graph convolutional network based model goaldirected graph generation reinforcement learning model trained optimize domain specific reward adversarial loss policy gradient environment incorporates domain specific rule experimental result gcpn achieve improvement chemical property optimization state baseline resembling known molecule achieve improvement constrained property optimization task</t>
+          <t>generating novel graph structure optimize given objective obeying given underlying rule fundamental chemistry biology social science research especially important task molecular graph generation goal discover novel molecule desired property drug likeness synthetic accessibility obeying physical law chemical valency designing model molecule optimize desired property incorporating highly complex differentiable rule remains challenging task propose graph convolutional policy network gcpn general graph convolutional network based model goaldirected graph generation reinforcement learning model trained optimize domain specific reward adversarial loss policy gradient act environment incorporates domain specific rule experimental result gcpn achieve improvement chemical property optimization state art baseline resembling known molecule achieve improvement constrained property optimization task</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1926,29 +1926,29 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>x1: 0.176|x2: 0.000|x3: 0.115|x4: 0.310|x5: 0.289|x6: 0.208|x7: 0.373|x8: 0.270|x9: 0.349|x10: 0.074|x11: 0.161|x12: 0.218|x13: 0.056|x14: 0.094|x15: 0.070|x16: 0.151|x17: 0.000</t>
+          <t>x1: 0.098|x2: 0.000|x3: 0.053|x4: 0.111|x5: 0.200|x6: 0.000|x7: 0.135|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.210|x13: 0.067|x14: 0.126|x15: 0.000|x16: 0.125|x17: 0.000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.37]</t>
+          <t>[0.00, 0.07, 0.21]</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>[7, 9, 4, 5, 8, 12, 6, 1, 11, 16, 3]</t>
+          <t>[12, 5, 7, 14, 16, 4]</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[0.3728449738040977, 0.3490204279039664, 0.3098556860158171, 0.289166593690544, 0.2704552859347241, 0.21753774853297345, 0.20753216784662862, 0.176042142266082, 0.16148982648129095, 0.15094214824705057, 0.11546287599319362]</t>
+          <t>[0.21040945021385826, 0.2002411170141892, 0.13491615461260692, 0.125939408396381, 0.12484468171338237, 0.11107535924908957]</t>
         </is>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1957,7 +1957,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>discrete hidden markov model hmms applied classify pregnancy disorder observation sequence generated transforming systolic blood pressure time series symbolic dynamic time series recorded woman pregnancy induced hypertension preeclampsia control gestational week hmms hidden state sufficient characterize different blood pressure variability significant classification based hmms hidden state pregnancy disorder preeclampsia pregnancy induced hypertension revealed different patho physiological autonomous regulation supposing different etiology disorder</t>
+          <t>discrete hidden markov model hmms applied classify pregnancy disorder observation sequence wa generated transforming systolic blood pressure time series symbolic dynamic time series recorded woman pregnancy induced hypertension preeclampsia control gestational week hmms hidden state sufficient characterize different blood pressure variability significant classification based hmms wa hidden state pregnancy disorder preeclampsia pregnancy induced hypertension revealed different patho physiological autonomous regulation supposing different etiology disorder</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1967,22 +1967,22 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.177|x2: 0.000|x3: 0.271|x4: 0.197|x5: 0.229|x6: 0.090|x7: 0.385|x8: 0.219|x9: 0.107|x10: 0.067|x11: 0.201|x12: 0.313|x13: 0.118|x14: 0.000|x15: 0.000|x16: 0.137|x17: 0.000</t>
+          <t>x1: 0.057|x2: 0.128|x3: 0.337|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.112|x8: 0.095|x9: 0.000|x10: 0.348|x11: 0.158|x12: 0.000|x13: 0.144|x14: 0.000|x15: 0.000|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.38]</t>
+          <t>[0.00, 0.09, 0.35]</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>[7, 12, 3, 5, 8, 11, 4, 1, 16, 13, 9]</t>
+          <t>[10, 3, 11, 16, 13, 2, 7]</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.3848808069411875, 0.31345408755460435, 0.2710066231775642, 0.2293748798243466, 0.21879417643089016, 0.2013312958308712, 0.19657687862597226, 0.17684478933714856, 0.13698273265186386, 0.11789832242103741, 0.10713759908434775]</t>
+          <t>[0.3479941439487996, 0.3374319252081285, 0.15789674071421117, 0.14714594973821954, 0.14434072186577826, 0.12778578025323467, 0.11179883706877916]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>substance abuse significant public health problem united state group based intervention program offer promising mean reducing substance abuse effective inappropriate intervention group result increase deviant behavior participant process known deviancy training paper present guide based decision leverage social network information optimize structure intervention group</t>
+          <t>substance abuse significant public health problem united state group based intervention program offer promising mean reducing substance abuse effective inappropriate intervention group result increase deviant behavior participant process known deviancy training paper present guide based decision aid leverage social network information optimize structure intervention group</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2008,29 +2008,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.098|x2: 0.151|x3: 0.168|x4: 0.000|x5: 0.182|x6: 0.086|x7: 0.000|x8: 0.196|x9: 0.346|x10: 0.000|x11: 0.247|x12: 0.226|x13: 0.000|x14: 0.318|x15: 0.177|x16: 0.086|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.023|x3: 0.046|x4: 0.000|x5: 0.036|x6: 0.118|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.137|x13: 0.000|x14: 0.028|x15: 0.054|x16: 0.081|x17: 0.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.35]</t>
+          <t>[0.00, 0.04, 0.14]</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[9, 14, 11, 12, 8, 5, 15, 3, 2]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[0.34578291754270635, 0.31837480387385186, 0.2473767321735112, 0.2258509539625454, 0.19579079835710594, 0.18194624100019774, 0.17670118495184825, 0.16811154274716744, 0.15114627300445282]</t>
+          <t>[0.1367766956453013, 0.11774643397621658]</t>
         </is>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>seek automate design molecule based specific chemical property computational term task involves continuous embedding generation molecular graph primary contribution direct realization molecular graph task previously approached generating linear smile string instead graph junction tree variational autoencoder generates molecular graph phase generating tree structured scaffold chemical substructure combining molecule graph message passing network approach allows incrementally expand molecule maintaining chemical validity step evaluate model multiple task ranging molecular generation optimization task model outperforms previous state baseline significant margin</t>
+          <t>seek automate design molecule based specific chemical property computational term task involves continuous embedding generation molecular graph primary contribution direct realization molecular graph task previously approached generating linear smile string instead graph junction tree variational autoencoder generates molecular graph phase generating tree structured scaffold chemical substructure combining molecule graph message passing network approach allows incrementally expand molecule maintaining chemical validity step evaluate model multiple task ranging molecular generation optimization task model outperforms previous state art baseline significant margin</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2049,22 +2049,22 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.221|x2: 0.286|x3: 0.000|x4: 0.295|x5: 0.379|x6: 0.356|x7: 0.560|x8: 0.306|x9: 0.372|x10: 0.146|x11: 0.096|x12: 0.259|x13: 0.168|x14: 0.161|x15: 0.130|x16: 0.298|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.000|x3: 0.000|x4: 0.201|x5: 0.250|x6: 0.000|x7: 0.152|x8: 0.104|x9: 0.154|x10: 0.178|x11: 0.000|x12: 0.366|x13: 0.136|x14: 0.292|x15: 0.000|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>[0.00, 0.24, 0.56]</t>
+          <t>[0.00, 0.12, 0.37]</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[7, 5, 9, 6, 8, 16, 4, 2, 12, 1, 13, 14, 10, 15]</t>
+          <t>[12, 14, 5, 4, 10, 9, 7, 13, 8]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.5602206651057726, 0.3788586223391752, 0.37194758572162967, 0.3558797249177633, 0.3056102560981428, 0.2981688665404902, 0.29520816824159923, 0.28596323304060395, 0.25923715235854794, 0.22140574132498836, 0.16831162988137965, 0.16058698264051202, 0.14560854199765405, 0.12981499709895505]</t>
+          <t>[0.3659733229799779, 0.29190581223238776, 0.2501850357879324, 0.20111770514743982, 0.1782420672710605, 0.15365569212598193, 0.15193767785212986, 0.13646100331666478, 0.10444291138987387]</t>
         </is>
       </c>
       <c r="H40" t="b">
@@ -2080,7 +2080,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>cancer characterized heterogeneous disease consisting different subtypes early diag nosis prognosis cancer type necessity cancer research facilitate subsequent clinical management patient importance classifying cancer patient risk group research team biomedical bioinformatics field study application machine learning method technique utilized model progression treatment cancerous condition addition ability tool detect feature complex datasets reveals importance variety technique including artificial neural network anns bayesian network support vector machine svms decision tree widely applied cancer research development predictive model resulting effective accurate decision making evident method improve understanding cancer progression appropriate level validation needed order method considered everyday clinical prac tice work present review recent approach employed modeling cancer progression predictive model discussed based supervised technique different input feature sample given growing trend application method cancer research present recent publication employ technique model cancer risk patient outcome</t>
+          <t>cancer ha characterized heterogeneous disease consisting different subtypes early diag nosis prognosis cancer type necessity cancer research facilitate subsequent clinical management patient importance classifying cancer patient low risk group ha led research team biomedical bioinformatics field study application machine learning method technique utilized aim model progression treatment cancerous condition addition ability tool detect feature complex datasets reveals importance variety technique including artificial neural network anns bayesian network bns support vector machine svms decision tree dts widely applied cancer research development predictive model resulting effective accurate decision making evident method improve understanding cancer progression appropriate level validation needed order method considered everyday clinical prac tice work present review recent approach employed modeling cancer progression predictive model discussed based supervised technique different input feature sample given growing trend application method cancer research present recent publication employ technique aim model cancer risk patient outcome</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2090,29 +2090,29 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.208|x2: 0.271|x3: 0.344|x4: 0.194|x5: 0.355|x6: 0.145|x7: 0.319|x8: 0.293|x9: 0.192|x10: 0.099|x11: 0.068|x12: 0.075|x13: 0.000|x14: 0.253|x15: 0.158|x16: 0.202|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.070|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.064|x9: 0.165|x10: 0.153|x11: 0.205|x12: 0.118|x13: 0.000|x14: 0.092|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.35]</t>
+          <t>[0.00, 0.05, 0.20]</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[5, 3, 7, 8, 2, 14, 1, 16, 4, 9, 15, 6]</t>
+          <t>[11, 9, 10, 12]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.3549909202490522, 0.34421924524521946, 0.31924202676833124, 0.2930951362070352, 0.2713030770189928, 0.2532066152422053, 0.20775220110876272, 0.20184326333041747, 0.19433427380919382, 0.19183501851546428, 0.15844578085166025, 0.1445633311941414]</t>
+          <t>[0.20454548171278977, 0.16507109171287512, 0.1534803297200415, 0.11835559344844185]</t>
         </is>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>eclampsia multi disorder pregnancy major maternal perinatal implication emerging therapeutic strategy maximally effective commenced week month prior clinical presentation disease widespread plasma alteration precede clinical onset eclampsia single plasma constituent emerged sensitive specific predictor risk consequently currently available method identifying condition prior clinical presentation limited clinical exploited genetic programming powerful mining method identify pattern metabolite distinguish plasma patient eclampsia taken healthy matched control resolution chromatography time flight mass spectrometry performed plasma sample woman eclampsia matched control normalised peak genetic programming produce model gave output patient control model trained generated tested separate hold model generated identified metabolomic pattern produce simple rule discriminate eclampsia normal pregnant control metabolite peak variable sensitivity specificity preeclampsia diagnosed level molecule metabolism blood plasma finding justify prospective assessment metabolomic technology screening tool eclampsia identification metabolite involved lead improved understanding aetiological basis eclampsia development targeted therapy</t>
+          <t>pre eclampsia multi disorder pregnancy major maternal perinatal implication emerging therapeutic strategy maximally effective commenced week month prior clinical presentation disease widespread plasma alteration precede clinical onset pre eclampsia single plasma constituent ha emerged sensitive specific predictor risk consequently currently available method identifying condition prior clinical presentation limited clinical exploited genetic programming powerful mining method identify pattern metabolite distinguish plasma patient pre eclampsia taken healthy matched control resolution gas chromatography time flight mass spectrometry tof wa performed plasma sample woman pre eclampsia matched control normalised peak fed genetic programming wa set produce model gave output patient control model wa trained generated tested separate hold set model generated tof identified metabolomic pattern produce simple rule discriminate pre eclampsia normal pregnant control metabolite peak variable sensitivity specificity preeclampsia diagnosed level molecule metabolism blood plasma finding justify prospective assessment metabolomic technology screening tool pre eclampsia identification metabolite involved lead improved understanding aetiological basis pre eclampsia development targeted therapy</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2131,22 +2131,22 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.142|x2: 0.223|x3: 0.164|x4: 0.309|x5: 0.221|x6: 0.085|x7: 0.297|x8: 0.134|x9: 0.000|x10: 0.112|x11: 0.170|x12: 0.205|x13: 0.171|x14: 0.107|x15: 0.000|x16: 0.229|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.062|x3: 0.229|x4: 0.089|x5: 0.089|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.000|x10: 0.059|x11: 0.134|x12: 0.277|x13: 0.086|x14: 0.000|x15: 0.000|x16: 0.177|x17: 0.000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.31]</t>
+          <t>[0.00, 0.08, 0.28]</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>[4, 7, 16, 2, 5, 12, 13, 11, 3, 1, 8, 10, 14]</t>
+          <t>[12, 3, 16, 7, 11]</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.30882528070500853, 0.2968703583027404, 0.228739194283447, 0.22307794672465867, 0.22131643620557792, 0.20500108872590225, 0.17109953657708507, 0.1697323785439237, 0.1635804442590593, 0.14211165590844718, 0.1340184856205282, 0.11170307941190755, 0.10744522060154686]</t>
+          <t>[0.27738641663508273, 0.2289651838386558, 0.17711139771442846, 0.15499261496152023, 0.13393410554651503]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>hypertensive disorder leading cause death pregnancy risk pregnancy accompaniment essential reduce complication decision support important tool patient accompaniment provide relevant information health expert clinical condition patient anytime paper model naive bayesian classifier introduced performance evaluated comparison mining classifier named decision tree study includes modeling performance evaluation comparison model pregnancy complication evaluation analysis result performed confusion matrix indicator founded result decision tree classifier performs better indicator confirming promising accuracy identifying hypertensive disorder pregnancy</t>
+          <t>hypertensive disorder leading cause death pregnancy risk pregnancy accompaniment essential reduce complication decision support ds important tool patient accompaniment provide relevant information health expert clinical condition patient anytime paper model naive bayesian classifier introduced performance evaluated comparison mining classifier named decision tree study includes modeling performance evaluation comparison model ass pregnancy complication evaluation analysis result performed confusion matrix indicator founded result decision tree classifier performs better indicator confirming promising accuracy identifying hypertensive disorder pregnancy</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.153|x2: 0.156|x3: 0.321|x4: 0.052|x5: 0.168|x6: 0.078|x7: 0.274|x8: 0.148|x9: 0.000|x10: 0.000|x11: 0.100|x12: 0.286|x13: 0.220|x14: 0.345|x15: 0.155|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.215|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.110|x12: 0.247|x13: 0.147|x14: 0.171|x15: 0.043|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.35]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>[14, 3, 12, 7, 13, 5, 2, 15, 1, 8, 11]</t>
+          <t>[12, 3, 14, 13, 11]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.34547784262508685, 0.32066983425979273, 0.2861323655362315, 0.2743557760529962, 0.21979718327224224, 0.167759124579586, 0.1558288889198941, 0.1545243306900383, 0.15270880814799512, 0.14844891570441565, 0.10012929261956059]</t>
+          <t>[0.2474761438291445, 0.21538161479957807, 0.170848908567704, 0.14702418708771298, 0.11021286572494307]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2203,7 +2203,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>dysplasia necrotizing enterocolitis retinopathy prematurity severe complication affecting weight vlbw infant finding gathered intensive care unit hour care predict vlbw infant risk developing gaussian process classification achieved classification result area receiver operator characteristic curve standard error compare favourably result achieved clinical standard snap snappe score sensitivity sensitivity close zero suggesting reliably predicted approach</t>
+          <t>dysplasia bpd necrotizing enterocolitis nec retinopathy prematurity rop severe complication affecting low weight vlbw infant finding gathered intensive care unit hour care predict vlbw infant risk developing bpd gaussian process classification achieved classification result area receiver operator characteristic curve standard error bpd compare favourably result achieved clinical standard snap snappe score sensitivity bpd wa sensitivity nec rop wa close zero suggesting nec rop reliably predicted approach set</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2213,22 +2213,22 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>x1: 0.267|x2: 0.535|x3: 0.177|x4: 0.312|x5: 0.123|x6: 0.000|x7: 0.219|x8: 0.339|x9: 0.223|x10: 0.086|x11: 0.203|x12: 0.417|x13: 0.182|x14: 0.271|x15: 0.074|x16: 0.177|x17: 0.000</t>
+          <t>x1: 0.068|x2: 0.145|x3: 0.276|x4: 0.079|x5: 0.147|x6: 0.000|x7: 0.204|x8: 0.000|x9: 0.094|x10: 0.406|x11: 0.198|x12: 0.000|x13: 0.266|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.54]</t>
+          <t>[0.00, 0.11, 0.41]</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[2, 12, 8, 4, 14, 1, 9, 7, 11, 13, 16, 3, 5]</t>
+          <t>[10, 3, 13, 7, 11, 5, 2]</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.5352942378255433, 0.4173910265352049, 0.33944833073759834, 0.31169233799212437, 0.27113028357533286, 0.2674878233096158, 0.22326727680724587, 0.21866307130786955, 0.20263244130976862, 0.18223067389565462, 0.17698976523194124, 0.17656596512770958, 0.12334860408179343]</t>
+          <t>[0.4057753884259254, 0.27631265582479236, 0.266050278937226, 0.2043538107472964, 0.19810747039123722, 0.14690969424646136, 0.14461057636016258]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>cardiac magnetic resonance imaging fully automatic segmentation heart enables precise structural functional measurement taken short axis image left ventricle work propose recurrent fully convolutional network rfcn learns image representation stack slice ability leverage inter slice spatial dependence internal memory unit rfcn combine anatomical detection segmentation single architecture trained significantly reducing computational time simplifying segmentation pipeline potentially enabling time application report investigation rfcn datasets including publicly available miccai challenge dataset comparison carried fully convolutional network deep restricted boltzmann machine including recurrent version leverage inter slice spatial correlation study suggest rfcn produce state result substantially improve delineation contour near apex heart</t>
+          <t>cardiac magnetic resonance imaging fully automatic segmentation heart enables precise structural functional measurement taken short axis image left ventricle work propose recurrent fully convolutional network rfcn learns image representation stack slice ha ability leverage inter slice spatial dependence internal memory unit rfcn combine anatomical detection segmentation single architecture trained end end significantly reducing computational time simplifying segmentation pipeline potentially enabling time application report investigation rfcn datasets including publicly available miccai challenge dataset comparison carried fully convolutional network deep restricted boltzmann machine including recurrent version leverage inter slice spatial correlation study suggest rfcn produce state art result substantially improve delineation contour near apex heart</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2254,22 +2254,22 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>x1: 0.139|x2: 0.114|x3: 0.000|x4: 0.440|x5: 0.407|x6: 0.344|x7: 0.520|x8: 0.241|x9: 0.378|x10: 0.084|x11: 0.136|x12: 0.250|x13: 0.000|x14: 0.197|x15: 0.000|x16: 0.172|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.000|x3: 0.000|x4: 0.120|x5: 0.167|x6: 0.096|x7: 0.240|x8: 0.000|x9: 0.178|x10: 0.000|x11: 0.278|x12: 0.079|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.103|x17: 0.000</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.52]</t>
+          <t>[0.00, 0.08, 0.28]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>[7, 4, 5, 9, 6, 12, 8, 14, 16, 1, 11, 2]</t>
+          <t>[11, 7, 9, 5, 4, 16]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.5203402717618058, 0.43964038394475313, 0.4073717707599151, 0.37822112006118574, 0.344363692158988, 0.2502308286535209, 0.2412593344031186, 0.19688240615447877, 0.17167707266088936, 0.13928661205829881, 0.13566823741198986, 0.11377498314293612]</t>
+          <t>[0.27792506068494005, 0.24005377871434558, 0.1777520271712882, 0.16683054761935598, 0.1199038276667092, 0.1029295989221079]</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -2285,7 +2285,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>anticipating future action human widely studied problem robotics requires spatiotemporal reasoning work propose deep learning approach anticipation sensory rich robotics application introduce sensory fusion architecture jointly learns anticipate fuse information multiple sensory stream architecture consists recurrent neural network rnns long short term memory lstm unit capture long temporal dependency train architecture sequence sequence prediction manner explicitly learns predict future given partial temporal context introduce novel loss layer anticipation prevents fitting encourages early anticipation architecture anticipate driving maneuver second happen natural driving mile context maneuver anticipation come multiple sensor installed vehicle approach significant improvement state maneuver anticipation increasing precision recall</t>
+          <t>anticipating future action human widely studied problem robotics requires spatiotemporal reasoning work propose deep learning approach anticipation sensory rich robotics application introduce sensory fusion architecture jointly learns anticipate fuse information multiple sensory stream architecture consists recurrent neural network rnns long short term memory lstm unit capture long temporal dependency train architecture sequence sequence prediction manner explicitly learns predict future given partial temporal context introduce novel loss layer anticipation prevents fitting encourages early anticipation architecture anticipate driving maneuver second happen natural driving set mile context maneuver anticipation come multiple sensor installed vehicle approach significant improvement state art maneuver anticipation increasing precision recall</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2295,29 +2295,29 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>x1: 0.301|x2: 0.358|x3: 0.073|x4: 0.250|x5: 0.125|x6: 0.313|x7: 0.464|x8: 0.339|x9: 0.380|x10: 0.108|x11: 0.245|x12: 0.454|x13: 0.460|x14: 0.424|x15: 0.395|x16: 0.222|x17: 0.000</t>
+          <t>x1: 0.105|x2: 0.000|x3: 0.100|x4: 0.000|x5: 0.000|x6: 0.184|x7: 0.251|x8: 0.000|x9: 0.085|x10: 0.000|x11: 0.091|x12: 0.082|x13: 0.206|x14: 0.135|x15: 0.167|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>[0.00, 0.29, 0.46]</t>
+          <t>[0.00, 0.08, 0.25]</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>[7, 13, 12, 14, 15, 9, 2, 8, 6, 1, 4, 11, 16, 5, 10]</t>
+          <t>[7, 13, 6, 15, 14, 1]</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.46352607214415287, 0.4595426315041493, 0.45426703518758343, 0.42389430808772927, 0.3949297812139876, 0.3800175682736293, 0.3582944042437168, 0.33942347947070456, 0.31321941717258855, 0.3014450510057078, 0.2502926241256532, 0.24532435361219115, 0.22174350644799046, 0.12455860438751694, 0.1082867874367921]</t>
+          <t>[0.25071404902300076, 0.20630591181685196, 0.18395329132671118, 0.1669109247932045, 0.13513532933445016, 0.10490224136413143]</t>
         </is>
       </c>
       <c r="H46" t="b">
         <v>0</v>
       </c>
       <c r="I46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2326,7 +2326,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>criterion suggested help design clinical decision support better chance successfully deployed clinical environment criterion successfully applied designed estimate outcome neonatal intensive care unit nicu patient deployed pilot study child hospital eastern ontario cheo nicu result study showed accuracy deemed acceptable physician meet expectation ready deployment clinical environment</t>
+          <t>criterion suggested help design clinical decision support cd better chance successfully deployed clinical environment criterion successfully applied cd designed estimate outcome neonatal intensive care unit nicu patient cd wa deployed pilot study childrens hospital eastern ontario cheo nicu result study showed accuracy wa deemed acceptable physician cd meet expectation ready deployment clinical environment</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2336,22 +2336,22 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.160|x2: 0.058|x3: 0.271|x4: 0.348|x5: 0.267|x6: 0.071|x7: 0.052|x8: 0.191|x9: 0.202|x10: 0.110|x11: 0.000|x12: 0.195|x13: 0.200|x14: 0.210|x15: 0.000|x16: 0.226|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.060|x3: 0.113|x4: 0.141|x5: 0.039|x6: 0.000|x7: 0.220|x8: 0.000|x9: 0.068|x10: 0.000|x11: 0.000|x12: 0.194|x13: 0.041|x14: 0.093|x15: 0.000|x16: 0.106|x17: 0.000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.35]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>[4, 3, 5, 16, 14, 9, 13, 12, 8, 1, 10]</t>
+          <t>[7, 12, 4, 3, 16]</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[0.34774516825291457, 0.2713194696415752, 0.26723312185360704, 0.22591577148724093, 0.20999037088770886, 0.20196562580545285, 0.1998703812804966, 0.1945817064252507, 0.1909120357035557, 0.1598452539491743, 0.1103242819486832]</t>
+          <t>[0.21966563139369233, 0.19350611453884844, 0.1407047540159934, 0.11261529453614799, 0.1063069328261953]</t>
         </is>
       </c>
       <c r="H47" t="b">
@@ -2367,7 +2367,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>driver fatigue major cause traffic accident particularly driver large vehicle heavy truck prolonged driving period boredom working condition paper propose vision based fatigue detection driver monitoring easy flexible deployment large vehicle consists module head shoulder detection face detection detection openness estimation fusion drowsiness measure percentage eyelid closure perclos estimation fatigue level classification core innovative technique follows approach estimate continuous level openness based spectral regression fusion algorithm estimate state based adaptive integration multimodel detection robust measure perclos continuous level openness defined driver state classified experiment systematic evaluation analysis proposed algorithm comparison ground truth perclos measurement performed experimental result advantage accuracy robustness challenging situation camera oblique viewing angle driver face driving state monitoring</t>
+          <t>driver fatigue major cause traffic accident particularly driver large vehicle bus heavy truck prolonged driving period boredom working condition paper propose vision based fatigue detection bus driver monitoring easy flexible deployment bus large vehicle consists module head shoulder detection face detection eye detection eye openness estimation fusion drowsiness measure percentage eyelid closure perclos estimation fatigue level classification core innovative technique follows approach estimate continuous level eye openness based spectral regression fusion algorithm estimate eye state based adaptive integration multimodel detection eye robust measure perclos continuous level eye openness defined driver state classified experiment systematic evaluation analysis proposed algorithm comparison ground truth perclos measurement performed experimental result advantage accuracy robustness challenging situation camera oblique viewing angle driver face driving state monitoring</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2377,22 +2377,22 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.292|x3: 0.368|x4: 0.089|x5: 0.168|x6: 0.125|x7: 0.000|x8: 0.120|x9: 0.189|x10: 0.127|x11: 0.215|x12: 0.176|x13: 0.000|x14: 0.120|x15: 0.187|x16: 0.260|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.158|x3: 0.172|x4: 0.109|x5: 0.077|x6: 0.124|x7: 0.078|x8: 0.000|x9: 0.000|x10: 0.132|x11: 0.269|x12: 0.000|x13: 0.077|x14: 0.000|x15: 0.000|x16: 0.134|x17: 0.000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.37]</t>
+          <t>[0.00, 0.08, 0.27]</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[3, 2, 16, 11, 9, 15, 12, 5, 10, 6, 8, 14]</t>
+          <t>[11, 3, 2, 16, 10, 6, 4]</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[0.3684901619130521, 0.2918172586859375, 0.25976692360071907, 0.21501417555002195, 0.18850051555199632, 0.18699218980914153, 0.17596253255846106, 0.1677478567507925, 0.12685523959484316, 0.12548835215566514, 0.11991511026734378, 0.11951572598194318]</t>
+          <t>[0.26859099467506325, 0.17223636685681737, 0.15843403806081255, 0.13412491260268958, 0.1317945139655089, 0.12366935382718328, 0.10947457636512795]</t>
         </is>
       </c>
       <c r="H48" t="b">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>rate depression growing alarming rate study open talking human paper motivate going phase life avoid effect depression propose chatbot enable positivity boosting conversation user chatbot personalize reply user conversation engaging emotionally supportive training motivating dialogue corpus corpus extended user historical chat social platform tensorflow framework power required server training advantage instead reaching phase requiring visit psychiatrist online free service reach mediate effect depression contribute betterment society</t>
+          <t>rate depression growing alarming rate study open talking human aim paper motivate going low phase life avoid ill effect depression propose chatbot enable positivity boosting conversation user chatbot personalize reply user conversation engaging emotionally supportive training motivating dialogue corpus corpus extended user historical chat social platform tensorflow framework power gpu required server training advantage instead reaching phase requiring visit psychiatrist online free service reach mediate ill effect depression contribute betterment society</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2418,22 +2418,22 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.140|x2: 0.000|x3: 0.092|x4: 0.332|x5: 0.272|x6: 0.271|x7: 0.232|x8: 0.156|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.139|x13: 0.137|x14: 0.000|x15: 0.162|x16: 0.061|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.000|x3: 0.095|x4: 0.075|x5: 0.069|x6: 0.103|x7: 0.121|x8: 0.056|x9: 0.000|x10: 0.000|x11: 0.055|x12: 0.091|x13: 0.000|x14: 0.049|x15: 0.000|x16: 0.096|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.33]</t>
+          <t>[0.00, 0.06, 0.12]</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>[4, 5, 6, 7, 15, 8, 1, 12, 13]</t>
+          <t>[1, 7, 6]</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.3319226193178683, 0.27203087418162364, 0.27137479849897406, 0.2319354889852037, 0.16212052254175913, 0.15563067514607776, 0.1402500487733331, 0.13880247787092856, 0.1371841189896361]</t>
+          <t>[0.1248054208998029, 0.12146547018255882, 0.10317976728758597]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2449,7 +2449,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>paper process constructing proxy variable represent adult learner time management strategy online course based previous research value selected according result empirical validation regularity learning interval proven correlative predict learning performance indicated previous research regularity learning strong indicator explain learner consistent endeavor study demonstrates possibility learning analytics address learner specific competence basis theoretical background implication learning analytics field seeking pedagogical theory driven approach discussed</t>
+          <t>paper process constructing proxy variable represent adult learner time management strategy online course based previous research value selected set according result empirical validation regularity learning interval wa proven correlative predict learning performance indicated previous research regularity learning strong indicator explain learner consistent endeavor study demonstrates possibility learning analytics address learner specific competence basis theoretical background implication learning analytics field seeking pedagogical theory driven approach discussed</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2459,22 +2459,22 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>x1: 0.080|x2: 0.316|x3: 0.000|x4: 0.585|x5: 0.274|x6: 0.123|x7: 0.184|x8: 0.070|x9: 0.214|x10: 0.088|x11: 0.292|x12: 0.210|x13: 0.271|x14: 0.352|x15: 0.000|x16: 0.181|x17: 0.000</t>
+          <t>x1: 0.141|x2: 0.082|x3: 0.000|x4: 0.396|x5: 0.115|x6: 0.000|x7: 0.000|x8: 0.168|x9: 0.000|x10: 0.120|x11: 0.000|x12: 0.065|x13: 0.090|x14: 0.000|x15: 0.000|x16: 0.066|x17: 0.000</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.59]</t>
+          <t>[0.00, 0.07, 0.40]</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>[4, 14, 2, 11, 5, 13, 9, 12, 7, 16, 6]</t>
+          <t>[4, 8, 1, 10, 5]</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.585072083799078, 0.3515711082866912, 0.3162797536117322, 0.2924992439136996, 0.27417682098863483, 0.27057499703252247, 0.21436522487919188, 0.2097660970923312, 0.1844978434951575, 0.1809324470988524, 0.12302041622036834]</t>
+          <t>[0.3960415003149519, 0.16778529027454334, 0.1407698027684515, 0.12022566995498274, 0.11510935266118708]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2490,7 +2490,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>standard behavioral intervention autism spectrum disorder effective therapy social deficit face criticism time intensive overdependent specialist earlier starting therapy strong predictor later success waitlists therapy month long address complication developed superpower glass machine learning assisted software google glass android smartphone designed social interaction pilot exploratory study examines prototype tool potential social affective learning child autism sent tool home family assessed change intake conclusion social responsiveness scale facial affect recognition task qualitative parent report repeated measure anova demonstrated decrease score point higher score indicate higher severity score correct response parent reported contact greater social acuity feasibility study support mobile technology potential therapeutic purpose</t>
+          <t>standard behavioral intervention autism spectrum disorder asd effective therapy social deficit face criticism time intensive overdependent specialist earlier starting therapy strong predictor later success waitlists therapy month long address complication developed superpower glass machine learning assisted software run google glass android smartphone designed social interaction pilot exploratory study examines prototype tool potential social affective learning child autism sent tool home family assessed change intake conclusion social responsiveness scale sr facial affect recognition task egg qualitative parent report repeated measure way anova demonstrated decrease sr score point higher score indicate higher asd severity egg score correct response parent reported eye contact greater social acuity feasibility study support mobile technology potential therapeutic purpose</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2500,22 +2500,22 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>x1: 0.150|x2: 0.195|x3: 0.000|x4: 0.318|x5: 0.259|x6: 0.159|x7: 0.171|x8: 0.186|x9: 0.114|x10: 0.078|x11: 0.000|x12: 0.000|x13: 0.111|x14: 0.337|x15: 0.061|x16: 0.160|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.064|x3: 0.220|x4: 0.152|x5: 0.086|x6: 0.138|x7: 0.125|x8: 0.000|x9: 0.166|x10: 0.104|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.084|x17: 0.000</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.34]</t>
+          <t>[0.00, 0.07, 0.22]</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>[14, 4, 5, 2, 8, 7, 16, 6, 1, 9, 13]</t>
+          <t>[3, 9, 4, 6, 7, 10]</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.33711265807222185, 0.3176044989532137, 0.2591569793079358, 0.1949595966244383, 0.18640143076108925, 0.171063798204691, 0.16007554079677216, 0.15918710575993233, 0.14992937612085272, 0.1139750990840969, 0.11075014903521653]</t>
+          <t>[0.2201214277365149, 0.1655989872340765, 0.15184120006356805, 0.13844516048074457, 0.12512648099155926, 0.10393962960956475]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>paper explores phenomenon emergence artificial intelligence teaching learning higher education investigates educational implication emerging technology student learn institution teach evolve recent technological advancement increasing speed adopting technology higher education explored order predict future nature higher education world artificial intelligence fabric university pinpoint challenge institution higher education student learning adoption technology teaching learning student support administration explore direction research</t>
+          <t>paper explores phenomenon emergence artificial intelligence teaching learning higher education investigates educational implication emerging technology way student learn institution teach evolve recent technological advancement increasing speed adopting new technology higher education explored order predict future nature higher education world artificial intelligence fabric university pinpoint challenge institution higher education student learning adoption technology teaching learning student support administration explore direction research</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2541,22 +2541,22 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>x1: 0.115|x2: 0.042|x3: 0.000|x4: 0.475|x5: 0.203|x6: 0.000|x7: 0.147|x8: 0.151|x9: 0.000|x10: 0.000|x11: 0.045|x12: 0.102|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.043|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.295|x5: 0.064|x6: 0.033|x7: 0.257|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.066|x12: 0.165|x13: 0.112|x14: 0.089|x15: 0.000|x16: 0.043|x17: 0.000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[0.00, 0.08, 0.47]</t>
+          <t>[0.00, 0.07, 0.30]</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[4, 5, 8, 7, 1, 12]</t>
+          <t>[4, 7, 12, 13]</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.4748659036269974, 0.20308772857597115, 0.15128078864473543, 0.14732305180096167, 0.1146659470060235, 0.10155726910685149]</t>
+          <t>[0.2952259936708988, 0.2569000850653795, 0.1652922065415787, 0.11246494206890674]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2572,7 +2572,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>social robot offer tremendous possibility autism spectrum disorder intervention date study population short isolated encounter controlled laboratory setting study focused month home based intervention increasing social communication skill child autonomous social robot child engaged triadic interaction caregiver robot complete activity emotional storytelling perspective taking sequencing robot encouraged engagement adapted difficulty activity child past performance modeled positive social skill maintained engagement month deployment child showed improvement joint attention skill adult presence robot result consistent caregiver questionnaire caregiver reported prompting time overall communication</t>
+          <t>social robot offer tremendous possibility autism spectrum disorder asd intervention date study population short isolated encounter controlled laboratory setting study focused month home based intervention increasing social communication skill child asd old autonomous social robot child engaged triadic interaction caregiver robot min complete activity emotional storytelling perspective taking sequencing robot encouraged engagement adapted difficulty activity child past performance modeled positive social skill maintained engagement month deployment child showed improvement joint attention skill adult presence robot result consistent caregiver questionnaire caregiver reported le prompting time overall communication</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2582,22 +2582,22 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>x1: 0.084|x2: 0.114|x3: 0.121|x4: 0.403|x5: 0.465|x6: 0.193|x7: 0.314|x8: 0.081|x9: 0.126|x10: 0.055|x11: 0.000|x12: 0.135|x13: 0.196|x14: 0.000|x15: 0.000|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.079|x3: 0.000|x4: 0.168|x5: 0.054|x6: 0.109|x7: 0.165|x8: 0.041|x9: 0.116|x10: 0.086|x11: 0.069|x12: 0.107|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.091|x17: 0.000</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.47]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>[5, 4, 7, 13, 6, 12, 9, 3, 2, 16]</t>
+          <t>[4, 7, 9, 6, 12]</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.46505188238526346, 0.40308738751083234, 0.31404191624118416, 0.1961379571135151, 0.1926635647165169, 0.13506854167362367, 0.12634879832090187, 0.12111847296697863, 0.1136767431610561, 0.11325524097347268]</t>
+          <t>[0.16800203967152372, 0.16508421710599894, 0.11581579601479462, 0.10911309118366591, 0.10721241177271208]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>achieved paper present artefact named ambient learning knowledge service model describing actionable knowledge extracted ambient learning support improvement consequently facilitate achievement sustainable development goal creative process adopted guide development model process involved carrying problem analysis literature review designing model combining ambient learning knowledge service concept demonstrating application developing prototype evaluation result revealed algorithm implemented waikato environment knowledge analysis weka software suitable extracting knowledge ambient learning prolog software applied create tool knowledge delivery</t>
+          <t>achieved paper present artefact named ambient learning knowledge service model describing actionable knowledge extracted ambient learning support improvement consequently facilitate achievement sustainable development goal creative process wa adopted guide development model process involved carrying problem analysis literature review designing model combining ambient learning knowledge service concept demonstrating application developing prototype evaluation result revealed algorithm implemented waikato environment knowledge analysis weka software suitable extracting knowledge ambient learning swi prolog software applied create tool knowledge delivery</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2623,22 +2623,22 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.166|x2: 0.214|x3: 0.168|x4: 0.404|x5: 0.167|x6: 0.000|x7: 0.345|x8: 0.196|x9: 0.140|x10: 0.086|x11: 0.113|x12: 0.333|x13: 0.173|x14: 0.050|x15: 0.055|x16: 0.176|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.108|x7: 0.230|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.204|x12: 0.243|x13: 0.213|x14: 0.094|x15: 0.112|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.40]</t>
+          <t>[0.00, 0.08, 0.24]</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>[4, 7, 12, 2, 8, 16, 13, 3, 5, 1, 9, 11]</t>
+          <t>[12, 7, 13, 11, 15, 6, 4]</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.40357660470568546, 0.3451503494076079, 0.33288666676044176, 0.2142857592401674, 0.19591407206647263, 0.17599962747671374, 0.17276829968983926, 0.1680223223780293, 0.1671705216535585, 0.16587163779688052, 0.13994562902748212, 0.1127070178380864]</t>
+          <t>[0.2431101774930443, 0.23020661910026857, 0.21329899847596004, 0.2035215402187161, 0.11210838646548356, 0.10820322017017571, 0.10147014080553639]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2654,7 +2654,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>multiple study conducted project listen intelligent tutoring analyze educational learning analysis student interaction study defined phenomenon exploring happens question analyzing context specified phenomenon occurrence focus student decision resource suggest analysis monitoring needed best result study argue interact differently girl finding evident result bayesian knowledge tracing learning curve analysis model</t>
+          <t>multiple study conducted project listen intelligent tutoring analyze educational learning analysis student interaction study defined phenomenon exploring happens question analyzing context specified phenomenon occurrence focus student decision resource suggest analysis monitoring needed best result study argue boy interact differently girl finding evident result bayesian knowledge tracing learning curve analysis model</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2664,22 +2664,22 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.177|x2: 0.121|x3: 0.000|x4: 0.435|x5: 0.372|x6: 0.253|x7: 0.375|x8: 0.177|x9: 0.000|x10: 0.072|x11: 0.000|x12: 0.000|x13: 0.233|x14: 0.217|x15: 0.058|x16: 0.148|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.000|x3: 0.000|x4: 0.109|x5: 0.000|x6: 0.044|x7: 0.063|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.071|x12: 0.000|x13: 0.034|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.44]</t>
+          <t>[0.00, 0.02, 0.11]</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>[4, 7, 5, 6, 13, 14, 1, 8, 16, 2]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.43506430078034614, 0.3751307016325419, 0.37156166779352107, 0.253432135413812, 0.23273643521132317, 0.2172041712549373, 0.17709904840387733, 0.1770451654482588, 0.14821045392916576, 0.12134700681197402]</t>
+          <t>[0.10887903477879768]</t>
         </is>
       </c>
       <c r="H55" t="b">
@@ -2695,7 +2695,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>paper review contribution original work titled bsimulating instructional role pedagogical agent published international journal artificial intelligence education baylor human behavior original work operationalized instructional role simulated pedagogical agent demonstrated effectiveness agent role learning motivation publication work pedagogical agent research expanded scope provision intelligent guidance broad agent social affective support learner discus current progress pedagogical agent role capability speculate future agent role design expect optimizing role artificial including screen agent robot continue educational technology community technology continue evolve pedagogical agent experimental research virtual human interface design overview original paper motivation early empirical support presence pedagogical agent facilitated deeper learning enhanced motivation atkinson moreno</t>
+          <t>paper review contribution original work titled bsimulating instructional role pedagogical agent published international journal artificial intelligence education baylor kim human behavior original work operationalized instructional role simulated pedagogical agent demonstrated effectiveness agent role learning motivation publication work pedagogical agent research ha expanded scope provision intelligent guidance broad agent social affective support learner discus current progress pedagogical agent role capability speculate future agent role design expect optimizing role artificial including screen agent robot continue educational technology community technology continue evolve pedagogical agent experimental research virtual human interface design overview original paper motivation early wa empirical support presence pedagogical agent facilitated deeper learning enhanced motivation atkinson moreno</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2705,22 +2705,22 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>x1: 0.135|x2: 0.088|x3: 0.000|x4: 0.579|x5: 0.454|x6: 0.184|x7: 0.438|x8: 0.103|x9: 0.122|x10: 0.000|x11: 0.051|x12: 0.340|x13: 0.373|x14: 0.157|x15: 0.066|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.254|x5: 0.000|x6: 0.096|x7: 0.083|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.057|x12: 0.000|x13: 0.058|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.58]</t>
+          <t>[0.00, 0.03, 0.25]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 13, 12, 6, 14, 1, 9, 8]</t>
+          <t>[4]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.578970251091343, 0.4536297120826999, 0.4384458637704602, 0.37256896043644144, 0.3399396530031523, 0.1835593751911758, 0.15689535868801832, 0.13522594159662105, 0.12186565082729274, 0.10349122960369014]</t>
+          <t>[0.25364197077116546]</t>
         </is>
       </c>
       <c r="H56" t="b">
@@ -2746,29 +2746,29 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.158|x2: 0.157|x3: 0.000|x4: 0.385|x5: 0.166|x6: 0.000|x7: 0.000|x8: 0.156|x9: 0.000|x10: 0.059|x11: 0.102|x12: 0.173|x13: 0.211|x14: 0.077|x15: 0.000|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.208|x2: 0.000|x3: 0.000|x4: 0.063|x5: 0.071|x6: 0.000|x7: 0.105|x8: 0.113|x9: 0.084|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.034|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.38]</t>
+          <t>[0.00, 0.04, 0.21]</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>[4, 13, 12, 5, 1, 2, 8, 16, 11]</t>
+          <t>[1, 8, 7]</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.38489154304109924, 0.21060927619590147, 0.1730677080380984, 0.16601633034589605, 0.15822146851478663, 0.15690830690268387, 0.15574131943791109, 0.1203184195232913, 0.10209217214037122]</t>
+          <t>[0.20807154580063014, 0.11258022535789756, 0.10471534362668675]</t>
         </is>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2777,7 +2777,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mixed method study examined design potential impact mixed reality integrated learning environment mile providing simulated immersive teaching practice university teaching assistant virtual reality based learning platform integrating kinect enabled sensorimotor interface developed university teaching assistant qualitative quantitative participant participation behavior engagement perception collected video screen recording interview survey teaching self efficacy sense presence tracking result indicated mile reinforced sense presence supported performance ample range virtual teaching task action avatar embodied live gesturing environmental fidelity mixed reality learning space design arrangement virtual agent avatar affordance embodied gesturing walking salient mile design feature affected participant sense presence virtual teaching performance</t>
+          <t>mixed method study examined design potential impact mixed reality integrated learning environment mile providing simulated immersive teaching practice university teaching assistant virtual reality based learning platform integrating kinect enabled sensorimotor interface wa developed university teaching assistant qualitative quantitative participant participation behavior engagement perception collected video screen recording interview survey teaching self efficacy sense presence eye tracking result indicated mile reinforced sense presence supported performance ample range virtual teaching task action avatar embodied live gesturing environmental fidelity mixed reality learning space design arrangement virtual agent avatar affordance embodied gesturing walking salient mile design feature affected participant sense presence virtual teaching performance</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2787,22 +2787,22 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>x1: 0.139|x2: 0.205|x3: 0.000|x4: 0.402|x5: 0.398|x6: 0.123|x7: 0.205|x8: 0.120|x9: 0.000|x10: 0.068|x11: 0.307|x12: 0.191|x13: 0.200|x14: 0.190|x15: 0.000|x16: 0.140|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.191|x5: 0.125|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.086|x11: 0.104|x12: 0.102|x13: 0.085|x14: 0.084|x15: 0.074|x16: 0.081|x17: 0.000</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.40]</t>
+          <t>[0.00, 0.05, 0.19]</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[4, 5, 11, 2, 7, 13, 12, 14, 16, 1, 6, 8]</t>
+          <t>[4, 5, 11, 12]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.40187253692176383, 0.3980239726393096, 0.30659625539755325, 0.2051360692582499, 0.20482360645693026, 0.20033547464718326, 0.1911854226183855, 0.18989397819046344, 0.14003131831650042, 0.13894417685136445, 0.12287579990901623, 0.1203373092466172]</t>
+          <t>[0.19115272854653614, 0.1249113441590203, 0.10374024025269465, 0.10166280099015405]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>help investigator efficiently connect uncover network individual involved criminal activity based evidence connection visiting address transacting bank account formulate problem active search connection target entity evidence different type given lead relevance queried interactively investigator present redthread efficient solution inferring related relevant node incorporating user feedback guide inference experiment focus building combating human trafficking investigator follows lead expose organized activity different escort advertisement connected possibly orchestrated redthread local algorithm enables online building mining posted largest classified advertising website result redthread interpretable explain result connected initial lead experimentally redthread learns importance different type different piece evidence transferred</t>
+          <t>help investigator efficiently connect dot uncover network individual involved criminal activity based evidence connection visiting address transacting bank account formulate problem active search connection target entity evidence different type given lead relevance queried interactively investigator present redthread efficient solution inferring related relevant node incorporating user feedback guide inference experiment focus building combating human trafficking investigator follows lead expose organized activity different escort advertisement connected possibly orchestrated redthread local algorithm enables online building mining ad posted largest classified advertising website result redthread interpretable explain result connected initial lead experimentally redthread learns importance different type different piece evidence transferred</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2828,29 +2828,29 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.086|x2: 0.222|x3: 0.116|x4: 0.390|x5: 0.285|x6: 0.148|x7: 0.217|x8: 0.105|x9: 0.286|x10: 0.070|x11: 0.180|x12: 0.320|x13: 0.207|x14: 0.175|x15: 0.102|x16: 0.143|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.201|x3: 0.000|x4: 0.214|x5: 0.000|x6: 0.094|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.124|x12: 0.112|x13: 0.099|x14: 0.000|x15: 0.122|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.39]</t>
+          <t>[0.00, 0.07, 0.21]</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>[4, 12, 9, 5, 2, 7, 13, 11, 14, 6, 16, 3, 8, 15]</t>
+          <t>[4, 2, 16, 11, 15, 12]</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.38982195097819566, 0.32008712701446773, 0.2859107883653808, 0.2847044282889016, 0.22181039378236703, 0.21709077773433777, 0.20664821561419175, 0.17951902545577836, 0.1749149909905353, 0.14831959697285302, 0.14276210404724018, 0.11575561542797017, 0.1049626136678682, 0.1021230932386886]</t>
+          <t>[0.21390523438503545, 0.20051999364663756, 0.13672538840640933, 0.12362027256363403, 0.12175302327993742, 0.11169160562944416]</t>
         </is>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>increasingly decision significant impact life prediction affect different population subgroup result issue fairness received recent number fairness enhanced classifier appeared literature paper seek study following question different technique fundamentally compare account difference specifically seek bring attention appreciated aspect fairness enhancing intervention require investigation algorithm receive broad adoption present result open benchmark developed compare number different algorithm variety fairness measure existing datasets different algorithm tend prefer specific formulation fairness preservation measure strongly correlate addition fairness preserving algorithm tend sensitive fluctuation dataset composition simulated benchmark varying training test split different preprocessing indicating fairness intervention brittle previously thought computing methodology machine learning software engineering software library repository</t>
+          <t>increasingly decision significant impact life prediction affect different population subgroup result issue fairness ha received recent number fairness enhanced classifier appeared literature paper seek study following question different technique fundamentally compare account difference specifically seek bring attention appreciated aspect fairness enhancing intervention require investigation algorithm receive broad adoption present result open benchmark developed let compare number different algorithm variety fairness measure existing datasets different algorithm tend prefer specific formulation fairness preservation measure strongly correlate addition fairness preserving algorithm tend sensitive fluctuation dataset composition simulated benchmark varying training test split different preprocessing indicating fairness intervention brittle previously thought computing methodology machine learning software engineering software library repository</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2869,29 +2869,29 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>x1: 0.122|x2: 0.090|x3: 0.060|x4: 0.146|x5: 0.130|x6: 0.000|x7: 0.000|x8: 0.116|x9: 0.081|x10: 0.000|x11: 0.067|x12: 0.285|x13: 0.227|x14: 0.252|x15: 0.291|x16: 0.056|x17: 0.000</t>
+          <t>x1: 0.074|x2: 0.054|x3: 0.000|x4: 0.203|x5: 0.000|x6: 0.062|x7: 0.188|x8: 0.058|x9: 0.153|x10: 0.000|x11: 0.210|x12: 0.000|x13: 0.196|x14: 0.110|x15: 0.051|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.29]</t>
+          <t>[0.00, 0.08, 0.21]</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>[15, 12, 14, 13, 4, 5, 1, 8]</t>
+          <t>[11, 4, 13, 7, 9, 14]</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.29144844967068617, 0.2848867374670127, 0.2515903162013756, 0.22668792081001457, 0.14621883803566244, 0.13022443392934271, 0.12178073400965764, 0.1157139732936845]</t>
+          <t>[0.2104157052579789, 0.2031000141846037, 0.19597622073492402, 0.18793692011704127, 0.15304597868400086, 0.11020985077833069]</t>
         </is>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2900,7 +2900,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>human trafficking challenging enforcement problem demand persistent fight globe study leverage readily available website backpage classified advertisement discern potential pattern human trafficking activity manifest online identify trafficking related advertisement lack ground truth rely human analyst human trafficking victim survivor enforcement hand labeling portion crawled present semisupervised learning approach trained available labeled unlabeled evaluated unseen verification expert</t>
+          <t>human trafficking challenging law enforcement problem demand persistent fight globe study leverage readily available website backpage classified advertisement discern potential pattern human trafficking activity manifest online identify trafficking related advertisement lack ground truth rely human analyst human trafficking victim survivor law enforcement hand labeling portion crawled present semisupervised learning approach trained available labeled unlabeled evaluated unseen verification expert</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2910,22 +2910,22 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.287|x3: 0.146|x4: 0.423|x5: 0.518|x6: 0.456|x7: 0.161|x8: 0.000|x9: 0.000|x10: 0.134|x11: 0.245|x12: 0.088|x13: 0.000|x14: 0.395|x15: 0.079|x16: 0.274|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.209|x3: 0.071|x4: 0.140|x5: 0.171|x6: 0.269|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.104|x11: 0.056|x12: 0.075|x13: 0.150|x14: 0.233|x15: 0.263|x16: 0.292|x17: 0.000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.52]</t>
+          <t>[0.00, 0.12, 0.29]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[5, 6, 4, 14, 2, 16, 11, 7, 3, 10]</t>
+          <t>[16, 6, 15, 14, 2, 5, 13, 4, 10]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.5178173141109501, 0.45569183405623787, 0.4233851098002716, 0.3951366368060966, 0.28658815563549034, 0.27371105855611183, 0.2448230550545428, 0.1614676633508533, 0.14633927906062494, 0.1336647538940081]</t>
+          <t>[0.29197903791653407, 0.2691730285212776, 0.26317474572715793, 0.2327278492754646, 0.20893570542358986, 0.17064920651929594, 0.15038427074212435, 0.1400502573396194, 0.10351299644241035]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2941,7 +2941,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>appreciate help michael gallagher retired police officer currently work domestic violence agency jurisdiction studied provided important information meaning variable related enforcement procedure received important assistance prosecutorial context domestic violence marian braccia deputy district attorney district attorney office jurisdiction thanks anonymous reviewer article</t>
+          <t>appreciate help michael gallagher retired police officer currently work domestic violence agency jurisdiction studied provided important information meaning variable related law enforcement procedure received important assistance prosecutorial context domestic violence marian braccia deputy district attorney district attorney office jurisdiction thanks anonymous reviewer article</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2951,29 +2951,29 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.123|x3: 0.000|x4: 0.078|x5: 0.211|x6: 0.000|x7: 0.000|x8: 0.066|x9: 0.000|x10: 0.093|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.234|x15: 0.176|x16: 0.190|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.085|x6: 0.056|x7: 0.164|x8: 0.181|x9: 0.058|x10: 0.000|x11: 0.000|x12: 0.172|x13: 0.073|x14: 0.192|x15: 0.238|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[0.00, 0.07, 0.23]</t>
+          <t>[0.00, 0.09, 0.24]</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[14, 5, 16, 15, 2]</t>
+          <t>[15, 14, 8, 12, 7, 4]</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.23423043872544308, 0.21066916008650488, 0.1903753834768397, 0.1757129268988946, 0.12320036214526096]</t>
+          <t>[0.23798376357314552, 0.19224660144838338, 0.18111115043776024, 0.17192695471615785, 0.16366363116026042, 0.10078784790706322]</t>
         </is>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2982,7 +2982,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>work investigate gender based inequality context resume search engine tool allow recruiter proactively search candidate based keywords filter ranking algorithm demographic feature account directly indirectly produce ranking disadvantage candidate collect search result monster careerbuilder based title city resulting candidate statistical test examine search engine produce ranking exhibit type indirect discrimination individual group unfairness furthermore controlled experiment website inferred gender candidate explicit feature ranking algorithm</t>
+          <t>work investigate gender based inequality context resume search engine tool allow recruiter proactively search candidate based keywords filter ranking algorithm demographic feature account directly indirectly produce ranking disadvantage candidate collect search result monster careerbuilder based job title city resulting job candidate statistical test examine search engine produce ranking exhibit type indirect discrimination individual group unfairness furthermore controlled experiment website inferred gender candidate explicit feature ranking algorithm</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2992,22 +2992,22 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.081|x2: 0.000|x3: 0.000|x4: 0.141|x5: 0.264|x6: 0.218|x7: 0.290|x8: 0.097|x9: 0.303|x10: 0.000|x11: 0.449|x12: 0.199|x13: 0.227|x14: 0.221|x15: 0.127|x16: 0.054|x17: 0.000</t>
+          <t>x1: 0.070|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.239|x6: 0.054|x7: 0.127|x8: 0.133|x9: 0.169|x10: 0.052|x11: 0.418|x12: 0.149|x13: 0.000|x14: 0.132|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.45]</t>
+          <t>[0.00, 0.09, 0.42]</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>[11, 9, 7, 5, 13, 14, 6, 12, 4, 15]</t>
+          <t>[11, 5, 9, 12, 8, 14, 7]</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.4491006978843297, 0.302781822272635, 0.2895471659388889, 0.26426423828756657, 0.22663215907880505, 0.22130480042559625, 0.21805969464582675, 0.19928834060460146, 0.14066768616795952, 0.1268470924935858]</t>
+          <t>[0.41842544247149327, 0.2385265972789709, 0.16921646643176344, 0.14902453901534632, 0.13341293236535665, 0.13151915198953676, 0.12715939625127087]</t>
         </is>
       </c>
       <c r="H63" t="b">
@@ -3023,7 +3023,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>blind application machine learning risk amplifying bias present danger facing word embedding popular framework represent text vector machine learning natural language processing task word embeddings trained google news article exhibit female male gender stereotype disturbing extent raise concern widespread tends amplify bias geometrically gender bias shown captured direction word embedding second gender neutral word shown linearly separable gender definition word word embedding property provide methodology modifying embedding remove gender stereotype association word receptionist female maintaining desired association word queen female crowd worker evaluation standard benchmark empirically demonstrate algorithm significantly reduce gender bias embeddings preserving useful property ability cluster related concept solve analogy task resulting embeddings application amplifying gender bias</t>
+          <t>blind application machine learning run risk amplifying bias present danger facing word embedding popular framework represent text vector ha machine learning natural language processing task word embeddings trained google news article exhibit female male gender stereotype disturbing extent raise concern widespread tends amplify bias geometrically gender bias shown captured direction word embedding second gender neutral word shown linearly separable gender definition word word embedding property provide methodology modifying embedding remove gender stereotype association word receptionist female maintaining desired association word queen female crowd worker evaluation standard benchmark empirically demonstrate algorithm significantly reduce gender bias embeddings preserving useful property ability cluster related concept solve analogy task resulting embeddings application amplifying gender bias</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -3033,22 +3033,22 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.186|x2: 0.000|x3: 0.071|x4: 0.392|x5: 0.327|x6: 0.000|x7: 0.364|x8: 0.223|x9: 0.161|x10: 0.054|x11: 0.000|x12: 0.086|x13: 0.183|x14: 0.137|x15: 0.218|x16: 0.110|x17: 0.000</t>
+          <t>x1: 0.108|x2: 0.062|x3: 0.152|x4: 0.360|x5: 0.269|x6: 0.066|x7: 0.231|x8: 0.086|x9: 0.171|x10: 0.152|x11: 0.000|x12: 0.111|x13: 0.205|x14: 0.136|x15: 0.070|x16: 0.095|x17: 0.000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.39]</t>
+          <t>[0.00, 0.13, 0.36]</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>[4, 7, 5, 8, 15, 1, 13, 9, 14, 16]</t>
+          <t>[4, 5, 7, 13, 9, 10, 3, 14, 12, 1]</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[0.3915061312884858, 0.3636797847366113, 0.32666386093951416, 0.22252354375333908, 0.21820860630771416, 0.1855495374307723, 0.18263955001059734, 0.16129064649957459, 0.1372659144574001, 0.11049006841097934]</t>
+          <t>[0.36016321079297403, 0.26872891844574315, 0.2313372117603742, 0.20477661889380883, 0.1708314657056119, 0.15224571523041433, 0.15205753961327673, 0.1355360084525009, 0.11130239918693118, 0.10849246004473655]</t>
         </is>
       </c>
       <c r="H64" t="b">
@@ -3064,7 +3064,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>technology facilitated sexual violence tfsv refers range behavior digital technology facilitate virtual face face sexually based harm behavior include online sexual harassment gender sexuality based harassment cyberstalking image based sexual exploitation carriage service coerce victim unwanted sexual article review current state knowledge different dimension drawing existing empirical study growing body research technology facilitated harm perpetrated child adolescent dearth qualitative quantitative research tfsv adult existing study provide reliable nature scope impact tfsv preliminary study indicate harm like sexual violence broadly predominantly gender sexuality based young woman overrepresented victim category review collect empirical evidence date prevalence gender based nature tfsv adult discus implication policy program suggestion future research</t>
+          <t>technology facilitated sexual violence tfsv refers range behavior digital technology facilitate virtual face face sexually based harm behavior include online sexual harassment gender sexuality based harassment cyberstalking image based sexual exploitation carriage service coerce victim unwanted sexual act article review current state knowledge different dimension drawing existing empirical study growing body research technology facilitated harm perpetrated child adolescent dearth qualitative quantitative research tfsv adult existing study provide reliable nature scope impact tfsv preliminary study indicate harm like sexual violence broadly predominantly gender sexuality based young woman overrepresented victim category review collect empirical evidence date prevalence gender based nature tfsv adult discus implication policy program suggestion future research</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -3074,22 +3074,22 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.089|x2: 0.000|x3: 0.053|x4: 0.147|x5: 0.469|x6: 0.213|x7: 0.069|x8: 0.111|x9: 0.000|x10: 0.074|x11: 0.107|x12: 0.121|x13: 0.000|x14: 0.269|x15: 0.077|x16: 0.151|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.046|x3: 0.000|x4: 0.068|x5: 0.106|x6: 0.178|x7: 0.145|x8: 0.000|x9: 0.000|x10: 0.038|x11: 0.033|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.090|x17: 0.000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.47]</t>
+          <t>[0.00, 0.04, 0.18]</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>[5, 14, 6, 16, 4, 12, 8, 11]</t>
+          <t>[6, 7, 5]</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.4692664904844661, 0.2687150290296304, 0.21257417081224367, 0.15119730877676438, 0.1471996585576623, 0.12117648697072735, 0.11098699788213225, 0.1073359627701689]</t>
+          <t>[0.17837774398936193, 0.1446726174642648, 0.1056985420764763]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>study analyzes digital game development africa examining individual text operate broader international development discourse political economic product implication international development gaming industry conceptual framework proposed process looking individual game alongside organization funding structure argue digital game technological platform present revolutionary approach development africa reinforce subvert dominant approach play</t>
+          <t>study analyzes digital game development africa examining individual text operate broader international development discourse political economic product implication international development gaming industry conceptual framework proposed process looking individual game alongside organization funding structure argue digital game new technological platform present revolutionary approach development africa reinforce subvert dominant approach play</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -3115,29 +3115,29 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.079|x2: 0.000|x3: 0.288|x4: 0.348|x5: 0.113|x6: 0.058|x7: 0.280|x8: 0.142|x9: 0.394|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.091|x14: 0.203|x15: 0.142|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.079|x5: 0.062|x6: 0.000|x7: 0.136|x8: 0.000|x9: 0.071|x10: 0.000|x11: 0.114|x12: 0.039|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.39]</t>
+          <t>[0.00, 0.03, 0.14]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[9, 4, 3, 7, 14, 15, 8, 5]</t>
+          <t>[7, 11]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.39372237569478813, 0.34757687933481846, 0.2883519101993603, 0.27959373778057506, 0.20344596994192127, 0.1424499231247783, 0.141986494794284, 0.11339990085549347]</t>
+          <t>[0.13639389244670533, 0.11352856657891028]</t>
         </is>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -3146,7 +3146,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>improved understanding geographical variation inequity health status wealth access resource country increasingly recognized central meeting development goal development health indicator assessed national subnational scale conceal important inequity rural poor represented ability target limited resource fundamental especially international context funding health development come pressure recently prompted exploration potential spatial interpolation method based geolocated cluster national household survey resolution mapping feature population structure vaccination coverage access sanitation remains unclear predictable different factor different setting variable demographic group test accuracy spatial interpolation method producing gender disaggregated resolution rate literacy stunting modern contraceptive method combination geolocated demographic health survey cluster geospatial covariates bayesian geostatistical machine learning modelling method tested income country varying gridded environmental socio economic covariate datasets build spatial resolution uncertainty estimate result potential approach producing resolution gender disaggregated socio economic indicator explained variance cross validation female literacy nigeria kenya range variable substantial variation country variable seen variable showing poor mapping accuracy range explained variance geostatistical machine learning approach analysis offer robust basis construction timely level support geographically stratified decision making monitoring progress development goal great variability result country variable highlight challenge applying interpolation method universally multiple country importance validation quantifying uncertainty undertaken</t>
+          <t>improved understanding geographical variation inequity health status wealth access resource country increasingly recognized central meeting development goal development health indicator assessed national subnational scale conceal important inequity rural poor represented ability target limited resource fundamental especially international context funding health development come pressure ha recently prompted exploration potential spatial interpolation method based geolocated cluster national household survey resolution mapping feature population structure vaccination coverage access sanitation remains unclear predictable different factor different setting variable demographic group test accuracy spatial interpolation method producing gender disaggregated resolution map rate literacy stunting modern contraceptive method combination geolocated demographic health survey cluster geospatial covariates bayesian geostatistical machine learning modelling method tested low income country varying gridded environmental socio economic covariate datasets build spatial resolution map uncertainty estimate result potential approach producing resolution map gender disaggregated socio economic indicator explained variance cross validation female literacy nigeria kenya range variable substantial variation country variable seen variable showing poor mapping accuracy range explained variance geostatistical machine learning approach analysis offer robust basis construction timely map level support geographically stratified decision making monitoring progress development goal great variability result country variable highlight challenge applying interpolation method universally multiple country importance validation quantifying uncertainty undertaken</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -3156,22 +3156,22 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.114|x2: 0.233|x3: 0.124|x4: 0.206|x5: 0.152|x6: 0.063|x7: 0.135|x8: 0.171|x9: 0.194|x10: 0.101|x11: 0.000|x12: 0.105|x13: 0.000|x14: 0.156|x15: 0.086|x16: 0.208|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.000|x3: 0.000|x4: 0.192|x5: 0.183|x6: 0.000|x7: 0.165|x8: 0.123|x9: 0.060|x10: 0.000|x11: 0.173|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.138|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.23]</t>
+          <t>[0.00, 0.07, 0.19]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>[2, 16, 4, 9, 8, 14, 5, 7, 3, 1, 12, 10]</t>
+          <t>[4, 5, 11, 7, 16, 8]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.23349980565637213, 0.20769616897149507, 0.20577463596549803, 0.19415359800780319, 0.17090675199240435, 0.15569857296676273, 0.1520514616190989, 0.13467954047050523, 0.12362963280486917, 0.11390675828156484, 0.10514021475572838, 0.10142687495621211]</t>
+          <t>[0.19217547269772026, 0.18346790385247513, 0.17349882215788195, 0.16536029517331233, 0.1381917244623999, 0.12283120260520808]</t>
         </is>
       </c>
       <c r="H67" t="b">
@@ -3187,7 +3187,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>compactness landscape connectivity essential property effective functioning conservation reserve article introduce linear integer programming model determine optimal configuration conservation reserve property connectivity defined structural physical connectivity functional connectivity model developed address property apply model identify optimal conservation management area protection gopher tortoise military installation benning georgia serf safe refuge risk specie recent expansion military mission installation increase pressure scarce habitat area requires moving existent population area suitably chosen conservation management area boundary installation model suitable spatially coherent management area outside heavily training area</t>
+          <t>compactness landscape connectivity essential property effective functioning conservation reserve article introduce linear integer programming model determine optimal configuration conservation reserve property connectivity defined structural physical connectivity functional connectivity model developed address property apply model identify optimal conservation management area protection gopher tortoise military installation benning georgia serf safe refuge risk specie recent expansion military mission installation increase pressure scarce habitat area requires moving existent population area suitably chosen new conservation management area boundary installation model suitable spatially coherent management area outside heavily training area</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3197,29 +3197,29 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.150|x3: 0.000|x4: 0.050|x5: 0.000|x6: 0.139|x7: 0.178|x8: 0.000|x9: 0.192|x10: 0.000|x11: 0.126|x12: 0.265|x13: 0.122|x14: 0.170|x15: 0.285|x16: 0.075|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.103|x6: 0.000|x7: 0.200|x8: 0.000|x9: 0.090|x10: 0.045|x11: 0.222|x12: 0.059|x13: 0.000|x14: 0.242|x15: 0.126|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.28]</t>
+          <t>[0.00, 0.07, 0.24]</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[15, 12, 9, 7, 14, 2, 6, 11, 13]</t>
+          <t>[14, 11, 7, 15, 5]</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.2845389681327958, 0.2650327169084221, 0.1921579818200435, 0.17786635731930633, 0.17003826375080405, 0.14954591251477856, 0.13869280514392066, 0.12628472300344235, 0.12177575599329182]</t>
+          <t>[0.24150479236257955, 0.2217586729537182, 0.2000614578754875, 0.12567310176252966, 0.10343788865695949]</t>
         </is>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -3228,7 +3228,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>negotiation active involvement participation water manager expert stakeholder representative general public requires decision support tool environmental decision support build transparency flexibility order reach sound action plan management instrument possible active involvement stakeholder application bayesian network paper example study danish farmer hydrologist disputed degree pesticide application affected quality deep groundwater instead selecting opinion decision include adopting approach possible view result point view accepting reality situation mired insoluble conflict laying foundation future compromise paper explores tool acting dealing management groundwater protection allow stakeholder divergent value belief surfaced negotiated participatory process area conventional physically based groundwater model insufficient lack physical understanding flexibility lack integration capability agency able address institutional arrangement influencing groundwater protection complexity</t>
+          <t>negotiation active involvement participation water manager expert stakeholder representative general public requires decision support tool environmental decision support eds build transparency flexibility order reach sound action plan management instrument possible eds active involvement stakeholder application bayesian network bns paper example study danish farmer hydrologist disputed degree pesticide application affected quality deep groundwater instead selecting opinion decision wa include bns adopting approach wa possible view result point view accepting reality situation mired insoluble conflict way laying foundation future compromise paper explores bns tool acting dealing management groundwater protection bns allow stakeholder divergent value belief surfaced negotiated participatory process area conventional physically based groundwater model insufficient lack physical understanding flexibility lack integration capability way agency able address institutional arrangement influencing groundwater protection complexity</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3238,29 +3238,29 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>x1: 0.138|x2: 0.152|x3: 0.000|x4: 0.143|x5: 0.000|x6: 0.292|x7: 0.274|x8: 0.089|x9: 0.103|x10: 0.113|x11: 0.201|x12: 0.494|x13: 0.435|x14: 0.346|x15: 0.233|x16: 0.231|x17: 0.000</t>
+          <t>x1: 0.089|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.066|x8: 0.000|x9: 0.000|x10: 0.054|x11: 0.119|x12: 0.195|x13: 0.170|x14: 0.088|x15: 0.072|x16: 0.134|x17: 0.000</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.49]</t>
+          <t>[0.00, 0.06, 0.19]</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[12, 13, 14, 6, 7, 15, 16, 11, 2, 4, 1, 10, 9]</t>
+          <t>[12, 13, 16, 11]</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.4936948236885655, 0.4346737730234504, 0.3463394882092223, 0.29220867635649317, 0.27386617283662856, 0.23319672463622962, 0.23097205262181966, 0.20064510896664173, 0.15181481482741793, 0.14303049928114595, 0.13789560297948733, 0.11279347912704214, 0.1029543708259003]</t>
+          <t>[0.19493133098631987, 0.16999384623030828, 0.13447852312529102, 0.11877127429230817]</t>
         </is>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3269,7 +3269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>produced artificial intelligence ecosystem service aries platform supply defined carbon storage flood regulation demand specified recreation water joint spatial prioritisation biodiversity employing marxan zone laying spatial representation multiple management zone given transboundary setting danube river comparative analysis including country level purchasing power parity adjusted gross domestic product country percent cover area potential cost factor illustrating scheme balancing establishing specific zone country demonstrate emphasizing biodiversity target model coupling framework cost effectively test spatially explicit management option multi national study discus possible limitation future development requirement effectively managing balance biodiversity supply demand freshwater ecosystem</t>
+          <t>produced artificial intelligence ecosystem service aries platform es supply defined carbon storage flood regulation demand specified recreation water iii joint spatial prioritisation biodiversity es employing marxan zone laying spatial representation multiple management zone given transboundary setting danube river run comparative analysis including country level purchasing power parity ppp adjusted gross domestic product gdp country percent cover area potential cost factor illustrating scheme balancing establishing specific zone country demonstrate emphasizing biodiversity es target ebm model coupling framework cost effectively test spatially explicit management option multi national study discus possible limitation future development requirement effectively managing balance biodiversity es supply demand freshwater ecosystem</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3279,29 +3279,29 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.124|x3: 0.000|x4: 0.183|x5: 0.246|x6: 0.402|x7: 0.218|x8: 0.000|x9: 0.107|x10: 0.000|x11: 0.256|x12: 0.158|x13: 0.375|x14: 0.348|x15: 0.362|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.055|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.042|x7: 0.028|x8: 0.000|x9: 0.025|x10: 0.000|x11: 0.031|x12: 0.077|x13: 0.000|x14: 0.091|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.40]</t>
+          <t>[0.00, 0.02, 0.09]</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>[6, 13, 15, 14, 11, 5, 7, 4, 12, 2, 9]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>[0.40238243388132927, 0.37492440548852246, 0.36156228316479233, 0.3478897652623652, 0.25640398401808345, 0.24642785857910318, 0.2177643253207338, 0.18311537885833687, 0.15765857111166512, 0.12419845919761302, 0.10726143327382243]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -3310,7 +3310,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>deciding implement conservation action order meet conservation target efficiently important component systematic conservation planning mathematical optimisation quantitative transparent framework solving problem despite advantage exact method integer linear programming conservation planning problem date solved heuristic approach simulated annealing explain implement common conservation planning problem marxan marxan zone framework formulation extended account spatial dependency planning unit arising environmental flow river simulated datasets demonstrate outperforms respect solution quality close optimality processing time range problem size modestly sized quadratic problem spatial unit specie example processing time approximately required achieve solution optimality achieved solution optimality largest quadratic problem evaluated processing time exceeding required achieve solution optimality achieved solution optimality approximately hour heuristic conceptually simple applied large linear objective function unlike produce solution unknown quality discus approach facilitate quantification trade curve sensitivity analysis solving linear quadratic conservation planning problem recommend heuristic approach possible</t>
+          <t>deciding implement conservation action order meet conservation target efficiently important component systematic conservation planning mathematical optimisation quantitative transparent framework solving problem despite advantage exact method integer linear programming ilp conservation planning problem date solved heuristic approach simulated annealing explain implement common conservation planning problem marxan marxan zone ilp framework formulation extended account spatial dependency planning unit arising environmental flow river simulated datasets demonstrate ilp outperforms respect solution quality close optimality processing time range problem size modestly sized quadratic problem spatial unit specie example processing time approximately wa required achieve solution optimality ilp achieved solution optimality largest quadratic problem evaluated processing time exceeding wa required achieve solution optimality ilp achieved solution optimality approximately hour heuristic conceptually simple applied large linear objective function unlike ilp produce solution unknown quality discus ilp approach facilitate quantification trade curve sensitivity analysis solving linear quadratic conservation planning problem recommend ilp heuristic approach possible</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3320,29 +3320,29 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.104|x2: 0.092|x3: 0.000|x4: 0.243|x5: 0.235|x6: 0.146|x7: 0.330|x8: 0.104|x9: 0.118|x10: 0.000|x11: 0.217|x12: 0.349|x13: 0.203|x14: 0.200|x15: 0.152|x16: 0.052|x17: 0.000</t>
+          <t>x1: 0.045|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.316|x8: 0.000|x9: 0.116|x10: 0.000|x11: 0.156|x12: 0.114|x13: 0.163|x14: 0.076|x15: 0.081|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.35]</t>
+          <t>[0.00, 0.06, 0.32]</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>[12, 7, 4, 5, 11, 13, 14, 15, 6, 9, 8, 1]</t>
+          <t>[7, 13, 11, 9, 12]</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.3491827546576221, 0.32994456129398214, 0.24287444865109445, 0.23501263226698735, 0.21743679042959907, 0.20253765609050003, 0.20006469467616234, 0.15162038334682226, 0.14615632267173137, 0.11787346208721648, 0.10422885584828512, 0.10405991302989218]</t>
+          <t>[0.3155071824410713, 0.1630675047798418, 0.15584639480407766, 0.11558522733338714, 0.11404577904041638]</t>
         </is>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3351,7 +3351,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>emerged metaheuristic optimization technique colony optimization received considerable attention water resource environmental planning management decade different version proved flexible powerful solving number spatially temporally complex water resource problem discrete continuous domain single multiple objective reviewing large number peer reviewed journal paper valuable conference paper intend touch characteristic algorithm critically review state application water resource environmental management problem discrete continuous domain paper seek promote opportunity advantage disadvantage algorithm applied different area water resource problem research practice intends identify present major seminal contribution algorithm finding organized area reservoir operation surface water management water distribution urban drainage sewer groundwater management environmental watershed management current trend challenge algorithm discussed called attempt carry convergence analysis active area</t>
+          <t>emerged metaheuristic optimization technique ant colony optimization aco ha received considerable attention water resource environmental planning management decade different version aco proved flexible powerful solving number spatially temporally complex water resource problem discrete continuous domain single multiple objective reviewing large number peer reviewed journal paper valuable conference paper intend touch characteristic ant algorithm critically review state art application water resource environmental management problem discrete continuous domain paper seek promote opportunity advantage disadvantage algorithm applied different area water resource problem research practice intends identify present major seminal contribution ant algorithm finding organized area reservoir operation surface water management water distribution urban drainage sewer groundwater management environmental watershed management current trend challenge aco algorithm discussed called attempt carry convergence analysis active area</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3361,22 +3361,22 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>x1: 0.113|x2: 0.248|x3: 0.058|x4: 0.246|x5: 0.138|x6: 0.000|x7: 0.097|x8: 0.096|x9: 0.000|x10: 0.098|x11: 0.000|x12: 0.214|x13: 0.235|x14: 0.343|x15: 0.233|x16: 0.200|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.079|x5: 0.078|x6: 0.000|x7: 0.099|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.130|x12: 0.086|x13: 0.037|x14: 0.127|x15: 0.000|x16: 0.086|x17: 0.000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.34]</t>
+          <t>[0.00, 0.04, 0.13]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>[14, 2, 4, 13, 15, 12, 16, 5, 1]</t>
+          <t>[11, 14]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.34306904522946324, 0.24792937044395716, 0.2458141150890743, 0.2351252942037907, 0.23339105558837525, 0.21367808789407286, 0.20034745924711023, 0.1378109968782179, 0.11278926164276246]</t>
+          <t>[0.12988631242239837, 0.12663680096776797]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>increasing incorporation artificial intelligence automated decision making procedure highlight importance decision theory automated need decision procedure explainable involved traditional realist account explanation explanation relation hold hold eternally explanans explanandum adequate account notion explanation required artificial decision procedure offer alternative account explanation context automated decision making explanation epistemic phenomenon dependent context account explanation better account talk explanation derived concept explanatory power allows differentiate reason cause hand need epistemic aspect explanation aspect theoretical backdrop review existing approach explanation artificial intelligence machine learning suggest desideratum truly explainable decision fulfill good constructing post decision especially clearly exclusively intuitive spontaneous unconscious decision generally count adequate explanation</t>
+          <t>increasing incorporation artificial intelligence automated decision making procedure highlight importance decision theory automated need decision procedure explainable involved traditional realist account explanation explanation relation hold doe hold eternally explanans explanandum adequate account notion explanation required artificial decision procedure offer alternative account explanation context automated decision making explanation epistemic phenomenon dependent context account explanation better account way talk explanation derived concept explanatory power allows differentiate reason cause hand need epistemic aspect explanation aspect theoretical backdrop review existing approach explanation artificial intelligence machine learning suggest desideratum truly explainable decision fulfill good constructing post hoc decision especially clearly exclusively intuitive spontaneous unconscious decision generally count adequate explanation</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3402,29 +3402,29 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.183|x2: 0.144|x3: 0.128|x4: 0.261|x5: 0.401|x6: 0.166|x7: 0.357|x8: 0.205|x9: 0.140|x10: 0.089|x11: 0.000|x12: 0.211|x13: 0.227|x14: 0.000|x15: 0.164|x16: 0.183|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.111|x5: 0.110|x6: 0.000|x7: 0.175|x8: 0.000|x9: 0.000|x10: 0.106|x11: 0.000|x12: 0.131|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.40]</t>
+          <t>[0.00, 0.05, 0.18]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>[5, 7, 4, 13, 12, 8, 1, 16, 6, 15, 2, 9, 3]</t>
+          <t>[7, 16, 12, 4, 5, 10]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.40085418921523663, 0.3574337361502028, 0.26136386370198744, 0.2274442042404271, 0.2110413948007467, 0.2050484494187126, 0.1831659417305884, 0.18262830930638266, 0.16616469991916233, 0.16413429993634904, 0.14414099969570096, 0.1402894027252854, 0.12763662785852364]</t>
+          <t>[0.17533406414361438, 0.15237676635825945, 0.13056778368035152, 0.1114706915180356, 0.10988552574981406, 0.10607873305862507]</t>
         </is>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -3433,7 +3433,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>live paradox artificial intelligence match surpass human level performance domain leveraging rapid advance technology driving soaring stock price measured productivity growth declined past decade income stagnated late majority american potential explanation clash expectation statistic false hope mismeasurement redistribution implementation argue biggest contributor paradox impressive capability particularly based machine learning diffused widely importantly like general purpose technology effect realized wave complementary innovation developed implemented required adjustment cost organizational change skill modeled kind intangible capital portion value intangible capital reflected market value firm going forward national statistic fail measure benefit technology wrong sign</t>
+          <t>live paradox artificial intelligence match surpass human level performance domain leveraging rapid advance technology driving soaring stock price measured productivity growth ha declined past decade income ha stagnated late majority american potential explanation clash expectation statistic false hope mismeasurement redistribution implementation lag argue lag biggest contributor paradox impressive capability particularly based machine learning diffused widely importantly like general purpose technology effect wont realized wave complementary innovation developed implemented required adjustment cost organizational change new skill modeled kind intangible capital portion value intangible capital reflected market value firm going forward national statistic fail measure benefit new technology wrong sign</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3443,22 +3443,22 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.144|x2: 0.255|x3: 0.000|x4: 0.370|x5: 0.182|x6: 0.067|x7: 0.104|x8: 0.191|x9: 0.254|x10: 0.092|x11: 0.000|x12: 0.192|x13: 0.147|x14: 0.141|x15: 0.062|x16: 0.188|x17: 0.000</t>
+          <t>x1: 0.202|x2: 0.090|x3: 0.000|x4: 0.348|x5: 0.077|x6: 0.000|x7: 0.107|x8: 0.172|x9: 0.228|x10: 0.149|x11: 0.094|x12: 0.000|x13: 0.096|x14: 0.077|x15: 0.052|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.37]</t>
+          <t>[0.00, 0.10, 0.35]</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>[4, 2, 9, 12, 8, 16, 5, 13, 1, 14, 7]</t>
+          <t>[4, 9, 1, 8, 10, 7]</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.36990452513427474, 0.2545453344045384, 0.25376327776579355, 0.19197731700230153, 0.19093521486923443, 0.18761430038083482, 0.1817820481004735, 0.14652569656052364, 0.1436324768308061, 0.14137323842036578, 0.10381036367117003]</t>
+          <t>[0.3482740599806329, 0.2276731745125236, 0.2016722310361657, 0.17173275717977582, 0.14926304818864458, 0.10674215339463382]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3474,7 +3474,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>summarize framework study implication automation demand labor wage employment task based framework emphasizes displacement effect automation creates machine replace labor task perform displacement effect tends reduce demand labor wage counteracted productivity effect resulting cost saving generated automation increase demand labor automated task productivity effect complemented additional capital accumulation deepening automation improvement existing machinery increase demand labor countervailing effect incomplete strong automation crease output worker wage reduce labor national income powerful countervailing force automation creation labor intensive task reinstates labor activity tends increase labor counterbalance impact automation framework highlight constraint imperfection slow adjustment economy labor market automation weaken resulting productivity gain transformation mismatch skill requirement technology possibility automation introduced excessive rate possibly expense productivity enhancing technology</t>
+          <t>summarize framework study implication automation demand labor wage employment task based framework emphasizes displacement effect automation creates machine replace labor task perform displacement effect tends reduce demand labor wage counteracted productivity effect resulting cost saving generated automation increase demand labor automated task productivity effect complemented additional capital accumulation deepening automation improvement existing machinery increase demand labor countervailing effect incomplete strong automation crease output worker wage reduce labor national income powerful countervailing force automation creation new labor intensive task reinstates labor new activity tends increase labor counterbalance impact automation framework highlight constraint imperfection slow adjustment economy labor market automation weaken resulting productivity gain transformation mismatch skill requirement new technology possibility automation introduced excessive rate possibly expense productivity enhancing technology</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3484,26 +3484,26 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>x1: 0.102|x2: 0.323|x3: 0.000|x4: 0.153|x5: 0.292|x6: 0.065|x7: 0.069|x8: 0.182|x9: 0.196|x10: 0.076|x11: 0.000|x12: 0.149|x13: 0.000|x14: 0.127|x15: 0.000|x16: 0.155|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.113|x5: 0.000|x6: 0.000|x7: 0.104|x8: 0.214|x9: 0.000|x10: 0.135|x11: 0.000|x12: 0.143|x13: 0.000|x14: 0.058|x15: 0.147|x16: 0.166|x17: 0.000</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.32]</t>
+          <t>[0.00, 0.06, 0.21]</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>[2, 5, 9, 8, 16, 4, 12, 14, 1]</t>
+          <t>[8, 16, 15, 12, 10, 4, 7]</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.32283493264418334, 0.29217079890888675, 0.19627888072642552, 0.18153191716399886, 0.15530953174515397, 0.15313266979130594, 0.14871996375812932, 0.12681211342240395, 0.10156834590660621]</t>
+          <t>[0.21422247363125718, 0.16640549123522064, 0.14742327548789413, 0.14338926566541244, 0.1354139882165288, 0.11346307225320085, 0.1038929150096094]</t>
         </is>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="b">
         <v>1</v>
@@ -3515,7 +3515,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>combination availability large finegrained human behavioral advance machine learning presiding growing reliance algorithm address complex societal problem algorithmic decision making process lead objective potentially fairer decision human influenced greed prejudice fatigue hunger algorithmic decision making criticized potential enhance discrimination information power asymmetry opacity paper provide overview available technical solution enhance fairness accountability transparency algorithmic decision making highlight criticality urgency engage multi disciplinary team researcher practitioner policy maker citizen develop deploy evaluate world algorithmic decision making process designed maximize fairness transparency open algortihms opal project step</t>
+          <t>combination availability large finegrained human behavioral advance machine learning presiding growing reliance algorithm address complex societal problem algorithmic decision making process lead objective potentially fairer decision human influenced greed prejudice fatigue hunger algorithmic decision making ha criticized potential enhance discrimination information power asymmetry opacity paper provide overview available technical solution enhance fairness accountability transparency algorithmic decision making highlight criticality urgency engage multi disciplinary team researcher practitioner policy maker citizen develop deploy evaluate world algorithmic decision making process designed maximize fairness transparency open algortihms opal project step</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3525,22 +3525,22 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.109|x2: 0.221|x3: 0.089|x4: 0.000|x5: 0.239|x6: 0.117|x7: 0.248|x8: 0.088|x9: 0.153|x10: 0.094|x11: 0.067|x12: 0.409|x13: 0.315|x14: 0.210|x15: 0.000|x16: 0.192|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.075|x5: 0.059|x6: 0.000|x7: 0.183|x8: 0.000|x9: 0.106|x10: 0.078|x11: 0.000|x12: 0.125|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.170|x17: 0.000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.41]</t>
+          <t>[0.00, 0.05, 0.18]</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>[12, 13, 7, 5, 2, 14, 16, 9, 6, 1]</t>
+          <t>[7, 16, 12, 9]</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.4091952989243658, 0.31547001702357846, 0.2481982872920898, 0.2393012989316801, 0.22055531659583016, 0.20975571121022174, 0.19184223837855888, 0.15251827138330462, 0.11729251735542438, 0.10927323984450037]</t>
+          <t>[0.18256121993331603, 0.16979967301634358, 0.12452942218065471, 0.10593501561803294]</t>
         </is>
       </c>
       <c r="H76" t="b">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>examine susceptible computerisation begin implementing novel methodology estimate probability computerisation detailed occupation gaussian process classifier based estimate examine expected impact future computerisation labour market outcome primary objective analysing number risk relationship occupation probability computerisation wage educational attainment according estimate percent employment risk provide evidence wage educational attainment exhibit strong negative relationship occupation probability computerisation</t>
+          <t>examine susceptible job computerisation ass begin implementing novel methodology estimate probability computerisation detailed occupation gaussian process classifier based estimate examine expected impact future computerisation labour market outcome primary objective analysing number job risk relationship occupation probability computerisation wage educational attainment according estimate percent employment risk provide evidence wage educational attainment exhibit strong negative relationship occupation probability computerisation</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3566,22 +3566,22 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.156|x2: 0.000|x3: 0.146|x4: 0.160|x5: 0.308|x6: 0.000|x7: 0.000|x8: 0.178|x9: 0.000|x10: 0.000|x11: 0.063|x12: 0.165|x13: 0.086|x14: 0.056|x15: 0.077|x16: 0.080|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.142|x4: 0.135|x5: 0.158|x6: 0.064|x7: 0.180|x8: 0.188|x9: 0.000|x10: 0.110|x11: 0.099|x12: 0.070|x13: 0.171|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[0.00, 0.09, 0.31]</t>
+          <t>[0.00, 0.08, 0.19]</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[5, 8, 12, 4, 1, 3]</t>
+          <t>[8, 7, 13, 5, 3, 4, 10]</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.3079373875338788, 0.17775625928224426, 0.16544752131604684, 0.16010350971750004, 0.15590726618645498, 0.1463642171850932]</t>
+          <t>[0.18760368371621436, 0.17976043935027036, 0.1711827966494027, 0.1583097528486393, 0.14210929557622043, 0.13486852012703876, 0.10954061346541216]</t>
         </is>
       </c>
       <c r="H77" t="b">
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>paper present comprehensive review study employ operational research artificial intelligence technique assessment bank performance discus numerous application envelopment analysis widely applied technique field discus application technique neural network support vector machine multicriteria decision recent bank failure prediction study assessment bank</t>
+          <t>paper present comprehensive review study employ operational research artificial intelligence technique assessment bank performance discus numerous application envelopment analysis widely applied technique field discus application technique neural network support vector machine multicriteria decision aid recent bank failure prediction study assessment bank</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3607,22 +3607,22 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>x1: 0.134|x2: 0.000|x3: 0.093|x4: 0.255|x5: 0.314|x6: 0.246|x7: 0.309|x8: 0.172|x9: 0.369|x10: 0.093|x11: 0.113|x12: 0.363|x13: 0.247|x14: 0.342|x15: 0.324|x16: 0.191|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.008|x7: 0.024|x8: 0.000|x9: 0.016|x10: 0.026|x11: 0.000|x12: 0.008|x13: 0.000|x14: 0.035|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.37]</t>
+          <t>[0.00, 0.01, 0.04]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>[9, 12, 14, 15, 5, 7, 4, 13, 6, 16, 8, 1, 11]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>[0.36945821572089793, 0.3630133737808053, 0.34158365972432614, 0.32363131593330424, 0.31375262152934963, 0.3085678679633142, 0.25456241324856826, 0.24711086470020685, 0.24584246001352925, 0.19051600964386678, 0.17179276989631037, 0.13436790399395868, 0.11304672478258944]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H78" t="b">
@@ -3638,7 +3638,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>reliable water level forecasting reservoir inflow essential reservoir operation objective paper develop apply hybrid model daily water level forecasting investigate accuracy hybrid model wavelet based artificial neural network wann wavelet based adaptive neuro fuzzy inference wanfis wavelet decomposition employed decompose input time series approximation component decomposed time series input artificial neural network adaptive neuro fuzzy inference anfis wann wanfis model respectively based statistical performance wann wanfis model produce better efficiency anfis model wanfis yield best performance model wavelet decomposition improves accuracy anfis study evaluates accuracy wann wanfis model different mother wavelet including daubechies symmlet coiflet wavelet model performance dependent input mother wavelet wavelet decomposition mother wavelet improve efficiency anfis model result obtained study indicate conjunction wavelet decomposition artificial intelligence model useful tool accurate forecasting daily water level yield better efficiency conventional forecasting model</t>
+          <t>reliable water level forecasting reservoir inflow essential reservoir operation objective paper develop apply hybrid model daily water level forecasting investigate accuracy hybrid model wavelet based artificial neural network wann wavelet based adaptive neuro fuzzy inference wanfis wavelet decomposition employed decompose input time series approximation component decomposed time series input artificial neural network ann adaptive neuro fuzzy inference anfis wann wanfis model respectively based statistical performance wann wanfis model produce better efficiency ann anfis model wanfis sym yield best performance model wavelet decomposition improves accuracy ann anfis study evaluates accuracy wann wanfis model different mother wavelet including daubechies symmlet coiflet wavelet model performance dependent input set mother wavelet wavelet decomposition mother wavelet improve efficiency ann anfis model result obtained study indicate conjunction wavelet decomposition artificial intelligence model useful tool accurate forecasting daily water level yield better efficiency conventional forecasting model</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3648,22 +3648,22 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>x1: 0.170|x2: 0.249|x3: 0.000|x4: 0.127|x5: 0.056|x6: 0.274|x7: 0.425|x8: 0.198|x9: 0.253|x10: 0.000|x11: 0.235|x12: 0.367|x13: 0.257|x14: 0.121|x15: 0.000|x16: 0.095|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.049|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.058|x7: 0.097|x8: 0.000|x9: 0.166|x10: 0.000|x11: 0.172|x12: 0.115|x13: 0.088|x14: 0.116|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.42]</t>
+          <t>[0.00, 0.05, 0.17]</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>[7, 12, 6, 13, 9, 2, 11, 8, 1, 4, 14]</t>
+          <t>[11, 9, 14, 12]</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.424812182714101, 0.36651502579973794, 0.2736236189151385, 0.2571753041611875, 0.253430729643871, 0.24949975003168445, 0.2346554640669032, 0.19788216789904897, 0.1699360489559117, 0.12697066229787468, 0.1206159041995517]</t>
+          <t>[0.1722921034206626, 0.1660300107494675, 0.1156938194076585, 0.11487038596547987]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3679,7 +3679,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>electricity important asset influence economy political social security country reliable accurate planning prediction electricity demand country vital paper electricity demand ontario province canada modeled adaptive neuro fuzzy inference anfis neuro fuzzy structure defined artificial neural network trained experimental parameter fuzzy inference input model include number employment gross domestic product population dwelling count meteorological parameter related annual weather temperature collected screened statistical method based neuro fuzzy model electricity demand built electricity demand sensitive employment</t>
+          <t>electricity important asset influence economy political social security country reliable accurate planning prediction electricity demand country vital paper electricity demand ontario province canada modeled adaptive neuro fuzzy inference anfis neuro fuzzy structure defined ann artificial neural network trained experimental parameter fuzzy inference fis input model include number employment gross domestic product gdp population dwelling count meteorological parameter related annual weather temperature collected screened statistical method based neuro fuzzy model electricity demand built wa electricity demand sensitive employment</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3689,22 +3689,22 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.131|x2: 0.155|x3: 0.000|x4: 0.088|x5: 0.000|x6: 0.360|x7: 0.480|x8: 0.140|x9: 0.390|x10: 0.000|x11: 0.327|x12: 0.129|x13: 0.371|x14: 0.000|x15: 0.170|x16: 0.069|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.053|x6: 0.000|x7: 0.257|x8: 0.000|x9: 0.129|x10: 0.040|x11: 0.246|x12: 0.088|x13: 0.222|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.48]</t>
+          <t>[0.00, 0.07, 0.26]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>[7, 9, 13, 6, 11, 15, 2, 8, 1, 12]</t>
+          <t>[7, 11, 13, 9]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.4802693861506525, 0.390380877641221, 0.3711707600469272, 0.35980005359418693, 0.32710601735305544, 0.17028421243031192, 0.15514897465647748, 0.14012599342301066, 0.1311902570822818, 0.12886568977890325]</t>
+          <t>[0.2570899325802916, 0.24553431850219984, 0.22170808244496867, 0.12872942556885741]</t>
         </is>
       </c>
       <c r="H80" t="b">
@@ -3720,7 +3720,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>city region twentieth century radical turn taking place information communication technology converging innovation regional economy innovative cluster agglomeration intelligent city orientation creation environment improve cognitive skill ability learn foresee innovate paper discus driving force sustaining rise intelligent city globalization innovation cluster network open innovation based collaborative environment look movement shaping local initiative world european living application developed large company like cisco paper focus planning challenge building intelligent city interactive innovation discus problem integration physical institutional digital dimension intelligent city bridge connect spatiality</t>
+          <t>city region twentieth century radical turn taking place information communication technology converging innovation led regional economy innovative cluster agglomeration intelligent city orientation creation environment improve cognitive skill ability learn foresee innovate paper discus driving force sustaining rise intelligent city globalization innovation cluster network open innovation web based collaborative environment look movement shaping local initiative world european living lab application developed large company like ibm cisco paper focus planning challenge building intelligent city interactive innovation discus problem integration physical institutional digital dimension intelligent city bridge connect spatiality</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3730,26 +3730,26 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>x1: 0.060|x2: 0.171|x3: 0.000|x4: 0.181|x5: 0.100|x6: 0.180|x7: 0.253|x8: 0.051|x9: 0.329|x10: 0.050|x11: 0.262|x12: 0.562|x13: 0.318|x14: 0.238|x15: 0.178|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.039|x10: 0.000|x11: 0.103|x12: 0.056|x13: 0.039|x14: 0.072|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.56]</t>
+          <t>[0.00, 0.02, 0.10]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>[12, 9, 13, 11, 7, 14, 4, 6, 15, 2, 16, 5]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.562002821713349, 0.3290909407349751, 0.3180752344051188, 0.2618102984067496, 0.2528720778938254, 0.2383621948329007, 0.18056544584130266, 0.1798668941796329, 0.17781738920734338, 0.17069973541842381, 0.10203717509174962, 0.10037243752872668]</t>
+          <t>[0.10276524594566049]</t>
         </is>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="b">
         <v>1</v>
@@ -3761,7 +3761,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>problem statement recent commercial residential development substantially impacted flux quality water recharge aquifer discharge stream lake wetland ultimately recycled potable contaminant source varied scope composition issue urban water sustainability public health concern level economic development worldwide require cheap innovative environmental sensing capability interactive monitoring network tailored distributed water treatment technology address need roundtable organized explore potential role advance biotechnology bioengineering developing causative relationship spatial temporal change urbanization pattern groundwater surface water quality parameter address aspect socioeconomic constraint implementing sustainable exploitation water resource workshop outcome interactive framework quantitative analysis coupling human natural requires integrating information derived online offline point measurement geographic information based remote sensing imagery analysis groundwater</t>
+          <t>problem statement recent commercial residential development substantially impacted flux quality water recharge aquifer discharge stream lake wetland ultimately recycled potable contaminant source varied scope composition issue urban water sustainability public health concern level economic development worldwide require cheap innovative environmental sensing capability interactive monitoring network tailored distributed water treatment technology address need roundtable wa organized explore potential role advance biotechnology bioengineering aid developing causative relationship spatial temporal change urbanization pattern groundwater surface water quality parameter address aspect socioeconomic constraint implementing sustainable exploitation water resource workshop outcome interactive framework quantitative analysis coupling human natural requires integrating information derived online offline point measurement geographic information gi based remote sensing imagery analysis groundwater</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3771,26 +3771,26 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.000|x3: 0.154|x4: 0.294|x5: 0.160|x6: 0.254|x7: 0.350|x8: 0.070|x9: 0.158|x10: 0.074|x11: 0.399|x12: 0.310|x13: 0.127|x14: 0.161|x15: 0.229|x16: 0.152|x17: 0.000</t>
+          <t>x1: 0.048|x2: 0.000|x3: 0.000|x4: 0.119|x5: 0.000|x6: 0.136|x7: 0.246|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.210|x12: 0.130|x13: 0.044|x14: 0.102|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.40]</t>
+          <t>[0.00, 0.06, 0.25]</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>[11, 7, 12, 4, 6, 15, 14, 5, 9, 3, 16, 13]</t>
+          <t>[7, 11, 6, 12, 4, 14]</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.39880043320285496, 0.3502159631854996, 0.31020718689315385, 0.29432320798447587, 0.25442162984674527, 0.22910740887945952, 0.16059368007799246, 0.1603683599821819, 0.15763740862224232, 0.1537449531565247, 0.15227724076335028, 0.12740250625937383]</t>
+          <t>[0.24564457956697536, 0.2095604929211697, 0.1359326100247524, 0.12958444977814612, 0.11917365942146572, 0.10203208308078707]</t>
         </is>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="b">
         <v>1</v>
@@ -3802,7 +3802,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>chapter present methodology maintenance optimization heterogeneous infrastructure composed multiple facility different characteristic environment material deterioration process present stage approach step optimal near optimal maintenance policy facility input level optimization second step problem formulated constrained combinatorial optimization problem best combination facility level optimal near optimal solution identified evolutionary algorithm adopted solve combinatorial optimization problem performance evaluated hypothetical pavement section near optimal solution difference optimal solution obtained numerical experiment potential proposed algorithm solve maintenance optimization problem realistic heterogeneous</t>
+          <t>chapter present methodology maintenance optimization heterogeneous infrastructure composed multiple facility different characteristic environment material deterioration process present stage approach step optimal near optimal maintenance policy facility input level optimization second step problem formulated constrained combinatorial optimization problem best combination facility level optimal near optimal solution identified evolutionary algorithm adopted solve combinatorial optimization problem performance evaluated hypothetical pavement section near optimal solution le difference optimal solution obtained numerical experiment potential proposed algorithm solve maintenance optimization problem realistic heterogeneous</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3812,29 +3812,29 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.168|x2: 0.297|x3: 0.249|x4: 0.084|x5: 0.208|x6: 0.193|x7: 0.267|x8: 0.191|x9: 0.173|x10: 0.102|x11: 0.204|x12: 0.281|x13: 0.223|x14: 0.398|x15: 0.177|x16: 0.210|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.085|x3: 0.000|x4: 0.049|x5: 0.000|x6: 0.032|x7: 0.086|x8: 0.000|x9: 0.071|x10: 0.029|x11: 0.000|x12: 0.044|x13: 0.085|x14: 0.099|x15: 0.000|x16: 0.056|x17: 0.000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.40]</t>
+          <t>[0.00, 0.04, 0.10]</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>[14, 2, 12, 7, 3, 13, 16, 5, 11, 6, 8, 15, 9, 1, 10]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>[0.3982811142672414, 0.2974910781671193, 0.28126978568028616, 0.26664205486351666, 0.2487164842535962, 0.22315295359159384, 0.2095932099518231, 0.2079684972586637, 0.20385097576967035, 0.1932612794884888, 0.19125226081297036, 0.17725568600476868, 0.17251779518092616, 0.16799834163893418, 0.10235328076933495]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -3843,7 +3843,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>impact industrial digital information revolution undoubtedly substantial practically aspect society life firm employment forthcoming revolution produce similar farreaching effect examining analogous invention industrial digital revolution article claim target bring extensive change affect aspect society life addition impact firm employment considerable resulting richly interconnected organization decision making based analysis exploitation intensified global competition firm capable buying good obtaining service world internet exploiting unlimited additional benefit open widespread usage invention paper concludes significant competitive advantage continue accrue utilizing internet widely willing entrepreneurial risk order turn innovative worldwide commercial success story greatest challenge facing society firm utilising benefit availing technology providing vast opportunity immense productivity improvement avoiding danger disadvantage term unemployment greater wealth inequality</t>
+          <t>impact industrial digital information revolution ha undoubtedly substantial practically aspect society life firm employment forthcoming revolution produce similar farreaching effect examining analogous invention industrial digital revolution article claim target bring extensive change affect aspect society life addition impact firm employment considerable resulting richly interconnected organization decision making based analysis exploitation big intensified global competition firm capable buying good obtaining service world internet exploiting unlimited additional benefit open widespread usage invention paper concludes significant competitive advantage continue accrue utilizing internet widely willing entrepreneurial risk order turn innovative worldwide commercial success story greatest challenge facing society firm utilising benefit availing technology providing vast opportunity new immense productivity improvement avoiding danger disadvantage term unemployment greater wealth inequality</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3853,22 +3853,22 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>x1: 0.098|x2: 0.170|x3: 0.000|x4: 0.283|x5: 0.075|x6: 0.000|x7: 0.059|x8: 0.124|x9: 0.253|x10: 0.064|x11: 0.194|x12: 0.213|x13: 0.175|x14: 0.344|x15: 0.156|x16: 0.131|x17: 0.000</t>
+          <t>x1: 0.094|x2: 0.000|x3: 0.000|x4: 0.150|x5: 0.000|x6: 0.000|x7: 0.286|x8: 0.000|x9: 0.222|x10: 0.061|x11: 0.302|x12: 0.075|x13: 0.000|x14: 0.116|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.34]</t>
+          <t>[0.00, 0.08, 0.30]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>[14, 4, 9, 12, 11, 13, 2, 15, 16, 8]</t>
+          <t>[11, 7, 9, 4, 14]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.3438674495414746, 0.2830451488317866, 0.25291026593751237, 0.21258790571763578, 0.19442139275945697, 0.1747734556188927, 0.16985965248204388, 0.15638740990882444, 0.13098823719955546, 0.12408158136541568]</t>
+          <t>[0.30203144534201304, 0.2864004173091085, 0.2218702561395528, 0.15004577361884497, 0.11637859192563205]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -3884,7 +3884,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>market abuse attracted attention financial regulator world difficult fully prevent reason lack thoroughly study market abuse strategy corresponding effective market abuse approach paper strategy reported price manipulation analysed related empirical study transformation defined convert time varying financial trading time series machine learning algorithm easily applied detection price manipulation evaluation experiment conducted stock nasdaq promising improved performance effectively detecting manipulation</t>
+          <t>market abuse ha attracted attention financial regulator world difficult fully prevent reason lack thoroughly study market abuse strategy corresponding effective market abuse approach paper strategy reported price manipulation analysed related empirical study transformation defined convert time varying financial trading time series machine learning algorithm easily applied detection price manipulation evaluation experiment conducted stock nasdaq promising improved performance effectively detecting manipulation</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3894,29 +3894,29 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.160|x4: 0.192|x5: 0.353|x6: 0.096|x7: 0.216|x8: 0.094|x9: 0.119|x10: 0.078|x11: 0.057|x12: 0.280|x13: 0.000|x14: 0.133|x15: 0.124|x16: 0.159|x17: 0.000</t>
+          <t>x1: 0.187|x2: 0.038|x3: 0.119|x4: 0.180|x5: 0.115|x6: 0.000|x7: 0.000|x8: 0.126|x9: 0.000|x10: 0.244|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.182|x17: 0.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.35]</t>
+          <t>[0.00, 0.07, 0.24]</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>[5, 12, 7, 4, 3, 16, 14, 15, 9]</t>
+          <t>[10, 1, 16, 4, 8, 3, 5]</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.3530924437419267, 0.2802552289958369, 0.21632932460174556, 0.1917879546193082, 0.1597173642316863, 0.15886495936115144, 0.13263407874190855, 0.12414454605068442, 0.11853947215737036]</t>
+          <t>[0.2435262666777571, 0.18710869001688285, 0.18212335738362204, 0.1802124337484893, 0.12553390138134427, 0.1191190464936784, 0.1147821126740512]</t>
         </is>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3925,7 +3925,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>society increasingly relying driven predictive model automated decision making design nature noisiness observational model systematically disadvantage belonging certain category group instead relying solely individual merit happen computing process fair intentioned mining study predictive model free discrimination historical built biased incomplete contain past discriminatory decision discrimination aware mining emerging research discipline firm consensus measure performance algorithm goal survey review discrimination measure analytically computationally analyze performance highlight implication measure measure discipline measuring discrimination potentially suitable purpose survey primarily intended researcher mining machine learning step producing unifying view performance criterion developing algorithm discriminatory predictive modeling addition practitioner policy maker study diagnosing potential discrimination predictive model</t>
+          <t>society increasingly relying driven predictive model automated decision making design nature noisiness observational model systematically disadvantage belonging certain category group instead relying solely individual merit happen computing process fair intentioned mining study predictive model free discrimination historical built biased incomplete contain past discriminatory decision discrimination aware mining emerging research discipline firm consensus measure performance algorithm goal survey review discrimination measure analytically computationally analyze performance highlight implication measure measure discipline measuring discrimination potentially suitable purpose survey primarily intended researcher mining machine learning step producing unifying view performance criterion developing new algorithm discriminatory predictive modeling addition practitioner policy maker study diagnosing potential discrimination predictive model</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3935,22 +3935,22 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>x1: 0.125|x2: 0.067|x3: 0.103|x4: 0.280|x5: 0.239|x6: 0.000|x7: 0.283|x8: 0.130|x9: 0.130|x10: 0.077|x11: 0.127|x12: 0.056|x13: 0.216|x14: 0.135|x15: 0.065|x16: 0.159|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.062|x4: 0.086|x5: 0.101|x6: 0.000|x7: 0.145|x8: 0.144|x9: 0.170|x10: 0.052|x11: 0.113|x12: 0.224|x13: 0.000|x14: 0.070|x15: 0.000|x16: 0.167|x17: 0.000</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.28]</t>
+          <t>[0.00, 0.08, 0.22]</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>[7, 4, 5, 13, 16, 14, 8, 9, 11, 1, 3]</t>
+          <t>[12, 9, 16, 7, 8, 11, 5]</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.2834772451766838, 0.2802780695944387, 0.2386759248095563, 0.21612752548505917, 0.1586905491081992, 0.13472231795336395, 0.1298644979074388, 0.1297980757611492, 0.12749418374137286, 0.12481235578397591, 0.10339030078889853]</t>
+          <t>[0.22401493455580157, 0.1700884926762084, 0.16704212829585255, 0.14533318091474712, 0.1438133498391974, 0.11318079136869649, 0.1008391044169733]</t>
         </is>
       </c>
       <c r="H86" t="b">
@@ -3966,7 +3966,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>background increasing discriminatory challenge facing artificial intelligence application paper examines requirement needed comply european discrimination prevent discrimination automated online advertising business paper explains circumstance automated targeting advertisement direct indirect discrimination paper concludes technical recommendation dismantle danger automated advertising option like influencing processing altering algorithmic model evaluated paper examines possibility technique like mining machine learning actively battle direct indirect discrimination european discrimination directive prohibit direct indirect discrimination field employment ground race ethnic origin sexual orientation religious belief disability legal framework</t>
+          <t>background increasing discriminatory challenge facing artificial intelligence application paper examines requirement needed comply european discrimination law prevent discrimination automated online job advertising business paper explains circumstance automated targeting job advertisement direct indirect discrimination paper concludes technical recommendation dismantle danger automated job advertising option like influencing pre processing big altering algorithmic model evaluated paper examines possibility technique like mining machine learning actively battle direct indirect discrimination european discrimination directive prohibit direct indirect discrimination field employment ground race ethnic origin sex sexual orientation religious belief disability legal framework</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3976,29 +3976,29 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.160|x6: 0.127|x7: 0.176|x8: 0.075|x9: 0.282|x10: 0.078|x11: 0.264|x12: 0.188|x13: 0.124|x14: 0.193|x15: 0.158|x16: 0.160|x17: 0.000</t>
+          <t>x1: 0.164|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.038|x6: 0.000|x7: 0.000|x8: 0.161|x9: 0.000|x10: 0.141|x11: 0.187|x12: 0.123|x13: 0.000|x14: 0.110|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.28]</t>
+          <t>[0.00, 0.05, 0.19]</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>[9, 11, 14, 12, 7, 5, 16, 15, 6, 13]</t>
+          <t>[11, 1, 8, 10, 12, 14]</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.28221793249963795, 0.2639931440317768, 0.1931499802206547, 0.1877680754316101, 0.17567413634356774, 0.16032704454928853, 0.16017815440294197, 0.15771540716583762, 0.12666224195749845, 0.1242151525086655]</t>
+          <t>[0.1874023548771228, 0.16447915082867598, 0.16107692000423232, 0.14060983945794522, 0.12345483607930392, 0.11029333188513324]</t>
         </is>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -4007,7 +4007,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>long cartographic tradition describing city focus characteristic resident review history type urban social analysis highlight persistent challenge paper existing geodemographic approach extended coupling kohonen self organizing algorithm mining technique geographic information approach allows construction linked social attribute geographic space novel type geodemographic classification allows hierarchical grouping exploration relationship social similarity geographic proximity allows filter complex demographic datasets capable highlighting general social pattern retaining fundamental social fingerprint city dataset describing attribute census tract york city analyzed illustrate technique pair social geographic formally compared simple pattern metric analysis york city question assumption functional spatial relationship underlie modeling statistical technique</t>
+          <t>long cartographic tradition describing city focus characteristic resident review history type urban social analysis highlight persistent challenge paper existing geodemographic approach extended coupling kohonen self organizing map algorithm som mining technique geographic information gi approach allows construction linked map social attribute geographic space novel type geodemographic classification allows hoc hierarchical grouping exploration relationship social similarity geographic proximity allows filter complex demographic datasets capable highlighting general social pattern retaining fundamental social fingerprint city dataset describing attribute census tract new york city analyzed illustrate technique pair social geographic map formally compared simple pattern metric analysis new york city question assumption functional spatial relationship underlie modeling statistical technique</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -4017,22 +4017,22 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.166|x2: 0.194|x3: 0.000|x4: 0.316|x5: 0.255|x6: 0.174|x7: 0.329|x8: 0.181|x9: 0.148|x10: 0.077|x11: 0.407|x12: 0.439|x13: 0.237|x14: 0.258|x15: 0.267|x16: 0.157|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.118|x8: 0.000|x9: 0.109|x10: 0.092|x11: 0.340|x12: 0.266|x13: 0.081|x14: 0.053|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.44]</t>
+          <t>[0.00, 0.07, 0.34]</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>[12, 11, 7, 4, 15, 14, 5, 13, 2, 8, 6, 1, 16, 9]</t>
+          <t>[11, 12, 7, 9]</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[0.43899600304038866, 0.4073199284654383, 0.3288613674355777, 0.3160486378740622, 0.26713314464509974, 0.2576215630749833, 0.2550281230529509, 0.2369039789630587, 0.19446601075393938, 0.1813208759915305, 0.17422523565754755, 0.16595170027327874, 0.15719023338499138, 0.14768168629142156]</t>
+          <t>[0.3403100990582414, 0.26555589824631254, 0.11846484246206518, 0.10864508518134589]</t>
         </is>
       </c>
       <c r="H88" t="b">
@@ -4048,7 +4048,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>present aidr artificial intelligence disaster response platform designed perform automatic classification crisis related microblog communication aidr enables human machine work apply human intelligence large scale speed objective aidr classify message post disaster user defined category information need damage purpose continuously ingests twitter process machine learning classification technique leverage human participation crowdsourcing time aidr successfully tested classify informative informative tweet posted pakistan earthquake overall achieved classification quality measured aidr available http aidr qcri</t>
+          <t>present aidr artificial intelligence disaster response platform designed perform automatic classification crisis related microblog communication aidr enables human machine work apply human intelligence large scale speed objective aidr classify message post disaster set user defined category information need damage purpose continuously ingests twitter process machine learning classification technique leverage human participation crowdsourcing time aidr ha successfully tested classify informative informative tweet posted pakistan earthquake overall achieved classification quality measured auc aidr available http aidr qcri org</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -4058,22 +4058,22 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>x1: 0.135|x2: 0.000|x3: 0.000|x4: 0.257|x5: 0.199|x6: 0.324|x7: 0.065|x8: 0.162|x9: 0.183|x10: 0.063|x11: 0.076|x12: 0.374|x13: 0.170|x14: 0.225|x15: 0.131|x16: 0.129|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.082|x3: 0.000|x4: 0.103|x5: 0.108|x6: 0.055|x7: 0.203|x8: 0.082|x9: 0.084|x10: 0.301|x11: 0.000|x12: 0.082|x13: 0.127|x14: 0.000|x15: 0.000|x16: 0.131|x17: 0.000</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.37]</t>
+          <t>[0.00, 0.08, 0.30]</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>[12, 6, 4, 14, 5, 9, 13, 8, 1, 15, 16]</t>
+          <t>[10, 7, 16, 13, 5, 4]</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.3740147237033689, 0.32389688356282337, 0.2568416918324916, 0.22517189215406164, 0.19927038664612942, 0.18312115464037776, 0.17046690197793712, 0.1624593916308967, 0.13476391273067326, 0.13069957053422437, 0.1291112940177614]</t>
+          <t>[0.3010624018811958, 0.20304564430763988, 0.13082461268876636, 0.12702646772663043, 0.10777843627274704, 0.10306564259413166]</t>
         </is>
       </c>
       <c r="H89" t="b">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>paper present result attempt perform modeling concentration urban area vicinity copper smelter serbia anfis methodological approach obtained model develop prediction tool calculate potential concentration prescribed limitation based input parameter predictor technogenic meteorological input parameter considered accordingly dependence concentration modeled function wind speed wind direction temperature humidity sulfur emitted process sulfidic copper concentration treatment</t>
+          <t>paper present result attempt perform modeling concentration urban area vicinity copper smelter bor serbia anfis methodological approach aim obtained model wa develop prediction tool calculate potential concentration prescribed limitation based input parameter predictor technogenic meteorological input parameter considered accordingly dependence concentration wa modeled function wind speed wind direction air temperature humidity sulfur emitted process sulfidic copper concentration treatment</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -4099,22 +4099,22 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.215|x2: 0.205|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.231|x7: 0.459|x8: 0.224|x9: 0.164|x10: 0.061|x11: 0.254|x12: 0.271|x13: 0.333|x14: 0.048|x15: 0.139|x16: 0.125|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.082|x3: 0.000|x4: 0.000|x5: 0.054|x6: 0.000|x7: 0.432|x8: 0.000|x9: 0.151|x10: 0.129|x11: 0.232|x12: 0.208|x13: 0.296|x14: 0.108|x15: 0.051|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.46]</t>
+          <t>[0.00, 0.10, 0.43]</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>[7, 13, 12, 11, 6, 8, 1, 2, 9, 15, 16]</t>
+          <t>[7, 13, 11, 12, 9, 10, 14]</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.459164842386319, 0.3334081409268137, 0.2710745840359669, 0.2543552400088449, 0.2312204093621876, 0.22378745614310494, 0.21477239485567898, 0.20455119353970158, 0.16379933478458322, 0.13943819764507503, 0.12466296412300115]</t>
+          <t>[0.43216632991957643, 0.29559816630097663, 0.23171494858283526, 0.2082680823323614, 0.15106601508532608, 0.12938695673323275, 0.10754577290655139]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4130,7 +4130,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>study present basic concept application artificial intelligence development intelligent transport smart city india growing urbanization government realized need developing smart city cope challenge urban living magnet investment india transport smart city accessible safe environmentally friendly faster comfortable affordable compromising future need indian city largely lack intelligent transport india problem inefficient public transport severe congestion increasing incidence road accident inadequate parking space rapidly increasing energy cost development intelligent transportation essential smart city concern environmental economic social equity artificial intelligence technology resolve issue urgent need adopt artificial intelligence development intelligent transport better understand control operation smart city main objective study present basic concept artificial intelligence application development intelligent transport smart city india study concludes artificial intelligence need adopted develop smart public transport intelligent traffic management control smart traveller information smart parking management safe mobility emergency smart city expected study pave development intelligent transport smart city india</t>
+          <t>study present basic concept application artificial intelligence ai development intelligent transport smart city india growing urbanization government ha realized need developing smart city cope challenge urban living magnet investment india transport smart city accessible safe environmentally friendly faster comfortable affordable compromising future need indian city largely lack intelligent transport india problem inefficient public transport severe congestion increasing incidence road accident inadequate parking space rapidly increasing energy cost development intelligent transportation essential smart city concern environmental economic social equity artificial intelligence technology resolve issue urgent need adopt artificial intelligence development intelligent transport better understand control operation smart city main objective study present basic concept artificial intelligence application development intelligent transport smart city india study concludes artificial intelligence need adopted develop smart public transport intelligent traffic management control smart traveller information smart parking management safe mobility emergency smart city expected study pave way development intelligent transport smart city india</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -4140,29 +4140,29 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.147|x4: 0.158|x5: 0.000|x6: 0.179|x7: 0.267|x8: 0.000|x9: 0.166|x10: 0.000|x11: 0.456|x12: 0.234|x13: 0.173|x14: 0.049|x15: 0.152|x16: 0.091|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: -0.002|x5: 0.000|x6: -0.002|x7: -0.004|x8: 0.000|x9: -0.002|x10: 0.000|x11: -0.007|x12: -0.002|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.46]</t>
+          <t>[-0.01, -0.00, 0.00]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[11, 7, 12, 6, 13, 9, 4, 15, 3]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[0.456282901296476, 0.26650701058934423, 0.23421763577760027, 0.17860638143605137, 0.17271473660274267, 0.16600807134724685, 0.15834361894845816, 0.15155296828906042, 0.14735182874140856]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -4171,7 +4171,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>license plate recognition divided following step preprocessing plate region extraction plate region thresholding character segmentation character recognition post processing step combination color shape information plate satisfactory extraction result achieved step channel selected threshold computed finally region thresholded step character segmented vertical horizontal direction tentative optimization applied step euclidean distance based template matching confusing character special processing necessary step validity checked machine manual experiment performed program based aforementioned algorithm indicates based color image processing quick accurate</t>
+          <t>license plate recognition lpr divided following step preprocessing plate region extraction plate region thresholding character segmentation character recognition post processing step combination color shape information plate satisfactory extraction result achieved step channel selected threshold computed finally region thresholded step character segmented vertical horizontal direction tentative optimization applied step euclidean distance based template matching confusing character special processing necessary step validity checked machine manual experiment performed program based aforementioned algorithm indicates lpr based color image processing quick accurate</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -4181,22 +4181,22 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.178|x2: 0.113|x3: 0.050|x4: 0.325|x5: 0.273|x6: 0.138|x7: 0.243|x8: 0.237|x9: 0.126|x10: 0.087|x11: 0.142|x12: 0.229|x13: 0.063|x14: 0.000|x15: 0.000|x16: 0.179|x17: 0.000</t>
+          <t>x1: 0.242|x2: 0.221|x3: 0.000|x4: 0.098|x5: 0.073|x6: 0.128|x7: 0.286|x8: 0.345|x9: 0.288|x10: 0.259|x11: 0.140|x12: 0.311|x13: 0.072|x14: 0.075|x15: 0.000|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.33]</t>
+          <t>[0.00, 0.16, 0.35]</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 8, 12, 16, 1, 11, 6, 9, 2]</t>
+          <t>[8, 12, 9, 7, 10, 1, 2, 11, 16, 6]</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.32537074594704346, 0.27273764895647074, 0.2434402297076144, 0.23681636133944192, 0.22882957598439846, 0.17865731204952345, 0.17809292685906178, 0.14249278902936938, 0.1377846379243883, 0.12574957388249278, 0.11277712315009414]</t>
+          <t>[0.3452006293782537, 0.3105038119567335, 0.2878900914483201, 0.28559697351723357, 0.25869057158999365, 0.24159692865934296, 0.2210518614559932, 0.1399276594279566, 0.13749178018426977, 0.12759118829878532]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4212,7 +4212,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>nonlinear artificial intelligence ensemble prediction naiep model developed predicting typhoon based multiple neural network expected output evolutionary genetic algorithm model validated short range forecast typhoon south china result naiep model clearly better climatology persistence cliper model forecast typhoon identical predictor sample prediction genetic neural network ensemble prediction gnnep model compared single prediction model proven theoretically accurate computation analysis generalization capacity gnnep demonstrate prediction ensemble model integrates prediction optimized ensemble member generalization capacity ensemble prediction model enhanced model better address overfitting problem generally exists traditional neural network approach practical weather prediction</t>
+          <t>new nonlinear artificial intelligence ensemble prediction naiep model ha developed predicting typhoon based multiple neural network expected output evolutionary genetic algorithm model validated short range forecast typhoon south china sea sc result naiep model clearly better climatology persistence cliper model forecast typhoon identical predictor sample prediction genetic neural network gnn ensemble prediction gnnep model compared single gnn prediction model ha proven theoretically accurate computation analysis generalization capacity gnnep demonstrate prediction ensemble model integrates prediction optimized ensemble member generalization capacity ensemble prediction model enhanced model better address overfitting problem generally exists traditional neural network approach practical weather prediction</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -4222,29 +4222,29 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.153|x2: 0.394|x3: 0.000|x4: 0.283|x5: 0.146|x6: 0.289|x7: 0.552|x8: 0.173|x9: 0.366|x10: 0.070|x11: 0.338|x12: 0.197|x13: 0.336|x14: 0.000|x15: 0.104|x16: 0.143|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.195|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.136|x10: 0.160|x11: 0.000|x12: 0.162|x13: 0.225|x14: 0.098|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.55]</t>
+          <t>[0.00, 0.06, 0.23]</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>[7, 2, 9, 11, 13, 6, 4, 12, 8, 1, 5, 16, 15]</t>
+          <t>[13, 2, 12, 10, 9]</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.5519074703008406, 0.3942407198630107, 0.36613422884761115, 0.3375382680451017, 0.3361193748539327, 0.289317499769884, 0.28265117595066813, 0.19698835463308642, 0.1730628837240002, 0.15258885919447107, 0.14632129215710307, 0.1427778451576717, 0.1041308620580543]</t>
+          <t>[0.22530536628750564, 0.1953608495105341, 0.16163851684173847, 0.15954022090981768, 0.1364407822412012]</t>
         </is>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>automatic video analysis urban surveillance camera fast emerging field based vision technique present comprehensive review state vision traffic video critical analysis outlook future research direction field increasing relevance intelligent transport decreasing hardware cost increasing deployment camera opened wide application field video analytics monitoring objective congestion traffic rule violation vehicle interaction targeted camera typically originally installed human operator detection classification vehicle highway successfully classical visual surveillance technique background estimation motion tracking time urban domain challenging respect traffic density camera angle lead degree occlusion variety road user method object categorization modeling inspired advanced technique tackle challenge commonly benchmark challenge direct comparison proposed algorithm difficult addition evaluation challenging weather condition rain darkness desirable rarely performed future work directed robust combined detector classifier road user focus realistic condition evaluation</t>
+          <t>automatic video analysis urban surveillance camera fast emerging field based vision technique present comprehensive review state art vision traffic video critical analysis outlook future research direction field increasing relevance intelligent transport decreasing hardware cost increasing deployment camera opened wide application field video analytics monitoring objective congestion traffic rule violation vehicle interaction targeted camera typically originally installed human operator detection classification vehicle highway successfully classical visual surveillance technique background estimation motion tracking time urban domain challenging respect traffic density camera angle lead degree occlusion variety road user method object categorization modeling inspired advanced technique tackle challenge commonly set benchmark challenge direct comparison proposed algorithm difficult addition evaluation challenging weather condition rain fog darkness desirable rarely performed future work directed robust combined detector classifier road user focus realistic condition evaluation</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4263,22 +4263,22 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.065|x2: 0.149|x3: 0.267|x4: 0.148|x5: 0.175|x6: 0.243|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.134|x11: 0.393|x12: 0.000|x13: 0.169|x14: 0.153|x15: 0.195|x16: 0.274|x17: 0.000</t>
+          <t>x1: 0.095|x2: 0.000|x3: 0.280|x4: 0.078|x5: 0.181|x6: 0.082|x7: 0.122|x8: 0.069|x9: 0.000|x10: 0.151|x11: 0.193|x12: 0.125|x13: 0.137|x14: 0.000|x15: 0.000|x16: 0.151|x17: 0.000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.39]</t>
+          <t>[0.00, 0.10, 0.28]</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>[11, 16, 3, 6, 15, 5, 13, 14, 2, 4, 10]</t>
+          <t>[3, 11, 5, 16, 10, 13, 12, 7]</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.3928996541951096, 0.2744628125729947, 0.2666511776755668, 0.24269161396833955, 0.19516838131227535, 0.17481008153601116, 0.16857044058733336, 0.15264318433723825, 0.149388556316644, 0.14838496645192498, 0.13403186736098138]</t>
+          <t>[0.2796387892257969, 0.19338183707361256, 0.18127254157511008, 0.15148308644454128, 0.15104823944352647, 0.13652626626560443, 0.12508345947628072, 0.12216317287252437]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4294,7 +4294,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>loss matter captured statistic dollar value engineer chipping away staggering number long time seat belt save thousand supercomputer designer create frame body protect inside absorbing energy crash possible result number fatality mile vehicle travel decreased ultimate solution save life limb money smashing place exactly engineer united state europe japan trying applying advanced microprocessor radar speed signal processing chip algorithm program mark face automotive industry safety kick accident occurs attempting minimize injury damage prevent collision altogether collision avoidance feature road pricey adaptive cruise control option group luxury</t>
+          <t>loss matter captured statistic way dollar value engineer chipping away staggering number long time air bag seat belt save thousand supercomputer let designer create car frame body protect inside absorbing energy crash possible result number fatality mile vehicle travel ha decreased ultimate solution save far life limb money car smashing place exactly engineer united state europe japan trying applying advanced microprocessor radar speed ic signal processing chip algorithm program mark face automotive industry safety kick accident occurs attempting minimize injury damage prevent collision altogether collision avoidance feature road pricey adaptive cruise control option group luxury car</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4304,22 +4304,22 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.053|x3: 0.267|x4: 0.274|x5: 0.301|x6: 0.181|x7: 0.055|x8: 0.063|x9: 0.274|x10: 0.098|x11: 0.388|x12: 0.300|x13: 0.086|x14: 0.353|x15: 0.209|x16: 0.201|x17: 0.000</t>
+          <t>x1: 0.135|x2: 0.193|x3: 0.082|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.275|x8: 0.000|x9: 0.234|x10: 0.000|x11: 0.141|x12: 0.281|x13: 0.180|x14: 0.349|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.39]</t>
+          <t>[0.00, 0.11, 0.35]</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>[11, 14, 5, 12, 9, 4, 3, 15, 16, 6]</t>
+          <t>[14, 12, 7, 9, 2, 13, 11, 1]</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.38779907603103675, 0.3531570452827311, 0.301483177607127, 0.2997940543371602, 0.27435234580319123, 0.27369824206460075, 0.2668017065186255, 0.20936917466674432, 0.20088357661070336, 0.18051049049159204]</t>
+          <t>[0.3486990325190081, 0.28112052124134185, 0.27472689602282807, 0.2342415988107369, 0.19338113931002007, 0.1795901760278335, 0.1414034707145032, 0.13464690985768815]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4335,7 +4335,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>harmful algal bloom considered environmental problem nowadays occur coastal water world cause acute ecological damage ensuing economic loss fish kill shellfish poisoning public health threat posed toxic bloom recently driven model including machine learning technique employed mimic dynamic algal bloom important step application technique selection significant model input variable present paper extensively technique artificial neural network genetic programming selecting significant input variable efficacy technique demonstrated test problem known dependence applied world study water quality tolo harbour hong kong technique overcome limitation currently technique input variable selection review presented interpretation weight trained evolved equation demonstrate ability identify ecologically significant variable precisely significant variable suggested technique indicate chlorophyll chla significant input predicting algal bloom suggesting auto regressive nature persistence algal bloom dynamic related long flushing time semi enclosed coastal water study confirms previous understanding algal bloom coastal water hong kong occur life cycle order week</t>
+          <t>harmful algal bloom considered environmental problem nowadays occur coastal water world cause acute ecological damage ensuing economic loss fish kill shellfish poisoning public health threat posed toxic bloom recently driven model including machine learning technique employed mimic dynamic algal bloom important step application technique selection significant model input variable present paper extensively technique artificial neural network ann genetic programming selecting significant input variable efficacy technique demonstrated test problem known dependence applied world study water quality tolo harbour hong kong technique overcome limitation currently technique input variable selection review presented interpretation weight trained ann evolved equation demonstrate ability identify ecologically significant variable precisely significant variable suggested technique indicate chlorophyll chla significant input predicting algal bloom suggesting auto regressive nature persistence algal bloom dynamic related long flushing time semi enclosed coastal water study confirms previous understanding algal bloom coastal water hong kong occur life cycle order week</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4345,22 +4345,22 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.275|x3: 0.086|x4: 0.199|x5: 0.203|x6: 0.144|x7: 0.230|x8: 0.131|x9: 0.191|x10: 0.084|x11: 0.199|x12: 0.172|x13: 0.112|x14: 0.294|x15: 0.060|x16: 0.171|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.172|x3: 0.000|x4: 0.110|x5: 0.074|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.089|x10: 0.147|x11: 0.138|x12: 0.168|x13: 0.000|x14: 0.194|x15: 0.000|x16: 0.056|x17: 0.000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.29]</t>
+          <t>[0.00, 0.07, 0.19]</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>[14, 2, 7, 5, 4, 11, 9, 12, 16, 6, 8, 13]</t>
+          <t>[14, 2, 12, 10, 11, 4]</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.29370459400753696, 0.2747907302045767, 0.22994275935508043, 0.20295461036185714, 0.19874912269330092, 0.19866164302671432, 0.19096916876303824, 0.1721364342976772, 0.17137949039806016, 0.14361032511739025, 0.13148590712956248, 0.1119369522765417]</t>
+          <t>[0.19390396544452634, 0.1724661162725167, 0.16768833632395067, 0.1470002794133659, 0.13772494017975392, 0.10992669034874167]</t>
         </is>
       </c>
       <c r="H96" t="b">
@@ -4376,7 +4376,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>forest importantly influence environment life ability accurately predicting area involved forest event help optimizing management effort given complexity task powerful computational tool needed predicting area burned forest purpose study develop intelligent based genetic programming prediction burned area related forest analysis meteorological geometric semantic genetic programming based recently defined geometric semantic genetic operator genetic programming experimental result achieved database forest event showed appropriateness proposed prediction burned area particular result obtained geometric semantic genetic programming significantly better produced standard genetic programming state machine learning method training sample study suggests deeper investigation genetic programming field forest prediction productive giere investigaciones profundas programacion genetica campo prediccion incendios forestales pueden productivas</t>
+          <t>forest importantly influence environment life ability accurately predicting area involved forest event help optimizing management effort given complexity task powerful computational tool needed predicting area burned forest purpose study wa develop intelligent based genetic programming prediction burned area related forest analysis meteorological geometric semantic genetic programming based recently defined geometric semantic genetic operator genetic programming experimental result achieved database forest event showed appropriateness proposed prediction burned area particular result obtained geometric semantic genetic programming significantly better produced standard genetic programming state art machine learning method training sample study suggests deeper investigation genetic programming field forest prediction productive giere que investigaciones ma profundas programacion genetica campo prediccion los incendios forestales pueden ser productivas</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4386,29 +4386,29 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.194|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.068|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.055|x11: 0.142|x12: 0.000|x13: 0.064|x14: 0.206|x15: 0.191|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.067|x3: 0.000|x4: 0.043|x5: 0.075|x6: 0.000|x7: 0.065|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.049|x12: 0.000|x13: 0.083|x14: 0.060|x15: 0.117|x16: 0.080|x17: 0.000</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[0.00, 0.06, 0.21]</t>
+          <t>[0.00, 0.04, 0.12]</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>[14, 2, 15, 11, 16]</t>
+          <t>[15]</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.20607903188882767, 0.19392035030021582, 0.19117070675555428, 0.14161643813130528, 0.11323278061454468]</t>
+          <t>[0.11736599969366833]</t>
         </is>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4417,7 +4417,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>pedestrian vulnerable traffic participant motion prediction utmost importance intelligent transportation predicting motion pedestrian especially hard structured environment inertia compared road vehicle account uncertainty present approach probabilistic prediction pedestrian motion markov chain contrast previous work consider motion model constraint semantic goal explicitly adapt prediction based crash probability traffic participant approach work situation typically challenging pure machine learning technique learn behavior particular road section consequently struggle different road section usefulness combining aforementioned aspect single approach demonstrated evaluation recording pedestrian</t>
+          <t>pedestrian vulnerable traffic participant motion prediction utmost importance intelligent transportation predicting motion pedestrian especially hard le structured environment le inertia compared road vehicle account uncertainty present approach probabilistic prediction pedestrian motion markov chain contrast previous work consider motion model constraint semantic map goal explicitly adapt prediction based crash probability traffic participant approach work situation typically challenging pure machine learning technique learn behavior particular road section consequently struggle different road section usefulness combining aforementioned aspect single approach demonstrated evaluation recording pedestrian</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4427,22 +4427,22 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>x1: 0.233|x2: 0.193|x3: 0.155|x4: 0.343|x5: 0.233|x6: 0.266|x7: 0.451|x8: 0.269|x9: 0.213|x10: 0.070|x11: 0.261|x12: 0.309|x13: 0.281|x14: 0.067|x15: 0.083|x16: 0.144|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.130|x3: 0.178|x4: 0.177|x5: 0.075|x6: 0.205|x7: 0.206|x8: 0.124|x9: 0.119|x10: 0.000|x11: 0.122|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.45]</t>
+          <t>[0.00, 0.08, 0.21]</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>[7, 4, 12, 13, 8, 6, 11, 1, 5, 9, 2, 3, 16]</t>
+          <t>[7, 6, 3, 4, 2, 8, 11, 9]</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.45138011352108687, 0.34348972170729986, 0.30906809461538814, 0.280693208203609, 0.26894098629219904, 0.26630772777969475, 0.2608539868177893, 0.23349359793061528, 0.23261232555761632, 0.21281952393045714, 0.19258586047374673, 0.15503256093735793, 0.14401152639468645]</t>
+          <t>[0.20644850112999147, 0.20495117058180284, 0.1783351723811049, 0.176903092341487, 0.12965649195206366, 0.12447925800178035, 0.12211047006435329, 0.11939898275424712]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4458,7 +4458,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>recent advance field artificial intelligence increasing number decision making task delegated software requirement success adoption user trust choice fully automated decision achieve explanation facility widely investigated mean establishing trust early expert today increasingly sophisticated machine learning algorithm challenge context explanation accountability trust constantly arise work systematically review literature explanation advice giving family includes recommender successful class advicegiving software practice investigate purpose explanation generated presented user evaluated result derive novel comprehensive taxonomy aspect considered designing explanation facility current future decision support taxonomy includes variety different facet explanation objective responsiveness content presentation identified challenge remain unaddressed example related fine grained issue associated presentation explanation explanation facility evaluated</t>
+          <t>recent advance field artificial intelligence increasing number decision making task delegated software requirement success adoption user trust choice fully automated decision achieve explanation facility widely investigated mean establishing trust early expert today increasingly sophisticated machine learning algorithm new challenge context explanation accountability trust constantly arise work systematically review literature explanation advice giving family includes recommender successful class advicegiving software practice investigate purpose explanation generated presented user evaluated result derive novel comprehensive taxonomy aspect considered designing explanation facility current future decision support taxonomy includes variety different facet explanation objective responsiveness content presentation identified challenge remain unaddressed far example related fine grained issue associated presentation explanation explanation facility evaluated</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4468,29 +4468,29 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.156|x2: 0.307|x3: 0.132|x4: 0.097|x5: 0.287|x6: 0.351|x7: 0.107|x8: 0.163|x9: 0.094|x10: 0.000|x11: 0.202|x12: 0.299|x13: 0.224|x14: 0.315|x15: 0.251|x16: 0.080|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.059|x3: 0.000|x4: 0.099|x5: 0.045|x6: 0.000|x7: 0.198|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.151|x12: 0.065|x13: 0.124|x14: 0.084|x15: 0.078|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.35]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>[6, 14, 2, 12, 5, 15, 13, 11, 8, 1, 3, 7]</t>
+          <t>[7, 11, 13]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.3507126477728007, 0.3146827375180001, 0.30727710863819235, 0.2993402520352446, 0.28712478316942497, 0.2507567783800517, 0.22437465125067418, 0.2020442285894793, 0.16322238537545347, 0.15610521921334705, 0.13176066558294453, 0.10728301078431007]</t>
+          <t>[0.1975357054206752, 0.15051009584545702, 0.12443586923331879]</t>
         </is>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -4499,7 +4499,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>rapid progress machine learning artificial intelligence brought increasing attention potential impact technology society paper discus potential impact problem accident machine learning defined unintended harmful behavior emerge poor design world present list practical research problem related accident risk categorized according problem originates having wrong objective function avoiding effect avoiding reward hacking objective function expensive evaluate frequently scalable supervision undesirable behavior learning process safe exploration distributional shift review previous work area suggesting research direction focus relevance cutting edge finally consider level question think productively safety forward looking application</t>
+          <t>rapid progress machine learning artificial intelligence ha brought increasing attention potential impact technology society paper discus potential impact problem accident machine learning defined unintended harmful behavior emerge poor design world present list practical research problem related accident risk categorized according problem originates having wrong objective function avoiding effect avoiding reward hacking objective function expensive evaluate frequently scalable supervision undesirable behavior learning process safe exploration distributional shift review previous work area suggesting research direction focus relevance cutting edge finally consider level question think productively safety forward looking application</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4509,22 +4509,22 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>x1: 0.151|x2: 0.074|x3: 0.203|x4: 0.146|x5: 0.289|x6: 0.148|x7: 0.157|x8: 0.147|x9: 0.124|x10: 0.000|x11: 0.200|x12: 0.176|x13: 0.282|x14: 0.415|x15: 0.172|x16: 0.090|x17: 0.000</t>
+          <t>x1: 0.065|x2: 0.082|x3: 0.000|x4: 0.085|x5: 0.045|x6: 0.129|x7: 0.095|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.135|x13: 0.000|x14: 0.086|x15: 0.039|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.42]</t>
+          <t>[0.00, 0.04, 0.14]</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>[14, 5, 13, 3, 11, 12, 15, 7, 1, 6, 8, 4, 9]</t>
+          <t>[12, 6]</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.4154830120718299, 0.28868482575187915, 0.2815484398665056, 0.20286238435394766, 0.19953256113832474, 0.17580935640581236, 0.17193918148981627, 0.15707529705732495, 0.15084056799058496, 0.14835540679427517, 0.14676372284278325, 0.14639687899248044, 0.12367133528638284]</t>
+          <t>[0.13516894416972094, 0.12949752269430992]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4540,7 +4540,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>current globalization faced challenge meet continuously growing worldwide demand capital consumer good simultaneously ensuring sustainable evolvement human existence social environmental economic dimension order cope challenge industrial value creation geared sustainability currently industrial value creation early industrialized country shaped development fourth stage called industry development provides immense opportunity realization sustainable manufacturing paper present state review industry based recent development research practice subsequently overview different opportunity sustainable manufacturing industry presented retrofitting manufacturing equipment specific opportunity sustainable manufacturing industry exemplarily outlined</t>
+          <t>current globalization faced challenge meet continuously growing worldwide demand capital consumer good simultaneously ensuring sustainable evolvement human existence social environmental economic dimension order cope challenge industrial value creation geared sustainability currently industrial value creation early industrialized country shaped development fourth stage called industry development provides immense opportunity realization sustainable manufacturing paper present state art review industry based recent development research practice subsequently overview different opportunity sustainable manufacturing industry presented retrofitting manufacturing equipment specific opportunity sustainable manufacturing industry exemplarily outlined</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4550,22 +4550,22 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>x1: 0.109|x2: 0.147|x3: 0.086|x4: 0.248|x5: 0.000|x6: 0.190|x7: 0.219|x8: 0.175|x9: 0.409|x10: 0.067|x11: 0.291|x12: 0.503|x13: 0.126|x14: 0.000|x15: 0.080|x16: 0.137|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.119|x10: 0.000|x11: 0.067|x12: 0.175|x13: 0.085|x14: 0.030|x15: 0.045|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.50]</t>
+          <t>[0.00, 0.04, 0.18]</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>[12, 9, 11, 4, 7, 6, 8, 2, 16, 13, 1]</t>
+          <t>[12, 9]</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.5029681985342825, 0.4093878699121688, 0.2913554418904217, 0.24764922694627603, 0.21949865212085454, 0.19035773907742207, 0.17482491674769604, 0.1466863104274851, 0.1368333671309388, 0.12564104624350952, 0.10895628125856495]</t>
+          <t>[0.17547160588433894, 0.11891385362807656]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>climate impact study hydrology rely climate change information fine spatial resolution general circulation model gcms advanced tool estimating future climate change scenario operate coarse scale output downscaled obtain information relevant hydrologic study paper support vector machine approach proposed statistical downscaling precipitation monthly time scale effectiveness approach illustrated application meteorological division msds india climate variable affecting spatio temporal variation precipitation india identified following pertaining identified climate variable predictor classified cluster analysis group representing season based downscaling model developed season significant rainfall principal component extracted predictor input contemporaneous precipitation observed output proposed shown superior conventional downscaling multi layer propagation artificial neural network subsequently based applied future climate prediction second generation coupled global climate model cgcm obtain future projection precipitation msds result analyzed impact climate change precipitation india shown svms provide promising alternative conventional artificial neural network statistical downscaling suitable conducting climate impact study</t>
+          <t>climate impact study hydrology rely climate change information fine spatial resolution general circulation model gcms advanced tool estimating future climate change scenario operate coarse scale output gcm ha downscaled obtain information relevant hydrologic study paper support vector machine svm approach proposed statistical downscaling precipitation monthly time scale effectiveness approach illustrated application meteorological sub division msds india climate variable affecting spatio temporal variation precipitation msd india identified following pertaining identified climate variable predictor msd classified cluster analysis group representing wet dry season msd svm based downscaling model developed season significant rainfall principal component extracted predictor input contemporaneous precipitation observed msd output proposed shown superior conventional downscaling multi layer propagation artificial neural network subsequently svm based applied future climate prediction second generation coupled global climate model cgcm obtain future projection precipitation msds result analyzed ass impact climate change precipitation india shown svms provide promising alternative conventional artificial neural network statistical downscaling suitable conducting climate impact study</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4591,22 +4591,22 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.181|x2: 0.171|x3: 0.157|x4: 0.136|x5: 0.095|x6: 0.104|x7: 0.385|x8: 0.229|x9: 0.314|x10: 0.051|x11: 0.331|x12: 0.284|x13: 0.231|x14: 0.272|x15: 0.137|x16: 0.104|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.160|x8: 0.000|x9: 0.199|x10: 0.081|x11: 0.214|x12: 0.208|x13: 0.183|x14: 0.094|x15: 0.103|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.39]</t>
+          <t>[0.00, 0.07, 0.21]</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>[7, 11, 9, 12, 14, 13, 8, 1, 2, 3, 15, 4, 6, 16]</t>
+          <t>[11, 12, 9, 13, 7, 15]</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.38517966732610553, 0.3307924975475738, 0.3136899618265226, 0.28403419874590613, 0.272004007043903, 0.2306943542564668, 0.22873654084561168, 0.18136946085595884, 0.17088445107151004, 0.15694032890458282, 0.13694389264397092, 0.13574512467049166, 0.10418711295678569, 0.10409901459366257]</t>
+          <t>[0.21406544772437494, 0.20836296528792678, 0.1985756609984817, 0.1826375786172596, 0.16035414716790966, 0.1029446719021082]</t>
         </is>
       </c>
       <c r="H102" t="b">
@@ -4622,7 +4622,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>fully automated identification possible spill present synthetic aperture radar satellite image based artificial intelligence fuzzy logic developed spill recognized expert dark pattern characteristic shape particular context analyzes satellite image assigns probability dark image shape spill output consists image table providing user relevant information decision making study area aegean greece responded satisfactorily image processed complete algorithmic procedure coded visual stand dynamic link library linked sort application variant window operating</t>
+          <t>fully automated identification possible oil spill present synthetic aperture radar sar satellite image based artificial intelligence fuzzy logic ha developed oil spill recognized expert dark pattern characteristic shape particular context analyzes satellite image assigns probability dark image shape oil spill output consists image table providing user relevant information decision making study area wa aegean sea greece responded satisfactorily image processed complete algorithmic procedure wa coded visual ccc stand dynamic link library dll linked sort application variant window operating</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4632,22 +4632,22 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>x1: 0.157|x2: 0.166|x3: 0.000|x4: 0.341|x5: 0.191|x6: 0.441|x7: 0.295|x8: 0.139|x9: 0.135|x10: 0.050|x11: 0.339|x12: 0.445|x13: 0.351|x14: 0.256|x15: 0.070|x16: 0.103|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.103|x5: 0.099|x6: 0.142|x7: 0.268|x8: 0.000|x9: 0.113|x10: 0.000|x11: 0.237|x12: 0.313|x13: 0.193|x14: 0.157|x15: 0.079|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.44]</t>
+          <t>[0.00, 0.10, 0.31]</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>[12, 6, 13, 4, 11, 7, 14, 5, 2, 1, 8, 9, 16]</t>
+          <t>[12, 7, 11, 13, 14, 6, 9, 4]</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.44490250435713363, 0.44137724355509345, 0.3511591856039939, 0.3408871453634009, 0.33881973678704635, 0.29500166113217063, 0.2555071005836101, 0.19114778252452677, 0.16562910492952596, 0.15686342830415986, 0.13921477212697678, 0.1354390516207424, 0.10307598356822961]</t>
+          <t>[0.31259534073291617, 0.2680662395179102, 0.23732194097321274, 0.1928971245113762, 0.15662198445821301, 0.14215697749188666, 0.11349599556858872, 0.10290631185725131]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4663,7 +4663,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>understanding specific relationship ecological socioeconomic condition marine tenure contribute successful functioning self governance institution common pool resource complex factor influencing fishing activity coastal community implementation customary marine tenure water represented bayesian belief network model developed bayesian belief network model includes link factor fishing community island indonesia based indepth local survey result showed cumulative impact multiple factor social economic environmental outcome larger impact single source implies management policy intervention effective addressing multiple factor simultaneously local community perception fish stock abundance trend single important factor influencing social economic environmental outcome community based management frequency outsider sighted territorial water strongly negatively linked weak strong implementation customary tenure sasi occurrence intervillage intravillage conflict ecological variable drive conflict illustrates close connection ecological social outcome importance considering social ecological</t>
+          <t>understanding specific relationship ecological socioeconomic condition marine tenure contribute successful functioning self governance institution common pool resource complex factor influencing fishing activity coastal community implementation customary marine tenure water represented bayesian belief network model developed bayesian belief network model includes link factor fishing community kei island indonesia based indepth local survey result showed cumulative impact multiple factor social economic environmental outcome larger impact single source implies management policy intervention effective addressing multiple factor simultaneously local community perception fish stock abundance trend wa single important factor influencing social economic environmental outcome community based management frequency outsider sighted territorial water wa strongly negatively linked weak strong implementation customary tenure sasi occurrence intervillage intravillage conflict ecological variable drive conflict illustrates close connection ecological social outcome importance considering social ecological</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4673,22 +4673,22 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>x1: 0.113|x2: 0.183|x3: 0.000|x4: 0.206|x5: 0.234|x6: 0.210|x7: 0.313|x8: 0.111|x9: 0.195|x10: 0.076|x11: 0.308|x12: 0.252|x13: 0.274|x14: 0.496|x15: 0.151|x16: 0.156|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.000|x3: 0.000|x4: 0.061|x5: 0.049|x6: 0.000|x7: 0.161|x8: 0.000|x9: 0.000|x10: 0.051|x11: 0.000|x12: 0.124|x13: 0.150|x14: 0.208|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.50]</t>
+          <t>[0.00, 0.05, 0.21]</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>[14, 7, 11, 13, 12, 5, 6, 4, 9, 2, 16, 15, 1, 8]</t>
+          <t>[14, 7, 13, 12]</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.4960539976901367, 0.3128717394634475, 0.30800091285232095, 0.2737240103420907, 0.2518374515970723, 0.23360919547739661, 0.20950995483041993, 0.20582429169702576, 0.1949042848847925, 0.18261166323014952, 0.15610955886679637, 0.15100027396993093, 0.11330973627100237, 0.1106159216586325]</t>
+          <t>[0.20848568661374026, 0.16122291384176038, 0.15046567217511259, 0.12434960206485712]</t>
         </is>
       </c>
       <c r="H104" t="b">
@@ -4704,7 +4704,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>wallis alofi futuna island central pacific ocean characterized different reef geomorphology following request local environment service developed indicative conservation plan island objective representing extent coral reef habitat area keeping subsistence fishing ground open extraction objective ambitious current convention biological diversity aichi target objective achieved simultaneously large compromise needed size island dependence local community coral reef resource fishery objective significantly limited extent habitat available conservation problem exacerbated conservation plan larger conservation unit complex habitat typology result indicate international conservation guideline carefully adapted pacific island incentive feasible necessary reduction available fishing ground probably needed</t>
+          <t>wallis alofi futuna island central pacific ocean characterized different reef geomorphology following request local environment service developed indicative conservation plan island objective representing extent coral reef habitat area keeping subsistence fishing ground open extraction objective wa ambitious current convention biological diversity aichi target objective achieved simultaneously large compromise needed size island dependence local community coral reef resource fishery objective significantly limited extent habitat available conservation problem exacerbated conservation plan larger conservation unit complex habitat typology result indicate international conservation guideline carefully adapted pacific island incentive feasible necessary reduction available fishing ground probably needed</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4714,22 +4714,22 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>x1: 0.106|x2: 0.085|x3: 0.000|x4: 0.000|x5: 0.131|x6: 0.000|x7: 0.000|x8: 0.068|x9: 0.000|x10: 0.079|x11: 0.227|x12: 0.281|x13: 0.259|x14: 0.528|x15: 0.448|x16: 0.162|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.069|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.068|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.106|x12: 0.201|x13: 0.123|x14: 0.278|x15: 0.264|x16: 0.100|x17: 0.000</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.53]</t>
+          <t>[0.00, 0.08, 0.28]</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>[14, 15, 12, 13, 11, 16, 5, 1]</t>
+          <t>[14, 15, 12, 13, 11]</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.5276311876485591, 0.44752463206396886, 0.28071073792732515, 0.25875937735746174, 0.22722747718750555, 0.16205289587884725, 0.13057632523583673, 0.10628498883627291]</t>
+          <t>[0.2784579567078898, 0.26412813985139627, 0.20073095545770356, 0.1234493130597965, 0.10603963603747996]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4745,7 +4745,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>competition marine space recognized challenge implementation activity emerging blue growth initiative amplify competition marine spatial planning framework requires decision maker analyse spatially explicit environmental socio economic determine user conflict emerge consider potential management scenario present research spatially explicit bayesian belief network applied purpose developed analyse potential reallocation artisanal fishing effort alternative site introduction area offshore aquaculture site basque continental shelf constructed model combined discrete operational fishery continuous environmental expert judgment produce fishing activity suitability different metier longlines trap effort reallocation scenario metier best alternative fishing location identified based environmental suitability past revenue past fishing presence closure lesser effect longline activity displacing local fishing effort respectively comparatively local effort trap took place closed ground alternative site identified greatest number alternative fishing ground surrounding aquaculture site present research demonstrates bbns support spatially explicit scenario building user user conflict analysis sustainable successful ecosystem based marine spatial planning</t>
+          <t>competition marine space recognized challenge implementation new activity emerging blue growth initiative amplify competition marine spatial planning msp framework requires decision maker analyse spatially explicit environmental socio economic determine user conflict emerge consider potential management scenario present research spatially explicit bayesian belief network bbn wa applied purpose bbn wa developed analyse potential reallocation artisanal fishing effort alternative site introduction new area offshore aquaculture site basque continental shelf constructed model combined discrete operational fishery continuous environmental expert judgment produce fishing activity suitability map different metier longlines net trap bbn wa run effort reallocation scenario metier best alternative fishing location identified based environmental suitability past revenue past fishing presence closure lesser effect net longline activity displacing local fishing effort respectively comparatively local effort trap took place closed ground alternative site identified net greatest number alternative fishing ground surrounding aquaculture site present research demonstrates bbns support spatially explicit scenario building user user conflict analysis sustainable successful ecosystem based marine spatial planning</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4755,22 +4755,22 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>x1: 0.051|x2: 0.000|x3: 0.058|x4: 0.172|x5: 0.291|x6: 0.121|x7: 0.211|x8: 0.000|x9: 0.109|x10: 0.093|x11: 0.212|x12: 0.156|x13: 0.232|x14: 0.452|x15: 0.264|x16: 0.191|x17: 0.000</t>
+          <t>x1: 0.044|x2: 0.000|x3: 0.000|x4: 0.040|x5: 0.000|x6: 0.000|x7: 0.099|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.042|x12: 0.097|x13: 0.114|x14: 0.210|x15: 0.062|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.45]</t>
+          <t>[0.00, 0.04, 0.21]</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>[14, 5, 15, 13, 11, 7, 16, 4, 12, 6, 9]</t>
+          <t>[14, 13]</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.4524883014637859, 0.29113739257613447, 0.26436199599997395, 0.2322934804676898, 0.2124953321712607, 0.21109350737588686, 0.1913859674924611, 0.17160013293831908, 0.15563881843599553, 0.12131061388496975, 0.10910760493600376]</t>
+          <t>[0.2097177728819595, 0.11357355328510016]</t>
         </is>
       </c>
       <c r="H106" t="b">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>artificial intelligence technique neural network fuzzy applied alternative method determine beach litter grading based litter survey antalya coastline turkish riviera litter measurement categorized assessed artificial intelligence technique lead litter categorization constructed neural network satisfactorily predicted grading antalya beach litter category based number litter item general litter category concluded neural network speed prediction litter item beach grading characteristic main litter category field study save field effort fast reliable estimation litter category required management research study beach especially concerned health safety economic implication main advantage fuzzy consider linguistic adjectival definition result additional information inherent linguistic comment refinement judgment field study incorporated grading</t>
+          <t>artificial intelligence technique neural network fuzzy applied alternative method determine beach litter grading based litter survey antalya coastline turkish riviera litter measurement categorized assessed artificial intelligence technique lead new litter categorization constructed neural network satisfactorily predicted grading antalya beach litter category based number litter item general litter category ha concluded neural network speed prediction litter item beach grading characteristic main litter category wa field study save field effort fast reliable estimation litter category required management research study beach especially concerned health safety ha economic implication main advantage fuzzy consider linguistic adjectival definition result additional information inherent linguistic comment refinement judgment field study incorporated grading</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4796,22 +4796,22 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.130|x2: 0.207|x3: 0.203|x4: 0.054|x5: 0.261|x6: 0.056|x7: 0.109|x8: 0.158|x9: 0.185|x10: 0.081|x11: 0.154|x12: 0.321|x13: 0.166|x14: 0.383|x15: 0.243|x16: 0.167|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.128|x3: 0.000|x4: 0.071|x5: 0.067|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.107|x10: 0.127|x11: 0.140|x12: 0.092|x13: 0.195|x14: 0.299|x15: 0.000|x16: 0.052|x17: 0.000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.38]</t>
+          <t>[0.00, 0.08, 0.30]</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>[14, 12, 5, 15, 2, 3, 9, 16, 13, 8, 11, 1, 7]</t>
+          <t>[14, 13, 11, 2, 10, 9]</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.3829250735250261, 0.3205007557134183, 0.2605803580195757, 0.24324990861603157, 0.20651572317701292, 0.202938161589803, 0.18479094577193036, 0.166740966932565, 0.16644728644471105, 0.15779847842688138, 0.15434479375993293, 0.13024349470605776, 0.10856928592121659]</t>
+          <t>[0.2992569648422475, 0.19540785023180576, 0.14048905832617611, 0.1281030745791428, 0.12686193330539075, 0.10680246666075381]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>predicting oceanic process encountered problematic dynamic coastal water diverse physical chemical biological factor interact varied rapidly changing combination defining process requires efficient sampling specific water mass prompt sample return subsequent analysis compound challenge motivated effort develop mobile autonomous process sampling autonomous underwater vehicle auvs feature recognized artificial intelligence integrates sensor estimate probabilistic state adaptive control survey navigation triggering targeted water sampler demonstrate utility focused intermediate nepheloid layer inls episodic transport event play role zooplankton ecology multiple field test monterey california recognized mapped sampled inls invertebrate larva contained water sample subsequently characterized molecular probe developed throughput screening preliminary result support hypothesis inls function vehicle episodic larval transport applying greater coastal ocean observing permitted description regional oceanographic dynamic influenced pattern scale larval transport</t>
+          <t>predicting oceanic process encountered problematic dynamic coastal water diverse physical chemical biological factor interact varied rapidly changing combination defining process requires efficient sampling specific water mass prompt sample return subsequent analysis compound challenge motivated effort develop mobile autonomous process sampling map autonomous underwater vehicle auvs feature recognized artificial intelligence integrates auv sensor estimate probabilistic state adaptive control survey navigation triggering targeted water sampler demonstrate utility map auv focused intermediate nepheloid layer inls episodic transport event play role zooplankton ecology multiple field test monterey bay california map auv recognized mapped sampled inls invertebrate larva contained water sample subsequently characterized molecular probe developed throughput screening preliminary result support hypothesis inls function vehicle episodic larval transport applying map greater coastal ocean observing permitted description regional oceanographic dynamic influenced pattern scale inl larval transport</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4837,22 +4837,22 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>x1: 0.156|x2: 0.116|x3: 0.061|x4: 0.000|x5: 0.000|x6: 0.267|x7: 0.336|x8: 0.201|x9: 0.425|x10: 0.000|x11: 0.389|x12: 0.205|x13: 0.277|x14: 0.205|x15: 0.291|x16: 0.098|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.076|x6: 0.135|x7: 0.000|x8: 0.000|x9: 0.084|x10: 0.000|x11: 0.137|x12: 0.131|x13: 0.050|x14: 0.138|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.42]</t>
+          <t>[0.00, 0.04, 0.14]</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>[9, 11, 7, 15, 13, 6, 12, 14, 8, 1, 2]</t>
+          <t>[14, 11, 6, 12]</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.4245632062634277, 0.38905531853579267, 0.3360295877650219, 0.2914695999399798, 0.2771248642720239, 0.26687956489130515, 0.20546202186133838, 0.20462046295332653, 0.20093454038111458, 0.15580186967442794, 0.11643926178448306]</t>
+          <t>[0.13757433622322648, 0.13746089544993226, 0.13481687504350942, 0.1308056898882775]</t>
         </is>
       </c>
       <c r="H108" t="b">
@@ -4868,7 +4868,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>canada pacific coast region renewed commitment pursue marine spatial planning british columbia marine conservation analysis bcmca project aimed stage designed provide resource manager scientist decision maker stakeholder resource inform coast wide integrated marine planning management initiative geographic information decision support tool marxan develop main product atlas known marine ecological value human analysis area conservation value human value biophysical datasets human datasets collated refined applicable identified ecological expert workshop expert review physical marine classification representation guidance human working group ecological richness marxan result importance nearshore continental shelf region richness category human shipping transport closely linked shoreline continental shelf example ecological marxan solution identifying area conservation value overlapped human sector footprint percentage ranging planning unit selected marxan contain commercial fishery experience bcmca project potential provide valuable guidance region seeking jump start planning process collating spatial information carrying exploratory analysis</t>
+          <t>canada pacific coast region renewed commitment pursue marine spatial planning msp british columbia marine conservation analysis bcmca project aimed set stage msp wa designed provide resource manager scientist decision maker stakeholder new set resource inform coast wide integrated marine planning management initiative geographic information decision support tool marxan develop main product atlas known marine ecological value human analysis area conservation value human value biophysical datasets human datasets collated refined applicable identified ecological expert workshop expert review physical marine classification representation guidance human working group ecological richness map marxan result importance nearshore continental shelf region richness map category human shipping transport closely linked shoreline continental shelf example ecological marxan solution identifying area conservation value overlapped human sector footprint percentage ranging planning unit selected marxan contain commercial fishery experience bcmca project ha potential provide valuable guidance region seeking jump start planning process collating spatial information carrying exploratory analysis</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4878,22 +4878,22 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>x1: 0.141|x2: 0.257|x3: 0.000|x4: 0.178|x5: 0.183|x6: 0.000|x7: 0.181|x8: 0.129|x9: 0.178|x10: 0.060|x11: 0.153|x12: 0.281|x13: 0.335|x14: 0.444|x15: 0.369|x16: 0.124|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.168|x8: 0.000|x9: 0.107|x10: 0.073|x11: 0.128|x12: 0.145|x13: 0.279|x14: 0.138|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.44]</t>
+          <t>[0.00, 0.06, 0.28]</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>[14, 15, 13, 12, 2, 5, 7, 4, 9, 11, 1, 8, 16]</t>
+          <t>[13, 7, 12, 14, 11, 9]</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.44425261915685593, 0.3688201709440384, 0.33488435866881616, 0.2808700619657514, 0.2569706223913272, 0.18319418613123425, 0.1811974118580157, 0.17804475411529036, 0.1779878592442747, 0.15300658817655494, 0.14074144752590184, 0.12873741265037092, 0.1236684052785825]</t>
+          <t>[0.2787225703935926, 0.16791398073256864, 0.14465096297313523, 0.13793122847607653, 0.12769059098873273, 0.10710418318313088]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>conservation planning research influenced conservation action globally decade successful implementation systematic conservation plan region customary marine tenure exists minimal region local community knowledge understanding socioeconomic reality offer best spatially explicit information analysis required socioeconomic available scale relevant conservation planning process undertaken kadavu yaubula management support team team researcher university south pacific local community systematic conservation planning tool effectively applied useful customary governance context study fiji participatory approach meeting local scale conservation fishery need spatial conservation planning tool marxan zone reconfigure collection locally designed marine protected area province kadavu order achieve broader objective local scale value tool process identifying conceptualising management issue working community collate participatory technique engaging community management decision making output tool secondary value outcome invaluable developing marine protected area network design approach combine traditional knowledge ecological feature manner appropriate melanesian context</t>
+          <t>conservation planning research ha influenced conservation action globally decade successful implementation systematic conservation plan region customary marine tenure exists ha minimal region local community knowledge understanding socioeconomic reality offer best spatially explicit information analysis required socioeconomic available scale relevant conservation planning process undertaken kadavu yaubula management support team team researcher university south pacific local community ass systematic conservation planning tool effectively applied useful customary governance context study fiji participatory approach aim meeting local scale conservation fishery need spatial conservation planning tool marxan zone wa reconfigure collection locally designed marine protected area province kadavu order achieve broader objective local scale value tool ha process identifying conceptualising management issue working community collate participatory technique engaging community management decision making output tool ha secondary value outcome wa invaluable developing marine protected area network design approach combine traditional knowledge ecological feature manner appropriate melanesian context</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4919,29 +4919,29 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.128|x2: 0.205|x3: 0.000|x4: 0.155|x5: 0.105|x6: 0.241|x7: 0.067|x8: 0.120|x9: 0.187|x10: 0.050|x11: 0.142|x12: 0.303|x13: 0.309|x14: 0.387|x15: 0.216|x16: 0.103|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.048|x13: 0.046|x14: 0.058|x15: 0.046|x16: 0.025|x17: 0.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.39]</t>
+          <t>[0.00, 0.02, 0.07]</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>[14, 13, 12, 6, 15, 2, 9, 4, 11, 1, 8, 5, 16]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>[0.38660013795270776, 0.30888427880032693, 0.30255629555156194, 0.24124057849442349, 0.21581869843431026, 0.20538633056747208, 0.18707028731483571, 0.15471525877520018, 0.1419663159188481, 0.12792740430701047, 0.11981831554702382, 0.10549847091794505, 0.1026915004404613]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>environmental economic impact exotic fungal specie natural plantation forest historically catastrophic recorded surveillance control action challenging costly time consuming hazardous remote area prolonged period testing observation site based test limitation verify rapid proliferation exotic pathogen deterioration rate host recent remote sensing approach offered fast broad scale affordable survey additional indicator complement ground test paper proposes framework consolidates site based insight remote sensing capability detect segment deterioration fungal pathogen natural plantation forest approach illustrated experimentation myrtle rust austropuccinia psidii paperbark tree melaleuca quinquenervia south wale australia method integrates unmanned aerial vehicle uavs hyperspectral image sensor processing algorithm machine learning imagery acquired headwall nano hyperspec camera orthorectified headwall spectralview processed python programming language extreme gradient boosting xgboost geospatial abstraction library gdal scikit learn library sample extracted labelled class class deterioration status class background object insight reveal individual detection rate healthy tree deteriorated tree global multiclass detection rate methodology versatile applied additional datasets taken different image sensor processing large datasets freeware tool</t>
+          <t>environmental economic impact exotic fungal specie natural plantation forest ha historically catastrophic recorded surveillance control action challenging costly time consuming hazardous remote area prolonged period testing observation site based test limitation verify rapid proliferation exotic pathogen deterioration rate host recent remote sensing approach offered fast broad scale affordable survey additional indicator complement ground test paper proposes framework consolidates site based insight remote sensing capability detect segment deterioration fungal pathogen natural plantation forest approach illustrated experimentation myrtle rust austropuccinia psidii paperbark tea tree melaleuca quinquenervia new south wale nsw australia method integrates unmanned aerial vehicle uavs hyperspectral image sensor processing algorithm machine learning imagery acquired headwall nano hyperspec camera orthorectified headwall spectralview processed python programming language extreme gradient boosting xgboost geospatial abstraction library gdal scikit learn library sample extracted labelled class class deterioration status class background object insight reveal individual detection rate healthy tree deteriorated tree global multiclass detection rate methodology versatile applied additional datasets taken different image sensor processing large datasets freeware tool</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4960,22 +4960,22 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.162|x2: 0.121|x3: 0.090|x4: 0.223|x5: 0.164|x6: 0.072|x7: 0.126|x8: 0.180|x9: 0.159|x10: 0.000|x11: 0.223|x12: 0.300|x13: 0.230|x14: 0.150|x15: 0.194|x16: 0.087|x17: 0.000</t>
+          <t>x1: 0.144|x2: 0.000|x3: 0.093|x4: 0.090|x5: 0.000|x6: 0.101|x7: 0.000|x8: 0.055|x9: 0.085|x10: 0.000|x11: 0.000|x12: 0.149|x13: 0.070|x14: 0.306|x15: 0.151|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.30]</t>
+          <t>[0.00, 0.07, 0.31]</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>[12, 13, 4, 11, 15, 8, 5, 1, 9, 14, 7, 2]</t>
+          <t>[14, 15, 12, 1, 6]</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.29981721653440574, 0.23016410347742117, 0.22313564033288183, 0.22278748532610823, 0.1941670299542286, 0.1802697910633496, 0.1642803121528124, 0.16249293275173857, 0.15933967577181424, 0.15033793424465686, 0.12589701209643792, 0.12083337630142718]</t>
+          <t>[0.3055390828334609, 0.15059916798749168, 0.1491579568185213, 0.1442357688575786, 0.1012135641309904]</t>
         </is>
       </c>
       <c r="H111" t="b">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>conservation planning integral strategic effective operation conservation organization drawing biological science conservation planning historically limited social offer approach integrating social conservation planning capture place context spatial pattern trend human need capacity hierarchical approach provides nested framework characterizing mapping social domain economic health political empowerment education culture domain multiple attribute attribute characterized indicator existing novel display spatial temporal heterogeneity social conservation scientist planner decision maker measure benchmark integrate conservation planning process selecting indicator integrating conservation planning iterative participatory process tailored local context planning goal social complement biophysical threat oriented social conservation planning process inform decision conserve biodiversity provide structure exploring socioecological relationship foster adaptive management building existing conservation planning method insight multiple discipline approach putting readily merge current planning practice facilitate rigorous decision making</t>
+          <t>conservation planning integral strategic effective operation conservation organization drawing biological science conservation planning ha historically limited social offer approach integrating social conservation planning capture place context spatial pattern trend human need capacity hierarchical approach provides nested framework characterizing mapping social domain economic health political empowerment education culture domain multiple attribute attribute characterized indicator existing novel display spatial temporal heterogeneity social conservation scientist planner decision maker measure benchmark map integrate conservation planning process selecting indicator integrating conservation planning iterative participatory process tailored local context planning goal social complement biophysical threat oriented social conservation planning process inform decision conserve biodiversity provide structure exploring socioecological relationship foster adaptive management building existing conservation planning method insight multiple discipline approach putting map readily merge current planning practice facilitate rigorous decision making</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -5001,29 +5001,29 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>x1: 0.119|x2: 0.223|x3: 0.000|x4: 0.102|x5: 0.000|x6: 0.000|x7: 0.087|x8: 0.081|x9: 0.164|x10: 0.060|x11: 0.149|x12: 0.377|x13: 0.405|x14: 0.356|x15: 0.424|x16: 0.123|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.151|x12: 0.193|x13: 0.110|x14: 0.119|x15: 0.095|x16: 0.037|x17: 0.000</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.42]</t>
+          <t>[0.00, 0.04, 0.19]</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>[15, 13, 12, 14, 2, 9, 11, 16, 1, 4]</t>
+          <t>[12, 11, 14, 13]</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.42436754752540096, 0.40491824940914906, 0.3766002256982239, 0.35595287810148457, 0.22284512628989542, 0.1643436610310859, 0.14906466210953065, 0.12336178722679025, 0.11913783995189411, 0.10197646001179661]</t>
+          <t>[0.19284589734300236, 0.1510422075619443, 0.11902963094940977, 0.11016691819466241]</t>
         </is>
       </c>
       <c r="H112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ecoacoustic monitoring proved viable approach capture ecological related animal community expert manually annotate audio sample analysis large datasets significantly facilitated automatic pattern recognition method unsupervised learning method require labelled particularly suited analyse poorly documented habitat tropical environment propose method named multiresolution analysis acoustic diversity maad automate detection relevant structure audio maad designed decompose acoustic community elementary component soundtypes based time frequency attribute short time fourier transform detect region time frequency domain characterised estimating median frequency running wavelet analysis multiple scale angle finally grouped model based subspace clustering technique automatically annotated clustered soundtypes test performance automatic method applied maad distinct tropical environment french guiana lowland rainforest rock savanna compared manual automatic annotation adjusted rand similarity manual automated partition consistent indicating cluster intelligible analysis weight feature estimated clustering process revealed important information structure acoustic community particular median frequency strongest effect modelling cluster classification performance suggesting role community organisation number cluster maad regarded estimation soundtype richness given environment maad comprehensive promising method automatically analyse passive acoustic recording combining maad manual analysis maximally exploit strength human reasoning algorithm composition acoustic community estimated accurately quickly large scale</t>
+          <t>ecoacoustic monitoring ha proved viable approach capture ecological related animal community expert manually annotate audio sample analysis large datasets significantly facilitated automatic pattern recognition method unsupervised learning method require labelled particularly suited analyse poorly documented habitat tropical environment propose new method named multiresolution analysis acoustic diversity maad automate detection relevant structure audio maad wa designed decompose acoustic community elementary component soundtypes based time frequency attribute short time fourier transform detect region roi time frequency domain characterised roi estimating median frequency running wavelet analysis multiple scale angle finally grouped roi model based subspace clustering technique roi automatically annotated clustered soundtypes test performance automatic method applied maad distinct tropical environment french guiana lowland rainforest rock savanna compared manual automatic annotation adjusted rand similarity manual automated partition wa consistent indicating cluster intelligible analysis weight feature estimated clustering process revealed important information structure acoustic community particular median frequency strongest effect modelling cluster classification performance suggesting role community organisation number cluster maad regarded estimation soundtype richness given environment maad comprehensive promising method automatically analyse passive acoustic recording combining maad manual analysis maximally exploit strength human reasoning algorithm composition acoustic community estimated accurately quickly large scale</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -5042,29 +5042,29 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>x1: 0.136|x2: 0.107|x3: 0.071|x4: 0.317|x5: 0.164|x6: 0.280|x7: 0.281|x8: 0.160|x9: 0.213|x10: 0.000|x11: 0.167|x12: 0.147|x13: 0.205|x14: 0.250|x15: 0.148|x16: 0.089|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.111|x5: 0.000|x6: 0.061|x7: 0.194|x8: 0.075|x9: 0.116|x10: 0.125|x11: 0.074|x12: 0.166|x13: 0.103|x14: 0.117|x15: 0.097|x16: 0.060|x17: 0.000</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.32]</t>
+          <t>[0.00, 0.08, 0.19]</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>[4, 7, 6, 14, 9, 13, 11, 5, 8, 15, 12, 1, 2]</t>
+          <t>[7, 12, 10, 14, 9, 4, 13]</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.3174909974807208, 0.2808860995708429, 0.2801610697473139, 0.2501834424323805, 0.21306905517062505, 0.2049470245763742, 0.16685393094015646, 0.1638690137997065, 0.15969612007788717, 0.1484034799711533, 0.1469093974621559, 0.13563969170872595, 0.10697872001702922]</t>
+          <t>[0.1942468942482122, 0.16594743977485996, 0.12491770626220287, 0.11734817402451375, 0.11586389783756186, 0.11105751174160611, 0.10335082326582236]</t>
         </is>
       </c>
       <c r="H113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>extensive research ecosystem service mapped survey based biophysical approach comparative mapping public value quantified model lacking paper mapped cold spot perceived modeled ecosystem service synthesizing result social value mapping study resident living near pike isabel national forest located southern rocky mountain corresponding biophysically modeled ecosystem service social value developed social value ecosystem service tool providing statistically modeled continuous value surface value type including aesthetic biodiversity life sustaining value biophysically modeled carbon sequestration storage scenic viewsheds sediment regulation water yield generated artificial intelligence ecosystem service tool hotspot perceived modeled service located wilderness area additionally regression analysis evaluate spatial relationship perceived biodiversity cultural ecosystem service corresponding biophysical model output goal determine publicly valued location aesthetic biodiversity life sustaining value relate meaningfully result corresponding biophysical ecosystem service model weak relationship perceived biophysically modeled service indicating public perception ecosystem service provisioning region limited believe biophysical social approach ecosystem service mapping serve methodological complement advance ecosystem service based resource management benefitting resource manager showing potential location synergy conflict area supplying ecosystem service valued public</t>
+          <t>extensive research ecosystem service mapped survey based biophysical approach comparative mapping public value quantified model ha lacking paper mapped hot cold spot perceived modeled ecosystem service synthesizing result social value mapping study resident living near pike san isabel national forest psi located southern rocky mountain corresponding biophysically modeled ecosystem service social value map psi developed social value ecosystem service tool providing statistically modeled continuous value surface value type including aesthetic biodiversity life sustaining value biophysically modeled map carbon sequestration storage scenic viewsheds sediment regulation water yield generated artificial intelligence ecosystem service tool hotspot perceived modeled service located psi wilderness area additionally regression analysis evaluate spatial relationship perceived biodiversity cultural ecosystem service corresponding biophysical model output goal wa determine publicly valued location aesthetic biodiversity life sustaining value relate meaningfully result corresponding biophysical ecosystem service model weak relationship perceived biophysically modeled service indicating public perception ecosystem service provisioning region limited believe biophysical social approach ecosystem service mapping serve methodological complement advance ecosystem service based resource management benefitting resource manager showing potential location synergy conflict area supplying ecosystem service valued public</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -5083,29 +5083,29 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>x1: 0.071|x2: 0.074|x3: 0.000|x4: 0.225|x5: 0.132|x6: 0.228|x7: 0.202|x8: 0.087|x9: 0.121|x10: 0.000|x11: 0.223|x12: 0.078|x13: 0.100|x14: 0.095|x15: 0.063|x16: 0.085|x17: 0.000</t>
+          <t>x1: 0.056|x2: 0.000|x3: 0.000|x4: 0.099|x5: 0.000|x6: 0.139|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.086|x11: 0.215|x12: 0.132|x13: 0.000|x14: 0.144|x15: 0.111|x16: 0.050|x17: 0.000</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.23]</t>
+          <t>[0.00, 0.06, 0.22]</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>[6, 4, 11, 7, 5, 9, 13]</t>
+          <t>[11, 14, 6, 12, 15]</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.22832838279223072, 0.22450535491869145, 0.22295374513191277, 0.20170522108073857, 0.13209464720786931, 0.12075813333067544, 0.10008658769671598]</t>
+          <t>[0.21549039981514034, 0.1437953510392972, 0.13872450644150705, 0.13183565385062268, 0.11100371597249069]</t>
         </is>
       </c>
       <c r="H114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>effective sustainable forest management broad area need consistent country wide forest inventory stand level inventory appropriate unit local regional forest management south korea currently produce forest type contains categorical parameter stand crucial forest attribute understanding forest ecosystem currently missing included future forest type estimation forest stand challenging south korea stand exist irregular patch highly rugged terrain study proposed stand estimation model suitable rugged terrain highly mixed tree specie arithmetic mean target variable plot level estimation model developed descriptive statistic airborne light detection ranging lidar machine learning approach support vector regression modified regression tree random forest scheme central plot based scheme stand based scheme expanding plot level stand level investigated result showed varied performance metric coefficient determination root mean square error mean bias model forest estimation plot level statistically significant difference mean plot model term estimated bias value stand level validation based tree measurement selected stand produced varied result scheme machine learning implies additional reference thorough stand level validation identify statistically robust approach future nonetheless research finding study guide estimating stand forest rugged terrain complex composition tree specie</t>
+          <t>effective sustainable forest management broad area need consistent country wide forest inventory stand level inventory appropriate unit local regional forest management south korea currently produce forest type map contains categorical parameter stand crucial forest attribute understanding forest ecosystem currently missing included future forest type map estimation forest stand challenging south korea stand exist irregular patch highly rugged terrain study proposed stand estimation model suitable rugged terrain highly mixed tree specie arithmetic mean wa target variable plot level estimation model developed descriptive statistic airborne light detection ranging lidar machine learning approach support vector regression svr modified regression tree random forest scheme central plot based scheme stand based scheme expanding plot level stand level investigated result showed varied performance metric coefficient determination root mean square error mean bias model forest estimation plot level wa statistically significant difference mean plot model svr term estimated bias value stand level validation based tree measurement selected stand produced varied result scheme machine learning implies additional reference thorough stand level validation identify statistically robust approach future nonetheless research finding study guide estimating stand forest rugged terrain complex composition tree specie</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -5124,29 +5124,29 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>x1: 0.143|x2: 0.053|x3: 0.122|x4: 0.143|x5: 0.169|x6: 0.149|x7: 0.261|x8: 0.197|x9: 0.177|x10: 0.000|x11: 0.150|x12: 0.092|x13: 0.069|x14: 0.201|x15: 0.214|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.077|x2: 0.000|x3: 0.109|x4: 0.140|x5: 0.198|x6: 0.137|x7: 0.173|x8: 0.164|x9: 0.053|x10: 0.000|x11: 0.135|x12: 0.084|x13: 0.083|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.26]</t>
+          <t>[0.00, 0.08, 0.20]</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>[7, 15, 14, 8, 9, 5, 11, 6, 4, 1, 3]</t>
+          <t>[5, 7, 8, 4, 6, 11, 3]</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.2614385595295732, 0.21356208045152617, 0.20066318388034782, 0.19689368915534922, 0.17672924225163406, 0.16942158807383265, 0.15019444604217067, 0.14881345690416617, 0.14332205027466552, 0.1425786117156277, 0.12219980576216503]</t>
+          <t>[0.19837816653414736, 0.17276008014868818, 0.16381292606920406, 0.13985850733560867, 0.13679670083931864, 0.13518161968558262, 0.1087960455468261]</t>
         </is>
       </c>
       <c r="H115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -5155,7 +5155,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>tropical forest condition important implication biodiversity climate change human need structural feature forest serve useful indicator forest condition potential assessed remotely sensed imagery provide quantitative information forest ecosystem temporal spatial resolution investigate utility remote sensing assessing predicting mapping important forest structural feature stem density basal area tropical littoral forest southeastern madagascar analysed relationship basal area stem density measurement normalised difference vegetation ndvi radiance measurement band landsat enhanced thematic mapper plus strong relationship identified individual band field based measurement basal area weak insignificant relationship spectral response stem density measurement ndvi significantly correlated basal area strongly significantly correlated stem density subset represented extreme value artificial neural network predict basal area radiance value band produce predictive basal area entire forest landscape anns produced strong significant relationship predicted actual measure basal area jackknife method larger predicted basal area produced assessed relation existing forest condition derived field assessment predictive basal area provided finer stand structural heterogeneity captured known climatic influence forest structure displayed trend basal area associated degree human accessibility finding demonstrate utility anns integrating satellite landsat spectral band limited field survey pattern basal area landscape scale</t>
+          <t>tropical forest condition ha important implication biodiversity climate change human need structural feature forest serve useful indicator forest condition potential assessed remotely sensed imagery provide quantitative information forest ecosystem temporal spatial resolution investigate utility remote sensing assessing predicting mapping important forest structural feature stem density basal area tropical littoral forest southeastern madagascar analysed relationship basal area stem density measurement normalised difference vegetation ndvi radiance measurement band landsat enhanced thematic mapper plus etm strong relationship identified individual band field based measurement basal area weak insignificant relationship spectral response stem density measurement ndvi wa significantly correlated basal area wa strongly significantly correlated stem density subset represented extreme value artificial neural network ann predict basal area radiance value band produce predictive map basal area entire forest landscape anns produced strong significant relationship predicted actual measure basal area jackknife method larger set map predicted basal area produced ann wa assessed relation pre existing map forest condition derived field assessment predictive map basal area provided finer stand structural heterogeneity captured known climatic influence forest structure displayed trend basal area associated degree human accessibility finding demonstrate utility anns integrating satellite landsat etm spectral band limited field survey ass pattern basal area landscape scale</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -5165,22 +5165,22 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.109|x3: 0.000|x4: 0.167|x5: 0.196|x6: 0.120|x7: 0.142|x8: 0.064|x9: 0.213|x10: 0.117|x11: 0.153|x12: 0.209|x13: 0.101|x14: 0.248|x15: 0.290|x16: 0.239|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.058|x6: 0.111|x7: 0.141|x8: 0.047|x9: 0.078|x10: 0.067|x11: 0.145|x12: 0.077|x13: 0.143|x14: 0.113|x15: 0.146|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.29]</t>
+          <t>[0.00, 0.07, 0.15]</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>[15, 14, 16, 9, 12, 5, 4, 11, 7, 6, 10, 2, 13]</t>
+          <t>[15, 11, 13, 7, 4, 14, 6]</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.29018370022548373, 0.2477631848073853, 0.23919471875551643, 0.21343247089516237, 0.20884841830815015, 0.19590236367538263, 0.16726108014212338, 0.15346895569662183, 0.14179502280943104, 0.12034742966716942, 0.11680895680233618, 0.10894458706385936, 0.10141561786562689]</t>
+          <t>[0.14641546413573558, 0.14452462445524691, 0.14316462527098187, 0.14071854037771223, 0.124566578121766, 0.11316402600765621, 0.11110900333527393]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5196,7 +5196,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>marxan widely conservation planning software world designed solving complex conservation planning problem landscape seascape paper substantial extension marxan called marxan zone decision support tool provides landuse zoning option geographical region biodiversity conservation function designed enhance original marxan software expand utility decision support tool major element decision problem allowing parcel land allocated specific zone reserved unreserved zone option action objective constraint flexibility define contribution zone achieve target specified feature specie habitat objective minimize cost implementing zoning plan ensuring variety conservation land objective achieved outline capability limitation additional requirement software perform comparison original version marxan feature number study demonstrate functionality software highlight flexibility address range complex spatial planning problem study demonstrate design multiple marine park western australia california zoning forest east kalimantan</t>
+          <t>marxan widely conservation planning software world designed solving complex conservation planning problem landscape seascape paper substantial extension marxan called marxan zone decision support tool provides landuse zoning option geographical region biodiversity conservation new function designed enhance original marxan software expand utility decision support tool major new element decision problem allowing parcel land sea allocated specific zone reserved unreserved zone ha option action objective constraint flexibility define contribution zone achieve target pre specified feature specie habitat objective minimize cost implementing zoning plan ensuring variety conservation land objective achieved outline capability limitation additional requirement new software perform comparison original version marxan feature number study demonstrate functionality software highlight flexibility address range complex spatial planning problem study demonstrate design multiple marine park western australia california zoning forest east kalimantan</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -5206,29 +5206,29 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>x1: 0.141|x2: 0.199|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.236|x7: 0.161|x8: 0.126|x9: 0.239|x10: 0.068|x11: 0.323|x12: 0.449|x13: 0.384|x14: 0.429|x15: 0.342|x16: 0.138|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.183|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.218|x12: 0.111|x13: 0.075|x14: 0.183|x15: 0.079|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.45]</t>
+          <t>[0.00, 0.05, 0.22]</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>[12, 14, 13, 15, 11, 9, 6, 2, 7, 1, 16, 8, 4]</t>
+          <t>[11, 14, 7, 12]</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.449318978331845, 0.4291060500028683, 0.38375774374441035, 0.3423702127245816, 0.3226014757183252, 0.23934516296723707, 0.23645358547323939, 0.19865021079394599, 0.16106958835257507, 0.14084004461852245, 0.13837613522955733, 0.126252375291199, 0.101411463815305]</t>
+          <t>[0.21771999529002994, 0.1833205449282474, 0.18299163634431406, 0.11093007773849793]</t>
         </is>
       </c>
       <c r="H117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>despite extensive research demonstrating benefit applying cost effective conservation technique optimization large remains evidence research action profession design implement conservation program study examines international survey conservation professional familiar cost effective conservation technique primary result study replicate previous result smaller sample agricultural preservation professional vast majority survey respondent viewed cost effectiveness virtue ultimately consider important program design criterion result reinforce idea advocate cost effective conservation need address concern fairness transparency remedy knowledge expertise professional involved finally lack incentive conservation professional change practice challenge public pressure encouragement experimentation evidence based policy improve cost effectiveness conservation</t>
+          <t>despite extensive research demonstrating benefit applying cost effective conservation technique optimization large gap remains evidence research action profession design implement conservation program study examines gap international survey conservation professional familiar cost effective conservation technique primary result study replicate previous result smaller sample agricultural preservation professional vast majority survey respondent viewed cost effectiveness virtue ultimately consider important program design criterion result reinforce idea advocate cost effective conservation need address concern fairness transparency remedy gap knowledge expertise professional involved finally lack incentive conservation professional change practice challenge public pressure encouragement experimentation evidence based policy improve cost effectiveness conservation</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -5247,29 +5247,29 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>x1: 0.088|x2: 0.080|x3: 0.102|x4: 0.000|x5: 0.117|x6: 0.000|x7: 0.000|x8: 0.074|x9: 0.080|x10: 0.066|x11: 0.209|x12: 0.000|x13: 0.218|x14: 0.493|x15: 0.216|x16: 0.134|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.036|x3: 0.000|x4: 0.000|x5: 0.067|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.121|x12: 0.000|x13: 0.000|x14: 0.164|x15: 0.054|x16: 0.070|x17: 0.000</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.49]</t>
+          <t>[0.00, 0.03, 0.16]</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>[14, 13, 15, 11, 16, 5, 3]</t>
+          <t>[14, 11]</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.4927998657810325, 0.21848999792329088, 0.2160718648462515, 0.20915232418789012, 0.13440161267915338, 0.11708046082702366, 0.10158945059062896]</t>
+          <t>[0.16397918821217103, 0.12066069256959436]</t>
         </is>
       </c>
       <c r="H118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5278,7 +5278,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>surveying threatened invasive specie obtain accurate population estimate important challenging task requires considerable investment time resource estimate existing ground based monitoring technique camera trap survey performed foot known resource intensive potentially inaccurate imprecise difficult validate recent development unmanned aerial vehicle artificial intelligence miniaturized thermal imaging represent opportunity wildlife expert inexpensively survey relatively large area presented paper includes thermal image acquisition video processing pipeline perform object detection classification tracking wildlife forest open area tested thermal video ground based test flight footage able detect target wildlife located surveyed area flexible user readily define type object classify object characteristic considered classification</t>
+          <t>surveying threatened invasive specie obtain accurate population estimate important challenging task requires considerable investment time resource estimate existing ground based monitoring technique camera trap survey performed foot known resource intensive potentially inaccurate imprecise difficult validate recent development unmanned aerial vehicle uav artificial intelligence miniaturized thermal imaging represent new opportunity wildlife expert inexpensively survey relatively large area presented paper includes thermal image acquisition video processing pipeline perform object detection classification tracking wildlife forest open area tested thermal video ground based test flight footage able detect target wildlife located surveyed area flexible user readily define type object classify object characteristic considered classification</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -5288,22 +5288,22 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>x1: 0.109|x2: 0.107|x3: 0.000|x4: 0.267|x5: 0.419|x6: 0.335|x7: 0.196|x8: 0.137|x9: 0.221|x10: 0.109|x11: 0.205|x12: 0.366|x13: 0.160|x14: 0.191|x15: 0.455|x16: 0.224|x17: 0.000</t>
+          <t>x1: 0.231|x2: 0.069|x3: 0.000|x4: 0.088|x5: 0.074|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.092|x12: 0.161|x13: 0.066|x14: 0.136|x15: 0.102|x16: 0.150|x17: 0.000</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>[0.00, 0.21, 0.45]</t>
+          <t>[0.00, 0.07, 0.23]</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>[15, 5, 12, 6, 4, 16, 9, 11, 7, 14, 13, 8, 10, 1, 2]</t>
+          <t>[1, 12, 16, 14, 10, 15]</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.454909886683455, 0.4193176879649406, 0.36558827482727435, 0.33474877640841666, 0.266963117750907, 0.2241009947149513, 0.2205942671583623, 0.20480612588226865, 0.19605611981200755, 0.19128535004966787, 0.15975412128061653, 0.1373260589187759, 0.10943804924796487, 0.10909647861367647, 0.1073371461170068]</t>
+          <t>[0.23115776869890745, 0.16053415950109248, 0.1501865537246298, 0.1359809437251989, 0.10477198156814374, 0.10230417014097314]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5319,7 +5319,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>number distribution free ranging giant panda essential formulation effective conservation strategy ideal method identify individual specie traditional bite size method bamboo fragment feces lack accuracy modern based estimation expensive demand fresh sample lack identifiable individual feature panda pelage apparent sexual dimorphism impede reliable estimation camera trap image propose innovative invasive technique identify specie footprint identification technique based pairwise comparison trail unbroken series footprint discriminant analysis ward clustering method collected footprint captive animal train algorithm animal model validation accuracy individual identification individual footprint fewer footprint trail accuracy discrimination single footprint trail cost effective method provides promising future monitoring wild panda population understanding dynamic especially useful monitoring reintroduced animal detachment collar collection protocol straightforward accessible citizen scientist conservation professional alike</t>
+          <t>number distribution free ranging giant panda essential formulation effective conservation strategy ideal method identify individual sex specie traditional bite size method bamboo fragment feces lack accuracy modern dna based estimation expensive demand fresh sample lack identifiable individual feature panda pelage apparent sexual dimorphism impede reliable estimation camera trap image propose innovative invasive technique identify sex specie footprint identification technique fit based pairwise comparison trail unbroken series footprint discriminant analysis ward clustering method collected footprint captive animal train algorithm animal model validation accuracy individual identification wa individual footprint fewer footprint trail accuracy sex discrimination wa single footprint trail cost effective method provides promising future monitoring wild panda population understanding dynamic especially useful monitoring reintroduced animal detachment gps collar collection protocol straightforward accessible citizen scientist conservation professional alike</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5329,29 +5329,29 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>x1: 0.104|x2: 0.079|x3: 0.120|x4: 0.122|x5: 0.198|x6: 0.205|x7: 0.322|x8: 0.145|x9: 0.217|x10: 0.058|x11: 0.123|x12: 0.223|x13: 0.102|x14: 0.212|x15: 0.296|x16: 0.120|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.068|x3: 0.122|x4: 0.058|x5: 0.101|x6: 0.108|x7: 0.174|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.230|x12: 0.188|x13: 0.252|x14: 0.055|x15: 0.074|x16: 0.128|x17: 0.000</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.32]</t>
+          <t>[0.00, 0.09, 0.25]</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>[7, 15, 12, 9, 14, 6, 5, 8, 11, 4, 3, 16, 1, 13]</t>
+          <t>[13, 11, 12, 7, 16, 3, 6, 5]</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.3224196555608855, 0.29609492492899014, 0.22285760138010222, 0.21690101816133447, 0.21241819127401268, 0.20535955983988236, 0.1980780591280605, 0.14488651956258433, 0.12339449467177431, 0.12190363357426853, 0.11980129516747064, 0.11967517091162379, 0.10442360634520105, 0.10226870439689222]</t>
+          <t>[0.25246100977353114, 0.22979202338680157, 0.18842310075640417, 0.17379768297933285, 0.12808982293792257, 0.12180027099642769, 0.10821470123829212, 0.1007856088676124]</t>
         </is>
       </c>
       <c r="H120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
@@ -5370,22 +5370,22 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.168|x2: 0.000|x3: 0.359|x4: 0.205|x5: 0.308|x6: 0.370|x7: 0.000|x8: 0.180|x9: 0.000|x10: 0.116|x11: 0.359|x12: 0.074|x13: 0.131|x14: 0.196|x15: 0.122|x16: 0.237|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.052|x3: 0.344|x4: 0.099|x5: 0.114|x6: 0.218|x7: 0.171|x8: 0.000|x9: 0.000|x10: 0.128|x11: 0.172|x12: 0.264|x13: 0.185|x14: 0.185|x15: 0.105|x16: 0.149|x17: 0.000</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.37]</t>
+          <t>[0.00, 0.13, 0.34]</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>[6, 11, 3, 5, 16, 4, 14, 8, 1, 13, 15, 10]</t>
+          <t>[3, 12, 6, 14, 13, 11, 7, 16, 10, 5, 15]</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.37004055156719834, 0.3590093603837286, 0.35891634317750615, 0.30831200252724333, 0.23724008830332208, 0.2051230022552181, 0.1957990171127827, 0.17955599672709802, 0.1675799581516939, 0.13102726731342157, 0.12154748730988853, 0.11585442760017489]</t>
+          <t>[0.3439647708965254, 0.2636797821451056, 0.21768403729174268, 0.18548282644679803, 0.18481839950109277, 0.17162841776028867, 0.1708319240797083, 0.14930254002288781, 0.1280923206713785, 0.11446744733294004, 0.10519545046497322]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5401,7 +5401,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>visual surveillance dynamic scene especially human vehicle currently active research topic vision wide spectrum promising application including access control special area human identification distance crowd flux statistic congestion analysis detection anomalous behavior interactive surveillance multiple camera general processing framework visual surveillance dynamic scene includes following stage modeling environment detection motion classification moving object tracking understanding description behavior human identification fusion multiple camera review recent development general strategy stage finally analyze possible research direction occlusion handling combination twoand dimensional tracking combination motion analysis biometrics anomaly detection behavior prediction content based retrieval surveillance video behavior understanding natural language description fusion information multiple sensor remote surveillance</t>
+          <t>visual surveillance dynamic scene especially human vehicle currently active research topic vision ha wide spectrum promising application including access control special area human identification distance crowd flux statistic congestion analysis detection anomalous behavior interactive surveillance multiple camera general processing framework visual surveillance dynamic scene includes following stage modeling environment detection motion classification moving object tracking understanding description behavior human identification fusion multiple camera review recent development general strategy stage finally analyze possible research direction occlusion handling combination twoand dimensional tracking combination motion analysis biometrics anomaly detection behavior prediction content based retrieval surveillance video behavior understanding natural language description fusion information multiple sensor remote surveillance</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5411,29 +5411,29 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>x1: 0.231|x2: 0.229|x3: 0.225|x4: 0.248|x5: 0.182|x6: 0.348|x7: 0.213|x8: 0.283|x9: 0.134|x10: 0.105|x11: 0.298|x12: 0.307|x13: 0.161|x14: 0.342|x15: 0.242|x16: 0.216|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.078|x3: 0.201|x4: 0.105|x5: 0.120|x6: 0.054|x7: 0.073|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.138|x12: 0.137|x13: 0.000|x14: 0.165|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>[0.00, 0.22, 0.35]</t>
+          <t>[0.00, 0.06, 0.20]</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>[6, 14, 12, 11, 8, 4, 15, 1, 2, 3, 16, 7, 5, 13, 9, 10]</t>
+          <t>[3, 14, 11, 12, 5, 4]</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.3475752028417145, 0.34217824489432275, 0.30710640479329554, 0.2980941225848231, 0.283061844151694, 0.24846296465840093, 0.24182285022026828, 0.23087176465521786, 0.22858466996552168, 0.22549686477440312, 0.21567152584598429, 0.21269605968530503, 0.18217385726531926, 0.16084413418650334, 0.1343253536971408, 0.10532158099939869]</t>
+          <t>[0.20060727877314924, 0.16548351617933754, 0.13800732125998594, 0.13699829255629614, 0.12028187112791798, 0.10536287533876552]</t>
         </is>
       </c>
       <c r="H122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>game improve social awareness letting experience difficult social situation learn experience assert moving strict realism social simulation offer technique role play offer possibility feedback reflection discus design game interpersonal skill training domain enforcement game feature intelligent virtual agent trainee interact different scenario improve social awareness interacting virtual agent trainee experience behaviour influence course intervention outcome discus intend improve learning experience game including meta technique role play close describing current future implementation game</t>
+          <t>game improve social awareness letting experience difficult social situation learn experience assert moving strict realism social simulation offer technique role play offer possibility feedback reflection discus design game interpersonal skill training domain law enforcement game feature intelligent virtual agent trainee interact different scenario improve social awareness interacting virtual agent trainee experience behaviour influence course intervention outcome discus intend improve learning experience game including meta technique role play close describing current future implementation game</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5452,22 +5452,22 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>x1: 0.235|x2: 0.268|x3: 0.073|x4: 0.332|x5: 0.356|x6: 0.000|x7: 0.137|x8: 0.226|x9: 0.096|x10: 0.000|x11: 0.092|x12: 0.306|x13: 0.387|x14: 0.187|x15: 0.159|x16: 0.081|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.240|x5: 0.079|x6: 0.100|x7: 0.207|x8: 0.000|x9: 0.000|x10: 0.115|x11: 0.082|x12: 0.197|x13: 0.044|x14: 0.105|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.39]</t>
+          <t>[0.00, 0.07, 0.24]</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>[13, 5, 4, 12, 2, 1, 8, 14, 15, 7]</t>
+          <t>[4, 7, 12, 10, 14, 6]</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.38669396011850643, 0.35617987329181133, 0.3318112715523273, 0.30555480864060325, 0.2675429304144024, 0.23466907985605331, 0.2261874005593403, 0.18674322847461783, 0.15866220696394223, 0.13739175636753667]</t>
+          <t>[0.2403680906480422, 0.2074307049301308, 0.1973887566694562, 0.11469375285094967, 0.1047772097885108, 0.10010269681861934]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5483,7 +5483,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>paper envisions future autonomous agent foster support social behavior hybrid society human machine social behavior occurs agent perform costly action benefit helping voluntarily donating charity providing information sharing resource social behavior discus question challenge purely utilitarian view human decision making contextualize role hybrid society condition mechanism lead society agent human social engineer autonomous entity agent robot lead altruistic cooperative behavior hybrid society propose social simulation game theory population dynamic study virtual environment robot agent human interact research constitute basis establishing foundation field social computing aiming understanding predicting promoting sociality human artificial agent multiagent</t>
+          <t>paper envisions future autonomous agent foster support pro social behavior hybrid society human machine pro social behavior occurs agent perform costly action benefit act helping voluntarily donating charity providing information sharing resource pro social behavior discus question challenge purely utilitarian view human decision making contextualize role hybrid society condition mechanism lead society agent human pro social engineer autonomous entity agent robot lead altruistic cooperative behavior hybrid society propose social simulation game theory population dynamic study virtual environment robot agent human interact research constitute basis establishing foundation new field pro social computing aiming understanding predicting promoting pro sociality human artificial agent multiagent</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5493,22 +5493,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>x1: 0.236|x2: 0.180|x3: 0.200|x4: 0.169|x5: 0.483|x6: 0.122|x7: 0.199|x8: 0.229|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.103|x13: 0.335|x14: 0.536|x15: 0.245|x16: 0.083|x17: 0.000</t>
+          <t>x1: 0.105|x2: 0.031|x3: 0.046|x4: 0.114|x5: 0.139|x6: 0.095|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.081|x15: 0.000|x16: 0.055|x17: 0.000</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.54]</t>
+          <t>[0.00, 0.04, 0.14]</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>[14, 5, 13, 15, 1, 8, 3, 7, 2, 4, 6, 12]</t>
+          <t>[5, 4, 1]</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[0.5355413602423065, 0.48270004723426757, 0.3345114000950106, 0.245234364161696, 0.23585658107134239, 0.2293144268209147, 0.19968541104330423, 0.1994366644778266, 0.1801845262419412, 0.16918933495019564, 0.12248283719645328, 0.10298488243917871]</t>
+          <t>[0.1391211660422729, 0.11446992200200559, 0.10456707456377505]</t>
         </is>
       </c>
       <c r="H124" t="b">
@@ -5524,7 +5524,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>decade scientific research unmanned aerial vehicle uavs spectacularly design multiple type aerial platform major challenge today development autonomously operating aerial agent capable completing mission independently human interaction extent visual sensing technique integrated control pipeline uavs order enhance navigation guidance skill article present comprehensive literature review vision based application uavs focusing mainly current development trend application sorted different category according research topic research group specifically vision based position attitude control pose estimation mapping obstacle detection target tracking identified component autonomous agent aerial platform reach greater level autonomy integrating technology onboard additionally article concept fusion multiple sensor highlighted overview challenge kanellakis</t>
+          <t>decade scientific research unmanned aerial vehicle uavs spectacularly led design multiple type aerial platform major challenge today development autonomously operating aerial agent capable completing mission independently human interaction extent visual sensing technique integrated control pipeline uavs order enhance navigation guidance skill aim article present comprehensive literature review vision based application uavs focusing mainly current development trend application sorted different category according research topic research group specifically vision based position attitude control pose estimation mapping obstacle detection target tracking identified component autonomous agent aerial platform reach greater level autonomy integrating technology onboard additionally article concept fusion multiple sensor highlighted overview challenge kanellakis</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5534,29 +5534,29 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>x1: 0.172|x2: 0.000|x3: 0.208|x4: 0.349|x5: 0.474|x6: 0.109|x7: 0.283|x8: 0.180|x9: 0.137|x10: 0.077|x11: 0.245|x12: 0.274|x13: 0.268|x14: 0.303|x15: 0.182|x16: 0.158|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.115|x4: 0.067|x5: 0.107|x6: 0.072|x7: 0.195|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.230|x12: 0.168|x13: 0.141|x14: 0.125|x15: 0.042|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.47]</t>
+          <t>[0.00, 0.07, 0.23]</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>[5, 4, 14, 7, 12, 13, 11, 3, 15, 8, 1, 16, 9, 6]</t>
+          <t>[11, 7, 12, 13, 14, 3, 5]</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.4742255852552783, 0.34889960213621657, 0.3029886586788061, 0.28266110341717465, 0.2735985454115319, 0.26843200131837947, 0.2448871578615763, 0.20791386356211572, 0.18150653135245345, 0.1803000550127226, 0.17241447039145572, 0.15797918935134034, 0.13693112180084493, 0.10945430946559893]</t>
+          <t>[0.2302885116729449, 0.1953032835586525, 0.16791742852786068, 0.14137219749366037, 0.1249053335966223, 0.1147064614880404, 0.10679090052110657]</t>
         </is>
       </c>
       <c r="H125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
@@ -5575,29 +5575,29 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.179|x2: 0.321|x3: 0.000|x4: 0.231|x5: 0.000|x6: 0.087|x7: 0.260|x8: 0.191|x9: 0.235|x10: 0.065|x11: 0.400|x12: 0.338|x13: 0.324|x14: 0.331|x15: 0.249|x16: 0.133|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.000|x6: 0.000|x7: 0.193|x8: 0.000|x9: 0.000|x10: 0.057|x11: 0.339|x12: 0.000|x13: 0.161|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>[0.00, 0.20, 0.40]</t>
+          <t>[0.00, 0.05, 0.34]</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>[11, 12, 14, 13, 2, 7, 15, 9, 4, 8, 1, 16]</t>
+          <t>[11, 7, 13]</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[0.4001279102166799, 0.33841443756166084, 0.3313998799344551, 0.32404295310481707, 0.32102269359669733, 0.25953729022122735, 0.24902146996915306, 0.23473121756085147, 0.23061024927349524, 0.19089408144537232, 0.1794722317354762, 0.13293283149269475]</t>
+          <t>[0.3391098595722287, 0.19288726762398553, 0.1608303859072676]</t>
         </is>
       </c>
       <c r="H126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>automated driving fundamentally change road transportation improve quality life present role human automated vehicle clearly established interview conducted expert researcher field human factor automated driving identify commonality distinctive perspective challenge development expert indicated level inform driver capability operational status ensure safety changing automated manual mode research particularly address interaction human driver vulnerable road user additionally driver training program modified ensure human capable finally reflection interview provided showing discordance interviewee statementswhich appear long history work human factor research rapid development automation technology expect perspective instrumental stakeholder involved development instructive</t>
+          <t>automated driving fundamentally change road transportation improve quality life present role human automated vehicle av clearly established interview conducted expert researcher field human factor automated driving identify commonality distinctive perspective challenge development av expert indicated sae level inform driver av capability operational status ensure safety changing automated manual mode research particularly address interaction av human driver vulnerable road user additionally driver training program modified ensure human capable av finally reflection interview provided showing discordance interviewee statementswhich appear long history work human factor research rapid development automation technology expect perspective instrumental stakeholder involved development instructive</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5616,22 +5616,22 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>x1: 0.107|x2: 0.071|x3: 0.000|x4: 0.194|x5: 0.144|x6: 0.277|x7: 0.242|x8: 0.126|x9: 0.223|x10: 0.069|x11: 0.240|x12: 0.266|x13: 0.198|x14: 0.150|x15: 0.188|x16: 0.141|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.122|x5: 0.000|x6: 0.070|x7: 0.172|x8: 0.055|x9: 0.144|x10: 0.105|x11: 0.141|x12: 0.178|x13: 0.188|x14: 0.180|x15: 0.000|x16: 0.070|x17: 0.000</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.28]</t>
+          <t>[0.00, 0.08, 0.19]</t>
         </is>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>[6, 12, 7, 11, 9, 13, 4, 15, 14, 5, 16, 8, 1]</t>
+          <t>[13, 14, 12, 7, 9, 11, 4, 10]</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.27748436851890756, 0.2662859342029152, 0.24249161126065258, 0.24003253175087308, 0.22322638713209256, 0.19751905336153042, 0.19437251793605506, 0.18822831762691325, 0.14999225922159287, 0.14447563882700462, 0.14136996876592625, 0.12586560484851234, 0.1071798895820795]</t>
+          <t>[0.18812054908122827, 0.17997321586479562, 0.17798474476750392, 0.17174339504139483, 0.14437115187818658, 0.1412056061169311, 0.12227687550270643, 0.10522246099375951]</t>
         </is>
       </c>
       <c r="H127" t="b">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>background worrying public health issue china lack timely effective surveillance diffusion adoption internet aggregated internet search engine contain user information concern reality health status provide opportunity surveillance paper search engine monitor forecast china method machine learning method artificial neural network anns forecast incidence death search trend related largest chinese search engine baiducom collected selected input variable anns officially reported actual incidence death output variable criterion mean absolute percentage error root mean squared percentage error agreement test forecasting performance method result based monthly time series january june article criterion method lead satisfactory forecasting incidence death regardless change number search query conclusion despite inability selfdetect online searching internetbased adopted timely costeffective complement traditional surveillance</t>
+          <t>background aid worrying public health issue china lack timely effective surveillance diffusion adoption internet big aggregated internet search engine contain user information concern reality health status provide new opportunity aid surveillance paper search engine monitor forecast aid china method machine learning method artificial neural network anns forecast aid incidence death search trend related aid largest chinese search engine baiducom collected selected input variable anns officially reported actual aid incidence death output variable criterion mean absolute percentage error root mean squared percentage error agreement test forecasting performance ann method result based monthly time series january june article criterion ann method lead satisfactory forecasting aid incidence death regardless change number search query conclusion despite inability selfdetect hiv aid online searching internetbased adopted timely costeffective complement traditional aid surveillance</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5657,29 +5657,29 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.201|x3: 0.264|x4: 0.206|x5: 0.278|x6: 0.082|x7: 0.000|x8: 0.063|x9: 0.000|x10: 0.000|x11: 0.227|x12: 0.000|x13: 0.000|x14: 0.245|x15: 0.000|x16: 0.103|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.155|x3: 0.000|x4: 0.000|x5: 0.137|x6: 0.062|x7: 0.181|x8: 0.000|x9: 0.166|x10: 0.077|x11: 0.259|x12: 0.070|x13: 0.070|x14: 0.000|x15: 0.059|x16: 0.069|x17: 0.000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>[0.00, 0.10, 0.28]</t>
+          <t>[0.00, 0.08, 0.26]</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>[5, 3, 14, 11, 4, 2, 16]</t>
+          <t>[11, 7, 9, 2, 5]</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.27763698177395835, 0.26404556631023485, 0.24464700434127343, 0.22656357867482269, 0.20640194574247267, 0.20078874818383677, 0.10314797106715012]</t>
+          <t>[0.25901242124431884, 0.181254582127622, 0.1659804678575374, 0.15508215480446927, 0.13718873785398802]</t>
         </is>
       </c>
       <c r="H128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5688,7 +5688,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>introduction artificial intelligence branch science capable analysing complex medical potential exploit meaningful relationship diagnosis treatment predicting outcome clinical scenario method medline internet search carried keywords artificial intelligence neural network reference obtained article overview different artificial intelligent technique presented paper review important clinical application result proficiency artificial intelligent technique explored field medicine artificial neural network commonly analytical tool whilst artificial intelligent technique fuzzy expert evolutionary computation hybrid intelligent different clinical setting discussion artificial intelligence technique potential applied field medicine need clinical trial appropriately designed emergent technique application clinical setting</t>
+          <t>introduction artificial intelligence branch science capable analysing complex medical potential exploit meaningful relationship set diagnosis treatment predicting outcome clinical scenario method medline internet search carried keywords artificial intelligence neural network reference obtained article overview different artificial intelligent technique presented paper review important clinical application result proficiency artificial intelligent technique ha explored field medicine artificial neural network wa commonly analytical tool whilst artificial intelligent technique fuzzy expert evolutionary computation hybrid intelligent different clinical setting discussion artificial intelligence technique potential applied field medicine need clinical trial appropriately designed emergent technique application clinical setting</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5698,29 +5698,29 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>x1: 0.193|x2: 0.268|x3: 0.192|x4: 0.161|x5: 0.104|x6: 0.000|x7: 0.206|x8: 0.172|x9: 0.090|x10: 0.150|x11: 0.158|x12: 0.278|x13: 0.382|x14: 0.278|x15: 0.375|x16: 0.307|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.072|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.034|x10: 0.049|x11: 0.080|x12: 0.149|x13: 0.125|x14: 0.117|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.38]</t>
+          <t>[0.00, 0.04, 0.15]</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>[13, 15, 16, 14, 12, 2, 7, 1, 3, 8, 4, 11, 10, 5]</t>
+          <t>[12, 13, 14]</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.38197414229718263, 0.37486510887721713, 0.3074840655884228, 0.2780872297010056, 0.2775527140430504, 0.26847594273314895, 0.20566319537833538, 0.19284831810303188, 0.19219245035060564, 0.17169559805860854, 0.1605227770950851, 0.15823804900868824, 0.15015754997264733, 0.1039989197300698]</t>
+          <t>[0.14864122125633347, 0.12536932846169857, 0.11696745829451058]</t>
         </is>
       </c>
       <c r="H129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>objective introduce summarize current research field public health epidemiology informatics method literature concerning public health epidemiology informatics searched pubmed science returned reference reviewed section editor select candidate best paper paper peerreviewed external reviewer provide editorial team enlightened vision select best paper result reference retrieved pubmed science finally selected best paper analyzes relationship disease social mass public emotion understand public overreaction leading noticeable reduction social economic activity context nationwide outbreak middle east respiratory syndrome mers korea second paper concern methodology deidentify patient note electronic health record based artificial neural network outperformed existing method conclusion surveillance productive topic public health informatics important topic public health appearing example artificial intelligence approach increasing</t>
+          <t>objective introduce summarize current research field public health epidemiology informatics method literature concerning public health epidemiology informatics wa searched pubmed web science returned reference reviewed section editor select candidate best paper paper peerreviewed external reviewer provide editorial team enlightened vision select best paper result reference retrieved pubmed web science finally selected best paper analyzes relationship disease social mass public emotion understand public overreaction leading noticeable reduction social economic activity context nationwide outbreak middle east respiratory syndrome mers korea second paper concern new methodology deidentify patient note electronic health record based artificial neural network outperformed existing method conclusion surveillance productive topic public health informatics important topic public health appearing example artificial intelligence approach increasing</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5739,29 +5739,29 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.182|x3: 0.124|x4: 0.148|x5: 0.057|x6: 0.000|x7: 0.000|x8: 0.070|x9: 0.068|x10: 0.096|x11: 0.302|x12: 0.140|x13: 0.274|x14: 0.269|x15: 0.238|x16: 0.197|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.051|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.160|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.084|x12: 0.000|x13: 0.054|x14: 0.171|x15: 0.092|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.30]</t>
+          <t>[0.00, 0.04, 0.17]</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>[11, 13, 14, 15, 16, 2, 4, 12, 3]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.3021517128396932, 0.2735205689634356, 0.2688946979364525, 0.23770705901359385, 0.19748316637371713, 0.18214639543641845, 0.14807293460077087, 0.14028470254360467, 0.12364389169740865]</t>
+          <t>[0.17050653204055527, 0.15961434960981952]</t>
         </is>
       </c>
       <c r="H130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>optical microscope widely tool diagnosing infectious disease developing world reliance trained microscopist field microscopy suffers poor sensitivity specificity reproducibility goal work called autoscope lowcost automated digital microscope coupled vision classification algorithm accurately diagnose variety infectious disease targeting usecases developing world initial target malaria difficulty task manual microscopy currently central highly imperfect tool malaria work field addition diagnosis algorithm performs specie identification quantitation parasite load parameter critical field application effectively rapid diagnostic test rdts</t>
+          <t>optical microscope widely tool diagnosing infectious disease developing world reliance trained microscopist field microscopy suffers poor sensitivity specificity reproducibility goal work called autoscope lowcost automated digital microscope coupled set vision classification algorithm accurately diagnose variety infectious disease targeting usecases developing world initial target malaria difficulty task manual microscopy currently central highly imperfect tool malaria work field addition diagnosis algorithm performs specie identification quantitation parasite load parameter critical field application effectively rapid diagnostic test rdts</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5780,29 +5780,29 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.100|x2: 0.155|x3: 0.091|x4: 0.246|x5: 0.074|x6: 0.390|x7: 0.380|x8: 0.134|x9: 0.322|x10: 0.084|x11: 0.151|x12: 0.302|x13: 0.190|x14: 0.000|x15: 0.154|x16: 0.172|x17: 0.000</t>
+          <t>x1: 0.150|x2: 0.000|x3: 0.237|x4: 0.116|x5: 0.053|x6: 0.169|x7: 0.316|x8: 0.151|x9: 0.077|x10: 0.067|x11: 0.054|x12: 0.000|x13: 0.096|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.39]</t>
+          <t>[0.00, 0.09, 0.32]</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>[6, 7, 9, 12, 4, 13, 16, 2, 15, 11, 8, 1]</t>
+          <t>[7, 3, 6, 8, 1, 4]</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.38974919616437365, 0.37960812559699814, 0.3224623441530645, 0.30202993821270835, 0.24619289793130178, 0.19025238566633176, 0.1720798146020908, 0.15504778703780805, 0.1539861649624024, 0.1507928982005253, 0.13426208393292705, 0.10048025312505418]</t>
+          <t>[0.3160247436945101, 0.2371764424435209, 0.16930735273593125, 0.15071191779587179, 0.15030896156206477, 0.11621315416781948]</t>
         </is>
       </c>
       <c r="H131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5811,7 +5811,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>background study validate fetal medicine foundation multiple logistic regression algorithm prediction risk preeclampsia australian population model predicts risk population rate preeclampsia variety demographic factor mean maternal arterial blood pressure uterine artery plasma protein pappa shown predict earlyonset preeclampsia delivery prior week woman falsepositive rate method woman attended trimester screening royal prince alfred hospital body mass assessed addition factor traditionally aneuploidy including pappa delivery risk earlyonset delivery prior week preeclampsia late preeclampsia gestational hypertension calculated risk algorithm result woman screened delivered locally woman perform preeclampsia screening available included woman live risk early preeclampsia calculated woman delivered week early preeclampsia prevalence early preeclampsia pregnancy risk generated maternal history pappa detected early preeclampsia falsepositive rate respectively conclusion study early preeclampsia algorithm effective australian population</t>
+          <t>background aim study validate fetal medicine foundation fmf multiple logistic regression algorithm prediction risk preeclampsia australian population model predicts risk population rate preeclampsia variety demographic factor mean maternal arterial blood pressure map uterine artery uta plasma protein pappa ha shown predict earlyonset preeclampsia delivery prior week woman falsepositive rate method woman attended trimester screening royal prince alfred hospital body mass bmi map uta assessed addition factor traditionally ass aneuploidy including pappa mom delivery risk earlyonset delivery prior week preeclampsia late preeclampsia gestational hypertension calculated fmf risk algorithm result woman screened delivered locally woman perform preeclampsia screening available included woman live risk early preeclampsia calculated woman delivered week early preeclampsia prevalence early preeclampsia pregnancy risk generated maternal history map uta pappa detected early preeclampsia falsepositive rate respectively conclusion study fmf early preeclampsia algorithm effective australian population</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5821,29 +5821,29 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>x1: 0.197|x2: 0.111|x3: 0.183|x4: 0.191|x5: 0.267|x6: 0.065|x7: 0.354|x8: 0.167|x9: 0.000|x10: 0.000|x11: 0.083|x12: 0.160|x13: 0.312|x14: 0.139|x15: 0.101|x16: 0.080|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.075|x4: 0.051|x5: 0.060|x6: 0.100|x7: 0.165|x8: 0.000|x9: 0.095|x10: 0.000|x11: 0.232|x12: 0.000|x13: 0.000|x14: 0.094|x15: 0.141|x16: 0.170|x17: 0.000</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.35]</t>
+          <t>[0.00, 0.07, 0.23]</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>[7, 13, 5, 1, 4, 3, 8, 12, 14, 2, 15]</t>
+          <t>[11, 16, 7, 15]</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.3543074523723414, 0.3124854505941513, 0.26741015223437437, 0.19652226996041708, 0.19080500050413315, 0.18312467672794144, 0.1674237066200961, 0.15990499177842363, 0.1387861485372411, 0.11090319063136317, 0.10117809238848166]</t>
+          <t>[0.23190597450420003, 0.17047740487681884, 0.16481015435517263, 0.14140271782896563]</t>
         </is>
       </c>
       <c r="H132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
@@ -5852,7 +5852,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>identifying robust survival subgroup hepatocellular carcinoma significantly improve patient care currently endeavor integrating multiomics explicitly predict survival multiple patient cohort lacking present deep learning based model robustly differentiates survival subpopulation patient cohort build based model patient rnaseq mirnaseq methylation tcga predicts prognosis good alternative model genomics clinical considered based model provides optimal subgroup patient significant survival difference good model fitness cindex aggressive subtype associated frequent inactivation mutation higher expression stemness marker epcam tumor marker birc activated signaling pathway validated multiomics model external datasets omics type lirijp cohort cindex cohort cindex chinese cohort cindex etabm cohort cindex hawaiian cohort cindex study employ deep learning identify multiomics feature linked differential survival patient given robustness multiple cohort expect workflow useful predicting prognosis prediction</t>
+          <t>identifying robust survival subgroup hepatocellular carcinoma hcc significantly improve patient care currently endeavor integrating multiomics explicitly predict hcc survival multiple patient cohort lacking gap present deep learning based model hcc robustly differentiates survival subpopulation patient cohort build based model hcc patient rnaseq mirnaseq methylation tcga predicts prognosis good alternative model genomics clinical considered based model provides optimal subgroup patient significant survival difference good model fitness cindex aggressive subtype associated frequent inactivation mutation higher expression stemness marker krt epcam tumor marker birc activated wnt akt signaling pathway validated multiomics model external datasets omics type lirijp cohort cindex nci cohort cindex chinese cohort cindex etabm cohort cindex hawaiian cohort cindex study employ deep learning identify multiomics feature linked differential survival hcc patient given robustness multiple cohort expect workflow useful predicting hcc prognosis prediction</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5862,22 +5862,22 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.193|x2: 0.109|x3: 0.078|x4: 0.323|x5: 0.261|x6: 0.427|x7: 0.598|x8: 0.249|x9: 0.305|x10: 0.061|x11: 0.186|x12: 0.167|x13: 0.205|x14: 0.246|x15: 0.160|x16: 0.126|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.118|x7: 0.192|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.085|x13: 0.197|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>[0.00, 0.22, 0.60]</t>
+          <t>[0.00, 0.05, 0.20]</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>[7, 6, 4, 9, 5, 8, 14, 13, 1, 11, 12, 15, 16, 2]</t>
+          <t>[13, 7, 6, 10, 4]</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.598067019280215, 0.4271459291481365, 0.32343039785268657, 0.30518857580721576, 0.26064265484782023, 0.24888630686581303, 0.24589473215863247, 0.2046178152879629, 0.19283392177596262, 0.18644354147945585, 0.16723907884232472, 0.16015302892689004, 0.1257146422810357, 0.10904164368658588]</t>
+          <t>[0.19680257672568433, 0.1916402450801697, 0.11799216748989012, 0.1051293366063216, 0.10093842906372831]</t>
         </is>
       </c>
       <c r="H133" t="b">
@@ -5893,7 +5893,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>present method predicting preterm infant inhospital mortality bayesian gaussian process classification combined feature extracted sensor measurement hour care weight infant weight standard clinical feature calculated arrival neonatal intensive care unit time period hour evaluated achieved classification result area receiver operating characteristic curve excess result achieved clinical standard snapii snappeii score</t>
+          <t>present method predicting preterm infant inhospital mortality bayesian gaussian process classification combined feature extracted sensor measurement hour care low weight infant weight standard clinical feature calculated arrival neonatal intensive care unit time period hour evaluated achieved classification result area receiver operating characteristic curve excess result achieved clinical standard snapii snappeii score</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5903,22 +5903,22 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.105|x2: 0.220|x3: 0.136|x4: 0.057|x5: 0.170|x6: 0.418|x7: 0.186|x8: 0.141|x9: 0.169|x10: 0.074|x11: 0.155|x12: 0.385|x13: 0.091|x14: 0.208|x15: 0.230|x16: 0.152|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.208|x3: 0.290|x4: 0.000|x5: 0.083|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.243|x10: 0.104|x11: 0.153|x12: 0.428|x13: 0.076|x14: 0.192|x15: 0.000|x16: 0.089|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.42]</t>
+          <t>[0.00, 0.12, 0.43]</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>[6, 12, 15, 2, 14, 7, 5, 9, 11, 16, 8, 3, 1]</t>
+          <t>[12, 3, 9, 2, 14, 11, 8, 10]</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.41828068969491433, 0.3848886167298853, 0.22973202973451057, 0.22015439628035136, 0.20790881833357708, 0.18599588003945236, 0.16989899587083165, 0.16878129874452508, 0.15490421418076633, 0.15174961100433282, 0.14147952397008787, 0.13627872515265696, 0.10531259740456407]</t>
+          <t>[0.4276974551399936, 0.2898541664200891, 0.2426485871650289, 0.2079107927211161, 0.19166628547317982, 0.15258919961161999, 0.1323591758101888, 0.10442683093624468]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5944,29 +5944,29 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>x1: 0.122|x2: 0.103|x3: 0.243|x4: 0.000|x5: 0.325|x6: 0.227|x7: 0.143|x8: 0.123|x9: 0.000|x10: 0.126|x11: 0.104|x12: 0.078|x13: 0.171|x14: 0.230|x15: 0.000|x16: 0.257|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.089|x3: 0.000|x4: 0.000|x5: 0.105|x6: 0.000|x7: 0.084|x8: 0.067|x9: 0.000|x10: 0.136|x11: 0.000|x12: 0.138|x13: 0.079|x14: 0.093|x15: 0.000|x16: 0.174|x17: 0.000</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.33]</t>
+          <t>[0.00, 0.06, 0.17]</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>[5, 16, 3, 14, 6, 13, 7, 10, 8, 1, 11, 2]</t>
+          <t>[16, 12, 10, 5]</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.32543173215901056, 0.2571467822392814, 0.2431350549164556, 0.2304375153095916, 0.2265538299116514, 0.17077776994267113, 0.14301245901293752, 0.1255757131040555, 0.12264953578711824, 0.12173861236934846, 0.10398165974835008, 0.1028353542596141]</t>
+          <t>[0.17409712588430443, 0.1379170237643833, 0.1362114128743975, 0.10528532264573379]</t>
         </is>
       </c>
       <c r="H135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>contribution provides review fundamental goal development future perspective driver assistance mobility fundamental desire mankind virtually society strives safe efficient mobility ecological economic cost technical implementation significantly differs society depending culture degree potential evolutionary roadmap driver assistance discussed emerging based proprioceptive sensor review progress incented exteroceptive sensor radar video lidar ultimate goal automated cooperative traffic remains vision future intermediate step realized mitigate avoid collision selected driving situation research extends stateoftheart automated driving urban traffic cooperative driving addressing communication collaboration different vehicle cooperative vehicle operation driver machine intelligence step considered important interim period reliable unsupervised automated driving conceivable traffic situation available prospective evolution driver assistance stimulated technological societal market trend paper close view current research field</t>
+          <t>contribution provides review fundamental goal development future perspective driver assistance mobility fundamental desire mankind virtually society strives safe efficient mobility low ecological economic cost technical implementation significantly differs society depending culture degree potential evolutionary roadmap driver assistance discussed emerging based proprioceptive sensor ab esc review progress incented exteroceptive sensor radar video lidar ultimate goal automated cooperative traffic remains vision future intermediate step aim realized mitigate avoid collision selected driving situation research extends stateoftheart automated driving urban traffic cooperative driving addressing communication collaboration different vehicle cooperative vehicle operation driver machine intelligence step considered important interim period reliable unsupervised automated driving conceivable traffic situation available prospective evolution driver assistance stimulated technological societal market trend paper close view current research field</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5985,29 +5985,29 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>x1: 0.100|x2: 0.230|x3: 0.149|x4: 0.119|x5: 0.056|x6: 0.000|x7: 0.000|x8: 0.096|x9: 0.164|x10: 0.071|x11: 0.272|x12: 0.277|x13: 0.243|x14: 0.270|x15: 0.172|x16: 0.146|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.163|x8: 0.108|x9: 0.136|x10: 0.119|x11: 0.000|x12: 0.068|x13: 0.045|x14: 0.106|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.28]</t>
+          <t>[0.00, 0.04, 0.16]</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>[12, 11, 14, 13, 2, 15, 9, 3, 16, 4]</t>
+          <t>[7, 9, 10, 8, 14]</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.2770771025613805, 0.2721685003725155, 0.27036273904256797, 0.24273661689999745, 0.2300725014915482, 0.17183584608008773, 0.1642804271948107, 0.14944630230789344, 0.14639425624357688, 0.11897446154911329]</t>
+          <t>[0.162957506147837, 0.13619529993783355, 0.11853435271629519, 0.10820317022310534, 0.1058748488205964]</t>
         </is>
       </c>
       <c r="H136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>discussion woman access digital information communication technology developing country inconclusive claim woman technophobic better user digital tool argue woman embrace digital communication article question empirical test analyze latin american african country believed extensive empirical study field result surprisingly consistent revealing reason fewer woman access direct result unfavorable condition respect employment education income controlling variable woman turn active user digital tool turn alleged digital gender divide opportunity given woman affinity given digital technology tool improve living condition represent concrete tangible opportunity tackle longstanding challenge gender inequality developing country including access employment income education health service</t>
+          <t>discussion woman access digital information communication technology ict developing country ha inconclusive far claim woman technophobic men better user digital tool argue woman embrace digital communication article question empirical test analyze set latin american african country believed extensive empirical study field far result surprisingly consistent revealing reason fewer woman access ict direct result unfavorable condition respect employment education income controlling variable woman turn active user digital tool men turn alleged digital gender divide opportunity given woman affinity ict given digital technology tool improve living condition ict represent concrete tangible opportunity tackle longstanding challenge gender inequality developing country including access employment income education health service</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -6026,22 +6026,22 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>x1: 0.128|x2: 0.303|x3: 0.115|x4: 0.381|x5: 0.263|x6: 0.290|x7: 0.288|x8: 0.201|x9: 0.212|x10: 0.000|x11: 0.000|x12: 0.246|x13: 0.000|x14: 0.057|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.058|x3: 0.000|x4: 0.226|x5: 0.182|x6: 0.059|x7: 0.354|x8: 0.088|x9: 0.145|x10: 0.164|x11: 0.133|x12: 0.000|x13: 0.056|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.38]</t>
+          <t>[0.00, 0.09, 0.35]</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>[4, 2, 6, 7, 5, 12, 9, 8, 1, 3]</t>
+          <t>[7, 4, 5, 10, 9, 11]</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.3812776271896622, 0.3033308627206345, 0.2895972379051762, 0.288328851149362, 0.2629220446815573, 0.2464486364455287, 0.21205405847383169, 0.20109957743697854, 0.1284836848599138, 0.11520769814955223]</t>
+          <t>[0.353575635750656, 0.2258912328491566, 0.18185870775800506, 0.163610627180608, 0.1449817129966442, 0.13340087441491572]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>intelligent tutoring program model learner psychological state provide individualized instruction developed diverse subject area algebra medicine reading help learner acquire domainspecific cognitive metacognitive knowledge metaanalysis conducted research compared outcome student learning learning nonits learning environment metaanalysis examined effect size varied type type comparison treatment received learner type learning outcome knowledge learned procedural declarative factor search major bibliographic database effect size involving participant extracted analyzed associated greater achievement comparison teacherled largegroup instruction nonits computerbased instruction textbook workbook significant difference learning learning individualized human tutoring smallgroup instruction significant positive mean effect size regardless principal mean instruction supplement teacherled instruction integral component teacherled instruction homework significant positive effect size level education subject domain evaluated provided feedback modeled student misconception claim relatively effective tool learning consistent analysis potential publication bias</t>
+          <t>intelligent tutoring program model learner psychological state provide individualized instruction developed diverse subject area algebra medicine law reading help learner acquire domainspecific cognitive metacognitive knowledge metaanalysis wa conducted research compared outcome student learning learning nonits learning environment metaanalysis examined effect size varied type type comparison treatment received learner type learning outcome knowledge learned wa procedural declarative factor search major bibliographic database effect size involving participant extracted analyzed wa associated greater achievement comparison teacherled largegroup instruction nonits computerbased instruction textbook workbook wa significant difference learning learning individualized human tutoring smallgroup instruction significant positive mean effect size regardless wa principal mean instruction supplement teacherled instruction integral component teacherled instruction aid homework significant positive effect size level education subject domain evaluated provided feedback modeled student misconception claim relatively effective tool learning consistent analysis potential publication bias</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -6067,22 +6067,22 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>x1: 0.126|x2: 0.144|x3: 0.066|x4: 0.388|x5: 0.227|x6: 0.000|x7: 0.179|x8: 0.152|x9: 0.056|x10: 0.086|x11: 0.108|x12: 0.154|x13: 0.089|x14: 0.089|x15: 0.000|x16: 0.177|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.359|x5: 0.118|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.152|x12: 0.084|x13: 0.052|x14: 0.049|x15: 0.071|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.39]</t>
+          <t>[0.00, 0.05, 0.36]</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>[4, 5, 7, 16, 12, 8, 2, 1, 11]</t>
+          <t>[4, 11, 5]</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.38794543846174734, 0.22697519925102616, 0.17921369285852826, 0.17682524515096631, 0.15354201918187027, 0.15220318863723473, 0.14371208949663689, 0.1264448501955329, 0.10774879418178494]</t>
+          <t>[0.3588885332724764, 0.15174128873473544, 0.11830382702379921]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6098,7 +6098,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>long research tradition focused information communication technology development explore role artificial intelligence start technical review characteristic trait deep learning technology lead natural metaphor international development based empirical evidence study derive characteristic align technological trait isolation present plethora opportunity contribute international development especially attainment sustainable development goal sdgs combination create clear tension looming threat hegemonic intelligence indoctrination pushed global economy scale potential promise honor celebrate local diversity help flexible design conclude achieved active public policy dialogue international level effort national level especially developing country study provides terminology concept identify frame arising discussion</t>
+          <t>long research tradition focused information communication technology development ictd explore role artificial intelligence aid start technical review characteristic trait deep learning technology lead natural metaphor international development based empirical evidence study derive characteristic aid align technological trait isolation present plethora opportunity contribute international development especially attainment sustainable development goal sdgs combination create clear tension looming threat hegemonic intelligence indoctrination pushed global economy scale potential promise honor celebrate local diversity help flexible design conclude achieved active public policy dialogue international level effort national level especially developing country study provides terminology concept identify frame arising discussion</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -6108,29 +6108,29 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>x1: 0.204|x2: 0.278|x3: 0.000|x4: 0.441|x5: 0.244|x6: 0.000|x7: 0.195|x8: 0.252|x9: 0.323|x10: 0.095|x11: 0.000|x12: 0.197|x13: 0.261|x14: 0.337|x15: 0.210|x16: 0.195|x17: 0.000</t>
+          <t>x1: 0.039|x2: 0.036|x3: 0.000|x4: 0.179|x5: 0.031|x6: 0.000|x7: 0.137|x8: 0.000|x9: 0.065|x10: 0.051|x11: 0.073|x12: 0.112|x13: 0.087|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.44]</t>
+          <t>[0.00, 0.05, 0.18]</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>[4, 14, 9, 2, 13, 8, 5, 15, 1, 12, 7, 16]</t>
+          <t>[4, 7, 12]</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.44121482601629936, 0.3374352954546621, 0.32286022144786175, 0.27828734344407163, 0.261093169228352, 0.25203331799898276, 0.24422729293593556, 0.20950511484028753, 0.2038439285287451, 0.19670819904307668, 0.19509973489119692, 0.19480269015267293]</t>
+          <t>[0.17945761593995063, 0.13659972767219516, 0.11202030238558841]</t>
         </is>
       </c>
       <c r="H139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
@@ -6139,7 +6139,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>protecting world freshwater resource requires diagnosing threat broad range scale fromglobal local present worldwide synthesis jointly consider human biodiversity perspective water security spatial framework quantifies multiple stressor account downstream impact nearly world population exposed level threat water security massive investment water technology enables rich offset stressor level remedying underlying cause wealthy remain vulnerable similar lack precautionary investment jeopardizes biodiversity habitat associated continental discharge classified moderately highly threatened cumulative threat framework offer tool prioritizing policy management response crisis underscore necessity limiting threat source instead costly remediation symptom order assure global water security human freshwater biodiversity</t>
+          <t>protecting world freshwater resource requires diagnosing threat broad range scale fromglobal local present worldwide synthesis jointly consider human biodiversity perspective water security spatial framework quantifies multiple stressor account downstream impact nearly world population exposed level threat water security massive investment water technology enables rich offset stressor level remedying underlying cause le wealthy remain vulnerable similar lack precautionary investment jeopardizes biodiversity habitat associated continental discharge classified moderately highly threatened cumulative threat framework offer tool prioritizing policy management response crisis underscore necessity limiting threat source instead costly remediation symptom order assure global water security human freshwater biodiversity</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -6149,22 +6149,22 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.110|x2: 0.275|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.158|x7: 0.145|x8: 0.090|x9: 0.104|x10: 0.000|x11: 0.104|x12: 0.192|x13: 0.282|x14: 0.260|x15: 0.344|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.051|x2: 0.225|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.134|x7: 0.129|x8: 0.060|x9: 0.096|x10: 0.000|x11: 0.144|x12: 0.096|x13: 0.216|x14: 0.094|x15: 0.216|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.34]</t>
+          <t>[0.00, 0.09, 0.22]</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>[15, 13, 2, 14, 12, 6, 7, 1, 11, 9]</t>
+          <t>[2, 15, 13, 11, 6, 7]</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.34418781645250474, 0.28221189309856287, 0.2747675175287813, 0.2595530858045844, 0.19189286878807718, 0.15787386079006907, 0.1451667382325382, 0.10961137133032911, 0.10446427483625359, 0.10422055206380473]</t>
+          <t>[0.22472918149444657, 0.21603209935446271, 0.21598744017379093, 0.14376464467047684, 0.1336680073570068, 0.12931629447067294]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6180,7 +6180,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>storytelling negative connotation science narrative format communication disregarded communicating science nonexpert audience narrative offer comprehension engagement nonexperts science information mass content biased narrative format narrative intrinsically persuasive offer science communicator tactic persuading resistant audience raise ethical consideration future intersection narrative research ongoing discussion science communication introduced</t>
+          <t>storytelling ha negative connotation science narrative format communication disregarded communicating science nonexpert audience narrative offer comprehension engagement nonexperts science information mass content biased narrative format narrative intrinsically persuasive offer science communicator tactic persuading resistant audience raise ethical consideration future intersection narrative research ongoing discussion science communication introduced</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -6190,22 +6190,22 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.218|x2: 0.275|x3: 0.232|x4: 0.000|x5: 0.339|x6: 0.000|x7: 0.263|x8: 0.244|x9: 0.355|x10: 0.080|x11: 0.182|x12: 0.135|x13: 0.392|x14: 0.477|x15: 0.330|x16: 0.163|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.144|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.229|x8: 0.000|x9: 0.206|x10: 0.220|x11: 0.101|x12: 0.054|x13: 0.250|x14: 0.152|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>[0.00, 0.22, 0.48]</t>
+          <t>[0.00, 0.08, 0.25]</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>[14, 13, 9, 5, 15, 2, 7, 8, 3, 1, 11, 16, 12]</t>
+          <t>[13, 7, 10, 9, 14, 3, 11]</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.4768536717759604, 0.39166315690193493, 0.3548917319568194, 0.3386801542375622, 0.3304844093420754, 0.2750269270171384, 0.26291559602757997, 0.2436620291238957, 0.23232798971971239, 0.21838618343643038, 0.18227301761546855, 0.16282331166091316, 0.1352536941566342]</t>
+          <t>[0.2503322165634456, 0.22894957716851178, 0.22045960663333247, 0.20571721034648005, 0.1522144253921503, 0.14439714694241232, 0.10063759989934007]</t>
         </is>
       </c>
       <c r="H141" t="b">
@@ -6231,29 +6231,29 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.136|x2: 0.000|x3: 0.000|x4: 0.578|x5: 0.265|x6: 0.000|x7: 0.348|x8: 0.188|x9: 0.355|x10: 0.085|x11: 0.000|x12: 0.000|x13: 0.181|x14: 0.179|x15: 0.072|x16: 0.173|x17: 0.000</t>
+          <t>x1: 0.164|x2: 0.000|x3: 0.000|x4: 0.284|x5: 0.113|x6: 0.000|x7: 0.048|x8: 0.062|x9: 0.071|x10: 0.211|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.102|x17: 0.000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.58]</t>
+          <t>[0.00, 0.06, 0.28]</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>[4, 9, 7, 5, 8, 13, 14, 16, 1]</t>
+          <t>[4, 10, 1, 5, 16]</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.5775610593677779, 0.35544882790169224, 0.3478049978297321, 0.26514625695679517, 0.18792923696651948, 0.18109150683534536, 0.17890363505377246, 0.17345790636338812, 0.13585250830410964]</t>
+          <t>[0.2842672490625956, 0.21140632871524365, 0.16414182480384487, 0.1128424817981771, 0.10234030838868788]</t>
         </is>
       </c>
       <c r="H142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
@@ -6262,7 +6262,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>today standard tablet device posse equivalent processing power desktop nasa space shuttle programme storing cost today cost approximately human genome sequenced took decade cost today genome sequenced hour thousand dollar appeared apple founder steve enabled outside developer create application iphone today decade later economy worth trillion revenue global pharmaceutical market whatsapp created sends message news celebrity gossip quality travel fast globally forum termed period accelerating innovation science technology transformative change technology capability combined merging digital physical biological realm impact society fourth industrial revolution transforming social network scientific research radically reshaping agenda industry government international community fourth industrial revolution reshaping healthcare mobility education worldwide reshape environmental community related institution work scientist tell facing urgent global environmental challenge despite international environmental agreement established environmental professional aware complacent policybased institutional approach worked necessary longer appear sufficient manage growing environmental challenge goal target sound ability deliver environmental outcome required need augmented result increasing great potential exploring science technology innovation driving fourth industrial revolution applied improving environmental natural resource management arrangement includes technology innovation able imagine technology starting transform look health surely harnessed help transform look environment example wearable tech measuring heart rate quality breathe growing realization rapid advance science technology unintended negative consequence nature need recognized avoided technology come need improved agile governance fourth industrial revolution fully sustainable industrial revolution effective enabling environment approach help government create smart safeguard protocol policy effective oversight recourse mechanism need place avoid unintended consequence ensure society nature benefit revolution example wearable sensor measure quality breathe control access collected government civil society industry important role play help answer question develop principle usage guideline mean bringing stakeholder codevelop science technology development needed need help better understand manage nature environment avoid creating negative unforeseen outcome focus developing policy principle alongside interact acceleration programme promote innovation wider deployment science technology environmental management heart challenge practical term environmental sector helped harness science technology revolution reshaping wider economy society current arrangement enhanced better manage environmental sustain planet earth given increasing pressure nature face human activity time policy principle protocol developed environmental sector risk technology individual society environment minimized opportunity maximized</t>
+          <t>today standard tablet device posse equivalent processing power desktop mids nasa space shuttle programme storing cost today cost approximately human genome wa sequenced took decade cost today genome sequenced hour le thousand dollar app appeared apple founder steve job enabled outside developer create application iphone today decade later app economy worth trillion revenue global pharmaceutical market whatsapp wa created sends message news celebrity gossip bad air quality travel fast globally forum ha termed period accelerating innovation science technology transformative change technology capability combined merging digital physical biological realm impact society fourth industrial revolution transforming social network scientific research radically reshaping agenda industry government international community way fourth industrial revolution reshaping healthcare mobility education worldwide reshape environmental community related institution work scientist tell facing urgent global environmental challenge despite international environmental agreement established environmental professional aware complacent policybased institutional approach worked ago necessary longer appear sufficient manage growing environmental challenge goal target sound ability deliver environmental outcome required need augmented result increasing great potential exploring science technology innovation driving fourth industrial revolution applied improving environmental natural resource management arrangement includes technology innovation able imagine technology starting transform look health surely harnessed help transform look environment example wearable tech measuring heart rate quality air breathe growing realization rapid advance science technology unintended negative consequence nature need recognized avoided new technology come need improved agile governance fourth industrial revolution fully sustainable industrial revolution effective enabling environment approach help government create smart safeguard protocol policy effective oversight recourse mechanism need place avoid unintended consequence ensure society nature benefit revolution example wearable sensor measure quality air breathe control access wa collected government civil society industry important role play help answer question develop principle usage guideline mean bringing stakeholder codevelop way science technology development needed need help better understand manage nature environment avoid creating negative unforeseen outcome focus developing policy principle run alongside interact acceleration programme promote innovation wider deployment science technology environmental management heart challenge practical term environmental sector helped harness science technology revolution reshaping wider economy society current arrangement enhanced better manage environmental sustain planet earth given increasing pressure nature face human activity time policy principle protocol developed environmental sector risk new technology individual society environment minimized opportunity maximized</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -6272,22 +6272,22 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.118|x3: 0.000|x4: 0.232|x5: 0.105|x6: 0.000|x7: 0.226|x8: 0.100|x9: 0.204|x10: 0.067|x11: 0.194|x12: 0.055|x13: 0.236|x14: 0.346|x15: 0.204|x16: 0.136|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.186|x5: 0.000|x6: 0.060|x7: 0.181|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.108|x13: 0.094|x14: 0.164|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.35]</t>
+          <t>[0.00, 0.05, 0.19]</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>[14, 13, 4, 7, 9, 15, 11, 16, 2, 5, 8]</t>
+          <t>[4, 7, 14, 12]</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.3461956687171484, 0.23623215850931484, 0.2316779402360161, 0.22584456792931445, 0.2039491226577389, 0.20385417896516306, 0.19359926170837968, 0.13621782873521504, 0.11760709660231317, 0.10513790878486794, 0.10046250247845846]</t>
+          <t>[0.1862791489569407, 0.1809948487100462, 0.16449238227597765, 0.10786453691905819]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6303,7 +6303,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>robot technology task previously performed labor increasing concern future wage analyze effect increase industrial robot usage local labor market model robot compete human labor production different task robot reduce employment wage local labor market effect robot estimated regressing change employment wage exposure robot local labor marketdefined national penetration robot industry local distribution employment industry approach estimate large robust negative effect robot employment wage commuting zone bolster evidence showing commuting zone exposed robot post exhibit differential trend impact robot distinct impact import china mexico decline routine offshoring type capital capital stock fact exposure robot weakly correlated variable according estimate robot thousand worker reduces employment population ratio percentage point wage percent</t>
+          <t>robot technology task previously performed labor increasing concern future job wage analyze effect increase industrial robot usage local labor market model robot compete human labor production different task robot reduce employment wage local labor market effect robot estimated regressing change employment wage exposure robot local labor marketdefined national penetration robot industry local distribution employment industry approach estimate large robust negative effect robot employment wage commuting zone bolster evidence showing commuting zone exposed robot post era exhibit differential trend impact robot distinct impact import china mexico decline routine job offshoring type capital capital stock fact exposure robot weakly correlated variable according estimate robot thousand worker reduces employment population ratio percentage point wage percent</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -6313,22 +6313,22 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>x1: 0.095|x2: 0.114|x3: 0.000|x4: 0.197|x5: 0.223|x6: 0.000|x7: 0.074|x8: 0.108|x9: 0.169|x10: 0.086|x11: 0.147|x12: 0.000|x13: 0.173|x14: 0.375|x15: 0.128|x16: 0.176|x17: 0.000</t>
+          <t>x1: 0.121|x2: 0.140|x3: 0.085|x4: 0.156|x5: 0.165|x6: 0.000|x7: 0.064|x8: 0.210|x9: 0.141|x10: 0.291|x11: 0.000|x12: 0.116|x13: 0.048|x14: 0.214|x15: 0.000|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>[0.00, 0.12, 0.37]</t>
+          <t>[0.00, 0.11, 0.29]</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>[14, 5, 4, 16, 13, 9, 11, 15, 2, 8]</t>
+          <t>[10, 14, 8, 5, 4, 9, 2, 1, 12]</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.37455298444587015, 0.22305883810465618, 0.19738838679913906, 0.1760976111763638, 0.17310891104487128, 0.16876888188056044, 0.14731853118263263, 0.12835560366119347, 0.11439168616584071, 0.1075806542053613]</t>
+          <t>[0.2913389517617367, 0.2143542332454562, 0.2098324630111644, 0.16517960102665694, 0.15558877521032044, 0.14141738674334242, 0.14035593439714283, 0.12056520116717352, 0.11642895026337356]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>time finally come artificial intelligence period hype followed winter past today announcement technical breakthrough enabling superhuman performance machine follow rapid succession power realworld application ranging facial recognition language translator assistant like siri alexa barely notice consumer application company sector increasingly harnessing power operation embracing promise considerable benefit business economy contribution productivity growth innovation adopter starting reap benefit adoption relatively early stage uneven readiness varies widely company sector country time impact work profound occupation demand skill decline grow change work alongside everevolving increasingly capable machine scenario developed suggest created lost automation transition disruptive occupation skill requirement shift significantly potential contribute tackling pressing societal challenge healthcare climate change humanitarian crisis introduce exacerbate social challenge misuse challenge related bias privacy cybersecurity given economic benefit policy maker business leader embrace place measure facilitate adoption soften disruptive transition accompany place focus responsible briefing note draw ongoing research mckinsey global institute technology limitation impact concludes issue policy maker business leader need address list main source note suggestion reading appear</t>
+          <t>time finally come artificial intelligence period hype followed winter past today announcement technical breakthrough enabling superhuman performance machine follow rapid succession power realworld application ranging facial recognition language translator assistant like siri alexa barely notice consumer application company sector increasingly harnessing ai power operation embracing promise considerable benefit business economy contribution productivity growth innovation adopter starting reap benefit adoption relatively early stage uneven readiness varies widely company sector country time ai impact work profound occupation demand skill decline grow change work alongside everevolving increasingly capable machine scenario developed suggest job created lost automation transition disruptive occupation skill requirement shift significantly ha potential contribute tackling pressing societal challenge healthcare climate change humanitarian crisis introduce exacerbate social challenge misuse challenge related bias privacy cybersecurity given economic benefit policy maker business leader embrace place measure facilitate adoption soften disruptive transition accompany place new focus responsible briefing note draw ongoing research mckinsey global institute technology limitation impact concludes set issue policy maker business leader need address list main source note suggestion reading appear end</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -6354,22 +6354,22 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.204|x2: 0.160|x3: 0.125|x4: 0.252|x5: 0.287|x6: 0.000|x7: 0.275|x8: 0.238|x9: 0.247|x10: 0.090|x11: 0.000|x12: 0.262|x13: 0.272|x14: 0.269|x15: 0.105|x16: 0.184|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.059|x3: 0.000|x4: 0.279|x5: 0.136|x6: 0.000|x7: 0.214|x8: 0.121|x9: 0.137|x10: 0.166|x11: 0.199|x12: 0.121|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.110|x17: 0.000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.29]</t>
+          <t>[0.00, 0.10, 0.28]</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>[5, 7, 13, 14, 12, 4, 9, 8, 1, 16, 2, 3, 15]</t>
+          <t>[4, 7, 11, 10, 9, 5, 8, 12, 16]</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.28659787351294547, 0.27549799903790667, 0.2723192980456219, 0.26885846205272873, 0.26228573877758843, 0.2516729915012013, 0.24658513367998275, 0.23761130722110002, 0.20397280541758225, 0.184074855030251, 0.16037801146606048, 0.12531389553286015, 0.10459743183941181]</t>
+          <t>[0.2791362438125915, 0.21401686483601715, 0.1987658323649456, 0.16569847249837955, 0.13685219961823172, 0.13649321265668093, 0.12137778332792723, 0.12064372454060487, 0.10963418237119242]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>recent revival concern automation digitalisation result jobless future debate fuelled study europe arguing substantial risk computerisation study follow occupationbased approach proposed frey osborne assume occupation single jobtasks automated technology argue lead overestimation automatibility occupation labelled highrisk occupation contain substantial task hard automate paper serf purpose firstly estimate automatibility oecd country based taskbased approach contrast study account heterogeneity worker task occupation overall oecd country automatable threat technological advance pronounced compared occupationbased approach heterogeneity oecd country instance automatable korea corresponding austria difference country reflect general difference workplace organisation difference previous investment automation technology difference education worker country second purpose paper critically reflect recent study generate figure risk computerisation provide comprehensive discussion possible adjustment process firm worker automation digitalisation particular argue estimated risk equated actual expected employment loss technological advance reason utilisation technology slow process economic legal societal hurdle technological substitution place expected second technology introduced worker adjust changing technological endowment switching task preventing technological unemployment technological change generates additional demand technology higher competitiveness main conclusion paper automation digitalisation unlikely destroy large number qualified worker bear brunt adjustment cost automatibility higher compared highly qualified worker challenge future coping rising inequality ensuring sufficient retraining especially qualified worker</t>
+          <t>recent ha revival concern automation digitalisation result jobless future debate ha fuelled study europe arguing substantial job risk computerisation study follow occupationbased approach proposed frey osborne assume occupation single jobtasks automated technology argue lead overestimation job automatibility occupation labelled highrisk occupation contain substantial task hard automate paper serf purpose firstly estimate job automatibility job oecd country based taskbased approach contrast study account heterogeneity worker task occupation overall oecd country job automatable threat technological advance le pronounced compared occupationbased approach heterogeneity oecd country instance automatable job korea corresponding austria difference country reflect general difference workplace organisation difference previous investment automation technology difference education worker country second purpose paper critically reflect recent study generate figure risk computerisation provide comprehensive discussion possible adjustment process firm worker automation digitalisation particular argue estimated job risk equated actual expected employment loss technological advance reason utilisation new technology slow process economic legal societal hurdle technological substitution doe place expected second new technology introduced worker adjust changing technological endowment switching task preventing technological unemployment technological change generates additional job demand new technology higher competitiveness main conclusion paper automation digitalisation unlikely destroy large number job low qualified worker bear brunt adjustment cost automatibility job higher compared highly qualified worker challenge future lie coping rising inequality ensuring sufficient retraining especially low qualified worker</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -6395,22 +6395,22 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>x1: 0.180|x2: 0.135|x3: 0.133|x4: 0.329|x5: 0.100|x6: 0.000|x7: 0.178|x8: 0.244|x9: 0.205|x10: 0.000|x11: 0.109|x12: 0.100|x13: 0.096|x14: 0.000|x15: 0.000|x16: 0.062|x17: 0.000</t>
+          <t>x1: 0.116|x2: 0.000|x3: 0.074|x4: 0.193|x5: 0.000|x6: 0.000|x7: 0.106|x8: 0.290|x9: 0.219|x10: 0.000|x11: 0.000|x12: 0.151|x13: 0.000|x14: 0.051|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.33]</t>
+          <t>[0.00, 0.07, 0.29]</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>[4, 8, 9, 1, 7, 2, 3, 11, 5, 12]</t>
+          <t>[8, 9, 4, 12, 1, 7]</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.32887455195774273, 0.24388492590576025, 0.20516902160961514, 0.1801816209680651, 0.17781037287051743, 0.13464017371325063, 0.13311174806195983, 0.10877956522700002, 0.10045054502334033, 0.10011272663198108]</t>
+          <t>[0.29011048306551196, 0.21883354090642043, 0.19271750547890365, 0.15141057360273114, 0.11611271352833469, 0.10565206178217078]</t>
         </is>
       </c>
       <c r="H146" t="b">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>cellular network assumed enabler infrastructure provider industry offering variety service diverse requirement standardization cellular network expedited implies candidate technology adopted worthwhile provide insight candidate technique examine design philosophy article highlight fundamental feature revolutionary technique emerges initial intelligence nearly important aspect cellular network including radio resource management mobility management service provisioning management faced complicated configuration issue blossoming service requirement insufficient cellular network lack complete functionality introduce fundamental concept discus relationship candidate technique cellular network specifically highlight opportunity challenge exploit achieve intelligent network demonstrate effectiveness manage orchestrate cellular network resource envision aiempowered cellular network acclaimed enabler reality</t>
+          <t>cellular network assumed enabler infrastructure provider ict industry offering variety service diverse requirement standardization cellular network expedited implies candidate technology adopted worthwhile provide insight candidate technique examine design philosophy article try highlight fundamental feature revolutionary technique era emerges initial intelligence nearly important aspect cellular network including radio resource management mobility management service provisioning management faced complicated configuration issue blossoming new service requirement insufficient cellular network lack complete functionality introduce fundamental concept discus relationship candidate technique cellular network specifically highlight opportunity challenge exploit achieve intelligent network demonstrate effectiveness manage orchestrate cellular network resource envision aiempowered cellular network acclaimed ict enabler reality</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6436,22 +6436,22 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.207|x3: 0.000|x4: 0.287|x5: 0.117|x6: 0.092|x7: 0.103|x8: 0.000|x9: 0.422|x10: 0.078|x11: 0.000|x12: 0.164|x13: 0.236|x14: 0.087|x15: 0.251|x16: 0.159|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.149|x5: 0.000|x6: 0.000|x7: 0.087|x8: 0.000|x9: 0.255|x10: 0.000|x11: 0.000|x12: 0.087|x13: 0.000|x14: 0.107|x15: 0.096|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.42]</t>
+          <t>[0.00, 0.05, 0.25]</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>[9, 4, 15, 13, 2, 12, 16, 5, 7]</t>
+          <t>[9, 4, 14]</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.4222325748554656, 0.28698461213361176, 0.2506513626050326, 0.2356051854619404, 0.20660834688899582, 0.16396555581350794, 0.15907340444703855, 0.11731733036286073, 0.1031546453829259]</t>
+          <t>[0.25457688839839265, 0.14924491867681247, 0.10702420079210173]</t>
         </is>
       </c>
       <c r="H147" t="b">
@@ -6467,7 +6467,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>agenda enthusiastic great potential accelerating human progress brought information communication technology global time acknowledges dark innovation challenge cybersecurity threat risk privacy unleashed artificial intelligence military related cyber operation cyberattacks climate change increasing inequality power concentration challenge solved country acting isolation urgently require strengthened multilateralism time major technological shift necessary implement global transition required agenda resilient economic social development model technology exists strategy needed generalize global level</t>
+          <t>agenda enthusiastic great potential accelerating human progress brought information communication technology global time acknowledges dark innovation new challenge cybersecurity threat risk job privacy unleashed artificial intelligence military related cyber operation cyberattacks climate change increasing inequality power concentration challenge solved country acting isolation urgently require strengthened multilateralism time major technological shift necessary implement global transition required agenda le resilient economic social development model technology exists new strategy needed generalize global level</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6477,26 +6477,26 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.137|x2: 0.053|x3: 0.000|x4: 0.141|x5: 0.000|x6: 0.179|x7: 0.488|x8: 0.140|x9: 0.552|x10: 0.000|x11: 0.296|x12: 0.235|x13: 0.503|x14: 0.214|x15: 0.276|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.204|x10: 0.112|x11: 0.060|x12: 0.000|x13: 0.132|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.55]</t>
+          <t>[0.00, 0.05, 0.20]</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>[9, 13, 7, 11, 15, 12, 14, 6, 4, 8, 1]</t>
+          <t>[9, 13, 10]</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.5517776112101447, 0.5030516884939702, 0.4882708076880032, 0.2955518045139128, 0.27644265831884735, 0.2349476799617367, 0.21350220545795645, 0.17924417821119354, 0.1405321073704393, 0.14006373517308918, 0.13702628096407987]</t>
+          <t>[0.2043484112653574, 0.13231828796588727, 0.11171816733031173]</t>
         </is>
       </c>
       <c r="H148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="b">
         <v>1</v>
@@ -6508,7 +6508,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>advocate algorithmic technique like mining argue technique eliminate human bias decisionmaking process algorithm good work frequently imperfect allow algorithm inherit prejudice prior decision maker simply reflect widespread bias persist society large mining discover surprisingly useful regularity preexisting pattern exclusion inequality unthinking reliance mining deny historically disadvantaged vulnerable group participation society worse resulting discrimination unintentional emergent property algorithm conscious choice programmer unusually hard identify source problem explain court</t>
+          <t>advocate algorithmic technique like mining argue technique eliminate human bias decisionmaking process algorithm good work frequently imperfect way allow algorithm inherit prejudice prior decision maker simply reflect widespread bias persist society large mining discover surprisingly useful regularity preexisting pattern exclusion inequality unthinking reliance mining deny historically disadvantaged vulnerable group participation society worse resulting discrimination unintentional emergent property algorithm conscious choice programmer unusually hard identify source problem explain court</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6518,22 +6518,22 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.086|x2: 0.172|x3: 0.275|x4: 0.468|x5: 0.456|x6: 0.000|x7: 0.058|x8: 0.054|x9: 0.051|x10: 0.185|x11: 0.216|x12: 0.214|x13: 0.266|x14: 0.191|x15: 0.065|x16: 0.380|x17: 0.000</t>
+          <t>x1: 0.252|x2: 0.203|x3: 0.127|x4: 0.164|x5: 0.095|x6: 0.000|x7: 0.000|x8: 0.151|x9: 0.000|x10: 0.217|x11: 0.196|x12: 0.222|x13: 0.000|x14: 0.136|x15: 0.000|x16: 0.315|x17: 0.000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.47]</t>
+          <t>[0.00, 0.12, 0.31]</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>[4, 5, 16, 3, 13, 11, 12, 14, 10, 2]</t>
+          <t>[16, 1, 12, 10, 2, 11, 4, 8, 14, 3]</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.46829422221855016, 0.45612952164768183, 0.3795548770650786, 0.27547162237398104, 0.26636178071086103, 0.2163233661861834, 0.21383262722229462, 0.19058227249610193, 0.18535279319660272, 0.17227374523618214]</t>
+          <t>[0.3148318185804346, 0.25176920952863185, 0.22167295968310044, 0.216891705674165, 0.2033982429436641, 0.1958652481455854, 0.16364928350018818, 0.1514104937649274, 0.13590594920872948, 0.12655541463026745]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>globalization created opportunity difficult problem community psychologist economic change created different area world promoted emergence sharing economy fostered huge disparity country political change polarization growth nationalist populist amplify divisiveness transformation notion citizenship identity technological change brought artificial intelligence revolution open opportunity danger prospect diffusion social network able promoting political participation increasing political polarization finally community psychologist pursue help develop opportunity reduce problem emerge change discussed</t>
+          <t>globalization created new opportunity difficult problem community psychologist economic change created new job different area world promoted emergence sharing economy fostered huge disparity country political change polarization growth nationalist populist amplify divisiveness transformation notion citizenship identity technological change brought artificial intelligence revolution open opportunity danger job prospect diffusion social network able promoting political participation increasing political polarization finally aim community psychologist pursue help develop opportunity reduce problem emerge change discussed</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6559,22 +6559,22 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>x1: 0.150|x2: 0.270|x3: 0.204|x4: 0.325|x5: 0.182|x6: 0.000|x7: 0.000|x8: 0.146|x9: 0.100|x10: 0.073|x11: 0.111|x12: 0.204|x13: 0.268|x14: 0.202|x15: 0.098|x16: 0.150|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.160|x5: 0.107|x6: 0.035|x7: 0.102|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.040|x12: 0.066|x13: 0.141|x14: 0.093|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.32]</t>
+          <t>[0.00, 0.04, 0.16]</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>[4, 2, 13, 3, 12, 14, 5, 1, 16, 8, 11]</t>
+          <t>[4, 13, 5, 7]</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.32457833391302054, 0.27010424266758815, 0.26807024397957935, 0.204492907731713, 0.20390342688216237, 0.20195447079772874, 0.182012716558209, 0.1502322307058853, 0.14967142902761682, 0.14558692361412479, 0.11094919400257036]</t>
+          <t>[0.15982391725286424, 0.14070641675140846, 0.10709909247672601, 0.10211348513312167]</t>
         </is>
       </c>
       <c r="H150" t="b">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>advance artificial intelligence robotics leading industrial revolution paper present model necessary feature analyze implication inequality output assumption robot capital distinct traditional capital degree human labor capitalist skilled worker save analyze range variant reflect widely different view automation transform labor market main result surprisingly robust automation good growth equality benchmark model wage fall short eventually rise eventually easily generation</t>
+          <t>advance artificial intelligence robotics leading new industrial revolution paper present model necessary feature analyze implication inequality output assumption robot capital distinct traditional capital degree human labor capitalist skilled worker save analyze range variant reflect widely different view automation transform labor market main result surprisingly robust automation good growth bad equality benchmark model wage fall short run eventually rise eventually easily generation</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6600,22 +6600,22 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>x1: 0.152|x2: 0.206|x3: 0.154|x4: 0.125|x5: 0.175|x6: 0.062|x7: 0.363|x8: 0.177|x9: 0.190|x10: 0.106|x11: 0.148|x12: 0.230|x13: 0.208|x14: 0.186|x15: 0.103|x16: 0.216|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.080|x3: 0.000|x4: 0.102|x5: 0.000|x6: 0.000|x7: 0.209|x8: 0.158|x9: 0.084|x10: 0.221|x11: 0.000|x12: 0.058|x13: 0.149|x14: 0.046|x15: 0.000|x16: 0.051|x17: 0.000</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.36]</t>
+          <t>[0.00, 0.07, 0.22]</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>[7, 12, 16, 13, 2, 9, 14, 8, 5, 3, 1, 11, 4, 10, 15]</t>
+          <t>[10, 7, 8, 13, 4]</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[0.36347880235505653, 0.2302127972241836, 0.21611686419624576, 0.20817030976985804, 0.20580719811260126, 0.18998398810995112, 0.1859215478068668, 0.17666310873196633, 0.17450963301218098, 0.15425521745409151, 0.15194633426094437, 0.1477217188596113, 0.12482382346142677, 0.10553905866106598, 0.10323962893553938]</t>
+          <t>[0.22066966408442232, 0.20874573811542294, 0.15791125667224507, 0.14856769606879783, 0.10180370397477624]</t>
         </is>
       </c>
       <c r="H151" t="b">
@@ -6631,7 +6631,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>study present application artificial intelligence development sustainable transport smart city india huge demand supply public transport urban city india rapid urbanization india realize importance developing smart city improve quality life captivate foreign investment build superior quality infrastructure india majority indian city facing problem congestion safety inadequate public transport facility inappropriate information inadequate parking space environmental pollution sustainable transport eliminate problem providing safer faster comfortable efficient environment friendly help development smart city implementation intelligent transport urgent need develop intelligent transport indian city play role development sustainable transport main requirement adopt artificial intelligence development smart city india main objective article present major application intelligent transport development sustainable transport smart city study implementation intelligent transport development sustainable transport smart city india</t>
+          <t>study present application artificial intelligence development sustainable transport smart city india huge gap demand supply public transport urban city india rapid urbanization india ha realize importance developing smart city improve quality life captivate foreign investment build superior quality infrastructure india majority indian city facing problem congestion safety inadequate public transport facility inappropriate information inadequate parking space environmental pollution sustainable transport eliminate problem providing safer faster comfortable efficient environment friendly help development smart city implementation intelligent transport urgent need develop intelligent transport indian city play role development sustainable transport main requirement adopt artificial intelligence development smart city india main objective article present major application intelligent transport development sustainable transport smart city study implementation intelligent transport development sustainable transport smart city india</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6641,29 +6641,29 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>x1: 0.100|x2: 0.000|x3: 0.000|x4: 0.162|x5: 0.000|x6: 0.240|x7: 0.270|x8: 0.000|x9: 0.177|x10: 0.000|x11: 0.643|x12: 0.352|x13: 0.472|x14: 0.222|x15: 0.186|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: -0.030|x8: 0.000|x9: -0.007|x10: 0.000|x11: -0.044|x12: -0.023|x13: -0.006|x14: -0.008|x15: -0.007|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.64]</t>
+          <t>[-0.04, -0.01, 0.00]</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>[11, 13, 12, 7, 6, 14, 15, 9, 4]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>[0.642684603257414, 0.4724461301592094, 0.35227084232408656, 0.2703479487153894, 0.2404679299728271, 0.22171487498263268, 0.18636438144918252, 0.1771424117841341, 0.16241341280296934]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
@@ -6672,7 +6672,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ecologist variety tool collecting analyzing relatively tool facilitate ecological reasoning time simulation model basic mean organizing ecological knowledge rapidly processed technology computerbased manipulation knowledge developed artificial intelligence area ecological science technology prove important include modelling simulation integration qualitative quantitative knowledge theoretical development natural resource management researcher manager basic applied ecology affected development aiderived technology added ecological toolkit</t>
+          <t>ecologist variety tool collecting analyzing relatively tool facilitate ecological reasoning time simulation model basic mean organizing ecological knowledge way rapidly processed technology computerbased manipulation knowledge developed artificial intelligence area ecological science technology prove important include modelling simulation integration qualitative quantitative knowledge theoretical development natural resource management researcher manager basic applied ecology affected development aiderived technology added ecological toolkit</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6682,22 +6682,22 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.307|x3: 0.000|x4: 0.306|x5: 0.203|x6: 0.227|x7: 0.321|x8: 0.092|x9: 0.273|x10: 0.000|x11: 0.000|x12: 0.071|x13: 0.109|x14: 0.364|x15: 0.000|x16: 0.042|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.060|x5: 0.043|x6: 0.000|x7: 0.154|x8: 0.000|x9: 0.078|x10: 0.000|x11: 0.036|x12: 0.038|x13: 0.063|x14: 0.168|x15: 0.072|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.36]</t>
+          <t>[0.00, 0.04, 0.17]</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>[14, 7, 2, 4, 9, 6, 5, 13]</t>
+          <t>[14, 7]</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.3638811116410754, 0.3211319257659956, 0.3067391123291072, 0.3061341299669655, 0.2726895267335492, 0.2268111720596364, 0.20275449569523835, 0.1087775689761749]</t>
+          <t>[0.16773596544611305, 0.1544959962691176]</t>
         </is>
       </c>
       <c r="H153" t="b">
@@ -6713,7 +6713,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>machine learning algorithm tremendously power recent fully utilized ecology sustainable resource management domain wildlife reserve design forest management invasive specie spread thing domain common contain dynamic characterized spatially spreading process requires parameter precisely model dynamic spread rate directional bias element spreading present related work artificial intelligence machine learning sustainability domain including forest wildfire prediction introduce novel approach learning domain reinforcement learning agent cell landscape action location point time includes spreading north south east west spreading approach inverts usual setup dynamic corresponding markov decision process known function immed iate wildfire spread learn agent policy predictive model dynamic complex spatial process reward provided correctly classifying cell compared satellite related examine behavior algorithm problem value iteration policy iteration qlearning monte carlo tree search asynchronous advantage actorcritic compare gaussian processbased supervised learning approach discus relation approach manually constructed stateoftheart method forest wildfire modeling validate approach satellite image massive wildfire event northern alberta canada fort mcmurray richardson result learn predictive agentbased policy model spatial dynamic readily available satellite image method additional advantage term</t>
+          <t>machine learning algorithm tremendously power recent fully utilized ecology sustainable resource management domain wildlife reserve design forest management invasive specie spread thing domain common contain dynamic characterized spatially spreading process ssp requires parameter set precisely model dynamic spread rate directional bias element spreading present related work artificial intelligence machine learning ssp sustainability domain including forest wildfire prediction introduce novel approach learning ssp domain reinforcement learning agent cell landscape set action location point time includes spreading north south east west spreading approach inverts usual setup dynamic corresponding markov decision process mdp known function immed iate wildfire spread learn agent policy predictive model dynamic complex spatial process reward provided correctly classifying cell compared satellite related examine behavior algorithm problem value iteration policy iteration qlearning monte carlo tree search asynchronous advantage actorcritic compare gaussian processbased supervised learning approach discus relation approach manually constructed stateoftheart method forest wildfire modeling validate approach satellite image massive wildfire event northern alberta canada fort mcmurray richardson result learn predictive agentbased policy model spatial dynamic readily available satellite image method additional advantage term</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6723,22 +6723,22 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.237|x2: 0.000|x3: 0.000|x4: 0.261|x5: 0.157|x6: 0.127|x7: 0.367|x8: 0.264|x9: 0.294|x10: 0.000|x11: 0.225|x12: 0.327|x13: 0.366|x14: 0.240|x15: 0.327|x16: 0.065|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.079|x5: 0.000|x6: 0.037|x7: 0.069|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.112|x12: 0.083|x13: 0.065|x14: 0.063|x15: 0.094|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>[0.00, 0.19, 0.37]</t>
+          <t>[0.00, 0.04, 0.11]</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>[7, 13, 15, 12, 9, 8, 4, 14, 1, 11, 5, 6]</t>
+          <t>[11]</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.36692272990000013, 0.36574551635906916, 0.3269872175341376, 0.32682572198471316, 0.2942431698612541, 0.2644815176912122, 0.2612125103682079, 0.2402189734675179, 0.2365614769338449, 0.22517633108738871, 0.15713285353243117, 0.12729343166361057]</t>
+          <t>[0.11243181088686523]</t>
         </is>
       </c>
       <c r="H154" t="b">
@@ -6754,7 +6754,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ability transform vast complex ambiguous information insight potential reveal longheld secret help solve world enduring problem like powerful technology great care taken development deployment reap societal benefit need trust sure follow ethical principle moral value professional code social norm human follow scenario research educational effort carefully designed regulation place achieve goal international business machine corporation actively engaged internally collaborator competitor global discussion ethical beneficial possible society</t>
+          <t>ability transform vast complex ambiguous information insight ha potential reveal longheld secret help solve world enduring problem like powerful technology great care taken development deployment reap societal benefit need trust sure follow ethical principle moral value professional code social norm human follow scenario research educational effort carefully designed regulation place achieve goal international business machine corporation ibm actively engaged internally collaborator competitor global discussion ethical beneficial possible society</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6764,22 +6764,22 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>x1: 0.221|x2: 0.231|x3: 0.000|x4: 0.145|x5: 0.183|x6: 0.000|x7: 0.345|x8: 0.231|x9: 0.136|x10: 0.079|x11: 0.068|x12: 0.315|x13: 0.320|x14: 0.250|x15: 0.218|x16: 0.162|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.102|x3: 0.000|x4: 0.103|x5: 0.000|x6: 0.000|x7: 0.350|x8: 0.232|x9: 0.101|x10: 0.000|x11: 0.146|x12: 0.182|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>[0.00, 0.17, 0.34]</t>
+          <t>[0.00, 0.07, 0.35]</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>[7, 13, 12, 14, 8, 2, 1, 15, 5, 16, 4, 9]</t>
+          <t>[7, 8, 12, 11, 4, 2, 9]</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[0.34458402159738216, 0.31955025870111703, 0.3152290976173132, 0.24956836488036155, 0.23114457694892757, 0.23064348263932316, 0.2210517862852132, 0.21807529094234188, 0.18316948671079022, 0.1618650302851519, 0.14490389632722994, 0.13605609950223954]</t>
+          <t>[0.35000514593468635, 0.2321375512280868, 0.1823243357783161, 0.14582210186378464, 0.10327719973614746, 0.10174420438819054, 0.10104681447940733]</t>
         </is>
       </c>
       <c r="H155" t="b">
@@ -6795,7 +6795,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>recent witnessed exponential growth automation power decision impact life society bring potential benefit reducing human bias speeding decisionmaking fraught risk increasing machine bias rendering decisionmaking opaque remote consideration fairness accountability transparency process fundamental omidyar network governance citizen engagement initiative started funding advocating open following snowden revelation summer included privacy surveillance reform effort realizing openness privacy closely related focused helping develop framework governing collection access storage usage right recently started looking impact release light processing power access decision government corporate sector actor increasingly automated government algorithm screen immigrant allocate social service vital know interrogate hold accountable main increase individual control agency decision impact life ultimately society believe accountability transparency agenda benefit better understanding ultimately scrutinizing automated decisionmaking explore question partnered upturn landscape public scrutiny automated decisionmaking term civil society nascent sector regulation place help regulate study developed clear pave textured practical understanding algorithmic transparency omidyar network explore issue companion paper released later hope report help civil society actor consider gain empowering public audience effectively scrutinize understand help govern automated decision hope start laying policy framework governance adding growing rich literature social economic impact decision finally hope report finding analysis help inform funders decision important growing field</t>
+          <t>recent witnessed exponential growth automation power decision impact life society bring potential benefit reducing human bias speeding decisionmaking fraught risk increasing machine bias rendering decisionmaking opaque remote consideration fairness accountability transparency process fundamental omidyar network governance citizen engagement initiative started funding advocating open following snowden revelation summer included privacy surveillance reform effort realizing openness privacy closely related focused helping develop framework governing collection access storage usage right recently started looking impact release new light processing power access decision government corporate sector actor increasingly automated government algorithm screen immigrant allocate social service vital know interrogate hold accountable main aim increase individual control agency decision impact life ultimately society believe accountability transparency agenda benefit better understanding ultimately scrutinizing automated decisionmaking explore question partnered upturn map landscape public scrutiny automated decisionmaking term civil society wa wa nascent sector law regulation place help regulate study developed clear pave way textured practical understanding algorithmic transparency omidyar network explore issue companion paper released later hope report help civil society actor consider gain empowering public audience effectively scrutinize understand help govern automated decision hope start laying policy framework governance adding growing rich literature social economic impact decision finally hope report finding analysis help inform funders decision important growing field</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6805,29 +6805,29 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>x1: 0.136|x2: 0.106|x3: 0.100|x4: 0.146|x5: 0.258|x6: 0.226|x7: 0.000|x8: 0.146|x9: 0.179|x10: 0.055|x11: 0.094|x12: 0.143|x13: 0.244|x14: 0.274|x15: 0.127|x16: 0.113|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.093|x5: 0.112|x6: 0.083|x7: 0.069|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.194|x12: 0.069|x13: 0.000|x14: 0.147|x15: 0.076|x16: 0.051|x17: 0.000</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>[0.00, 0.14, 0.27]</t>
+          <t>[0.00, 0.05, 0.19]</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>[14, 5, 13, 6, 9, 4, 8, 12, 1, 15, 16, 2, 3]</t>
+          <t>[11, 14, 5]</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.2736352605626431, 0.2580276804535137, 0.24362821279941194, 0.2257166007659623, 0.1794880079458638, 0.1463952657882272, 0.1456964291070448, 0.14266843988347416, 0.136240277184811, 0.1266723439002791, 0.11309948942522195, 0.10636872250794352, 0.10022044195819321]</t>
+          <t>[0.19390299464243388, 0.14709494755800698, 0.11228926773655844]</t>
         </is>
       </c>
       <c r="H156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
@@ -6836,7 +6836,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>protected area effective tool reducing biodiversity loss current legislation distinguishes type marine protected area allowing different level resource extraction theory spatial conservation planning focused identifying notake reserve current approach zoning multiple type protected area result suboptimal plan term protecting biodiversity minimizing negative socioeconomic impact overcame limitation application multizone planning tool marxan zone design network type protected area context california marine life protection produced zoning configuration entail mean value loss fishery compromising conservation goal spatial numerical optimization tool allows multiple zone outperforms tool identify zone marine reserve overall impact fishing industry reduced second equitable impact different fishing sector achieved finally examined tradeoff representing biodiversity feature impacting fishery approach applicable marine terrestrial conservation planning delivers ecosystembased management outcome balance conservation industry objective</t>
+          <t>protected area effective tool reducing biodiversity loss current legislation distinguishes type marine protected area allowing different level resource extraction theory spatial conservation planning focused identifying notake reserve current approach zoning multiple type protected area result suboptimal plan term protecting biodiversity minimizing negative socioeconomic impact overcame limitation application multizone planning tool marxan zone design network type protected area context california marine life protection act produced zoning configuration entail mean value loss le fishery compromising conservation goal spatial numerical optimization tool allows multiple zone outperforms tool identify zone marine reserve way overall impact fishing industry reduced second equitable impact different fishing sector achieved finally examined tradeoff representing biodiversity feature impacting fishery approach applicable marine terrestrial conservation planning delivers ecosystembased management outcome balance conservation industry objective</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6846,29 +6846,29 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.150|x3: 0.000|x4: 0.000|x5: 0.070|x6: 0.000|x7: 0.187|x8: 0.165|x9: 0.172|x10: 0.000|x11: 0.187|x12: 0.194|x13: 0.221|x14: 0.436|x15: 0.281|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.029|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.023|x12: 0.067|x13: 0.000|x14: 0.091|x15: 0.050|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.44]</t>
+          <t>[0.00, 0.02, 0.09]</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>[14, 15, 13, 12, 7, 11, 9, 8, 2, 1]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>[0.43550460956521125, 0.28053960813407325, 0.22120025323780226, 0.19420978769649935, 0.18697227806015718, 0.18696533824704026, 0.17235123575851247, 0.16529494553490423, 0.14982815653159234, 0.14781306912036424]</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="H157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
@@ -6877,7 +6877,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>national oceanic atmospheric administration noaa integrated coral observing network icon operational work closely government international environmental partner involved coral reef research icon program pioneered artificial intelligence technique near realtime stream environment sensor network seakeys network florida australia institute marine science weather network noaa coral reef ecosystem division network pacific integrated coral observing network icon station caribbean innovative approach coral monitoring station deployment icon program recently pioneered technique near realtime integration satellite situ radar source purpose ecological forecasting event coral bleaching coral spawning upwelling marine behavioral physical oceanographic event icon program ushered pulseamplitude modulating fluorometry measure near realtime physiological recording response environmental coral bleaching providing better ecological forecasting capability artificial intelligence integrative technique herewith technique report coral calcification instrumentation augmenting icon network sensor array</t>
+          <t>national oceanic atmospheric administration noaa integrated coral observing network icon ha operational work closely government international environmental partner involved coral reef research icon program ha pioneered artificial intelligence technique ass near realtime stream environment sensor network seakeys network florida australia institute marine science weather network noaa coral reef ecosystem division network pacific integrated coral observing network icon station caribbean innovative approach coral monitoring station deployment icon program recently pioneered technique near realtime integration satellite situ radar source purpose ecological forecasting event coral bleaching coral spawning upwelling marine behavioral physical oceanographic event icon program ha ushered pulseamplitude modulating fluorometry measure near realtime physiological recording response environmental coral bleaching providing better ecological forecasting capability artificial intelligence integrative technique herewith technique report new coral calcification instrumentation augmenting icon network sensor array</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6887,22 +6887,22 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.087|x2: 0.126|x3: 0.000|x4: 0.000|x5: 0.209|x6: 0.271|x7: 0.322|x8: 0.102|x9: 0.263|x10: 0.071|x11: 0.203|x12: 0.161|x13: 0.209|x14: 0.449|x15: 0.149|x16: 0.145|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.044|x6: 0.088|x7: 0.069|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.128|x12: 0.130|x13: 0.121|x14: 0.294|x15: 0.155|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.45]</t>
+          <t>[0.00, 0.06, 0.29]</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>[14, 7, 6, 9, 13, 5, 11, 12, 15, 16, 2, 8]</t>
+          <t>[14, 15, 12, 11, 13]</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[0.44919048338475176, 0.3219395332054726, 0.2706930251785251, 0.2631059365968205, 0.20931516835235747, 0.2087657996591092, 0.20331699492534958, 0.1608104519850736, 0.1486396908610969, 0.1451167924742117, 0.12643037867892276, 0.1024206600853781]</t>
+          <t>[0.2942802107697298, 0.15506418767796687, 0.12985418738680732, 0.12753306131439038, 0.1211072122558809]</t>
         </is>
       </c>
       <c r="H158" t="b">
@@ -6918,7 +6918,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>marine cabled allow nondestructive sampling specie frequency duration attained lack appropriate method automatically process video imagery limit technology purpose ecosystem monitoring automation prerequisite deal huge quantity video footage captured camera transform device true autonomous sensor study developed novel methodology based genetic programming contentbased image analysis capture temporal dynamic fish abundance processed image acquired challenging realworld coastal scenario obseaemso testingsite image collected frequency continuously night highly variable environmental condition allowed test effectiveness approach changing light radiation water turbidity background confusion biofouling growth camera housing automated recognition result highly correlated manual count highly reliable track fish variation different hourly daily monthly time scale addition methodology easily transferred cabled</t>
+          <t>marine cabled allow nondestructive sampling specie frequency duration attained lack appropriate method automatically process video imagery limit technology purpose ecosystem monitoring automation prerequisite deal huge quantity video footage captured camera transform device true autonomous sensor study developed novel methodology based genetic programming contentbased image analysis aim wa capture temporal dynamic fish abundance processed image acquired challenging realworld coastal scenario obseaemso testingsite image collected min frequency continuously night highly variable environmental condition allowed test effectiveness approach changing light radiation water turbidity background confusion biofouling growth camera housing automated recognition result highly correlated manual count highly reliable track fish variation different hourly daily monthly time scale addition methodology easily transferred cabled</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6928,29 +6928,29 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.169|x2: 0.000|x3: 0.084|x4: 0.324|x5: 0.127|x6: 0.250|x7: 0.382|x8: 0.205|x9: 0.188|x10: 0.079|x11: 0.379|x12: 0.150|x13: 0.182|x14: 0.278|x15: 0.104|x16: 0.161|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.086|x3: 0.000|x4: 0.059|x5: 0.000|x6: 0.102|x7: 0.230|x8: 0.173|x9: 0.099|x10: 0.060|x11: 0.246|x12: 0.090|x13: 0.078|x14: 0.067|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>[0.00, 0.18, 0.38]</t>
+          <t>[0.00, 0.08, 0.25]</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>[7, 11, 4, 14, 6, 8, 9, 13, 1, 16, 12, 5, 15]</t>
+          <t>[11, 7, 8, 6]</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.3822542451778167, 0.37943749585665887, 0.3243544182300361, 0.2779501487719493, 0.2500647124492601, 0.20481336234495068, 0.18785341527439914, 0.18239908439580957, 0.16882848947558707, 0.1611859833169764, 0.14981301826268442, 0.12680854616398157, 0.10445975515887256]</t>
+          <t>[0.24613083559374363, 0.22979574221733914, 0.1734836668848218, 0.10225459758100482]</t>
         </is>
       </c>
       <c r="H159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
@@ -6959,7 +6959,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>having accurate detailed uptodate information location behavior animal wild improve ability study conserve ecosystem investigate ability automatically accurately inexpensively collect help catalyze transformation field ecology wildlife biology zoology conservation biology animal behavior science motionsensor camera trap enable collecting wildlife picture inexpensively unobtrusively frequently extracting information picture remains expensive timeconsuming manual task demonstrate information automatically extracted deep learning cuttingedge type artificial intelligence train deep convolutional neural network identify count behavior specie millionimage snapshot serengeti dataset deep neural network automatically identify animal accuracy expect number improve rapidly come importantly classifies image confident automate animal identification performing accuracy crowdsourced team human volunteer saving human labeling effort millionimage dataset efficiency gain highlight importance deep neural network automate extraction cameratrap image reducing roadblock widely technology result suggest deep learning enable inexpensive unobtrusive highvolume realtime collection wealth information vast number animal wild</t>
+          <t>having accurate detailed uptodate information location behavior animal wild improve ability study conserve ecosystem investigate ability automatically accurately inexpensively collect help catalyze transformation field ecology wildlife biology zoology conservation biology animal behavior big science motionsensor camera trap enable collecting wildlife picture inexpensively unobtrusively frequently extracting information picture remains expensive timeconsuming manual task demonstrate information automatically extracted deep learning cuttingedge type artificial intelligence train deep convolutional neural network identify count behavior specie millionimage snapshot serengeti dataset deep neural network automatically identify animal accuracy expect number improve rapidly come importantly classifies image confident automate animal identification performing accuracy crowdsourced team human volunteer saving hwk human labeling effort millionimage dataset efficiency gain highlight importance deep neural network automate extraction cameratrap image reducing roadblock widely technology result suggest deep learning enable inexpensive unobtrusive highvolume realtime collection wealth information vast number animal wild</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6969,22 +6969,22 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.209|x2: 0.408|x3: 0.000|x4: 0.268|x5: 0.177|x6: 0.246|x7: 0.305|x8: 0.281|x9: 0.360|x10: 0.113|x11: 0.235|x12: 0.411|x13: 0.198|x14: 0.339|x15: 0.242|x16: 0.231|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.129|x3: 0.000|x4: 0.108|x5: 0.061|x6: 0.170|x7: 0.097|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.216|x12: 0.166|x13: 0.000|x14: 0.119|x15: 0.138|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>[0.00, 0.24, 0.41]</t>
+          <t>[0.00, 0.07, 0.22]</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>[12, 2, 9, 14, 7, 8, 4, 6, 15, 11, 16, 1, 13, 5, 10]</t>
+          <t>[11, 6, 12, 15, 2, 14, 4]</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[0.41130490483449533, 0.4081527948910059, 0.36025269251513087, 0.3390568513983831, 0.30453675273023534, 0.2806565415737656, 0.26750681722721265, 0.2455184455028868, 0.24180610693509522, 0.23451364132523292, 0.23091179054302408, 0.20942468070908107, 0.19842806267576196, 0.17730770283038003, 0.11276405059034418]</t>
+          <t>[0.21577305596461963, 0.17029475904278682, 0.16647024991353837, 0.13817773307307446, 0.12857357586998475, 0.11930467395361356, 0.10828913735665456]</t>
         </is>
       </c>
       <c r="H160" t="b">
@@ -7000,7 +7000,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>specie ecosystem worldwide continue decline disappear spite decade investment conservation effort systematic conservation planning field study designed improve conservation program identifying land configuration protected efficiently sustain biodiversity despite contributing specie persistence landscape criticized replacing sitebased conservation plan consider social context contrast land science emerging field explores process landuse landcover change integrates social process conservation analysis suggest incorporating insight social process livelihood adaptation agricultural intensification enhance legitimacy conservation plan reducing conservation planning implementation represents necessary step reinvent decisionsupport tool help reconcile longstanding divide landscapelevel specie conservation social need</t>
+          <t>specie ecosystem worldwide continue decline disappear spite decade investment conservation effort systematic conservation planning scp field study designed improve conservation program identifying land configuration protected efficiently sustain biodiversity despite contributing specie persistence landscape scp ha criticized replacing sitebased conservation plan consider social context contrast land science l emerging field explores process landuse landcover change integrates social process conservation analysis suggest incorporating insight l social process livelihood adaptation agricultural intensification scp enhance legitimacy conservation plan reducing gap conservation planning implementation represents necessary step scp reinvent decisionsupport tool help reconcile longstanding divide landscapelevel specie conservation social need</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -7010,22 +7010,22 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.136|x2: 0.331|x3: 0.000|x4: 0.045|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.105|x9: 0.129|x10: 0.000|x11: 0.182|x12: 0.234|x13: 0.373|x14: 0.312|x15: 0.339|x16: 0.074|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.048|x12: 0.185|x13: 0.182|x14: 0.180|x15: 0.162|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.37]</t>
+          <t>[0.00, 0.04, 0.19]</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>[13, 15, 2, 14, 12, 11, 1, 9, 8]</t>
+          <t>[12, 13, 14, 15]</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[0.373306834232395, 0.3389796259575126, 0.33145831548511195, 0.31239219564453935, 0.2337595869058033, 0.18164924612069067, 0.13559920956945917, 0.12864079426474562, 0.10484570765344542]</t>
+          <t>[0.18505385339485403, 0.18154848559117395, 0.18033814205814086, 0.16244231214872562]</t>
         </is>
       </c>
       <c r="H161" t="b">
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>identifying boundary specie niche observational environmental common problem ecology conservation biology variety technique developed applied model niche predict distribution examine performance pattern recognition method ecological niche model enms particularly oneclass pattern recognition flexible seldom methodology modeling ecological niche distribution presenceonly development oneclass method perform comparably twoclass method presenceabsence remove modeling decision sampling pseudoabsences background point absence point unavailable studied method oneclass classification method twoclass classification common primarily pattern recognition common specie distribution ecological niche modeling mountain plant specie presenceabsence available assessed accuracy standard metric compared tradeoff omission commission error classification group effect prevalence spatial autocorrelation accuracy oneclass model presenceonly comparable twoclass model presenceabsence performance evaluated measure weighting omission commission error equally oneclass model superior reducing omission error yielding higher sensitivity twoclasses model superior reducing commission error yielding higher specificity method spatial autocorrelation influential prevalence result differ previous effort evaluate alternative modelling approach build particularly noteworthy exhaustively sampled population minimizing false absence record accurate transferable model specie ecological niche distribution needed advance ecological research crucial effective environmental planning conservation approach studied good potential future modeling study study provides introduction promising method ecological modeling inherited pattern recognition discipline</t>
+          <t>identifying boundary specie niche observational environmental common problem ecology conservation biology variety technique developed applied model niche predict distribution examine performance pattern recognition method ecological niche model enms particularly oneclass pattern recognition flexible seldom methodology modeling ecological niche distribution presenceonly development oneclass method perform comparably twoclass method presenceabsence remove modeling decision sampling pseudoabsences background point absence point unavailable studied method oneclass classification method twoclass classification common primarily pattern recognition common specie distribution ecological niche modeling set mountain plant specie presenceabsence wa available assessed accuracy standard metric compared tradeoff omission commission error classification group effect prevalence spatial autocorrelation accuracy oneclass model fit presenceonly comparable twoclass model fit presenceabsence performance wa evaluated measure weighting omission commission error equally oneclass model superior reducing omission error yielding higher sensitivity twoclasses model superior reducing commission error yielding higher specificity method spatial autocorrelation wa influential prevalence wa low result differ previous effort evaluate alternative modelling approach build enm particularly noteworthy exhaustively sampled population minimizing false absence record accurate transferable model specie ecological niche distribution needed advance ecological research crucial effective environmental planning conservation approach studied good potential future modeling study study provides introduction promising method ecological modeling inherited pattern recognition discipline</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -7051,22 +7051,22 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.095|x3: 0.000|x4: 0.000|x5: 0.177|x6: 0.163|x7: 0.269|x8: 0.000|x9: 0.000|x10: 0.092|x11: 0.239|x12: 0.088|x13: 0.085|x14: 0.229|x15: 0.222|x16: 0.189|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.058|x3: 0.000|x4: 0.000|x5: 0.120|x6: 0.000|x7: 0.240|x8: 0.000|x9: 0.000|x10: 0.151|x11: 0.177|x12: 0.213|x13: 0.169|x14: 0.211|x15: 0.197|x16: 0.119|x17: 0.000</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>[0.00, 0.11, 0.27]</t>
+          <t>[0.00, 0.10, 0.24]</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>[7, 11, 14, 15, 16, 5, 6]</t>
+          <t>[7, 12, 14, 15, 11, 13, 10, 5, 16]</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[0.268642389753709, 0.23915908881064132, 0.22938854802785716, 0.2218083875578721, 0.18864916770242657, 0.1769109178714846, 0.16294628125343688]</t>
+          <t>[0.2398072748247898, 0.21299237071121352, 0.21068061131971333, 0.19727407853149573, 0.17714315045914877, 0.1690421308774213, 0.15100751514698302, 0.11976566688726661, 0.11912498921080483]</t>
         </is>
       </c>
       <c r="H162" t="b">
@@ -7082,7 +7082,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>apply recently developed spatial biosurveillance technique enforcement domain goal helping local police department rapidly detect respond better predict prevent emerging spatial pattern crime background geographic surveillance technique increasingly important enforcement crime prevention method mapping crime automatically detecting crime spot electronic report situational awareness enabled rapid police response emerging crime area additionally recent work crime forecasting enabled enforcement official predict prevent rise crime variety leading indicator current crime detection forecasting method require coarse aggregation month square mile computational consideration relatively number crime limitation reduce spatial temporal precision department pinpoint cluster crime ability rapidly respond cluster propose spatial scan statistic method originally developed biosurveillance domain finer aggregation efficiently search emerging spacetime cluster varying size duration method detection cluster violent crime prediction cluster detecting cluster leading indicator crime</t>
+          <t>apply recently developed spatial biosurveillance technique law enforcement domain goal helping local police department rapidly detect respond better predict prevent emerging spatial pattern crime background geographic surveillance technique increasingly important law enforcement crime prevention new method mapping crime automatically detecting crime hot spot electronic report situational awareness enabled rapid police response emerging crime area additionally recent work crime forecasting ha enabled law enforcement official predict prevent rise crime variety leading indicator current crime detection forecasting method require coarse aggregation month square mile computational consideration relatively number crime limitation reduce spatial temporal precision department pinpoint cluster crime ability rapidly respond cluster propose spatial scan statistic method originally developed biosurveillance domain finer aggregation efficiently search emerging spacetime cluster varying size duration method detection cluster violent crime prediction cluster detecting cluster leading indicator crime</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -7092,22 +7092,22 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.076|x2: 0.000|x3: 0.121|x4: 0.182|x5: 0.262|x6: 0.093|x7: 0.000|x8: 0.081|x9: 0.070|x10: 0.126|x11: 0.319|x12: 0.243|x13: 0.117|x14: 0.290|x15: 0.233|x16: 0.258|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.063|x4: 0.044|x5: 0.178|x6: 0.053|x7: 0.043|x8: 0.000|x9: 0.000|x10: 0.062|x11: 0.041|x12: 0.071|x13: 0.000|x14: 0.052|x15: 0.115|x16: 0.214|x17: 0.000</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>[0.00, 0.15, 0.32]</t>
+          <t>[0.00, 0.05, 0.21]</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>[11, 14, 5, 16, 12, 15, 4, 10, 3, 13]</t>
+          <t>[16, 5, 15]</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0.31876815747237064, 0.28959619808367665, 0.26172608999076347, 0.2576354261271466, 0.24277774414560105, 0.23281398236136736, 0.18219762112481575, 0.1258143387020049, 0.12079494668834065, 0.11745965134830721]</t>
+          <t>[0.21381938811689266, 0.1776566064190214, 0.11493113771221046]</t>
         </is>
       </c>
       <c r="H163" t="b">
@@ -7123,7 +7123,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>bullying widespread european school despite multiple intervention strategy having proposed present study investigates effect novel virtual learning strategy fearnot tackle bullying german sample approach intended primarily victim increase coping skill heighten empathy defence victim noninvolved bystander paper focus defender role applying quantitative qualitative methodology present study fearnot helped noninvolved child defender german subsample effect subsample german defender child initially uninvolved nominated defender peer intervention period significantly popular baseline cognitive empathy theory mind virtual victim compared permanently noninvolved pupil gender interacts defender effect affective empathy emotional contagion particularly associated defender status girl finding discussed relation previous research antibullying intervention strategy cultural difference bullying prevalence rate intervention outcome</t>
+          <t>bullying widespread european school despite multiple intervention strategy having proposed present study investigates effect novel virtual learning strategy fearnot tackle bullying german sample approach intended primarily victim increase coping skill heighten empathy defence victim noninvolved bystander paper focus defender role applying quantitative qualitative methodology present study fearnot helped noninvolved child defender german subsample effect subsample german new defender child initially uninvolved nominated defender peer intervention period significantly popular baseline cognitive empathy theory mind virtual victim compared permanently noninvolved pupil gender interacts defender effect affective empathy emotional contagion particularly associated new defender status girl finding discussed relation previous research antibullying intervention strategy cultural difference bullying prevalence rate intervention outcome</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -7133,22 +7133,22 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>x1: 0.146|x2: 0.343|x3: 0.214|x4: 0.351|x5: 0.134|x6: 0.000|x7: 0.067|x8: 0.185|x9: 0.159|x10: 0.115|x11: 0.096|x12: 0.000|x13: 0.124|x14: 0.112|x15: 0.000|x16: 0.235|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.122|x3: 0.000|x4: 0.181|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.000|x12: 0.094|x13: 0.000|x14: 0.040|x15: 0.000|x16: 0.246|x17: 0.000</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>[0.00, 0.13, 0.35]</t>
+          <t>[0.00, 0.04, 0.25]</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>[4, 2, 16, 3, 8, 9, 1, 5, 13, 10, 14]</t>
+          <t>[16, 4, 2]</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.35092022021938146, 0.34300648965607095, 0.2354275479998435, 0.21447811491651475, 0.1848391312279063, 0.15907562701500397, 0.14595388122085431, 0.13382067971585404, 0.12423402254547102, 0.11496928706231911, 0.11195245039411755]</t>
+          <t>[0.24617020532292552, 0.1814889075528674, 0.121889449379014]</t>
         </is>
       </c>
       <c r="H164" t="b">
@@ -7164,7 +7164,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>understanding video event translation lowlevel content video sequence level semantic concept research topic received recent important application work include smart surveillance semantic video database indexing teractive technology applied video domain including airport terminal parking trac subway station aerial surveillance sign language work survey main component event understanding process abstraction event modeling abstraction process molding informative unit input event model event modeling devoted describing event formally enabling recognition event occur video sequence event modeling decomposed category pattern recognition method state event model semantic event model survey discus proposed taxonomy literature unifying terminology discus popular abstraction scheme motion history image event modeling formalism hidden markov model video event understanding extensive example literature finally consider applica tion domain video event understanding light proposed taxonomy propose future direction research</t>
+          <t>understanding video event translation lowlevel content video sequence level semantic concept research topic ha received recent important application work include smart surveillance semantic video database indexing teractive technology applied video domain including airport terminal parking lot trac subway station aerial surveillance sign language work survey main component event understanding process abstraction event modeling abstraction process molding informative unit input event model event modeling devoted describing event formally enabling recognition event occur video sequence event modeling decomposed category pattern recognition method state event model semantic event model survey discus proposed taxonomy literature oer unifying terminology discus popular abstraction scheme motion history image event modeling formalism hidden markov model video event understanding extensive example literature finally consider applica tion domain video event understanding light proposed taxonomy propose future direction research eld</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -7174,29 +7174,29 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>x1: 0.095|x2: 0.092|x3: 0.336|x4: 0.275|x5: 0.219|x6: 0.074|x7: 0.186|x8: 0.112|x9: 0.155|x10: 0.110|x11: 0.208|x12: 0.241|x13: 0.148|x14: 0.151|x15: 0.116|x16: 0.225|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.155|x3: 0.000|x4: 0.088|x5: 0.061|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.000|x10: 0.207|x11: 0.202|x12: 0.099|x13: 0.051|x14: 0.140|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>[0.00, 0.16, 0.34]</t>
+          <t>[0.00, 0.08, 0.21]</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>[3, 4, 12, 16, 5, 11, 7, 9, 14, 13, 15, 8, 10]</t>
+          <t>[10, 11, 7, 2, 14, 1]</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0.3360548999061056, 0.27484192990350587, 0.24054042518215862, 0.22463664914185094, 0.2193097634190127, 0.20821664204383564, 0.18633523442402883, 0.1546302503488144, 0.15142447645270948, 0.14758239970601522, 0.11605924585971915, 0.1122017328463767, 0.10969963209201025]</t>
+          <t>[0.20690958740481985, 0.20247429067229247, 0.1550327809993753, 0.15465914404562114, 0.1401034229105422, 0.12518522481058703]</t>
         </is>
       </c>
       <c r="H165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.10902336655334757]</t>
+          <t>[0.10892643280428738]</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -547,7 +547,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.20329691461715152, 0.19615461779776833, 0.16912394144251294, 0.15917303704715569, 0.15816885292462896, 0.1386962109341194, 0.11497367206276943, 0.11363477539880147, 0.10647016990740617]</t>
+          <t>[0.2032568760325857, 0.19606316007474583, 0.16905687622157684, 0.15910581768456347, 0.1581272776382276, 0.13866660005188142, 0.1150230029977936, 0.11360491781029823, 0.10646242740280086]</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -588,7 +588,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.19721743000463715, 0.19562552329806734, 0.1501509633817256, 0.14087290874856165, 0.1252765912604202, 0.11669630866733278, 0.11062445304024741, 0.10029504718837813]</t>
+          <t>[0.1972026202468711, 0.195628112071551, 0.15014800443049356, 0.14085007591503984, 0.12523745141120007, 0.11668194401471674, 0.11057585291364914, 0.10029152355048314]</t>
         </is>
       </c>
       <c r="H4" t="b">
@@ -629,7 +629,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.21960885064840377, 0.2055382941869249, 0.16508355835153396, 0.14831995740500345, 0.12932555554533817]</t>
+          <t>[0.21962054489747324, 0.2055199961537897, 0.16502015040303009, 0.1482726010747772, 0.1293038077016675]</t>
         </is>
       </c>
       <c r="H5" t="b">
@@ -670,7 +670,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.13937468273890674, 0.12923773993519785, 0.1082097762717469]</t>
+          <t>[0.13937175693498885, 0.12921681072958494, 0.1081967445061828]</t>
         </is>
       </c>
       <c r="H6" t="b">
@@ -696,7 +696,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.177|x5: 0.203|x6: 0.298|x7: 0.334|x8: 0.000|x9: 0.185|x10: 0.000|x11: 0.635|x12: 0.277|x13: 0.000|x14: 0.000|x15: 0.135|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.177|x5: 0.202|x6: 0.298|x7: 0.334|x8: 0.000|x9: 0.185|x10: 0.000|x11: 0.635|x12: 0.277|x13: 0.000|x14: 0.000|x15: 0.135|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.6347132626934252, 0.33448692655139467, 0.29771858038215665, 0.277106296597248, 0.20250882628401037, 0.18478664419179056, 0.17736659105138297, 0.1348221275036706]</t>
+          <t>[0.6346861331537318, 0.3344758487559685, 0.2976570259609622, 0.2772337077204889, 0.20247860649393756, 0.1847481501723983, 0.1773260761831529, 0.13483367116249192]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -752,7 +752,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.23846440885309886, 0.1924828913691132, 0.18182218723928298, 0.17912100211609722, 0.1534644200367067, 0.14467243118726525]</t>
+          <t>[0.23836060499281095, 0.19237547731167684, 0.18171977076067003, 0.1791345931659252, 0.1533774171187689, 0.14451488044101593]</t>
         </is>
       </c>
       <c r="H8" t="b">
@@ -793,7 +793,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.19926111478617098, 0.18765613843195297, 0.15657547360020382, 0.15276332636421255, 0.1184975054021234]</t>
+          <t>[0.19926805860225916, 0.18770093522422449, 0.15656590544552212, 0.15275064084381335, 0.11837146939219029]</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -819,7 +819,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.113|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.000|x8: 0.037|x9: 0.081|x10: 0.076|x11: 0.138|x12: 0.139|x13: 0.132|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.113|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.000|x8: 0.037|x9: 0.081|x10: 0.076|x11: 0.138|x12: 0.139|x13: 0.131|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.13941429857301793, 0.1382500848127017, 0.13150627219528663, 0.11257594236361114]</t>
+          <t>[0.1394043774284917, 0.13823923601367363, 0.13148983632527064, 0.1125424128224098]</t>
         </is>
       </c>
       <c r="H10" t="b">
@@ -875,7 +875,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.18289172748806112, 0.17174393678029065, 0.1650956772479849, 0.15660143363668888, 0.15304240711718195, 0.1261529697363328, 0.10788127799435901]</t>
+          <t>[0.18284786508314918, 0.17174443563803182, 0.16504598887821267, 0.15654018589444066, 0.15306456846060873, 0.1261060086426088, 0.10782304024691898]</t>
         </is>
       </c>
       <c r="H11" t="b">
@@ -901,7 +901,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.072|x3: 0.000|x4: 0.080|x5: 0.093|x6: 0.080|x7: 0.203|x8: 0.087|x9: 0.105|x10: 0.162|x11: 0.151|x12: 0.052|x13: 0.000|x14: 0.075|x15: 0.056|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.072|x3: 0.000|x4: 0.080|x5: 0.093|x6: 0.080|x7: 0.203|x8: 0.087|x9: 0.105|x10: 0.162|x11: 0.150|x12: 0.052|x13: 0.000|x14: 0.075|x15: 0.056|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -916,7 +916,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.20264547866711533, 0.16195322615127897, 0.1505120500309505, 0.10518277773936256]</t>
+          <t>[0.20253931227671346, 0.16186644280609241, 0.15040009389534523, 0.10513204309251059]</t>
         </is>
       </c>
       <c r="H12" t="b">
@@ -957,7 +957,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.2931257815742697, 0.22664856755792942, 0.19958840948938839, 0.17177813256871452, 0.1337485161468289]</t>
+          <t>[0.2931247121148201, 0.22665108042543458, 0.19962475727563883, 0.17179580178047102, 0.13382402916978667]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -998,7 +998,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.21490257421584005, 0.2016243943819962, 0.19302319987000882, 0.1034427089546579, 0.10244512230987095]</t>
+          <t>[0.21487055541940023, 0.20154310300850578, 0.1929402511515304, 0.10335739635265136, 0.10247263304561355]</t>
         </is>
       </c>
       <c r="H14" t="b">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.43364122942066863, 0.26563992869602204, 0.26402621367685847, 0.25916402572022934, 0.1523647902115716, 0.14201637926850388]</t>
+          <t>[0.4336236364421669, 0.26565657907344253, 0.2640152456797935, 0.2591708978610257, 0.1523321737687792, 0.14196063530681516]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.099|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.090|x8: 0.000|x9: 0.060|x10: 0.000|x11: 0.065|x12: 0.122|x13: 0.102|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.099|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.090|x8: 0.000|x9: 0.059|x10: 0.000|x11: 0.065|x12: 0.121|x13: 0.102|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.12153776030861407, 0.10195157541123813]</t>
+          <t>[0.12148391486052516, 0.10197598068030721]</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0.2569640787700494, 0.21031347227530311, 0.1918251287463793, 0.12083338959038316, 0.11893759950912872, 0.11312682503160083]</t>
+          <t>[0.2569745771644926, 0.21028595215033852, 0.19180907547531678, 0.12086573117654394, 0.11889776257009052, 0.11312275459456442]</t>
         </is>
       </c>
       <c r="H17" t="b">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0.24895629738823016, 0.19108121410091145, 0.11411018393431292, 0.10109805718817427]</t>
+          <t>[0.24890368695217216, 0.19106505903288026, 0.11407484395415561, 0.10105535784700367]</t>
         </is>
       </c>
       <c r="H18" t="b">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.3362654523417955, 0.20718495856202213, 0.17584598359103304, 0.1691120223612876, 0.16044309435797605, 0.1531231250578407, 0.1340883740064488, 0.10012611381106963]</t>
+          <t>[0.3362521694512797, 0.20716776037464055, 0.17580715213544648, 0.16906637899281407, 0.1604481299253913, 0.15315621171932645, 0.13407450831420364, 0.1001312953786285]</t>
         </is>
       </c>
       <c r="H19" t="b">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[0.16139825039009026, 0.11403493653565916]</t>
+          <t>[0.16134256040607706, 0.1139826785793036]</t>
         </is>
       </c>
       <c r="H20" t="b">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.3334893657587324, 0.17089288008188813, 0.1147304118206118, 0.11104800206296328, 0.10610254948397234]</t>
+          <t>[0.33331931138219467, 0.17079962216079428, 0.11484631358542043, 0.11101459436913576, 0.10600467269959074]</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.000|x3: 0.156|x4: 0.140|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.000|x9: 0.066|x10: 0.000|x11: 0.000|x12: 0.191|x13: 0.216|x14: 0.143|x15: 0.054|x16: 0.107|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.155|x4: 0.140|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.000|x9: 0.067|x10: 0.000|x11: 0.000|x12: 0.191|x13: 0.216|x14: 0.143|x15: 0.054|x16: 0.107|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.21575178362338177, 0.19074582376634303, 0.15560450037668502, 0.14330365420501984, 0.14004271072050078, 0.10734798496144016]</t>
+          <t>[0.21562374158872502, 0.19065956675497983, 0.1554618540850789, 0.1433420657791343, 0.14003954360892773, 0.10734332646538129]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.3064412547857989, 0.2587608435132903, 0.20390123303704713, 0.15073330226926288, 0.146078167815543, 0.12787676747716922, 0.11890242196222267]</t>
+          <t>[0.30630351180020887, 0.2586700384287456, 0.20380521934643067, 0.15068275141156187, 0.1460777318062951, 0.127830753447792, 0.11886314193542845]</t>
         </is>
       </c>
       <c r="H23" t="b">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[0.19719250200274563, 0.19496391031066584, 0.1704943278573634, 0.15161208400821724, 0.14780712597538825, 0.12139634317517799, 0.11983631260260366]</t>
+          <t>[0.19719072778026533, 0.19496726090995223, 0.17044132245492524, 0.1515897892538829, 0.1477851357962106, 0.1213543442755179, 0.11986832788684004]</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.29675504684182796, 0.22903358025388637, 0.22310625312191643, 0.18371257880418218, 0.1534692775788764, 0.14971353000306786, 0.14122654620309166, 0.13724795828605832, 0.1308926670929242]</t>
+          <t>[0.2967335551376591, 0.2290140632161553, 0.22306810994386927, 0.18372200263752764, 0.15344029441349313, 0.1496581336761511, 0.1412134720475011, 0.13726180290211254, 0.13078408809092545]</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.31444625362246226, 0.25178370070674577, 0.24545874540802676, 0.13284379338559216, 0.11581927347309336]</t>
+          <t>[0.31439540561229606, 0.2517610520430796, 0.24540914620626963, 0.13290018873273013, 0.11579146515548915]</t>
         </is>
       </c>
       <c r="H26" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[0.5012389128296757, 0.2811158471376203, 0.24808301863484955, 0.19134170486843394, 0.17404701676147094, 0.16915205663215213, 0.1353316926699688, 0.12163793935375772, 0.1104419998611991]</t>
+          <t>[0.5009894218065251, 0.28106434680627806, 0.24802403185276176, 0.191351031199589, 0.1741167755660303, 0.16917434703281364, 0.135375145704979, 0.12168416163353847, 0.11041740533542158]</t>
         </is>
       </c>
       <c r="H27" t="b">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.12172262135201788, 0.10980999893590104, 0.10579038573372028]</t>
+          <t>[0.12176774472011599, 0.10982197290127424, 0.10580927271098742]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.22416279327979383, 0.1356238063981988]</t>
+          <t>[0.22425210708525797, 0.135754953939026]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1639,7 +1639,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>x1: 0.163|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.113|x6: 0.076|x7: 0.128|x8: 0.149|x9: 0.188|x10: 0.165|x11: 0.176|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.091|x16: 0.152|x17: 0.000</t>
+          <t>x1: 0.163|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.113|x6: 0.076|x7: 0.128|x8: 0.149|x9: 0.187|x10: 0.165|x11: 0.176|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.091|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.18752747928569577, 0.17575114305920275, 0.16479636862304725, 0.16323915278439916, 0.15215939947689422, 0.14891981074677135, 0.12828166931285087, 0.11286909313050646]</t>
+          <t>[0.18748317120665967, 0.17585722961283293, 0.1647908706727131, 0.1632041558169759, 0.15209947543774902, 0.14888937100112995, 0.12819522429276275, 0.11286070551493774]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.093|x7: 0.287|x8: 0.000|x9: 0.000|x10: 0.065|x11: 0.107|x12: 0.245|x13: 0.077|x14: 0.130|x15: 0.126|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.093|x7: 0.287|x8: 0.000|x9: 0.000|x10: 0.064|x11: 0.107|x12: 0.245|x13: 0.077|x14: 0.130|x15: 0.126|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.28663283395391775, 0.2447327978539352, 0.13007893641884738, 0.12553627422941877, 0.10656145061778927]</t>
+          <t>[0.28654649581275765, 0.24472866924555126, 0.1301327064020664, 0.12556721091596668, 0.1065494493464351]</t>
         </is>
       </c>
       <c r="H31" t="b">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.15344264359946477]</t>
+          <t>[0.15341525335141207]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.3101571631021249, 0.17411298976165188, 0.1671106087326843, 0.1556561760613016, 0.13516504865932294, 0.13511702809353626, 0.11620282062470005]</t>
+          <t>[0.31010681680716545, 0.17397476361350414, 0.16693052700173008, 0.15573305864750456, 0.13505536198703952, 0.13482842158999747, 0.11621026692448566]</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.13917375151730288, 0.10334569830695427, 0.10083205751946206]</t>
+          <t>[0.13910145121816858, 0.10327368417428925, 0.10074318677679794]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.067|x3: 0.217|x4: 0.094|x5: 0.000|x6: 0.150|x7: 0.077|x8: 0.000|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.064|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.080|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.067|x3: 0.216|x4: 0.094|x5: 0.000|x6: 0.150|x7: 0.077|x8: 0.000|x9: 0.000|x10: 0.043|x11: 0.000|x12: 0.064|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.080|x17: 0.000</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.21650372044814453, 0.15009115611693863]</t>
+          <t>[0.21637417120245034, 0.14999033052364236]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.23121698751320677, 0.21071605652418904, 0.15296372708481984, 0.14897596845731817, 0.1361199772788804, 0.12097335385011636, 0.1134695759749604]</t>
+          <t>[0.23120839881208957, 0.2107161542925949, 0.15294201659518397, 0.14896894726544244, 0.13611169198087433, 0.12096631296313895, 0.11345951380285055]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[0.21040945021385826, 0.2002411170141892, 0.13491615461260692, 0.125939408396381, 0.12484468171338237, 0.11107535924908957]</t>
+          <t>[0.21048607596560548, 0.20028945406030377, 0.13489032121228056, 0.12594746364937018, 0.1248835257580234, 0.11109081410858498]</t>
         </is>
       </c>
       <c r="H37" t="b">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.3479941439487996, 0.3374319252081285, 0.15789674071421117, 0.14714594973821954, 0.14434072186577826, 0.12778578025323467, 0.11179883706877916]</t>
+          <t>[0.3479260593342777, 0.33745879590239375, 0.15801063721399228, 0.14717214880814738, 0.144490943917621, 0.12775434137790673, 0.1118131470205498]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.023|x3: 0.046|x4: 0.000|x5: 0.036|x6: 0.118|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.137|x13: 0.000|x14: 0.028|x15: 0.054|x16: 0.081|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.023|x3: 0.046|x4: 0.000|x5: 0.036|x6: 0.118|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.137|x13: 0.000|x14: 0.028|x15: 0.054|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[0.1367766956453013, 0.11774643397621658]</t>
+          <t>[0.13695995741730596, 0.11779782082426411]</t>
         </is>
       </c>
       <c r="H39" t="b">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.000|x3: 0.000|x4: 0.201|x5: 0.250|x6: 0.000|x7: 0.152|x8: 0.104|x9: 0.154|x10: 0.178|x11: 0.000|x12: 0.366|x13: 0.136|x14: 0.292|x15: 0.000|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.000|x3: 0.000|x4: 0.201|x5: 0.250|x6: 0.000|x7: 0.152|x8: 0.105|x9: 0.154|x10: 0.178|x11: 0.000|x12: 0.366|x13: 0.136|x14: 0.292|x15: 0.000|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.3659733229799779, 0.29190581223238776, 0.2501850357879324, 0.20111770514743982, 0.1782420672710605, 0.15365569212598193, 0.15193767785212986, 0.13646100331666478, 0.10444291138987387]</t>
+          <t>[0.36586432486069637, 0.2918268834639401, 0.2500732197429986, 0.2010273079693258, 0.17811985362976768, 0.15360031717150763, 0.15187567026773593, 0.1363987953691901, 0.1045042998316258]</t>
         </is>
       </c>
       <c r="H40" t="b">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.20454548171278977, 0.16507109171287512, 0.1534803297200415, 0.11835559344844185]</t>
+          <t>[0.20450841988796647, 0.16507443561761345, 0.1534792974657887, 0.11833558021083482]</t>
         </is>
       </c>
       <c r="H41" t="b">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.062|x3: 0.229|x4: 0.089|x5: 0.089|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.000|x10: 0.059|x11: 0.134|x12: 0.277|x13: 0.086|x14: 0.000|x15: 0.000|x16: 0.177|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.062|x3: 0.229|x4: 0.089|x5: 0.089|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.134|x12: 0.277|x13: 0.086|x14: 0.000|x15: 0.000|x16: 0.177|x17: 0.000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.27738641663508273, 0.2289651838386558, 0.17711139771442846, 0.15499261496152023, 0.13393410554651503]</t>
+          <t>[0.2772964140955272, 0.22890321446575035, 0.1770731771625416, 0.1549600570410655, 0.13387842033485944]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.215|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.110|x12: 0.247|x13: 0.147|x14: 0.171|x15: 0.043|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.215|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.110|x12: 0.248|x13: 0.147|x14: 0.171|x15: 0.043|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.2474761438291445, 0.21538161479957807, 0.170848908567704, 0.14702418708771298, 0.11021286572494307]</t>
+          <t>[0.24754072910607483, 0.2153742292333834, 0.17084039370636742, 0.14698773356404193, 0.11013563785405242]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.4057753884259254, 0.27631265582479236, 0.266050278937226, 0.2043538107472964, 0.19810747039123722, 0.14690969424646136, 0.14461057636016258]</t>
+          <t>[0.4057993838084277, 0.27628827320642474, 0.26604570645559333, 0.20441597066101544, 0.19807049613825586, 0.14690346626675665, 0.1446224320064997]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.27792506068494005, 0.24005377871434558, 0.1777520271712882, 0.16683054761935598, 0.1199038276667092, 0.1029295989221079]</t>
+          <t>[0.2778767598428409, 0.24009415939043044, 0.17767824361978507, 0.16686190101093984, 0.1199157587966909, 0.10292275418511215]</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.25071404902300076, 0.20630591181685196, 0.18395329132671118, 0.1669109247932045, 0.13513532933445016, 0.10490224136413143]</t>
+          <t>[0.2506472225636737, 0.20627218434175404, 0.18392278448019236, 0.16688884978597104, 0.13509328954671856, 0.10490499595874517]</t>
         </is>
       </c>
       <c r="H46" t="b">
@@ -2336,7 +2336,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.060|x3: 0.113|x4: 0.141|x5: 0.039|x6: 0.000|x7: 0.220|x8: 0.000|x9: 0.068|x10: 0.000|x11: 0.000|x12: 0.194|x13: 0.041|x14: 0.093|x15: 0.000|x16: 0.106|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.060|x3: 0.113|x4: 0.141|x5: 0.039|x6: 0.000|x7: 0.220|x8: 0.000|x9: 0.068|x10: 0.000|x11: 0.000|x12: 0.193|x13: 0.041|x14: 0.093|x15: 0.000|x16: 0.106|x17: 0.000</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[0.21966563139369233, 0.19350611453884844, 0.1407047540159934, 0.11261529453614799, 0.1063069328261953]</t>
+          <t>[0.21973482635728533, 0.19334825708099748, 0.14074663008777807, 0.1126023245678595, 0.10623801691822306]</t>
         </is>
       </c>
       <c r="H47" t="b">
@@ -2377,7 +2377,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.158|x3: 0.172|x4: 0.109|x5: 0.077|x6: 0.124|x7: 0.078|x8: 0.000|x9: 0.000|x10: 0.132|x11: 0.269|x12: 0.000|x13: 0.077|x14: 0.000|x15: 0.000|x16: 0.134|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.158|x3: 0.172|x4: 0.110|x5: 0.077|x6: 0.124|x7: 0.078|x8: 0.000|x9: 0.000|x10: 0.132|x11: 0.269|x12: 0.000|x13: 0.077|x14: 0.000|x15: 0.000|x16: 0.134|x17: 0.000</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[0.26859099467506325, 0.17223636685681737, 0.15843403806081255, 0.13412491260268958, 0.1317945139655089, 0.12366935382718328, 0.10947457636512795]</t>
+          <t>[0.2686235939863235, 0.17226403805603221, 0.15848620085199983, 0.13415032327581353, 0.13180596420160992, 0.1236984418248047, 0.10950096846948158]</t>
         </is>
       </c>
       <c r="H48" t="b">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.125|x2: 0.000|x3: 0.095|x4: 0.075|x5: 0.069|x6: 0.103|x7: 0.121|x8: 0.056|x9: 0.000|x10: 0.000|x11: 0.055|x12: 0.091|x13: 0.000|x14: 0.049|x15: 0.000|x16: 0.096|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.000|x3: 0.095|x4: 0.075|x5: 0.069|x6: 0.103|x7: 0.122|x8: 0.056|x9: 0.000|x10: 0.000|x11: 0.055|x12: 0.091|x13: 0.000|x14: 0.049|x15: 0.000|x16: 0.097|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.1248054208998029, 0.12146547018255882, 0.10317976728758597]</t>
+          <t>[0.12475163343334879, 0.12150714423597966, 0.10317496657183582]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.3960415003149519, 0.16778529027454334, 0.1407698027684515, 0.12022566995498274, 0.11510935266118708]</t>
+          <t>[0.3958098170726442, 0.16760159735002447, 0.14058502977419057, 0.12007246663198262, 0.11500507880393832]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.2201214277365149, 0.1655989872340765, 0.15184120006356805, 0.13844516048074457, 0.12512648099155926, 0.10393962960956475]</t>
+          <t>[0.22005214321562946, 0.16553878238149952, 0.15179488389935078, 0.13838968772705654, 0.12513525343398368, 0.10395835639114014]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.2952259936708988, 0.2569000850653795, 0.1652922065415787, 0.11246494206890674]</t>
+          <t>[0.2951498770490224, 0.2568420155248802, 0.16536399861943343, 0.11245539322277816]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.16800203967152372, 0.16508421710599894, 0.11581579601479462, 0.10911309118366591, 0.10721241177271208]</t>
+          <t>[0.1680328589528644, 0.16509810204587017, 0.11578532697790582, 0.10916096136969745, 0.10721037931229149]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.108|x7: 0.230|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.204|x12: 0.243|x13: 0.213|x14: 0.094|x15: 0.112|x16: 0.092|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.108|x7: 0.230|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.203|x12: 0.243|x13: 0.213|x14: 0.094|x15: 0.112|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.2431101774930443, 0.23020661910026857, 0.21329899847596004, 0.2035215402187161, 0.11210838646548356, 0.10820322017017571, 0.10147014080553639]</t>
+          <t>[0.24304561453552995, 0.23023242395835997, 0.2132798458344681, 0.20349088290563688, 0.11207697682004905, 0.10819467563777477, 0.10141897356192822]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>x1: 0.078|x2: 0.000|x3: 0.000|x4: 0.109|x5: 0.000|x6: 0.044|x7: 0.063|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.071|x12: 0.000|x13: 0.034|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.000|x3: 0.000|x4: 0.109|x5: 0.000|x6: 0.044|x7: 0.063|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.000|x13: 0.034|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.10887903477879768]</t>
+          <t>[0.1088629478089751]</t>
         </is>
       </c>
       <c r="H55" t="b">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.25364197077116546]</t>
+          <t>[0.25371048324764367]</t>
         </is>
       </c>
       <c r="H56" t="b">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.208|x2: 0.000|x3: 0.000|x4: 0.063|x5: 0.071|x6: 0.000|x7: 0.105|x8: 0.113|x9: 0.084|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.034|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.208|x2: 0.000|x3: 0.000|x4: 0.062|x5: 0.071|x6: 0.000|x7: 0.105|x8: 0.113|x9: 0.084|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.034|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.20807154580063014, 0.11258022535789756, 0.10471534362668675]</t>
+          <t>[0.20786160272286622, 0.11253731298284678, 0.10463981287701046]</t>
         </is>
       </c>
       <c r="H57" t="b">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.19115272854653614, 0.1249113441590203, 0.10374024025269465, 0.10166280099015405]</t>
+          <t>[0.1911217803673948, 0.12482268397007977, 0.10376519897666477, 0.1017072292298587]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.201|x3: 0.000|x4: 0.214|x5: 0.000|x6: 0.094|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.124|x12: 0.112|x13: 0.099|x14: 0.000|x15: 0.122|x16: 0.137|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.200|x3: 0.000|x4: 0.214|x5: 0.000|x6: 0.093|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.124|x12: 0.112|x13: 0.099|x14: 0.000|x15: 0.122|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.21390523438503545, 0.20051999364663756, 0.13672538840640933, 0.12362027256363403, 0.12175302327993742, 0.11169160562944416]</t>
+          <t>[0.21382371644460976, 0.2004717137659369, 0.13669335174380218, 0.1236064660762062, 0.12172248956194141, 0.11169928733148266]</t>
         </is>
       </c>
       <c r="H59" t="b">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.2104157052579789, 0.2031000141846037, 0.19597622073492402, 0.18793692011704127, 0.15304597868400086, 0.11020985077833069]</t>
+          <t>[0.21033556766229314, 0.20306085134962973, 0.19592049016266017, 0.18792094099351286, 0.1529879406402402, 0.11019820613501208]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.209|x3: 0.071|x4: 0.140|x5: 0.171|x6: 0.269|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.104|x11: 0.056|x12: 0.075|x13: 0.150|x14: 0.233|x15: 0.263|x16: 0.292|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.209|x3: 0.071|x4: 0.140|x5: 0.171|x6: 0.269|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.103|x11: 0.056|x12: 0.075|x13: 0.150|x14: 0.233|x15: 0.263|x16: 0.292|x17: 0.000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.29197903791653407, 0.2691730285212776, 0.26317474572715793, 0.2327278492754646, 0.20893570542358986, 0.17064920651929594, 0.15038427074212435, 0.1400502573396194, 0.10351299644241035]</t>
+          <t>[0.2919417948760508, 0.2692102070079609, 0.26315111859394746, 0.2327998878879262, 0.20889213693455744, 0.17060764078848326, 0.15029638678932544, 0.14005422767943346, 0.10345812593966675]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2951,7 +2951,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>x1: 0.059|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.085|x6: 0.056|x7: 0.164|x8: 0.181|x9: 0.058|x10: 0.000|x11: 0.000|x12: 0.172|x13: 0.073|x14: 0.192|x15: 0.238|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.059|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.085|x6: 0.055|x7: 0.164|x8: 0.181|x9: 0.058|x10: 0.000|x11: 0.000|x12: 0.172|x13: 0.073|x14: 0.192|x15: 0.238|x16: 0.082|x17: 0.000</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.23798376357314552, 0.19224660144838338, 0.18111115043776024, 0.17192695471615785, 0.16366363116026042, 0.10078784790706322]</t>
+          <t>[0.2379192467360444, 0.19224381036622484, 0.18136917309425646, 0.17178811956720555, 0.16378843048316605, 0.10053502632683084]</t>
         </is>
       </c>
       <c r="H62" t="b">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.070|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.239|x6: 0.054|x7: 0.127|x8: 0.133|x9: 0.169|x10: 0.052|x11: 0.418|x12: 0.149|x13: 0.000|x14: 0.132|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.070|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.239|x6: 0.054|x7: 0.127|x8: 0.133|x9: 0.169|x10: 0.052|x11: 0.418|x12: 0.149|x13: 0.000|x14: 0.131|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.41842544247149327, 0.2385265972789709, 0.16921646643176344, 0.14902453901534632, 0.13341293236535665, 0.13151915198953676, 0.12715939625127087]</t>
+          <t>[0.41840483437152876, 0.2385081638835562, 0.169212893056329, 0.14906464910021036, 0.13348957340572154, 0.13143887041885272, 0.12716539334687788]</t>
         </is>
       </c>
       <c r="H63" t="b">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[0.36016321079297403, 0.26872891844574315, 0.2313372117603742, 0.20477661889380883, 0.1708314657056119, 0.15224571523041433, 0.15205753961327673, 0.1355360084525009, 0.11130239918693118, 0.10849246004473655]</t>
+          <t>[0.360124897363991, 0.2686637900184635, 0.23125300457387132, 0.20475472491741306, 0.17079265169963223, 0.152155887510923, 0.15203485070562364, 0.1355081370907499, 0.11131415887880142, 0.10843435041768328]</t>
         </is>
       </c>
       <c r="H64" t="b">
@@ -3074,7 +3074,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.046|x3: 0.000|x4: 0.068|x5: 0.106|x6: 0.178|x7: 0.145|x8: 0.000|x9: 0.000|x10: 0.038|x11: 0.033|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.090|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.046|x3: 0.000|x4: 0.068|x5: 0.106|x6: 0.178|x7: 0.145|x8: 0.000|x9: 0.000|x10: 0.038|x11: 0.033|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.091|x17: 0.000</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.17837774398936193, 0.1446726174642648, 0.1056985420764763]</t>
+          <t>[0.17836779092637353, 0.14464954714220937, 0.10569297034581317]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.13639389244670533, 0.11352856657891028]</t>
+          <t>[0.1364339516474891, 0.1135420832313943]</t>
         </is>
       </c>
       <c r="H66" t="b">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.000|x3: 0.000|x4: 0.192|x5: 0.183|x6: 0.000|x7: 0.165|x8: 0.123|x9: 0.060|x10: 0.000|x11: 0.173|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.138|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.000|x3: 0.000|x4: 0.192|x5: 0.183|x6: 0.000|x7: 0.165|x8: 0.123|x9: 0.059|x10: 0.000|x11: 0.173|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.138|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.19217547269772026, 0.18346790385247513, 0.17349882215788195, 0.16536029517331233, 0.1381917244623999, 0.12283120260520808]</t>
+          <t>[0.19213547254621116, 0.1834015620430546, 0.17342215995412694, 0.16527721990551222, 0.13813929275297313, 0.12276135724532143]</t>
         </is>
       </c>
       <c r="H67" t="b">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.103|x6: 0.000|x7: 0.200|x8: 0.000|x9: 0.090|x10: 0.045|x11: 0.222|x12: 0.059|x13: 0.000|x14: 0.242|x15: 0.126|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.103|x6: 0.000|x7: 0.200|x8: 0.000|x9: 0.089|x10: 0.045|x11: 0.222|x12: 0.059|x13: 0.000|x14: 0.241|x15: 0.126|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.24150479236257955, 0.2217586729537182, 0.2000614578754875, 0.12567310176252966, 0.10343788865695949]</t>
+          <t>[0.24142546596733627, 0.22166627780891038, 0.1999628511585059, 0.1256326823860608, 0.10341231784860182]</t>
         </is>
       </c>
       <c r="H68" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.19493133098631987, 0.16999384623030828, 0.13447852312529102, 0.11877127429230817]</t>
+          <t>[0.19491836326945128, 0.16996009071130877, 0.13444575563161765, 0.11873480893992736]</t>
         </is>
       </c>
       <c r="H69" t="b">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.045|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.316|x8: 0.000|x9: 0.116|x10: 0.000|x11: 0.156|x12: 0.114|x13: 0.163|x14: 0.076|x15: 0.081|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.045|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.315|x8: 0.000|x9: 0.116|x10: 0.000|x11: 0.156|x12: 0.114|x13: 0.163|x14: 0.076|x15: 0.081|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.3155071824410713, 0.1630675047798418, 0.15584639480407766, 0.11558522733338714, 0.11404577904041638]</t>
+          <t>[0.31549796615720604, 0.16305484489429029, 0.15587339233591388, 0.11556683803368227, 0.11406095025019318]</t>
         </is>
       </c>
       <c r="H71" t="b">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.12988631242239837, 0.12663680096776797]</t>
+          <t>[0.12977862385652042, 0.126539346419247]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.17533406414361438, 0.15237676635825945, 0.13056778368035152, 0.1114706915180356, 0.10988552574981406, 0.10607873305862507]</t>
+          <t>[0.17532682848873773, 0.15237859258996353, 0.13056512957154554, 0.11148981664451661, 0.1099034745607726, 0.10608998052115017]</t>
         </is>
       </c>
       <c r="H73" t="b">
@@ -3443,7 +3443,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>x1: 0.202|x2: 0.090|x3: 0.000|x4: 0.348|x5: 0.077|x6: 0.000|x7: 0.107|x8: 0.172|x9: 0.228|x10: 0.149|x11: 0.094|x12: 0.000|x13: 0.096|x14: 0.077|x15: 0.052|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.202|x2: 0.089|x3: 0.000|x4: 0.348|x5: 0.077|x6: 0.000|x7: 0.107|x8: 0.172|x9: 0.228|x10: 0.149|x11: 0.094|x12: 0.000|x13: 0.096|x14: 0.077|x15: 0.052|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.3482740599806329, 0.2276731745125236, 0.2016722310361657, 0.17173275717977582, 0.14926304818864458, 0.10674215339463382]</t>
+          <t>[0.3483615779347485, 0.22771976368857702, 0.20165660503116345, 0.1718481389699349, 0.14925024069887366, 0.10684090347432634]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.21422247363125718, 0.16640549123522064, 0.14742327548789413, 0.14338926566541244, 0.1354139882165288, 0.11346307225320085, 0.1038929150096094]</t>
+          <t>[0.21415933433073323, 0.16633703817766066, 0.14738386447011342, 0.14341085680840365, 0.13542703942748738, 0.11342924657722475, 0.1038653018246173]</t>
         </is>
       </c>
       <c r="H75" t="b">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.075|x5: 0.059|x6: 0.000|x7: 0.183|x8: 0.000|x9: 0.106|x10: 0.078|x11: 0.000|x12: 0.125|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.170|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.076|x5: 0.059|x6: 0.000|x7: 0.183|x8: 0.000|x9: 0.106|x10: 0.078|x11: 0.000|x12: 0.125|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.170|x17: 0.000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.18256121993331603, 0.16979967301634358, 0.12452942218065471, 0.10593501561803294]</t>
+          <t>[0.1825631222505076, 0.1698704074044677, 0.12451446044888001, 0.10590442291615906]</t>
         </is>
       </c>
       <c r="H76" t="b">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.142|x4: 0.135|x5: 0.158|x6: 0.064|x7: 0.180|x8: 0.188|x9: 0.000|x10: 0.110|x11: 0.099|x12: 0.070|x13: 0.171|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.142|x4: 0.135|x5: 0.158|x6: 0.064|x7: 0.180|x8: 0.188|x9: 0.000|x10: 0.109|x11: 0.099|x12: 0.070|x13: 0.171|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.18760368371621436, 0.17976043935027036, 0.1711827966494027, 0.1583097528486393, 0.14210929557622043, 0.13486852012703876, 0.10954061346541216]</t>
+          <t>[0.18751493233961342, 0.1796310575714778, 0.1710253281788414, 0.15824172915762508, 0.14213968923563108, 0.13476015297444363, 0.1094337190562502]</t>
         </is>
       </c>
       <c r="H77" t="b">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.1722921034206626, 0.1660300107494675, 0.1156938194076585, 0.11487038596547987]</t>
+          <t>[0.1722690970613386, 0.16604670139688754, 0.11573574099100649, 0.11493099627265303]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.075|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.053|x6: 0.000|x7: 0.257|x8: 0.000|x9: 0.129|x10: 0.040|x11: 0.246|x12: 0.088|x13: 0.222|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.053|x6: 0.000|x7: 0.257|x8: 0.000|x9: 0.129|x10: 0.040|x11: 0.245|x12: 0.088|x13: 0.222|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.2570899325802916, 0.24553431850219984, 0.22170808244496867, 0.12872942556885741]</t>
+          <t>[0.25702260933366655, 0.24546785631635887, 0.22160242144494216, 0.12859331379242034]</t>
         </is>
       </c>
       <c r="H80" t="b">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.10276524594566049]</t>
+          <t>[0.10276782965234049]</t>
         </is>
       </c>
       <c r="H81" t="b">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.24564457956697536, 0.2095604929211697, 0.1359326100247524, 0.12958444977814612, 0.11917365942146572, 0.10203208308078707]</t>
+          <t>[0.24558147885873463, 0.20950493053881092, 0.13595172359569635, 0.12953813160715283, 0.1191458130517178, 0.10200556004004253]</t>
         </is>
       </c>
       <c r="H82" t="b">
@@ -3812,7 +3812,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.085|x3: 0.000|x4: 0.049|x5: 0.000|x6: 0.032|x7: 0.086|x8: 0.000|x9: 0.071|x10: 0.029|x11: 0.000|x12: 0.044|x13: 0.085|x14: 0.099|x15: 0.000|x16: 0.056|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.086|x3: 0.000|x4: 0.049|x5: 0.000|x6: 0.032|x7: 0.086|x8: 0.000|x9: 0.071|x10: 0.029|x11: 0.000|x12: 0.044|x13: 0.085|x14: 0.099|x15: 0.000|x16: 0.056|x17: 0.000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.30203144534201304, 0.2864004173091085, 0.2218702561395528, 0.15004577361884497, 0.11637859192563205]</t>
+          <t>[0.30199891417212504, 0.28631968917967965, 0.22180919029955976, 0.15011527755611387, 0.11633376638011905]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.187|x2: 0.038|x3: 0.119|x4: 0.180|x5: 0.115|x6: 0.000|x7: 0.000|x8: 0.126|x9: 0.000|x10: 0.244|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.182|x17: 0.000</t>
+          <t>x1: 0.187|x2: 0.038|x3: 0.119|x4: 0.180|x5: 0.115|x6: 0.000|x7: 0.000|x8: 0.125|x9: 0.000|x10: 0.243|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.182|x17: 0.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.2435262666777571, 0.18710869001688285, 0.18212335738362204, 0.1802124337484893, 0.12553390138134427, 0.1191190464936784, 0.1147821126740512]</t>
+          <t>[0.2434629432161439, 0.18691794750532909, 0.18202352492629573, 0.18020453895228367, 0.12544922221578042, 0.1190597088758915, 0.11476433113069971]</t>
         </is>
       </c>
       <c r="H85" t="b">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.22401493455580157, 0.1700884926762084, 0.16704212829585255, 0.14533318091474712, 0.1438133498391974, 0.11318079136869649, 0.1008391044169733]</t>
+          <t>[0.2240186952603624, 0.17005883627782048, 0.16704028127564913, 0.14527308671210207, 0.1438336861852924, 0.11319876900285523, 0.10086854271934878]</t>
         </is>
       </c>
       <c r="H86" t="b">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.1874023548771228, 0.16447915082867598, 0.16107692000423232, 0.14060983945794522, 0.12345483607930392, 0.11029333188513324]</t>
+          <t>[0.18737392365173794, 0.16444541809624896, 0.16106627764792877, 0.14062218336457002, 0.12342212239199454, 0.11028794131610771]</t>
         </is>
       </c>
       <c r="H87" t="b">
@@ -4017,7 +4017,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>x1: 0.091|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.118|x8: 0.000|x9: 0.109|x10: 0.092|x11: 0.340|x12: 0.266|x13: 0.081|x14: 0.053|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.091|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.118|x8: 0.000|x9: 0.109|x10: 0.092|x11: 0.340|x12: 0.265|x13: 0.081|x14: 0.053|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[0.3403100990582414, 0.26555589824631254, 0.11846484246206518, 0.10864508518134589]</t>
+          <t>[0.3402069045593951, 0.2654750764573583, 0.11842406715749561, 0.10858714265570932]</t>
         </is>
       </c>
       <c r="H88" t="b">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.3010624018811958, 0.20304564430763988, 0.13082461268876636, 0.12702646772663043, 0.10777843627274704, 0.10306564259413166]</t>
+          <t>[0.300981631085648, 0.20297095252159508, 0.1308021710226928, 0.12698527364265078, 0.10776781563920619, 0.10305258270370718]</t>
         </is>
       </c>
       <c r="H89" t="b">
@@ -4099,7 +4099,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.082|x3: 0.000|x4: 0.000|x5: 0.054|x6: 0.000|x7: 0.432|x8: 0.000|x9: 0.151|x10: 0.129|x11: 0.232|x12: 0.208|x13: 0.296|x14: 0.108|x15: 0.051|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.083|x3: 0.000|x4: 0.000|x5: 0.054|x6: 0.000|x7: 0.432|x8: 0.000|x9: 0.151|x10: 0.129|x11: 0.232|x12: 0.208|x13: 0.296|x14: 0.108|x15: 0.051|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.43216632991957643, 0.29559816630097663, 0.23171494858283526, 0.2082680823323614, 0.15106601508532608, 0.12938695673323275, 0.10754577290655139]</t>
+          <t>[0.43203729481154285, 0.2955409168333029, 0.2316147674556821, 0.2082185566678866, 0.15098515568670165, 0.12935009755570512, 0.1075145657431316]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.242|x2: 0.221|x3: 0.000|x4: 0.098|x5: 0.073|x6: 0.128|x7: 0.286|x8: 0.345|x9: 0.288|x10: 0.259|x11: 0.140|x12: 0.311|x13: 0.072|x14: 0.075|x15: 0.000|x16: 0.137|x17: 0.000</t>
+          <t>x1: 0.242|x2: 0.221|x3: 0.000|x4: 0.098|x5: 0.073|x6: 0.128|x7: 0.286|x8: 0.345|x9: 0.288|x10: 0.259|x11: 0.140|x12: 0.310|x13: 0.072|x14: 0.075|x15: 0.000|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.3452006293782537, 0.3105038119567335, 0.2878900914483201, 0.28559697351723357, 0.25869057158999365, 0.24159692865934296, 0.2210518614559932, 0.1399276594279566, 0.13749178018426977, 0.12759118829878532]</t>
+          <t>[0.34514780668259487, 0.31038676929160774, 0.28785251639826837, 0.28555611672795306, 0.2586783784360837, 0.24158707525734047, 0.2210612882249464, 0.1399093895311221, 0.13742704505124614, 0.12758113532586235]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.195|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.136|x10: 0.160|x11: 0.000|x12: 0.162|x13: 0.225|x14: 0.098|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.195|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.136|x10: 0.159|x11: 0.000|x12: 0.162|x13: 0.225|x14: 0.098|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.22530536628750564, 0.1953608495105341, 0.16163851684173847, 0.15954022090981768, 0.1364407822412012]</t>
+          <t>[0.22524861170822547, 0.19529973273770676, 0.16150030863931863, 0.15948670032064727, 0.1364257320218893]</t>
         </is>
       </c>
       <c r="H93" t="b">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.2796387892257969, 0.19338183707361256, 0.18127254157511008, 0.15148308644454128, 0.15104823944352647, 0.13652626626560443, 0.12508345947628072, 0.12216317287252437]</t>
+          <t>[0.27963252012362183, 0.19334016637647014, 0.181273925483207, 0.15149306853855682, 0.15101932970594525, 0.13654120887318963, 0.12507899799976852, 0.12220355787346956]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.3486990325190081, 0.28112052124134185, 0.27472689602282807, 0.2342415988107369, 0.19338113931002007, 0.1795901760278335, 0.1414034707145032, 0.13464690985768815]</t>
+          <t>[0.34867920554997434, 0.2811568989394984, 0.2746798384118831, 0.23422349224849134, 0.19337839931257567, 0.17958264895567555, 0.1414006668473885, 0.13467155068810244]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.19390396544452634, 0.1724661162725167, 0.16768833632395067, 0.1470002794133659, 0.13772494017975392, 0.10992669034874167]</t>
+          <t>[0.193837718152164, 0.1724070873957832, 0.16761691545473376, 0.1469634018861703, 0.13769733299745707, 0.10995014218349178]</t>
         </is>
       </c>
       <c r="H96" t="b">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.11736599969366833]</t>
+          <t>[0.11737225621437525]</t>
         </is>
       </c>
       <c r="H97" t="b">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.20644850112999147, 0.20495117058180284, 0.1783351723811049, 0.176903092341487, 0.12965649195206366, 0.12447925800178035, 0.12211047006435329, 0.11939898275424712]</t>
+          <t>[0.20635661176464243, 0.20492410725495605, 0.1782610012726878, 0.17689765363217969, 0.12955991534763284, 0.1244610749831271, 0.12208677844238179, 0.11937111753721633]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.059|x3: 0.000|x4: 0.099|x5: 0.045|x6: 0.000|x7: 0.198|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.151|x12: 0.065|x13: 0.124|x14: 0.084|x15: 0.078|x16: 0.092|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.059|x3: 0.000|x4: 0.099|x5: 0.045|x6: 0.000|x7: 0.198|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.150|x12: 0.065|x13: 0.124|x14: 0.084|x15: 0.078|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.1975357054206752, 0.15051009584545702, 0.12443586923331879]</t>
+          <t>[0.19753175171511178, 0.15047146657665705, 0.12439193654379216]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.13516894416972094, 0.12949752269430992]</t>
+          <t>[0.13517818111598023, 0.1294388637495069]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.17547160588433894, 0.11891385362807656]</t>
+          <t>[0.17549687610852183, 0.11890011407301275]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.160|x8: 0.000|x9: 0.199|x10: 0.081|x11: 0.214|x12: 0.208|x13: 0.183|x14: 0.094|x15: 0.103|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.160|x8: 0.000|x9: 0.198|x10: 0.081|x11: 0.214|x12: 0.208|x13: 0.183|x14: 0.093|x15: 0.103|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.21406544772437494, 0.20836296528792678, 0.1985756609984817, 0.1826375786172596, 0.16035414716790966, 0.1029446719021082]</t>
+          <t>[0.21399594578281209, 0.20833621809082248, 0.19849835000808713, 0.18256568544430776, 0.1603322165517313, 0.1028917036357077]</t>
         </is>
       </c>
       <c r="H102" t="b">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.31259534073291617, 0.2680662395179102, 0.23732194097321274, 0.1928971245113762, 0.15662198445821301, 0.14215697749188666, 0.11349599556858872, 0.10290631185725131]</t>
+          <t>[0.31256927151996633, 0.26805086229922254, 0.23731067519926818, 0.19293050323175215, 0.15661229931752096, 0.14213236917122304, 0.11342990959375786, 0.10287484494484422]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.20848568661374026, 0.16122291384176038, 0.15046567217511259, 0.12434960206485712]</t>
+          <t>[0.20840950805045272, 0.16116790845489556, 0.15041243859321676, 0.12429688526758481]</t>
         </is>
       </c>
       <c r="H104" t="b">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.2784579567078898, 0.26412813985139627, 0.20073095545770356, 0.1234493130597965, 0.10603963603747996]</t>
+          <t>[0.2784391023578713, 0.2641186109791841, 0.2007247681068474, 0.12344548697380833, 0.10606128111812406]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.2097177728819595, 0.11357355328510016]</t>
+          <t>[0.20973854034346312, 0.11360588537609265]</t>
         </is>
       </c>
       <c r="H106" t="b">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.2992569648422475, 0.19540785023180576, 0.14048905832617611, 0.1281030745791428, 0.12686193330539075, 0.10680246666075381]</t>
+          <t>[0.299237705139377, 0.19537317649051014, 0.1404949681916979, 0.12810738868849175, 0.126876270929063, 0.10678487452011148]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.13757433622322648, 0.13746089544993226, 0.13481687504350942, 0.1308056898882775]</t>
+          <t>[0.13762741368809536, 0.13742603630456063, 0.1348149322508309, 0.13079081396152403]</t>
         </is>
       </c>
       <c r="H108" t="b">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.2787225703935926, 0.16791398073256864, 0.14465096297313523, 0.13793122847607653, 0.12769059098873273, 0.10710418318313088]</t>
+          <t>[0.27864255850576697, 0.16785183917032848, 0.14463488679348635, 0.13788936788855768, 0.12767500574770638, 0.10705329000150385]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.144|x2: 0.000|x3: 0.093|x4: 0.090|x5: 0.000|x6: 0.101|x7: 0.000|x8: 0.055|x9: 0.085|x10: 0.000|x11: 0.000|x12: 0.149|x13: 0.070|x14: 0.306|x15: 0.151|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.144|x2: 0.000|x3: 0.093|x4: 0.090|x5: 0.000|x6: 0.101|x7: 0.000|x8: 0.055|x9: 0.085|x10: 0.000|x11: 0.000|x12: 0.149|x13: 0.070|x14: 0.305|x15: 0.151|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.3055390828334609, 0.15059916798749168, 0.1491579568185213, 0.1442357688575786, 0.1012135641309904]</t>
+          <t>[0.3054715943227515, 0.15054259225166072, 0.14912191006052286, 0.14420114422877767, 0.10119515851064687]</t>
         </is>
       </c>
       <c r="H111" t="b">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.19284589734300236, 0.1510422075619443, 0.11902963094940977, 0.11016691819466241]</t>
+          <t>[0.19279483381736878, 0.1509807302073289, 0.11902237902728074, 0.1101140287524657]</t>
         </is>
       </c>
       <c r="H112" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.1942468942482122, 0.16594743977485996, 0.12491770626220287, 0.11734817402451375, 0.11586389783756186, 0.11105751174160611, 0.10335082326582236]</t>
+          <t>[0.1942134419058795, 0.1659576110302487, 0.12489170603138386, 0.1173235125830718, 0.11586044893315944, 0.11109185308834758, 0.10331032856892375]</t>
         </is>
       </c>
       <c r="H113" t="b">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.21549039981514034, 0.1437953510392972, 0.13872450644150705, 0.13183565385062268, 0.11100371597249069]</t>
+          <t>[0.21539101011537623, 0.14377072933746463, 0.1386980770402342, 0.13181855697220912, 0.11094959961901837]</t>
         </is>
       </c>
       <c r="H114" t="b">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.19837816653414736, 0.17276008014868818, 0.16381292606920406, 0.13985850733560867, 0.13679670083931864, 0.13518161968558262, 0.1087960455468261]</t>
+          <t>[0.19837793282682797, 0.17276255613533742, 0.16380531398573808, 0.13984408524456854, 0.13681739655916256, 0.13516365183465529, 0.10881599814761692]</t>
         </is>
       </c>
       <c r="H115" t="b">
@@ -5165,7 +5165,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.058|x6: 0.111|x7: 0.141|x8: 0.047|x9: 0.078|x10: 0.067|x11: 0.145|x12: 0.077|x13: 0.143|x14: 0.113|x15: 0.146|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.125|x5: 0.058|x6: 0.111|x7: 0.141|x8: 0.047|x9: 0.078|x10: 0.067|x11: 0.144|x12: 0.077|x13: 0.143|x14: 0.113|x15: 0.146|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.14641546413573558, 0.14452462445524691, 0.14316462527098187, 0.14071854037771223, 0.124566578121766, 0.11316402600765621, 0.11110900333527393]</t>
+          <t>[0.1464052988713656, 0.1444914390865714, 0.1431339213955447, 0.14070040339973255, 0.12452952476757746, 0.11314861941731334, 0.11107631756557709]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.21771999529002994, 0.1833205449282474, 0.18299163634431406, 0.11093007773849793]</t>
+          <t>[0.21762815131700236, 0.1832482144035115, 0.18290641139260466, 0.11091555753869059]</t>
         </is>
       </c>
       <c r="H117" t="b">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.16397918821217103, 0.12066069256959436]</t>
+          <t>[0.16397901927072275, 0.12065181293525121]</t>
         </is>
       </c>
       <c r="H118" t="b">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.23115776869890745, 0.16053415950109248, 0.1501865537246298, 0.1359809437251989, 0.10477198156814374, 0.10230417014097314]</t>
+          <t>[0.23119055611341982, 0.1605702173871765, 0.15021548229300657, 0.1359762168245266, 0.10478161803859784, 0.10229636676940214]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.25246100977353114, 0.22979202338680157, 0.18842310075640417, 0.17379768297933285, 0.12808982293792257, 0.12180027099642769, 0.10821470123829212, 0.1007856088676124]</t>
+          <t>[0.2523750262433024, 0.22972429254491702, 0.18840607130949474, 0.1737796828672988, 0.1280810647707028, 0.12178684903774879, 0.1081932324034189, 0.10075669132951852]</t>
         </is>
       </c>
       <c r="H120" t="b">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.3439647708965254, 0.2636797821451056, 0.21768403729174268, 0.18548282644679803, 0.18481839950109277, 0.17162841776028867, 0.1708319240797083, 0.14930254002288781, 0.1280923206713785, 0.11446744733294004, 0.10519545046497322]</t>
+          <t>[0.343983159863012, 0.26364525835815206, 0.21763566890304864, 0.18546264625316203, 0.18480033457901296, 0.17161715609219788, 0.1708815928702008, 0.1493386638615109, 0.1281415116341177, 0.11446620775675793, 0.10518440431418742]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.20060727877314924, 0.16548351617933754, 0.13800732125998594, 0.13699829255629614, 0.12028187112791798, 0.10536287533876552]</t>
+          <t>[0.20059143937522902, 0.1654356046016974, 0.13796265833366486, 0.13696699557375663, 0.12026817421939404, 0.10534170514082405]</t>
         </is>
       </c>
       <c r="H122" t="b">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.2403680906480422, 0.2074307049301308, 0.1973887566694562, 0.11469375285094967, 0.1047772097885108, 0.10010269681861934]</t>
+          <t>[0.24035840783929285, 0.20736494867448232, 0.19735389688198635, 0.11460352283103803, 0.10477204706495075, 0.10013173429069061]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[0.1391211660422729, 0.11446992200200559, 0.10456707456377505]</t>
+          <t>[0.13911594232361582, 0.11445832568177185, 0.10457704894060979]</t>
         </is>
       </c>
       <c r="H124" t="b">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.2302885116729449, 0.1953032835586525, 0.16791742852786068, 0.14137219749366037, 0.1249053335966223, 0.1147064614880404, 0.10679090052110657]</t>
+          <t>[0.23029147160840938, 0.19537726414770215, 0.16794917358304232, 0.14137367479854474, 0.12491334814329931, 0.11471147778721849, 0.10679840352710641]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5575,7 +5575,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.000|x6: 0.000|x7: 0.193|x8: 0.000|x9: 0.000|x10: 0.057|x11: 0.339|x12: 0.000|x13: 0.161|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.089|x5: 0.000|x6: 0.000|x7: 0.193|x8: 0.000|x9: 0.000|x10: 0.057|x11: 0.339|x12: 0.000|x13: 0.161|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[0.3391098595722287, 0.19288726762398553, 0.1608303859072676]</t>
+          <t>[0.3389352054303589, 0.1928238778965963, 0.16082385193062715]</t>
         </is>
       </c>
       <c r="H126" t="b">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.18812054908122827, 0.17997321586479562, 0.17798474476750392, 0.17174339504139483, 0.14437115187818658, 0.1412056061169311, 0.12227687550270643, 0.10522246099375951]</t>
+          <t>[0.18811922053412816, 0.1799775452801902, 0.17796051016043768, 0.17170017771545307, 0.14435551520270373, 0.1411489104869757, 0.12233171718551097, 0.10520906824545667]</t>
         </is>
       </c>
       <c r="H127" t="b">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.155|x3: 0.000|x4: 0.000|x5: 0.137|x6: 0.062|x7: 0.181|x8: 0.000|x9: 0.166|x10: 0.077|x11: 0.259|x12: 0.070|x13: 0.070|x14: 0.000|x15: 0.059|x16: 0.069|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.155|x3: 0.000|x4: 0.000|x5: 0.137|x6: 0.062|x7: 0.181|x8: 0.000|x9: 0.166|x10: 0.077|x11: 0.259|x12: 0.070|x13: 0.070|x14: 0.000|x15: 0.058|x16: 0.069|x17: 0.000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.25901242124431884, 0.181254582127622, 0.1659804678575374, 0.15508215480446927, 0.13718873785398802]</t>
+          <t>[0.2590020188839104, 0.1812424978837125, 0.16596948415931634, 0.15501464373155568, 0.13717394136786445]</t>
         </is>
       </c>
       <c r="H128" t="b">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.14864122125633347, 0.12536932846169857, 0.11696745829451058]</t>
+          <t>[0.14864836267181325, 0.12537848822455078, 0.11697197952828403]</t>
         </is>
       </c>
       <c r="H129" t="b">
@@ -5739,7 +5739,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.051|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.160|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.084|x12: 0.000|x13: 0.054|x14: 0.171|x15: 0.092|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.051|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.160|x8: 0.000|x9: 0.057|x10: 0.000|x11: 0.084|x12: 0.000|x13: 0.054|x14: 0.170|x15: 0.092|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.17050653204055527, 0.15961434960981952]</t>
+          <t>[0.17045957697030445, 0.15959502558248312]</t>
         </is>
       </c>
       <c r="H130" t="b">
@@ -5780,7 +5780,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>x1: 0.150|x2: 0.000|x3: 0.237|x4: 0.116|x5: 0.053|x6: 0.169|x7: 0.316|x8: 0.151|x9: 0.077|x10: 0.067|x11: 0.054|x12: 0.000|x13: 0.096|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.150|x2: 0.000|x3: 0.237|x4: 0.116|x5: 0.052|x6: 0.169|x7: 0.316|x8: 0.151|x9: 0.077|x10: 0.066|x11: 0.054|x12: 0.000|x13: 0.096|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.3160247436945101, 0.2371764424435209, 0.16930735273593125, 0.15071191779587179, 0.15030896156206477, 0.11621315416781948]</t>
+          <t>[0.3160701336045129, 0.23719232395861972, 0.1694064248291309, 0.1506248409563075, 0.15011957779152618, 0.11622111558578874]</t>
         </is>
       </c>
       <c r="H131" t="b">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.23190597450420003, 0.17047740487681884, 0.16481015435517263, 0.14140271782896563]</t>
+          <t>[0.23187122858727063, 0.17041787547643622, 0.1647975365563112, 0.14135708593604548]</t>
         </is>
       </c>
       <c r="H132" t="b">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.19680257672568433, 0.1916402450801697, 0.11799216748989012, 0.1051293366063216, 0.10093842906372831]</t>
+          <t>[0.19665821915439607, 0.19152721525300587, 0.11797691409944092, 0.10509069382296098, 0.1008676251888522]</t>
         </is>
       </c>
       <c r="H133" t="b">
@@ -5903,7 +5903,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.208|x3: 0.290|x4: 0.000|x5: 0.083|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.243|x10: 0.104|x11: 0.153|x12: 0.428|x13: 0.076|x14: 0.192|x15: 0.000|x16: 0.089|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.208|x3: 0.290|x4: 0.000|x5: 0.083|x6: 0.000|x7: 0.000|x8: 0.132|x9: 0.243|x10: 0.105|x11: 0.153|x12: 0.428|x13: 0.076|x14: 0.192|x15: 0.000|x16: 0.089|x17: 0.000</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.4276974551399936, 0.2898541664200891, 0.2426485871650289, 0.2079107927211161, 0.19166628547317982, 0.15258919961161999, 0.1323591758101888, 0.10442683093624468]</t>
+          <t>[0.4276667566410811, 0.2898663779932312, 0.24262593507590258, 0.20796412997510844, 0.19158149200104926, 0.15265084898436712, 0.13241261075577437, 0.10463118534851988]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.17409712588430443, 0.1379170237643833, 0.1362114128743975, 0.10528532264573379]</t>
+          <t>[0.17411516808701774, 0.1379594886209405, 0.13621485989516563, 0.10532918854464421]</t>
         </is>
       </c>
       <c r="H135" t="b">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.162957506147837, 0.13619529993783355, 0.11853435271629519, 0.10820317022310534, 0.1058748488205964]</t>
+          <t>[0.1629278766713382, 0.13617139946858403, 0.11859204569609492, 0.1082492816608775, 0.10585484073369505]</t>
         </is>
       </c>
       <c r="H136" t="b">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.353575635750656, 0.2258912328491566, 0.18185870775800506, 0.163610627180608, 0.1449817129966442, 0.13340087441491572]</t>
+          <t>[0.3535613966005666, 0.22581887066716033, 0.18177741177888565, 0.1635588558691377, 0.1449455690205885, 0.13340602922674608]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.3588885332724764, 0.15174128873473544, 0.11830382702379921]</t>
+          <t>[0.3588002118394718, 0.15173582244821054, 0.11825506653706405]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.17945761593995063, 0.13659972767219516, 0.11202030238558841]</t>
+          <t>[0.1794376870681539, 0.13656300909651173, 0.11195569776929147]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6149,7 +6149,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>x1: 0.051|x2: 0.225|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.134|x7: 0.129|x8: 0.060|x9: 0.096|x10: 0.000|x11: 0.144|x12: 0.096|x13: 0.216|x14: 0.094|x15: 0.216|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.051|x2: 0.225|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.134|x7: 0.129|x8: 0.060|x9: 0.096|x10: 0.000|x11: 0.144|x12: 0.097|x13: 0.216|x14: 0.094|x15: 0.216|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.22472918149444657, 0.21603209935446271, 0.21598744017379093, 0.14376464467047684, 0.1336680073570068, 0.12931629447067294]</t>
+          <t>[0.22471348774165395, 0.21600958124977188, 0.21600588603742682, 0.14377458118713485, 0.13369902931109798, 0.12934245512031434]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.144|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.229|x8: 0.000|x9: 0.206|x10: 0.220|x11: 0.101|x12: 0.054|x13: 0.250|x14: 0.152|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.144|x4: 0.000|x5: 0.000|x6: 0.086|x7: 0.229|x8: 0.000|x9: 0.205|x10: 0.220|x11: 0.101|x12: 0.054|x13: 0.251|x14: 0.152|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.2503322165634456, 0.22894957716851178, 0.22045960663333247, 0.20571721034648005, 0.1522144253921503, 0.14439714694241232, 0.10063759989934007]</t>
+          <t>[0.2505301062678912, 0.2291570327477935, 0.22047311352119203, 0.20530779277782113, 0.15241120351952586, 0.14438418431555256, 0.10088476521031645]</t>
         </is>
       </c>
       <c r="H141" t="b">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.164|x2: 0.000|x3: 0.000|x4: 0.284|x5: 0.113|x6: 0.000|x7: 0.048|x8: 0.062|x9: 0.071|x10: 0.211|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.164|x2: 0.000|x3: 0.000|x4: 0.284|x5: 0.113|x6: 0.000|x7: 0.047|x8: 0.062|x9: 0.071|x10: 0.211|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.102|x17: 0.000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.2842672490625956, 0.21140632871524365, 0.16414182480384487, 0.1128424817981771, 0.10234030838868788]</t>
+          <t>[0.2841391166702138, 0.21126209924451506, 0.16409745700906656, 0.11274525072577808, 0.10226879944210887]</t>
         </is>
       </c>
       <c r="H142" t="b">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.1862791489569407, 0.1809948487100462, 0.16449238227597765, 0.10786453691905819]</t>
+          <t>[0.18624724027604195, 0.18095964817403767, 0.16446574509098782, 0.10783576310186287]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.2913389517617367, 0.2143542332454562, 0.2098324630111644, 0.16517960102665694, 0.15558877521032044, 0.14141738674334242, 0.14035593439714283, 0.12056520116717352, 0.11642895026337356]</t>
+          <t>[0.2912823971336114, 0.2143506004852832, 0.20982836282140493, 0.16513114449219413, 0.15557219683621637, 0.1414131409638676, 0.14032880766681768, 0.1205114484961245, 0.11640945230813363]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.2791362438125915, 0.21401686483601715, 0.1987658323649456, 0.16569847249837955, 0.13685219961823172, 0.13649321265668093, 0.12137778332792723, 0.12064372454060487, 0.10963418237119242]</t>
+          <t>[0.27903016135573055, 0.2139767254658635, 0.1987429252720272, 0.1656682398736606, 0.13677929490709134, 0.13647975385350233, 0.12129582834079641, 0.12059561314136671, 0.10960969718493209]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.29011048306551196, 0.21883354090642043, 0.19271750547890365, 0.15141057360273114, 0.11611271352833469, 0.10565206178217078]</t>
+          <t>[0.2901956865687138, 0.21887922080654496, 0.19274894941030407, 0.1514371168574204, 0.11611417992611414, 0.10569273338980127]</t>
         </is>
       </c>
       <c r="H146" t="b">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.25457688839839265, 0.14924491867681247, 0.10702420079210173]</t>
+          <t>[0.2545502753127345, 0.14928287001452645, 0.10700669928511915]</t>
         </is>
       </c>
       <c r="H147" t="b">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.2043484112653574, 0.13231828796588727, 0.11171816733031173]</t>
+          <t>[0.20435095454576477, 0.13228817425044953, 0.11171037539145179]</t>
         </is>
       </c>
       <c r="H148" t="b">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.3148318185804346, 0.25176920952863185, 0.22167295968310044, 0.216891705674165, 0.2033982429436641, 0.1958652481455854, 0.16364928350018818, 0.1514104937649274, 0.13590594920872948, 0.12655541463026745]</t>
+          <t>[0.31483734415667597, 0.25183475522880394, 0.22177201735942548, 0.21694668014067417, 0.20338369310532964, 0.19593450852036737, 0.1635667877828237, 0.1513877296746072, 0.13589954693254722, 0.12654784384236473]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.15982391725286424, 0.14070641675140846, 0.10709909247672601, 0.10211348513312167]</t>
+          <t>[0.1597675932029321, 0.14062050099839085, 0.10710509370018233, 0.10208639797269821]</t>
         </is>
       </c>
       <c r="H150" t="b">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[0.22066966408442232, 0.20874573811542294, 0.15791125667224507, 0.14856769606879783, 0.10180370397477624]</t>
+          <t>[0.22062310510221017, 0.2088483866236434, 0.15789208138965755, 0.14854205648385688, 0.10173468226971534]</t>
         </is>
       </c>
       <c r="H151" t="b">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.16773596544611305, 0.1544959962691176]</t>
+          <t>[0.16771525844059892, 0.15449250013264237]</t>
         </is>
       </c>
       <c r="H153" t="b">
@@ -6723,7 +6723,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.079|x5: 0.000|x6: 0.037|x7: 0.069|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.112|x12: 0.083|x13: 0.065|x14: 0.063|x15: 0.094|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.079|x5: 0.000|x6: 0.037|x7: 0.069|x8: 0.000|x9: 0.044|x10: 0.000|x11: 0.112|x12: 0.083|x13: 0.065|x14: 0.062|x15: 0.094|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.11243181088686523]</t>
+          <t>[0.11238495929681826]</t>
         </is>
       </c>
       <c r="H154" t="b">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[0.35000514593468635, 0.2321375512280868, 0.1823243357783161, 0.14582210186378464, 0.10327719973614746, 0.10174420438819054, 0.10104681447940733]</t>
+          <t>[0.34979963660757935, 0.2319856258227095, 0.18223427957972993, 0.145766783035535, 0.10321263251492782, 0.10173177311799811, 0.10106138981063137]</t>
         </is>
       </c>
       <c r="H155" t="b">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.19390299464243388, 0.14709494755800698, 0.11228926773655844]</t>
+          <t>[0.19393046357889812, 0.14710418936022057, 0.11228367235649536]</t>
         </is>
       </c>
       <c r="H156" t="b">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.044|x6: 0.088|x7: 0.069|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.128|x12: 0.130|x13: 0.121|x14: 0.294|x15: 0.155|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.044|x6: 0.088|x7: 0.069|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.127|x12: 0.130|x13: 0.121|x14: 0.294|x15: 0.155|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[0.2942802107697298, 0.15506418767796687, 0.12985418738680732, 0.12753306131439038, 0.1211072122558809]</t>
+          <t>[0.2941983963797464, 0.15501219919592799, 0.12979586166484242, 0.127461419736853, 0.12106350458920656]</t>
         </is>
       </c>
       <c r="H158" t="b">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.24613083559374363, 0.22979574221733914, 0.1734836668848218, 0.10225459758100482]</t>
+          <t>[0.24608235989658886, 0.22968831414268054, 0.17349274975258813, 0.10221466989040859]</t>
         </is>
       </c>
       <c r="H159" t="b">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.129|x3: 0.000|x4: 0.108|x5: 0.061|x6: 0.170|x7: 0.097|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.216|x12: 0.166|x13: 0.000|x14: 0.119|x15: 0.138|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.128|x3: 0.000|x4: 0.108|x5: 0.061|x6: 0.170|x7: 0.097|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.216|x12: 0.166|x13: 0.000|x14: 0.119|x15: 0.138|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[0.21577305596461963, 0.17029475904278682, 0.16647024991353837, 0.13817773307307446, 0.12857357586998475, 0.11930467395361356, 0.10828913735665456]</t>
+          <t>[0.2156843624027661, 0.17024265552049223, 0.16640983559683947, 0.13812484051858354, 0.12848914101268022, 0.11925743355047427, 0.10829833853501859]</t>
         </is>
       </c>
       <c r="H160" t="b">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.048|x12: 0.185|x13: 0.182|x14: 0.180|x15: 0.162|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.048|x12: 0.185|x13: 0.181|x14: 0.180|x15: 0.162|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[0.18505385339485403, 0.18154848559117395, 0.18033814205814086, 0.16244231214872562]</t>
+          <t>[0.18500039687628, 0.18147481459699757, 0.1803330148115071, 0.16242449603390108]</t>
         </is>
       </c>
       <c r="H161" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[0.2398072748247898, 0.21299237071121352, 0.21068061131971333, 0.19727407853149573, 0.17714315045914877, 0.1690421308774213, 0.15100751514698302, 0.11976566688726661, 0.11912498921080483]</t>
+          <t>[0.23979542037396406, 0.21293166003391348, 0.2106876496366091, 0.19729469905709968, 0.17713091470176054, 0.16901153568411342, 0.1509975526077796, 0.11976907708052034, 0.11911348262538143]</t>
         </is>
       </c>
       <c r="H162" t="b">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0.21381938811689266, 0.1776566064190214, 0.11493113771221046]</t>
+          <t>[0.21378122151963752, 0.1776335199255995, 0.11490123419450646]</t>
         </is>
       </c>
       <c r="H163" t="b">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.24617020532292552, 0.1814889075528674, 0.121889449379014]</t>
+          <t>[0.2461293045769164, 0.1814276657734811, 0.12186904430558362]</t>
         </is>
       </c>
       <c r="H164" t="b">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0.20690958740481985, 0.20247429067229247, 0.1550327809993753, 0.15465914404562114, 0.1401034229105422, 0.12518522481058703]</t>
+          <t>[0.20684049806974425, 0.2023978530356646, 0.15492850595998525, 0.15460606735324947, 0.14007091842813438, 0.1251658799570029]</t>
         </is>
       </c>
       <c r="H165" t="b">

--- a/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
+++ b/Project_python/out/Top2vec/test_top2vec_abstractsLow_it0_0.xlsx
@@ -506,7 +506,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[0.10892643280428738]</t>
+          <t>[0.1088710017568266]</t>
         </is>
       </c>
       <c r="H2" t="b">
@@ -547,7 +547,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[0.2032568760325857, 0.19606316007474583, 0.16905687622157684, 0.15910581768456347, 0.1581272776382276, 0.13866660005188142, 0.1150230029977936, 0.11360491781029823, 0.10646242740280086]</t>
+          <t>[0.20330498843864778, 0.19612008216202587, 0.16907339813735678, 0.15914464198283265, 0.1581537363798112, 0.13866072731693838, 0.11498873596982652, 0.11362078641999866, 0.1064622397858684]</t>
         </is>
       </c>
       <c r="H3" t="b">
@@ -588,7 +588,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[0.1972026202468711, 0.195628112071551, 0.15014800443049356, 0.14085007591503984, 0.12523745141120007, 0.11668194401471674, 0.11057585291364914, 0.10029152355048314]</t>
+          <t>[0.19724346844304638, 0.19564480261785272, 0.1501756184394281, 0.14088122205186435, 0.12527194828832844, 0.11668551315665954, 0.11058109540571776, 0.10032178037999985]</t>
         </is>
       </c>
       <c r="H4" t="b">
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>x1: 0.148|x2: 0.000|x3: 0.000|x4: 0.086|x5: 0.000|x6: 0.000|x7: 0.038|x8: 0.220|x9: 0.206|x10: 0.129|x11: 0.064|x12: 0.000|x13: 0.071|x14: 0.000|x15: 0.000|x16: 0.165|x17: 0.000</t>
+          <t>x1: 0.148|x2: 0.000|x3: 0.000|x4: 0.086|x5: 0.000|x6: 0.000|x7: 0.038|x8: 0.220|x9: 0.205|x10: 0.129|x11: 0.063|x12: 0.000|x13: 0.071|x14: 0.000|x15: 0.000|x16: 0.165|x17: 0.000</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[0.21962054489747324, 0.2055199961537897, 0.16502015040303009, 0.1482726010747772, 0.1293038077016675]</t>
+          <t>[0.2195360470589998, 0.20543871189183474, 0.16503357820988582, 0.14823137865616845, 0.12929184255115111]</t>
         </is>
       </c>
       <c r="H5" t="b">
@@ -670,7 +670,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[0.13937175693498885, 0.12921681072958494, 0.1081967445061828]</t>
+          <t>[0.13938277394831758, 0.12921863364358444, 0.1082034397220742]</t>
         </is>
       </c>
       <c r="H6" t="b">
@@ -696,7 +696,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.177|x5: 0.202|x6: 0.298|x7: 0.334|x8: 0.000|x9: 0.185|x10: 0.000|x11: 0.635|x12: 0.277|x13: 0.000|x14: 0.000|x15: 0.135|x16: 0.068|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.177|x5: 0.203|x6: 0.298|x7: 0.335|x8: 0.000|x9: 0.185|x10: 0.000|x11: 0.635|x12: 0.277|x13: 0.000|x14: 0.000|x15: 0.135|x16: 0.068|x17: 0.000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[0.6346861331537318, 0.3344758487559685, 0.2976570259609622, 0.2772337077204889, 0.20247860649393756, 0.1847481501723983, 0.1773260761831529, 0.13483367116249192]</t>
+          <t>[0.634788333710132, 0.334523935036603, 0.2976551660170367, 0.27728316526255337, 0.20253547990843251, 0.1847883967121089, 0.17731948087564167, 0.1348295877422033]</t>
         </is>
       </c>
       <c r="H7" t="b">
@@ -752,7 +752,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[0.23836060499281095, 0.19237547731167684, 0.18171977076067003, 0.1791345931659252, 0.1533774171187689, 0.14451488044101593]</t>
+          <t>[0.2384113082346283, 0.19245074551728675, 0.18182613668816255, 0.1791507978976494, 0.15345586386552532, 0.14456648950447795]</t>
         </is>
       </c>
       <c r="H8" t="b">
@@ -778,7 +778,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>x1: 0.118|x2: 0.199|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.188|x11: 0.068|x12: 0.000|x13: 0.153|x14: 0.157|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.119|x2: 0.199|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.188|x11: 0.069|x12: 0.000|x13: 0.153|x14: 0.157|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -793,7 +793,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[0.19926805860225916, 0.18770093522422449, 0.15656590544552212, 0.15275064084381335, 0.11837146939219029]</t>
+          <t>[0.19938924675395758, 0.187753834146374, 0.15664630855719386, 0.15280238437234855, 0.11852318703706584]</t>
         </is>
       </c>
       <c r="H9" t="b">
@@ -819,7 +819,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.113|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.000|x8: 0.037|x9: 0.081|x10: 0.076|x11: 0.138|x12: 0.139|x13: 0.131|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.113|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.082|x7: 0.000|x8: 0.037|x9: 0.081|x10: 0.076|x11: 0.138|x12: 0.139|x13: 0.132|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -834,7 +834,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[0.1394043774284917, 0.13823923601367363, 0.13148983632527064, 0.1125424128224098]</t>
+          <t>[0.1394198813942442, 0.13826275379917638, 0.13151886804225701, 0.11257041287665752]</t>
         </is>
       </c>
       <c r="H10" t="b">
@@ -875,7 +875,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[0.18284786508314918, 0.17174443563803182, 0.16504598887821267, 0.15654018589444066, 0.15306456846060873, 0.1261060086426088, 0.10782304024691898]</t>
+          <t>[0.18288365599933273, 0.17176482634989226, 0.1650840073322991, 0.15656788177096115, 0.15303846807888563, 0.1261161744685611, 0.10790607915719405]</t>
         </is>
       </c>
       <c r="H11" t="b">
@@ -916,7 +916,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[0.20253931227671346, 0.16186644280609241, 0.15040009389534523, 0.10513204309251059]</t>
+          <t>[0.20263229193721713, 0.16197674652954858, 0.15048570998730468, 0.1051853565787647]</t>
         </is>
       </c>
       <c r="H12" t="b">
@@ -957,7 +957,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[0.2931247121148201, 0.22665108042543458, 0.19962475727563883, 0.17179580178047102, 0.13382402916978667]</t>
+          <t>[0.29308232786169247, 0.22665722274829786, 0.19956480677644542, 0.17173052370057174, 0.1337102065448364]</t>
         </is>
       </c>
       <c r="H13" t="b">
@@ -998,7 +998,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[0.21487055541940023, 0.20154310300850578, 0.1929402511515304, 0.10335739635265136, 0.10247263304561355]</t>
+          <t>[0.21490735642016093, 0.20165648233806155, 0.1929179990450807, 0.10337830803156896, 0.10244540098371928]</t>
         </is>
       </c>
       <c r="H14" t="b">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[0.4336236364421669, 0.26565657907344253, 0.2640152456797935, 0.2591708978610257, 0.1523321737687792, 0.14196063530681516]</t>
+          <t>[0.4336595289797252, 0.2656450728433861, 0.2639750364378768, 0.2591050071585192, 0.15237101867501346, 0.14198615064643674]</t>
         </is>
       </c>
       <c r="H15" t="b">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.099|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.090|x8: 0.000|x9: 0.059|x10: 0.000|x11: 0.065|x12: 0.121|x13: 0.102|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.100|x4: 0.000|x5: 0.000|x6: 0.046|x7: 0.090|x8: 0.000|x9: 0.060|x10: 0.000|x11: 0.065|x12: 0.122|x13: 0.102|x14: 0.038|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[0.12148391486052516, 0.10197598068030721]</t>
+          <t>[0.12160578425027882, 0.10204858985296829]</t>
         </is>
       </c>
       <c r="H16" t="b">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[0.2569745771644926, 0.21028595215033852, 0.19180907547531678, 0.12086573117654394, 0.11889776257009052, 0.11312275459456442]</t>
+          <t>[0.25693476166515405, 0.21034121680843748, 0.19183847110920108, 0.12086075304032967, 0.11892788032200619, 0.11314359742693354]</t>
         </is>
       </c>
       <c r="H17" t="b">
@@ -1162,7 +1162,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[0.24890368695217216, 0.19106505903288026, 0.11407484395415561, 0.10105535784700367]</t>
+          <t>[0.2489687151046642, 0.19111065176080425, 0.11412690963961333, 0.10108641583219091]</t>
         </is>
       </c>
       <c r="H18" t="b">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[0.3362521694512797, 0.20716776037464055, 0.17580715213544648, 0.16906637899281407, 0.1604481299253913, 0.15315621171932645, 0.13407450831420364, 0.1001312953786285]</t>
+          <t>[0.33626494290852255, 0.20724389357545792, 0.1758908826788329, 0.16904643474094538, 0.1604669668420317, 0.15315466722554968, 0.1341168465840356, 0.10019502907398178]</t>
         </is>
       </c>
       <c r="H19" t="b">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[0.16134256040607706, 0.1139826785793036]</t>
+          <t>[0.16137248803391102, 0.11396937806811952]</t>
         </is>
       </c>
       <c r="H20" t="b">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[0.33331931138219467, 0.17079962216079428, 0.11484631358542043, 0.11101459436913576, 0.10600467269959074]</t>
+          <t>[0.33343139327840476, 0.17090622147558487, 0.11481750407437263, 0.111110595365188, 0.10605473508736739]</t>
         </is>
       </c>
       <c r="H21" t="b">
@@ -1311,7 +1311,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.000|x3: 0.155|x4: 0.140|x5: 0.000|x6: 0.000|x7: 0.081|x8: 0.000|x9: 0.067|x10: 0.000|x11: 0.000|x12: 0.191|x13: 0.216|x14: 0.143|x15: 0.054|x16: 0.107|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.156|x4: 0.140|x5: 0.000|x6: 0.000|x7: 0.082|x8: 0.000|x9: 0.067|x10: 0.000|x11: 0.000|x12: 0.191|x13: 0.216|x14: 0.143|x15: 0.054|x16: 0.108|x17: 0.000</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>[0.21562374158872502, 0.19065956675497983, 0.1554618540850789, 0.1433420657791343, 0.14003954360892773, 0.10734332646538129]</t>
+          <t>[0.21574391153414568, 0.1908249111547758, 0.15565663150315176, 0.14337201860949333, 0.14003511369715357, 0.1075577371123989]</t>
         </is>
       </c>
       <c r="H22" t="b">
@@ -1367,7 +1367,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>[0.30630351180020887, 0.2586700384287456, 0.20380521934643067, 0.15068275141156187, 0.1460777318062951, 0.127830753447792, 0.11886314193542845]</t>
+          <t>[0.3064270314033451, 0.258875870919563, 0.20394970461864972, 0.15072621112456427, 0.14608157677498498, 0.1279115384298139, 0.11888548162797005]</t>
         </is>
       </c>
       <c r="H23" t="b">
@@ -1408,7 +1408,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>[0.19719072778026533, 0.19496726090995223, 0.17044132245492524, 0.1515897892538829, 0.1477851357962106, 0.1213543442755179, 0.11986832788684004]</t>
+          <t>[0.19721119672648973, 0.19496841681013843, 0.1704785245458169, 0.1516020855324755, 0.1478395908248427, 0.12138309364197135, 0.11989515887050174]</t>
         </is>
       </c>
       <c r="H24" t="b">
@@ -1434,7 +1434,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>x1: 0.223|x2: 0.131|x3: 0.229|x4: 0.000|x5: 0.000|x6: 0.297|x7: 0.000|x8: 0.184|x9: 0.137|x10: 0.000|x11: 0.153|x12: 0.141|x13: 0.078|x14: 0.150|x15: 0.000|x16: 0.077|x17: 0.000</t>
+          <t>x1: 0.223|x2: 0.131|x3: 0.229|x4: 0.000|x5: 0.000|x6: 0.297|x7: 0.000|x8: 0.184|x9: 0.137|x10: 0.000|x11: 0.154|x12: 0.141|x13: 0.078|x14: 0.150|x15: 0.000|x16: 0.077|x17: 0.000</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1449,7 +1449,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[0.2967335551376591, 0.2290140632161553, 0.22306810994386927, 0.18372200263752764, 0.15344029441349313, 0.1496581336761511, 0.1412134720475011, 0.13726180290211254, 0.13078408809092545]</t>
+          <t>[0.2968538826973743, 0.22907755343036834, 0.22318528318999306, 0.18379187935870916, 0.15351644052306937, 0.1497694203628117, 0.14129930762698967, 0.1372788388870175, 0.1309180981398016]</t>
         </is>
       </c>
       <c r="H25" t="b">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>[0.31439540561229606, 0.2517610520430796, 0.24540914620626963, 0.13290018873273013, 0.11579146515548915]</t>
+          <t>[0.31431716236231355, 0.2516836430949949, 0.24536715046574914, 0.13286194200072798, 0.11578473149125901]</t>
         </is>
       </c>
       <c r="H26" t="b">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[0.5009894218065251, 0.28106434680627806, 0.24802403185276176, 0.191351031199589, 0.1741167755660303, 0.16917434703281364, 0.135375145704979, 0.12168416163353847, 0.11041740533542158]</t>
+          <t>[0.5011474305528166, 0.28114042862822464, 0.24813448365796284, 0.1914843792921743, 0.1741148231220218, 0.16926150096675613, 0.13537088309613218, 0.12178673715285658, 0.11045553250237435]</t>
         </is>
       </c>
       <c r="H27" t="b">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[0.12176774472011599, 0.10982197290127424, 0.10580927271098742]</t>
+          <t>[0.12177827870958073, 0.10984280145960289, 0.10583357572766733]</t>
         </is>
       </c>
       <c r="H28" t="b">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>[0.22425210708525797, 0.135754953939026]</t>
+          <t>[0.22431724094690567, 0.13576480185552306]</t>
         </is>
       </c>
       <c r="H29" t="b">
@@ -1654,7 +1654,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>[0.18748317120665967, 0.17585722961283293, 0.1647908706727131, 0.1632041558169759, 0.15209947543774902, 0.14888937100112995, 0.12819522429276275, 0.11286070551493774]</t>
+          <t>[0.187488163144053, 0.17578752092400668, 0.16480380352480237, 0.16319671044089523, 0.15212079411339305, 0.14890036631888035, 0.12820990713908575, 0.11288310138584616]</t>
         </is>
       </c>
       <c r="H30" t="b">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.093|x7: 0.287|x8: 0.000|x9: 0.000|x10: 0.064|x11: 0.107|x12: 0.245|x13: 0.077|x14: 0.130|x15: 0.126|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.093|x7: 0.287|x8: 0.000|x9: 0.000|x10: 0.065|x11: 0.107|x12: 0.245|x13: 0.077|x14: 0.130|x15: 0.126|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>[0.28654649581275765, 0.24472866924555126, 0.1301327064020664, 0.12556721091596668, 0.1065494493464351]</t>
+          <t>[0.2866248271219312, 0.24479602457639102, 0.1300935758033261, 0.1255620693339399, 0.10657224810382478]</t>
         </is>
       </c>
       <c r="H31" t="b">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>[0.15341525335141207]</t>
+          <t>[0.1533633889167839]</t>
         </is>
       </c>
       <c r="H32" t="b">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>[0.31010681680716545, 0.17397476361350414, 0.16693052700173008, 0.15573305864750456, 0.13505536198703952, 0.13482842158999747, 0.11621026692448566]</t>
+          <t>[0.31006921427505285, 0.17414796923657647, 0.16705392361470756, 0.15571534306713444, 0.1350653140767793, 0.13492898370187503, 0.11624294880738847]</t>
         </is>
       </c>
       <c r="H33" t="b">
@@ -1803,7 +1803,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>x1: 0.062|x2: 0.084|x3: 0.139|x4: 0.101|x5: 0.089|x6: 0.092|x7: 0.000|x8: 0.000|x9: 0.103|x10: 0.092|x11: 0.045|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.061|x2: 0.084|x3: 0.139|x4: 0.101|x5: 0.089|x6: 0.092|x7: 0.000|x8: 0.000|x9: 0.103|x10: 0.092|x11: 0.045|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>[0.13910145121816858, 0.10327368417428925, 0.10074318677679794]</t>
+          <t>[0.1391463081507885, 0.10336536688588865, 0.10079838123341962]</t>
         </is>
       </c>
       <c r="H34" t="b">
@@ -1859,7 +1859,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[0.21637417120245034, 0.14999033052364236]</t>
+          <t>[0.2164890632350247, 0.15002413233763592]</t>
         </is>
       </c>
       <c r="H35" t="b">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[0.23120839881208957, 0.2107161542925949, 0.15294201659518397, 0.14896894726544244, 0.13611169198087433, 0.12096631296313895, 0.11345951380285055]</t>
+          <t>[0.23123239223023398, 0.21070097498617343, 0.15296298299797248, 0.14899229033003605, 0.13615878482591517, 0.12094988309117796, 0.1134911323449138]</t>
         </is>
       </c>
       <c r="H36" t="b">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>[0.21048607596560548, 0.20028945406030377, 0.13489032121228056, 0.12594746364937018, 0.1248835257580234, 0.11109081410858498]</t>
+          <t>[0.21048114034599158, 0.20031335439558892, 0.13493245833773318, 0.1259519069022471, 0.12486695185472738, 0.11112215536105732]</t>
         </is>
       </c>
       <c r="H37" t="b">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>x1: 0.057|x2: 0.128|x3: 0.337|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.112|x8: 0.095|x9: 0.000|x10: 0.348|x11: 0.158|x12: 0.000|x13: 0.144|x14: 0.000|x15: 0.000|x16: 0.147|x17: 0.000</t>
+          <t>x1: 0.057|x2: 0.128|x3: 0.338|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.112|x8: 0.095|x9: 0.000|x10: 0.348|x11: 0.158|x12: 0.000|x13: 0.145|x14: 0.000|x15: 0.000|x16: 0.147|x17: 0.000</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1982,7 +1982,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>[0.3479260593342777, 0.33745879590239375, 0.15801063721399228, 0.14717214880814738, 0.144490943917621, 0.12775434137790673, 0.1118131470205498]</t>
+          <t>[0.34810569505738426, 0.3376733443867303, 0.1581184424130657, 0.14714718317717557, 0.14455437171278201, 0.1276974054451003, 0.11194104644730456]</t>
         </is>
       </c>
       <c r="H38" t="b">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.023|x3: 0.046|x4: 0.000|x5: 0.036|x6: 0.118|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.137|x13: 0.000|x14: 0.028|x15: 0.054|x16: 0.082|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.023|x3: 0.046|x4: 0.000|x5: 0.036|x6: 0.118|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.080|x12: 0.137|x13: 0.000|x14: 0.028|x15: 0.054|x16: 0.081|x17: 0.000</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>[0.13695995741730596, 0.11779782082426411]</t>
+          <t>[0.13681336618836143, 0.11774209399000121]</t>
         </is>
       </c>
       <c r="H39" t="b">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>x1: 0.097|x2: 0.000|x3: 0.000|x4: 0.201|x5: 0.250|x6: 0.000|x7: 0.152|x8: 0.105|x9: 0.154|x10: 0.178|x11: 0.000|x12: 0.366|x13: 0.136|x14: 0.292|x15: 0.000|x16: 0.099|x17: 0.000</t>
+          <t>x1: 0.097|x2: 0.000|x3: 0.000|x4: 0.201|x5: 0.250|x6: 0.000|x7: 0.152|x8: 0.104|x9: 0.154|x10: 0.178|x11: 0.000|x12: 0.366|x13: 0.137|x14: 0.292|x15: 0.000|x16: 0.099|x17: 0.000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2064,7 +2064,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>[0.36586432486069637, 0.2918268834639401, 0.2500732197429986, 0.2010273079693258, 0.17811985362976768, 0.15360031717150763, 0.15187567026773593, 0.1363987953691901, 0.1045042998316258]</t>
+          <t>[0.36616517993333725, 0.2920624514981604, 0.2502928455191807, 0.2011631215463159, 0.17830108240957754, 0.15371237942902374, 0.15204669715085173, 0.13652077677671434, 0.10444172869090775]</t>
         </is>
       </c>
       <c r="H40" t="b">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.070|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.064|x9: 0.165|x10: 0.153|x11: 0.205|x12: 0.118|x13: 0.000|x14: 0.092|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.070|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.064|x9: 0.165|x10: 0.154|x11: 0.205|x12: 0.118|x13: 0.000|x14: 0.092|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[0.20450841988796647, 0.16507443561761345, 0.1534792974657887, 0.11833558021083482]</t>
+          <t>[0.20460538434900535, 0.16517014034199906, 0.1536254055687069, 0.11838948829224964]</t>
         </is>
       </c>
       <c r="H41" t="b">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.062|x3: 0.229|x4: 0.089|x5: 0.089|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.000|x10: 0.058|x11: 0.134|x12: 0.277|x13: 0.086|x14: 0.000|x15: 0.000|x16: 0.177|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.062|x3: 0.229|x4: 0.089|x5: 0.089|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.000|x10: 0.059|x11: 0.134|x12: 0.277|x13: 0.086|x14: 0.000|x15: 0.000|x16: 0.177|x17: 0.000</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[0.2772964140955272, 0.22890321446575035, 0.1770731771625416, 0.1549600570410655, 0.13387842033485944]</t>
+          <t>[0.2773816803273967, 0.22901376057580533, 0.17714268903964528, 0.1549928860594699, 0.13393958131287137]</t>
         </is>
       </c>
       <c r="H42" t="b">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.215|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.110|x12: 0.248|x13: 0.147|x14: 0.171|x15: 0.043|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.216|x4: 0.000|x5: 0.000|x6: 0.081|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.110|x12: 0.248|x13: 0.147|x14: 0.171|x15: 0.043|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2187,7 +2187,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>[0.24754072910607483, 0.2153742292333834, 0.17084039370636742, 0.14698773356404193, 0.11013563785405242]</t>
+          <t>[0.24753913396388172, 0.21551359425765923, 0.1709346851070147, 0.14709307433310995, 0.11023830887531325]</t>
         </is>
       </c>
       <c r="H43" t="b">
@@ -2228,7 +2228,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[0.4057993838084277, 0.27628827320642474, 0.26604570645559333, 0.20441597066101544, 0.19807049613825586, 0.14690346626675665, 0.1446224320064997]</t>
+          <t>[0.4057635086154628, 0.27627643965068205, 0.2661288545650035, 0.20438910044453226, 0.19808594857626438, 0.14683847313585782, 0.1446204844734313]</t>
         </is>
       </c>
       <c r="H44" t="b">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>[0.2778767598428409, 0.24009415939043044, 0.17767824361978507, 0.16686190101093984, 0.1199157587966909, 0.10292275418511215]</t>
+          <t>[0.27786592503258145, 0.2401026508993891, 0.17772763893346688, 0.16686953155989528, 0.11992191437824826, 0.10297681844849263]</t>
         </is>
       </c>
       <c r="H45" t="b">
@@ -2310,7 +2310,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>[0.2506472225636737, 0.20627218434175404, 0.18392278448019236, 0.16688884978597104, 0.13509328954671856, 0.10490499595874517]</t>
+          <t>[0.25067785214814486, 0.2063476531983053, 0.18398506659391278, 0.16692003925353663, 0.13512827179003137, 0.10493042546081523]</t>
         </is>
       </c>
       <c r="H46" t="b">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>[0.21973482635728533, 0.19334825708099748, 0.14074663008777807, 0.1126023245678595, 0.10623801691822306]</t>
+          <t>[0.21974804066619882, 0.19337090827641149, 0.14066295900259718, 0.11264710811389865, 0.10628654207344024]</t>
         </is>
       </c>
       <c r="H47" t="b">
@@ -2392,7 +2392,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[0.2686235939863235, 0.17226403805603221, 0.15848620085199983, 0.13415032327581353, 0.13180596420160992, 0.1236984418248047, 0.10950096846948158]</t>
+          <t>[0.26862800185779817, 0.17226085273219427, 0.15844174679028172, 0.13416056305446789, 0.13183126813914464, 0.1237151720875434, 0.10950429364430934]</t>
         </is>
       </c>
       <c r="H48" t="b">
@@ -2418,7 +2418,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>x1: 0.125|x2: 0.000|x3: 0.095|x4: 0.075|x5: 0.069|x6: 0.103|x7: 0.122|x8: 0.056|x9: 0.000|x10: 0.000|x11: 0.055|x12: 0.091|x13: 0.000|x14: 0.049|x15: 0.000|x16: 0.097|x17: 0.000</t>
+          <t>x1: 0.125|x2: 0.000|x3: 0.095|x4: 0.075|x5: 0.069|x6: 0.103|x7: 0.121|x8: 0.056|x9: 0.000|x10: 0.000|x11: 0.055|x12: 0.091|x13: 0.000|x14: 0.049|x15: 0.000|x16: 0.097|x17: 0.000</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2433,7 +2433,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>[0.12475163343334879, 0.12150714423597966, 0.10317496657183582]</t>
+          <t>[0.1248150495560222, 0.12146211162490356, 0.10316092391264982]</t>
         </is>
       </c>
       <c r="H49" t="b">
@@ -2474,7 +2474,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>[0.3958098170726442, 0.16760159735002447, 0.14058502977419057, 0.12007246663198262, 0.11500507880393832]</t>
+          <t>[0.39596889586925743, 0.1676970298084033, 0.14076302174090088, 0.12013724169736359, 0.11507977292542226]</t>
         </is>
       </c>
       <c r="H50" t="b">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[0.22005214321562946, 0.16553878238149952, 0.15179488389935078, 0.13838968772705654, 0.12513525343398368, 0.10395835639114014]</t>
+          <t>[0.22015216205987911, 0.16562820267036904, 0.15188300077339548, 0.13843480096628266, 0.12512485375545307, 0.10398785798153219]</t>
         </is>
       </c>
       <c r="H51" t="b">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[0.2951498770490224, 0.2568420155248802, 0.16536399861943343, 0.11245539322277816]</t>
+          <t>[0.29516617776516074, 0.2568784463610288, 0.16533824841036399, 0.11248179383160879]</t>
         </is>
       </c>
       <c r="H52" t="b">
@@ -2597,7 +2597,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[0.1680328589528644, 0.16509810204587017, 0.11578532697790582, 0.10916096136969745, 0.10721037931229149]</t>
+          <t>[0.16802243195749184, 0.165137287478901, 0.11580314215931126, 0.1091567884843494, 0.10717153576811922]</t>
         </is>
       </c>
       <c r="H53" t="b">
@@ -2623,7 +2623,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.108|x7: 0.230|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.203|x12: 0.243|x13: 0.213|x14: 0.094|x15: 0.112|x16: 0.092|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.108|x7: 0.230|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.204|x12: 0.243|x13: 0.213|x14: 0.094|x15: 0.112|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>[0.24304561453552995, 0.23023242395835997, 0.2132798458344681, 0.20349088290563688, 0.11207697682004905, 0.10819467563777477, 0.10141897356192822]</t>
+          <t>[0.24309198732466994, 0.23019392921090878, 0.21330108547355273, 0.2035252892381966, 0.11217027833731384, 0.10822092772108574, 0.10146564294629955]</t>
         </is>
       </c>
       <c r="H54" t="b">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[0.1088629478089751]</t>
+          <t>[0.10886365775962924]</t>
         </is>
       </c>
       <c r="H55" t="b">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[0.25371048324764367]</t>
+          <t>[0.25368841933576974]</t>
         </is>
       </c>
       <c r="H56" t="b">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>x1: 0.208|x2: 0.000|x3: 0.000|x4: 0.062|x5: 0.071|x6: 0.000|x7: 0.105|x8: 0.113|x9: 0.084|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.034|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.208|x2: 0.000|x3: 0.000|x4: 0.063|x5: 0.071|x6: 0.000|x7: 0.105|x8: 0.113|x9: 0.084|x10: 0.080|x11: 0.000|x12: 0.000|x13: 0.034|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2761,7 +2761,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>[0.20786160272286622, 0.11253731298284678, 0.10463981287701046]</t>
+          <t>[0.2080936353777297, 0.11266703128491051, 0.10465580631789585]</t>
         </is>
       </c>
       <c r="H57" t="b">
@@ -2802,7 +2802,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[0.1911217803673948, 0.12482268397007977, 0.10376519897666477, 0.1017072292298587]</t>
+          <t>[0.1912266025632398, 0.12491153959619473, 0.10375335749256445, 0.10172772309835543]</t>
         </is>
       </c>
       <c r="H58" t="b">
@@ -2828,7 +2828,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.200|x3: 0.000|x4: 0.214|x5: 0.000|x6: 0.093|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.124|x12: 0.112|x13: 0.099|x14: 0.000|x15: 0.122|x16: 0.137|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.201|x3: 0.000|x4: 0.214|x5: 0.000|x6: 0.094|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.097|x11: 0.124|x12: 0.112|x13: 0.099|x14: 0.000|x15: 0.122|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>[0.21382371644460976, 0.2004717137659369, 0.13669335174380218, 0.1236064660762062, 0.12172248956194141, 0.11169928733148266]</t>
+          <t>[0.21393866512508272, 0.2005526734919691, 0.13676433528579612, 0.12364256156947578, 0.12173888894383358, 0.11179571040541644]</t>
         </is>
       </c>
       <c r="H59" t="b">
@@ -2884,7 +2884,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[0.21033556766229314, 0.20306085134962973, 0.19592049016266017, 0.18792094099351286, 0.1529879406402402, 0.11019820613501208]</t>
+          <t>[0.21039740961191714, 0.20306751881568907, 0.19602482834900573, 0.18796109251736332, 0.15298592378195267, 0.11021804517138917]</t>
         </is>
       </c>
       <c r="H60" t="b">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.209|x3: 0.071|x4: 0.140|x5: 0.171|x6: 0.269|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.103|x11: 0.056|x12: 0.075|x13: 0.150|x14: 0.233|x15: 0.263|x16: 0.292|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.209|x3: 0.071|x4: 0.140|x5: 0.171|x6: 0.269|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.104|x11: 0.056|x12: 0.075|x13: 0.150|x14: 0.233|x15: 0.263|x16: 0.292|x17: 0.000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[0.2919417948760508, 0.2692102070079609, 0.26315111859394746, 0.2327998878879262, 0.20889213693455744, 0.17060764078848326, 0.15029638678932544, 0.14005422767943346, 0.10345812593966675]</t>
+          <t>[0.2920282407369859, 0.2692986719148287, 0.2632295109025506, 0.2328343417279126, 0.20901298367883667, 0.17074913567472016, 0.15034502795411867, 0.1401104760525968, 0.10350432198476396]</t>
         </is>
       </c>
       <c r="H61" t="b">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[0.2379192467360444, 0.19224381036622484, 0.18136917309425646, 0.17178811956720555, 0.16378843048316605, 0.10053502632683084]</t>
+          <t>[0.2379641048686473, 0.19226292042742785, 0.18115476112245943, 0.17195458591166748, 0.16373737464384489, 0.10067997377850102]</t>
         </is>
       </c>
       <c r="H62" t="b">
@@ -2992,7 +2992,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>x1: 0.070|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.239|x6: 0.054|x7: 0.127|x8: 0.133|x9: 0.169|x10: 0.052|x11: 0.418|x12: 0.149|x13: 0.000|x14: 0.131|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.070|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.238|x6: 0.054|x7: 0.127|x8: 0.133|x9: 0.169|x10: 0.052|x11: 0.418|x12: 0.149|x13: 0.000|x14: 0.131|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[0.41840483437152876, 0.2385081638835562, 0.169212893056329, 0.14906464910021036, 0.13348957340572154, 0.13143887041885272, 0.12716539334687788]</t>
+          <t>[0.4183694024066221, 0.23849889336456848, 0.16908924363541133, 0.14907179363191292, 0.13337782870957657, 0.13144898742257194, 0.12714210807498563]</t>
         </is>
       </c>
       <c r="H63" t="b">
@@ -3033,7 +3033,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>x1: 0.108|x2: 0.062|x3: 0.152|x4: 0.360|x5: 0.269|x6: 0.066|x7: 0.231|x8: 0.086|x9: 0.171|x10: 0.152|x11: 0.000|x12: 0.111|x13: 0.205|x14: 0.136|x15: 0.070|x16: 0.095|x17: 0.000</t>
+          <t>x1: 0.109|x2: 0.062|x3: 0.152|x4: 0.360|x5: 0.269|x6: 0.066|x7: 0.231|x8: 0.086|x9: 0.171|x10: 0.152|x11: 0.000|x12: 0.111|x13: 0.205|x14: 0.136|x15: 0.070|x16: 0.095|x17: 0.000</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[0.360124897363991, 0.2686637900184635, 0.23125300457387132, 0.20475472491741306, 0.17079265169963223, 0.152155887510923, 0.15203485070562364, 0.1355081370907499, 0.11131415887880142, 0.10843435041768328]</t>
+          <t>[0.3601739060081496, 0.2687790643514427, 0.23129142056383142, 0.2047950206562626, 0.17083532233261994, 0.15225651175659627, 0.15211578255762953, 0.135527091200458, 0.11131896882600903, 0.10852346700094255]</t>
         </is>
       </c>
       <c r="H64" t="b">
@@ -3089,7 +3089,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[0.17836779092637353, 0.14464954714220937, 0.10569297034581317]</t>
+          <t>[0.17843974562425297, 0.14469558280742903, 0.10573101326692888]</t>
         </is>
       </c>
       <c r="H65" t="b">
@@ -3115,7 +3115,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.079|x5: 0.062|x6: 0.000|x7: 0.136|x8: 0.000|x9: 0.071|x10: 0.000|x11: 0.114|x12: 0.039|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.079|x5: 0.062|x6: 0.000|x7: 0.137|x8: 0.000|x9: 0.071|x10: 0.000|x11: 0.113|x12: 0.039|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3130,7 +3130,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[0.1364339516474891, 0.1135420832313943]</t>
+          <t>[0.13653712842197385, 0.11347302643509702]</t>
         </is>
       </c>
       <c r="H66" t="b">
@@ -3156,7 +3156,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>x1: 0.099|x2: 0.000|x3: 0.000|x4: 0.192|x5: 0.183|x6: 0.000|x7: 0.165|x8: 0.123|x9: 0.059|x10: 0.000|x11: 0.173|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.138|x17: 0.000</t>
+          <t>x1: 0.099|x2: 0.000|x3: 0.000|x4: 0.192|x5: 0.183|x6: 0.000|x7: 0.165|x8: 0.123|x9: 0.059|x10: 0.000|x11: 0.174|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.138|x17: 0.000</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3171,7 +3171,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[0.19213547254621116, 0.1834015620430546, 0.17342215995412694, 0.16527721990551222, 0.13813929275297313, 0.12276135724532143]</t>
+          <t>[0.1921698822306836, 0.18342803760319623, 0.17352195235367196, 0.16533341823919154, 0.13813976380360793, 0.1228008292659052]</t>
         </is>
       </c>
       <c r="H67" t="b">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.103|x6: 0.000|x7: 0.200|x8: 0.000|x9: 0.089|x10: 0.045|x11: 0.222|x12: 0.059|x13: 0.000|x14: 0.241|x15: 0.126|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.103|x6: 0.000|x7: 0.200|x8: 0.000|x9: 0.090|x10: 0.045|x11: 0.222|x12: 0.059|x13: 0.000|x14: 0.242|x15: 0.126|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3212,7 +3212,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[0.24142546596733627, 0.22166627780891038, 0.1999628511585059, 0.1256326823860608, 0.10341231784860182]</t>
+          <t>[0.24152259354511457, 0.22176810063844218, 0.20007285716000325, 0.12570292053745938, 0.10342696311064467]</t>
         </is>
       </c>
       <c r="H68" t="b">
@@ -3253,7 +3253,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0.19491836326945128, 0.16996009071130877, 0.13444575563161765, 0.11873480893992736]</t>
+          <t>[0.19487238357737402, 0.16995762639600412, 0.1344255720584655, 0.11872864532995535]</t>
         </is>
       </c>
       <c r="H69" t="b">
@@ -3320,7 +3320,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>x1: 0.045|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.315|x8: 0.000|x9: 0.116|x10: 0.000|x11: 0.156|x12: 0.114|x13: 0.163|x14: 0.076|x15: 0.081|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.045|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.316|x8: 0.000|x9: 0.116|x10: 0.000|x11: 0.156|x12: 0.114|x13: 0.163|x14: 0.076|x15: 0.081|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>[0.31549796615720604, 0.16305484489429029, 0.15587339233591388, 0.11556683803368227, 0.11406095025019318]</t>
+          <t>[0.31552761981828115, 0.16308253049955093, 0.1558984350403879, 0.11557600377654499, 0.11409904375223096]</t>
         </is>
       </c>
       <c r="H71" t="b">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[0.12977862385652042, 0.126539346419247]</t>
+          <t>[0.12977695471083012, 0.12652974453018162]</t>
         </is>
       </c>
       <c r="H72" t="b">
@@ -3402,7 +3402,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.111|x5: 0.110|x6: 0.000|x7: 0.175|x8: 0.000|x9: 0.000|x10: 0.106|x11: 0.000|x12: 0.131|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.152|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.112|x5: 0.110|x6: 0.000|x7: 0.175|x8: 0.000|x9: 0.000|x10: 0.106|x11: 0.000|x12: 0.131|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[0.17532682848873773, 0.15237859258996353, 0.13056512957154554, 0.11148981664451661, 0.1099034745607726, 0.10608998052115017]</t>
+          <t>[0.17534642753257687, 0.15240708728625416, 0.13059091644787216, 0.11150481713458188, 0.1099240682701396, 0.10614288653858245]</t>
         </is>
       </c>
       <c r="H73" t="b">
@@ -3458,7 +3458,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>[0.3483615779347485, 0.22771976368857702, 0.20165660503116345, 0.1718481389699349, 0.14925024069887366, 0.10684090347432634]</t>
+          <t>[0.34835339682574484, 0.22768368830713992, 0.20173942318227966, 0.171764658662226, 0.14924569791962392, 0.10678611175760305]</t>
         </is>
       </c>
       <c r="H74" t="b">
@@ -3499,7 +3499,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>[0.21415933433073323, 0.16633703817766066, 0.14738386447011342, 0.14341085680840365, 0.13542703942748738, 0.11342924657722475, 0.1038653018246173]</t>
+          <t>[0.21418410664436827, 0.16639899538527994, 0.14741458546519143, 0.14338387753120319, 0.13547610476809915, 0.11345583392875008, 0.10389054126790681]</t>
         </is>
       </c>
       <c r="H75" t="b">
@@ -3525,7 +3525,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.076|x5: 0.059|x6: 0.000|x7: 0.183|x8: 0.000|x9: 0.106|x10: 0.078|x11: 0.000|x12: 0.125|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.170|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.075|x5: 0.059|x6: 0.000|x7: 0.183|x8: 0.000|x9: 0.106|x10: 0.078|x11: 0.000|x12: 0.124|x13: 0.070|x14: 0.000|x15: 0.000|x16: 0.170|x17: 0.000</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3540,7 +3540,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>[0.1825631222505076, 0.1698704074044677, 0.12451446044888001, 0.10590442291615906]</t>
+          <t>[0.1826021807432079, 0.1697970497499496, 0.12449865395413984, 0.10596754938971842]</t>
         </is>
       </c>
       <c r="H76" t="b">
@@ -3566,7 +3566,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.142|x4: 0.135|x5: 0.158|x6: 0.064|x7: 0.180|x8: 0.188|x9: 0.000|x10: 0.109|x11: 0.099|x12: 0.070|x13: 0.171|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.142|x4: 0.135|x5: 0.158|x6: 0.064|x7: 0.180|x8: 0.188|x9: 0.000|x10: 0.110|x11: 0.099|x12: 0.070|x13: 0.171|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[0.18751493233961342, 0.1796310575714778, 0.1710253281788414, 0.15824172915762508, 0.14213968923563108, 0.13476015297444363, 0.1094337190562502]</t>
+          <t>[0.1875054332731871, 0.17955357484726342, 0.17113883203466185, 0.15817372856382705, 0.14221070214832995, 0.1348967699480097, 0.10952357334421661]</t>
         </is>
       </c>
       <c r="H77" t="b">
@@ -3663,7 +3663,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[0.1722690970613386, 0.16604670139688754, 0.11573574099100649, 0.11493099627265303]</t>
+          <t>[0.17232415366487855, 0.16598759104163688, 0.1157224456597517, 0.11494026747058703]</t>
         </is>
       </c>
       <c r="H79" t="b">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>x1: 0.075|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.053|x6: 0.000|x7: 0.257|x8: 0.000|x9: 0.129|x10: 0.040|x11: 0.245|x12: 0.088|x13: 0.222|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.075|x2: 0.000|x3: 0.000|x4: 0.090|x5: 0.053|x6: 0.000|x7: 0.257|x8: 0.000|x9: 0.129|x10: 0.040|x11: 0.246|x12: 0.088|x13: 0.222|x14: 0.000|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>[0.25702260933366655, 0.24546785631635887, 0.22160242144494216, 0.12859331379242034]</t>
+          <t>[0.2571524627345964, 0.2455960276359599, 0.22166480356419127, 0.12867663402214585]</t>
         </is>
       </c>
       <c r="H80" t="b">
@@ -3745,7 +3745,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>[0.10276782965234049]</t>
+          <t>[0.10297186281570783]</t>
         </is>
       </c>
       <c r="H81" t="b">
@@ -3786,7 +3786,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[0.24558147885873463, 0.20950493053881092, 0.13595172359569635, 0.12953813160715283, 0.1191458130517178, 0.10200556004004253]</t>
+          <t>[0.2456274945685012, 0.20959495177081217, 0.13596253679282422, 0.12963645959839817, 0.11915381166078115, 0.10206340183715835]</t>
         </is>
       </c>
       <c r="H82" t="b">
@@ -3868,7 +3868,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>[0.30199891417212504, 0.28631968917967965, 0.22180919029955976, 0.15011527755611387, 0.11633376638011905]</t>
+          <t>[0.3019969891220671, 0.2863414613115975, 0.22184056345812747, 0.1500767279236501, 0.11636569994799914]</t>
         </is>
       </c>
       <c r="H84" t="b">
@@ -3894,7 +3894,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>x1: 0.187|x2: 0.038|x3: 0.119|x4: 0.180|x5: 0.115|x6: 0.000|x7: 0.000|x8: 0.125|x9: 0.000|x10: 0.243|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.182|x17: 0.000</t>
+          <t>x1: 0.187|x2: 0.038|x3: 0.119|x4: 0.180|x5: 0.115|x6: 0.000|x7: 0.000|x8: 0.126|x9: 0.000|x10: 0.244|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.182|x17: 0.000</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3909,7 +3909,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>[0.2434629432161439, 0.18691794750532909, 0.18202352492629573, 0.18020453895228367, 0.12544922221578042, 0.1190597088758915, 0.11476433113069971]</t>
+          <t>[0.24364747138506668, 0.18704491887596336, 0.18214087772501705, 0.18021735062374983, 0.12551933840093693, 0.11914145025809525, 0.11479661601491485]</t>
         </is>
       </c>
       <c r="H85" t="b">
@@ -3950,7 +3950,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[0.2240186952603624, 0.17005883627782048, 0.16704028127564913, 0.14527308671210207, 0.1438336861852924, 0.11319876900285523, 0.10086854271934878]</t>
+          <t>[0.22411970727496325, 0.17010284043463925, 0.167100741582566, 0.14532091341994322, 0.14387967941024232, 0.11323610015125694, 0.10091521352295353]</t>
         </is>
       </c>
       <c r="H86" t="b">
@@ -3991,7 +3991,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>[0.18737392365173794, 0.16444541809624896, 0.16106627764792877, 0.14062218336457002, 0.12342212239199454, 0.11028794131610771]</t>
+          <t>[0.1874385823467975, 0.16447421049636926, 0.1611139029104811, 0.14065111462109806, 0.12343567150388574, 0.110313115277639]</t>
         </is>
       </c>
       <c r="H87" t="b">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[0.3402069045593951, 0.2654750764573583, 0.11842406715749561, 0.10858714265570932]</t>
+          <t>[0.34026359307059073, 0.26545828090947343, 0.11844218378092188, 0.10862856454176235]</t>
         </is>
       </c>
       <c r="H88" t="b">
@@ -4073,7 +4073,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[0.300981631085648, 0.20297095252159508, 0.1308021710226928, 0.12698527364265078, 0.10776781563920619, 0.10305258270370718]</t>
+          <t>[0.30104301009320894, 0.2029789236848052, 0.13078380086505903, 0.1270161254118422, 0.10776208909990825, 0.1030944956410924]</t>
         </is>
       </c>
       <c r="H89" t="b">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[0.43203729481154285, 0.2955409168333029, 0.2316147674556821, 0.2082185566678866, 0.15098515568670165, 0.12935009755570512, 0.1075145657431316]</t>
+          <t>[0.43211384994237123, 0.29553215132733845, 0.2316204373436138, 0.20829660931800575, 0.15101009117097722, 0.12934638183341965, 0.10751359848403028]</t>
         </is>
       </c>
       <c r="H90" t="b">
@@ -4181,7 +4181,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>x1: 0.242|x2: 0.221|x3: 0.000|x4: 0.098|x5: 0.073|x6: 0.128|x7: 0.286|x8: 0.345|x9: 0.288|x10: 0.259|x11: 0.140|x12: 0.310|x13: 0.072|x14: 0.075|x15: 0.000|x16: 0.137|x17: 0.000</t>
+          <t>x1: 0.242|x2: 0.221|x3: 0.000|x4: 0.098|x5: 0.073|x6: 0.127|x7: 0.286|x8: 0.345|x9: 0.288|x10: 0.259|x11: 0.140|x12: 0.310|x13: 0.072|x14: 0.075|x15: 0.000|x16: 0.137|x17: 0.000</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -4196,7 +4196,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>[0.34514780668259487, 0.31038676929160774, 0.28785251639826837, 0.28555611672795306, 0.2586783784360837, 0.24158707525734047, 0.2210612882249464, 0.1399093895311221, 0.13742704505124614, 0.12758113532586235]</t>
+          <t>[0.34516399792385527, 0.31044622969239527, 0.2878991492675771, 0.2856269336374584, 0.25864695070937577, 0.2415659262937096, 0.22105527899999444, 0.1399308750223944, 0.13747573838753976, 0.12749144115381722]</t>
         </is>
       </c>
       <c r="H92" t="b">
@@ -4222,7 +4222,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.195|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.136|x10: 0.159|x11: 0.000|x12: 0.162|x13: 0.225|x14: 0.098|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.195|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.137|x10: 0.160|x11: 0.000|x12: 0.162|x13: 0.225|x14: 0.098|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -4237,7 +4237,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>[0.22524861170822547, 0.19529973273770676, 0.16150030863931863, 0.15948670032064727, 0.1364257320218893]</t>
+          <t>[0.22537036761684778, 0.19538162887876417, 0.16161371793616536, 0.1595619567700166, 0.13651671656691208]</t>
         </is>
       </c>
       <c r="H93" t="b">
@@ -4263,7 +4263,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>x1: 0.095|x2: 0.000|x3: 0.280|x4: 0.078|x5: 0.181|x6: 0.082|x7: 0.122|x8: 0.069|x9: 0.000|x10: 0.151|x11: 0.193|x12: 0.125|x13: 0.137|x14: 0.000|x15: 0.000|x16: 0.151|x17: 0.000</t>
+          <t>x1: 0.095|x2: 0.000|x3: 0.280|x4: 0.078|x5: 0.181|x6: 0.082|x7: 0.122|x8: 0.069|x9: 0.000|x10: 0.151|x11: 0.193|x12: 0.125|x13: 0.137|x14: 0.000|x15: 0.000|x16: 0.152|x17: 0.000</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -4278,7 +4278,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>[0.27963252012362183, 0.19334016637647014, 0.181273925483207, 0.15149306853855682, 0.15101932970594525, 0.13654120887318963, 0.12507899799976852, 0.12220355787346956]</t>
+          <t>[0.2797593763070121, 0.19343306895093207, 0.18135194534625373, 0.1515872276568022, 0.15110155590201857, 0.13655163863533926, 0.12513858617001708, 0.12223225936881424]</t>
         </is>
       </c>
       <c r="H94" t="b">
@@ -4319,7 +4319,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>[0.34867920554997434, 0.2811568989394984, 0.2746798384118831, 0.23422349224849134, 0.19337839931257567, 0.17958264895567555, 0.1414006668473885, 0.13467155068810244]</t>
+          <t>[0.34871516538430625, 0.28112479098928284, 0.2747493239694429, 0.23427287118397289, 0.19338711561700586, 0.17958911560607682, 0.14141437958470135, 0.1347306808448761]</t>
         </is>
       </c>
       <c r="H95" t="b">
@@ -4345,7 +4345,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.172|x3: 0.000|x4: 0.110|x5: 0.074|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.089|x10: 0.147|x11: 0.138|x12: 0.168|x13: 0.000|x14: 0.194|x15: 0.000|x16: 0.056|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.172|x3: 0.000|x4: 0.110|x5: 0.074|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.090|x10: 0.147|x11: 0.138|x12: 0.168|x13: 0.000|x14: 0.194|x15: 0.000|x16: 0.056|x17: 0.000</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -4360,7 +4360,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[0.193837718152164, 0.1724070873957832, 0.16761691545473376, 0.1469634018861703, 0.13769733299745707, 0.10995014218349178]</t>
+          <t>[0.1939472148988938, 0.1724532518990528, 0.1677021078099695, 0.14702424903014022, 0.13774967339066374, 0.10996843082851586]</t>
         </is>
       </c>
       <c r="H96" t="b">
@@ -4401,7 +4401,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[0.11737225621437525]</t>
+          <t>[0.11744492378520083]</t>
         </is>
       </c>
       <c r="H97" t="b">
@@ -4442,7 +4442,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>[0.20635661176464243, 0.20492410725495605, 0.1782610012726878, 0.17689765363217969, 0.12955991534763284, 0.1244610749831271, 0.12208677844238179, 0.11937111753721633]</t>
+          <t>[0.20646510039674695, 0.20501424237485977, 0.17832043259203506, 0.17690386732261382, 0.12960626305059322, 0.12447263168673331, 0.12204835567001264, 0.11943240754043026]</t>
         </is>
       </c>
       <c r="H98" t="b">
@@ -4468,7 +4468,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.059|x3: 0.000|x4: 0.099|x5: 0.045|x6: 0.000|x7: 0.198|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.150|x12: 0.065|x13: 0.124|x14: 0.084|x15: 0.078|x16: 0.092|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.059|x3: 0.000|x4: 0.099|x5: 0.045|x6: 0.000|x7: 0.198|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.151|x12: 0.065|x13: 0.124|x14: 0.084|x15: 0.078|x16: 0.092|x17: 0.000</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -4483,7 +4483,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>[0.19753175171511178, 0.15047146657665705, 0.12439193654379216]</t>
+          <t>[0.19758180901431002, 0.15055712541750288, 0.12446797054384799]</t>
         </is>
       </c>
       <c r="H99" t="b">
@@ -4524,7 +4524,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>[0.13517818111598023, 0.1294388637495069]</t>
+          <t>[0.1351506806899388, 0.12939311839073778]</t>
         </is>
       </c>
       <c r="H100" t="b">
@@ -4565,7 +4565,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>[0.17549687610852183, 0.11890011407301275]</t>
+          <t>[0.17547359919701894, 0.11891866983432557]</t>
         </is>
       </c>
       <c r="H101" t="b">
@@ -4591,7 +4591,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.160|x8: 0.000|x9: 0.198|x10: 0.081|x11: 0.214|x12: 0.208|x13: 0.183|x14: 0.093|x15: 0.103|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.160|x8: 0.000|x9: 0.199|x10: 0.081|x11: 0.214|x12: 0.208|x13: 0.183|x14: 0.094|x15: 0.103|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -4606,7 +4606,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>[0.21399594578281209, 0.20833621809082248, 0.19849835000808713, 0.18256568544430776, 0.1603322165517313, 0.1028917036357077]</t>
+          <t>[0.2140128091710622, 0.20835197843841216, 0.19853450919703708, 0.18261458031328384, 0.1603446218628616, 0.10292749117071703]</t>
         </is>
       </c>
       <c r="H102" t="b">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>[0.31256927151996633, 0.26805086229922254, 0.23731067519926818, 0.19293050323175215, 0.15661229931752096, 0.14213236917122304, 0.11342990959375786, 0.10287484494484422]</t>
+          <t>[0.3125646128585883, 0.26804261682332886, 0.2373379349156373, 0.1929259621373292, 0.15661072360334513, 0.1421250178285988, 0.11340748235958269, 0.10289999917887892]</t>
         </is>
       </c>
       <c r="H103" t="b">
@@ -4688,7 +4688,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>[0.20840950805045272, 0.16116790845489556, 0.15041243859321676, 0.12429688526758481]</t>
+          <t>[0.20846904313444256, 0.1612791366251453, 0.15043185758681185, 0.12435578711024772]</t>
         </is>
       </c>
       <c r="H104" t="b">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>[0.2784391023578713, 0.2641186109791841, 0.2007247681068474, 0.12344548697380833, 0.10606128111812406]</t>
+          <t>[0.27846561255142177, 0.2641782776678079, 0.20074026668977335, 0.1234483262975383, 0.10605220980961581]</t>
         </is>
       </c>
       <c r="H105" t="b">
@@ -4770,7 +4770,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>[0.20973854034346312, 0.11360588537609265]</t>
+          <t>[0.20981000114317994, 0.11363437546828802]</t>
         </is>
       </c>
       <c r="H106" t="b">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.128|x3: 0.000|x4: 0.071|x5: 0.067|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.107|x10: 0.127|x11: 0.140|x12: 0.092|x13: 0.195|x14: 0.299|x15: 0.000|x16: 0.052|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.128|x3: 0.000|x4: 0.071|x5: 0.067|x6: 0.000|x7: 0.086|x8: 0.000|x9: 0.107|x10: 0.127|x11: 0.141|x12: 0.092|x13: 0.195|x14: 0.299|x15: 0.000|x16: 0.052|x17: 0.000</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -4811,7 +4811,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>[0.299237705139377, 0.19537317649051014, 0.1404949681916979, 0.12810738868849175, 0.126876270929063, 0.10678487452011148]</t>
+          <t>[0.29928424042259094, 0.19545051916788045, 0.14052496576044898, 0.1281075199544585, 0.12688708375412874, 0.10684841946891649]</t>
         </is>
       </c>
       <c r="H107" t="b">
@@ -4852,7 +4852,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>[0.13762741368809536, 0.13742603630456063, 0.1348149322508309, 0.13079081396152403]</t>
+          <t>[0.13761968129700622, 0.13748529250381797, 0.1348260335765386, 0.13082209233048256]</t>
         </is>
       </c>
       <c r="H108" t="b">
@@ -4893,7 +4893,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>[0.27864255850576697, 0.16785183917032848, 0.14463488679348635, 0.13788936788855768, 0.12767500574770638, 0.10705329000150385]</t>
+          <t>[0.27874861184970506, 0.16792441695145893, 0.1446595926523338, 0.1379487978958417, 0.1277218693957826, 0.10711437660470939]</t>
         </is>
       </c>
       <c r="H109" t="b">
@@ -4919,7 +4919,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.048|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.048|x13: 0.046|x14: 0.058|x15: 0.046|x16: 0.025|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.049|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.068|x12: 0.048|x13: 0.046|x14: 0.058|x15: 0.046|x16: 0.025|x17: 0.000</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -4960,7 +4960,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>x1: 0.144|x2: 0.000|x3: 0.093|x4: 0.090|x5: 0.000|x6: 0.101|x7: 0.000|x8: 0.055|x9: 0.085|x10: 0.000|x11: 0.000|x12: 0.149|x13: 0.070|x14: 0.305|x15: 0.151|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.144|x2: 0.000|x3: 0.093|x4: 0.090|x5: 0.000|x6: 0.101|x7: 0.000|x8: 0.055|x9: 0.085|x10: 0.000|x11: 0.000|x12: 0.149|x13: 0.070|x14: 0.306|x15: 0.151|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>[0.3054715943227515, 0.15054259225166072, 0.14912191006052286, 0.14420114422877767, 0.10119515851064687]</t>
+          <t>[0.305539608200802, 0.15059261909677463, 0.14916471941680168, 0.1442434245735734, 0.10121919208906362]</t>
         </is>
       </c>
       <c r="H111" t="b">
@@ -5016,7 +5016,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>[0.19279483381736878, 0.1509807302073289, 0.11902237902728074, 0.1101140287524657]</t>
+          <t>[0.19279407275109106, 0.15102784877752526, 0.11901186327376376, 0.11013493253164144]</t>
         </is>
       </c>
       <c r="H112" t="b">
@@ -5057,7 +5057,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>[0.1942134419058795, 0.1659576110302487, 0.12489170603138386, 0.1173235125830718, 0.11586044893315944, 0.11109185308834758, 0.10331032856892375]</t>
+          <t>[0.19428574562471596, 0.1659897272261829, 0.12494471900921393, 0.1173598090253097, 0.1158800964730826, 0.11109117780223482, 0.10336975443022212]</t>
         </is>
       </c>
       <c r="H113" t="b">
@@ -5098,7 +5098,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>[0.21539101011537623, 0.14377072933746463, 0.1386980770402342, 0.13181855697220912, 0.11094959961901837]</t>
+          <t>[0.21549551851235557, 0.143780225863877, 0.13872453256452533, 0.13183820897083434, 0.11099415573016395]</t>
         </is>
       </c>
       <c r="H114" t="b">
@@ -5139,7 +5139,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>[0.19837793282682797, 0.17276255613533742, 0.16380531398573808, 0.13984408524456854, 0.13681739655916256, 0.13516365183465529, 0.10881599814761692]</t>
+          <t>[0.19836874874712682, 0.17274764125704667, 0.16383371324187118, 0.13988161565580018, 0.13681335273799172, 0.13512775746808298, 0.10883244480903806]</t>
         </is>
       </c>
       <c r="H115" t="b">
@@ -5180,7 +5180,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>[0.1464052988713656, 0.1444914390865714, 0.1431339213955447, 0.14070040339973255, 0.12452952476757746, 0.11314861941731334, 0.11107631756557709]</t>
+          <t>[0.14641314236569689, 0.14447161550812224, 0.14313644470240572, 0.14070722311217995, 0.12456709788338695, 0.11314970652363493, 0.11112121093883787]</t>
         </is>
       </c>
       <c r="H116" t="b">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>[0.21762815131700236, 0.1832482144035115, 0.18290641139260466, 0.11091555753869059]</t>
+          <t>[0.21772627729912694, 0.18331284036089054, 0.18295562109701347, 0.11091807686684231]</t>
         </is>
       </c>
       <c r="H117" t="b">
@@ -5262,7 +5262,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>[0.16397901927072275, 0.12065181293525121]</t>
+          <t>[0.16401606468967722, 0.12065163916409447]</t>
         </is>
       </c>
       <c r="H118" t="b">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>[0.23119055611341982, 0.1605702173871765, 0.15021548229300657, 0.1359762168245266, 0.10478161803859784, 0.10229636676940214]</t>
+          <t>[0.2312346549265532, 0.16057498169491766, 0.1502440095575614, 0.1360174900046119, 0.10483528122033853, 0.10231507835809509]</t>
         </is>
       </c>
       <c r="H119" t="b">
@@ -5344,7 +5344,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>[0.2523750262433024, 0.22972429254491702, 0.18840607130949474, 0.1737796828672988, 0.1280810647707028, 0.12178684903774879, 0.1081932324034189, 0.10075669132951852]</t>
+          <t>[0.25248530037098543, 0.22979273120320406, 0.188438293407256, 0.1737727667143473, 0.1281211047478877, 0.12183346987403143, 0.10817768901697017, 0.10079227587275377]</t>
         </is>
       </c>
       <c r="H120" t="b">
@@ -5370,7 +5370,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.052|x3: 0.344|x4: 0.099|x5: 0.114|x6: 0.218|x7: 0.171|x8: 0.000|x9: 0.000|x10: 0.128|x11: 0.172|x12: 0.264|x13: 0.185|x14: 0.185|x15: 0.105|x16: 0.149|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.052|x3: 0.344|x4: 0.099|x5: 0.115|x6: 0.218|x7: 0.171|x8: 0.000|x9: 0.000|x10: 0.128|x11: 0.172|x12: 0.264|x13: 0.185|x14: 0.186|x15: 0.105|x16: 0.149|x17: 0.000</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -5385,7 +5385,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>[0.343983159863012, 0.26364525835815206, 0.21763566890304864, 0.18546264625316203, 0.18480033457901296, 0.17161715609219788, 0.1708815928702008, 0.1493386638615109, 0.1281415116341177, 0.11446620775675793, 0.10518440431418742]</t>
+          <t>[0.3440122868298176, 0.26372993163445846, 0.21761569780368456, 0.1855082086122028, 0.1848162545997159, 0.17165176679976454, 0.1708589881902198, 0.14930931757297874, 0.1280968648177564, 0.11452911461771664, 0.10517702189527088]</t>
         </is>
       </c>
       <c r="H121" t="b">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>[0.20059143937522902, 0.1654356046016974, 0.13796265833366486, 0.13696699557375663, 0.12026817421939404, 0.10534170514082405]</t>
+          <t>[0.20062045520908386, 0.1654757077007925, 0.13801185540766162, 0.13705088241762023, 0.1203343278456803, 0.10534621334056099]</t>
         </is>
       </c>
       <c r="H122" t="b">
@@ -5467,7 +5467,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>[0.24035840783929285, 0.20736494867448232, 0.19735389688198635, 0.11460352283103803, 0.10477204706495075, 0.10013173429069061]</t>
+          <t>[0.2403714557157881, 0.20740489590377337, 0.19742824387811553, 0.11462609154275101, 0.10480008563339621, 0.10012408961957182]</t>
         </is>
       </c>
       <c r="H123" t="b">
@@ -5508,7 +5508,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>[0.13911594232361582, 0.11445832568177185, 0.10457704894060979]</t>
+          <t>[0.13914114008795056, 0.11448135695591105, 0.10462338396130166]</t>
         </is>
       </c>
       <c r="H124" t="b">
@@ -5549,7 +5549,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>[0.23029147160840938, 0.19537726414770215, 0.16794917358304232, 0.14137367479854474, 0.12491334814329931, 0.11471147778721849, 0.10679840352710641]</t>
+          <t>[0.2303301653901315, 0.19531687128709985, 0.16797348394855133, 0.1413970024422863, 0.12493326306803368, 0.11470662405874706, 0.10679654325586531]</t>
         </is>
       </c>
       <c r="H125" t="b">
@@ -5590,7 +5590,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>[0.3389352054303589, 0.1928238778965963, 0.16082385193062715]</t>
+          <t>[0.3390180602061954, 0.19270102554091884, 0.160750951998319]</t>
         </is>
       </c>
       <c r="H126" t="b">
@@ -5631,7 +5631,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>[0.18811922053412816, 0.1799775452801902, 0.17796051016043768, 0.17170017771545307, 0.14435551520270373, 0.1411489104869757, 0.12233171718551097, 0.10520906824545667]</t>
+          <t>[0.1881655604791627, 0.18003103716099145, 0.17795256683499946, 0.1718100423636087, 0.14439720631137307, 0.14124136031580642, 0.12234810204880643, 0.10523479395517328]</t>
         </is>
       </c>
       <c r="H127" t="b">
@@ -5657,7 +5657,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.155|x3: 0.000|x4: 0.000|x5: 0.137|x6: 0.062|x7: 0.181|x8: 0.000|x9: 0.166|x10: 0.077|x11: 0.259|x12: 0.070|x13: 0.070|x14: 0.000|x15: 0.058|x16: 0.069|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.155|x3: 0.000|x4: 0.000|x5: 0.137|x6: 0.062|x7: 0.181|x8: 0.000|x9: 0.166|x10: 0.078|x11: 0.259|x12: 0.070|x13: 0.070|x14: 0.000|x15: 0.059|x16: 0.069|x17: 0.000</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>[0.2590020188839104, 0.1812424978837125, 0.16596948415931634, 0.15501464373155568, 0.13717394136786445]</t>
+          <t>[0.25906196514260615, 0.18132197416143056, 0.1660060735620931, 0.1550869238744806, 0.13724224115614742]</t>
         </is>
       </c>
       <c r="H128" t="b">
@@ -5713,7 +5713,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>[0.14864836267181325, 0.12537848822455078, 0.11697197952828403]</t>
+          <t>[0.14859317314790804, 0.12533999620162672, 0.11693661335546235]</t>
         </is>
       </c>
       <c r="H129" t="b">
@@ -5754,7 +5754,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>[0.17045957697030445, 0.15959502558248312]</t>
+          <t>[0.1704685421791236, 0.15962891664977233]</t>
         </is>
       </c>
       <c r="H130" t="b">
@@ -5795,7 +5795,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>[0.3160701336045129, 0.23719232395861972, 0.1694064248291309, 0.1506248409563075, 0.15011957779152618, 0.11622111558578874]</t>
+          <t>[0.3160580462710255, 0.2371451364491299, 0.16929590786262244, 0.15077167126377986, 0.1503098290285027, 0.116165347812526]</t>
         </is>
       </c>
       <c r="H131" t="b">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>[0.23187122858727063, 0.17041787547643622, 0.1647975365563112, 0.14135708593604548]</t>
+          <t>[0.23187608305031163, 0.17048107444725752, 0.16478159917748206, 0.14137866853714143]</t>
         </is>
       </c>
       <c r="H132" t="b">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>x1: 0.046|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.118|x7: 0.192|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.085|x13: 0.197|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.046|x2: 0.000|x3: 0.000|x4: 0.101|x5: 0.000|x6: 0.118|x7: 0.192|x8: 0.000|x9: 0.000|x10: 0.105|x11: 0.000|x12: 0.086|x13: 0.197|x14: 0.086|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5877,7 +5877,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>[0.19665821915439607, 0.19152721525300587, 0.11797691409944092, 0.10509069382296098, 0.1008676251888522]</t>
+          <t>[0.19677070903253296, 0.19154275371685414, 0.11796683745692008, 0.10516891554898976, 0.10088359856740096]</t>
         </is>
       </c>
       <c r="H133" t="b">
@@ -5918,7 +5918,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>[0.4276667566410811, 0.2898663779932312, 0.24262593507590258, 0.20796412997510844, 0.19158149200104926, 0.15265084898436712, 0.13241261075577437, 0.10463118534851988]</t>
+          <t>[0.4278329941004403, 0.28984695932309307, 0.24264650365285997, 0.20799425183916023, 0.19167868045239475, 0.1526190496641393, 0.13228987912920878, 0.10453789832988132]</t>
         </is>
       </c>
       <c r="H134" t="b">
@@ -5959,7 +5959,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>[0.17411516808701774, 0.1379594886209405, 0.13621485989516563, 0.10532918854464421]</t>
+          <t>[0.17413345573381367, 0.13795675267207452, 0.13622879446879893, 0.10529473808375966]</t>
         </is>
       </c>
       <c r="H135" t="b">
@@ -6000,7 +6000,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>[0.1629278766713382, 0.13617139946858403, 0.11859204569609492, 0.1082492816608775, 0.10585484073369505]</t>
+          <t>[0.16302068208383583, 0.13622498825928897, 0.11861393574600125, 0.10825542147908368, 0.10588768638107611]</t>
         </is>
       </c>
       <c r="H136" t="b">
@@ -6041,7 +6041,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>[0.3535613966005666, 0.22581887066716033, 0.18177741177888565, 0.1635588558691377, 0.1449455690205885, 0.13340602922674608]</t>
+          <t>[0.3536075717879497, 0.22594672205705454, 0.1818433529154566, 0.16357538407782804, 0.1449952119867114, 0.13343641241262544]</t>
         </is>
       </c>
       <c r="H137" t="b">
@@ -6082,7 +6082,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>[0.3588002118394718, 0.15173582244821054, 0.11825506653706405]</t>
+          <t>[0.35891354260138086, 0.15177276497331005, 0.11829902463044706]</t>
         </is>
       </c>
       <c r="H138" t="b">
@@ -6123,7 +6123,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>[0.1794376870681539, 0.13656300909651173, 0.11195569776929147]</t>
+          <t>[0.17946834131376252, 0.13660224478623564, 0.1120450115190138]</t>
         </is>
       </c>
       <c r="H139" t="b">
@@ -6164,7 +6164,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>[0.22471348774165395, 0.21600958124977188, 0.21600588603742682, 0.14377458118713485, 0.13369902931109798, 0.12934245512031434]</t>
+          <t>[0.22479880372224745, 0.21610345851883891, 0.2160512417406691, 0.1437904324525864, 0.1337456109985358, 0.12944968291717168]</t>
         </is>
       </c>
       <c r="H140" t="b">
@@ -6190,7 +6190,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.144|x4: 0.000|x5: 0.000|x6: 0.086|x7: 0.229|x8: 0.000|x9: 0.205|x10: 0.220|x11: 0.101|x12: 0.054|x13: 0.251|x14: 0.152|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.144|x4: 0.000|x5: 0.000|x6: 0.085|x7: 0.229|x8: 0.000|x9: 0.206|x10: 0.220|x11: 0.101|x12: 0.054|x13: 0.250|x14: 0.152|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>[0.2505301062678912, 0.2291570327477935, 0.22047311352119203, 0.20530779277782113, 0.15241120351952586, 0.14438418431555256, 0.10088476521031645]</t>
+          <t>[0.2501422309941635, 0.2291538784759455, 0.22041434143511718, 0.20552504574338396, 0.15224130498179694, 0.14446523572002554, 0.1007604203177587]</t>
         </is>
       </c>
       <c r="H141" t="b">
@@ -6231,7 +6231,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>x1: 0.164|x2: 0.000|x3: 0.000|x4: 0.284|x5: 0.113|x6: 0.000|x7: 0.047|x8: 0.062|x9: 0.071|x10: 0.211|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.102|x17: 0.000</t>
+          <t>x1: 0.164|x2: 0.000|x3: 0.000|x4: 0.284|x5: 0.113|x6: 0.000|x7: 0.048|x8: 0.062|x9: 0.071|x10: 0.211|x11: 0.000|x12: 0.000|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.102|x17: 0.000</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -6246,7 +6246,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>[0.2841391166702138, 0.21126209924451506, 0.16409745700906656, 0.11274525072577808, 0.10226879944210887]</t>
+          <t>[0.2842810320798268, 0.2114177147829199, 0.1641580200118277, 0.11283273346961564, 0.10234173457193431]</t>
         </is>
       </c>
       <c r="H142" t="b">
@@ -6272,7 +6272,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.186|x5: 0.000|x6: 0.060|x7: 0.181|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.108|x13: 0.094|x14: 0.164|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.186|x5: 0.000|x6: 0.060|x7: 0.181|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.070|x12: 0.108|x13: 0.094|x14: 0.165|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -6287,7 +6287,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>[0.18624724027604195, 0.18095964817403767, 0.16446574509098782, 0.10783576310186287]</t>
+          <t>[0.18625011624743, 0.18100322356219511, 0.1645017403647216, 0.10786063868400791]</t>
         </is>
       </c>
       <c r="H143" t="b">
@@ -6328,7 +6328,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>[0.2912823971336114, 0.2143506004852832, 0.20982836282140493, 0.16513114449219413, 0.15557219683621637, 0.1414131409638676, 0.14032880766681768, 0.1205114484961245, 0.11640945230813363]</t>
+          <t>[0.2913912102742067, 0.2143893508310564, 0.20987773834333512, 0.16521086130829854, 0.15560601732446824, 0.14141548437230206, 0.1403717526377995, 0.12060654548551182, 0.11641594558828004]</t>
         </is>
       </c>
       <c r="H144" t="b">
@@ -6354,7 +6354,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>x1: 0.078|x2: 0.059|x3: 0.000|x4: 0.279|x5: 0.136|x6: 0.000|x7: 0.214|x8: 0.121|x9: 0.137|x10: 0.166|x11: 0.199|x12: 0.121|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.110|x17: 0.000</t>
+          <t>x1: 0.078|x2: 0.059|x3: 0.000|x4: 0.279|x5: 0.137|x6: 0.000|x7: 0.214|x8: 0.121|x9: 0.137|x10: 0.166|x11: 0.199|x12: 0.121|x13: 0.000|x14: 0.000|x15: 0.000|x16: 0.110|x17: 0.000</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -6369,7 +6369,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>[0.27903016135573055, 0.2139767254658635, 0.1987429252720272, 0.1656682398736606, 0.13677929490709134, 0.13647975385350233, 0.12129582834079641, 0.12059561314136671, 0.10960969718493209]</t>
+          <t>[0.2790740665848214, 0.21398752303970184, 0.19876697751056446, 0.1656820268104606, 0.13683364904308956, 0.13650330142932635, 0.12132539200791911, 0.12059670807364264, 0.10960331752273304]</t>
         </is>
       </c>
       <c r="H145" t="b">
@@ -6410,7 +6410,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>[0.2901956865687138, 0.21887922080654496, 0.19274894941030407, 0.1514371168574204, 0.11611417992611414, 0.10569273338980127]</t>
+          <t>[0.2901802353187008, 0.21887122542887785, 0.19272935505258423, 0.1514103695713344, 0.11617289110104086, 0.1056746253322794]</t>
         </is>
       </c>
       <c r="H146" t="b">
@@ -6436,7 +6436,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.149|x5: 0.000|x6: 0.000|x7: 0.087|x8: 0.000|x9: 0.255|x10: 0.000|x11: 0.000|x12: 0.087|x13: 0.000|x14: 0.107|x15: 0.096|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.149|x5: 0.000|x6: 0.000|x7: 0.087|x8: 0.000|x9: 0.254|x10: 0.000|x11: 0.000|x12: 0.087|x13: 0.000|x14: 0.107|x15: 0.096|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -6451,7 +6451,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>[0.2545502753127345, 0.14928287001452645, 0.10700669928511915]</t>
+          <t>[0.25443787587848615, 0.149248150485908, 0.10697894282978619]</t>
         </is>
       </c>
       <c r="H147" t="b">
@@ -6477,7 +6477,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.204|x10: 0.112|x11: 0.060|x12: 0.000|x13: 0.132|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.073|x2: 0.000|x3: 0.000|x4: 0.055|x5: 0.000|x6: 0.000|x7: 0.092|x8: 0.000|x9: 0.205|x10: 0.112|x11: 0.060|x12: 0.000|x13: 0.132|x14: 0.045|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>[0.20435095454576477, 0.13228817425044953, 0.11171037539145179]</t>
+          <t>[0.20457560481287723, 0.13244964968017, 0.11185102880779191]</t>
         </is>
       </c>
       <c r="H148" t="b">
@@ -6518,7 +6518,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>x1: 0.252|x2: 0.203|x3: 0.127|x4: 0.164|x5: 0.095|x6: 0.000|x7: 0.000|x8: 0.151|x9: 0.000|x10: 0.217|x11: 0.196|x12: 0.222|x13: 0.000|x14: 0.136|x15: 0.000|x16: 0.315|x17: 0.000</t>
+          <t>x1: 0.252|x2: 0.203|x3: 0.127|x4: 0.164|x5: 0.094|x6: 0.000|x7: 0.000|x8: 0.151|x9: 0.000|x10: 0.217|x11: 0.196|x12: 0.222|x13: 0.000|x14: 0.136|x15: 0.000|x16: 0.315|x17: 0.000</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -6533,7 +6533,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>[0.31483734415667597, 0.25183475522880394, 0.22177201735942548, 0.21694668014067417, 0.20338369310532964, 0.19593450852036737, 0.1635667877828237, 0.1513877296746072, 0.13589954693254722, 0.12654784384236473]</t>
+          <t>[0.31484030633838467, 0.2518096004148937, 0.22175951527121113, 0.21687274459911776, 0.203372247134827, 0.1958919221628069, 0.16361079386960262, 0.15136823122078352, 0.13588307401490776, 0.1265417314420666]</t>
         </is>
       </c>
       <c r="H149" t="b">
@@ -6574,7 +6574,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>[0.1597675932029321, 0.14062050099839085, 0.10710509370018233, 0.10208639797269821]</t>
+          <t>[0.15986222042752218, 0.1406987834578114, 0.10711719571182196, 0.10217239325520429]</t>
         </is>
       </c>
       <c r="H150" t="b">
@@ -6615,7 +6615,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>[0.22062310510221017, 0.2088483866236434, 0.15789208138965755, 0.14854205648385688, 0.10173468226971534]</t>
+          <t>[0.22074211163848642, 0.20881155464694215, 0.15799788433464165, 0.14864302479533356, 0.10175021710269844]</t>
         </is>
       </c>
       <c r="H151" t="b">
@@ -6682,7 +6682,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.060|x5: 0.043|x6: 0.000|x7: 0.154|x8: 0.000|x9: 0.078|x10: 0.000|x11: 0.036|x12: 0.038|x13: 0.063|x14: 0.168|x15: 0.072|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.060|x5: 0.043|x6: 0.000|x7: 0.155|x8: 0.000|x9: 0.078|x10: 0.000|x11: 0.036|x12: 0.038|x13: 0.063|x14: 0.168|x15: 0.072|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -6697,7 +6697,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>[0.16771525844059892, 0.15449250013264237]</t>
+          <t>[0.16763042755985935, 0.1545267888917734]</t>
         </is>
       </c>
       <c r="H153" t="b">
@@ -6738,7 +6738,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>[0.11238495929681826]</t>
+          <t>[0.11244819320895917]</t>
         </is>
       </c>
       <c r="H154" t="b">
@@ -6779,7 +6779,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>[0.34979963660757935, 0.2319856258227095, 0.18223427957972993, 0.145766783035535, 0.10321263251492782, 0.10173177311799811, 0.10106138981063137]</t>
+          <t>[0.34987828050031305, 0.23203981526290787, 0.1823218089091069, 0.14570891266350455, 0.10320347670021271, 0.10173916343185516, 0.10105222224154871]</t>
         </is>
       </c>
       <c r="H155" t="b">
@@ -6820,7 +6820,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>[0.19393046357889812, 0.14710418936022057, 0.11228367235649536]</t>
+          <t>[0.19396366812296473, 0.14715105789818225, 0.11234614014583189]</t>
         </is>
       </c>
       <c r="H156" t="b">
@@ -6887,7 +6887,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.044|x6: 0.088|x7: 0.069|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.127|x12: 0.130|x13: 0.121|x14: 0.294|x15: 0.155|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.044|x6: 0.088|x7: 0.069|x8: 0.000|x9: 0.042|x10: 0.000|x11: 0.128|x12: 0.130|x13: 0.121|x14: 0.294|x15: 0.155|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>[0.2941983963797464, 0.15501219919592799, 0.12979586166484242, 0.127461419736853, 0.12106350458920656]</t>
+          <t>[0.29431765817152217, 0.15509533720323682, 0.12988933548198817, 0.12754424260005956, 0.12109623100031434]</t>
         </is>
       </c>
       <c r="H158" t="b">
@@ -6928,7 +6928,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.086|x3: 0.000|x4: 0.059|x5: 0.000|x6: 0.102|x7: 0.230|x8: 0.173|x9: 0.099|x10: 0.060|x11: 0.246|x12: 0.090|x13: 0.078|x14: 0.067|x15: 0.000|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.086|x3: 0.000|x4: 0.059|x5: 0.000|x6: 0.102|x7: 0.230|x8: 0.174|x9: 0.099|x10: 0.060|x11: 0.246|x12: 0.090|x13: 0.078|x14: 0.067|x15: 0.000|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6943,7 +6943,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>[0.24608235989658886, 0.22968831414268054, 0.17349274975258813, 0.10221466989040859]</t>
+          <t>[0.24612243322120586, 0.22980516308661159, 0.1735291817419834, 0.10230396944977607]</t>
         </is>
       </c>
       <c r="H159" t="b">
@@ -6969,7 +6969,7 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.128|x3: 0.000|x4: 0.108|x5: 0.061|x6: 0.170|x7: 0.097|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.216|x12: 0.166|x13: 0.000|x14: 0.119|x15: 0.138|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.129|x3: 0.000|x4: 0.108|x5: 0.061|x6: 0.170|x7: 0.097|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.216|x12: 0.166|x13: 0.000|x14: 0.119|x15: 0.138|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6984,7 +6984,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>[0.2156843624027661, 0.17024265552049223, 0.16640983559683947, 0.13812484051858354, 0.12848914101268022, 0.11925743355047427, 0.10829833853501859]</t>
+          <t>[0.21572081347070157, 0.17027327559990962, 0.16645021172004482, 0.13814985167709257, 0.12850440774383046, 0.11929792662551779, 0.1082840054045984]</t>
         </is>
       </c>
       <c r="H160" t="b">
@@ -7010,7 +7010,7 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.048|x12: 0.185|x13: 0.181|x14: 0.180|x15: 0.162|x16: 0.000|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.000|x4: 0.000|x5: 0.000|x6: 0.000|x7: 0.000|x8: 0.000|x9: 0.000|x10: 0.000|x11: 0.048|x12: 0.185|x13: 0.182|x14: 0.180|x15: 0.163|x16: 0.000|x17: 0.000</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>[0.18500039687628, 0.18147481459699757, 0.1803330148115071, 0.16242449603390108]</t>
+          <t>[0.18516800510500595, 0.18166505174832445, 0.180443561558806, 0.16252608811621388]</t>
         </is>
       </c>
       <c r="H161" t="b">
@@ -7066,7 +7066,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>[0.23979542037396406, 0.21293166003391348, 0.2106876496366091, 0.19729469905709968, 0.17713091470176054, 0.16901153568411342, 0.1509975526077796, 0.11976907708052034, 0.11911348262538143]</t>
+          <t>[0.23987711178665344, 0.2130335557835318, 0.21073725678998748, 0.19734308750594468, 0.17720244991956732, 0.16907940977488373, 0.1510426469977784, 0.11978129683328616, 0.1191565616238615]</t>
         </is>
       </c>
       <c r="H162" t="b">
@@ -7092,7 +7092,7 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>x1: 0.000|x2: 0.000|x3: 0.063|x4: 0.044|x5: 0.178|x6: 0.053|x7: 0.043|x8: 0.000|x9: 0.000|x10: 0.062|x11: 0.041|x12: 0.071|x13: 0.000|x14: 0.052|x15: 0.115|x16: 0.214|x17: 0.000</t>
+          <t>x1: 0.000|x2: 0.000|x3: 0.063|x4: 0.044|x5: 0.178|x6: 0.053|x7: 0.043|x8: 0.000|x9: 0.000|x10: 0.062|x11: 0.042|x12: 0.071|x13: 0.000|x14: 0.052|x15: 0.115|x16: 0.214|x17: 0.000</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -7107,7 +7107,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>[0.21378122151963752, 0.1776335199255995, 0.11490123419450646]</t>
+          <t>[0.21383763545030204, 0.177654502429582, 0.11496857180477249]</t>
         </is>
       </c>
       <c r="H163" t="b">
@@ -7148,7 +7148,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>[0.2461293045769164, 0.1814276657734811, 0.12186904430558362]</t>
+          <t>[0.24619922821695425, 0.1814971582107314, 0.12184319390557387]</t>
         </is>
       </c>
       <c r="H164" t="b">
@@ -7189,7 +7189,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>[0.20684049806974425, 0.2023978530356646, 0.15492850595998525, 0.15460606735324947, 0.14007091842813438, 0.1251658799570029]</t>
+          <t>[0.20684338466978772, 0.2024511085968216, 0.15496957802761954, 0.15462453215679314, 0.14009189789880885, 0.1252322549593636]</t>
         </is>
       </c>
       <c r="H165" t="b">
